--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="918">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">0.413796156644821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41653048992157</t>
+    <t xml:space="preserve">0.416530460119247</t>
   </si>
   <si>
     <t xml:space="preserve">0.393653213977814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400944769382477</t>
+    <t xml:space="preserve">0.400944799184799</t>
   </si>
   <si>
     <t xml:space="preserve">0.394108921289444</t>
@@ -77,22 +77,22 @@
     <t xml:space="preserve">0.397116720676422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382806986570358</t>
+    <t xml:space="preserve">0.382807016372681</t>
   </si>
   <si>
     <t xml:space="preserve">0.404681712388992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40987691283226</t>
+    <t xml:space="preserve">0.409876942634583</t>
   </si>
   <si>
     <t xml:space="preserve">0.405501961708069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408327460289001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.406778037548065</t>
+    <t xml:space="preserve">0.408327490091324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.406778007745743</t>
   </si>
   <si>
     <t xml:space="preserve">0.402767688035965</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">0.403314530849457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389096021652222</t>
+    <t xml:space="preserve">0.389095991849899</t>
   </si>
   <si>
     <t xml:space="preserve">0.37360143661499</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">0.359929740428925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338237375020981</t>
+    <t xml:space="preserve">0.338237345218658</t>
   </si>
   <si>
     <t xml:space="preserve">0.33240407705307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355463653802872</t>
+    <t xml:space="preserve">0.355463683605194</t>
   </si>
   <si>
     <t xml:space="preserve">0.355372488498688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385450184345245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391010046005249</t>
+    <t xml:space="preserve">0.385450214147568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391010016202927</t>
   </si>
   <si>
     <t xml:space="preserve">0.391465753316879</t>
@@ -140,31 +140,31 @@
     <t xml:space="preserve">0.392832905054092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406504601240158</t>
+    <t xml:space="preserve">0.40650463104248</t>
   </si>
   <si>
     <t xml:space="preserve">0.409694641828537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393835514783859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405593156814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402403116226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396569818258286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392650604248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392012625932693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396387547254562</t>
+    <t xml:space="preserve">0.393835484981537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405593127012253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402403056621552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396569848060608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392650634050369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392012596130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39638751745224</t>
   </si>
   <si>
     <t xml:space="preserve">0.401035904884338</t>
@@ -173,19 +173,19 @@
     <t xml:space="preserve">0.38836681842804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387728840112686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382169008255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383718460798264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39073657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389916300773621</t>
+    <t xml:space="preserve">0.387728780508041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382168978452682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383718430995941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390736609697342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389916330575943</t>
   </si>
   <si>
     <t xml:space="preserve">0.389642864465714</t>
@@ -197,61 +197,61 @@
     <t xml:space="preserve">0.356830835342407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346804916858673</t>
+    <t xml:space="preserve">0.346804887056351</t>
   </si>
   <si>
     <t xml:space="preserve">0.368132770061493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359018266201019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355190187692642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372416526079178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372598826885223</t>
+    <t xml:space="preserve">0.359018325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355190217494965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3724165558815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372598856687546</t>
   </si>
   <si>
     <t xml:space="preserve">0.364486962556839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387364238500595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373783737421036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373692572116852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391648024320602</t>
+    <t xml:space="preserve">0.387364268302917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373783707618713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373692601919174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39164799451828</t>
   </si>
   <si>
     <t xml:space="preserve">0.391830325126648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403679132461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395020365715027</t>
+    <t xml:space="preserve">0.403679102659225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395020395517349</t>
   </si>
   <si>
     <t xml:space="preserve">0.391101181507111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390463173389435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379161208868027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369135349988937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377338349819183</t>
+    <t xml:space="preserve">0.390463203191757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379161238670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369135320186615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377338379621506</t>
   </si>
   <si>
     <t xml:space="preserve">0.369044184684753</t>
@@ -263,16 +263,16 @@
     <t xml:space="preserve">0.373874872922897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372143089771271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372507691383362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366765558719635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373510271310806</t>
+    <t xml:space="preserve">0.372143149375916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372507661581039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366765588521957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373510241508484</t>
   </si>
   <si>
     <t xml:space="preserve">0.366856694221497</t>
@@ -281,28 +281,28 @@
     <t xml:space="preserve">0.379890382289886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382715851068497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368588477373123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.376609206199646</t>
+    <t xml:space="preserve">0.382715880870819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368588507175446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.376609176397324</t>
   </si>
   <si>
     <t xml:space="preserve">0.375150859355927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364669263362885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365489542484283</t>
+    <t xml:space="preserve">0.364669233560562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365489572286606</t>
   </si>
   <si>
     <t xml:space="preserve">0.367312461137772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370958268642426</t>
+    <t xml:space="preserve">0.370958238840103</t>
   </si>
   <si>
     <t xml:space="preserve">0.360020905733109</t>
@@ -314,31 +314,31 @@
     <t xml:space="preserve">0.350906431674957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354552209377289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37004679441452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373327940702438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364578068256378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354461073875427</t>
+    <t xml:space="preserve">0.354552179574966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370046764612198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373328000307083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364578127861023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354461044073105</t>
   </si>
   <si>
     <t xml:space="preserve">0.352455884218216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33996906876564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352273553609848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348354369401932</t>
+    <t xml:space="preserve">0.339969098567963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35227358341217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348354399204254</t>
   </si>
   <si>
     <t xml:space="preserve">0.344435185194016</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">0.337234735488892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333497822284698</t>
+    <t xml:space="preserve">0.333497792482376</t>
   </si>
   <si>
     <t xml:space="preserve">0.346166908740997</t>
@@ -365,25 +365,25 @@
     <t xml:space="preserve">0.326206237077713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324474513530731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327755749225616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329852044582367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245114803314</t>
+    <t xml:space="preserve">0.324474543333054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327755719423294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329852074384689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245085000992</t>
   </si>
   <si>
     <t xml:space="preserve">0.329487472772598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32766455411911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325294822454453</t>
+    <t xml:space="preserve">0.327664583921432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32529479265213</t>
   </si>
   <si>
     <t xml:space="preserve">0.326115131378174</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">0.340971678495407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337599366903305</t>
+    <t xml:space="preserve">0.337599337100983</t>
   </si>
   <si>
     <t xml:space="preserve">0.340515971183777</t>
@@ -404,22 +404,22 @@
     <t xml:space="preserve">0.340880542993546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341518580913544</t>
+    <t xml:space="preserve">0.341518551111221</t>
   </si>
   <si>
     <t xml:space="preserve">0.334865003824234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336323261260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335320740938187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33905765414238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32957860827446</t>
+    <t xml:space="preserve">0.336323291063309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335320770740509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339057624340057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329578638076782</t>
   </si>
   <si>
     <t xml:space="preserve">0.331766098737717</t>
@@ -434,52 +434,52 @@
     <t xml:space="preserve">0.328211456537247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332677513360977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328120350837708</t>
+    <t xml:space="preserve">0.3326775431633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328120291233063</t>
   </si>
   <si>
     <t xml:space="preserve">0.319917321205139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327208876609802</t>
+    <t xml:space="preserve">0.32720884680748</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226995706558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323016226291656</t>
+    <t xml:space="preserve">0.323016196489334</t>
   </si>
   <si>
     <t xml:space="preserve">0.320828706026077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36175262928009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335867583751678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333680152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330945760011673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33522954583168</t>
+    <t xml:space="preserve">0.361752599477768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335867553949356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333680123090744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330945789813995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335229575634003</t>
   </si>
   <si>
     <t xml:space="preserve">0.343432575464249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349083513021469</t>
+    <t xml:space="preserve">0.349083542823792</t>
   </si>
   <si>
     <t xml:space="preserve">0.338875383138657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342885673046112</t>
+    <t xml:space="preserve">0.342885732650757</t>
   </si>
   <si>
     <t xml:space="preserve">0.333771288394928</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">0.337690442800522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336687922477722</t>
+    <t xml:space="preserve">0.336687862873077</t>
   </si>
   <si>
     <t xml:space="preserve">0.378249764442444</t>
@@ -500,10 +500,10 @@
     <t xml:space="preserve">0.351088732481003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349265784025192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340151369571686</t>
+    <t xml:space="preserve">0.349265813827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340151339769363</t>
   </si>
   <si>
     <t xml:space="preserve">0.335594147443771</t>
@@ -512,37 +512,37 @@
     <t xml:space="preserve">0.342976868152618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34972158074379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345437794923782</t>
+    <t xml:space="preserve">0.349721550941467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34543776512146</t>
   </si>
   <si>
     <t xml:space="preserve">0.353549629449844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354916781187057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345073163509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34498205780983</t>
+    <t xml:space="preserve">0.35491681098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345073193311691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344981998205185</t>
   </si>
   <si>
     <t xml:space="preserve">0.328940600156784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854684114456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324109941720963</t>
+    <t xml:space="preserve">0.330854654312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32410991191864</t>
   </si>
   <si>
     <t xml:space="preserve">0.331310361623764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312352269887924</t>
+    <t xml:space="preserve">0.312352299690247</t>
   </si>
   <si>
     <t xml:space="preserve">0.316180348396301</t>
@@ -551,94 +551,94 @@
     <t xml:space="preserve">0.317091822624207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312625735998154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332586377859116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337143629789352</t>
+    <t xml:space="preserve">0.312625706195831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332586348056793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33714359998703</t>
   </si>
   <si>
     <t xml:space="preserve">0.337052434682846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338966488838196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146179914474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724101066589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109431505203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341336250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345346629619598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343614876270294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346258103847504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347260653972626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353184998035431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367298841476</t>
+    <t xml:space="preserve">0.338966518640518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724130868912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109461307526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341336280107498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345346599817276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343614846467972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346258074045181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347260683774948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353185027837753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367328643799</t>
   </si>
   <si>
     <t xml:space="preserve">0.362755209207535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381804436445236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380528390407562</t>
+    <t xml:space="preserve">0.381804406642914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38052836060524</t>
   </si>
   <si>
     <t xml:space="preserve">0.389825165271759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380892962217331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369408786296844</t>
+    <t xml:space="preserve">0.380892992019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369408756494522</t>
   </si>
   <si>
     <t xml:space="preserve">0.362390637397766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36293751001358</t>
+    <t xml:space="preserve">0.362937539815903</t>
   </si>
   <si>
     <t xml:space="preserve">0.361479222774506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361934900283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367585867643356</t>
+    <t xml:space="preserve">0.361934930086136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367585837841034</t>
   </si>
   <si>
     <t xml:space="preserve">0.368223905563354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370411306619644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363484382629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358744829893112</t>
+    <t xml:space="preserve">0.370411366224289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363484412431717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358744859695435</t>
   </si>
   <si>
     <t xml:space="preserve">0.357195407152176</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">0.347625225782394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35327622294426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093892335892</t>
+    <t xml:space="preserve">0.353276193141937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093922138214</t>
   </si>
   <si>
     <t xml:space="preserve">0.349994987249374</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">0.343250304460526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346075803041458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617426395416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350268393754959</t>
+    <t xml:space="preserve">0.346075773239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617456197739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350268423557281</t>
   </si>
   <si>
     <t xml:space="preserve">0.344890862703323</t>
@@ -686,16 +686,16 @@
     <t xml:space="preserve">0.349356949329376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358380287885666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353458493947983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104241847992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359747439622879</t>
+    <t xml:space="preserve">0.358380317687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35345846414566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104271650314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359747469425201</t>
   </si>
   <si>
     <t xml:space="preserve">0.359565138816833</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">0.36886191368103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37414824962616</t>
+    <t xml:space="preserve">0.374148279428482</t>
   </si>
   <si>
     <t xml:space="preserve">0.379525810480118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363575547933578</t>
+    <t xml:space="preserve">0.363575518131256</t>
   </si>
   <si>
     <t xml:space="preserve">0.352820515632629</t>
@@ -731,28 +731,28 @@
     <t xml:space="preserve">0.3565573990345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36157038807869</t>
+    <t xml:space="preserve">0.361570328474045</t>
   </si>
   <si>
     <t xml:space="preserve">0.360932320356369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362572908401489</t>
+    <t xml:space="preserve">0.362572938203812</t>
   </si>
   <si>
     <t xml:space="preserve">0.355919390916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35847145318985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368315011262894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369864493608475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374604046344757</t>
+    <t xml:space="preserve">0.358471423387527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368315041065216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369864523410797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374604016542435</t>
   </si>
   <si>
     <t xml:space="preserve">0.366674453020096</t>
@@ -761,40 +761,40 @@
     <t xml:space="preserve">0.369226485490799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372781097888947</t>
+    <t xml:space="preserve">0.372781127691269</t>
   </si>
   <si>
     <t xml:space="preserve">0.370867073535919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368041634559631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387273102998734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382533609867096</t>
+    <t xml:space="preserve">0.368041604757309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387273073196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382533580064774</t>
   </si>
   <si>
     <t xml:space="preserve">0.378340929746628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386270552873611</t>
+    <t xml:space="preserve">0.386270523071289</t>
   </si>
   <si>
     <t xml:space="preserve">0.384174168109894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380984127521515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260173559189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541379451752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386817365884781</t>
+    <t xml:space="preserve">0.380984157323837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260143756866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541349649429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386817395687103</t>
   </si>
   <si>
     <t xml:space="preserve">0.378978967666626</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">0.378523230552673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371505081653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869683265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366583287715912</t>
+    <t xml:space="preserve">0.371505111455917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869653463364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366583317518234</t>
   </si>
   <si>
     <t xml:space="preserve">0.365398406982422</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">0.360385447740555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363848924636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466263532639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355828195810318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377707958221</t>
+    <t xml:space="preserve">0.363848954439163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466233730316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35582822561264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377678155899</t>
   </si>
   <si>
     <t xml:space="preserve">0.357468843460083</t>
@@ -854,13 +854,13 @@
     <t xml:space="preserve">0.358653753995895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364851534366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355645954608917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362117201089859</t>
+    <t xml:space="preserve">0.36485156416893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355645924806595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362117230892181</t>
   </si>
   <si>
     <t xml:space="preserve">0.366036415100098</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">0.363757848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356921970844269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361661434173584</t>
+    <t xml:space="preserve">0.356922000646591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361661523580551</t>
   </si>
   <si>
     <t xml:space="preserve">0.355554819107056</t>
@@ -881,13 +881,13 @@
     <t xml:space="preserve">0.358927130699158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361114650964737</t>
+    <t xml:space="preserve">0.361114621162415</t>
   </si>
   <si>
     <t xml:space="preserve">0.358289122581482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360112011432648</t>
+    <t xml:space="preserve">0.36011204123497</t>
   </si>
   <si>
     <t xml:space="preserve">0.365945279598236</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">0.367950439453125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3643958568573</t>
+    <t xml:space="preserve">0.364395827054977</t>
   </si>
   <si>
     <t xml:space="preserve">0.359291732311249</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">0.365124970674515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377247214317322</t>
+    <t xml:space="preserve">0.377247184514999</t>
   </si>
   <si>
     <t xml:space="preserve">0.37888777256012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3812575340271</t>
+    <t xml:space="preserve">0.381257563829422</t>
   </si>
   <si>
     <t xml:space="preserve">0.379799216985703</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">0.371413975954056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380801856517792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377611756324768</t>
+    <t xml:space="preserve">0.380801826715469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37761178612709</t>
   </si>
   <si>
     <t xml:space="preserve">0.381713271141052</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">0.381530970335007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382898151874542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372689962387085</t>
+    <t xml:space="preserve">0.38289812207222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372689932584763</t>
   </si>
   <si>
     <t xml:space="preserve">0.373965978622437</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">0.366309851408005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359474003314972</t>
+    <t xml:space="preserve">0.359474033117294</t>
   </si>
   <si>
     <t xml:space="preserve">0.358015686273575</t>
@@ -968,25 +968,25 @@
     <t xml:space="preserve">0.362208366394043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348810076713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357924550771713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357742309570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357013136148453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359656304121017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36412239074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363666623830795</t>
+    <t xml:space="preserve">0.348810136318207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357924580574036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35774227976799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35701310634613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359656274318695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364122420549393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363666653633118</t>
   </si>
   <si>
     <t xml:space="preserve">0.354734510183334</t>
@@ -995,13 +995,13 @@
     <t xml:space="preserve">0.355737119913101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365671843290329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361843764781952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366401016712189</t>
+    <t xml:space="preserve">0.365671873092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361843794584274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366401046514511</t>
   </si>
   <si>
     <t xml:space="preserve">0.35181787610054</t>
@@ -1016,37 +1016,37 @@
     <t xml:space="preserve">0.335411876440048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329031765460968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329943209886551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322651594877243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563039302826</t>
+    <t xml:space="preserve">0.329031735658646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329943150281906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.322651624679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563098907471</t>
   </si>
   <si>
     <t xml:space="preserve">0.321740120649338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334500461816788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342703431844711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319005846977234</t>
+    <t xml:space="preserve">0.334500432014465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342703402042389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319005817174911</t>
   </si>
   <si>
     <t xml:space="preserve">0.317182958126068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316271513700485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326297432184219</t>
+    <t xml:space="preserve">0.316271543502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326297402381897</t>
   </si>
   <si>
     <t xml:space="preserve">0.318094402551651</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">0.310802817344666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301688373088837</t>
+    <t xml:space="preserve">0.301688402891159</t>
   </si>
   <si>
     <t xml:space="preserve">0.302599847316742</t>
@@ -1064,43 +1064,43 @@
     <t xml:space="preserve">0.309891402721405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308068484067917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314448624849319</t>
+    <t xml:space="preserve">0.308068513870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314448595046997</t>
   </si>
   <si>
     <t xml:space="preserve">0.311714291572571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30442276597023</t>
+    <t xml:space="preserve">0.304422706365585</t>
   </si>
   <si>
     <t xml:space="preserve">0.305334180593491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306245625019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29895406961441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865484237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776928663254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303511291742325</t>
+    <t xml:space="preserve">0.306245565414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298954039812088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865514039993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776958465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303511261940002</t>
   </si>
   <si>
     <t xml:space="preserve">0.307157039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313537210226059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3089799284935</t>
+    <t xml:space="preserve">0.313537180423737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308979958295822</t>
   </si>
   <si>
     <t xml:space="preserve">0.315360069274902</t>
@@ -1118,46 +1118,46 @@
     <t xml:space="preserve">0.342664003372192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335214823484421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338008284568787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336145967245102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347319751977921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354768991470337</t>
+    <t xml:space="preserve">0.335214763879776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338008254766464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33614593744278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347319781780243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354769021272659</t>
   </si>
   <si>
     <t xml:space="preserve">0.349182039499283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346388608217239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341732889413834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352906703948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345457434654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343595117330551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337077111005783</t>
+    <t xml:space="preserve">0.346388578414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341732859611511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352906674146652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345457464456558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343595147132874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337077051401138</t>
   </si>
   <si>
     <t xml:space="preserve">0.340801686048508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339870542287827</t>
+    <t xml:space="preserve">0.339870572090149</t>
   </si>
   <si>
     <t xml:space="preserve">0.338939398527145</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">0.353837817907333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372460842132568</t>
+    <t xml:space="preserve">0.372460901737213</t>
   </si>
   <si>
     <t xml:space="preserve">0.358493596315384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363149344921112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362218201160431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631249189377</t>
+    <t xml:space="preserve">0.363149374723434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362218171358109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631278991699</t>
   </si>
   <si>
     <t xml:space="preserve">0.36128705739975</t>
@@ -1193,40 +1193,40 @@
     <t xml:space="preserve">0.368736267089844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366873949766159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371529668569565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385497003793716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378047794103622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379910111427307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38829043507576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.415293872356415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404120028018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.399464309215546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.407844662666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414362728595734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395739674568176</t>
+    <t xml:space="preserve">0.366873979568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371529698371887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385497033596039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3780477643013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379910081624985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388290494680405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.415293902158737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404120057821274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399464279413223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.407844632863998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414362698793411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395739704370499</t>
   </si>
   <si>
     <t xml:space="preserve">0.400395452976227</t>
@@ -1241,13 +1241,13 @@
     <t xml:space="preserve">0.409706950187683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391083896160126</t>
+    <t xml:space="preserve">0.391083925962448</t>
   </si>
   <si>
     <t xml:space="preserve">0.40318888425827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396670818328857</t>
+    <t xml:space="preserve">0.39667084813118</t>
   </si>
   <si>
     <t xml:space="preserve">0.401326566934586</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">0.424605399370193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44415956735611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474887609481812</t>
+    <t xml:space="preserve">0.444159537553787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474887579679489</t>
   </si>
   <si>
     <t xml:space="preserve">0.458126902580261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452539950609207</t>
+    <t xml:space="preserve">0.45253998041153</t>
   </si>
   <si>
     <t xml:space="preserve">0.455333411693573</t>
@@ -1286,10 +1286,10 @@
     <t xml:space="preserve">0.450677633285522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446953058242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446021914482117</t>
+    <t xml:space="preserve">0.446953028440475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446021884679794</t>
   </si>
   <si>
     <t xml:space="preserve">0.453471094369888</t>
@@ -1301,10 +1301,10 @@
     <t xml:space="preserve">0.471162974834442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476749956607819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.457195729017258</t>
+    <t xml:space="preserve">0.476749926805496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.457195699214935</t>
   </si>
   <si>
     <t xml:space="preserve">0.459057986736298</t>
@@ -1313,19 +1313,19 @@
     <t xml:space="preserve">0.460920333862305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445090711116791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.439503848552704</t>
+    <t xml:space="preserve">0.445090740919113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.439503818750381</t>
   </si>
   <si>
     <t xml:space="preserve">0.451608806848526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447884231805801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44881534576416</t>
+    <t xml:space="preserve">0.447884202003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448815375566483</t>
   </si>
   <si>
     <t xml:space="preserve">0.440434992313385</t>
@@ -1337,31 +1337,31 @@
     <t xml:space="preserve">0.653668880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744921684265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672291934490204</t>
+    <t xml:space="preserve">0.744921803474426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672291874885559</t>
   </si>
   <si>
     <t xml:space="preserve">0.657393336296082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687190234661102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.666705012321472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638770401477814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6108358502388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590350568294525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568002760410309</t>
+    <t xml:space="preserve">0.687190294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.666704952716827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.638770341873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610835790634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59035050868988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568002879619598</t>
   </si>
   <si>
     <t xml:space="preserve">0.608973503112793</t>
@@ -1370,19 +1370,19 @@
     <t xml:space="preserve">0.635045766830444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631321132183075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629458844661713</t>
+    <t xml:space="preserve">0.63132119178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629458904266357</t>
   </si>
   <si>
     <t xml:space="preserve">0.633183479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640632748603821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642495036125183</t>
+    <t xml:space="preserve">0.640632688999176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642494976520538</t>
   </si>
   <si>
     <t xml:space="preserve">0.644357323646545</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">0.62759655714035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.601524293422699</t>
+    <t xml:space="preserve">0.601524353027344</t>
   </si>
   <si>
     <t xml:space="preserve">0.57731431722641</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">0.525169849395752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515858292579651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.527032136917114</t>
+    <t xml:space="preserve">0.515858352184296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.527032196521759</t>
   </si>
   <si>
     <t xml:space="preserve">0.50282222032547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510663509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499097585678101</t>
+    <t xml:space="preserve">0.493510603904724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499097555875778</t>
   </si>
   <si>
     <t xml:space="preserve">0.486061424016953</t>
@@ -1430,25 +1430,25 @@
     <t xml:space="preserve">0.435779213905334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44229730963707</t>
+    <t xml:space="preserve">0.442297279834747</t>
   </si>
   <si>
     <t xml:space="preserve">0.491648316383362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500959873199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513995945453644</t>
+    <t xml:space="preserve">0.500959932804108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513996064662933</t>
   </si>
   <si>
     <t xml:space="preserve">0.510271370410919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508409142494202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512133657932281</t>
+    <t xml:space="preserve">0.508409082889557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512133717536926</t>
   </si>
   <si>
     <t xml:space="preserve">0.543792843818665</t>
@@ -1457,64 +1457,64 @@
     <t xml:space="preserve">0.540068209171295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.571727395057678</t>
+    <t xml:space="preserve">0.571727454662323</t>
   </si>
   <si>
     <t xml:space="preserve">0.582901239395142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566140532493591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.558691382408142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538206040859222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530756711959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528894484043121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549379765987396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532619059085846</t>
+    <t xml:space="preserve">0.566140472888947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.558691322803497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538205981254578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530756771564484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528894424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549379825592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532619118690491</t>
   </si>
   <si>
     <t xml:space="preserve">0.521445155143738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517720580101013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506546914577484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536343693733215</t>
+    <t xml:space="preserve">0.517720639705658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546795368195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536343634128571</t>
   </si>
   <si>
     <t xml:space="preserve">0.564278244972229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.575451970100403</t>
+    <t xml:space="preserve">0.575452029705048</t>
   </si>
   <si>
     <t xml:space="preserve">0.579176664352417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.592212855815887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551242053508759</t>
+    <t xml:space="preserve">0.592212736606598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551242113113403</t>
   </si>
   <si>
     <t xml:space="preserve">0.557269692420959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.56674712896347</t>
+    <t xml:space="preserve">0.566747069358826</t>
   </si>
   <si>
     <t xml:space="preserve">0.549687743186951</t>
@@ -1526,25 +1526,25 @@
     <t xml:space="preserve">0.551583290100098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5534787774086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.559165120124817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.542105913162231</t>
+    <t xml:space="preserve">0.553478717803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.559165179729462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.542105972766876</t>
   </si>
   <si>
     <t xml:space="preserve">0.544001340866089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540210425853729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547792375087738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545896768569946</t>
+    <t xml:space="preserve">0.540210366249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547792315483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.545896828174591</t>
   </si>
   <si>
     <t xml:space="preserve">0.534524023532867</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">0.525046586990356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51936012506485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51556932926178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513673722743988</t>
+    <t xml:space="preserve">0.519360184669495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.515569269657135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513673782348633</t>
   </si>
   <si>
     <t xml:space="preserve">0.523151159286499</t>
@@ -1577,55 +1577,55 @@
     <t xml:space="preserve">0.538314938545227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530733048915863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583806335926056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73544442653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73923522233963</t>
+    <t xml:space="preserve">0.530732989311218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583806395530701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735444366931915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.739235281944275</t>
   </si>
   <si>
     <t xml:space="preserve">0.693743884563446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653938949108124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633088648319244</t>
+    <t xml:space="preserve">0.653938889503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633088707923889</t>
   </si>
   <si>
     <t xml:space="preserve">0.686161994934082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.676684558391571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682371079921722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.659625291824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669102668762207</t>
+    <t xml:space="preserve">0.676684617996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682371020317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.659625351428986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669102609157562</t>
   </si>
   <si>
     <t xml:space="preserve">0.663416266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644461512565613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650147974491119</t>
+    <t xml:space="preserve">0.644461572170258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650147914886475</t>
   </si>
   <si>
     <t xml:space="preserve">0.640670597553253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655834376811981</t>
+    <t xml:space="preserve">0.655834436416626</t>
   </si>
   <si>
     <t xml:space="preserve">0.634984195232391</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">0.62929779291153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62550675868988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619820296764374</t>
+    <t xml:space="preserve">0.625506818294525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619820356369019</t>
   </si>
   <si>
     <t xml:space="preserve">0.616029441356659</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">0.602761089801788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593283712863922</t>
+    <t xml:space="preserve">0.593283653259277</t>
   </si>
   <si>
     <t xml:space="preserve">0.58759731054306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.608447551727295</t>
+    <t xml:space="preserve">0.60844749212265</t>
   </si>
   <si>
     <t xml:space="preserve">0.597074687480927</t>
@@ -1670,10 +1670,10 @@
     <t xml:space="preserve">0.652043461799622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.636879682540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.617924928665161</t>
+    <t xml:space="preserve">0.636879563331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.617924869060516</t>
   </si>
   <si>
     <t xml:space="preserve">0.598970174789429</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">0.600865662097931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610342979431152</t>
+    <t xml:space="preserve">0.610343039035797</t>
   </si>
   <si>
     <t xml:space="preserve">0.555374264717102</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">0.53262847661972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578119874000549</t>
+    <t xml:space="preserve">0.578119933605194</t>
   </si>
   <si>
     <t xml:space="preserve">0.576224386692047</t>
@@ -1709,10 +1709,10 @@
     <t xml:space="preserve">0.572433471679688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59138822555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.614134013652802</t>
+    <t xml:space="preserve">0.591388285160065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.614133954048157</t>
   </si>
   <si>
     <t xml:space="preserve">0.674789190292358</t>
@@ -1721,22 +1721,22 @@
     <t xml:space="preserve">0.665311813354492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691848397254944</t>
+    <t xml:space="preserve">0.691848456859589</t>
   </si>
   <si>
     <t xml:space="preserve">0.699430346488953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.678580164909363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672893643379211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66720724105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657729864120483</t>
+    <t xml:space="preserve">0.678580105304718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672893702983856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667207181453705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657729923725128</t>
   </si>
   <si>
     <t xml:space="preserve">0.705116748809814</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">0.69753485918045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688057482242584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68047559261322</t>
+    <t xml:space="preserve">0.688057541847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680475533008575</t>
   </si>
   <si>
     <t xml:space="preserve">0.648252546787262</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">0.799890518188477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758190035820007</t>
+    <t xml:space="preserve">0.758190095424652</t>
   </si>
   <si>
     <t xml:space="preserve">0.788517653942108</t>
@@ -1772,46 +1772,43 @@
     <t xml:space="preserve">0.761981070041656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75629460811615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752503633499146</t>
+    <t xml:space="preserve">0.75629448890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75250369310379</t>
   </si>
   <si>
     <t xml:space="preserve">0.748712718486786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724071502685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727862536907196</t>
+    <t xml:space="preserve">0.724071443080902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727862477302551</t>
   </si>
   <si>
     <t xml:space="preserve">0.731653451919556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733548820018768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72596687078476</t>
+    <t xml:space="preserve">0.733548879623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725966930389404</t>
   </si>
   <si>
     <t xml:space="preserve">0.750608146190643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744921743869781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743026256561279</t>
+    <t xml:space="preserve">0.743026196956635</t>
   </si>
   <si>
     <t xml:space="preserve">0.741130769252777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746817171573639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.737339854240417</t>
+    <t xml:space="preserve">0.746817231178284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.737339794635773</t>
   </si>
   <si>
     <t xml:space="preserve">0.729757964611053</t>
@@ -1820,34 +1817,34 @@
     <t xml:space="preserve">0.722176074981689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77714478969574</t>
+    <t xml:space="preserve">0.777144849300385</t>
   </si>
   <si>
     <t xml:space="preserve">0.769562840461731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76008552312851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.754399120807648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813158869743347</t>
+    <t xml:space="preserve">0.760085582733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.754399061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813158810138702</t>
   </si>
   <si>
     <t xml:space="preserve">0.824638724327087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816985487937927</t>
+    <t xml:space="preserve">0.816985428333282</t>
   </si>
   <si>
     <t xml:space="preserve">0.803592264652252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788285732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792112410068512</t>
+    <t xml:space="preserve">0.788285791873932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792112350463867</t>
   </si>
   <si>
     <t xml:space="preserve">0.763412654399872</t>
@@ -1856,7 +1853,7 @@
     <t xml:space="preserve">0.757672727108002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.753846049308777</t>
+    <t xml:space="preserve">0.753846108913422</t>
   </si>
   <si>
     <t xml:space="preserve">0.755759418010712</t>
@@ -1865,7 +1862,7 @@
     <t xml:space="preserve">0.742366254329681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.738539576530457</t>
+    <t xml:space="preserve">0.738539636135101</t>
   </si>
   <si>
     <t xml:space="preserve">0.736626267433167</t>
@@ -1880,13 +1877,13 @@
     <t xml:space="preserve">0.746192753314972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.740452826023102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.732799530029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.721319794654846</t>
+    <t xml:space="preserve">0.740452885627747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.732799589633942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.721319735050201</t>
   </si>
   <si>
     <t xml:space="preserve">0.715579807758331</t>
@@ -1904,7 +1901,7 @@
     <t xml:space="preserve">0.690706670284271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.698359906673431</t>
+    <t xml:space="preserve">0.698359966278076</t>
   </si>
   <si>
     <t xml:space="preserve">0.730886280536652</t>
@@ -1913,10 +1910,10 @@
     <t xml:space="preserve">0.759586036205292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771065950393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750019431114197</t>
+    <t xml:space="preserve">0.771065890789032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750019371509552</t>
   </si>
   <si>
     <t xml:space="preserve">0.765325963497162</t>
@@ -1928,13 +1925,13 @@
     <t xml:space="preserve">0.774892508983612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.784459114074707</t>
+    <t xml:space="preserve">0.784459173679352</t>
   </si>
   <si>
     <t xml:space="preserve">0.778719186782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782545804977417</t>
+    <t xml:space="preserve">0.782545864582062</t>
   </si>
   <si>
     <t xml:space="preserve">0.776805818080902</t>
@@ -1952,16 +1949,16 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734713017940521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717493057250977</t>
+    <t xml:space="preserve">0.734712898731232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717493116855621</t>
   </si>
   <si>
     <t xml:space="preserve">0.709839820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727059602737427</t>
+    <t xml:space="preserve">0.727059662342072</t>
   </si>
   <si>
     <t xml:space="preserve">0.719406366348267</t>
@@ -1970,22 +1967,22 @@
     <t xml:space="preserve">0.723233044147491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851425170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937524318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903084635734558</t>
+    <t xml:space="preserve">0.851425111293793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937524378299713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903084576129913</t>
   </si>
   <si>
     <t xml:space="preserve">0.904997944831848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883951544761658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895431339740753</t>
+    <t xml:space="preserve">0.883951485157013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895431399345398</t>
   </si>
   <si>
     <t xml:space="preserve">0.843771934509277</t>
@@ -1997,25 +1994,25 @@
     <t xml:space="preserve">0.853338479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876298189163208</t>
+    <t xml:space="preserve">0.876298308372498</t>
   </si>
   <si>
     <t xml:space="preserve">0.880124866962433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887778103351593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885864853858948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878211557865143</t>
+    <t xml:space="preserve">0.887778043746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885864794254303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878211498260498</t>
   </si>
   <si>
     <t xml:space="preserve">1.10015606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01884031295776</t>
+    <t xml:space="preserve">1.01884019374847</t>
   </si>
   <si>
     <t xml:space="preserve">1.0858062505722</t>
@@ -2027,19 +2024,19 @@
     <t xml:space="preserve">1.10972261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19582176208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21017158031464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885570526123</t>
+    <t xml:space="preserve">1.19582188129425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21017181873322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885582447052</t>
   </si>
   <si>
     <t xml:space="preserve">1.04275667667389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09537267684937</t>
+    <t xml:space="preserve">1.09537279605865</t>
   </si>
   <si>
     <t xml:space="preserve">1.1049393415451</t>
@@ -2057,16 +2054,16 @@
     <t xml:space="preserve">1.18147194385529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13842236995697</t>
+    <t xml:space="preserve">1.13842248916626</t>
   </si>
   <si>
     <t xml:space="preserve">1.08102285861969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09058952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07623958587646</t>
+    <t xml:space="preserve">1.09058940410614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07623970508575</t>
   </si>
   <si>
     <t xml:space="preserve">1.05232322216034</t>
@@ -2075,7 +2072,7 @@
     <t xml:space="preserve">1.03797328472137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11450600624084</t>
+    <t xml:space="preserve">1.11450588703156</t>
   </si>
   <si>
     <t xml:space="preserve">1.13363897800446</t>
@@ -2084,19 +2081,19 @@
     <t xml:space="preserve">1.06667304039001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03319001197815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02362358570099</t>
+    <t xml:space="preserve">1.03319013118744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0236234664917</t>
   </si>
   <si>
     <t xml:space="preserve">0.994923770427704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922217786312103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999706983566284</t>
+    <t xml:space="preserve">0.922217845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999707043170929</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
@@ -2108,19 +2105,19 @@
     <t xml:space="preserve">0.914564490318298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872471630573273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891604721546173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945177555084229</t>
+    <t xml:space="preserve">0.872471570968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891604781150818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945177495479584</t>
   </si>
   <si>
     <t xml:space="preserve">0.966224074363708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04753994941711</t>
+    <t xml:space="preserve">1.0475400686264</t>
   </si>
   <si>
     <t xml:space="preserve">0.949004173278809</t>
@@ -2132,7 +2129,7 @@
     <t xml:space="preserve">0.910737931728363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941350936889648</t>
+    <t xml:space="preserve">0.941350996494293</t>
   </si>
   <si>
     <t xml:space="preserve">0.954744160175323</t>
@@ -2141,7 +2138,7 @@
     <t xml:space="preserve">0.956657469272614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943264245986938</t>
+    <t xml:space="preserve">0.943264305591583</t>
   </si>
   <si>
     <t xml:space="preserve">0.958570778369904</t>
@@ -2156,7 +2153,7 @@
     <t xml:space="preserve">0.899258017539978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889691412448883</t>
+    <t xml:space="preserve">0.889691472053528</t>
   </si>
   <si>
     <t xml:space="preserve">0.884908199310303</t>
@@ -2168,28 +2165,28 @@
     <t xml:space="preserve">0.875341594219208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865774989128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860991656780243</t>
+    <t xml:space="preserve">0.865775048732758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860991716384888</t>
   </si>
   <si>
     <t xml:space="preserve">0.818898797035217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920304477214813</t>
+    <t xml:space="preserve">0.920304536819458</t>
   </si>
   <si>
     <t xml:space="preserve">0.904041290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901171326637268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845685184001923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846641838550568</t>
+    <t xml:space="preserve">0.901171267032623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845685243606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846641778945923</t>
   </si>
   <si>
     <t xml:space="preserve">0.837075293064117</t>
@@ -2198,7 +2195,7 @@
     <t xml:space="preserve">0.870558321475983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866731703281403</t>
+    <t xml:space="preserve">0.866731643676758</t>
   </si>
   <si>
     <t xml:space="preserve">0.983443856239319</t>
@@ -2207,13 +2204,13 @@
     <t xml:space="preserve">0.939437627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940394282341003</t>
+    <t xml:space="preserve">0.940394222736359</t>
   </si>
   <si>
     <t xml:space="preserve">0.929871022701263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877254903316498</t>
+    <t xml:space="preserve">0.877254843711853</t>
   </si>
   <si>
     <t xml:space="preserve">0.839945256710052</t>
@@ -37266,7 +37263,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1314" t="s">
-        <v>595</v>
+        <v>441</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37318,7 +37315,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1316" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37344,7 +37341,7 @@
         <v>0.782000005245209</v>
       </c>
       <c r="G1317" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37422,7 +37419,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1320" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37448,7 +37445,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1321" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37526,7 +37523,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1324" t="s">
-        <v>595</v>
+        <v>441</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37552,7 +37549,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1325" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37578,7 +37575,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1326" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37734,7 +37731,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1332" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37760,7 +37757,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1333" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37838,7 +37835,7 @@
         <v>0.782000005245209</v>
       </c>
       <c r="G1336" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37864,7 +37861,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1337" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37890,7 +37887,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1338" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37942,7 +37939,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1340" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38072,7 +38069,7 @@
         <v>0.762000024318695</v>
       </c>
       <c r="G1345" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38124,7 +38121,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1347" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38150,7 +38147,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1348" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38176,7 +38173,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1349" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38228,7 +38225,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1351" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38280,7 +38277,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1353" t="s">
-        <v>595</v>
+        <v>441</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38332,7 +38329,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1355" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38358,7 +38355,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1356" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38410,7 +38407,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1358" t="s">
-        <v>595</v>
+        <v>441</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38540,7 +38537,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1363" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38566,7 +38563,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1364" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38592,7 +38589,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1365" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38618,7 +38615,7 @@
         <v>0.796000003814697</v>
       </c>
       <c r="G1366" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38644,7 +38641,7 @@
         <v>0.796000003814697</v>
       </c>
       <c r="G1367" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38696,7 +38693,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1369" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38982,7 +38979,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1380" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39008,7 +39005,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1381" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39060,7 +39057,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1383" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39086,7 +39083,7 @@
         <v>0.861999988555908</v>
       </c>
       <c r="G1384" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39112,7 +39109,7 @@
         <v>0.853999972343445</v>
       </c>
       <c r="G1385" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39138,7 +39135,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G1386" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39164,7 +39161,7 @@
         <v>0.824000000953674</v>
       </c>
       <c r="G1387" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39190,7 +39187,7 @@
         <v>0.828000009059906</v>
       </c>
       <c r="G1388" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39216,7 +39213,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1389" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39242,7 +39239,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1390" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39268,7 +39265,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1391" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39294,7 +39291,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1392" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39320,7 +39317,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1393" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39346,7 +39343,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1394" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39372,7 +39369,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1395" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39398,7 +39395,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1396" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39424,7 +39421,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1397" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39450,7 +39447,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1398" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39476,7 +39473,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1399" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39502,7 +39499,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1400" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39528,7 +39525,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1401" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39554,7 +39551,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1402" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39580,7 +39577,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1403" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39606,7 +39603,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1404" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39632,7 +39629,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1405" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39658,7 +39655,7 @@
         <v>0.754000008106232</v>
       </c>
       <c r="G1406" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39684,7 +39681,7 @@
         <v>0.748000025749207</v>
       </c>
       <c r="G1407" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39710,7 +39707,7 @@
         <v>0.745999991893768</v>
       </c>
       <c r="G1408" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39736,7 +39733,7 @@
         <v>0.726000010967255</v>
       </c>
       <c r="G1409" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39762,7 +39759,7 @@
         <v>0.71399998664856</v>
       </c>
       <c r="G1410" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39788,7 +39785,7 @@
         <v>0.722000002861023</v>
       </c>
       <c r="G1411" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39814,7 +39811,7 @@
         <v>0.730000019073486</v>
       </c>
       <c r="G1412" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39840,7 +39837,7 @@
         <v>0.763999998569489</v>
       </c>
       <c r="G1413" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39866,7 +39863,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1414" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39892,7 +39889,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1415" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39918,7 +39915,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1416" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39944,7 +39941,7 @@
         <v>0.805999994277954</v>
       </c>
       <c r="G1417" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39970,7 +39967,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1418" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39996,7 +39993,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1419" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40022,7 +40019,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1420" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40048,7 +40045,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1421" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40074,7 +40071,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1422" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40100,7 +40097,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1423" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40126,7 +40123,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G1424" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40152,7 +40149,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1425" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40178,7 +40175,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G1426" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40204,7 +40201,7 @@
         <v>0.814000010490417</v>
       </c>
       <c r="G1427" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40230,7 +40227,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G1428" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40256,7 +40253,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1429" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40282,7 +40279,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1430" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40308,7 +40305,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G1431" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40334,7 +40331,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1432" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40360,7 +40357,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1433" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40386,7 +40383,7 @@
         <v>0.814000010490417</v>
       </c>
       <c r="G1434" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40412,7 +40409,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1435" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40438,7 +40435,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1436" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40464,7 +40461,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1437" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40490,7 +40487,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1438" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40516,7 +40513,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1439" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40542,7 +40539,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1440" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40568,7 +40565,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1441" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40594,7 +40591,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G1442" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40620,7 +40617,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1443" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40646,7 +40643,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1444" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40672,7 +40669,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1445" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40698,7 +40695,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1446" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40724,7 +40721,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1447" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40750,7 +40747,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1448" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40776,7 +40773,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1449" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40802,7 +40799,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1450" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40828,7 +40825,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1451" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40854,7 +40851,7 @@
         <v>0.796000003814697</v>
       </c>
       <c r="G1452" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40880,7 +40877,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1453" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40906,7 +40903,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1454" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40932,7 +40929,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1455" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40958,7 +40955,7 @@
         <v>0.805999994277954</v>
       </c>
       <c r="G1456" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40984,7 +40981,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1457" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41010,7 +41007,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1458" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41036,7 +41033,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1459" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41062,7 +41059,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1460" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41088,7 +41085,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1461" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41114,7 +41111,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1462" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41140,7 +41137,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1463" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41166,7 +41163,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1464" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41192,7 +41189,7 @@
         <v>0.782000005245209</v>
       </c>
       <c r="G1465" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41218,7 +41215,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1466" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41244,7 +41241,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1467" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41270,7 +41267,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1468" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41296,7 +41293,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1469" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41322,7 +41319,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1470" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41348,7 +41345,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1471" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41374,7 +41371,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1472" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41400,7 +41397,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1473" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41426,7 +41423,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1474" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41452,7 +41449,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1475" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41478,7 +41475,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1476" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41504,7 +41501,7 @@
         <v>0.763999998569489</v>
       </c>
       <c r="G1477" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41530,7 +41527,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1478" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41556,7 +41553,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1479" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41582,7 +41579,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1480" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41608,7 +41605,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1481" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41634,7 +41631,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1482" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41660,7 +41657,7 @@
         <v>0.75</v>
       </c>
       <c r="G1483" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41686,7 +41683,7 @@
         <v>0.745999991893768</v>
       </c>
       <c r="G1484" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41712,7 +41709,7 @@
         <v>0.741999983787537</v>
       </c>
       <c r="G1485" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41738,7 +41735,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1486" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41764,7 +41761,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1487" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41790,7 +41787,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G1488" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41816,7 +41813,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1489" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41842,7 +41839,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1490" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41868,7 +41865,7 @@
         <v>0.751999974250793</v>
       </c>
       <c r="G1491" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41894,7 +41891,7 @@
         <v>0.755999982357025</v>
       </c>
       <c r="G1492" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41920,7 +41917,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G1493" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41946,7 +41943,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G1494" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41972,7 +41969,7 @@
         <v>0.824000000953674</v>
       </c>
       <c r="G1495" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41998,7 +41995,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1496" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42024,7 +42021,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1497" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42050,7 +42047,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G1498" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42076,7 +42073,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1499" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42102,7 +42099,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G1500" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42128,7 +42125,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1501" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42154,7 +42151,7 @@
         <v>0.935999989509583</v>
       </c>
       <c r="G1502" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42180,7 +42177,7 @@
         <v>0.882000029087067</v>
       </c>
       <c r="G1503" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42206,7 +42203,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1504" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42232,7 +42229,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1505" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42258,7 +42255,7 @@
         <v>0.916000008583069</v>
       </c>
       <c r="G1506" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42284,7 +42281,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1507" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42310,7 +42307,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1508" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42336,7 +42333,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1509" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42362,7 +42359,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1510" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42388,7 +42385,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1511" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42414,7 +42411,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1512" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42440,7 +42437,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G1513" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42466,7 +42463,7 @@
         <v>1.13499999046326</v>
       </c>
       <c r="G1514" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42492,7 +42489,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1515" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42518,7 +42515,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1516" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42544,7 +42541,7 @@
         <v>1.25</v>
       </c>
       <c r="G1517" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42570,7 +42567,7 @@
         <v>1.26499998569489</v>
       </c>
       <c r="G1518" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42596,7 +42593,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1519" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42622,7 +42619,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1520" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42648,7 +42645,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1521" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42674,7 +42671,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1522" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42700,7 +42697,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1523" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42726,7 +42723,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G1524" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42752,7 +42749,7 @@
         <v>1.17499995231628</v>
       </c>
       <c r="G1525" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42778,7 +42775,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42804,7 +42801,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1527" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42830,7 +42827,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1528" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42856,7 +42853,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1529" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42882,7 +42879,7 @@
         <v>1.23500001430511</v>
       </c>
       <c r="G1530" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42908,7 +42905,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1531" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42934,7 +42931,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1532" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42960,7 +42957,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1533" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42986,7 +42983,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1534" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43012,7 +43009,7 @@
         <v>1.125</v>
       </c>
       <c r="G1535" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43038,7 +43035,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1536" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43064,7 +43061,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G1537" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43090,7 +43087,7 @@
         <v>1.16499996185303</v>
       </c>
       <c r="G1538" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43116,7 +43113,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G1539" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43142,7 +43139,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G1540" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43168,7 +43165,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1541" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43194,7 +43191,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1542" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43220,7 +43217,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1543" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43246,7 +43243,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1544" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43272,7 +43269,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1545" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43298,7 +43295,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1546" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43324,7 +43321,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1547" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43350,7 +43347,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1548" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43376,7 +43373,7 @@
         <v>1.18499994277954</v>
       </c>
       <c r="G1549" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43402,7 +43399,7 @@
         <v>1.18499994277954</v>
       </c>
       <c r="G1550" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43428,7 +43425,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1551" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43454,7 +43451,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1552" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43480,7 +43477,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1553" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43506,7 +43503,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1554" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43532,7 +43529,7 @@
         <v>1.16499996185303</v>
       </c>
       <c r="G1555" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43558,7 +43555,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43584,7 +43581,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1557" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43610,7 +43607,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1558" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43636,7 +43633,7 @@
         <v>1.11500000953674</v>
       </c>
       <c r="G1559" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43662,7 +43659,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1560" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43688,7 +43685,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1561" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43714,7 +43711,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1562" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43740,7 +43737,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1563" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43766,7 +43763,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1564" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43792,7 +43789,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1565" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43818,7 +43815,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1566" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43844,7 +43841,7 @@
         <v>1.04499995708466</v>
       </c>
       <c r="G1567" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43870,7 +43867,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1568" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43896,7 +43893,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43922,7 +43919,7 @@
         <v>1.02499997615814</v>
       </c>
       <c r="G1570" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43948,7 +43945,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G1571" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43974,7 +43971,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44000,7 +43997,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G1573" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44026,7 +44023,7 @@
         <v>0.987999975681305</v>
       </c>
       <c r="G1574" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44052,7 +44049,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1575" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44078,7 +44075,7 @@
         <v>1.04499995708466</v>
       </c>
       <c r="G1576" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44104,7 +44101,7 @@
         <v>1.09500002861023</v>
       </c>
       <c r="G1577" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44130,7 +44127,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G1578" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44156,7 +44153,7 @@
         <v>0.991999983787537</v>
       </c>
       <c r="G1579" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44182,7 +44179,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1580" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44208,7 +44205,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1581" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44234,7 +44231,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1582" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44260,7 +44257,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1583" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44286,7 +44283,7 @@
         <v>0.998000025749207</v>
       </c>
       <c r="G1584" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44312,7 +44309,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1585" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44338,7 +44335,7 @@
         <v>1</v>
       </c>
       <c r="G1586" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44364,7 +44361,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1587" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44390,7 +44387,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1588" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44416,7 +44413,7 @@
         <v>1</v>
       </c>
       <c r="G1589" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44442,7 +44439,7 @@
         <v>0.986000001430511</v>
       </c>
       <c r="G1590" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44468,7 +44465,7 @@
         <v>1.00199997425079</v>
       </c>
       <c r="G1591" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44494,7 +44491,7 @@
         <v>0.998000025749207</v>
       </c>
       <c r="G1592" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44520,7 +44517,7 @@
         <v>0.985000014305115</v>
       </c>
       <c r="G1593" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44546,7 +44543,7 @@
         <v>0.91100001335144</v>
       </c>
       <c r="G1594" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44572,7 +44569,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1595" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44598,7 +44595,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G1596" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44624,7 +44621,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1597" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44650,7 +44647,7 @@
         <v>0.925000011920929</v>
       </c>
       <c r="G1598" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44676,7 +44673,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1599" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44702,7 +44699,7 @@
         <v>0.912999987602234</v>
       </c>
       <c r="G1600" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44728,7 +44725,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1601" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44754,7 +44751,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1602" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44780,7 +44777,7 @@
         <v>0.915000021457672</v>
       </c>
       <c r="G1603" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44806,7 +44803,7 @@
         <v>0.904999971389771</v>
       </c>
       <c r="G1604" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44832,7 +44829,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1605" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44858,7 +44855,7 @@
         <v>0.882000029087067</v>
       </c>
       <c r="G1606" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44884,7 +44881,7 @@
         <v>0.856000006198883</v>
       </c>
       <c r="G1607" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44910,7 +44907,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1608" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44936,7 +44933,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1609" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44962,7 +44959,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1610" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44988,7 +44985,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G1611" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45014,7 +45011,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1612" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45040,7 +45037,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1613" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45066,7 +45063,7 @@
         <v>0.925000011920929</v>
       </c>
       <c r="G1614" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45092,7 +45089,7 @@
         <v>0.88400000333786</v>
       </c>
       <c r="G1615" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45118,7 +45115,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1616" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45144,7 +45141,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1617" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45170,7 +45167,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G1618" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45196,7 +45193,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1619" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45222,7 +45219,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1620" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45248,7 +45245,7 @@
         <v>0.875</v>
       </c>
       <c r="G1621" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45274,7 +45271,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1622" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45300,7 +45297,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1623" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45326,7 +45323,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1624" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45352,7 +45349,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1625" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45378,7 +45375,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1626" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45404,7 +45401,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1627" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45430,7 +45427,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1628" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45456,7 +45453,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1629" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45482,7 +45479,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1630" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45508,7 +45505,7 @@
         <v>1.02799999713898</v>
       </c>
       <c r="G1631" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45534,7 +45531,7 @@
         <v>0.98199999332428</v>
       </c>
       <c r="G1632" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45560,7 +45557,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45586,7 +45583,7 @@
         <v>1</v>
       </c>
       <c r="G1634" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45612,7 +45609,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1635" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45638,7 +45635,7 @@
         <v>0.982999980449677</v>
       </c>
       <c r="G1636" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45664,7 +45661,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1637" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45690,7 +45687,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G1638" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45716,7 +45713,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1639" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45742,7 +45739,7 @@
         <v>0.916999995708466</v>
       </c>
       <c r="G1640" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45768,7 +45765,7 @@
         <v>0.878000020980835</v>
       </c>
       <c r="G1641" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45794,7 +45791,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1642" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45820,7 +45817,7 @@
         <v>0.890999972820282</v>
       </c>
       <c r="G1643" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45846,7 +45843,7 @@
         <v>0.901000022888184</v>
       </c>
       <c r="G1644" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45872,7 +45869,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1645" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45898,7 +45895,7 @@
         <v>0.890999972820282</v>
       </c>
       <c r="G1646" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45924,7 +45921,7 @@
         <v>0.916999995708466</v>
       </c>
       <c r="G1647" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45950,7 +45947,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1648" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45976,7 +45973,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1649" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46002,7 +45999,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1650" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46028,7 +46025,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1651" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46054,7 +46051,7 @@
         <v>0.904999971389771</v>
       </c>
       <c r="G1652" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46080,7 +46077,7 @@
         <v>0.898999989032745</v>
       </c>
       <c r="G1653" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46106,7 +46103,7 @@
         <v>0.880999982357025</v>
       </c>
       <c r="G1654" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46132,7 +46129,7 @@
         <v>0.878000020980835</v>
       </c>
       <c r="G1655" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46158,7 +46155,7 @@
         <v>0.875</v>
       </c>
       <c r="G1656" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46184,7 +46181,7 @@
         <v>0.876999974250793</v>
       </c>
       <c r="G1657" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46210,7 +46207,7 @@
         <v>0.888999998569489</v>
       </c>
       <c r="G1658" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46236,7 +46233,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1659" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46262,7 +46259,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1660" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46288,7 +46285,7 @@
         <v>0.875999987125397</v>
       </c>
       <c r="G1661" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46314,7 +46311,7 @@
         <v>0.883000016212463</v>
       </c>
       <c r="G1662" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46340,7 +46337,7 @@
         <v>0.862999975681305</v>
       </c>
       <c r="G1663" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46366,7 +46363,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1664" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46392,7 +46389,7 @@
         <v>0.861000001430511</v>
       </c>
       <c r="G1665" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46418,7 +46415,7 @@
         <v>0.869000017642975</v>
       </c>
       <c r="G1666" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46444,7 +46441,7 @@
         <v>0.871999979019165</v>
       </c>
       <c r="G1667" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46470,7 +46467,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1668" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46496,7 +46493,7 @@
         <v>0.879999995231628</v>
       </c>
       <c r="G1669" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46522,7 +46519,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46548,7 +46545,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1671" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46574,7 +46571,7 @@
         <v>0.862999975681305</v>
       </c>
       <c r="G1672" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46600,7 +46597,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1673" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46626,7 +46623,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1674" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46652,7 +46649,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1675" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46678,7 +46675,7 @@
         <v>0.851999998092651</v>
       </c>
       <c r="G1676" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46704,7 +46701,7 @@
         <v>0.853999972343445</v>
       </c>
       <c r="G1677" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46730,7 +46727,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1678" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46756,7 +46753,7 @@
         <v>0.856000006198883</v>
       </c>
       <c r="G1679" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46782,7 +46779,7 @@
         <v>0.85699999332428</v>
       </c>
       <c r="G1680" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46808,7 +46805,7 @@
         <v>0.864000022411346</v>
       </c>
       <c r="G1681" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46834,7 +46831,7 @@
         <v>0.879999995231628</v>
       </c>
       <c r="G1682" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46860,7 +46857,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1683" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46886,7 +46883,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1684" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46912,7 +46909,7 @@
         <v>0.861999988555908</v>
       </c>
       <c r="G1685" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46938,7 +46935,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G1686" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46964,7 +46961,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1687" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46990,7 +46987,7 @@
         <v>0.874000012874603</v>
       </c>
       <c r="G1688" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47016,7 +47013,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G1689" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47042,7 +47039,7 @@
         <v>0.85699999332428</v>
       </c>
       <c r="G1690" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47068,7 +47065,7 @@
         <v>0.851999998092651</v>
       </c>
       <c r="G1691" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47094,7 +47091,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G1692" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47120,7 +47117,7 @@
         <v>0.864000022411346</v>
       </c>
       <c r="G1693" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47146,7 +47143,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G1694" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47172,7 +47169,7 @@
         <v>0.86599999666214</v>
       </c>
       <c r="G1695" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47198,7 +47195,7 @@
         <v>0.846000015735626</v>
       </c>
       <c r="G1696" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47224,7 +47221,7 @@
         <v>0.84799998998642</v>
       </c>
       <c r="G1697" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47250,7 +47247,7 @@
         <v>0.843999981880188</v>
       </c>
       <c r="G1698" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47276,7 +47273,7 @@
         <v>0.827000021934509</v>
       </c>
       <c r="G1699" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47302,7 +47299,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G1700" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47328,7 +47325,7 @@
         <v>0.828000009059906</v>
       </c>
       <c r="G1701" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47354,7 +47351,7 @@
         <v>0.837000012397766</v>
       </c>
       <c r="G1702" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47380,7 +47377,7 @@
         <v>0.848999977111816</v>
       </c>
       <c r="G1703" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47406,7 +47403,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1704" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47432,7 +47429,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G1705" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47458,7 +47455,7 @@
         <v>0.851000010967255</v>
       </c>
       <c r="G1706" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47484,7 +47481,7 @@
         <v>0.828999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47510,7 +47507,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1708" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47536,7 +47533,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1709" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47562,7 +47559,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1710" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47588,7 +47585,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1711" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47614,7 +47611,7 @@
         <v>0.879999995231628</v>
       </c>
       <c r="G1712" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47640,7 +47637,7 @@
         <v>0.853999972343445</v>
       </c>
       <c r="G1713" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47666,7 +47663,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G1714" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47692,7 +47689,7 @@
         <v>0.870999991893768</v>
       </c>
       <c r="G1715" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47718,7 +47715,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G1716" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47744,7 +47741,7 @@
         <v>0.822000026702881</v>
       </c>
       <c r="G1717" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47770,7 +47767,7 @@
         <v>0.848999977111816</v>
       </c>
       <c r="G1718" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47796,7 +47793,7 @@
         <v>0.875999987125397</v>
       </c>
       <c r="G1719" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47822,7 +47819,7 @@
         <v>0.888999998569489</v>
       </c>
       <c r="G1720" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47848,7 +47845,7 @@
         <v>0.861000001430511</v>
       </c>
       <c r="G1721" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47874,7 +47871,7 @@
         <v>0.870999991893768</v>
       </c>
       <c r="G1722" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47900,7 +47897,7 @@
         <v>0.841000020503998</v>
       </c>
       <c r="G1723" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47926,7 +47923,7 @@
         <v>0.824000000953674</v>
       </c>
       <c r="G1724" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47952,7 +47949,7 @@
         <v>0.813000023365021</v>
       </c>
       <c r="G1725" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47978,7 +47975,7 @@
         <v>0.822000026702881</v>
       </c>
       <c r="G1726" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48004,7 +48001,7 @@
         <v>0.816999971866608</v>
       </c>
       <c r="G1727" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48030,7 +48027,7 @@
         <v>0.800999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48056,7 +48053,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1729" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48082,7 +48079,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G1730" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48108,7 +48105,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G1731" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48134,7 +48131,7 @@
         <v>0.806999981403351</v>
       </c>
       <c r="G1732" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48160,7 +48157,7 @@
         <v>0.810999989509583</v>
       </c>
       <c r="G1733" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48186,7 +48183,7 @@
         <v>0.842999994754791</v>
       </c>
       <c r="G1734" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48212,7 +48209,7 @@
         <v>0.866999983787537</v>
       </c>
       <c r="G1735" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48238,7 +48235,7 @@
         <v>0.861000001430511</v>
       </c>
       <c r="G1736" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48264,7 +48261,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1737" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48290,7 +48287,7 @@
         <v>0.915000021457672</v>
       </c>
       <c r="G1738" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48316,7 +48313,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G1739" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48342,7 +48339,7 @@
         <v>0.947000026702881</v>
       </c>
       <c r="G1740" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48368,7 +48365,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1741" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48394,7 +48391,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1742" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48420,7 +48417,7 @@
         <v>0.967000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48446,7 +48443,7 @@
         <v>0.987999975681305</v>
       </c>
       <c r="G1744" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48472,7 +48469,7 @@
         <v>1</v>
       </c>
       <c r="G1745" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48498,7 +48495,7 @@
         <v>1.01199996471405</v>
       </c>
       <c r="G1746" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48524,7 +48521,7 @@
         <v>1</v>
       </c>
       <c r="G1747" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48550,7 +48547,7 @@
         <v>1.00199997425079</v>
       </c>
       <c r="G1748" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48576,7 +48573,7 @@
         <v>0.992999970912933</v>
       </c>
       <c r="G1749" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48602,7 +48599,7 @@
         <v>1</v>
       </c>
       <c r="G1750" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48628,7 +48625,7 @@
         <v>0.981000006198883</v>
       </c>
       <c r="G1751" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48654,7 +48651,7 @@
         <v>0.968999981880188</v>
       </c>
       <c r="G1752" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48680,7 +48677,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1753" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48706,7 +48703,7 @@
         <v>0.976999998092651</v>
       </c>
       <c r="G1754" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48732,7 +48729,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1755" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48758,7 +48755,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G1756" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48784,7 +48781,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1757" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48810,7 +48807,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1758" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48836,7 +48833,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1759" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48862,7 +48859,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1760" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48888,7 +48885,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G1761" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48914,7 +48911,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1762" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48940,7 +48937,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1763" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48966,7 +48963,7 @@
         <v>0.968999981880188</v>
       </c>
       <c r="G1764" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48992,7 +48989,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1765" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49018,7 +49015,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G1766" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49044,7 +49041,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G1767" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49070,7 +49067,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1768" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49096,7 +49093,7 @@
         <v>0.940999984741211</v>
       </c>
       <c r="G1769" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49122,7 +49119,7 @@
         <v>0.975000023841858</v>
       </c>
       <c r="G1770" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49148,7 +49145,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1771" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49174,7 +49171,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1772" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49200,7 +49197,7 @@
         <v>0.989000022411346</v>
       </c>
       <c r="G1773" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49226,7 +49223,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1774" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49252,7 +49249,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1775" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49278,7 +49275,7 @@
         <v>0.982999980449677</v>
       </c>
       <c r="G1776" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49304,7 +49301,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1777" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49330,7 +49327,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1778" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49356,7 +49353,7 @@
         <v>0.958999991416931</v>
       </c>
       <c r="G1779" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49382,7 +49379,7 @@
         <v>0.940999984741211</v>
       </c>
       <c r="G1780" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49408,7 +49405,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1781" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49434,7 +49431,7 @@
         <v>0.935000002384186</v>
       </c>
       <c r="G1782" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49460,7 +49457,7 @@
         <v>0.935000002384186</v>
       </c>
       <c r="G1783" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49486,7 +49483,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1784" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49512,7 +49509,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1785" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49538,7 +49535,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1786" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49564,7 +49561,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1787" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49590,7 +49587,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G1788" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49616,7 +49613,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1789" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49642,7 +49639,7 @@
         <v>0.929000020027161</v>
       </c>
       <c r="G1790" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49668,7 +49665,7 @@
         <v>0.943000018596649</v>
       </c>
       <c r="G1791" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49694,7 +49691,7 @@
         <v>0.968999981880188</v>
       </c>
       <c r="G1792" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49720,7 +49717,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1793" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49746,7 +49743,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1794" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49772,7 +49769,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1795" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49798,7 +49795,7 @@
         <v>0.958999991416931</v>
       </c>
       <c r="G1796" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49824,7 +49821,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1797" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49850,7 +49847,7 @@
         <v>0.949000000953674</v>
       </c>
       <c r="G1798" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49876,7 +49873,7 @@
         <v>0.949000000953674</v>
       </c>
       <c r="G1799" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49902,7 +49899,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G1800" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49928,7 +49925,7 @@
         <v>0.957000017166138</v>
       </c>
       <c r="G1801" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49954,7 +49951,7 @@
         <v>0.940999984741211</v>
       </c>
       <c r="G1802" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49980,7 +49977,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G1803" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50006,7 +50003,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1804" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50032,7 +50029,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1805" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50058,7 +50055,7 @@
         <v>0.936999976634979</v>
       </c>
       <c r="G1806" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50084,7 +50081,7 @@
         <v>0.947000026702881</v>
       </c>
       <c r="G1807" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50110,7 +50107,7 @@
         <v>0.950999975204468</v>
       </c>
       <c r="G1808" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50136,7 +50133,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50162,7 +50159,7 @@
         <v>0.954999983310699</v>
       </c>
       <c r="G1810" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50188,7 +50185,7 @@
         <v>0.986000001430511</v>
       </c>
       <c r="G1811" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50214,7 +50211,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1812" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50240,7 +50237,7 @@
         <v>0.992999970912933</v>
       </c>
       <c r="G1813" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50266,7 +50263,7 @@
         <v>0.976999998092651</v>
       </c>
       <c r="G1814" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50292,7 +50289,7 @@
         <v>0.982999980449677</v>
       </c>
       <c r="G1815" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50318,7 +50315,7 @@
         <v>0.992999970912933</v>
       </c>
       <c r="G1816" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50344,7 +50341,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G1817" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50370,7 +50367,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1818" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50396,7 +50393,7 @@
         <v>0.933000028133392</v>
       </c>
       <c r="G1819" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50422,7 +50419,7 @@
         <v>0.898999989032745</v>
       </c>
       <c r="G1820" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50448,7 +50445,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1821" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50474,7 +50471,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1822" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50500,7 +50497,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1823" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50526,7 +50523,7 @@
         <v>0.878000020980835</v>
       </c>
       <c r="G1824" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50552,7 +50549,7 @@
         <v>0.885999977588654</v>
       </c>
       <c r="G1825" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50578,7 +50575,7 @@
         <v>0.904999971389771</v>
       </c>
       <c r="G1826" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50604,7 +50601,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1827" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50630,7 +50627,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1828" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50656,7 +50653,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1829" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50682,7 +50679,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1830" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50708,7 +50705,7 @@
         <v>0.935000002384186</v>
       </c>
       <c r="G1831" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50734,7 +50731,7 @@
         <v>0.950999975204468</v>
       </c>
       <c r="G1832" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50760,7 +50757,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G1833" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50786,7 +50783,7 @@
         <v>0.939000010490417</v>
       </c>
       <c r="G1834" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50812,7 +50809,7 @@
         <v>0.933000028133392</v>
       </c>
       <c r="G1835" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50838,7 +50835,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1836" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50864,7 +50861,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1837" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50890,7 +50887,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1838" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50916,7 +50913,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1839" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50942,7 +50939,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1840" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50968,7 +50965,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1841" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50994,7 +50991,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1842" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51020,7 +51017,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1843" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51046,7 +51043,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1844" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51072,7 +51069,7 @@
         <v>0.916999995708466</v>
       </c>
       <c r="G1845" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51098,7 +51095,7 @@
         <v>0.908999979496002</v>
       </c>
       <c r="G1846" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51124,7 +51121,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1847" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51150,7 +51147,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1848" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51176,7 +51173,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1849" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51202,7 +51199,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1850" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51228,7 +51225,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1851" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51254,7 +51251,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G1852" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51280,7 +51277,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1853" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51306,7 +51303,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1854" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51332,7 +51329,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1855" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51358,7 +51355,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1856" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51384,7 +51381,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1857" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51410,7 +51407,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1858" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51436,7 +51433,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G1859" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51462,7 +51459,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1860" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51488,7 +51485,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1861" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51514,7 +51511,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1862" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51540,7 +51537,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1863" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51566,7 +51563,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1864" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51592,7 +51589,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1865" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51618,7 +51615,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1866" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51644,7 +51641,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1867" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51670,7 +51667,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1868" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51696,7 +51693,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1869" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51722,7 +51719,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1870" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51748,7 +51745,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1871" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51774,7 +51771,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1872" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51800,7 +51797,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1873" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51826,7 +51823,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1874" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51852,7 +51849,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1875" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51878,7 +51875,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1876" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51904,7 +51901,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G1877" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51930,7 +51927,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1878" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51956,7 +51953,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1879" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51982,7 +51979,7 @@
         <v>0.934000015258789</v>
       </c>
       <c r="G1880" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52008,7 +52005,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1881" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52034,7 +52031,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1882" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52060,7 +52057,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1883" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52086,7 +52083,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1884" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52112,7 +52109,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1885" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52138,7 +52135,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1886" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52164,7 +52161,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1887" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52190,7 +52187,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1888" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52216,7 +52213,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1889" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52242,7 +52239,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1890" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52268,7 +52265,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1891" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52294,7 +52291,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1892" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52320,7 +52317,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1893" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52346,7 +52343,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52372,7 +52369,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1895" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52398,7 +52395,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1896" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52424,7 +52421,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1897" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52450,7 +52447,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1898" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52476,7 +52473,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1899" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52502,7 +52499,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1900" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52528,7 +52525,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1901" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52554,7 +52551,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1902" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52580,7 +52577,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1903" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52606,7 +52603,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1904" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52632,7 +52629,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1905" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52658,7 +52655,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1906" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52684,7 +52681,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1907" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52710,7 +52707,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1908" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52736,7 +52733,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1909" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52762,7 +52759,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1910" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52788,7 +52785,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1911" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52814,7 +52811,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1912" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52840,7 +52837,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52866,7 +52863,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1914" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52892,7 +52889,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1915" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52918,7 +52915,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1916" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52944,7 +52941,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1917" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52970,7 +52967,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1918" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52996,7 +52993,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1919" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53022,7 +53019,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1920" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53048,7 +53045,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1921" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53074,7 +53071,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1922" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53100,7 +53097,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1923" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53126,7 +53123,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1924" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53152,7 +53149,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1925" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53178,7 +53175,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1926" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53204,7 +53201,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1927" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53230,7 +53227,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1928" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53256,7 +53253,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1929" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53282,7 +53279,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1930" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53308,7 +53305,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53334,7 +53331,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1932" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53360,7 +53357,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1933" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53386,7 +53383,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1934" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53412,7 +53409,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1935" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53438,7 +53435,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1936" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53464,7 +53461,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1937" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53490,7 +53487,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1938" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53516,7 +53513,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1939" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53542,7 +53539,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1940" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53568,7 +53565,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1941" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53594,7 +53591,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1942" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53620,7 +53617,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1943" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53646,7 +53643,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1944" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53672,7 +53669,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1945" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53698,7 +53695,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53724,7 +53721,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1947" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53750,7 +53747,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1948" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53776,7 +53773,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53802,7 +53799,7 @@
         <v>0.916000008583069</v>
       </c>
       <c r="G1950" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53828,7 +53825,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1951" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53854,7 +53851,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1952" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53880,7 +53877,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1953" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53906,7 +53903,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1954" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53932,7 +53929,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1955" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53958,7 +53955,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1956" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53984,7 +53981,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1957" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54010,7 +54007,7 @@
         <v>0.916000008583069</v>
       </c>
       <c r="G1958" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54036,7 +54033,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1959" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54062,7 +54059,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1960" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54088,7 +54085,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1961" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54114,7 +54111,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1962" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54140,7 +54137,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1963" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54166,7 +54163,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1964" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54192,7 +54189,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1965" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54218,7 +54215,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1966" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54244,7 +54241,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54270,7 +54267,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1968" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54296,7 +54293,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1969" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54322,7 +54319,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1970" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54348,7 +54345,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1971" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54374,7 +54371,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1972" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54400,7 +54397,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1973" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54426,7 +54423,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1974" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54452,7 +54449,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54478,7 +54475,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1976" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54504,7 +54501,7 @@
         <v>0.88400000333786</v>
       </c>
       <c r="G1977" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54530,7 +54527,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1978" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54556,7 +54553,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1979" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54582,7 +54579,7 @@
         <v>0.987999975681305</v>
       </c>
       <c r="G1980" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54608,7 +54605,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1981" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54634,7 +54631,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1982" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54660,7 +54657,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1983" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54686,7 +54683,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1984" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54712,7 +54709,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1985" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54738,7 +54735,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1986" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54764,7 +54761,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1987" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54790,7 +54787,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1988" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54816,7 +54813,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G1989" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54842,7 +54839,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1990" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54868,7 +54865,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1991" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54894,7 +54891,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1992" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54920,7 +54917,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1993" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54946,7 +54943,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1994" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54972,7 +54969,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1995" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54998,7 +54995,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1996" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55024,7 +55021,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1997" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55050,7 +55047,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1998" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55076,7 +55073,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G1999" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55102,7 +55099,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G2000" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55128,7 +55125,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2001" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55154,7 +55151,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G2002" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55180,7 +55177,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2003" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55206,7 +55203,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2004" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55232,7 +55229,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2005" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55258,7 +55255,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2006" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55284,7 +55281,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2007" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55310,7 +55307,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2008" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55336,7 +55333,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G2009" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55362,7 +55359,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2010" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55388,7 +55385,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G2011" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55414,7 +55411,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G2012" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55440,7 +55437,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2013" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55466,7 +55463,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2014" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55492,7 +55489,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2015" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55518,7 +55515,7 @@
         <v>0.966000020503998</v>
       </c>
       <c r="G2016" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55544,7 +55541,7 @@
         <v>0.966000020503998</v>
       </c>
       <c r="G2017" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55570,7 +55567,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G2018" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55596,7 +55593,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G2019" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55622,7 +55619,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G2020" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55648,7 +55645,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2021" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55674,7 +55671,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2022" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55700,7 +55697,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2023" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55726,7 +55723,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2024" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55752,7 +55749,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2025" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55778,7 +55775,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2026" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55804,7 +55801,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2027" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55830,7 +55827,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2028" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55856,7 +55853,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G2029" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55882,7 +55879,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G2030" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55908,7 +55905,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G2031" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55934,7 +55931,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G2032" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55960,7 +55957,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2033" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55986,7 +55983,7 @@
         <v>0.935999989509583</v>
       </c>
       <c r="G2034" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56012,7 +56009,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G2035" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56038,7 +56035,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56064,7 +56061,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G2037" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56090,7 +56087,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G2038" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56116,7 +56113,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2039" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56142,7 +56139,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2040" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56168,7 +56165,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56194,7 +56191,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2042" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56220,7 +56217,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G2043" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56246,7 +56243,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G2044" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56272,7 +56269,7 @@
         <v>0.977999985218048</v>
       </c>
       <c r="G2045" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56298,7 +56295,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G2046" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56324,7 +56321,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56350,7 +56347,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2048" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56376,7 +56373,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2049" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56402,7 +56399,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2050" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56428,7 +56425,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G2051" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56454,7 +56451,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G2052" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56480,7 +56477,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2053" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56506,7 +56503,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G2054" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56532,7 +56529,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G2055" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56558,7 +56555,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G2056" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56584,7 +56581,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2057" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56610,7 +56607,7 @@
         <v>0.977999985218048</v>
       </c>
       <c r="G2058" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56636,7 +56633,7 @@
         <v>0.966000020503998</v>
       </c>
       <c r="G2059" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56662,7 +56659,7 @@
         <v>0.991999983787537</v>
       </c>
       <c r="G2060" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56688,7 +56685,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G2061" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56714,7 +56711,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G2062" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56740,7 +56737,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2063" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56766,7 +56763,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G2064" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56792,7 +56789,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2065" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56818,7 +56815,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2066" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56844,7 +56841,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2067" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56870,7 +56867,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56896,7 +56893,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2069" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56922,7 +56919,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G2070" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56948,7 +56945,7 @@
         <v>0.934000015258789</v>
       </c>
       <c r="G2071" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56974,7 +56971,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G2072" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57000,7 +56997,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2073" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57026,7 +57023,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2074" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57052,7 +57049,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2075" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57078,7 +57075,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2076" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57104,7 +57101,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2077" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57130,7 +57127,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2078" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57156,7 +57153,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57182,7 +57179,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G2080" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57208,7 +57205,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G2081" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57234,7 +57231,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G2082" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57260,7 +57257,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2083" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57286,7 +57283,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G2084" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57312,7 +57309,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G2085" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57338,7 +57335,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G2086" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57364,7 +57361,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G2087" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57390,7 +57387,7 @@
         <v>0.934000015258789</v>
       </c>
       <c r="G2088" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57416,7 +57413,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57442,7 +57439,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2090" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57468,7 +57465,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2091" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57494,7 +57491,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2092" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57520,7 +57517,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2093" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57546,7 +57543,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G2094" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57572,7 +57569,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G2095" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57598,7 +57595,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57624,7 +57621,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2097" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57650,7 +57647,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2098" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57676,7 +57673,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G2099" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57702,7 +57699,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G2100" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57728,7 +57725,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2101" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57754,7 +57751,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2102" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57780,7 +57777,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2103" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57806,7 +57803,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2104" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57832,7 +57829,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2105" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57858,7 +57855,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2106" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57884,7 +57881,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2107" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57910,7 +57907,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2108" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57936,7 +57933,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2109" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57962,7 +57959,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2110" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57988,7 +57985,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2111" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58014,7 +58011,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2112" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58040,7 +58037,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58066,7 +58063,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58092,7 +58089,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58118,7 +58115,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2116" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58144,7 +58141,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58170,7 +58167,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2118" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58196,7 +58193,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2119" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58222,7 +58219,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2120" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58248,7 +58245,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2121" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58274,7 +58271,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2122" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58300,7 +58297,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2123" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58326,7 +58323,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2124" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58352,7 +58349,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2125" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58378,7 +58375,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2126" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58404,7 +58401,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2127" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58430,7 +58427,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2128" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58456,7 +58453,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2129" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58482,7 +58479,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2130" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58508,7 +58505,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58534,7 +58531,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2132" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58560,7 +58557,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2133" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58586,7 +58583,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2134" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58612,7 +58609,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2135" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58638,7 +58635,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2136" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58664,7 +58661,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58690,7 +58687,7 @@
         <v>2.25</v>
       </c>
       <c r="G2138" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58716,7 +58713,7 @@
         <v>2.25</v>
       </c>
       <c r="G2139" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58742,7 +58739,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2140" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58768,7 +58765,7 @@
         <v>2.25</v>
       </c>
       <c r="G2141" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58794,7 +58791,7 @@
         <v>2.25</v>
       </c>
       <c r="G2142" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58802,7 +58799,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6494907407</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>43915</v>
@@ -58820,9 +58817,35 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2143" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6494328704</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>85672</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>917</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.413796156644821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416530460119247</t>
+    <t xml:space="preserve">0.41653048992157</t>
   </si>
   <si>
     <t xml:space="preserve">0.393653184175491</t>
@@ -68,73 +68,73 @@
     <t xml:space="preserve">0.396478682756424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400033354759216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405046314001083</t>
+    <t xml:space="preserve">0.400033324956894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405046284198761</t>
   </si>
   <si>
     <t xml:space="preserve">0.3971166908741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382806986570358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40468168258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409876972436905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405502021312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408327490091324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.406778037548065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402767688035965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403314530849457</t>
+    <t xml:space="preserve">0.382807016372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404681712388992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409876942634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405501991510391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.408327519893646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.406778067350388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402767658233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403314560651779</t>
   </si>
   <si>
     <t xml:space="preserve">0.389095991849899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373601406812668</t>
+    <t xml:space="preserve">0.37360143661499</t>
   </si>
   <si>
     <t xml:space="preserve">0.357286512851715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359929740428925</t>
+    <t xml:space="preserve">0.359929770231247</t>
   </si>
   <si>
     <t xml:space="preserve">0.338237345218658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332404106855392</t>
+    <t xml:space="preserve">0.33240407705307</t>
   </si>
   <si>
     <t xml:space="preserve">0.355463653802872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355372488498688</t>
+    <t xml:space="preserve">0.35537251830101</t>
   </si>
   <si>
     <t xml:space="preserve">0.385450214147568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391009986400604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391465783119202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375424295663834</t>
+    <t xml:space="preserve">0.391010016202927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391465753316879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375424325466156</t>
   </si>
   <si>
     <t xml:space="preserve">0.392832905054092</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">0.406504601240158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409694641828537</t>
+    <t xml:space="preserve">0.409694671630859</t>
   </si>
   <si>
     <t xml:space="preserve">0.393835455179214</t>
@@ -152,16 +152,16 @@
     <t xml:space="preserve">0.405593127012253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402403056621552</t>
+    <t xml:space="preserve">0.402403086423874</t>
   </si>
   <si>
     <t xml:space="preserve">0.396569848060608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392650663852692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392012596130371</t>
+    <t xml:space="preserve">0.392650634050369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392012625932693</t>
   </si>
   <si>
     <t xml:space="preserve">0.39638751745224</t>
@@ -170,28 +170,28 @@
     <t xml:space="preserve">0.401035904884338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388366878032684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387728810310364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382168978452682</t>
+    <t xml:space="preserve">0.388366848230362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387728840112686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382169008255005</t>
   </si>
   <si>
     <t xml:space="preserve">0.383718460798264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390736550092697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389916330575943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389642894268036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35418763756752</t>
+    <t xml:space="preserve">0.39073657989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389916270971298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389642864465714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354187607765198</t>
   </si>
   <si>
     <t xml:space="preserve">0.356830835342407</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">0.346804916858673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368132770061493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359018296003342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355190217494965</t>
+    <t xml:space="preserve">0.368132740259171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359018325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355190247297287</t>
   </si>
   <si>
     <t xml:space="preserve">0.3724165558815</t>
@@ -215,22 +215,22 @@
     <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364486962556839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38736429810524</t>
+    <t xml:space="preserve">0.364486932754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387364268302917</t>
   </si>
   <si>
     <t xml:space="preserve">0.373783737421036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373692572116852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391648024320602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391830295324326</t>
+    <t xml:space="preserve">0.373692542314529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39164799451828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391830325126648</t>
   </si>
   <si>
     <t xml:space="preserve">0.403679102659225</t>
@@ -245,28 +245,28 @@
     <t xml:space="preserve">0.390463173389435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379161208868027</t>
+    <t xml:space="preserve">0.379161238670349</t>
   </si>
   <si>
     <t xml:space="preserve">0.369135320186615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377338379621506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369044184684753</t>
+    <t xml:space="preserve">0.377338320016861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369044214487076</t>
   </si>
   <si>
     <t xml:space="preserve">0.360750019550323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373874872922897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372143089771271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372507691383362</t>
+    <t xml:space="preserve">0.373874843120575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372143119573593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372507661581039</t>
   </si>
   <si>
     <t xml:space="preserve">0.366765558719635</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">0.373510271310806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366856724023819</t>
+    <t xml:space="preserve">0.366856694221497</t>
   </si>
   <si>
     <t xml:space="preserve">0.379890382289886</t>
@@ -287,10 +287,10 @@
     <t xml:space="preserve">0.368588477373123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376609176397324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375150889158249</t>
+    <t xml:space="preserve">0.376609146595001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375150859355927</t>
   </si>
   <si>
     <t xml:space="preserve">0.364669233560562</t>
@@ -302,31 +302,31 @@
     <t xml:space="preserve">0.367312461137772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370958268642426</t>
+    <t xml:space="preserve">0.370958209037781</t>
   </si>
   <si>
     <t xml:space="preserve">0.360020905733109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348172098398209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350906431674957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354552209377289</t>
+    <t xml:space="preserve">0.348172068595886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350906401872635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354552239179611</t>
   </si>
   <si>
     <t xml:space="preserve">0.370046764612198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373327970504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364578068256378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354461073875427</t>
+    <t xml:space="preserve">0.373328000307083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364578098058701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35446110367775</t>
   </si>
   <si>
     <t xml:space="preserve">0.352455914020538</t>
@@ -335,91 +335,91 @@
     <t xml:space="preserve">0.339969038963318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35227358341217</t>
+    <t xml:space="preserve">0.352273613214493</t>
   </si>
   <si>
     <t xml:space="preserve">0.348354399204254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344435155391693</t>
+    <t xml:space="preserve">0.344435185194016</t>
   </si>
   <si>
     <t xml:space="preserve">0.337234735488892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333497852087021</t>
+    <t xml:space="preserve">0.333497822284698</t>
   </si>
   <si>
     <t xml:space="preserve">0.346166878938675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346349209547043</t>
+    <t xml:space="preserve">0.34634917974472</t>
   </si>
   <si>
     <t xml:space="preserve">0.341791987419128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330581188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326206266880035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324474513530731</t>
+    <t xml:space="preserve">0.330581218004227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326206296682358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324474543333054</t>
   </si>
   <si>
     <t xml:space="preserve">0.327755749225616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329852014780045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245085000992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329487442970276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32766455411911</t>
+    <t xml:space="preserve">0.329852074384689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245114803314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329487472772598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327664613723755</t>
   </si>
   <si>
     <t xml:space="preserve">0.325294822454453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326115161180496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33358895778656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340971708297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337599366903305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340515971183777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340880572795868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341518521308899</t>
+    <t xml:space="preserve">0.326115131378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333588987588882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340971678495407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337599337100983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340516000986099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340880513191223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341518551111221</t>
   </si>
   <si>
     <t xml:space="preserve">0.334865003824234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336323320865631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335320740938187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33905765414238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329578638076782</t>
+    <t xml:space="preserve">0.336323291063309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335320711135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339057624340057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32957860827446</t>
   </si>
   <si>
     <t xml:space="preserve">0.331766098737717</t>
@@ -428,46 +428,46 @@
     <t xml:space="preserve">0.332312971353531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325385928153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328211396932602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332677513360977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328120350837708</t>
+    <t xml:space="preserve">0.325385987758636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328211426734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3326775431633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328120321035385</t>
   </si>
   <si>
     <t xml:space="preserve">0.319917321205139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32720884680748</t>
+    <t xml:space="preserve">0.327208876609802</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226995706558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323016256093979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.320828765630722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361752599477768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335867553949356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333680123090744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330945819616318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335229575634003</t>
+    <t xml:space="preserve">0.323016196489334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.320828706026077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36175262928009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335867583751678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333680093288422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330945789813995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33522954583168</t>
   </si>
   <si>
     <t xml:space="preserve">0.343432605266571</t>
@@ -476,13 +476,13 @@
     <t xml:space="preserve">0.349083513021469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338875353336334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342885673046112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333771258592606</t>
+    <t xml:space="preserve">0.338875383138657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342885702848434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333771288394928</t>
   </si>
   <si>
     <t xml:space="preserve">0.344526290893555</t>
@@ -500,31 +500,31 @@
     <t xml:space="preserve">0.351088732481003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349265784025192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340151399374008</t>
+    <t xml:space="preserve">0.349265843629837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340151369571686</t>
   </si>
   <si>
     <t xml:space="preserve">0.335594147443771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342976838350296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349721550941467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34543776512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353549629449844</t>
+    <t xml:space="preserve">0.342976868152618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34972158074379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345437735319138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353549599647522</t>
   </si>
   <si>
     <t xml:space="preserve">0.35491681098938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345073193311691</t>
+    <t xml:space="preserve">0.345073163509369</t>
   </si>
   <si>
     <t xml:space="preserve">0.34498205780983</t>
@@ -539,52 +539,52 @@
     <t xml:space="preserve">0.32410991191864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331310331821442</t>
+    <t xml:space="preserve">0.331310391426086</t>
   </si>
   <si>
     <t xml:space="preserve">0.312352299690247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316180348396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317091822624207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312625706195831</t>
+    <t xml:space="preserve">0.316180318593979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317091792821884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312625735998154</t>
   </si>
   <si>
     <t xml:space="preserve">0.332586377859116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337143570184708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052464485168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966488838196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724101066589</t>
+    <t xml:space="preserve">0.33714359998703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052434682846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966518640518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146179914474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724160671234</t>
   </si>
   <si>
     <t xml:space="preserve">0.359109401702881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341336220502853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345346599817276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343614876270294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346258103847504</t>
+    <t xml:space="preserve">0.341336250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345346629619598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343614846467972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346258074045181</t>
   </si>
   <si>
     <t xml:space="preserve">0.347260653972626</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">0.353185027837753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353367298841476</t>
+    <t xml:space="preserve">0.353367328643799</t>
   </si>
   <si>
     <t xml:space="preserve">0.362755239009857</t>
@@ -602,31 +602,31 @@
     <t xml:space="preserve">0.381804436445236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38052836060524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389825195074081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380892962217331</t>
+    <t xml:space="preserve">0.380528420209885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389825135469437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380892992019653</t>
   </si>
   <si>
     <t xml:space="preserve">0.369408786296844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362390607595444</t>
+    <t xml:space="preserve">0.362390637397766</t>
   </si>
   <si>
     <t xml:space="preserve">0.36293751001358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361479222774506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361934900283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367585867643356</t>
+    <t xml:space="preserve">0.361479192972183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361934930086136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367585837841034</t>
   </si>
   <si>
     <t xml:space="preserve">0.368223905563354</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">0.35819798707962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363119781017303</t>
+    <t xml:space="preserve">0.363119810819626</t>
   </si>
   <si>
     <t xml:space="preserve">0.347625195980072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35327622294426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093862533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349994957447052</t>
+    <t xml:space="preserve">0.353276193141937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093892335892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349995017051697</t>
   </si>
   <si>
     <t xml:space="preserve">0.343797147274017</t>
@@ -668,73 +668,73 @@
     <t xml:space="preserve">0.343250304460526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346075773239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617426395416</t>
+    <t xml:space="preserve">0.346075803041458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617456197739</t>
   </si>
   <si>
     <t xml:space="preserve">0.350268393754959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344890892505646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350359588861465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349357008934021</t>
+    <t xml:space="preserve">0.344890922307968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350359559059143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349356979131699</t>
   </si>
   <si>
     <t xml:space="preserve">0.358380317687988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353458493947983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104301452637</t>
+    <t xml:space="preserve">0.35345846414566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104241847992</t>
   </si>
   <si>
     <t xml:space="preserve">0.359747439622879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359565168619156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299501895905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356375128030777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356192797422409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374330580234528</t>
+    <t xml:space="preserve">0.359565138816833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299472093582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356375098228455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356192827224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374330550432205</t>
   </si>
   <si>
     <t xml:space="preserve">0.36886191368103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374148279428482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525810480118</t>
+    <t xml:space="preserve">0.37414824962616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525780677795</t>
   </si>
   <si>
     <t xml:space="preserve">0.363575518131256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352820485830307</t>
+    <t xml:space="preserve">0.352820456027985</t>
   </si>
   <si>
     <t xml:space="preserve">0.3565573990345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361570328474045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360932350158691</t>
+    <t xml:space="preserve">0.361570358276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360932320356369</t>
   </si>
   <si>
     <t xml:space="preserve">0.362572908401489</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">0.355919361114502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358471393585205</t>
+    <t xml:space="preserve">0.358471423387527</t>
   </si>
   <si>
     <t xml:space="preserve">0.368315011262894</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">0.369864523410797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374604016542435</t>
+    <t xml:space="preserve">0.374604046344757</t>
   </si>
   <si>
     <t xml:space="preserve">0.366674453020096</t>
@@ -761,55 +761,55 @@
     <t xml:space="preserve">0.369226455688477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372781097888947</t>
+    <t xml:space="preserve">0.372781127691269</t>
   </si>
   <si>
     <t xml:space="preserve">0.370867073535919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368041634559631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387273102998734</t>
+    <t xml:space="preserve">0.368041604757309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387273132801056</t>
   </si>
   <si>
     <t xml:space="preserve">0.382533580064774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378340929746628</t>
+    <t xml:space="preserve">0.378340989351273</t>
   </si>
   <si>
     <t xml:space="preserve">0.386270493268967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384174197912216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380984127521515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260143756866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541379451752</t>
+    <t xml:space="preserve">0.384174168109894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380984097719193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260203361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541349649429</t>
   </si>
   <si>
     <t xml:space="preserve">0.386817395687103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378978967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523200750351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505051851273</t>
+    <t xml:space="preserve">0.378978937864304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523230552673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37150502204895</t>
   </si>
   <si>
     <t xml:space="preserve">0.371869653463364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366583347320557</t>
+    <t xml:space="preserve">0.366583317518234</t>
   </si>
   <si>
     <t xml:space="preserve">0.365398406982422</t>
@@ -821,79 +821,79 @@
     <t xml:space="preserve">0.360294312238693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364304691553116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385447740555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363848924636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466263532639</t>
+    <t xml:space="preserve">0.364304661750793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360385477542877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363848954439163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466203927994</t>
   </si>
   <si>
     <t xml:space="preserve">0.35582822561264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357377707958221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468813657761</t>
+    <t xml:space="preserve">0.357377678155899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468873262405</t>
   </si>
   <si>
     <t xml:space="preserve">0.36129692196846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366218686103821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365854114294052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358653753995895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364851504564285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355645924806595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362117201089859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366036415100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363757848739624</t>
+    <t xml:space="preserve">0.366218715906143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365854144096375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358653694391251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364851534366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355645954608917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362117230892181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36603644490242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363757789134979</t>
   </si>
   <si>
     <t xml:space="preserve">0.356921970844269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361661463975906</t>
+    <t xml:space="preserve">0.361661493778229</t>
   </si>
   <si>
     <t xml:space="preserve">0.355554848909378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358927100896835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114621162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358289122581482</t>
+    <t xml:space="preserve">0.35892716050148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114650964737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358289152383804</t>
   </si>
   <si>
     <t xml:space="preserve">0.360112011432648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365945279598236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36795049905777</t>
+    <t xml:space="preserve">0.365945219993591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367950469255447</t>
   </si>
   <si>
     <t xml:space="preserve">0.364395827054977</t>
@@ -908,49 +908,49 @@
     <t xml:space="preserve">0.377247184514999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378887802362442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381257563829422</t>
+    <t xml:space="preserve">0.37888777256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381257593631744</t>
   </si>
   <si>
     <t xml:space="preserve">0.379799246788025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388731360435486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723680257797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383627265691757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075292825699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413975954056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380801826715469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377611756324768</t>
+    <t xml:space="preserve">0.388731390237808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723650455475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38362729549408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075263023376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413946151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380801856517792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37761178612709</t>
   </si>
   <si>
     <t xml:space="preserve">0.381713271141052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381530970335007</t>
+    <t xml:space="preserve">0.381531000137329</t>
   </si>
   <si>
     <t xml:space="preserve">0.382898181676865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372689992189407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373965978622437</t>
+    <t xml:space="preserve">0.372689962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373966008424759</t>
   </si>
   <si>
     <t xml:space="preserve">0.375515460968018</t>
@@ -959,25 +959,25 @@
     <t xml:space="preserve">0.366309851408005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359474003314972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358015716075897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362208396196365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348810106515884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357924580574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35774227976799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35701310634613</t>
+    <t xml:space="preserve">0.359474033117294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358015686273575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362208366394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348810136318207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357924550771713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357742309570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357013136148453</t>
   </si>
   <si>
     <t xml:space="preserve">0.35965633392334</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">0.364122420549393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36366668343544</t>
+    <t xml:space="preserve">0.363666623830795</t>
   </si>
   <si>
     <t xml:space="preserve">0.354734510183334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355737119913101</t>
+    <t xml:space="preserve">0.355737060308456</t>
   </si>
   <si>
     <t xml:space="preserve">0.365671843290329</t>
@@ -1004,46 +1004,46 @@
     <t xml:space="preserve">0.366400986909866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35181787610054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353640794754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352729320526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335411876440048</t>
+    <t xml:space="preserve">0.351817846298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353640764951706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352729290723801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335411906242371</t>
   </si>
   <si>
     <t xml:space="preserve">0.329031735658646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329943180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322651624679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563039302826</t>
+    <t xml:space="preserve">0.329943209886551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.322651654481888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563069105148</t>
   </si>
   <si>
     <t xml:space="preserve">0.321740180253983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334500432014465</t>
+    <t xml:space="preserve">0.334500461816788</t>
   </si>
   <si>
     <t xml:space="preserve">0.342703431844711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319005817174911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182928323746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271543502808</t>
+    <t xml:space="preserve">0.319005846977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182958126068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271513700485</t>
   </si>
   <si>
     <t xml:space="preserve">0.326297432184219</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">0.310802817344666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301688402891159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30259981751442</t>
+    <t xml:space="preserve">0.301688432693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302599847316742</t>
   </si>
   <si>
     <t xml:space="preserve">0.309891402721405</t>
@@ -1067,52 +1067,52 @@
     <t xml:space="preserve">0.308068513870239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314448624849319</t>
+    <t xml:space="preserve">0.314448654651642</t>
   </si>
   <si>
     <t xml:space="preserve">0.311714291572571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304422736167908</t>
+    <t xml:space="preserve">0.304422706365585</t>
   </si>
   <si>
     <t xml:space="preserve">0.305334180593491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306245625019073</t>
+    <t xml:space="preserve">0.306245595216751</t>
   </si>
   <si>
     <t xml:space="preserve">0.298954039812088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299865454435349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776958465576</t>
+    <t xml:space="preserve">0.299865484237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776988267899</t>
   </si>
   <si>
     <t xml:space="preserve">0.303511261940002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307157039642334</t>
+    <t xml:space="preserve">0.307157099246979</t>
   </si>
   <si>
     <t xml:space="preserve">0.313537180423737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3089799284935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31536003947258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348250955343246</t>
+    <t xml:space="preserve">0.308979958295822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.315360069274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348250925540924</t>
   </si>
   <si>
     <t xml:space="preserve">0.351975500583649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342664003372192</t>
+    <t xml:space="preserve">0.342664033174515</t>
   </si>
   <si>
     <t xml:space="preserve">0.335214823484421</t>
@@ -1133,40 +1133,40 @@
     <t xml:space="preserve">0.349182069301605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346388608217239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341732859611511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352906674146652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345457464456558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343595176935196</t>
+    <t xml:space="preserve">0.346388578414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341732889413834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35290664434433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345457434654236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343595147132874</t>
   </si>
   <si>
     <t xml:space="preserve">0.337077081203461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340801686048508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339870542287827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338939398527145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353837847709656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372460842132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358493596315384</t>
+    <t xml:space="preserve">0.34080171585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339870572090149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338939428329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353837788105011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372460871934891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358493566513062</t>
   </si>
   <si>
     <t xml:space="preserve">0.363149344921112</t>
@@ -1175,10 +1175,10 @@
     <t xml:space="preserve">0.362218201160431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356631249189377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361287087202072</t>
+    <t xml:space="preserve">0.356631278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36128705739975</t>
   </si>
   <si>
     <t xml:space="preserve">0.365942806005478</t>
@@ -1187,34 +1187,34 @@
     <t xml:space="preserve">0.367805123329163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368736296892166</t>
+    <t xml:space="preserve">0.368736267089844</t>
   </si>
   <si>
     <t xml:space="preserve">0.366873919963837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37152972817421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385497033596039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3780477643013</t>
+    <t xml:space="preserve">0.371529698371887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385496973991394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378047734498978</t>
   </si>
   <si>
     <t xml:space="preserve">0.379910081624985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388290464878082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.415293872356415</t>
+    <t xml:space="preserve">0.388290494680405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.415293902158737</t>
   </si>
   <si>
     <t xml:space="preserve">0.404120057821274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399464249610901</t>
+    <t xml:space="preserve">0.399464279413223</t>
   </si>
   <si>
     <t xml:space="preserve">0.407844632863998</t>
@@ -1223,13 +1223,13 @@
     <t xml:space="preserve">0.414362698793411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395739734172821</t>
+    <t xml:space="preserve">0.395739704370499</t>
   </si>
   <si>
     <t xml:space="preserve">0.400395452976227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405051171779633</t>
+    <t xml:space="preserve">0.405051201581955</t>
   </si>
   <si>
     <t xml:space="preserve">0.405982345342636</t>
@@ -1250,22 +1250,22 @@
     <t xml:space="preserve">0.401326566934586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41343155503273</t>
+    <t xml:space="preserve">0.413431584835052</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422743082046509</t>
+    <t xml:space="preserve">0.422743111848831</t>
   </si>
   <si>
     <t xml:space="preserve">0.424605399370193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444159626960754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474887609481812</t>
+    <t xml:space="preserve">0.444159597158432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474887579679489</t>
   </si>
   <si>
     <t xml:space="preserve">0.458126872777939</t>
@@ -1274,43 +1274,43 @@
     <t xml:space="preserve">0.45253998041153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455333381891251</t>
+    <t xml:space="preserve">0.455333411693573</t>
   </si>
   <si>
     <t xml:space="preserve">0.454402267932892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450677663087845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446953058242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446021854877472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.453471094369888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456264585256577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.471162974834442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476749956607819</t>
+    <t xml:space="preserve">0.450677633285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446953028440475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446021914482117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.453471124172211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456264615058899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.471163004636765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476749926805496</t>
   </si>
   <si>
     <t xml:space="preserve">0.457195729017258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459058046340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460920333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.445090711116791</t>
+    <t xml:space="preserve">0.45905801653862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460920363664627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.445090740919113</t>
   </si>
   <si>
     <t xml:space="preserve">0.439503818750381</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">0.451608806848526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447884172201157</t>
+    <t xml:space="preserve">0.447884202003479</t>
   </si>
   <si>
     <t xml:space="preserve">0.448815375566483</t>
@@ -1334,22 +1334,22 @@
     <t xml:space="preserve">0.653668880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744921684265137</t>
+    <t xml:space="preserve">0.744921743869781</t>
   </si>
   <si>
     <t xml:space="preserve">0.672291874885559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657393455505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.687190353870392</t>
+    <t xml:space="preserve">0.657393395900726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.687190294265747</t>
   </si>
   <si>
     <t xml:space="preserve">0.666705012321472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.638770341873169</t>
+    <t xml:space="preserve">0.638770401477814</t>
   </si>
   <si>
     <t xml:space="preserve">0.610835790634155</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">0.59035050868988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568002760410309</t>
+    <t xml:space="preserve">0.568002879619598</t>
   </si>
   <si>
     <t xml:space="preserve">0.608973503112793</t>
@@ -1367,10 +1367,10 @@
     <t xml:space="preserve">0.635045766830444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631321132183075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629458904266357</t>
+    <t xml:space="preserve">0.63132119178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629458963871002</t>
   </si>
   <si>
     <t xml:space="preserve">0.633183479309082</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">0.642495036125183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644357264041901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62759655714035</t>
+    <t xml:space="preserve">0.644357323646545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627596616744995</t>
   </si>
   <si>
     <t xml:space="preserve">0.601524412631989</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">0.577314376831055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525169849395752</t>
+    <t xml:space="preserve">0.525169789791107</t>
   </si>
   <si>
     <t xml:space="preserve">0.515858352184296</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">0.493510663509369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499097585678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486061453819275</t>
+    <t xml:space="preserve">0.499097555875778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486061424016953</t>
   </si>
   <si>
     <t xml:space="preserve">0.42833000421524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437641501426697</t>
+    <t xml:space="preserve">0.437641561031342</t>
   </si>
   <si>
     <t xml:space="preserve">0.463713794946671</t>
@@ -1430,22 +1430,22 @@
     <t xml:space="preserve">0.44229730963707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491648346185684</t>
+    <t xml:space="preserve">0.491648316383362</t>
   </si>
   <si>
     <t xml:space="preserve">0.500959873199463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513995945453644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.510271430015564</t>
+    <t xml:space="preserve">0.513996005058289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.510271310806274</t>
   </si>
   <si>
     <t xml:space="preserve">0.508409142494202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.512133717536926</t>
+    <t xml:space="preserve">0.512133657932281</t>
   </si>
   <si>
     <t xml:space="preserve">0.543792843818665</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">0.54006826877594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.571727454662323</t>
+    <t xml:space="preserve">0.571727395057678</t>
   </si>
   <si>
     <t xml:space="preserve">0.582901239395142</t>
@@ -1466,40 +1466,40 @@
     <t xml:space="preserve">0.558691263198853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538205921649933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530756711959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528894484043121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549379825592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532619059085846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521445274353027</t>
+    <t xml:space="preserve">0.538205981254578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530756771564484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528894424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549379765987396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532619118690491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521445214748383</t>
   </si>
   <si>
     <t xml:space="preserve">0.517720580101013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.506546795368195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536343693733215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564278185367584</t>
+    <t xml:space="preserve">0.506546854972839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536343634128571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564278244972229</t>
   </si>
   <si>
     <t xml:space="preserve">0.575452029705048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579176604747772</t>
+    <t xml:space="preserve">0.579176664352417</t>
   </si>
   <si>
     <t xml:space="preserve">0.592212796211243</t>
@@ -1511,25 +1511,25 @@
     <t xml:space="preserve">0.557269692420959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566747009754181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549687802791595</t>
+    <t xml:space="preserve">0.566747069358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549687743186951</t>
   </si>
   <si>
     <t xml:space="preserve">0.562956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551583230495453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5534787774086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.559165120124817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.542105853557587</t>
+    <t xml:space="preserve">0.551583290100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.553478717803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.559165179729462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.542105913162231</t>
   </si>
   <si>
     <t xml:space="preserve">0.544001400470734</t>
@@ -1541,16 +1541,16 @@
     <t xml:space="preserve">0.547792315483093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.545896887779236</t>
+    <t xml:space="preserve">0.545896828174591</t>
   </si>
   <si>
     <t xml:space="preserve">0.534523963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53641951084137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525046646595001</t>
+    <t xml:space="preserve">0.536419451236725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525046586990356</t>
   </si>
   <si>
     <t xml:space="preserve">0.519360184669495</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">0.51556932926178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513673722743988</t>
+    <t xml:space="preserve">0.513673782348633</t>
   </si>
   <si>
     <t xml:space="preserve">0.523151099681854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521255731582642</t>
+    <t xml:space="preserve">0.521255671977997</t>
   </si>
   <si>
     <t xml:space="preserve">0.528837621212006</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">0.739235281944275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.693743944168091</t>
+    <t xml:space="preserve">0.693743884563446</t>
   </si>
   <si>
     <t xml:space="preserve">0.653938949108124</t>
@@ -1595,19 +1595,19 @@
     <t xml:space="preserve">0.633088648319244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686162054538727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.676684558391571</t>
+    <t xml:space="preserve">0.686161994934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.676684617996216</t>
   </si>
   <si>
     <t xml:space="preserve">0.682371079921722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659625291824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669102787971497</t>
+    <t xml:space="preserve">0.659625351428986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669102668762207</t>
   </si>
   <si>
     <t xml:space="preserve">0.663416266441345</t>
@@ -1616,10 +1616,10 @@
     <t xml:space="preserve">0.644461572170258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.650147914886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640670657157898</t>
+    <t xml:space="preserve">0.650147974491119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640670597553253</t>
   </si>
   <si>
     <t xml:space="preserve">0.655834376811981</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">0.634984195232391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62929767370224</t>
+    <t xml:space="preserve">0.62929779291153</t>
   </si>
   <si>
     <t xml:space="preserve">0.625506818294525</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">0.616029441356659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.604656577110291</t>
+    <t xml:space="preserve">0.604656636714935</t>
   </si>
   <si>
     <t xml:space="preserve">0.602761089801788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593283712863922</t>
+    <t xml:space="preserve">0.593283653259277</t>
   </si>
   <si>
     <t xml:space="preserve">0.58759731054306</t>
@@ -1658,19 +1658,19 @@
     <t xml:space="preserve">0.597074627876282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.589492738246918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642566025257111</t>
+    <t xml:space="preserve">0.589492797851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642566084861755</t>
   </si>
   <si>
     <t xml:space="preserve">0.652043461799622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.636879563331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.617924928665161</t>
+    <t xml:space="preserve">0.636879622936249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.617924869060516</t>
   </si>
   <si>
     <t xml:space="preserve">0.598970234394073</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">0.600865662097931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610342979431152</t>
+    <t xml:space="preserve">0.610342919826508</t>
   </si>
   <si>
     <t xml:space="preserve">0.555374205112457</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">0.564851582050323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.532628536224365</t>
+    <t xml:space="preserve">0.53262847661972</t>
   </si>
   <si>
     <t xml:space="preserve">0.578119933605194</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">0.576224446296692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568642556667328</t>
+    <t xml:space="preserve">0.568642497062683</t>
   </si>
   <si>
     <t xml:space="preserve">0.561060667037964</t>
@@ -1709,19 +1709,19 @@
     <t xml:space="preserve">0.591388285160065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614133954048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.674789130687714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665311813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691848397254944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699430286884308</t>
+    <t xml:space="preserve">0.614134013652802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.674789190292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665311753749847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.691848456859589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699430346488953</t>
   </si>
   <si>
     <t xml:space="preserve">0.678580105304718</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">0.66720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657729864120483</t>
+    <t xml:space="preserve">0.657729923725128</t>
   </si>
   <si>
     <t xml:space="preserve">0.705116748809814</t>
@@ -1745,34 +1745,34 @@
     <t xml:space="preserve">0.688057482242584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.68047559261322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648252546787262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799890458583832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.758190035820007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788517713546753</t>
+    <t xml:space="preserve">0.680475533008575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648252487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799890518188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.758190095424652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788517653942108</t>
   </si>
   <si>
     <t xml:space="preserve">0.782831192016602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775249302387238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761980950832367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75629460811615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752503633499146</t>
+    <t xml:space="preserve">0.775249361991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761981010437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75629448890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75250369310379</t>
   </si>
   <si>
     <t xml:space="preserve">0.748712718486786</t>
@@ -1781,16 +1781,16 @@
     <t xml:space="preserve">0.724071502685547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727862417697906</t>
+    <t xml:space="preserve">0.727862477302551</t>
   </si>
   <si>
     <t xml:space="preserve">0.731653392314911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733548879623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725966989994049</t>
+    <t xml:space="preserve">0.733548820018768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725966930389404</t>
   </si>
   <si>
     <t xml:space="preserve">0.750608205795288</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">0.722176074981689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77714478969574</t>
+    <t xml:space="preserve">0.777144849300385</t>
   </si>
   <si>
     <t xml:space="preserve">0.769562840461731</t>
@@ -1832,19 +1832,19 @@
     <t xml:space="preserve">0.824638724327087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816985487937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803592264652252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788285732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792112410068512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.763412594795227</t>
+    <t xml:space="preserve">0.816985428333282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.803592205047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788285791873932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792112350463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.763412654399872</t>
   </si>
   <si>
     <t xml:space="preserve">0.757672727108002</t>
@@ -1859,22 +1859,22 @@
     <t xml:space="preserve">0.742366254329681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.738539576530457</t>
+    <t xml:space="preserve">0.738539636135101</t>
   </si>
   <si>
     <t xml:space="preserve">0.736626207828522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744279503822327</t>
+    <t xml:space="preserve">0.744279563426971</t>
   </si>
   <si>
     <t xml:space="preserve">0.751932799816132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746192812919617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.740452826023102</t>
+    <t xml:space="preserve">0.746192753314972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.740452885627747</t>
   </si>
   <si>
     <t xml:space="preserve">0.732799589633942</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">0.715579807758331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713666439056396</t>
+    <t xml:space="preserve">0.713666498661041</t>
   </si>
   <si>
     <t xml:space="preserve">0.694533348083496</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">0.730886280536652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759586095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771065890789032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750019371509552</t>
+    <t xml:space="preserve">0.759586036205292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771065831184387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750019431114197</t>
   </si>
   <si>
     <t xml:space="preserve">0.765325963497162</t>
@@ -1928,16 +1928,16 @@
     <t xml:space="preserve">0.778719186782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782545804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776805818080902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769152641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.767239272594452</t>
+    <t xml:space="preserve">0.782545864582062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776805877685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769152581691742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.767239212989807</t>
   </si>
   <si>
     <t xml:space="preserve">0.761499345302582</t>
@@ -1946,16 +1946,16 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734712958335876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717493057250977</t>
+    <t xml:space="preserve">0.734712898731232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717493116855621</t>
   </si>
   <si>
     <t xml:space="preserve">0.709839820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727059662342072</t>
+    <t xml:space="preserve">0.727059602737427</t>
   </si>
   <si>
     <t xml:space="preserve">0.719406425952911</t>
@@ -1964,22 +1964,22 @@
     <t xml:space="preserve">0.723232984542847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851425111293793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937524378299713</t>
+    <t xml:space="preserve">0.851425170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937524318695068</t>
   </si>
   <si>
     <t xml:space="preserve">0.903084635734558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904997944831848</t>
+    <t xml:space="preserve">0.904997885227203</t>
   </si>
   <si>
     <t xml:space="preserve">0.883951544761658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895431339740753</t>
+    <t xml:space="preserve">0.895431399345398</t>
   </si>
   <si>
     <t xml:space="preserve">0.843771934509277</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">0.853338479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876298248767853</t>
+    <t xml:space="preserve">0.876298308372498</t>
   </si>
   <si>
     <t xml:space="preserve">0.880124866962433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887778162956238</t>
+    <t xml:space="preserve">0.887778103351593</t>
   </si>
   <si>
     <t xml:space="preserve">0.885864794254303</t>
@@ -2021,22 +2021,22 @@
     <t xml:space="preserve">1.10972261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19582188129425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21017158031464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885582447052</t>
+    <t xml:space="preserve">1.19582176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21017181873322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885570526123</t>
   </si>
   <si>
     <t xml:space="preserve">1.04275667667389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09537267684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1049393415451</t>
+    <t xml:space="preserve">1.09537279605865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10493922233582</t>
   </si>
   <si>
     <t xml:space="preserve">1.12407243251801</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">1.11928915977478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18147206306458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13842236995697</t>
+    <t xml:space="preserve">1.18147194385529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13842248916626</t>
   </si>
   <si>
     <t xml:space="preserve">1.08102297782898</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">1.09058940410614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07623958587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05232322216034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03797340393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11450600624084</t>
+    <t xml:space="preserve">1.07623970508575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05232310295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03797328472137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11450588703156</t>
   </si>
   <si>
     <t xml:space="preserve">1.13363909721375</t>
@@ -2081,10 +2081,10 @@
     <t xml:space="preserve">1.03319013118744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02362358570099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994923651218414</t>
+    <t xml:space="preserve">1.0236234664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994923770427704</t>
   </si>
   <si>
     <t xml:space="preserve">0.922217786312103</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">0.980573892593384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914564490318298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872471630573273</t>
+    <t xml:space="preserve">0.914564549922943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872471570968628</t>
   </si>
   <si>
     <t xml:space="preserve">0.891604721546173</t>
@@ -2120,16 +2120,16 @@
     <t xml:space="preserve">0.949004173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947090864181519</t>
+    <t xml:space="preserve">0.947090923786163</t>
   </si>
   <si>
     <t xml:space="preserve">0.910737931728363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941350996494293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954744219779968</t>
+    <t xml:space="preserve">0.941350936889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954744160175323</t>
   </si>
   <si>
     <t xml:space="preserve">0.956657469272614</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">0.889691472053528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884908139705658</t>
+    <t xml:space="preserve">0.884908199310303</t>
   </si>
   <si>
     <t xml:space="preserve">0.873428225517273</t>
@@ -2165,22 +2165,22 @@
     <t xml:space="preserve">0.865774989128113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860991716384888</t>
+    <t xml:space="preserve">0.860991656780243</t>
   </si>
   <si>
     <t xml:space="preserve">0.818898797035217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920304477214813</t>
+    <t xml:space="preserve">0.920304536819458</t>
   </si>
   <si>
     <t xml:space="preserve">0.904041290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901171326637268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845685184001923</t>
+    <t xml:space="preserve">0.901171267032623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845685243606567</t>
   </si>
   <si>
     <t xml:space="preserve">0.846641838550568</t>
@@ -2192,16 +2192,16 @@
     <t xml:space="preserve">0.870558321475983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866731703281403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983443856239319</t>
+    <t xml:space="preserve">0.866731643676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983443915843964</t>
   </si>
   <si>
     <t xml:space="preserve">0.939437627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940394282341003</t>
+    <t xml:space="preserve">0.940394222736359</t>
   </si>
   <si>
     <t xml:space="preserve">0.929871022701263</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">0.877254903316498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839945316314697</t>
+    <t xml:space="preserve">0.839945256710052</t>
   </si>
   <si>
     <t xml:space="preserve">0.852381765842438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861948370933533</t>
+    <t xml:space="preserve">0.861948430538177</t>
   </si>
   <si>
     <t xml:space="preserve">0.877983152866364</t>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">GTH.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421087741851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413796126842499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41653048992157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393653184175491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400944769382477</t>
+    <t xml:space="preserve">0.421087712049484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413796156644821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.416530519723892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393653243780136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400944799184799</t>
   </si>
   <si>
     <t xml:space="preserve">0.394108921289444</t>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">0.396478712558746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400033324956894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405046254396439</t>
+    <t xml:space="preserve">0.400033354759216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405046343803406</t>
   </si>
   <si>
     <t xml:space="preserve">0.397116720676422</t>
@@ -80,49 +80,49 @@
     <t xml:space="preserve">0.382807016372681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40468168258667</t>
+    <t xml:space="preserve">0.404681712388992</t>
   </si>
   <si>
     <t xml:space="preserve">0.409876942634583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405501991510391</t>
+    <t xml:space="preserve">0.405502021312714</t>
   </si>
   <si>
     <t xml:space="preserve">0.408327490091324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406778037548065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402767688035965</t>
+    <t xml:space="preserve">0.406778007745743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402767658233643</t>
   </si>
   <si>
     <t xml:space="preserve">0.403314530849457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389095991849899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373601406812668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35728657245636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359929740428925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338237345218658</t>
+    <t xml:space="preserve">0.389095962047577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37360143661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357286542654037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359929710626602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338237375020981</t>
   </si>
   <si>
     <t xml:space="preserve">0.332404047250748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355463653802872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355372488498688</t>
+    <t xml:space="preserve">0.355463624000549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355372548103333</t>
   </si>
   <si>
     <t xml:space="preserve">0.385450214147568</t>
@@ -143,22 +143,22 @@
     <t xml:space="preserve">0.406504601240158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409694671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393835514783859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405593156814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402403086423874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396569818258286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392650574445724</t>
+    <t xml:space="preserve">0.409694612026215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393835484981537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405593127012253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402403056621552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39656987786293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392650634050369</t>
   </si>
   <si>
     <t xml:space="preserve">0.392012596130371</t>
@@ -176,46 +176,46 @@
     <t xml:space="preserve">0.387728810310364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382169008255005</t>
+    <t xml:space="preserve">0.382168978452682</t>
   </si>
   <si>
     <t xml:space="preserve">0.383718460798264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39073657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389916270971298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389642864465714</t>
+    <t xml:space="preserve">0.390736609697342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389916300773621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389642834663391</t>
   </si>
   <si>
     <t xml:space="preserve">0.35418763756752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356830835342407</t>
+    <t xml:space="preserve">0.356830805540085</t>
   </si>
   <si>
     <t xml:space="preserve">0.346804916858673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368132710456848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359018296003342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355190187692642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372416526079178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372598856687546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364486962556839</t>
+    <t xml:space="preserve">0.368132740259171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359018325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355190217494965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3724165558815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372598826885223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364486932754517</t>
   </si>
   <si>
     <t xml:space="preserve">0.387364238500595</t>
@@ -224,34 +224,34 @@
     <t xml:space="preserve">0.373783677816391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373692542314529</t>
+    <t xml:space="preserve">0.373692572116852</t>
   </si>
   <si>
     <t xml:space="preserve">0.391648024320602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391830325126648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403679102659225</t>
+    <t xml:space="preserve">0.391830265522003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403679132461548</t>
   </si>
   <si>
     <t xml:space="preserve">0.395020395517349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391101211309433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.390463203191757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379161238670349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369135320186615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377338349819183</t>
+    <t xml:space="preserve">0.391101181507111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390463173389435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379161208868027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369135349988937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377338379621506</t>
   </si>
   <si>
     <t xml:space="preserve">0.369044184684753</t>
@@ -263,16 +263,16 @@
     <t xml:space="preserve">0.373874872922897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372143089771271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372507721185684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366765558719635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373510271310806</t>
+    <t xml:space="preserve">0.372143119573593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372507661581039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366765588521957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373510241508484</t>
   </si>
   <si>
     <t xml:space="preserve">0.366856724023819</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">0.382715880870819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368588477373123</t>
+    <t xml:space="preserve">0.368588447570801</t>
   </si>
   <si>
     <t xml:space="preserve">0.376609176397324</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">0.375150859355927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364669263362885</t>
+    <t xml:space="preserve">0.364669233560562</t>
   </si>
   <si>
     <t xml:space="preserve">0.365489542484283</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">0.370958238840103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360020875930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348172098398209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350906401872635</t>
+    <t xml:space="preserve">0.360020905733109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348172068595886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350906431674957</t>
   </si>
   <si>
     <t xml:space="preserve">0.354552239179611</t>
@@ -326,64 +326,64 @@
     <t xml:space="preserve">0.364578098058701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354461073875427</t>
+    <t xml:space="preserve">0.354461044073105</t>
   </si>
   <si>
     <t xml:space="preserve">0.352455884218216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339969098567963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35227358341217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348354369401932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344435185194016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337234735488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333497852087021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346166878938675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34634917974472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341792017221451</t>
+    <t xml:space="preserve">0.33996906876564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352273613214493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348354399204254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344435155391693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337234795093536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333497822284698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346166908740997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346349209547043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341791987419128</t>
   </si>
   <si>
     <t xml:space="preserve">0.330581188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326206207275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324474513530731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327755689620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329852074384689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245114803314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329487472772598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32766455411911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325294822454453</t>
+    <t xml:space="preserve">0.326206266880035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324474543333054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327755719423294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329852014780045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245085000992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329487442970276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327664583921432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32529479265213</t>
   </si>
   <si>
     <t xml:space="preserve">0.326115131378174</t>
@@ -395,49 +395,49 @@
     <t xml:space="preserve">0.340971678495407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33759930729866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340515911579132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340880542993546</t>
+    <t xml:space="preserve">0.337599337100983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340515971183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340880513191223</t>
   </si>
   <si>
     <t xml:space="preserve">0.341518551111221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334865003824234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336323291063309</t>
+    <t xml:space="preserve">0.334864974021912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336323320865631</t>
   </si>
   <si>
     <t xml:space="preserve">0.335320740938187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33905765414238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32957860827446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331766068935394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332312911748886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325385957956314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328211426734924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332677513360977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328120321035385</t>
+    <t xml:space="preserve">0.339057624340057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329578667879105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331766039133072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332312941551208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325385928153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328211456537247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3326775431633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328120291233063</t>
   </si>
   <si>
     <t xml:space="preserve">0.319917291402817</t>
@@ -449,34 +449,34 @@
     <t xml:space="preserve">0.334226995706558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323016256093979</t>
+    <t xml:space="preserve">0.323016196489334</t>
   </si>
   <si>
     <t xml:space="preserve">0.320828706026077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361752659082413</t>
+    <t xml:space="preserve">0.36175262928009</t>
   </si>
   <si>
     <t xml:space="preserve">0.335867583751678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333680093288422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330945730209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335229575634003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343432515859604</t>
+    <t xml:space="preserve">0.333680123090744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330945789813995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33522954583168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343432575464249</t>
   </si>
   <si>
     <t xml:space="preserve">0.349083513021469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338875383138657</t>
+    <t xml:space="preserve">0.338875323534012</t>
   </si>
   <si>
     <t xml:space="preserve">0.342885702848434</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">0.35108870267868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349265784025192</t>
+    <t xml:space="preserve">0.349265813827515</t>
   </si>
   <si>
     <t xml:space="preserve">0.340151369571686</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">0.335594147443771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342976838350296</t>
+    <t xml:space="preserve">0.342976897954941</t>
   </si>
   <si>
     <t xml:space="preserve">0.349721550941467</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">0.34543776512146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3535495698452</t>
+    <t xml:space="preserve">0.353549599647522</t>
   </si>
   <si>
     <t xml:space="preserve">0.354916781187057</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">0.330854654312134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324109941720963</t>
+    <t xml:space="preserve">0.32410991191864</t>
   </si>
   <si>
     <t xml:space="preserve">0.331310361623764</t>
@@ -554,19 +554,19 @@
     <t xml:space="preserve">0.312625706195831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332586377859116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33714359998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052494287491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966518640518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146179914474</t>
+    <t xml:space="preserve">0.332586348056793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337143570184708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052464485168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966488838196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146209716797</t>
   </si>
   <si>
     <t xml:space="preserve">0.350724130868912</t>
@@ -587,13 +587,13 @@
     <t xml:space="preserve">0.346258074045181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347260683774948</t>
+    <t xml:space="preserve">0.347260653972626</t>
   </si>
   <si>
     <t xml:space="preserve">0.353185057640076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353367328643799</t>
+    <t xml:space="preserve">0.353367358446121</t>
   </si>
   <si>
     <t xml:space="preserve">0.362755209207535</t>
@@ -602,58 +602,58 @@
     <t xml:space="preserve">0.381804436445236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38052836060524</t>
+    <t xml:space="preserve">0.380528420209885</t>
   </si>
   <si>
     <t xml:space="preserve">0.389825165271759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380892962217331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369408756494522</t>
+    <t xml:space="preserve">0.380892992019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369408786296844</t>
   </si>
   <si>
     <t xml:space="preserve">0.362390637397766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36293751001358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479222774506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361934900283813</t>
+    <t xml:space="preserve">0.362937480211258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479192972183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361934930086136</t>
   </si>
   <si>
     <t xml:space="preserve">0.367585837841034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368223875761032</t>
+    <t xml:space="preserve">0.368223905563354</t>
   </si>
   <si>
     <t xml:space="preserve">0.370411366224289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363484352827072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358744859695435</t>
+    <t xml:space="preserve">0.363484382629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358744829893112</t>
   </si>
   <si>
     <t xml:space="preserve">0.357195407152176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358198046684265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363119840621948</t>
+    <t xml:space="preserve">0.35819798707962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363119781017303</t>
   </si>
   <si>
     <t xml:space="preserve">0.347625225782394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35327622294426</t>
+    <t xml:space="preserve">0.353276193141937</t>
   </si>
   <si>
     <t xml:space="preserve">0.353093892335892</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">0.349994987249374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343797147274017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343250274658203</t>
+    <t xml:space="preserve">0.34379717707634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343250304460526</t>
   </si>
   <si>
     <t xml:space="preserve">0.346075773239136</t>
@@ -674,16 +674,16 @@
     <t xml:space="preserve">0.344617456197739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350268393754959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344890892505646</t>
+    <t xml:space="preserve">0.350268423557281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344890862703323</t>
   </si>
   <si>
     <t xml:space="preserve">0.350359588861465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349356949329376</t>
+    <t xml:space="preserve">0.349356979131699</t>
   </si>
   <si>
     <t xml:space="preserve">0.358380287885666</t>
@@ -692,19 +692,19 @@
     <t xml:space="preserve">0.353458493947983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35710421204567</t>
+    <t xml:space="preserve">0.357104241847992</t>
   </si>
   <si>
     <t xml:space="preserve">0.359747439622879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359565168619156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299472093582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356375098228455</t>
+    <t xml:space="preserve">0.359565138816833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299531698227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356375068426132</t>
   </si>
   <si>
     <t xml:space="preserve">0.356192797422409</t>
@@ -713,70 +713,70 @@
     <t xml:space="preserve">0.374330580234528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36886191368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37414824962616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525810480118</t>
+    <t xml:space="preserve">0.368861943483353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374148279428482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525780677795</t>
   </si>
   <si>
     <t xml:space="preserve">0.363575518131256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352820515632629</t>
+    <t xml:space="preserve">0.352820456027985</t>
   </si>
   <si>
     <t xml:space="preserve">0.3565573990345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361570358276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360932320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362572908401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355919420719147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358471393585205</t>
+    <t xml:space="preserve">0.361570328474045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360932350158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362572938203812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355919390916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358471423387527</t>
   </si>
   <si>
     <t xml:space="preserve">0.368315041065216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369864493608475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374604016542435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366674453020096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369226455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372781097888947</t>
+    <t xml:space="preserve">0.369864523410797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374604046344757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366674423217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369226485490799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372781127691269</t>
   </si>
   <si>
     <t xml:space="preserve">0.370867073535919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368041604757309</t>
+    <t xml:space="preserve">0.368041574954987</t>
   </si>
   <si>
     <t xml:space="preserve">0.387273102998734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382533550262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378340929746628</t>
+    <t xml:space="preserve">0.382533609867096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37834095954895</t>
   </si>
   <si>
     <t xml:space="preserve">0.386270493268967</t>
@@ -785,37 +785,37 @@
     <t xml:space="preserve">0.384174197912216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380984127521515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260143756866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541409254074</t>
+    <t xml:space="preserve">0.380984157323837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260173559189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541349649429</t>
   </si>
   <si>
     <t xml:space="preserve">0.386817365884781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378978937864304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523260354996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505051851273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869683265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366583287715912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365398406982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365763038396835</t>
+    <t xml:space="preserve">0.378978997468948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523230552673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371505111455917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869653463364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366583317518234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365398466587067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365763008594513</t>
   </si>
   <si>
     <t xml:space="preserve">0.360294342041016</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">0.364304661750793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360385477542877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363848924636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466203927994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355828195810318</t>
+    <t xml:space="preserve">0.360385447740555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363848954439163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466233730316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35582822561264</t>
   </si>
   <si>
     <t xml:space="preserve">0.357377707958221</t>
@@ -845,121 +845,121 @@
     <t xml:space="preserve">0.361296892166138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366218715906143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365854144096375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358653753995895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364851534366608</t>
+    <t xml:space="preserve">0.366218686103821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365854114294052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358653724193573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364851504564285</t>
   </si>
   <si>
     <t xml:space="preserve">0.355645924806595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362117201089859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366036474704742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363757848739624</t>
+    <t xml:space="preserve">0.362117230892181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366036385297775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363757818937302</t>
   </si>
   <si>
     <t xml:space="preserve">0.356922000646591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361661493778229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554789304733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35892716050148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114650964737</t>
+    <t xml:space="preserve">0.361661523580551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554819107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358927130699158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114621162415</t>
   </si>
   <si>
     <t xml:space="preserve">0.358289152383804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36011204123497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945249795914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367950439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3643958568573</t>
+    <t xml:space="preserve">0.360111981630325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945279598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367950469255447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364395827054977</t>
   </si>
   <si>
     <t xml:space="preserve">0.359291732311249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365125000476837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377247214317322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378887802362442</t>
+    <t xml:space="preserve">0.365124970674515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377247154712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37888777256012</t>
   </si>
   <si>
     <t xml:space="preserve">0.381257563829422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379799246788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388731390237808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723680257797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383627325296402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075233221054</t>
+    <t xml:space="preserve">0.379799216985703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388731360435486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723650455475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383627265691757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075263023376</t>
   </si>
   <si>
     <t xml:space="preserve">0.371413946151733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380801856517792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377611756324768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381713300943375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381530970335007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382898151874542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372689992189407</t>
+    <t xml:space="preserve">0.380801826715469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377611726522446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381713271141052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381531000137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382898181676865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372689962387085</t>
   </si>
   <si>
     <t xml:space="preserve">0.373965978622437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375515431165695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366309851408005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359474033117294</t>
+    <t xml:space="preserve">0.375515460968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366309881210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359474003314972</t>
   </si>
   <si>
     <t xml:space="preserve">0.358015686273575</t>
@@ -974,34 +974,34 @@
     <t xml:space="preserve">0.357924550771713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35774227976799</t>
+    <t xml:space="preserve">0.357742249965668</t>
   </si>
   <si>
     <t xml:space="preserve">0.35701310634613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35965633392334</t>
+    <t xml:space="preserve">0.359656304121017</t>
   </si>
   <si>
     <t xml:space="preserve">0.36412239074707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363666623830795</t>
+    <t xml:space="preserve">0.363666653633118</t>
   </si>
   <si>
     <t xml:space="preserve">0.354734510183334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355737090110779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365671873092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36184373497963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366401016712189</t>
+    <t xml:space="preserve">0.355737119913101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365671843290329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361843824386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366400986909866</t>
   </si>
   <si>
     <t xml:space="preserve">0.351817905902863</t>
@@ -1010,10 +1010,10 @@
     <t xml:space="preserve">0.353640794754028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352729350328445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335411876440048</t>
+    <t xml:space="preserve">0.352729320526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335411846637726</t>
   </si>
   <si>
     <t xml:space="preserve">0.329031735658646</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">0.329943209886551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.322651624679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563039302826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.321740180253983</t>
+    <t xml:space="preserve">0.32265168428421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563098907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32174015045166</t>
   </si>
   <si>
     <t xml:space="preserve">0.334500432014465</t>
@@ -1049,16 +1049,16 @@
     <t xml:space="preserve">0.326297402381897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318094372749329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310802847146988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301688402891159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.302599847316742</t>
+    <t xml:space="preserve">0.318094402551651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310802817344666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301688373088837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30259981751442</t>
   </si>
   <si>
     <t xml:space="preserve">0.309891402721405</t>
@@ -1067,25 +1067,25 @@
     <t xml:space="preserve">0.308068513870239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314448595046997</t>
+    <t xml:space="preserve">0.314448624849319</t>
   </si>
   <si>
     <t xml:space="preserve">0.311714291572571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30442276597023</t>
+    <t xml:space="preserve">0.304422736167908</t>
   </si>
   <si>
     <t xml:space="preserve">0.305334180593491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306245565414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298954099416733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865514039993</t>
+    <t xml:space="preserve">0.306245595216751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298954039812088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865484237671</t>
   </si>
   <si>
     <t xml:space="preserve">0.300776928663254</t>
@@ -1100,13 +1100,10 @@
     <t xml:space="preserve">0.313537180423737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308979958295822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31536003947258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344526320695877</t>
+    <t xml:space="preserve">0.3089799284935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.315360099077225</t>
   </si>
   <si>
     <t xml:space="preserve">0.348250925540924</t>
@@ -1115,10 +1112,10 @@
     <t xml:space="preserve">0.351975560188293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342664003372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335214793682098</t>
+    <t xml:space="preserve">0.34266397356987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335214763879776</t>
   </si>
   <si>
     <t xml:space="preserve">0.338008254766464</t>
@@ -1127,31 +1124,31 @@
     <t xml:space="preserve">0.33614593744278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347319781780243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354768991470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349182099103928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346388608217239</t>
+    <t xml:space="preserve">0.347319751977921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354768961668015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349182039499283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346388638019562</t>
   </si>
   <si>
     <t xml:space="preserve">0.341732859611511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352906703948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345457434654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343595117330551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337077081203461</t>
+    <t xml:space="preserve">0.352906674146652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345457464456558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343595176935196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337077111005783</t>
   </si>
   <si>
     <t xml:space="preserve">0.340801686048508</t>
@@ -1163,46 +1160,46 @@
     <t xml:space="preserve">0.338939398527145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353837788105011</t>
+    <t xml:space="preserve">0.353837847709656</t>
   </si>
   <si>
     <t xml:space="preserve">0.372460871934891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358493566513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363149344921112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362218201160431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631278991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361287087202072</t>
+    <t xml:space="preserve">0.358493596315384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36314931511879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362218171358109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631249189377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36128705739975</t>
   </si>
   <si>
     <t xml:space="preserve">0.3659428358078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36780509352684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368736237287521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366873949766159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371529668569565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385497003793716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378047794103622</t>
+    <t xml:space="preserve">0.367805123329163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368736267089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366873979568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371529698371887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385496973991394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3780477643013</t>
   </si>
   <si>
     <t xml:space="preserve">0.379910081624985</t>
@@ -1211,13 +1208,13 @@
     <t xml:space="preserve">0.388290464878082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415293902158737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404120028018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.399464279413223</t>
+    <t xml:space="preserve">0.415293872356415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404120057821274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399464249610901</t>
   </si>
   <si>
     <t xml:space="preserve">0.407844662666321</t>
@@ -1226,28 +1223,28 @@
     <t xml:space="preserve">0.414362728595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395739674568176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400395423173904</t>
+    <t xml:space="preserve">0.395739704370499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400395452976227</t>
   </si>
   <si>
     <t xml:space="preserve">0.405051201581955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405982375144958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409706950187683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391083925962448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403188943862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396670818328857</t>
+    <t xml:space="preserve">0.405982345342636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409706920385361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391083896160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403188914060593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39667084813118</t>
   </si>
   <si>
     <t xml:space="preserve">0.401326596736908</t>
@@ -1259,22 +1256,22 @@
     <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422743052244186</t>
+    <t xml:space="preserve">0.422743082046509</t>
   </si>
   <si>
     <t xml:space="preserve">0.424605369567871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444159597158432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474887549877167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.458126902580261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45253998041153</t>
+    <t xml:space="preserve">0.44415956735611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474887579679489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.458126872777939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452539950609207</t>
   </si>
   <si>
     <t xml:space="preserve">0.455333411693573</t>
@@ -1283,46 +1280,46 @@
     <t xml:space="preserve">0.454402238130569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450677633285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446953058242798</t>
+    <t xml:space="preserve">0.450677692890167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446953028440475</t>
   </si>
   <si>
     <t xml:space="preserve">0.446021884679794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453471124172211</t>
+    <t xml:space="preserve">0.453471094369888</t>
   </si>
   <si>
     <t xml:space="preserve">0.456264585256577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471162974834442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476749926805496</t>
+    <t xml:space="preserve">0.471163004636765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476749897003174</t>
   </si>
   <si>
     <t xml:space="preserve">0.457195729017258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45905801653862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460920363664627</t>
+    <t xml:space="preserve">0.459058046340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460920333862305</t>
   </si>
   <si>
     <t xml:space="preserve">0.445090740919113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439503848552704</t>
+    <t xml:space="preserve">0.439503818750381</t>
   </si>
   <si>
     <t xml:space="preserve">0.451608806848526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447884231805801</t>
+    <t xml:space="preserve">0.447884202003479</t>
   </si>
   <si>
     <t xml:space="preserve">0.448815375566483</t>
@@ -1334,7 +1331,7 @@
     <t xml:space="preserve">0.504684507846832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653668820858002</t>
+    <t xml:space="preserve">0.653668880462646</t>
   </si>
   <si>
     <t xml:space="preserve">0.744921743869781</t>
@@ -1346,7 +1343,7 @@
     <t xml:space="preserve">0.657393395900726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687190234661102</t>
+    <t xml:space="preserve">0.687190353870392</t>
   </si>
   <si>
     <t xml:space="preserve">0.666704952716827</t>
@@ -1355,13 +1352,13 @@
     <t xml:space="preserve">0.638770401477814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610835909843445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59035050868988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568002760410309</t>
+    <t xml:space="preserve">0.6108358502388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590350449085236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568002820014954</t>
   </si>
   <si>
     <t xml:space="preserve">0.608973503112793</t>
@@ -1370,31 +1367,31 @@
     <t xml:space="preserve">0.635045766830444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631321251392365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629458904266357</t>
+    <t xml:space="preserve">0.63132119178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629458844661713</t>
   </si>
   <si>
     <t xml:space="preserve">0.633183479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640632688999176</t>
+    <t xml:space="preserve">0.640632629394531</t>
   </si>
   <si>
     <t xml:space="preserve">0.642494976520538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644357264041901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.627596616744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601524353027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57731431722641</t>
+    <t xml:space="preserve">0.644357323646545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62759655714035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601524293422699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.577314376831055</t>
   </si>
   <si>
     <t xml:space="preserve">0.525169849395752</t>
@@ -1421,31 +1418,31 @@
     <t xml:space="preserve">0.42833000421524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437641501426697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.463713794946671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435779213905334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.442297279834747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491648316383362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500959873199463</t>
+    <t xml:space="preserve">0.437641531229019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.463713765144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435779243707657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.442297250032425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491648346185684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500959813594818</t>
   </si>
   <si>
     <t xml:space="preserve">0.513996005058289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510271430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508409142494202</t>
+    <t xml:space="preserve">0.510271370410919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508409082889557</t>
   </si>
   <si>
     <t xml:space="preserve">0.512133717536926</t>
@@ -1454,31 +1451,31 @@
     <t xml:space="preserve">0.543792843818665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.54006814956665</t>
+    <t xml:space="preserve">0.540068209171295</t>
   </si>
   <si>
     <t xml:space="preserve">0.571727454662323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582901239395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566140532493591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.558691263198853</t>
+    <t xml:space="preserve">0.582901179790497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566140472888947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.558691322803497</t>
   </si>
   <si>
     <t xml:space="preserve">0.538205981254578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530756771564484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528894543647766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549379706382751</t>
+    <t xml:space="preserve">0.530756711959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528894424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549379825592041</t>
   </si>
   <si>
     <t xml:space="preserve">0.532619059085846</t>
@@ -1487,16 +1484,16 @@
     <t xml:space="preserve">0.521445214748383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517720580101013</t>
+    <t xml:space="preserve">0.517720639705658</t>
   </si>
   <si>
     <t xml:space="preserve">0.506546795368195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536343693733215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564278304576874</t>
+    <t xml:space="preserve">0.536343574523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564278244972229</t>
   </si>
   <si>
     <t xml:space="preserve">0.575452029705048</t>
@@ -1517,7 +1514,7 @@
     <t xml:space="preserve">0.566747069358826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.549687802791595</t>
+    <t xml:space="preserve">0.549687743186951</t>
   </si>
   <si>
     <t xml:space="preserve">0.562956094741821</t>
@@ -1529,19 +1526,19 @@
     <t xml:space="preserve">0.553478717803955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559165060520172</t>
+    <t xml:space="preserve">0.559165179729462</t>
   </si>
   <si>
     <t xml:space="preserve">0.542105913162231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544001340866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.540210425853729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547792375087738</t>
+    <t xml:space="preserve">0.544001400470734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.540210366249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547792315483093</t>
   </si>
   <si>
     <t xml:space="preserve">0.545896768569946</t>
@@ -1556,13 +1553,13 @@
     <t xml:space="preserve">0.525046586990356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51936012506485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51556932926178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513673722743988</t>
+    <t xml:space="preserve">0.519360184669495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.515569269657135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513673782348633</t>
   </si>
   <si>
     <t xml:space="preserve">0.523151159286499</t>
@@ -1577,10 +1574,10 @@
     <t xml:space="preserve">0.538314938545227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530732989311218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583806335926056</t>
+    <t xml:space="preserve">0.530733048915863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583806395530701</t>
   </si>
   <si>
     <t xml:space="preserve">0.735444366931915</t>
@@ -1589,25 +1586,25 @@
     <t xml:space="preserve">0.73923522233963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.693743824958801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653938949108124</t>
+    <t xml:space="preserve">0.693743884563446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653938889503479</t>
   </si>
   <si>
     <t xml:space="preserve">0.633088707923889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686161994934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.676684558391571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682371079921722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.659625291824341</t>
+    <t xml:space="preserve">0.686162054538727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.676684617996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682371020317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.659625351428986</t>
   </si>
   <si>
     <t xml:space="preserve">0.669102668762207</t>
@@ -1616,7 +1613,7 @@
     <t xml:space="preserve">0.663416266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644461512565613</t>
+    <t xml:space="preserve">0.644461572170258</t>
   </si>
   <si>
     <t xml:space="preserve">0.650147974491119</t>
@@ -1625,13 +1622,13 @@
     <t xml:space="preserve">0.640670597553253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655834376811981</t>
+    <t xml:space="preserve">0.655834436416626</t>
   </si>
   <si>
     <t xml:space="preserve">0.634984195232391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.629297733306885</t>
+    <t xml:space="preserve">0.62929779291153</t>
   </si>
   <si>
     <t xml:space="preserve">0.625506818294525</t>
@@ -1640,7 +1637,7 @@
     <t xml:space="preserve">0.619820356369019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616029441356659</t>
+    <t xml:space="preserve">0.616029381752014</t>
   </si>
   <si>
     <t xml:space="preserve">0.604656577110291</t>
@@ -1649,37 +1646,37 @@
     <t xml:space="preserve">0.602761089801788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593283712863922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587597370147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608447551727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597074687480927</t>
+    <t xml:space="preserve">0.593283653259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58759731054306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60844749212265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597074627876282</t>
   </si>
   <si>
     <t xml:space="preserve">0.589492738246918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642566025257111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652043461799622</t>
+    <t xml:space="preserve">0.642566084861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.652043402194977</t>
   </si>
   <si>
     <t xml:space="preserve">0.636879622936249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.617924869060516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598970174789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600865662097931</t>
+    <t xml:space="preserve">0.617924928665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598970234394073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.600865602493286</t>
   </si>
   <si>
     <t xml:space="preserve">0.610342979431152</t>
@@ -1694,19 +1691,19 @@
     <t xml:space="preserve">0.53262847661972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578119874000549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.576224446296692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568642616271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.561060667037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.572433412075043</t>
+    <t xml:space="preserve">0.578119933605194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.576224386692047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568642556667328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.561060607433319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.572433471679688</t>
   </si>
   <si>
     <t xml:space="preserve">0.59138822555542</t>
@@ -1715,34 +1712,34 @@
     <t xml:space="preserve">0.614134013652802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674789130687714</t>
+    <t xml:space="preserve">0.674789190292358</t>
   </si>
   <si>
     <t xml:space="preserve">0.665311813354492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691848456859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699430286884308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678580164909363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672893643379211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66720724105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657729864120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705116748809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.697534918785095</t>
+    <t xml:space="preserve">0.691848397254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699430346488953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678580105304718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672893702983856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667207181453705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657729923725128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705116808414459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.697534799575806</t>
   </si>
   <si>
     <t xml:space="preserve">0.688057482242584</t>
@@ -1751,22 +1748,22 @@
     <t xml:space="preserve">0.68047559261322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.648252546787262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799890458583832</t>
+    <t xml:space="preserve">0.648252487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799890518188477</t>
   </si>
   <si>
     <t xml:space="preserve">0.758190035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788517713546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782831251621246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775249361991882</t>
+    <t xml:space="preserve">0.788517653942108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782831192016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.775249421596527</t>
   </si>
   <si>
     <t xml:space="preserve">0.761981070041656</t>
@@ -1778,7 +1775,7 @@
     <t xml:space="preserve">0.752503633499146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748712778091431</t>
+    <t xml:space="preserve">0.748712718486786</t>
   </si>
   <si>
     <t xml:space="preserve">0.724071502685547</t>
@@ -1787,10 +1784,10 @@
     <t xml:space="preserve">0.727862477302551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731653451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733548820018768</t>
+    <t xml:space="preserve">0.7316535115242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733548879623413</t>
   </si>
   <si>
     <t xml:space="preserve">0.725966930389404</t>
@@ -1799,16 +1796,19 @@
     <t xml:space="preserve">0.750608146190643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743026256561279</t>
+    <t xml:space="preserve">0.744921803474426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.743026196956635</t>
   </si>
   <si>
     <t xml:space="preserve">0.741130769252777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746817171573639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.737339854240417</t>
+    <t xml:space="preserve">0.746817231178284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.737339794635773</t>
   </si>
   <si>
     <t xml:space="preserve">0.729757964611053</t>
@@ -1820,31 +1820,31 @@
     <t xml:space="preserve">0.777144849300385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769562900066376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76008552312851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.754399120807648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813158810138702</t>
+    <t xml:space="preserve">0.769562840461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760085582733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.754399061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813158750534058</t>
   </si>
   <si>
     <t xml:space="preserve">0.824638724327087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816985487937927</t>
+    <t xml:space="preserve">0.816985428333282</t>
   </si>
   <si>
     <t xml:space="preserve">0.803592264652252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788285732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792112410068512</t>
+    <t xml:space="preserve">0.788285791873932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792112350463867</t>
   </si>
   <si>
     <t xml:space="preserve">0.763412654399872</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">0.757672727108002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.753846049308777</t>
+    <t xml:space="preserve">0.753846108913422</t>
   </si>
   <si>
     <t xml:space="preserve">0.755759418010712</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">0.742366254329681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.738539576530457</t>
+    <t xml:space="preserve">0.738539636135101</t>
   </si>
   <si>
     <t xml:space="preserve">0.736626267433167</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">0.746192753314972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.740452826023102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.732799530029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.721319794654846</t>
+    <t xml:space="preserve">0.740452885627747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.732799589633942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.721319735050201</t>
   </si>
   <si>
     <t xml:space="preserve">0.715579807758331</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">0.690706670284271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.698359906673431</t>
+    <t xml:space="preserve">0.698359966278076</t>
   </si>
   <si>
     <t xml:space="preserve">0.730886280536652</t>
@@ -1910,10 +1910,10 @@
     <t xml:space="preserve">0.759586036205292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771065950393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750019431114197</t>
+    <t xml:space="preserve">0.771065890789032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750019371509552</t>
   </si>
   <si>
     <t xml:space="preserve">0.765325963497162</t>
@@ -1925,13 +1925,13 @@
     <t xml:space="preserve">0.774892508983612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.784459114074707</t>
+    <t xml:space="preserve">0.784459173679352</t>
   </si>
   <si>
     <t xml:space="preserve">0.778719186782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782545804977417</t>
+    <t xml:space="preserve">0.782545864582062</t>
   </si>
   <si>
     <t xml:space="preserve">0.776805818080902</t>
@@ -1949,16 +1949,16 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734713017940521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717493057250977</t>
+    <t xml:space="preserve">0.734712898731232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717493116855621</t>
   </si>
   <si>
     <t xml:space="preserve">0.709839820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727059602737427</t>
+    <t xml:space="preserve">0.727059662342072</t>
   </si>
   <si>
     <t xml:space="preserve">0.719406366348267</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">0.723233044147491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851425170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937524318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903084635734558</t>
+    <t xml:space="preserve">0.851425111293793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937524378299713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903084576129913</t>
   </si>
   <si>
     <t xml:space="preserve">0.904997944831848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883951544761658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895431339740753</t>
+    <t xml:space="preserve">0.883951485157013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895431399345398</t>
   </si>
   <si>
     <t xml:space="preserve">0.843771934509277</t>
@@ -1994,25 +1994,25 @@
     <t xml:space="preserve">0.853338479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876298189163208</t>
+    <t xml:space="preserve">0.876298308372498</t>
   </si>
   <si>
     <t xml:space="preserve">0.880124866962433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887778103351593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885864853858948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878211557865143</t>
+    <t xml:space="preserve">0.887778043746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885864794254303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878211498260498</t>
   </si>
   <si>
     <t xml:space="preserve">1.10015606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01884031295776</t>
+    <t xml:space="preserve">1.01884019374847</t>
   </si>
   <si>
     <t xml:space="preserve">1.0858062505722</t>
@@ -2024,19 +2024,19 @@
     <t xml:space="preserve">1.10972261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19582176208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21017158031464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885570526123</t>
+    <t xml:space="preserve">1.19582188129425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21017181873322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885582447052</t>
   </si>
   <si>
     <t xml:space="preserve">1.04275667667389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09537267684937</t>
+    <t xml:space="preserve">1.09537279605865</t>
   </si>
   <si>
     <t xml:space="preserve">1.1049393415451</t>
@@ -2054,16 +2054,16 @@
     <t xml:space="preserve">1.18147194385529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13842236995697</t>
+    <t xml:space="preserve">1.13842248916626</t>
   </si>
   <si>
     <t xml:space="preserve">1.08102285861969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09058952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07623958587646</t>
+    <t xml:space="preserve">1.09058940410614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07623970508575</t>
   </si>
   <si>
     <t xml:space="preserve">1.05232322216034</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">1.03797328472137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11450600624084</t>
+    <t xml:space="preserve">1.11450588703156</t>
   </si>
   <si>
     <t xml:space="preserve">1.13363897800446</t>
@@ -2081,19 +2081,19 @@
     <t xml:space="preserve">1.06667304039001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03319001197815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02362358570099</t>
+    <t xml:space="preserve">1.03319013118744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0236234664917</t>
   </si>
   <si>
     <t xml:space="preserve">0.994923770427704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922217786312103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999706983566284</t>
+    <t xml:space="preserve">0.922217845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999707043170929</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
@@ -2105,19 +2105,19 @@
     <t xml:space="preserve">0.914564490318298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872471630573273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891604721546173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945177555084229</t>
+    <t xml:space="preserve">0.872471570968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891604781150818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945177495479584</t>
   </si>
   <si>
     <t xml:space="preserve">0.966224074363708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04753994941711</t>
+    <t xml:space="preserve">1.0475400686264</t>
   </si>
   <si>
     <t xml:space="preserve">0.949004173278809</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">0.910737931728363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941350936889648</t>
+    <t xml:space="preserve">0.941350996494293</t>
   </si>
   <si>
     <t xml:space="preserve">0.954744160175323</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">0.956657469272614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943264245986938</t>
+    <t xml:space="preserve">0.943264305591583</t>
   </si>
   <si>
     <t xml:space="preserve">0.958570778369904</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">0.899258017539978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889691412448883</t>
+    <t xml:space="preserve">0.889691472053528</t>
   </si>
   <si>
     <t xml:space="preserve">0.884908199310303</t>
@@ -2165,28 +2165,28 @@
     <t xml:space="preserve">0.875341594219208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865774989128113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860991656780243</t>
+    <t xml:space="preserve">0.865775048732758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860991716384888</t>
   </si>
   <si>
     <t xml:space="preserve">0.818898797035217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920304477214813</t>
+    <t xml:space="preserve">0.920304536819458</t>
   </si>
   <si>
     <t xml:space="preserve">0.904041290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901171326637268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845685184001923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846641838550568</t>
+    <t xml:space="preserve">0.901171267032623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845685243606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846641778945923</t>
   </si>
   <si>
     <t xml:space="preserve">0.837075293064117</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">0.870558321475983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866731703281403</t>
+    <t xml:space="preserve">0.866731643676758</t>
   </si>
   <si>
     <t xml:space="preserve">0.983443856239319</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">0.939437627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940394282341003</t>
+    <t xml:space="preserve">0.940394222736359</t>
   </si>
   <si>
     <t xml:space="preserve">0.929871022701263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877254903316498</t>
+    <t xml:space="preserve">0.877254843711853</t>
   </si>
   <si>
     <t xml:space="preserve">0.839945256710052</t>
@@ -25823,7 +25823,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G874" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25849,7 +25849,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G875" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25875,7 +25875,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G876" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25901,7 +25901,7 @@
         <v>0.368000000715256</v>
       </c>
       <c r="G877" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25927,7 +25927,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G878" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25953,7 +25953,7 @@
         <v>0.363000005483627</v>
       </c>
       <c r="G879" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25979,7 +25979,7 @@
         <v>0.361000001430511</v>
       </c>
       <c r="G880" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26005,7 +26005,7 @@
         <v>0.372999995946884</v>
       </c>
       <c r="G881" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26031,7 +26031,7 @@
         <v>0.381000012159348</v>
       </c>
       <c r="G882" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26057,7 +26057,7 @@
         <v>0.375</v>
       </c>
       <c r="G883" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26083,7 +26083,7 @@
         <v>0.372000008821487</v>
       </c>
       <c r="G884" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26109,7 +26109,7 @@
         <v>0.367000013589859</v>
       </c>
       <c r="G885" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26135,7 +26135,7 @@
         <v>0.379000008106232</v>
       </c>
       <c r="G886" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26161,7 +26161,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G887" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26187,7 +26187,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G888" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26213,7 +26213,7 @@
         <v>0.372000008821487</v>
       </c>
       <c r="G889" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26239,7 +26239,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G890" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26265,7 +26265,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G891" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26291,7 +26291,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G892" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26317,7 +26317,7 @@
         <v>0.379000008106232</v>
       </c>
       <c r="G893" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26343,7 +26343,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G894" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26369,7 +26369,7 @@
         <v>0.372999995946884</v>
       </c>
       <c r="G895" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26395,7 +26395,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G896" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26421,7 +26421,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G897" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26447,7 +26447,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G898" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26473,7 +26473,7 @@
         <v>0.361999988555908</v>
       </c>
       <c r="G899" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26499,7 +26499,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G900" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26525,7 +26525,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G901" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26551,7 +26551,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G902" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26577,7 +26577,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G903" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26603,7 +26603,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G904" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26629,7 +26629,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G905" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26655,7 +26655,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G906" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26681,7 +26681,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G907" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26707,7 +26707,7 @@
         <v>0.36599999666214</v>
       </c>
       <c r="G908" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26733,7 +26733,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G909" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26759,7 +26759,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G910" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26785,7 +26785,7 @@
         <v>0.365000009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26811,7 +26811,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G912" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26837,7 +26837,7 @@
         <v>0.365000009536743</v>
       </c>
       <c r="G913" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26863,7 +26863,7 @@
         <v>0.361999988555908</v>
       </c>
       <c r="G914" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26889,7 +26889,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G915" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26915,7 +26915,7 @@
         <v>0.367000013589859</v>
       </c>
       <c r="G916" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26941,7 +26941,7 @@
         <v>0.372000008821487</v>
       </c>
       <c r="G917" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26967,7 +26967,7 @@
         <v>0.375</v>
       </c>
       <c r="G918" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26993,7 +26993,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G919" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27019,7 +27019,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G920" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27045,7 +27045,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G921" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27071,7 +27071,7 @@
         <v>0.384999990463257</v>
       </c>
       <c r="G922" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27097,7 +27097,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G923" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27123,7 +27123,7 @@
         <v>0.388999998569489</v>
       </c>
       <c r="G924" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27149,7 +27149,7 @@
         <v>0.382999986410141</v>
       </c>
       <c r="G925" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27175,7 +27175,7 @@
         <v>0.388000011444092</v>
       </c>
       <c r="G926" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27201,7 +27201,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G927" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27227,7 +27227,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G928" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27253,7 +27253,7 @@
         <v>0.39300000667572</v>
       </c>
       <c r="G929" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27279,7 +27279,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G930" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27305,7 +27305,7 @@
         <v>0.395000010728836</v>
       </c>
       <c r="G931" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27331,7 +27331,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G932" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27357,7 +27357,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G933" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27383,7 +27383,7 @@
         <v>0.398999989032745</v>
       </c>
       <c r="G934" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27409,7 +27409,7 @@
         <v>0.398999989032745</v>
       </c>
       <c r="G935" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27435,7 +27435,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G936" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27461,7 +27461,7 @@
         <v>0.414000004529953</v>
       </c>
       <c r="G937" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27487,7 +27487,7 @@
         <v>0.40599998831749</v>
       </c>
       <c r="G938" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27513,7 +27513,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G939" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27539,7 +27539,7 @@
         <v>0.40599998831749</v>
       </c>
       <c r="G940" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27565,7 +27565,7 @@
         <v>0.416999995708466</v>
       </c>
       <c r="G941" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27591,7 +27591,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G942" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27617,7 +27617,7 @@
         <v>0.433999985456467</v>
       </c>
       <c r="G943" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27643,7 +27643,7 @@
         <v>0.428999990224838</v>
       </c>
       <c r="G944" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27669,7 +27669,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G945" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27695,7 +27695,7 @@
         <v>0.444999992847443</v>
       </c>
       <c r="G946" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27721,7 +27721,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G947" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27747,7 +27747,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G948" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27773,7 +27773,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G949" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27799,7 +27799,7 @@
         <v>0.433999985456467</v>
       </c>
       <c r="G950" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27825,7 +27825,7 @@
         <v>0.435000002384186</v>
       </c>
       <c r="G951" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27851,7 +27851,7 @@
         <v>0.435999989509583</v>
       </c>
       <c r="G952" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27877,7 +27877,7 @@
         <v>0.435999989509583</v>
       </c>
       <c r="G953" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27903,7 +27903,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G954" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27929,7 +27929,7 @@
         <v>0.428999990224838</v>
       </c>
       <c r="G955" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27955,7 +27955,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G956" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27981,7 +27981,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G957" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28007,7 +28007,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G958" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28033,7 +28033,7 @@
         <v>0.43299999833107</v>
       </c>
       <c r="G959" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28059,7 +28059,7 @@
         <v>0.43299999833107</v>
       </c>
       <c r="G960" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28085,7 +28085,7 @@
         <v>0.43299999833107</v>
       </c>
       <c r="G961" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28111,7 +28111,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G962" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28137,7 +28137,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G963" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28163,7 +28163,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G964" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28189,7 +28189,7 @@
         <v>0.435000002384186</v>
       </c>
       <c r="G965" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28215,7 +28215,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G966" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28241,7 +28241,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G967" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28267,7 +28267,7 @@
         <v>0.430999994277954</v>
       </c>
       <c r="G968" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28293,7 +28293,7 @@
         <v>0.444000005722046</v>
       </c>
       <c r="G969" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28319,7 +28319,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G970" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28345,7 +28345,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G971" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28371,7 +28371,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G972" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28397,7 +28397,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G973" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28423,7 +28423,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G974" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28449,7 +28449,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G975" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28475,7 +28475,7 @@
         <v>0.456000000238419</v>
       </c>
       <c r="G976" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28501,7 +28501,7 @@
         <v>0.476999998092651</v>
       </c>
       <c r="G977" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28527,7 +28527,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G978" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28553,7 +28553,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G979" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28579,7 +28579,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G980" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28605,7 +28605,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G981" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28631,7 +28631,7 @@
         <v>0.488999992609024</v>
       </c>
       <c r="G982" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28657,7 +28657,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G983" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28683,7 +28683,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G984" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28709,7 +28709,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G985" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28735,7 +28735,7 @@
         <v>0.479000002145767</v>
       </c>
       <c r="G986" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28761,7 +28761,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G987" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28787,7 +28787,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G988" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28813,7 +28813,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G989" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28839,7 +28839,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G990" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28865,7 +28865,7 @@
         <v>0.486999988555908</v>
       </c>
       <c r="G991" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28891,7 +28891,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G992" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28917,7 +28917,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G993" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28943,7 +28943,7 @@
         <v>0.505999982357025</v>
       </c>
       <c r="G994" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28969,7 +28969,7 @@
         <v>0.512000024318695</v>
       </c>
       <c r="G995" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -28995,7 +28995,7 @@
         <v>0.49099999666214</v>
       </c>
       <c r="G996" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29021,7 +29021,7 @@
         <v>0.493000000715256</v>
       </c>
       <c r="G997" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29047,7 +29047,7 @@
         <v>0.495000004768372</v>
       </c>
       <c r="G998" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29073,7 +29073,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G999" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29099,7 +29099,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1000" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29125,7 +29125,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1001" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29151,7 +29151,7 @@
         <v>0.472000002861023</v>
       </c>
       <c r="G1002" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29177,7 +29177,7 @@
         <v>0.479000002145767</v>
       </c>
       <c r="G1003" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29203,7 +29203,7 @@
         <v>0.476999998092651</v>
       </c>
       <c r="G1004" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29229,7 +29229,7 @@
         <v>0.472000002861023</v>
       </c>
       <c r="G1005" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29255,7 +29255,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1006" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29281,7 +29281,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1007" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29307,7 +29307,7 @@
         <v>0.49099999666214</v>
       </c>
       <c r="G1008" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29333,7 +29333,7 @@
         <v>0.486999988555908</v>
       </c>
       <c r="G1009" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29359,7 +29359,7 @@
         <v>0.485000014305115</v>
       </c>
       <c r="G1010" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29385,7 +29385,7 @@
         <v>0.481000006198883</v>
       </c>
       <c r="G1011" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29411,7 +29411,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1012" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29437,7 +29437,7 @@
         <v>0.48199999332428</v>
       </c>
       <c r="G1013" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29463,7 +29463,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1014" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29489,7 +29489,7 @@
         <v>0.47299998998642</v>
       </c>
       <c r="G1015" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29515,7 +29515,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1016" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29541,7 +29541,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1017" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29567,7 +29567,7 @@
         <v>0.479000002145767</v>
       </c>
       <c r="G1018" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29593,7 +29593,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1019" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29619,7 +29619,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1020" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29645,7 +29645,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G1021" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29671,7 +29671,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1022" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29697,7 +29697,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G1023" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29723,7 +29723,7 @@
         <v>0.486999988555908</v>
       </c>
       <c r="G1024" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29749,7 +29749,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1025" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29775,7 +29775,7 @@
         <v>0.495000004768372</v>
       </c>
       <c r="G1026" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29801,7 +29801,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1027" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29827,7 +29827,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1028" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29853,7 +29853,7 @@
         <v>0.702000021934509</v>
       </c>
       <c r="G1029" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29879,7 +29879,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1030" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29905,7 +29905,7 @@
         <v>0.722000002861023</v>
       </c>
       <c r="G1031" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29931,7 +29931,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1032" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29957,7 +29957,7 @@
         <v>0.737999975681305</v>
       </c>
       <c r="G1033" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29983,7 +29983,7 @@
         <v>0.716000020503998</v>
       </c>
       <c r="G1034" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30009,7 +30009,7 @@
         <v>0.685999989509583</v>
       </c>
       <c r="G1035" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30035,7 +30035,7 @@
         <v>0.656000018119812</v>
       </c>
       <c r="G1036" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30061,7 +30061,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1037" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30087,7 +30087,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1038" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30113,7 +30113,7 @@
         <v>0.653999984264374</v>
       </c>
       <c r="G1039" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30139,7 +30139,7 @@
         <v>0.681999981403351</v>
       </c>
       <c r="G1040" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30165,7 +30165,7 @@
         <v>0.677999973297119</v>
       </c>
       <c r="G1041" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30191,7 +30191,7 @@
         <v>0.675999999046326</v>
       </c>
       <c r="G1042" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30217,7 +30217,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1043" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30243,7 +30243,7 @@
         <v>0.688000023365021</v>
       </c>
       <c r="G1044" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30269,7 +30269,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1045" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30295,7 +30295,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1046" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30321,7 +30321,7 @@
         <v>0.674000024795532</v>
       </c>
       <c r="G1047" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30347,7 +30347,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1048" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30373,7 +30373,7 @@
         <v>0.646000027656555</v>
       </c>
       <c r="G1049" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30399,7 +30399,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1050" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30425,7 +30425,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1051" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30451,7 +30451,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1052" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30477,7 +30477,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1053" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30503,7 +30503,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1054" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30529,7 +30529,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1055" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30555,7 +30555,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1056" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30581,7 +30581,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1057" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30607,7 +30607,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1058" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30633,7 +30633,7 @@
         <v>0.53600001335144</v>
       </c>
       <c r="G1059" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30659,7 +30659,7 @@
         <v>0.522000014781952</v>
       </c>
       <c r="G1060" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30685,7 +30685,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1061" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30711,7 +30711,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1062" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30737,7 +30737,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1063" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30763,7 +30763,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G1064" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30789,7 +30789,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1065" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30815,7 +30815,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1066" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30841,7 +30841,7 @@
         <v>0.497999995946884</v>
       </c>
       <c r="G1067" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30867,7 +30867,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1068" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30893,7 +30893,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1069" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30919,7 +30919,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1070" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30945,7 +30945,7 @@
         <v>0.472000002861023</v>
       </c>
       <c r="G1071" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30971,7 +30971,7 @@
         <v>0.474999994039536</v>
       </c>
       <c r="G1072" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -30997,7 +30997,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1073" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31023,7 +31023,7 @@
         <v>0.527999997138977</v>
       </c>
       <c r="G1074" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31049,7 +31049,7 @@
         <v>0.537999987602234</v>
       </c>
       <c r="G1075" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31075,7 +31075,7 @@
         <v>0.551999986171722</v>
       </c>
       <c r="G1076" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31101,7 +31101,7 @@
         <v>0.547999978065491</v>
       </c>
       <c r="G1077" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31127,7 +31127,7 @@
         <v>0.546000003814697</v>
       </c>
       <c r="G1078" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31153,7 +31153,7 @@
         <v>0.546000003814697</v>
       </c>
       <c r="G1079" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31179,7 +31179,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1080" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31205,7 +31205,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1081" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31231,7 +31231,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1082" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31257,7 +31257,7 @@
         <v>0.614000022411346</v>
       </c>
       <c r="G1083" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31283,7 +31283,7 @@
         <v>0.625999987125397</v>
       </c>
       <c r="G1084" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31309,7 +31309,7 @@
         <v>0.607999980449677</v>
       </c>
       <c r="G1085" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31335,7 +31335,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1086" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31361,7 +31361,7 @@
         <v>0.600000023841858</v>
       </c>
       <c r="G1087" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31387,7 +31387,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1088" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31413,7 +31413,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1089" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31439,7 +31439,7 @@
         <v>0.578000009059906</v>
       </c>
       <c r="G1090" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31465,7 +31465,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1091" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31491,7 +31491,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1092" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31517,7 +31517,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1093" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31543,7 +31543,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1094" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31569,7 +31569,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1095" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31595,7 +31595,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1096" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31621,7 +31621,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1097" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31647,7 +31647,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1098" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31673,7 +31673,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1099" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31699,7 +31699,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1100" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31725,7 +31725,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1101" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31751,7 +31751,7 @@
         <v>0.555999994277954</v>
       </c>
       <c r="G1102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31777,7 +31777,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1103" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31803,7 +31803,7 @@
         <v>0.537999987602234</v>
       </c>
       <c r="G1104" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31829,7 +31829,7 @@
         <v>0.544000029563904</v>
       </c>
       <c r="G1105" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31855,7 +31855,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1106" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31881,7 +31881,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1107" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31907,7 +31907,7 @@
         <v>0.547999978065491</v>
       </c>
       <c r="G1108" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31933,7 +31933,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31959,7 +31959,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31985,7 +31985,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32011,7 +32011,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1112" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32037,7 +32037,7 @@
         <v>0.575999975204468</v>
       </c>
       <c r="G1113" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32063,7 +32063,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32089,7 +32089,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1115" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32115,7 +32115,7 @@
         <v>0.606000006198883</v>
       </c>
       <c r="G1116" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32141,7 +32141,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32167,7 +32167,7 @@
         <v>0.614000022411346</v>
       </c>
       <c r="G1118" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32193,7 +32193,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32219,7 +32219,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1120" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32245,7 +32245,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1121" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32271,7 +32271,7 @@
         <v>0.617999970912933</v>
       </c>
       <c r="G1122" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32297,7 +32297,7 @@
         <v>0.607999980449677</v>
       </c>
       <c r="G1123" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32323,7 +32323,7 @@
         <v>0.621999979019165</v>
       </c>
       <c r="G1124" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32349,7 +32349,7 @@
         <v>0.635999977588654</v>
       </c>
       <c r="G1125" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32375,7 +32375,7 @@
         <v>0.621999979019165</v>
       </c>
       <c r="G1126" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32401,7 +32401,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1127" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32427,7 +32427,7 @@
         <v>0.592000007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32453,7 +32453,7 @@
         <v>0.600000023841858</v>
       </c>
       <c r="G1129" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32479,7 +32479,7 @@
         <v>0.587999999523163</v>
       </c>
       <c r="G1130" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32505,7 +32505,7 @@
         <v>0.587999999523163</v>
       </c>
       <c r="G1131" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32531,7 +32531,7 @@
         <v>0.59799998998642</v>
       </c>
       <c r="G1132" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32557,7 +32557,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1133" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32583,7 +32583,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1134" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32609,7 +32609,7 @@
         <v>0.593999981880188</v>
       </c>
       <c r="G1135" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32635,7 +32635,7 @@
         <v>0.582000017166138</v>
       </c>
       <c r="G1136" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32661,7 +32661,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1137" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32687,7 +32687,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1138" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32713,7 +32713,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1139" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32739,7 +32739,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1140" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32765,7 +32765,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1141" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32791,7 +32791,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1142" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32817,7 +32817,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1143" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32843,7 +32843,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1144" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32869,7 +32869,7 @@
         <v>0.578000009059906</v>
       </c>
       <c r="G1145" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32895,7 +32895,7 @@
         <v>0.575999975204468</v>
       </c>
       <c r="G1146" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32921,7 +32921,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1147" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32947,7 +32947,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1148" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32973,7 +32973,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1149" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -32999,7 +32999,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1150" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33025,7 +33025,7 @@
         <v>0.547999978065491</v>
       </c>
       <c r="G1151" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33051,7 +33051,7 @@
         <v>0.544000029563904</v>
       </c>
       <c r="G1152" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33077,7 +33077,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1153" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33103,7 +33103,7 @@
         <v>0.551999986171722</v>
       </c>
       <c r="G1154" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33129,7 +33129,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1155" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33155,7 +33155,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1156" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33181,7 +33181,7 @@
         <v>0.558000028133392</v>
       </c>
       <c r="G1157" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33207,7 +33207,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1158" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33233,7 +33233,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1159" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33259,7 +33259,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1160" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33285,7 +33285,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1161" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33311,7 +33311,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1162" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33337,7 +33337,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1163" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33363,7 +33363,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1164" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33389,7 +33389,7 @@
         <v>0.578000009059906</v>
       </c>
       <c r="G1165" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33415,7 +33415,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1166" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33441,7 +33441,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1167" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33467,7 +33467,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1168" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33493,7 +33493,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1169" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33519,7 +33519,7 @@
         <v>0.587999999523163</v>
       </c>
       <c r="G1170" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33545,7 +33545,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1171" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33571,7 +33571,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1172" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33597,7 +33597,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1173" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33623,7 +33623,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1174" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33649,7 +33649,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1175" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33675,7 +33675,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1176" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33701,7 +33701,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1177" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33727,7 +33727,7 @@
         <v>0.61599999666214</v>
       </c>
       <c r="G1178" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33753,7 +33753,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1179" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33779,7 +33779,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1180" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33805,7 +33805,7 @@
         <v>0.73199999332428</v>
       </c>
       <c r="G1181" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33831,7 +33831,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33857,7 +33857,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1183" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33883,7 +33883,7 @@
         <v>0.723999977111816</v>
       </c>
       <c r="G1184" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33909,7 +33909,7 @@
         <v>0.71399998664856</v>
       </c>
       <c r="G1185" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33935,7 +33935,7 @@
         <v>0.720000028610229</v>
       </c>
       <c r="G1186" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33961,7 +33961,7 @@
         <v>0.695999979972839</v>
       </c>
       <c r="G1187" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33987,7 +33987,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1188" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34013,7 +34013,7 @@
         <v>0.699999988079071</v>
       </c>
       <c r="G1189" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34039,7 +34039,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1190" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34065,7 +34065,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1191" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34091,7 +34091,7 @@
         <v>0.685999989509583</v>
       </c>
       <c r="G1192" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34117,7 +34117,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1193" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34143,7 +34143,7 @@
         <v>0.675999999046326</v>
       </c>
       <c r="G1194" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34169,7 +34169,7 @@
         <v>0.675999999046326</v>
       </c>
       <c r="G1195" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34195,7 +34195,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1196" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34221,7 +34221,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1197" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34247,7 +34247,7 @@
         <v>0.670000016689301</v>
       </c>
       <c r="G1198" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34273,7 +34273,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1199" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34299,7 +34299,7 @@
         <v>0.663999974727631</v>
       </c>
       <c r="G1200" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34325,7 +34325,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G1201" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34351,7 +34351,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G1202" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34377,7 +34377,7 @@
         <v>0.653999984264374</v>
       </c>
       <c r="G1203" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34403,7 +34403,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G1204" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34429,7 +34429,7 @@
         <v>0.638000011444092</v>
       </c>
       <c r="G1205" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34455,7 +34455,7 @@
         <v>0.635999977588654</v>
       </c>
       <c r="G1206" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34481,7 +34481,7 @@
         <v>0.625999987125397</v>
       </c>
       <c r="G1207" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34507,7 +34507,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1208" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34533,7 +34533,7 @@
         <v>0.642000019550323</v>
       </c>
       <c r="G1209" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34559,7 +34559,7 @@
         <v>0.629999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34585,7 +34585,7 @@
         <v>0.621999979019165</v>
       </c>
       <c r="G1211" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34611,7 +34611,7 @@
         <v>0.677999973297119</v>
       </c>
       <c r="G1212" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34637,7 +34637,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1213" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34663,7 +34663,7 @@
         <v>0.677999973297119</v>
       </c>
       <c r="G1214" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34689,7 +34689,7 @@
         <v>0.688000023365021</v>
       </c>
       <c r="G1215" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34715,7 +34715,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1216" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34741,7 +34741,7 @@
         <v>0.671999990940094</v>
       </c>
       <c r="G1217" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34767,7 +34767,7 @@
         <v>0.65200001001358</v>
       </c>
       <c r="G1218" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34793,7 +34793,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G1219" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34819,7 +34819,7 @@
         <v>0.65200001001358</v>
       </c>
       <c r="G1220" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34845,7 +34845,7 @@
         <v>0.632000029087067</v>
       </c>
       <c r="G1221" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34871,7 +34871,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1222" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34897,7 +34897,7 @@
         <v>0.638000011444092</v>
       </c>
       <c r="G1223" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34923,7 +34923,7 @@
         <v>0.643999993801117</v>
       </c>
       <c r="G1224" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34949,7 +34949,7 @@
         <v>0.635999977588654</v>
       </c>
       <c r="G1225" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34975,7 +34975,7 @@
         <v>0.635999977588654</v>
       </c>
       <c r="G1226" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35001,7 +35001,7 @@
         <v>0.586000025272369</v>
       </c>
       <c r="G1227" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35027,7 +35027,7 @@
         <v>0.596000015735626</v>
       </c>
       <c r="G1228" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35053,7 +35053,7 @@
         <v>0.561999976634979</v>
       </c>
       <c r="G1229" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35079,7 +35079,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1230" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35105,7 +35105,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1231" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35131,7 +35131,7 @@
         <v>0.575999975204468</v>
       </c>
       <c r="G1232" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35157,7 +35157,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1233" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35183,7 +35183,7 @@
         <v>0.593999981880188</v>
       </c>
       <c r="G1234" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35209,7 +35209,7 @@
         <v>0.607999980449677</v>
       </c>
       <c r="G1235" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35235,7 +35235,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1236" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35261,7 +35261,7 @@
         <v>0.607999980449677</v>
       </c>
       <c r="G1237" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35287,7 +35287,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1238" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35313,7 +35313,7 @@
         <v>0.600000023841858</v>
       </c>
       <c r="G1239" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35339,7 +35339,7 @@
         <v>0.596000015735626</v>
       </c>
       <c r="G1240" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35365,7 +35365,7 @@
         <v>0.593999981880188</v>
       </c>
       <c r="G1241" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35391,7 +35391,7 @@
         <v>0.592000007629395</v>
       </c>
       <c r="G1242" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35417,7 +35417,7 @@
         <v>0.596000015735626</v>
       </c>
       <c r="G1243" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35443,7 +35443,7 @@
         <v>0.603999972343445</v>
       </c>
       <c r="G1244" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35469,7 +35469,7 @@
         <v>0.596000015735626</v>
       </c>
       <c r="G1245" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35495,7 +35495,7 @@
         <v>0.624000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35521,7 +35521,7 @@
         <v>0.648000001907349</v>
       </c>
       <c r="G1247" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35547,7 +35547,7 @@
         <v>0.65200001001358</v>
       </c>
       <c r="G1248" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35573,7 +35573,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1249" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35599,7 +35599,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G1250" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35625,7 +35625,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G1251" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35651,7 +35651,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1252" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35677,7 +35677,7 @@
         <v>0.712000012397766</v>
       </c>
       <c r="G1253" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35703,7 +35703,7 @@
         <v>0.702000021934509</v>
       </c>
       <c r="G1254" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35729,7 +35729,7 @@
         <v>0.73199999332428</v>
       </c>
       <c r="G1255" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35755,7 +35755,7 @@
         <v>0.730000019073486</v>
       </c>
       <c r="G1256" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35781,7 +35781,7 @@
         <v>0.737999975681305</v>
       </c>
       <c r="G1257" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35807,7 +35807,7 @@
         <v>0.71399998664856</v>
       </c>
       <c r="G1258" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35833,7 +35833,7 @@
         <v>0.716000020503998</v>
       </c>
       <c r="G1259" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35859,7 +35859,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1260" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35885,7 +35885,7 @@
         <v>0.702000021934509</v>
       </c>
       <c r="G1261" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35911,7 +35911,7 @@
         <v>0.712000012397766</v>
       </c>
       <c r="G1262" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35937,7 +35937,7 @@
         <v>0.709999978542328</v>
       </c>
       <c r="G1263" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35963,7 +35963,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1264" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35989,7 +35989,7 @@
         <v>0.703999996185303</v>
       </c>
       <c r="G1265" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36015,7 +36015,7 @@
         <v>0.695999979972839</v>
       </c>
       <c r="G1266" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36041,7 +36041,7 @@
         <v>0.703999996185303</v>
       </c>
       <c r="G1267" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36067,7 +36067,7 @@
         <v>0.702000021934509</v>
       </c>
       <c r="G1268" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36093,7 +36093,7 @@
         <v>0.694000005722046</v>
       </c>
       <c r="G1269" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36119,7 +36119,7 @@
         <v>0.685999989509583</v>
       </c>
       <c r="G1270" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36145,7 +36145,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36171,7 +36171,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1272" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36197,7 +36197,7 @@
         <v>0.685999989509583</v>
       </c>
       <c r="G1273" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36223,7 +36223,7 @@
         <v>0.744000017642975</v>
       </c>
       <c r="G1274" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36249,7 +36249,7 @@
         <v>0.730000019073486</v>
       </c>
       <c r="G1275" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36275,7 +36275,7 @@
         <v>0.736000001430511</v>
       </c>
       <c r="G1276" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36301,7 +36301,7 @@
         <v>0.726000010967255</v>
       </c>
       <c r="G1277" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36327,7 +36327,7 @@
         <v>0.723999977111816</v>
       </c>
       <c r="G1278" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36353,7 +36353,7 @@
         <v>0.703999996185303</v>
       </c>
       <c r="G1279" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36379,7 +36379,7 @@
         <v>0.717999994754791</v>
       </c>
       <c r="G1280" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36405,7 +36405,7 @@
         <v>0.720000028610229</v>
       </c>
       <c r="G1281" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36431,7 +36431,7 @@
         <v>0.720000028610229</v>
       </c>
       <c r="G1282" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36457,7 +36457,7 @@
         <v>0.709999978542328</v>
       </c>
       <c r="G1283" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36483,7 +36483,7 @@
         <v>0.709999978542328</v>
       </c>
       <c r="G1284" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36509,7 +36509,7 @@
         <v>0.709999978542328</v>
       </c>
       <c r="G1285" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36535,7 +36535,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36561,7 +36561,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1287" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36587,7 +36587,7 @@
         <v>0.699999988079071</v>
       </c>
       <c r="G1288" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36613,7 +36613,7 @@
         <v>0.688000023365021</v>
       </c>
       <c r="G1289" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36639,7 +36639,7 @@
         <v>0.684000015258789</v>
       </c>
       <c r="G1290" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36665,7 +36665,7 @@
         <v>0.695999979972839</v>
       </c>
       <c r="G1291" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36691,7 +36691,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1292" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36717,7 +36717,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1293" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36743,7 +36743,7 @@
         <v>0.703999996185303</v>
       </c>
       <c r="G1294" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36769,7 +36769,7 @@
         <v>0.716000020503998</v>
       </c>
       <c r="G1295" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36795,7 +36795,7 @@
         <v>0.720000028610229</v>
       </c>
       <c r="G1296" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36821,7 +36821,7 @@
         <v>0.709999978542328</v>
       </c>
       <c r="G1297" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36847,7 +36847,7 @@
         <v>0.736000001430511</v>
       </c>
       <c r="G1298" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36873,7 +36873,7 @@
         <v>0.843999981880188</v>
       </c>
       <c r="G1299" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36899,7 +36899,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1300" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36925,7 +36925,7 @@
         <v>0.832000017166138</v>
       </c>
       <c r="G1301" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36951,7 +36951,7 @@
         <v>0.825999975204468</v>
       </c>
       <c r="G1302" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36977,7 +36977,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G1303" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37003,7 +37003,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1304" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37029,7 +37029,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1305" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37055,7 +37055,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1306" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37081,7 +37081,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1307" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37107,7 +37107,7 @@
         <v>0.763999998569489</v>
       </c>
       <c r="G1308" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37133,7 +37133,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1309" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37159,7 +37159,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1310" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37185,7 +37185,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1311" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37211,7 +37211,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1312" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37237,7 +37237,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1313" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37263,7 +37263,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1314" t="s">
-        <v>441</v>
+        <v>594</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37289,7 +37289,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1315" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37367,7 +37367,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1318" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37393,7 +37393,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1319" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37471,7 +37471,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1322" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37497,7 +37497,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1323" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37523,7 +37523,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1324" t="s">
-        <v>441</v>
+        <v>594</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37601,7 +37601,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1327" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37627,7 +37627,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1328" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37653,7 +37653,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1329" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37679,7 +37679,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1330" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37705,7 +37705,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1331" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37783,7 +37783,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1334" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37809,7 +37809,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1335" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37913,7 +37913,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1339" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37965,7 +37965,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1341" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37991,7 +37991,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1342" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38017,7 +38017,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1343" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38043,7 +38043,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1344" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38095,7 +38095,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1346" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38199,7 +38199,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1350" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38251,7 +38251,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1352" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38277,7 +38277,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1353" t="s">
-        <v>441</v>
+        <v>594</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38303,7 +38303,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1354" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38381,7 +38381,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1357" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38407,7 +38407,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1358" t="s">
-        <v>441</v>
+        <v>594</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38433,7 +38433,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1359" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38459,7 +38459,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1360" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38485,7 +38485,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1361" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38511,7 +38511,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1362" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38667,7 +38667,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1368" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38719,7 +38719,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1370" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38745,7 +38745,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1371" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38771,7 +38771,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1372" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38797,7 +38797,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1373" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38823,7 +38823,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1374" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38849,7 +38849,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1375" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38875,7 +38875,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1376" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38901,7 +38901,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1377" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38927,7 +38927,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1378" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38953,7 +38953,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1379" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39031,7 +39031,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G1382" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -58877,7 +58877,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6494328704</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>52283</v>
@@ -58898,6 +58898,32 @@
         <v>917</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6493055556</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>60127</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>917</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="918">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">0.421087741851807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413796126842499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.416530519723892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393653184175491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400944828987122</t>
+    <t xml:space="preserve">0.413796186447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41653048992157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393653154373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400944799184799</t>
   </si>
   <si>
     <t xml:space="preserve">0.394108951091766</t>
@@ -65,13 +65,13 @@
     <t xml:space="preserve">0.39192146062851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396478652954102</t>
+    <t xml:space="preserve">0.396478682756424</t>
   </si>
   <si>
     <t xml:space="preserve">0.400033324956894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405046284198761</t>
+    <t xml:space="preserve">0.405046254396439</t>
   </si>
   <si>
     <t xml:space="preserve">0.3971166908741</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">0.404681712388992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409876942634583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405501991510391</t>
+    <t xml:space="preserve">0.40987691283226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405502021312714</t>
   </si>
   <si>
     <t xml:space="preserve">0.408327490091324</t>
@@ -95,28 +95,28 @@
     <t xml:space="preserve">0.406778037548065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40276762843132</t>
+    <t xml:space="preserve">0.402767688035965</t>
   </si>
   <si>
     <t xml:space="preserve">0.403314530849457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389095962047577</t>
+    <t xml:space="preserve">0.389095991849899</t>
   </si>
   <si>
     <t xml:space="preserve">0.37360143661499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35728657245636</t>
+    <t xml:space="preserve">0.357286542654037</t>
   </si>
   <si>
     <t xml:space="preserve">0.359929740428925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338237345218658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332404106855392</t>
+    <t xml:space="preserve">0.338237375020981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332404047250748</t>
   </si>
   <si>
     <t xml:space="preserve">0.355463624000549</t>
@@ -131,13 +131,13 @@
     <t xml:space="preserve">0.391010016202927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391465783119202</t>
+    <t xml:space="preserve">0.391465753316879</t>
   </si>
   <si>
     <t xml:space="preserve">0.375424325466156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392832905054092</t>
+    <t xml:space="preserve">0.39283287525177</t>
   </si>
   <si>
     <t xml:space="preserve">0.406504601240158</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">0.405593127012253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402403056621552</t>
+    <t xml:space="preserve">0.402403086423874</t>
   </si>
   <si>
     <t xml:space="preserve">0.396569848060608</t>
@@ -161,10 +161,10 @@
     <t xml:space="preserve">0.392650604248047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392012596130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39638751745224</t>
+    <t xml:space="preserve">0.392012566328049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396387547254562</t>
   </si>
   <si>
     <t xml:space="preserve">0.401035904884338</t>
@@ -185,16 +185,16 @@
     <t xml:space="preserve">0.390736609697342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389916300773621</t>
+    <t xml:space="preserve">0.389916270971298</t>
   </si>
   <si>
     <t xml:space="preserve">0.389642834663391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354187607765198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356830775737762</t>
+    <t xml:space="preserve">0.35418763756752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356830835342407</t>
   </si>
   <si>
     <t xml:space="preserve">0.346804916858673</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">0.368132740259171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359018325805664</t>
+    <t xml:space="preserve">0.359018296003342</t>
   </si>
   <si>
     <t xml:space="preserve">0.355190217494965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372416496276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372598886489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364486962556839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38736429810524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373783707618713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373692512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391647964715958</t>
+    <t xml:space="preserve">0.372416526079178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372598856687546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364486992359161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387364238500595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373783737421036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373692542314529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39164799451828</t>
   </si>
   <si>
     <t xml:space="preserve">0.391830325126648</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">0.403679102659225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395020395517349</t>
+    <t xml:space="preserve">0.395020425319672</t>
   </si>
   <si>
     <t xml:space="preserve">0.391101181507111</t>
@@ -248,13 +248,13 @@
     <t xml:space="preserve">0.379161208868027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369135349988937</t>
+    <t xml:space="preserve">0.369135320186615</t>
   </si>
   <si>
     <t xml:space="preserve">0.377338379621506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369044184684753</t>
+    <t xml:space="preserve">0.369044214487076</t>
   </si>
   <si>
     <t xml:space="preserve">0.360750019550323</t>
@@ -278,25 +278,25 @@
     <t xml:space="preserve">0.366856694221497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379890382289886</t>
+    <t xml:space="preserve">0.379890412092209</t>
   </si>
   <si>
     <t xml:space="preserve">0.382715880870819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368588477373123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.376609146595001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375150889158249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364669263362885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365489572286606</t>
+    <t xml:space="preserve">0.368588507175446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.376609176397324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375150859355927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36466920375824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365489542484283</t>
   </si>
   <si>
     <t xml:space="preserve">0.367312431335449</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">0.360020875930786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348172128200531</t>
+    <t xml:space="preserve">0.348172098398209</t>
   </si>
   <si>
     <t xml:space="preserve">0.350906401872635</t>
@@ -317,16 +317,16 @@
     <t xml:space="preserve">0.354552209377289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370046764612198</t>
+    <t xml:space="preserve">0.370046734809875</t>
   </si>
   <si>
     <t xml:space="preserve">0.373328000307083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364578127861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354461073875427</t>
+    <t xml:space="preserve">0.364578098058701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354461044073105</t>
   </si>
   <si>
     <t xml:space="preserve">0.352455884218216</t>
@@ -347,34 +347,34 @@
     <t xml:space="preserve">0.337234735488892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333497852087021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34616693854332</t>
+    <t xml:space="preserve">0.333497822284698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346166908740997</t>
   </si>
   <si>
     <t xml:space="preserve">0.34634917974472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341791987419128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330581188201904</t>
+    <t xml:space="preserve">0.341791957616806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330581218004227</t>
   </si>
   <si>
     <t xml:space="preserve">0.326206266880035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324474543333054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327755749225616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329852104187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245114803314</t>
+    <t xml:space="preserve">0.324474513530731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327755719423294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329852044582367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245085000992</t>
   </si>
   <si>
     <t xml:space="preserve">0.329487472772598</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">0.32766455411911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325294852256775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326115131378174</t>
+    <t xml:space="preserve">0.325294822454453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326115101575851</t>
   </si>
   <si>
     <t xml:space="preserve">0.33358895778656</t>
@@ -401,55 +401,55 @@
     <t xml:space="preserve">0.340515941381454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340880542993546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341518521308899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334864974021912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336323291063309</t>
+    <t xml:space="preserve">0.340880513191223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341518551111221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334865003824234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336323320865631</t>
   </si>
   <si>
     <t xml:space="preserve">0.335320711135864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33905765414238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329578638076782</t>
+    <t xml:space="preserve">0.339057683944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32957860827446</t>
   </si>
   <si>
     <t xml:space="preserve">0.331766039133072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332312941551208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325385957956314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328211486339569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3326775431633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328120291233063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319917291402817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32720884680748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334226965904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323016256093979</t>
+    <t xml:space="preserve">0.332312971353531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325385987758636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328211456537247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332677513360977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328120321035385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319917321205139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327208876609802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334226995706558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323016226291656</t>
   </si>
   <si>
     <t xml:space="preserve">0.3208287358284</t>
@@ -458,19 +458,19 @@
     <t xml:space="preserve">0.361752659082413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335867583751678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333680123090744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330945789813995</t>
+    <t xml:space="preserve">0.335867553949356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333680093288422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330945730209351</t>
   </si>
   <si>
     <t xml:space="preserve">0.33522954583168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343432605266571</t>
+    <t xml:space="preserve">0.343432575464249</t>
   </si>
   <si>
     <t xml:space="preserve">0.349083542823792</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">0.337690472602844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3366878926754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249794244766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351088732481003</t>
+    <t xml:space="preserve">0.336687862873077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249734640121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35108870267868</t>
   </si>
   <si>
     <t xml:space="preserve">0.349265813827515</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">0.335594147443771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342976897954941</t>
+    <t xml:space="preserve">0.342976868152618</t>
   </si>
   <si>
     <t xml:space="preserve">0.34972158074379</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">0.34543776512146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353549629449844</t>
+    <t xml:space="preserve">0.353549599647522</t>
   </si>
   <si>
     <t xml:space="preserve">0.354916781187057</t>
@@ -539,55 +539,55 @@
     <t xml:space="preserve">0.32410991191864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331310331821442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312352299690247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316180378198624</t>
+    <t xml:space="preserve">0.331310361623764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312352329492569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316180348396301</t>
   </si>
   <si>
     <t xml:space="preserve">0.317091822624207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312625735998154</t>
+    <t xml:space="preserve">0.312625765800476</t>
   </si>
   <si>
     <t xml:space="preserve">0.332586377859116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337143629789352</t>
+    <t xml:space="preserve">0.33714359998703</t>
   </si>
   <si>
     <t xml:space="preserve">0.337052494287491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338966488838196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146150112152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724130868912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109401702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341336280107498</t>
+    <t xml:space="preserve">0.338966518640518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146179914474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724160671234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109431505203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341336250305176</t>
   </si>
   <si>
     <t xml:space="preserve">0.345346570014954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343614846467972</t>
+    <t xml:space="preserve">0.343614876270294</t>
   </si>
   <si>
     <t xml:space="preserve">0.346258074045181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347260683774948</t>
+    <t xml:space="preserve">0.347260653972626</t>
   </si>
   <si>
     <t xml:space="preserve">0.353184998035431</t>
@@ -602,34 +602,34 @@
     <t xml:space="preserve">0.381804436445236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380528420209885</t>
+    <t xml:space="preserve">0.380528390407562</t>
   </si>
   <si>
     <t xml:space="preserve">0.389825195074081</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380892932415009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369408786296844</t>
+    <t xml:space="preserve">0.380892962217331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369408756494522</t>
   </si>
   <si>
     <t xml:space="preserve">0.362390637397766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362937539815903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479222774506</t>
+    <t xml:space="preserve">0.36293751001358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479192972183</t>
   </si>
   <si>
     <t xml:space="preserve">0.361934930086136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367585837841034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368223875761032</t>
+    <t xml:space="preserve">0.367585867643356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368223905563354</t>
   </si>
   <si>
     <t xml:space="preserve">0.370411366224289</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">0.363484382629395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358744859695435</t>
+    <t xml:space="preserve">0.358744829893112</t>
   </si>
   <si>
     <t xml:space="preserve">0.357195407152176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358198016881943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363119810819626</t>
+    <t xml:space="preserve">0.358198046684265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363119840621948</t>
   </si>
   <si>
     <t xml:space="preserve">0.347625225782394</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">0.353093922138214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34999492764473</t>
+    <t xml:space="preserve">0.349995017051697</t>
   </si>
   <si>
     <t xml:space="preserve">0.34379717707634</t>
@@ -668,10 +668,10 @@
     <t xml:space="preserve">0.343250274658203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346075743436813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617486000061</t>
+    <t xml:space="preserve">0.346075713634491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617456197739</t>
   </si>
   <si>
     <t xml:space="preserve">0.350268393754959</t>
@@ -680,52 +680,52 @@
     <t xml:space="preserve">0.344890862703323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350359588861465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349357008934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358380287885666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35345846414566</t>
+    <t xml:space="preserve">0.350359559059143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349356979131699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358380258083344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353458493947983</t>
   </si>
   <si>
     <t xml:space="preserve">0.357104241847992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359747439622879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359565168619156</t>
+    <t xml:space="preserve">0.359747409820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359565138816833</t>
   </si>
   <si>
     <t xml:space="preserve">0.362299501895905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356375098228455</t>
+    <t xml:space="preserve">0.356375068426132</t>
   </si>
   <si>
     <t xml:space="preserve">0.356192827224731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374330580234528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36886191368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374148309230804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525780677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575488328934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820456027985</t>
+    <t xml:space="preserve">0.374330550432205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368861883878708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374148279428482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525810480118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575518131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820485830307</t>
   </si>
   <si>
     <t xml:space="preserve">0.356557428836823</t>
@@ -737,43 +737,43 @@
     <t xml:space="preserve">0.360932320356369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362572938203812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355919390916824</t>
+    <t xml:space="preserve">0.362572908401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355919420719147</t>
   </si>
   <si>
     <t xml:space="preserve">0.358471393585205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368315070867538</t>
+    <t xml:space="preserve">0.368315041065216</t>
   </si>
   <si>
     <t xml:space="preserve">0.369864493608475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374604076147079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366674482822418</t>
+    <t xml:space="preserve">0.374604046344757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366674423217773</t>
   </si>
   <si>
     <t xml:space="preserve">0.369226455688477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372781097888947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370867103338242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368041604757309</t>
+    <t xml:space="preserve">0.372781127691269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370867043733597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368041574954987</t>
   </si>
   <si>
     <t xml:space="preserve">0.387273102998734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382533580064774</t>
+    <t xml:space="preserve">0.382533550262451</t>
   </si>
   <si>
     <t xml:space="preserve">0.378340899944305</t>
@@ -782,34 +782,34 @@
     <t xml:space="preserve">0.386270493268967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384174197912216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38098418712616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260173559189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541349649429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386817365884781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378978937864304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523260354996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505081653595</t>
+    <t xml:space="preserve">0.384174168109894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380984157323837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260143756866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541379451752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386817336082458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378978967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523230552673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371505051851273</t>
   </si>
   <si>
     <t xml:space="preserve">0.371869683265686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366583317518234</t>
+    <t xml:space="preserve">0.366583287715912</t>
   </si>
   <si>
     <t xml:space="preserve">0.365398436784744</t>
@@ -821,34 +821,34 @@
     <t xml:space="preserve">0.360294342041016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364304631948471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385447740555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363848954439163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466233730316</t>
+    <t xml:space="preserve">0.364304661750793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360385477542877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363848924636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466203927994</t>
   </si>
   <si>
     <t xml:space="preserve">0.35582822561264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357377678155899</t>
+    <t xml:space="preserve">0.357377707958221</t>
   </si>
   <si>
     <t xml:space="preserve">0.357468813657761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36129692196846</t>
+    <t xml:space="preserve">0.361296892166138</t>
   </si>
   <si>
     <t xml:space="preserve">0.366218745708466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365854114294052</t>
+    <t xml:space="preserve">0.365854144096375</t>
   </si>
   <si>
     <t xml:space="preserve">0.358653724193573</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">0.364851504564285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355645954608917</t>
+    <t xml:space="preserve">0.355645924806595</t>
   </si>
   <si>
     <t xml:space="preserve">0.362117201089859</t>
@@ -869,25 +869,25 @@
     <t xml:space="preserve">0.363757848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356921970844269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361661463975906</t>
+    <t xml:space="preserve">0.356922000646591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361661493778229</t>
   </si>
   <si>
     <t xml:space="preserve">0.355554789304733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358927100896835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114621162415</t>
+    <t xml:space="preserve">0.358927130699158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114650964737</t>
   </si>
   <si>
     <t xml:space="preserve">0.358289152383804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360111981630325</t>
+    <t xml:space="preserve">0.360112011432648</t>
   </si>
   <si>
     <t xml:space="preserve">0.365945249795914</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">0.367950469255447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364395827054977</t>
+    <t xml:space="preserve">0.3643958568573</t>
   </si>
   <si>
     <t xml:space="preserve">0.359291732311249</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">0.377247184514999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37888777256012</t>
+    <t xml:space="preserve">0.378887802362442</t>
   </si>
   <si>
     <t xml:space="preserve">0.3812575340271</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">0.388731390237808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385723650455475</t>
+    <t xml:space="preserve">0.385723680257797</t>
   </si>
   <si>
     <t xml:space="preserve">0.383627325296402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381075263023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413975954056</t>
+    <t xml:space="preserve">0.381075233221054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413946151733</t>
   </si>
   <si>
     <t xml:space="preserve">0.380801826715469</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">0.381531000137329</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38289812207222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372689932584763</t>
+    <t xml:space="preserve">0.382898151874542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372689992189407</t>
   </si>
   <si>
     <t xml:space="preserve">0.373965978622437</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">0.375515460968018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366309851408005</t>
+    <t xml:space="preserve">0.366309881210327</t>
   </si>
   <si>
     <t xml:space="preserve">0.359474033117294</t>
@@ -965,25 +965,25 @@
     <t xml:space="preserve">0.358015686273575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362208336591721</t>
+    <t xml:space="preserve">0.362208366394043</t>
   </si>
   <si>
     <t xml:space="preserve">0.348810106515884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357924520969391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357742309570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357013136148453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359656274318695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364122420549393</t>
+    <t xml:space="preserve">0.357924550771713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35774227976799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35701310634613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359656304121017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36412239074707</t>
   </si>
   <si>
     <t xml:space="preserve">0.363666653633118</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">0.354734510183334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355737090110779</t>
+    <t xml:space="preserve">0.355737060308456</t>
   </si>
   <si>
     <t xml:space="preserve">0.365671843290329</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">0.351817905902863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353640794754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352729320526123</t>
+    <t xml:space="preserve">0.353640764951706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352729350328445</t>
   </si>
   <si>
     <t xml:space="preserve">0.335411906242371</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">0.329943180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.322651594877243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32174015045166</t>
+    <t xml:space="preserve">0.322651654481888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563039302826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.321740180253983</t>
   </si>
   <si>
     <t xml:space="preserve">0.334500432014465</t>
@@ -1040,16 +1040,16 @@
     <t xml:space="preserve">0.319005846977234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317182987928391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271483898163</t>
+    <t xml:space="preserve">0.317182958126068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271513700485</t>
   </si>
   <si>
     <t xml:space="preserve">0.326297432184219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318094402551651</t>
+    <t xml:space="preserve">0.318094372749329</t>
   </si>
   <si>
     <t xml:space="preserve">0.310802817344666</t>
@@ -1064,40 +1064,40 @@
     <t xml:space="preserve">0.309891372919083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308068484067917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314448624849319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311714321374893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304422706365585</t>
+    <t xml:space="preserve">0.308068513870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314448595046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311714291572571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304422736167908</t>
   </si>
   <si>
     <t xml:space="preserve">0.305334150791168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306245625019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298954039812088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865514039993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776958465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303511321544647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307157099246979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313537210226059</t>
+    <t xml:space="preserve">0.306245595216751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29895406961441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865543842316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776928663254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303511261940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.307157069444656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313537240028381</t>
   </si>
   <si>
     <t xml:space="preserve">0.3089799284935</t>
@@ -1112,40 +1112,40 @@
     <t xml:space="preserve">0.351975560188293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342664003372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335214793682098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338008254766464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336145907640457</t>
+    <t xml:space="preserve">0.342664033174515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335214823484421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338008284568787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33614593744278</t>
   </si>
   <si>
     <t xml:space="preserve">0.347319781780243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354769021272659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349182069301605</t>
+    <t xml:space="preserve">0.354768991470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349182099103928</t>
   </si>
   <si>
     <t xml:space="preserve">0.346388608217239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341732889413834</t>
+    <t xml:space="preserve">0.341732859611511</t>
   </si>
   <si>
     <t xml:space="preserve">0.352906674146652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345457434654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343595087528229</t>
+    <t xml:space="preserve">0.345457404851913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343595117330551</t>
   </si>
   <si>
     <t xml:space="preserve">0.337077081203461</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">0.339870572090149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338939398527145</t>
+    <t xml:space="preserve">0.338939368724823</t>
   </si>
   <si>
     <t xml:space="preserve">0.353837817907333</t>
@@ -1169,16 +1169,16 @@
     <t xml:space="preserve">0.358493566513062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36314931511879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362218171358109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631249189377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36128705739975</t>
+    <t xml:space="preserve">0.363149344921112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362218141555786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631308794022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361287087202072</t>
   </si>
   <si>
     <t xml:space="preserve">0.3659428358078</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">0.371529698371887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385497033596039</t>
+    <t xml:space="preserve">0.385497003793716</t>
   </si>
   <si>
     <t xml:space="preserve">0.378047794103622</t>
@@ -1208,25 +1208,25 @@
     <t xml:space="preserve">0.388290464878082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415293842554092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404120028018951</t>
+    <t xml:space="preserve">0.415293872356415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404119998216629</t>
   </si>
   <si>
     <t xml:space="preserve">0.399464279413223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407844632863998</t>
+    <t xml:space="preserve">0.407844662666321</t>
   </si>
   <si>
     <t xml:space="preserve">0.414362728595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395739674568176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400395423173904</t>
+    <t xml:space="preserve">0.395739704370499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400395452976227</t>
   </si>
   <si>
     <t xml:space="preserve">0.405051201581955</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">0.391083896160126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403188914060593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39667084813118</t>
+    <t xml:space="preserve">0.40318888425827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396670818328857</t>
   </si>
   <si>
     <t xml:space="preserve">0.401326566934586</t>
@@ -1262,19 +1262,19 @@
     <t xml:space="preserve">0.424605399370193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44415956735611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474887579679489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.458126932382584</t>
+    <t xml:space="preserve">0.444159597158432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474887549877167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.458126902580261</t>
   </si>
   <si>
     <t xml:space="preserve">0.45253998041153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455333441495895</t>
+    <t xml:space="preserve">0.455333411693573</t>
   </si>
   <si>
     <t xml:space="preserve">0.454402238130569</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">0.450677663087845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446953028440475</t>
+    <t xml:space="preserve">0.446952998638153</t>
   </si>
   <si>
     <t xml:space="preserve">0.446021884679794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453471094369888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456264585256577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.471163004636765</t>
+    <t xml:space="preserve">0.453471153974533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456264555454254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.471162974834442</t>
   </si>
   <si>
     <t xml:space="preserve">0.476749926805496</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">0.447884202003479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44881534576416</t>
+    <t xml:space="preserve">0.448815375566483</t>
   </si>
   <si>
     <t xml:space="preserve">0.440434962511063</t>
@@ -1331,19 +1331,19 @@
     <t xml:space="preserve">0.504684507846832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653668880462646</t>
+    <t xml:space="preserve">0.653668820858002</t>
   </si>
   <si>
     <t xml:space="preserve">0.744921743869781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.672291815280914</t>
+    <t xml:space="preserve">0.672291874885559</t>
   </si>
   <si>
     <t xml:space="preserve">0.657393395900726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687190175056458</t>
+    <t xml:space="preserve">0.687190234661102</t>
   </si>
   <si>
     <t xml:space="preserve">0.666704952716827</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">0.638770401477814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610835909843445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59035050868988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568002760410309</t>
+    <t xml:space="preserve">0.6108358502388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590350449085236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568002820014954</t>
   </si>
   <si>
     <t xml:space="preserve">0.608973443508148</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">0.63132119178772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.629458844661713</t>
+    <t xml:space="preserve">0.629458904266357</t>
   </si>
   <si>
     <t xml:space="preserve">0.633183419704437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640632748603821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642494976520538</t>
+    <t xml:space="preserve">0.640632688999176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642495036125183</t>
   </si>
   <si>
     <t xml:space="preserve">0.644357264041901</t>
@@ -1394,22 +1394,22 @@
     <t xml:space="preserve">0.57731431722641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525169849395752</t>
+    <t xml:space="preserve">0.525169789791107</t>
   </si>
   <si>
     <t xml:space="preserve">0.515858292579651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.527032077312469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502822160720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493510633707047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499097585678101</t>
+    <t xml:space="preserve">0.527032136917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50282222032547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.493510544300079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499097615480423</t>
   </si>
   <si>
     <t xml:space="preserve">0.486061424016953</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">0.42833000421524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437641531229019</t>
+    <t xml:space="preserve">0.437641501426697</t>
   </si>
   <si>
     <t xml:space="preserve">0.463713765144348</t>
@@ -1427,28 +1427,28 @@
     <t xml:space="preserve">0.435779213905334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44229730963707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491648375988007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500959873199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513995945453644</t>
+    <t xml:space="preserve">0.442297250032425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491648346185684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500959932804108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513996005058289</t>
   </si>
   <si>
     <t xml:space="preserve">0.510271370410919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508409142494202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512133657932281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.543792903423309</t>
+    <t xml:space="preserve">0.508409082889557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512133717536926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.543792843818665</t>
   </si>
   <si>
     <t xml:space="preserve">0.540068209171295</t>
@@ -1457,10 +1457,10 @@
     <t xml:space="preserve">0.571727454662323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582901298999786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566140532493591</t>
+    <t xml:space="preserve">0.582901239395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566140472888947</t>
   </si>
   <si>
     <t xml:space="preserve">0.558691322803497</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">0.528894484043121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.549379765987396</t>
+    <t xml:space="preserve">0.549379706382751</t>
   </si>
   <si>
     <t xml:space="preserve">0.532619059085846</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">0.517720580101013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.506546854972839</t>
+    <t xml:space="preserve">0.506546795368195</t>
   </si>
   <si>
     <t xml:space="preserve">0.536343693733215</t>
@@ -1496,10 +1496,10 @@
     <t xml:space="preserve">0.564278304576874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.575452029705048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579176604747772</t>
+    <t xml:space="preserve">0.575451970100403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579176664352417</t>
   </si>
   <si>
     <t xml:space="preserve">0.592212796211243</t>
@@ -1508,31 +1508,31 @@
     <t xml:space="preserve">0.551242053508759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557269692420959</t>
+    <t xml:space="preserve">0.557269752025604</t>
   </si>
   <si>
     <t xml:space="preserve">0.566747069358826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.549687743186951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.562956035137177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551583290100098</t>
+    <t xml:space="preserve">0.549687802791595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.562956094741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551583230495453</t>
   </si>
   <si>
     <t xml:space="preserve">0.553478717803955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559165179729462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.542105972766876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.544001340866089</t>
+    <t xml:space="preserve">0.559165120124817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.542105913162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.544001400470734</t>
   </si>
   <si>
     <t xml:space="preserve">0.540210366249084</t>
@@ -1541,10 +1541,10 @@
     <t xml:space="preserve">0.547792375087738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.545896768569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534524023532867</t>
+    <t xml:space="preserve">0.545896828174591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534523963928223</t>
   </si>
   <si>
     <t xml:space="preserve">0.536419451236725</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">0.525046646595001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51936012506485</t>
+    <t xml:space="preserve">0.519360184669495</t>
   </si>
   <si>
     <t xml:space="preserve">0.51556932926178</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">0.528837621212006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538314938545227</t>
+    <t xml:space="preserve">0.538314998149872</t>
   </si>
   <si>
     <t xml:space="preserve">0.530733048915863</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">0.583806335926056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73544442653656</t>
+    <t xml:space="preserve">0.735444366931915</t>
   </si>
   <si>
     <t xml:space="preserve">0.739235281944275</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">0.653938949108124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633088648319244</t>
+    <t xml:space="preserve">0.633088707923889</t>
   </si>
   <si>
     <t xml:space="preserve">0.686161994934082</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">0.682371079921722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659625291824341</t>
+    <t xml:space="preserve">0.659625351428986</t>
   </si>
   <si>
     <t xml:space="preserve">0.669102668762207</t>
@@ -1622,19 +1622,19 @@
     <t xml:space="preserve">0.640670597553253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655834436416626</t>
+    <t xml:space="preserve">0.655834376811981</t>
   </si>
   <si>
     <t xml:space="preserve">0.634984195232391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62929779291153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625506818294525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619820296764374</t>
+    <t xml:space="preserve">0.629297733306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62550687789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619820356369019</t>
   </si>
   <si>
     <t xml:space="preserve">0.616029381752014</t>
@@ -1643,19 +1643,19 @@
     <t xml:space="preserve">0.604656577110291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.602761030197144</t>
+    <t xml:space="preserve">0.602761089801788</t>
   </si>
   <si>
     <t xml:space="preserve">0.593283712863922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587597250938416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608447551727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597074687480927</t>
+    <t xml:space="preserve">0.58759731054306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60844749212265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597074627876282</t>
   </si>
   <si>
     <t xml:space="preserve">0.589492738246918</t>
@@ -1664,28 +1664,28 @@
     <t xml:space="preserve">0.642566084861755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.652043461799622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636879622936249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.617924928665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598970234394073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600865602493286</t>
+    <t xml:space="preserve">0.652043521404266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636879563331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.617924869060516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598970174789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.600865662097931</t>
   </si>
   <si>
     <t xml:space="preserve">0.610342979431152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.555374264717102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564851641654968</t>
+    <t xml:space="preserve">0.555374205112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564851582050323</t>
   </si>
   <si>
     <t xml:space="preserve">0.53262847661972</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">0.578119933605194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576224386692047</t>
+    <t xml:space="preserve">0.576224446296692</t>
   </si>
   <si>
     <t xml:space="preserve">0.568642556667328</t>
@@ -1706,37 +1706,37 @@
     <t xml:space="preserve">0.572433471679688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.591388285160065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.614133954048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.674789190292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665311813354492</t>
+    <t xml:space="preserve">0.59138822555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.614134013652802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.674789130687714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665311753749847</t>
   </si>
   <si>
     <t xml:space="preserve">0.691848456859589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699430286884308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678580164909363</t>
+    <t xml:space="preserve">0.699430346488953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678580105304718</t>
   </si>
   <si>
     <t xml:space="preserve">0.672893643379211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.66720724105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657729864120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705116808414459</t>
+    <t xml:space="preserve">0.667207300662994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657729923725128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705116748809814</t>
   </si>
   <si>
     <t xml:space="preserve">0.69753485918045</t>
@@ -1745,13 +1745,13 @@
     <t xml:space="preserve">0.688057482242584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.68047559261322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648252546787262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799890518188477</t>
+    <t xml:space="preserve">0.680475652217865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648252487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799890458583832</t>
   </si>
   <si>
     <t xml:space="preserve">0.758190035820007</t>
@@ -1760,31 +1760,31 @@
     <t xml:space="preserve">0.788517653942108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782831251621246</t>
+    <t xml:space="preserve">0.782831192016602</t>
   </si>
   <si>
     <t xml:space="preserve">0.775249361991882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761981070041656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756294548511505</t>
+    <t xml:space="preserve">0.761981010437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75629460811615</t>
   </si>
   <si>
     <t xml:space="preserve">0.75250369310379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748712718486786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724071502685547</t>
+    <t xml:space="preserve">0.748712778091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.724071562290192</t>
   </si>
   <si>
     <t xml:space="preserve">0.727862477302551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731653451919556</t>
+    <t xml:space="preserve">0.731653392314911</t>
   </si>
   <si>
     <t xml:space="preserve">0.733548820018768</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">0.750608146190643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743026196956635</t>
+    <t xml:space="preserve">0.743026256561279</t>
   </si>
   <si>
     <t xml:space="preserve">0.741130769252777</t>
@@ -1805,25 +1805,25 @@
     <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737339854240417</t>
+    <t xml:space="preserve">0.737339913845062</t>
   </si>
   <si>
     <t xml:space="preserve">0.729757905006409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722176074981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77714478969574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769562840461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76008552312851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.754399120807648</t>
+    <t xml:space="preserve">0.722176015377045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.777144849300385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769562900066376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760085463523865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.754399061203003</t>
   </si>
   <si>
     <t xml:space="preserve">0.813158810138702</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">0.824638724327087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816985487937927</t>
+    <t xml:space="preserve">0.816985428333282</t>
   </si>
   <si>
     <t xml:space="preserve">0.803592264652252</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">0.792112410068512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763412594795227</t>
+    <t xml:space="preserve">0.763412654399872</t>
   </si>
   <si>
     <t xml:space="preserve">0.757672727108002</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">0.738539576530457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.736626207828522</t>
+    <t xml:space="preserve">0.736626267433167</t>
   </si>
   <si>
     <t xml:space="preserve">0.744279503822327</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">0.751932799816132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746192812919617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.740452826023102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.732799589633942</t>
+    <t xml:space="preserve">0.746192753314972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.740452885627747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.732799530029297</t>
   </si>
   <si>
     <t xml:space="preserve">0.721319735050201</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">0.715579807758331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713666439056396</t>
+    <t xml:space="preserve">0.713666498661041</t>
   </si>
   <si>
     <t xml:space="preserve">0.694533348083496</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">0.683053374290466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.690706670284271</t>
+    <t xml:space="preserve">0.690706610679626</t>
   </si>
   <si>
     <t xml:space="preserve">0.698359966278076</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">0.730886280536652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759586095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771065890789032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750019371509552</t>
+    <t xml:space="preserve">0.759586036205292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771065950393677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750019431114197</t>
   </si>
   <si>
     <t xml:space="preserve">0.765325963497162</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">0.772979259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774892568588257</t>
+    <t xml:space="preserve">0.774892508983612</t>
   </si>
   <si>
     <t xml:space="preserve">0.784459114074707</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">0.778719186782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782545804977417</t>
+    <t xml:space="preserve">0.782545864582062</t>
   </si>
   <si>
     <t xml:space="preserve">0.776805818080902</t>
@@ -1958,10 +1958,10 @@
     <t xml:space="preserve">0.727059662342072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719406425952911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.723232984542847</t>
+    <t xml:space="preserve">0.719406366348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.723233044147491</t>
   </si>
   <si>
     <t xml:space="preserve">0.851425111293793</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">0.904997944831848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883951544761658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895431339740753</t>
+    <t xml:space="preserve">0.883951485157013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895431399345398</t>
   </si>
   <si>
     <t xml:space="preserve">0.843771934509277</t>
@@ -1997,19 +1997,19 @@
     <t xml:space="preserve">0.880124866962433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887778162956238</t>
+    <t xml:space="preserve">0.887778103351593</t>
   </si>
   <si>
     <t xml:space="preserve">0.885864794254303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878211498260498</t>
+    <t xml:space="preserve">0.878211557865143</t>
   </si>
   <si>
     <t xml:space="preserve">1.10015606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01884031295776</t>
+    <t xml:space="preserve">1.01884019374847</t>
   </si>
   <si>
     <t xml:space="preserve">1.0858062505722</t>
@@ -2021,19 +2021,19 @@
     <t xml:space="preserve">1.10972261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19582188129425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21017158031464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885582447052</t>
+    <t xml:space="preserve">1.19582176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21017169952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885570526123</t>
   </si>
   <si>
     <t xml:space="preserve">1.04275667667389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09537267684937</t>
+    <t xml:space="preserve">1.09537279605865</t>
   </si>
   <si>
     <t xml:space="preserve">1.1049393415451</t>
@@ -2048,16 +2048,16 @@
     <t xml:space="preserve">1.11928915977478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18147206306458</t>
+    <t xml:space="preserve">1.18147194385529</t>
   </si>
   <si>
     <t xml:space="preserve">1.13842236995697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08102297782898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09058940410614</t>
+    <t xml:space="preserve">1.08102285861969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09058952331543</t>
   </si>
   <si>
     <t xml:space="preserve">1.07623958587646</t>
@@ -2066,31 +2066,31 @@
     <t xml:space="preserve">1.05232322216034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03797340393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11450600624084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13363909721375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0666731595993</t>
+    <t xml:space="preserve">1.03797328472137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11450588703156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13363897800446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06667304039001</t>
   </si>
   <si>
     <t xml:space="preserve">1.03319013118744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02362358570099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994923651218414</t>
+    <t xml:space="preserve">1.0236234664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994923770427704</t>
   </si>
   <si>
     <t xml:space="preserve">0.922217786312103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999707043170929</t>
+    <t xml:space="preserve">0.999707102775574</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">0.914564490318298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872471630573273</t>
+    <t xml:space="preserve">0.872471570968628</t>
   </si>
   <si>
     <t xml:space="preserve">0.891604721546173</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">0.945177555084229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966224014759064</t>
+    <t xml:space="preserve">0.966224074363708</t>
   </si>
   <si>
     <t xml:space="preserve">1.04753994941711</t>
@@ -2126,10 +2126,10 @@
     <t xml:space="preserve">0.910737931728363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941350996494293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954744219779968</t>
+    <t xml:space="preserve">0.941350936889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954744160175323</t>
   </si>
   <si>
     <t xml:space="preserve">0.956657469272614</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">0.958570778369904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942307591438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871514916419983</t>
+    <t xml:space="preserve">0.942307651042938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871514976024628</t>
   </si>
   <si>
     <t xml:space="preserve">0.899258017539978</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">0.889691472053528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884908139705658</t>
+    <t xml:space="preserve">0.884908199310303</t>
   </si>
   <si>
     <t xml:space="preserve">0.873428225517273</t>
@@ -2177,10 +2177,10 @@
     <t xml:space="preserve">0.904041290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901171326637268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845685184001923</t>
+    <t xml:space="preserve">0.901171267032623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845685243606567</t>
   </si>
   <si>
     <t xml:space="preserve">0.846641838550568</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">0.866731703281403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.983443856239319</t>
+    <t xml:space="preserve">0.983443796634674</t>
   </si>
   <si>
     <t xml:space="preserve">0.939437627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940394282341003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929871022701263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877254903316498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839945316314697</t>
+    <t xml:space="preserve">0.940394222736359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929871082305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877254843711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839945256710052</t>
   </si>
   <si>
     <t xml:space="preserve">0.852381765842438</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">0.864445984363556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875082314014435</t>
+    <t xml:space="preserve">0.87508237361908</t>
   </si>
   <si>
     <t xml:space="preserve">0.869280695915222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851875782012939</t>
+    <t xml:space="preserve">0.851875722408295</t>
   </si>
   <si>
     <t xml:space="preserve">0.848974943161011</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">0.846074104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848007917404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85961127281189</t>
+    <t xml:space="preserve">0.84800797700882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859611332416534</t>
   </si>
   <si>
     <t xml:space="preserve">0.874115407466888</t>
@@ -2258,10 +2258,10 @@
     <t xml:space="preserve">0.853809654712677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834470748901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829636096954346</t>
+    <t xml:space="preserve">0.834470808506012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829636037349701</t>
   </si>
   <si>
     <t xml:space="preserve">0.832536935806274</t>
@@ -2270,16 +2270,16 @@
     <t xml:space="preserve">0.840272426605225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843173205852509</t>
+    <t xml:space="preserve">0.843173265457153</t>
   </si>
   <si>
     <t xml:space="preserve">0.831569969654083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850908815860748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823834419250488</t>
+    <t xml:space="preserve">0.850908756256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823834478855133</t>
   </si>
   <si>
     <t xml:space="preserve">0.825768291950226</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">0.828669130802155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835437774658203</t>
+    <t xml:space="preserve">0.835437715053558</t>
   </si>
   <si>
     <t xml:space="preserve">0.833503842353821</t>
@@ -2306,22 +2306,22 @@
     <t xml:space="preserve">0.817065894603729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826735317707062</t>
+    <t xml:space="preserve">0.826735258102417</t>
   </si>
   <si>
     <t xml:space="preserve">0.83640468120575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837371587753296</t>
+    <t xml:space="preserve">0.837371647357941</t>
   </si>
   <si>
     <t xml:space="preserve">0.818032801151276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819966673851013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816098928451538</t>
+    <t xml:space="preserve">0.819966614246368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816098868846893</t>
   </si>
   <si>
     <t xml:space="preserve">0.799660921096802</t>
@@ -2342,13 +2342,13 @@
     <t xml:space="preserve">0.822867512702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801594734191895</t>
+    <t xml:space="preserve">0.801594793796539</t>
   </si>
   <si>
     <t xml:space="preserve">0.889586508274078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870247602462769</t>
+    <t xml:space="preserve">0.870247662067413</t>
   </si>
   <si>
     <t xml:space="preserve">0.868313789367676</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">0.778388142585754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780322074890137</t>
+    <t xml:space="preserve">0.780322015285492</t>
   </si>
   <si>
     <t xml:space="preserve">0.784189820289612</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">0.884751796722412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901189744472504</t>
+    <t xml:space="preserve">0.901189804077148</t>
   </si>
   <si>
     <t xml:space="preserve">0.915693938732147</t>
@@ -2405,31 +2405,31 @@
     <t xml:space="preserve">0.920528650283813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916660845279694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935032784938812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955338537693024</t>
+    <t xml:space="preserve">0.916660904884338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935032725334167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955338478088379</t>
   </si>
   <si>
     <t xml:space="preserve">0.966941833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978545069694519</t>
+    <t xml:space="preserve">0.978545129299164</t>
   </si>
   <si>
     <t xml:space="preserve">0.968875706195831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96017324924469</t>
+    <t xml:space="preserve">0.960173189640045</t>
   </si>
   <si>
     <t xml:space="preserve">0.948569893836975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936966598033905</t>
+    <t xml:space="preserve">0.93696665763855</t>
   </si>
   <si>
     <t xml:space="preserve">0.929231107234955</t>
@@ -2438,10 +2438,10 @@
     <t xml:space="preserve">0.9447021484375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928264141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947602987289429</t>
+    <t xml:space="preserve">0.928264081478119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947603046894073</t>
   </si>
   <si>
     <t xml:space="preserve">0.946636021137238</t>
@@ -2453,28 +2453,28 @@
     <t xml:space="preserve">0.913760006427765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937933623790741</t>
+    <t xml:space="preserve">0.937933564186096</t>
   </si>
   <si>
     <t xml:space="preserve">0.930198073387146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932131886482239</t>
+    <t xml:space="preserve">0.932131946086884</t>
   </si>
   <si>
     <t xml:space="preserve">0.941801309585571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909892201423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942768275737762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957272469997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951470732688904</t>
+    <t xml:space="preserve">0.90989226102829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942768335342407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957272410392761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951470792293549</t>
   </si>
   <si>
     <t xml:space="preserve">0.956305503845215</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">0.918594717979431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912793099880219</t>
+    <t xml:space="preserve">0.912793040275574</t>
   </si>
   <si>
     <t xml:space="preserve">0.910859167575836</t>
@@ -2504,43 +2504,43 @@
     <t xml:space="preserve">0.89828896522522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911826133728027</t>
+    <t xml:space="preserve">0.911826193332672</t>
   </si>
   <si>
     <t xml:space="preserve">0.91762775182724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924396395683289</t>
+    <t xml:space="preserve">0.924396336078644</t>
   </si>
   <si>
     <t xml:space="preserve">0.92536336183548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90602445602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919561684131622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922462522983551</t>
+    <t xml:space="preserve">0.906024515628815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919561624526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922462463378906</t>
   </si>
   <si>
     <t xml:space="preserve">0.923429429531097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953404605388641</t>
+    <t xml:space="preserve">0.953404664993286</t>
   </si>
   <si>
     <t xml:space="preserve">0.935999691486359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90215677022934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866379916667938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860578238964081</t>
+    <t xml:space="preserve">0.902156710624695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866379857063293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860578179359436</t>
   </si>
   <si>
     <t xml:space="preserve">0.862512111663818</t>
@@ -2561,22 +2561,22 @@
     <t xml:space="preserve">0.876049280166626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883784770965576</t>
+    <t xml:space="preserve">0.883784830570221</t>
   </si>
   <si>
     <t xml:space="preserve">0.879917085170746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88668566942215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87895005941391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893454313278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891520380973816</t>
+    <t xml:space="preserve">0.886685609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878950119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893454253673553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891520321369171</t>
   </si>
   <si>
     <t xml:space="preserve">0.887652575969696</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">0.872181534767151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897321999073029</t>
+    <t xml:space="preserve">0.897321939468384</t>
   </si>
   <si>
     <t xml:space="preserve">0.903123676776886</t>
@@ -2763,6 +2763,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.24000000953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25</t>
   </si>
 </sst>
 </file>
@@ -58926,7 +58929,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.649525463</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>15811</v>
@@ -58947,6 +58950,32 @@
         <v>916</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6493634259</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>168636</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>917</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410150319337845</t>
+    <t xml:space="preserve">0.410150349140167</t>
   </si>
   <si>
     <t xml:space="preserve">GTH.MI</t>
@@ -47,25 +47,25 @@
     <t xml:space="preserve">0.421087741851807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413796186447144</t>
+    <t xml:space="preserve">0.413796156644821</t>
   </si>
   <si>
     <t xml:space="preserve">0.41653048992157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393653184175491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400944769382477</t>
+    <t xml:space="preserve">0.393653213977814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400944799184799</t>
   </si>
   <si>
     <t xml:space="preserve">0.394108921289444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391921490430832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396478682756424</t>
+    <t xml:space="preserve">0.39192146062851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396478712558746</t>
   </si>
   <si>
     <t xml:space="preserve">0.400033354759216</t>
@@ -74,64 +74,64 @@
     <t xml:space="preserve">0.405046284198761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3971166908741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382807016372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404681742191315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409876883029938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405502021312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408327490091324</t>
+    <t xml:space="preserve">0.397116661071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382806986570358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404681712388992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409876972436905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405502051115036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.408327519893646</t>
   </si>
   <si>
     <t xml:space="preserve">0.406778037548065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402767717838287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403314560651779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389095962047577</t>
+    <t xml:space="preserve">0.40276762843132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403314530849457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389095991849899</t>
   </si>
   <si>
     <t xml:space="preserve">0.373601406812668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357286542654037</t>
+    <t xml:space="preserve">0.35728657245636</t>
   </si>
   <si>
     <t xml:space="preserve">0.359929770231247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338237345218658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332404047250748</t>
+    <t xml:space="preserve">0.338237375020981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33240407705307</t>
   </si>
   <si>
     <t xml:space="preserve">0.355463653802872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35537251830101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385450214147568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391010046005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391465723514557</t>
+    <t xml:space="preserve">0.355372488498688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385450184345245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391010016202927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391465783119202</t>
   </si>
   <si>
     <t xml:space="preserve">0.375424295663834</t>
@@ -140,73 +140,73 @@
     <t xml:space="preserve">0.39283287525177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406504601240158</t>
+    <t xml:space="preserve">0.40650463104248</t>
   </si>
   <si>
     <t xml:space="preserve">0.409694641828537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393835514783859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405593127012253</t>
+    <t xml:space="preserve">0.393835484981537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40559309720993</t>
   </si>
   <si>
     <t xml:space="preserve">0.402403086423874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39656987786293</t>
+    <t xml:space="preserve">0.396569848060608</t>
   </si>
   <si>
     <t xml:space="preserve">0.392650604248047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392012596130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39638751745224</t>
+    <t xml:space="preserve">0.392012625932693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396387547254562</t>
   </si>
   <si>
     <t xml:space="preserve">0.401035904884338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388366848230362</t>
+    <t xml:space="preserve">0.38836681842804</t>
   </si>
   <si>
     <t xml:space="preserve">0.387728840112686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382169038057327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383718460798264</t>
+    <t xml:space="preserve">0.382168978452682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383718430995941</t>
   </si>
   <si>
     <t xml:space="preserve">0.39073657989502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389916300773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389642894268036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35418763756752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356830835342407</t>
+    <t xml:space="preserve">0.389916330575943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389642834663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354187607765198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356830805540085</t>
   </si>
   <si>
     <t xml:space="preserve">0.346804916858673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368132740259171</t>
+    <t xml:space="preserve">0.368132770061493</t>
   </si>
   <si>
     <t xml:space="preserve">0.359018296003342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355190217494965</t>
+    <t xml:space="preserve">0.355190247297287</t>
   </si>
   <si>
     <t xml:space="preserve">0.3724165558815</t>
@@ -215,31 +215,31 @@
     <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364486962556839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387364238500595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373783707618713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373692572116852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391648054122925</t>
+    <t xml:space="preserve">0.364486932754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38736429810524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373783737421036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373692542314529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391648024320602</t>
   </si>
   <si>
     <t xml:space="preserve">0.391830325126648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403679102659225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395020365715027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391101181507111</t>
+    <t xml:space="preserve">0.403679072856903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395020395517349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391101151704788</t>
   </si>
   <si>
     <t xml:space="preserve">0.390463173389435</t>
@@ -251,19 +251,19 @@
     <t xml:space="preserve">0.36913537979126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377338349819183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369044214487076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360750049352646</t>
+    <t xml:space="preserve">0.377338379621506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369044184684753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360750019550323</t>
   </si>
   <si>
     <t xml:space="preserve">0.373874843120575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372143119573593</t>
+    <t xml:space="preserve">0.372143089771271</t>
   </si>
   <si>
     <t xml:space="preserve">0.372507691383362</t>
@@ -272,34 +272,34 @@
     <t xml:space="preserve">0.366765558719635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373510241508484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366856694221497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379890382289886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382715851068497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368588477373123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.376609206199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375150889158249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364669263362885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365489572286606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367312431335449</t>
+    <t xml:space="preserve">0.373510301113129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366856753826141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379890412092209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382715880870819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368588507175446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.376609176397324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375150859355927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364669233560562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365489542484283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367312461137772</t>
   </si>
   <si>
     <t xml:space="preserve">0.370958238840103</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">0.350906431674957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354552179574966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370046734809875</t>
+    <t xml:space="preserve">0.354552209377289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370046764612198</t>
   </si>
   <si>
     <t xml:space="preserve">0.373327970504761</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">0.352455884218216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33996906876564</t>
+    <t xml:space="preserve">0.339969038963318</t>
   </si>
   <si>
     <t xml:space="preserve">0.35227358341217</t>
@@ -341,28 +341,28 @@
     <t xml:space="preserve">0.348354399204254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344435214996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337234765291214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333497822284698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346166878938675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346349209547043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341791957616806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330581218004227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326206237077713</t>
+    <t xml:space="preserve">0.344435185194016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337234735488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333497852087021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346166908740997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34634917974472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341791987419128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330581188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326206266880035</t>
   </si>
   <si>
     <t xml:space="preserve">0.324474513530731</t>
@@ -371,37 +371,37 @@
     <t xml:space="preserve">0.327755749225616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329852044582367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245085000992</t>
+    <t xml:space="preserve">0.329852014780045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245055198669</t>
   </si>
   <si>
     <t xml:space="preserve">0.329487472772598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327664524316788</t>
+    <t xml:space="preserve">0.32766455411911</t>
   </si>
   <si>
     <t xml:space="preserve">0.325294822454453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326115131378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333588987588882</t>
+    <t xml:space="preserve">0.326115161180496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33358895778656</t>
   </si>
   <si>
     <t xml:space="preserve">0.340971678495407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337599366903305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340515911579132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340880542993546</t>
+    <t xml:space="preserve">0.337599337100983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340515971183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340880572795868</t>
   </si>
   <si>
     <t xml:space="preserve">0.341518551111221</t>
@@ -410,34 +410,34 @@
     <t xml:space="preserve">0.334865003824234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336323320865631</t>
+    <t xml:space="preserve">0.336323291063309</t>
   </si>
   <si>
     <t xml:space="preserve">0.335320711135864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339057624340057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329578578472137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331766039133072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332312941551208</t>
+    <t xml:space="preserve">0.33905765414238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329578638076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331766068935394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332312971353531</t>
   </si>
   <si>
     <t xml:space="preserve">0.325385957956314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328211426734924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3326775431633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328120350837708</t>
+    <t xml:space="preserve">0.328211456537247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332677513360977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328120291233063</t>
   </si>
   <si>
     <t xml:space="preserve">0.319917321205139</t>
@@ -446,16 +446,16 @@
     <t xml:space="preserve">0.32720884680748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334226995706558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323016226291656</t>
+    <t xml:space="preserve">0.334226965904236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323016256093979</t>
   </si>
   <si>
     <t xml:space="preserve">0.3208287358284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361752659082413</t>
+    <t xml:space="preserve">0.36175262928009</t>
   </si>
   <si>
     <t xml:space="preserve">0.335867583751678</t>
@@ -470,22 +470,22 @@
     <t xml:space="preserve">0.335229575634003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343432575464249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349083513021469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338875383138657</t>
+    <t xml:space="preserve">0.343432605266571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349083542823792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338875353336334</t>
   </si>
   <si>
     <t xml:space="preserve">0.342885702848434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333771228790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344526320695877</t>
+    <t xml:space="preserve">0.333771258592606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344526290893555</t>
   </si>
   <si>
     <t xml:space="preserve">0.337690472602844</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">0.378249764442444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35108870267868</t>
+    <t xml:space="preserve">0.351088732481003</t>
   </si>
   <si>
     <t xml:space="preserve">0.349265813827515</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">0.353549599647522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354916751384735</t>
+    <t xml:space="preserve">0.35491681098938</t>
   </si>
   <si>
     <t xml:space="preserve">0.345073163509369</t>
@@ -536,16 +536,16 @@
     <t xml:space="preserve">0.330854654312134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324109941720963</t>
+    <t xml:space="preserve">0.32410991191864</t>
   </si>
   <si>
     <t xml:space="preserve">0.331310361623764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312352329492569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316180378198624</t>
+    <t xml:space="preserve">0.312352269887924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316180348396301</t>
   </si>
   <si>
     <t xml:space="preserve">0.317091822624207</t>
@@ -554,16 +554,16 @@
     <t xml:space="preserve">0.312625735998154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332586348056793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33714359998703</t>
+    <t xml:space="preserve">0.332586407661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337143570184708</t>
   </si>
   <si>
     <t xml:space="preserve">0.337052464485168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338966518640518</t>
+    <t xml:space="preserve">0.338966488838196</t>
   </si>
   <si>
     <t xml:space="preserve">0.338146179914474</t>
@@ -575,10 +575,10 @@
     <t xml:space="preserve">0.359109431505203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341336250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345346629619598</t>
+    <t xml:space="preserve">0.341336280107498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345346599817276</t>
   </si>
   <si>
     <t xml:space="preserve">0.343614876270294</t>
@@ -587,25 +587,25 @@
     <t xml:space="preserve">0.346258074045181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347260653972626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353184998035431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367328643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362755209207535</t>
+    <t xml:space="preserve">0.347260683774948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353185057640076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367358446121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362755239009857</t>
   </si>
   <si>
     <t xml:space="preserve">0.381804436445236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38052836060524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389825165271759</t>
+    <t xml:space="preserve">0.380528390407562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389825135469437</t>
   </si>
   <si>
     <t xml:space="preserve">0.380892962217331</t>
@@ -623,10 +623,10 @@
     <t xml:space="preserve">0.361479222774506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361934870481491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367585867643356</t>
+    <t xml:space="preserve">0.361934930086136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367585897445679</t>
   </si>
   <si>
     <t xml:space="preserve">0.368223905563354</t>
@@ -635,43 +635,43 @@
     <t xml:space="preserve">0.370411366224289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363484352827072</t>
+    <t xml:space="preserve">0.363484382629395</t>
   </si>
   <si>
     <t xml:space="preserve">0.358744829893112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357195407152176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358198046684265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363119810819626</t>
+    <t xml:space="preserve">0.357195377349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35819798707962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363119781017303</t>
   </si>
   <si>
     <t xml:space="preserve">0.347625195980072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35327622294426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093922138214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349994987249374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34379717707634</t>
+    <t xml:space="preserve">0.353276193141937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349994957447052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343797147274017</t>
   </si>
   <si>
     <t xml:space="preserve">0.343250274658203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346075743436813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617456197739</t>
+    <t xml:space="preserve">0.346075773239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617486000061</t>
   </si>
   <si>
     <t xml:space="preserve">0.350268393754959</t>
@@ -680,28 +680,28 @@
     <t xml:space="preserve">0.344890892505646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350359559059143</t>
+    <t xml:space="preserve">0.350359588861465</t>
   </si>
   <si>
     <t xml:space="preserve">0.349356979131699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358380258083344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35345846414566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104241847992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359747439622879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359565138816833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299531698227</t>
+    <t xml:space="preserve">0.358380317687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353458493947983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104271650314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359747409820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359565168619156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299472093582</t>
   </si>
   <si>
     <t xml:space="preserve">0.356375068426132</t>
@@ -710,22 +710,22 @@
     <t xml:space="preserve">0.356192827224731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374330550432205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368861943483353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37414824962616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525810480118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575547933578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820485830307</t>
+    <t xml:space="preserve">0.374330580234528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36886191368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374148279428482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525780677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575488328934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820456027985</t>
   </si>
   <si>
     <t xml:space="preserve">0.3565573990345</t>
@@ -737,31 +737,31 @@
     <t xml:space="preserve">0.360932350158691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362572938203812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355919361114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358471423387527</t>
+    <t xml:space="preserve">0.362572908401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35591933131218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358471393585205</t>
   </si>
   <si>
     <t xml:space="preserve">0.368315041065216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369864493608475</t>
+    <t xml:space="preserve">0.369864523410797</t>
   </si>
   <si>
     <t xml:space="preserve">0.374604016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366674453020096</t>
+    <t xml:space="preserve">0.366674423217773</t>
   </si>
   <si>
     <t xml:space="preserve">0.369226455688477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372781127691269</t>
+    <t xml:space="preserve">0.372781097888947</t>
   </si>
   <si>
     <t xml:space="preserve">0.370867073535919</t>
@@ -770,28 +770,28 @@
     <t xml:space="preserve">0.368041604757309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387273073196411</t>
+    <t xml:space="preserve">0.387273102998734</t>
   </si>
   <si>
     <t xml:space="preserve">0.382533580064774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37834095954895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386270523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.384174138307571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380984097719193</t>
+    <t xml:space="preserve">0.378340929746628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386270493268967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.384174168109894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380984157323837</t>
   </si>
   <si>
     <t xml:space="preserve">0.382260173559189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385541349649429</t>
+    <t xml:space="preserve">0.385541379451752</t>
   </si>
   <si>
     <t xml:space="preserve">0.386817365884781</t>
@@ -803,82 +803,82 @@
     <t xml:space="preserve">0.378523230552673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371505081653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869683265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366583287715912</t>
+    <t xml:space="preserve">0.371505051851273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869623661041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366583317518234</t>
   </si>
   <si>
     <t xml:space="preserve">0.365398406982422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365762978792191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360294342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364304661750793</t>
+    <t xml:space="preserve">0.365763008594513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360294282436371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364304691553116</t>
   </si>
   <si>
     <t xml:space="preserve">0.360385477542877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363848924636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466233730316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35582822561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377707958221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468843460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361296892166138</t>
+    <t xml:space="preserve">0.363848954439163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466263532639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355828255414963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377737760544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468813657761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36129692196846</t>
   </si>
   <si>
     <t xml:space="preserve">0.366218686103821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365854144096375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358653724193573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364851534366608</t>
+    <t xml:space="preserve">0.365854114294052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358653753995895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364851504564285</t>
   </si>
   <si>
     <t xml:space="preserve">0.355645924806595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362117201089859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366036415100098</t>
+    <t xml:space="preserve">0.362117230892181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36603644490242</t>
   </si>
   <si>
     <t xml:space="preserve">0.363757818937302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356922030448914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361661493778229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554819107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358927130699158</t>
+    <t xml:space="preserve">0.356921970844269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361661523580551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554848909378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358927100896835</t>
   </si>
   <si>
     <t xml:space="preserve">0.361114621162415</t>
@@ -887,10 +887,10 @@
     <t xml:space="preserve">0.358289152383804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36011204123497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945249795914</t>
+    <t xml:space="preserve">0.360112011432648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945279598236</t>
   </si>
   <si>
     <t xml:space="preserve">0.367950439453125</t>
@@ -899,22 +899,22 @@
     <t xml:space="preserve">0.364395827054977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359291732311249</t>
+    <t xml:space="preserve">0.359291762113571</t>
   </si>
   <si>
     <t xml:space="preserve">0.365124940872192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377247214317322</t>
+    <t xml:space="preserve">0.377247184514999</t>
   </si>
   <si>
     <t xml:space="preserve">0.378887802362442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3812575340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379799246788025</t>
+    <t xml:space="preserve">0.381257563829422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379799216985703</t>
   </si>
   <si>
     <t xml:space="preserve">0.388731390237808</t>
@@ -923,25 +923,25 @@
     <t xml:space="preserve">0.385723650455475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383627325296402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075292825699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413916349411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380801886320114</t>
+    <t xml:space="preserve">0.38362729549408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075233221054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413975954056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380801856517792</t>
   </si>
   <si>
     <t xml:space="preserve">0.377611756324768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381713271141052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381531000137329</t>
+    <t xml:space="preserve">0.381713300943375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381530970335007</t>
   </si>
   <si>
     <t xml:space="preserve">0.382898181676865</t>
@@ -950,46 +950,46 @@
     <t xml:space="preserve">0.372689992189407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373965978622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375515460968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366309851408005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359474003314972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35801574587822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362208336591721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348810106515884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357924550771713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35774227976799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357013076543808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359656363725662</t>
+    <t xml:space="preserve">0.373966008424759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37551549077034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366309881210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359474033117294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358015716075897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362208366394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348810136318207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357924520969391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357742309570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35701310634613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35965633392334</t>
   </si>
   <si>
     <t xml:space="preserve">0.36412239074707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363666653633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354734539985657</t>
+    <t xml:space="preserve">0.36366668343544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354734510183334</t>
   </si>
   <si>
     <t xml:space="preserve">0.355737090110779</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">0.365671843290329</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361843794584274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366401046514511</t>
+    <t xml:space="preserve">0.361843764781952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366400986909866</t>
   </si>
   <si>
     <t xml:space="preserve">0.35181787610054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353640764951706</t>
+    <t xml:space="preserve">0.353640794754028</t>
   </si>
   <si>
     <t xml:space="preserve">0.352729320526123</t>
@@ -1016,73 +1016,73 @@
     <t xml:space="preserve">0.335411876440048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329031735658646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329943180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322651654481888</t>
+    <t xml:space="preserve">0.329031765460968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329943239688873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.322651624679565</t>
   </si>
   <si>
     <t xml:space="preserve">0.323563069105148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321740180253983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334500402212143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342703402042389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319005846977234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182958126068</t>
+    <t xml:space="preserve">0.321740210056305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334500432014465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342703431844711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319005817174911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182928323746</t>
   </si>
   <si>
     <t xml:space="preserve">0.316271483898163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326297432184219</t>
+    <t xml:space="preserve">0.326297402381897</t>
   </si>
   <si>
     <t xml:space="preserve">0.318094402551651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31080287694931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301688373088837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.302599847316742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.309891372919083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308068543672562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314448595046997</t>
+    <t xml:space="preserve">0.310802817344666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301688432693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30259981751442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.309891402721405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308068513870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314448624849319</t>
   </si>
   <si>
     <t xml:space="preserve">0.311714291572571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304422736167908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305334210395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306245595216751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298954039812088</t>
+    <t xml:space="preserve">0.304422706365585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305334180593491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306245565414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298954010009766</t>
   </si>
   <si>
     <t xml:space="preserve">0.299865484237671</t>
@@ -1103,37 +1103,37 @@
     <t xml:space="preserve">0.3089799284935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315360069274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348250925540924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351975530385971</t>
+    <t xml:space="preserve">0.31536003947258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348250955343246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351975500583649</t>
   </si>
   <si>
     <t xml:space="preserve">0.342664003372192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335214823484421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338008224964142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33614593744278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347319781780243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354768961668015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349182099103928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346388608217239</t>
+    <t xml:space="preserve">0.335214793682098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338008254766464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336145967245102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347319722175598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354768991470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349182069301605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346388638019562</t>
   </si>
   <si>
     <t xml:space="preserve">0.341732859611511</t>
@@ -1142,88 +1142,88 @@
     <t xml:space="preserve">0.352906674146652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345457464456558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343595176935196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337077081203461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340801656246185</t>
+    <t xml:space="preserve">0.345457434654236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343595147132874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337077111005783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34080171585083</t>
   </si>
   <si>
     <t xml:space="preserve">0.339870542287827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338939368724823</t>
+    <t xml:space="preserve">0.338939398527145</t>
   </si>
   <si>
     <t xml:space="preserve">0.353837817907333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372460871934891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358493566513062</t>
+    <t xml:space="preserve">0.372460842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358493596315384</t>
   </si>
   <si>
     <t xml:space="preserve">0.363149344921112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362218171358109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631249189377</t>
+    <t xml:space="preserve">0.362218201160431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631278991699</t>
   </si>
   <si>
     <t xml:space="preserve">0.361287087202072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3659428358078</t>
+    <t xml:space="preserve">0.365942806005478</t>
   </si>
   <si>
     <t xml:space="preserve">0.367805123329163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368736237287521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366873919963837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371529698371887</t>
+    <t xml:space="preserve">0.368736296892166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366873949766159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37152972817421</t>
   </si>
   <si>
     <t xml:space="preserve">0.385497033596039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378047794103622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379910081624985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38829043507576</t>
+    <t xml:space="preserve">0.3780477643013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379910051822662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388290464878082</t>
   </si>
   <si>
     <t xml:space="preserve">0.415293902158737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404120028018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.399464279413223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.407844662666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414362728595734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395739674568176</t>
+    <t xml:space="preserve">0.404120057821274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399464249610901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.407844632863998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414362698793411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395739734172821</t>
   </si>
   <si>
     <t xml:space="preserve">0.400395423173904</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">0.405051201581955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405982375144958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409706979990005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391083925962448</t>
+    <t xml:space="preserve">0.405982315540314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409706950187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391083896160126</t>
   </si>
   <si>
     <t xml:space="preserve">0.403188914060593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396670788526535</t>
+    <t xml:space="preserve">0.39667084813118</t>
   </si>
   <si>
     <t xml:space="preserve">0.401326566934586</t>
@@ -1259,28 +1259,28 @@
     <t xml:space="preserve">0.422743082046509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424605369567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444159597158432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474887609481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.458126842975616</t>
+    <t xml:space="preserve">0.424605399370193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444159626960754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474887579679489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.458126872777939</t>
   </si>
   <si>
     <t xml:space="preserve">0.452539950609207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455333411693573</t>
+    <t xml:space="preserve">0.455333381891251</t>
   </si>
   <si>
     <t xml:space="preserve">0.454402267932892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450677633285522</t>
+    <t xml:space="preserve">0.450677663087845</t>
   </si>
   <si>
     <t xml:space="preserve">0.446953028440475</t>
@@ -1307,25 +1307,25 @@
     <t xml:space="preserve">0.45905801653862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460920304059982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.445090740919113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.439503848552704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451608806848526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.447884202003479</t>
+    <t xml:space="preserve">0.460920333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.445090711116791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.439503818750381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451608836650848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.447884172201157</t>
   </si>
   <si>
     <t xml:space="preserve">0.44881534576416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440434992313385</t>
+    <t xml:space="preserve">0.440434962511063</t>
   </si>
   <si>
     <t xml:space="preserve">0.504684448242188</t>
@@ -1334,25 +1334,25 @@
     <t xml:space="preserve">0.653668880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744921743869781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672291874885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657393395900726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.687190353870392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.666705012321472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638770461082458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6108358502388</t>
+    <t xml:space="preserve">0.744921684265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672291934490204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657393515110016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.687190294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.666704952716827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.638770341873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610835790634155</t>
   </si>
   <si>
     <t xml:space="preserve">0.59035050868988</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">0.608973503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.635045826435089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63132119178772</t>
+    <t xml:space="preserve">0.635045766830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631321132183075</t>
   </si>
   <si>
     <t xml:space="preserve">0.629458904266357</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">0.633183479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640632688999176</t>
+    <t xml:space="preserve">0.640632748603821</t>
   </si>
   <si>
     <t xml:space="preserve">0.642495036125183</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">0.644357264041901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.627596616744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601524293422699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577314376831055</t>
+    <t xml:space="preserve">0.62759655714035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601524353027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57731431722641</t>
   </si>
   <si>
     <t xml:space="preserve">0.525169849395752</t>
@@ -1403,97 +1403,97 @@
     <t xml:space="preserve">0.527032136917114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.502822160720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493510603904724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499097555875778</t>
+    <t xml:space="preserve">0.50282222032547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.493510663509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499097585678101</t>
   </si>
   <si>
     <t xml:space="preserve">0.486061453819275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42833000421524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.437641531229019</t>
+    <t xml:space="preserve">0.428329974412918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.437641501426697</t>
   </si>
   <si>
     <t xml:space="preserve">0.463713794946671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435779213905334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.442297279834747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491648375988007</t>
+    <t xml:space="preserve">0.435779243707657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44229730963707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491648346185684</t>
   </si>
   <si>
     <t xml:space="preserve">0.500959813594818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513996064662933</t>
+    <t xml:space="preserve">0.513995945453644</t>
   </si>
   <si>
     <t xml:space="preserve">0.510271430015564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508409142494202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512133777141571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.543792843818665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.540068209171295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.571727514266968</t>
+    <t xml:space="preserve">0.508409082889557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512133717536926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.543792903423309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.540068328380585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.571727454662323</t>
   </si>
   <si>
     <t xml:space="preserve">0.582901239395142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566140472888947</t>
+    <t xml:space="preserve">0.566140532493591</t>
   </si>
   <si>
     <t xml:space="preserve">0.558691322803497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538206040859222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530756771564484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528894484043121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549379706382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532619059085846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521445214748383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517720580101013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506546795368195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536343634128571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564278185367584</t>
+    <t xml:space="preserve">0.538205921649933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530756711959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528894424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549379765987396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532618999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521445274353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517720520496368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546854972839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536343693733215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564278244972229</t>
   </si>
   <si>
     <t xml:space="preserve">0.575452029705048</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">0.579176664352417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.592212736606598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551242053508759</t>
+    <t xml:space="preserve">0.592212796211243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551242113113403</t>
   </si>
   <si>
     <t xml:space="preserve">0.557269692420959</t>
@@ -1517,31 +1517,31 @@
     <t xml:space="preserve">0.549687802791595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.562956035137177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551583290100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.553478717803955</t>
+    <t xml:space="preserve">0.562956094741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551583230495453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5534787774086</t>
   </si>
   <si>
     <t xml:space="preserve">0.559165120124817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542105913162231</t>
+    <t xml:space="preserve">0.542105853557587</t>
   </si>
   <si>
     <t xml:space="preserve">0.544001400470734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540210425853729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547792434692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545896768569946</t>
+    <t xml:space="preserve">0.540210366249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547792315483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.545896887779236</t>
   </si>
   <si>
     <t xml:space="preserve">0.534523963928223</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">0.513673722743988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523151159286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521255671977997</t>
+    <t xml:space="preserve">0.523151099681854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521255731582642</t>
   </si>
   <si>
     <t xml:space="preserve">0.528837621212006</t>
@@ -1574,28 +1574,28 @@
     <t xml:space="preserve">0.538314938545227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530732989311218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583806335926056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735444366931915</t>
+    <t xml:space="preserve">0.530733048915863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583806395530701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73544442653656</t>
   </si>
   <si>
     <t xml:space="preserve">0.739235281944275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.693743824958801</t>
+    <t xml:space="preserve">0.693743944168091</t>
   </si>
   <si>
     <t xml:space="preserve">0.653938949108124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633088767528534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686161994934082</t>
+    <t xml:space="preserve">0.633088648319244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686162054538727</t>
   </si>
   <si>
     <t xml:space="preserve">0.676684558391571</t>
@@ -1607,37 +1607,37 @@
     <t xml:space="preserve">0.659625291824341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669102668762207</t>
+    <t xml:space="preserve">0.669102787971497</t>
   </si>
   <si>
     <t xml:space="preserve">0.663416266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644461512565613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650147974491119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640670597553253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.655834317207336</t>
+    <t xml:space="preserve">0.644461572170258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650147914886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640670657157898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655834376811981</t>
   </si>
   <si>
     <t xml:space="preserve">0.634984195232391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62929779291153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62550687789917</t>
+    <t xml:space="preserve">0.62929767370224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.625506818294525</t>
   </si>
   <si>
     <t xml:space="preserve">0.619820356369019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616029381752014</t>
+    <t xml:space="preserve">0.616029441356659</t>
   </si>
   <si>
     <t xml:space="preserve">0.604656577110291</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">0.60844749212265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.597074687480927</t>
+    <t xml:space="preserve">0.597074627876282</t>
   </si>
   <si>
     <t xml:space="preserve">0.589492738246918</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">0.652043461799622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.636879622936249</t>
+    <t xml:space="preserve">0.636879563331604</t>
   </si>
   <si>
     <t xml:space="preserve">0.617924928665161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598970174789429</t>
+    <t xml:space="preserve">0.598970234394073</t>
   </si>
   <si>
     <t xml:space="preserve">0.600865662097931</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">0.610342979431152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.555374264717102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564851641654968</t>
+    <t xml:space="preserve">0.555374205112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564851582050323</t>
   </si>
   <si>
     <t xml:space="preserve">0.532628536224365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578119874000549</t>
+    <t xml:space="preserve">0.578119933605194</t>
   </si>
   <si>
     <t xml:space="preserve">0.576224446296692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568642616271973</t>
+    <t xml:space="preserve">0.568642556667328</t>
   </si>
   <si>
     <t xml:space="preserve">0.561060667037964</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">0.572433471679688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59138822555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.614134013652802</t>
+    <t xml:space="preserve">0.591388285160065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.614133954048157</t>
   </si>
   <si>
     <t xml:space="preserve">0.674789130687714</t>
@@ -1718,13 +1718,13 @@
     <t xml:space="preserve">0.665311813354492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691848456859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699430346488953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678580164909363</t>
+    <t xml:space="preserve">0.691848397254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699430286884308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678580105304718</t>
   </si>
   <si>
     <t xml:space="preserve">0.672893643379211</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">0.66720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657729923725128</t>
+    <t xml:space="preserve">0.657729864120483</t>
   </si>
   <si>
     <t xml:space="preserve">0.705116748809814</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">0.775249302387238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761981070041656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756294548511505</t>
+    <t xml:space="preserve">0.761980950832367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75629460811615</t>
   </si>
   <si>
     <t xml:space="preserve">0.752503633499146</t>
@@ -1781,19 +1781,19 @@
     <t xml:space="preserve">0.724071502685547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727862477302551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.731653451919556</t>
+    <t xml:space="preserve">0.727862417697906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.731653392314911</t>
   </si>
   <si>
     <t xml:space="preserve">0.733548879623413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725966930389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750608146190643</t>
+    <t xml:space="preserve">0.725966989994049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750608205795288</t>
   </si>
   <si>
     <t xml:space="preserve">0.743026256561279</t>
@@ -1808,22 +1808,22 @@
     <t xml:space="preserve">0.737339854240417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729757964611053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722176015377045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.777144849300385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769562900066376</t>
+    <t xml:space="preserve">0.729757905006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.722176074981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77714478969574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769562840461731</t>
   </si>
   <si>
     <t xml:space="preserve">0.76008552312851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754399061203003</t>
+    <t xml:space="preserve">0.754399120807648</t>
   </si>
   <si>
     <t xml:space="preserve">0.813158810138702</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">0.792112410068512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763412654399872</t>
+    <t xml:space="preserve">0.763412594795227</t>
   </si>
   <si>
     <t xml:space="preserve">0.757672727108002</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">0.738539576530457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.736626267433167</t>
+    <t xml:space="preserve">0.736626207828522</t>
   </si>
   <si>
     <t xml:space="preserve">0.744279503822327</t>
@@ -1871,16 +1871,16 @@
     <t xml:space="preserve">0.751932799816132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746192753314972</t>
+    <t xml:space="preserve">0.746192812919617</t>
   </si>
   <si>
     <t xml:space="preserve">0.740452826023102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732799530029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.721319794654846</t>
+    <t xml:space="preserve">0.732799589633942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.721319735050201</t>
   </si>
   <si>
     <t xml:space="preserve">0.715579807758331</t>
@@ -1898,19 +1898,19 @@
     <t xml:space="preserve">0.690706670284271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.698359906673431</t>
+    <t xml:space="preserve">0.698359966278076</t>
   </si>
   <si>
     <t xml:space="preserve">0.730886280536652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759586036205292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771065950393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750019431114197</t>
+    <t xml:space="preserve">0.759586095809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771065890789032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750019371509552</t>
   </si>
   <si>
     <t xml:space="preserve">0.765325963497162</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">0.772979259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774892508983612</t>
+    <t xml:space="preserve">0.774892568588257</t>
   </si>
   <si>
     <t xml:space="preserve">0.784459114074707</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734713017940521</t>
+    <t xml:space="preserve">0.734712958335876</t>
   </si>
   <si>
     <t xml:space="preserve">0.717493057250977</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">0.709839820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727059602737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719406366348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.723233044147491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851425170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937524318695068</t>
+    <t xml:space="preserve">0.727059662342072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.719406425952911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.723232984542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851425111293793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937524378299713</t>
   </si>
   <si>
     <t xml:space="preserve">0.903084635734558</t>
@@ -1991,19 +1991,19 @@
     <t xml:space="preserve">0.853338479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876298189163208</t>
+    <t xml:space="preserve">0.876298248767853</t>
   </si>
   <si>
     <t xml:space="preserve">0.880124866962433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887778103351593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885864853858948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878211557865143</t>
+    <t xml:space="preserve">0.887778162956238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885864794254303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878211498260498</t>
   </si>
   <si>
     <t xml:space="preserve">1.10015606880188</t>
@@ -2021,13 +2021,13 @@
     <t xml:space="preserve">1.10972261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19582176208496</t>
+    <t xml:space="preserve">1.19582188129425</t>
   </si>
   <si>
     <t xml:space="preserve">1.21017158031464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12885570526123</t>
+    <t xml:space="preserve">1.12885582447052</t>
   </si>
   <si>
     <t xml:space="preserve">1.04275667667389</t>
@@ -2048,16 +2048,16 @@
     <t xml:space="preserve">1.11928915977478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18147194385529</t>
+    <t xml:space="preserve">1.18147206306458</t>
   </si>
   <si>
     <t xml:space="preserve">1.13842236995697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08102285861969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09058952331543</t>
+    <t xml:space="preserve">1.08102297782898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09058940410614</t>
   </si>
   <si>
     <t xml:space="preserve">1.07623958587646</t>
@@ -2066,37 +2066,37 @@
     <t xml:space="preserve">1.05232322216034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03797328472137</t>
+    <t xml:space="preserve">1.03797340393066</t>
   </si>
   <si>
     <t xml:space="preserve">1.11450600624084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13363897800446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06667304039001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03319001197815</t>
+    <t xml:space="preserve">1.13363909721375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0666731595993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03319013118744</t>
   </si>
   <si>
     <t xml:space="preserve">1.02362358570099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994923770427704</t>
+    <t xml:space="preserve">0.994923651218414</t>
   </si>
   <si>
     <t xml:space="preserve">0.922217786312103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999706983566284</t>
+    <t xml:space="preserve">0.999707043170929</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980573832988739</t>
+    <t xml:space="preserve">0.980573892593384</t>
   </si>
   <si>
     <t xml:space="preserve">0.914564490318298</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">0.945177555084229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966224074363708</t>
+    <t xml:space="preserve">0.966224014759064</t>
   </si>
   <si>
     <t xml:space="preserve">1.04753994941711</t>
@@ -2126,10 +2126,10 @@
     <t xml:space="preserve">0.910737931728363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941350936889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954744160175323</t>
+    <t xml:space="preserve">0.941350996494293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954744219779968</t>
   </si>
   <si>
     <t xml:space="preserve">0.956657469272614</t>
@@ -2141,19 +2141,19 @@
     <t xml:space="preserve">0.958570778369904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942307651042938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871514976024628</t>
+    <t xml:space="preserve">0.942307591438293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871514916419983</t>
   </si>
   <si>
     <t xml:space="preserve">0.899258017539978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889691412448883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884908199310303</t>
+    <t xml:space="preserve">0.889691472053528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884908139705658</t>
   </si>
   <si>
     <t xml:space="preserve">0.873428225517273</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">0.865774989128113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860991656780243</t>
+    <t xml:space="preserve">0.860991716384888</t>
   </si>
   <si>
     <t xml:space="preserve">0.818898797035217</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">0.877254903316498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839945256710052</t>
+    <t xml:space="preserve">0.839945316314697</t>
   </si>
   <si>
     <t xml:space="preserve">0.852381765842438</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">0.864445984363556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87508237361908</t>
+    <t xml:space="preserve">0.875082314014435</t>
   </si>
   <si>
     <t xml:space="preserve">0.869280695915222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851875722408295</t>
+    <t xml:space="preserve">0.851875782012939</t>
   </si>
   <si>
     <t xml:space="preserve">0.848974943161011</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">0.846074104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84800797700882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859611332416534</t>
+    <t xml:space="preserve">0.848007917404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85961127281189</t>
   </si>
   <si>
     <t xml:space="preserve">0.874115407466888</t>
@@ -2258,10 +2258,10 @@
     <t xml:space="preserve">0.853809654712677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834470808506012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829636037349701</t>
+    <t xml:space="preserve">0.834470748901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829636096954346</t>
   </si>
   <si>
     <t xml:space="preserve">0.832536935806274</t>
@@ -2270,16 +2270,16 @@
     <t xml:space="preserve">0.840272426605225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843173265457153</t>
+    <t xml:space="preserve">0.843173205852509</t>
   </si>
   <si>
     <t xml:space="preserve">0.831569969654083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850908756256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823834478855133</t>
+    <t xml:space="preserve">0.850908815860748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823834419250488</t>
   </si>
   <si>
     <t xml:space="preserve">0.825768291950226</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">0.828669130802155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835437715053558</t>
+    <t xml:space="preserve">0.835437774658203</t>
   </si>
   <si>
     <t xml:space="preserve">0.833503842353821</t>
@@ -2306,22 +2306,22 @@
     <t xml:space="preserve">0.817065894603729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826735258102417</t>
+    <t xml:space="preserve">0.826735317707062</t>
   </si>
   <si>
     <t xml:space="preserve">0.83640468120575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837371647357941</t>
+    <t xml:space="preserve">0.837371587753296</t>
   </si>
   <si>
     <t xml:space="preserve">0.818032801151276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819966614246368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816098868846893</t>
+    <t xml:space="preserve">0.819966673851013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816098928451538</t>
   </si>
   <si>
     <t xml:space="preserve">0.799660921096802</t>
@@ -2342,13 +2342,13 @@
     <t xml:space="preserve">0.822867512702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801594793796539</t>
+    <t xml:space="preserve">0.801594734191895</t>
   </si>
   <si>
     <t xml:space="preserve">0.889586508274078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870247662067413</t>
+    <t xml:space="preserve">0.870247602462769</t>
   </si>
   <si>
     <t xml:space="preserve">0.868313789367676</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">0.778388142585754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780322015285492</t>
+    <t xml:space="preserve">0.780322074890137</t>
   </si>
   <si>
     <t xml:space="preserve">0.784189820289612</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">0.884751796722412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901189804077148</t>
+    <t xml:space="preserve">0.901189744472504</t>
   </si>
   <si>
     <t xml:space="preserve">0.915693938732147</t>
@@ -2405,31 +2405,31 @@
     <t xml:space="preserve">0.920528650283813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916660904884338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935032725334167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955338478088379</t>
+    <t xml:space="preserve">0.916660845279694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935032784938812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955338537693024</t>
   </si>
   <si>
     <t xml:space="preserve">0.966941833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978545129299164</t>
+    <t xml:space="preserve">0.978545069694519</t>
   </si>
   <si>
     <t xml:space="preserve">0.968875706195831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960173189640045</t>
+    <t xml:space="preserve">0.96017324924469</t>
   </si>
   <si>
     <t xml:space="preserve">0.948569893836975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93696665763855</t>
+    <t xml:space="preserve">0.936966598033905</t>
   </si>
   <si>
     <t xml:space="preserve">0.929231107234955</t>
@@ -2438,10 +2438,10 @@
     <t xml:space="preserve">0.9447021484375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928264081478119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947603046894073</t>
+    <t xml:space="preserve">0.928264141082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947602987289429</t>
   </si>
   <si>
     <t xml:space="preserve">0.946636021137238</t>
@@ -2453,28 +2453,28 @@
     <t xml:space="preserve">0.913760006427765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937933564186096</t>
+    <t xml:space="preserve">0.937933623790741</t>
   </si>
   <si>
     <t xml:space="preserve">0.930198073387146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932131946086884</t>
+    <t xml:space="preserve">0.932131886482239</t>
   </si>
   <si>
     <t xml:space="preserve">0.941801309585571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90989226102829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942768335342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957272410392761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951470792293549</t>
+    <t xml:space="preserve">0.909892201423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942768275737762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957272469997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951470732688904</t>
   </si>
   <si>
     <t xml:space="preserve">0.956305503845215</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">0.918594717979431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912793040275574</t>
+    <t xml:space="preserve">0.912793099880219</t>
   </si>
   <si>
     <t xml:space="preserve">0.910859167575836</t>
@@ -2504,43 +2504,43 @@
     <t xml:space="preserve">0.89828896522522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911826193332672</t>
+    <t xml:space="preserve">0.911826133728027</t>
   </si>
   <si>
     <t xml:space="preserve">0.91762775182724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924396336078644</t>
+    <t xml:space="preserve">0.924396395683289</t>
   </si>
   <si>
     <t xml:space="preserve">0.92536336183548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906024515628815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919561624526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922462463378906</t>
+    <t xml:space="preserve">0.90602445602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919561684131622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922462522983551</t>
   </si>
   <si>
     <t xml:space="preserve">0.923429429531097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953404664993286</t>
+    <t xml:space="preserve">0.953404605388641</t>
   </si>
   <si>
     <t xml:space="preserve">0.935999691486359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902156710624695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866379857063293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860578179359436</t>
+    <t xml:space="preserve">0.90215677022934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866379916667938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860578238964081</t>
   </si>
   <si>
     <t xml:space="preserve">0.862512111663818</t>
@@ -2561,22 +2561,22 @@
     <t xml:space="preserve">0.876049280166626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883784830570221</t>
+    <t xml:space="preserve">0.883784770965576</t>
   </si>
   <si>
     <t xml:space="preserve">0.879917085170746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886685609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878950119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893454253673553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891520321369171</t>
+    <t xml:space="preserve">0.88668566942215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87895005941391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893454313278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891520380973816</t>
   </si>
   <si>
     <t xml:space="preserve">0.887652575969696</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">0.872181534767151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897321939468384</t>
+    <t xml:space="preserve">0.897321999073029</t>
   </si>
   <si>
     <t xml:space="preserve">0.903123676776886</t>
@@ -59007,7 +59007,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6499884259</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>9035</v>
@@ -59028,6 +59028,32 @@
         <v>917</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6494328704</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>15168</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>917</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410150349140167</t>
+    <t xml:space="preserve">0.41015037894249</t>
   </si>
   <si>
     <t xml:space="preserve">GTH.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421087741851807</t>
+    <t xml:space="preserve">0.421087771654129</t>
   </si>
   <si>
     <t xml:space="preserve">0.413796156644821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41653048992157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393653213977814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400944799184799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.394108921289444</t>
+    <t xml:space="preserve">0.416530460119247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393653184175491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400944769382477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.394108951091766</t>
   </si>
   <si>
     <t xml:space="preserve">0.39192146062851</t>
@@ -68,34 +68,34 @@
     <t xml:space="preserve">0.396478712558746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400033354759216</t>
+    <t xml:space="preserve">0.400033295154572</t>
   </si>
   <si>
     <t xml:space="preserve">0.405046284198761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397116661071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382806986570358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404681712388992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409876972436905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405502051115036</t>
+    <t xml:space="preserve">0.3971166908741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382806956768036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40468168258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409876942634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405501991510391</t>
   </si>
   <si>
     <t xml:space="preserve">0.408327519893646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406778037548065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40276762843132</t>
+    <t xml:space="preserve">0.406778007745743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402767717838287</t>
   </si>
   <si>
     <t xml:space="preserve">0.403314530849457</t>
@@ -104,22 +104,22 @@
     <t xml:space="preserve">0.389095991849899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373601406812668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35728657245636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359929770231247</t>
+    <t xml:space="preserve">0.37360143661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357286542654037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359929740428925</t>
   </si>
   <si>
     <t xml:space="preserve">0.338237375020981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33240407705307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355463653802872</t>
+    <t xml:space="preserve">0.332404136657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355463624000549</t>
   </si>
   <si>
     <t xml:space="preserve">0.355372488498688</t>
@@ -128,37 +128,37 @@
     <t xml:space="preserve">0.385450184345245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391010016202927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391465783119202</t>
+    <t xml:space="preserve">0.391010046005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391465753316879</t>
   </si>
   <si>
     <t xml:space="preserve">0.375424295663834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39283287525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40650463104248</t>
+    <t xml:space="preserve">0.392832934856415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.406504571437836</t>
   </si>
   <si>
     <t xml:space="preserve">0.409694641828537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393835484981537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40559309720993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402403086423874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396569848060608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392650604248047</t>
+    <t xml:space="preserve">0.393835514783859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405593156814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402403056621552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396569818258286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392650634050369</t>
   </si>
   <si>
     <t xml:space="preserve">0.392012625932693</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">0.401035904884338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38836681842804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387728840112686</t>
+    <t xml:space="preserve">0.388366848230362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387728810310364</t>
   </si>
   <si>
     <t xml:space="preserve">0.382168978452682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383718430995941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39073657989502</t>
+    <t xml:space="preserve">0.383718460798264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390736550092697</t>
   </si>
   <si>
     <t xml:space="preserve">0.389916330575943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389642834663391</t>
+    <t xml:space="preserve">0.389642894268036</t>
   </si>
   <si>
     <t xml:space="preserve">0.354187607765198</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">0.356830805540085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346804916858673</t>
+    <t xml:space="preserve">0.346804946660995</t>
   </si>
   <si>
     <t xml:space="preserve">0.368132770061493</t>
@@ -206,22 +206,22 @@
     <t xml:space="preserve">0.359018296003342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355190247297287</t>
+    <t xml:space="preserve">0.355190217494965</t>
   </si>
   <si>
     <t xml:space="preserve">0.3724165558815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372598826885223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364486932754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38736429810524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373783737421036</t>
+    <t xml:space="preserve">0.372598797082901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364486962556839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387364268302917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373783707618713</t>
   </si>
   <si>
     <t xml:space="preserve">0.373692542314529</t>
@@ -233,61 +233,61 @@
     <t xml:space="preserve">0.391830325126648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403679072856903</t>
+    <t xml:space="preserve">0.403679132461548</t>
   </si>
   <si>
     <t xml:space="preserve">0.395020395517349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391101151704788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.390463173389435</t>
+    <t xml:space="preserve">0.391101181507111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390463203191757</t>
   </si>
   <si>
     <t xml:space="preserve">0.379161238670349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36913537979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377338379621506</t>
+    <t xml:space="preserve">0.369135349988937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377338349819183</t>
   </si>
   <si>
     <t xml:space="preserve">0.369044184684753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360750019550323</t>
+    <t xml:space="preserve">0.360750049352646</t>
   </si>
   <si>
     <t xml:space="preserve">0.373874843120575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372143089771271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372507691383362</t>
+    <t xml:space="preserve">0.372143119573593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372507661581039</t>
   </si>
   <si>
     <t xml:space="preserve">0.366765558719635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373510301113129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366856753826141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379890412092209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382715880870819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368588507175446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.376609176397324</t>
+    <t xml:space="preserve">0.373510271310806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366856724023819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379890352487564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382715851068497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368588447570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.376609206199646</t>
   </si>
   <si>
     <t xml:space="preserve">0.375150859355927</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">0.365489542484283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367312461137772</t>
+    <t xml:space="preserve">0.367312401533127</t>
   </si>
   <si>
     <t xml:space="preserve">0.370958238840103</t>
@@ -308,34 +308,34 @@
     <t xml:space="preserve">0.360020905733109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348172098398209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350906431674957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354552209377289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370046764612198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373327970504761</t>
+    <t xml:space="preserve">0.348172128200531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350906401872635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354552239179611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37004679441452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373327940702438</t>
   </si>
   <si>
     <t xml:space="preserve">0.364578098058701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35446110367775</t>
+    <t xml:space="preserve">0.354461073875427</t>
   </si>
   <si>
     <t xml:space="preserve">0.352455884218216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339969038963318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35227358341217</t>
+    <t xml:space="preserve">0.339969098567963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352273613214493</t>
   </si>
   <si>
     <t xml:space="preserve">0.348354399204254</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">0.337234735488892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333497852087021</t>
+    <t xml:space="preserve">0.333497822284698</t>
   </si>
   <si>
     <t xml:space="preserve">0.346166908740997</t>
@@ -365,16 +365,16 @@
     <t xml:space="preserve">0.326206266880035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324474513530731</t>
+    <t xml:space="preserve">0.324474543333054</t>
   </si>
   <si>
     <t xml:space="preserve">0.327755749225616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329852014780045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245055198669</t>
+    <t xml:space="preserve">0.329852044582367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245085000992</t>
   </si>
   <si>
     <t xml:space="preserve">0.329487472772598</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">0.32766455411911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325294822454453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326115161180496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33358895778656</t>
+    <t xml:space="preserve">0.32529479265213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326115131378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333588987588882</t>
   </si>
   <si>
     <t xml:space="preserve">0.340971678495407</t>
@@ -401,25 +401,25 @@
     <t xml:space="preserve">0.340515971183777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340880572795868</t>
+    <t xml:space="preserve">0.340880542993546</t>
   </si>
   <si>
     <t xml:space="preserve">0.341518551111221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334865003824234</t>
+    <t xml:space="preserve">0.334864974021912</t>
   </si>
   <si>
     <t xml:space="preserve">0.336323291063309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335320711135864</t>
+    <t xml:space="preserve">0.335320770740509</t>
   </si>
   <si>
     <t xml:space="preserve">0.33905765414238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329578638076782</t>
+    <t xml:space="preserve">0.32957860827446</t>
   </si>
   <si>
     <t xml:space="preserve">0.331766068935394</t>
@@ -428,28 +428,28 @@
     <t xml:space="preserve">0.332312971353531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325385957956314</t>
+    <t xml:space="preserve">0.325385928153992</t>
   </si>
   <si>
     <t xml:space="preserve">0.328211456537247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332677513360977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328120291233063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319917321205139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32720884680748</t>
+    <t xml:space="preserve">0.3326775431633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328120321035385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319917291402817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327208876609802</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226965904236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323016256093979</t>
+    <t xml:space="preserve">0.323016226291656</t>
   </si>
   <si>
     <t xml:space="preserve">0.3208287358284</t>
@@ -464,25 +464,25 @@
     <t xml:space="preserve">0.333680123090744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330945760011673</t>
+    <t xml:space="preserve">0.330945789813995</t>
   </si>
   <si>
     <t xml:space="preserve">0.335229575634003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343432605266571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349083542823792</t>
+    <t xml:space="preserve">0.343432575464249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349083513021469</t>
   </si>
   <si>
     <t xml:space="preserve">0.338875353336334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342885702848434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333771258592606</t>
+    <t xml:space="preserve">0.342885732650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333771288394928</t>
   </si>
   <si>
     <t xml:space="preserve">0.344526290893555</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">0.337690472602844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336687862873077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249764442444</t>
+    <t xml:space="preserve">0.336687922477722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249824047089</t>
   </si>
   <si>
     <t xml:space="preserve">0.351088732481003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349265813827515</t>
+    <t xml:space="preserve">0.349265843629837</t>
   </si>
   <si>
     <t xml:space="preserve">0.340151369571686</t>
@@ -512,22 +512,22 @@
     <t xml:space="preserve">0.342976868152618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349721550941467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345437735319138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353549599647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35491681098938</t>
+    <t xml:space="preserve">0.34972158074379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345437794923782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353549629449844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354916840791702</t>
   </si>
   <si>
     <t xml:space="preserve">0.345073163509369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34498205780983</t>
+    <t xml:space="preserve">0.344982028007507</t>
   </si>
   <si>
     <t xml:space="preserve">0.328940600156784</t>
@@ -536,10 +536,10 @@
     <t xml:space="preserve">0.330854654312134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32410991191864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331310361623764</t>
+    <t xml:space="preserve">0.324109941720963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331310331821442</t>
   </si>
   <si>
     <t xml:space="preserve">0.312352269887924</t>
@@ -548,16 +548,16 @@
     <t xml:space="preserve">0.316180348396301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317091822624207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312625735998154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332586407661438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337143570184708</t>
+    <t xml:space="preserve">0.317091852426529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312625706195831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332586377859116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33714359998703</t>
   </si>
   <si>
     <t xml:space="preserve">0.337052464485168</t>
@@ -566,28 +566,28 @@
     <t xml:space="preserve">0.338966488838196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338146179914474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724130868912</t>
+    <t xml:space="preserve">0.338146209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724160671234</t>
   </si>
   <si>
     <t xml:space="preserve">0.359109431505203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341336280107498</t>
+    <t xml:space="preserve">0.341336250305176</t>
   </si>
   <si>
     <t xml:space="preserve">0.345346599817276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343614876270294</t>
+    <t xml:space="preserve">0.343614816665649</t>
   </si>
   <si>
     <t xml:space="preserve">0.346258074045181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347260683774948</t>
+    <t xml:space="preserve">0.347260653972626</t>
   </si>
   <si>
     <t xml:space="preserve">0.353185057640076</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">0.381804436445236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380528390407562</t>
+    <t xml:space="preserve">0.380528420209885</t>
   </si>
   <si>
     <t xml:space="preserve">0.389825135469437</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">0.380892962217331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369408756494522</t>
+    <t xml:space="preserve">0.369408786296844</t>
   </si>
   <si>
     <t xml:space="preserve">0.362390637397766</t>
@@ -620,28 +620,28 @@
     <t xml:space="preserve">0.36293751001358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361479222774506</t>
+    <t xml:space="preserve">0.361479192972183</t>
   </si>
   <si>
     <t xml:space="preserve">0.361934930086136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367585897445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368223905563354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370411366224289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363484382629395</t>
+    <t xml:space="preserve">0.367585867643356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368223875761032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370411336421967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36348432302475</t>
   </si>
   <si>
     <t xml:space="preserve">0.358744829893112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357195377349854</t>
+    <t xml:space="preserve">0.357195407152176</t>
   </si>
   <si>
     <t xml:space="preserve">0.35819798707962</t>
@@ -650,13 +650,13 @@
     <t xml:space="preserve">0.363119781017303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347625195980072</t>
+    <t xml:space="preserve">0.347625225782394</t>
   </si>
   <si>
     <t xml:space="preserve">0.353276193141937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353093862533569</t>
+    <t xml:space="preserve">0.353093892335892</t>
   </si>
   <si>
     <t xml:space="preserve">0.349994957447052</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">0.343797147274017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343250274658203</t>
+    <t xml:space="preserve">0.343250304460526</t>
   </si>
   <si>
     <t xml:space="preserve">0.346075773239136</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">0.344617486000061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350268393754959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344890892505646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350359588861465</t>
+    <t xml:space="preserve">0.350268423557281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344890862703323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350359529256821</t>
   </si>
   <si>
     <t xml:space="preserve">0.349356979131699</t>
@@ -695,16 +695,16 @@
     <t xml:space="preserve">0.357104271650314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359747409820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359565168619156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299472093582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356375068426132</t>
+    <t xml:space="preserve">0.359747439622879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359565138816833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299531698227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356375098228455</t>
   </si>
   <si>
     <t xml:space="preserve">0.356192827224731</t>
@@ -719,103 +719,103 @@
     <t xml:space="preserve">0.374148279428482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379525780677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575488328934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820456027985</t>
+    <t xml:space="preserve">0.379525810480118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575547933578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820515632629</t>
   </si>
   <si>
     <t xml:space="preserve">0.3565573990345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361570328474045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360932350158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362572908401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35591933131218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358471393585205</t>
+    <t xml:space="preserve">0.361570358276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360932320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362572938203812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355919390916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358471423387527</t>
   </si>
   <si>
     <t xml:space="preserve">0.368315041065216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369864523410797</t>
+    <t xml:space="preserve">0.369864493608475</t>
   </si>
   <si>
     <t xml:space="preserve">0.374604016542435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366674423217773</t>
+    <t xml:space="preserve">0.366674453020096</t>
   </si>
   <si>
     <t xml:space="preserve">0.369226455688477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372781097888947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370867073535919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368041604757309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387273102998734</t>
+    <t xml:space="preserve">0.372781157493591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370867103338242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368041634559631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387273073196411</t>
   </si>
   <si>
     <t xml:space="preserve">0.382533580064774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378340929746628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386270493268967</t>
+    <t xml:space="preserve">0.378340899944305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386270523071289</t>
   </si>
   <si>
     <t xml:space="preserve">0.384174168109894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380984157323837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260173559189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541379451752</t>
+    <t xml:space="preserve">0.380984127521515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260113954544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541349649429</t>
   </si>
   <si>
     <t xml:space="preserve">0.386817365884781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378978937864304</t>
+    <t xml:space="preserve">0.378978967666626</t>
   </si>
   <si>
     <t xml:space="preserve">0.378523230552673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371505051851273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869623661041</t>
+    <t xml:space="preserve">0.371505111455917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869683265686</t>
   </si>
   <si>
     <t xml:space="preserve">0.366583317518234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365398406982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365763008594513</t>
+    <t xml:space="preserve">0.365398436784744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365762978792191</t>
   </si>
   <si>
     <t xml:space="preserve">0.360294282436371</t>
@@ -833,37 +833,37 @@
     <t xml:space="preserve">0.356466263532639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355828255414963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377737760544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468813657761</t>
+    <t xml:space="preserve">0.35582822561264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377678155899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468843460083</t>
   </si>
   <si>
     <t xml:space="preserve">0.36129692196846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366218686103821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365854114294052</t>
+    <t xml:space="preserve">0.366218745708466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365854144096375</t>
   </si>
   <si>
     <t xml:space="preserve">0.358653753995895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364851504564285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355645924806595</t>
+    <t xml:space="preserve">0.36485156416893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355645895004272</t>
   </si>
   <si>
     <t xml:space="preserve">0.362117230892181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36603644490242</t>
+    <t xml:space="preserve">0.366036385297775</t>
   </si>
   <si>
     <t xml:space="preserve">0.363757818937302</t>
@@ -872,61 +872,61 @@
     <t xml:space="preserve">0.356921970844269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361661523580551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554848909378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358927100896835</t>
+    <t xml:space="preserve">0.361661463975906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554789304733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358927130699158</t>
   </si>
   <si>
     <t xml:space="preserve">0.361114621162415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358289152383804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360112011432648</t>
+    <t xml:space="preserve">0.358289122581482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36011204123497</t>
   </si>
   <si>
     <t xml:space="preserve">0.365945279598236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367950439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364395827054977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359291762113571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365124940872192</t>
+    <t xml:space="preserve">0.36795049905777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364395797252655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359291702508926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365125000476837</t>
   </si>
   <si>
     <t xml:space="preserve">0.377247184514999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378887802362442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381257563829422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379799216985703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388731390237808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723650455475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38362729549408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075233221054</t>
+    <t xml:space="preserve">0.37888777256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3812575340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379799246788025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388731420040131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723620653152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383627325296402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075263023376</t>
   </si>
   <si>
     <t xml:space="preserve">0.371413975954056</t>
@@ -950,37 +950,37 @@
     <t xml:space="preserve">0.372689992189407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373966008424759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37551549077034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366309881210327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359474033117294</t>
+    <t xml:space="preserve">0.373965978622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375515431165695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366309851408005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359474003314972</t>
   </si>
   <si>
     <t xml:space="preserve">0.358015716075897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362208366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348810136318207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357924520969391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357742309570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35701310634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35965633392334</t>
+    <t xml:space="preserve">0.362208336591721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348810076713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357924550771713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35774227976799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357013136148453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359656304121017</t>
   </si>
   <si>
     <t xml:space="preserve">0.36412239074707</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">0.354734510183334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355737090110779</t>
+    <t xml:space="preserve">0.355737149715424</t>
   </si>
   <si>
     <t xml:space="preserve">0.365671843290329</t>
@@ -1001,34 +1001,34 @@
     <t xml:space="preserve">0.361843764781952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366400986909866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35181787610054</t>
+    <t xml:space="preserve">0.366401046514511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351817905902863</t>
   </si>
   <si>
     <t xml:space="preserve">0.353640794754028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352729320526123</t>
+    <t xml:space="preserve">0.352729290723801</t>
   </si>
   <si>
     <t xml:space="preserve">0.335411876440048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329031765460968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329943239688873</t>
+    <t xml:space="preserve">0.329031735658646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329943209886551</t>
   </si>
   <si>
     <t xml:space="preserve">0.322651624679565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323563069105148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.321740210056305</t>
+    <t xml:space="preserve">0.323563098907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32174015045166</t>
   </si>
   <si>
     <t xml:space="preserve">0.334500432014465</t>
@@ -1040,10 +1040,10 @@
     <t xml:space="preserve">0.319005817174911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317182928323746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271483898163</t>
+    <t xml:space="preserve">0.317182958126068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271543502808</t>
   </si>
   <si>
     <t xml:space="preserve">0.326297402381897</t>
@@ -1055,40 +1055,40 @@
     <t xml:space="preserve">0.310802817344666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301688432693481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30259981751442</t>
+    <t xml:space="preserve">0.301688373088837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302599847316742</t>
   </si>
   <si>
     <t xml:space="preserve">0.309891402721405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308068513870239</t>
+    <t xml:space="preserve">0.308068484067917</t>
   </si>
   <si>
     <t xml:space="preserve">0.314448624849319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311714291572571</t>
+    <t xml:space="preserve">0.311714261770248</t>
   </si>
   <si>
     <t xml:space="preserve">0.304422706365585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305334180593491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306245565414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298954010009766</t>
+    <t xml:space="preserve">0.305334150791168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306245625019073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298954099416733</t>
   </si>
   <si>
     <t xml:space="preserve">0.299865484237671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300776928663254</t>
+    <t xml:space="preserve">0.300776958465576</t>
   </si>
   <si>
     <t xml:space="preserve">0.303511291742325</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">0.307157069444656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313537210226059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3089799284935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31536003947258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348250955343246</t>
+    <t xml:space="preserve">0.313537150621414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308979958295822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.315360069274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348250925540924</t>
   </si>
   <si>
     <t xml:space="preserve">0.351975500583649</t>
@@ -1121,10 +1121,10 @@
     <t xml:space="preserve">0.338008254766464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336145967245102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347319722175598</t>
+    <t xml:space="preserve">0.33614593744278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347319781780243</t>
   </si>
   <si>
     <t xml:space="preserve">0.354768991470337</t>
@@ -1139,10 +1139,10 @@
     <t xml:space="preserve">0.341732859611511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352906674146652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345457434654236</t>
+    <t xml:space="preserve">0.352906703948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345457464456558</t>
   </si>
   <si>
     <t xml:space="preserve">0.343595147132874</t>
@@ -1154,28 +1154,28 @@
     <t xml:space="preserve">0.34080171585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339870542287827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338939398527145</t>
+    <t xml:space="preserve">0.339870572090149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338939368724823</t>
   </si>
   <si>
     <t xml:space="preserve">0.353837817907333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372460842132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358493596315384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363149344921112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362218201160431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631278991699</t>
+    <t xml:space="preserve">0.372460871934891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358493566513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36314931511879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362218230962753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631249189377</t>
   </si>
   <si>
     <t xml:space="preserve">0.361287087202072</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">0.367805123329163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368736296892166</t>
+    <t xml:space="preserve">0.368736267089844</t>
   </si>
   <si>
     <t xml:space="preserve">0.366873949766159</t>
@@ -1196,40 +1196,40 @@
     <t xml:space="preserve">0.37152972817421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385497033596039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3780477643013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379910051822662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388290464878082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.415293902158737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404120057821274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.399464249610901</t>
+    <t xml:space="preserve">0.385497003793716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378047794103622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379910111427307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38829043507576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.415293842554092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404120028018951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399464309215546</t>
   </si>
   <si>
     <t xml:space="preserve">0.407844632863998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414362698793411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395739734172821</t>
+    <t xml:space="preserve">0.414362728595734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395739704370499</t>
   </si>
   <si>
     <t xml:space="preserve">0.400395423173904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405051201581955</t>
+    <t xml:space="preserve">0.405051231384277</t>
   </si>
   <si>
     <t xml:space="preserve">0.405982315540314</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">0.409706950187683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391083896160126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403188914060593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39667084813118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.401326566934586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413431584835052</t>
+    <t xml:space="preserve">0.391083866357803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40318888425827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396670788526535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.401326596736908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41343155503273</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">0.424605399370193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444159626960754</t>
+    <t xml:space="preserve">0.444159597158432</t>
   </si>
   <si>
     <t xml:space="preserve">0.474887579679489</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">0.446953028440475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446021884679794</t>
+    <t xml:space="preserve">0.446021854877472</t>
   </si>
   <si>
     <t xml:space="preserve">0.453471094369888</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">0.456264585256577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471162974834442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476749956607819</t>
+    <t xml:space="preserve">0.47116294503212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476749897003174</t>
   </si>
   <si>
     <t xml:space="preserve">0.457195729017258</t>
@@ -1307,40 +1307,40 @@
     <t xml:space="preserve">0.45905801653862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460920333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.445090711116791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.439503818750381</t>
+    <t xml:space="preserve">0.460920363664627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.445090740919113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.439503848552704</t>
   </si>
   <si>
     <t xml:space="preserve">0.451608836650848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447884172201157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44881534576416</t>
+    <t xml:space="preserve">0.447884202003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448815375566483</t>
   </si>
   <si>
     <t xml:space="preserve">0.440434962511063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504684448242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653668880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744921684265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672291934490204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657393515110016</t>
+    <t xml:space="preserve">0.504684507846832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653668820858002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744921743869781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672291874885559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657393395900726</t>
   </si>
   <si>
     <t xml:space="preserve">0.687190294265747</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">0.638770341873169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610835790634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59035050868988</t>
+    <t xml:space="preserve">0.610835909843445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590350449085236</t>
   </si>
   <si>
     <t xml:space="preserve">0.568002820014954</t>
@@ -1367,25 +1367,25 @@
     <t xml:space="preserve">0.635045766830444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631321132183075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629458904266357</t>
+    <t xml:space="preserve">0.63132119178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629458844661713</t>
   </si>
   <si>
     <t xml:space="preserve">0.633183479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640632748603821</t>
+    <t xml:space="preserve">0.640632629394531</t>
   </si>
   <si>
     <t xml:space="preserve">0.642495036125183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644357264041901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62759655714035</t>
+    <t xml:space="preserve">0.644357323646545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627596616744995</t>
   </si>
   <si>
     <t xml:space="preserve">0.601524353027344</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">0.57731431722641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525169849395752</t>
+    <t xml:space="preserve">0.525169789791107</t>
   </si>
   <si>
     <t xml:space="preserve">0.515858352184296</t>
@@ -1406,19 +1406,19 @@
     <t xml:space="preserve">0.50282222032547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510663509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499097585678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486061453819275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.428329974412918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.437641501426697</t>
+    <t xml:space="preserve">0.493510603904724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499097555875778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486061424016953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42833000421524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.437641531229019</t>
   </si>
   <si>
     <t xml:space="preserve">0.463713794946671</t>
@@ -1433,31 +1433,31 @@
     <t xml:space="preserve">0.491648346185684</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500959813594818</t>
+    <t xml:space="preserve">0.500959873199463</t>
   </si>
   <si>
     <t xml:space="preserve">0.513995945453644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510271430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508409082889557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512133717536926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.543792903423309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.540068328380585</t>
+    <t xml:space="preserve">0.510271370410919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508409142494202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512133657932281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.543792843818665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.540068209171295</t>
   </si>
   <si>
     <t xml:space="preserve">0.571727454662323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582901239395142</t>
+    <t xml:space="preserve">0.582901298999786</t>
   </si>
   <si>
     <t xml:space="preserve">0.566140532493591</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">0.558691322803497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538205921649933</t>
+    <t xml:space="preserve">0.538205981254578</t>
   </si>
   <si>
     <t xml:space="preserve">0.530756711959839</t>
@@ -1478,58 +1478,58 @@
     <t xml:space="preserve">0.549379765987396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.532618999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521445274353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517720520496368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506546854972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536343693733215</t>
+    <t xml:space="preserve">0.532619118690491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521445214748383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517720580101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546795368195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536343574523926</t>
   </si>
   <si>
     <t xml:space="preserve">0.564278244972229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.575452029705048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579176664352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592212796211243</t>
+    <t xml:space="preserve">0.575451970100403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579176604747772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592212736606598</t>
   </si>
   <si>
     <t xml:space="preserve">0.551242113113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557269692420959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566747009754181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549687802791595</t>
+    <t xml:space="preserve">0.557269752025604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566747069358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549687743186951</t>
   </si>
   <si>
     <t xml:space="preserve">0.562956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551583230495453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5534787774086</t>
+    <t xml:space="preserve">0.551583290100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.553478717803955</t>
   </si>
   <si>
     <t xml:space="preserve">0.559165120124817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542105853557587</t>
+    <t xml:space="preserve">0.542105972766876</t>
   </si>
   <si>
     <t xml:space="preserve">0.544001400470734</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">0.547792315483093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.545896887779236</t>
+    <t xml:space="preserve">0.545896768569946</t>
   </si>
   <si>
     <t xml:space="preserve">0.534523963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53641951084137</t>
+    <t xml:space="preserve">0.536419451236725</t>
   </si>
   <si>
     <t xml:space="preserve">0.525046646595001</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">0.519360184669495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51556932926178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513673722743988</t>
+    <t xml:space="preserve">0.515569269657135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513673782348633</t>
   </si>
   <si>
     <t xml:space="preserve">0.523151099681854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521255731582642</t>
+    <t xml:space="preserve">0.521255612373352</t>
   </si>
   <si>
     <t xml:space="preserve">0.528837621212006</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">0.530733048915863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583806395530701</t>
+    <t xml:space="preserve">0.583806276321411</t>
   </si>
   <si>
     <t xml:space="preserve">0.73544442653656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.739235281944275</t>
+    <t xml:space="preserve">0.73923522233963</t>
   </si>
   <si>
     <t xml:space="preserve">0.693743944168091</t>
@@ -1604,10 +1604,10 @@
     <t xml:space="preserve">0.682371079921722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659625291824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669102787971497</t>
+    <t xml:space="preserve">0.659625351428986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669102668762207</t>
   </si>
   <si>
     <t xml:space="preserve">0.663416266441345</t>
@@ -1619,16 +1619,16 @@
     <t xml:space="preserve">0.650147914886475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640670657157898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.655834376811981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.634984195232391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62929767370224</t>
+    <t xml:space="preserve">0.640670597553253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655834436416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634984135627747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629297733306885</t>
   </si>
   <si>
     <t xml:space="preserve">0.625506818294525</t>
@@ -1637,22 +1637,22 @@
     <t xml:space="preserve">0.619820356369019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616029441356659</t>
+    <t xml:space="preserve">0.616029381752014</t>
   </si>
   <si>
     <t xml:space="preserve">0.604656577110291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.602761089801788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.593283712863922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58759731054306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60844749212265</t>
+    <t xml:space="preserve">0.602761030197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.593283772468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.587597250938416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608447551727295</t>
   </si>
   <si>
     <t xml:space="preserve">0.597074627876282</t>
@@ -1661,34 +1661,34 @@
     <t xml:space="preserve">0.589492738246918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642566025257111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652043461799622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636879563331604</t>
+    <t xml:space="preserve">0.642566084861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.652043402194977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636879622936249</t>
   </si>
   <si>
     <t xml:space="preserve">0.617924928665161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598970234394073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600865662097931</t>
+    <t xml:space="preserve">0.598970174789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.600865602493286</t>
   </si>
   <si>
     <t xml:space="preserve">0.610342979431152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.555374205112457</t>
+    <t xml:space="preserve">0.555374264717102</t>
   </si>
   <si>
     <t xml:space="preserve">0.564851582050323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.532628536224365</t>
+    <t xml:space="preserve">0.53262847661972</t>
   </si>
   <si>
     <t xml:space="preserve">0.578119933605194</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">0.561060667037964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572433471679688</t>
+    <t xml:space="preserve">0.572433412075043</t>
   </si>
   <si>
     <t xml:space="preserve">0.591388285160065</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">0.614133954048157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674789130687714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665311813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691848397254944</t>
+    <t xml:space="preserve">0.674789190292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665311753749847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.691848456859589</t>
   </si>
   <si>
     <t xml:space="preserve">0.699430286884308</t>
@@ -1727,16 +1727,16 @@
     <t xml:space="preserve">0.678580105304718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.672893643379211</t>
+    <t xml:space="preserve">0.672893702983856</t>
   </si>
   <si>
     <t xml:space="preserve">0.66720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657729864120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705116748809814</t>
+    <t xml:space="preserve">0.657729923725128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705116808414459</t>
   </si>
   <si>
     <t xml:space="preserve">0.69753485918045</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">0.68047559261322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.648252546787262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799890458583832</t>
+    <t xml:space="preserve">0.648252487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799890577793121</t>
   </si>
   <si>
     <t xml:space="preserve">0.758190035820007</t>
@@ -1763,10 +1763,10 @@
     <t xml:space="preserve">0.782831192016602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775249302387238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761980950832367</t>
+    <t xml:space="preserve">0.775249421596527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761981070041656</t>
   </si>
   <si>
     <t xml:space="preserve">0.75629460811615</t>
@@ -1778,22 +1778,22 @@
     <t xml:space="preserve">0.748712718486786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724071502685547</t>
+    <t xml:space="preserve">0.724071562290192</t>
   </si>
   <si>
     <t xml:space="preserve">0.727862417697906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731653392314911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733548879623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725966989994049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750608205795288</t>
+    <t xml:space="preserve">0.731653451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733548820018768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725966930389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750608146190643</t>
   </si>
   <si>
     <t xml:space="preserve">0.743026256561279</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737339854240417</t>
+    <t xml:space="preserve">0.737339913845062</t>
   </si>
   <si>
     <t xml:space="preserve">0.729757905006409</t>
@@ -1814,10 +1814,10 @@
     <t xml:space="preserve">0.722176074981689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77714478969574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769562840461731</t>
+    <t xml:space="preserve">0.777144730091095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769562900066376</t>
   </si>
   <si>
     <t xml:space="preserve">0.76008552312851</t>
@@ -1826,16 +1826,16 @@
     <t xml:space="preserve">0.754399120807648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813158810138702</t>
+    <t xml:space="preserve">0.813158869743347</t>
   </si>
   <si>
     <t xml:space="preserve">0.824638724327087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816985487937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803592264652252</t>
+    <t xml:space="preserve">0.816985428333282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.803592205047607</t>
   </si>
   <si>
     <t xml:space="preserve">0.788285732269287</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">0.792112410068512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763412594795227</t>
+    <t xml:space="preserve">0.763412654399872</t>
   </si>
   <si>
     <t xml:space="preserve">0.757672727108002</t>
@@ -1865,13 +1865,13 @@
     <t xml:space="preserve">0.736626207828522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744279503822327</t>
+    <t xml:space="preserve">0.744279563426971</t>
   </si>
   <si>
     <t xml:space="preserve">0.751932799816132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746192812919617</t>
+    <t xml:space="preserve">0.746192753314972</t>
   </si>
   <si>
     <t xml:space="preserve">0.740452826023102</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">0.732799589633942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721319735050201</t>
+    <t xml:space="preserve">0.721319675445557</t>
   </si>
   <si>
     <t xml:space="preserve">0.715579807758331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713666439056396</t>
+    <t xml:space="preserve">0.713666498661041</t>
   </si>
   <si>
     <t xml:space="preserve">0.694533348083496</t>
@@ -1901,37 +1901,37 @@
     <t xml:space="preserve">0.698359966278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.730886280536652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.759586095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771065890789032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750019371509552</t>
+    <t xml:space="preserve">0.730886340141296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.759586036205292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771065831184387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750019431114197</t>
   </si>
   <si>
     <t xml:space="preserve">0.765325963497162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772979259490967</t>
+    <t xml:space="preserve">0.772979199886322</t>
   </si>
   <si>
     <t xml:space="preserve">0.774892568588257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.784459114074707</t>
+    <t xml:space="preserve">0.784459054470062</t>
   </si>
   <si>
     <t xml:space="preserve">0.778719186782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782545804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776805818080902</t>
+    <t xml:space="preserve">0.782545864582062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776805877685547</t>
   </si>
   <si>
     <t xml:space="preserve">0.769152641296387</t>
@@ -1946,10 +1946,10 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734712958335876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717493057250977</t>
+    <t xml:space="preserve">0.734712898731232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717493116855621</t>
   </si>
   <si>
     <t xml:space="preserve">0.709839820861816</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">0.727059662342072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719406425952911</t>
+    <t xml:space="preserve">0.719406366348267</t>
   </si>
   <si>
     <t xml:space="preserve">0.723232984542847</t>
@@ -1979,16 +1979,16 @@
     <t xml:space="preserve">0.883951544761658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895431339740753</t>
+    <t xml:space="preserve">0.895431399345398</t>
   </si>
   <si>
     <t xml:space="preserve">0.843771934509277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849511861801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853338479995728</t>
+    <t xml:space="preserve">0.849511802196503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853338420391083</t>
   </si>
   <si>
     <t xml:space="preserve">0.876298248767853</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">0.880124866962433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887778162956238</t>
+    <t xml:space="preserve">0.887778103351593</t>
   </si>
   <si>
     <t xml:space="preserve">0.885864794254303</t>
@@ -2021,34 +2021,34 @@
     <t xml:space="preserve">1.10972261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19582188129425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21017158031464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885582447052</t>
+    <t xml:space="preserve">1.19582176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21017169952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885570526123</t>
   </si>
   <si>
     <t xml:space="preserve">1.04275667667389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09537267684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1049393415451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12407243251801</t>
+    <t xml:space="preserve">1.09537279605865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10493922233582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12407255172729</t>
   </si>
   <si>
     <t xml:space="preserve">1.14798903465271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11928915977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18147206306458</t>
+    <t xml:space="preserve">1.11928927898407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18147194385529</t>
   </si>
   <si>
     <t xml:space="preserve">1.13842236995697</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.07623958587646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05232322216034</t>
+    <t xml:space="preserve">1.05232310295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.03797340393066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11450600624084</t>
+    <t xml:space="preserve">1.11450588703156</t>
   </si>
   <si>
     <t xml:space="preserve">1.13363909721375</t>
@@ -2081,16 +2081,16 @@
     <t xml:space="preserve">1.03319013118744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02362358570099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994923651218414</t>
+    <t xml:space="preserve">1.0236234664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994923770427704</t>
   </si>
   <si>
     <t xml:space="preserve">0.922217786312103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999707043170929</t>
+    <t xml:space="preserve">0.999706923961639</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">0.945177555084229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966224014759064</t>
+    <t xml:space="preserve">0.966223955154419</t>
   </si>
   <si>
     <t xml:space="preserve">1.04753994941711</t>
@@ -2120,16 +2120,16 @@
     <t xml:space="preserve">0.949004173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947090864181519</t>
+    <t xml:space="preserve">0.947090923786163</t>
   </si>
   <si>
     <t xml:space="preserve">0.910737931728363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941350996494293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954744219779968</t>
+    <t xml:space="preserve">0.941350936889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954744160175323</t>
   </si>
   <si>
     <t xml:space="preserve">0.956657469272614</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">0.942307591438293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871514916419983</t>
+    <t xml:space="preserve">0.871514976024628</t>
   </si>
   <si>
     <t xml:space="preserve">0.899258017539978</t>
@@ -2153,13 +2153,13 @@
     <t xml:space="preserve">0.889691472053528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884908139705658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873428225517273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875341594219208</t>
+    <t xml:space="preserve">0.884908199310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873428285121918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875341534614563</t>
   </si>
   <si>
     <t xml:space="preserve">0.865774989128113</t>
@@ -2177,10 +2177,10 @@
     <t xml:space="preserve">0.904041290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901171326637268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845685184001923</t>
+    <t xml:space="preserve">0.901171267032623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845685243606567</t>
   </si>
   <si>
     <t xml:space="preserve">0.846641838550568</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">0.870558321475983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866731703281403</t>
+    <t xml:space="preserve">0.866731643676758</t>
   </si>
   <si>
     <t xml:space="preserve">0.983443856239319</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">0.939437627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940394282341003</t>
+    <t xml:space="preserve">0.940394222736359</t>
   </si>
   <si>
     <t xml:space="preserve">0.929871022701263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877254903316498</t>
+    <t xml:space="preserve">0.877254843711853</t>
   </si>
   <si>
     <t xml:space="preserve">0.839945316314697</t>
@@ -59033,7 +59033,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6494328704</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>15168</v>
@@ -59054,6 +59054,32 @@
         <v>917</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6496064815</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>6053</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>917</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -50,37 +50,37 @@
     <t xml:space="preserve">0.413796156644821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416530460119247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393653184175491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400944769382477</t>
+    <t xml:space="preserve">0.41653048992157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393653213977814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400944799184799</t>
   </si>
   <si>
     <t xml:space="preserve">0.394108951091766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39192146062851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396478712558746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400033295154572</t>
+    <t xml:space="preserve">0.391921490430832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396478682756424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400033324956894</t>
   </si>
   <si>
     <t xml:space="preserve">0.405046284198761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3971166908741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382806956768036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40468168258667</t>
+    <t xml:space="preserve">0.397116750478745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382807016372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404681742191315</t>
   </si>
   <si>
     <t xml:space="preserve">0.409876942634583</t>
@@ -92,55 +92,55 @@
     <t xml:space="preserve">0.408327519893646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406778007745743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402767717838287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403314530849457</t>
+    <t xml:space="preserve">0.406778037548065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402767688035965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403314560651779</t>
   </si>
   <si>
     <t xml:space="preserve">0.389095991849899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37360143661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357286542654037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359929740428925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338237375020981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332404136657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355463624000549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355372488498688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385450184345245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391010046005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391465753316879</t>
+    <t xml:space="preserve">0.373601406812668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357286512851715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359929770231247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338237345218658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332404106855392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355463653802872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35537251830101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385450214147568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391010016202927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391465723514557</t>
   </si>
   <si>
     <t xml:space="preserve">0.375424295663834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392832934856415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.406504571437836</t>
+    <t xml:space="preserve">0.392832905054092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40650463104248</t>
   </si>
   <si>
     <t xml:space="preserve">0.409694641828537</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">0.396569818258286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392650634050369</t>
+    <t xml:space="preserve">0.392650604248047</t>
   </si>
   <si>
     <t xml:space="preserve">0.392012625932693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396387547254562</t>
+    <t xml:space="preserve">0.39638751745224</t>
   </si>
   <si>
     <t xml:space="preserve">0.401035904884338</t>
@@ -173,28 +173,28 @@
     <t xml:space="preserve">0.388366848230362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387728810310364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382168978452682</t>
+    <t xml:space="preserve">0.387728840112686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382169008255005</t>
   </si>
   <si>
     <t xml:space="preserve">0.383718460798264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390736550092697</t>
+    <t xml:space="preserve">0.390736609697342</t>
   </si>
   <si>
     <t xml:space="preserve">0.389916330575943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389642894268036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354187607765198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356830805540085</t>
+    <t xml:space="preserve">0.389642864465714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35418763756752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356830835342407</t>
   </si>
   <si>
     <t xml:space="preserve">0.346804946660995</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">0.368132770061493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359018296003342</t>
+    <t xml:space="preserve">0.359018266201019</t>
   </si>
   <si>
     <t xml:space="preserve">0.355190217494965</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">0.3724165558815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372598797082901</t>
+    <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
     <t xml:space="preserve">0.364486962556839</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">0.387364268302917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373783707618713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373692542314529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391648024320602</t>
+    <t xml:space="preserve">0.373783737421036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373692572116852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39164799451828</t>
   </si>
   <si>
     <t xml:space="preserve">0.391830325126648</t>
@@ -239,25 +239,25 @@
     <t xml:space="preserve">0.395020395517349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391101181507111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.390463203191757</t>
+    <t xml:space="preserve">0.391101151704788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390463173389435</t>
   </si>
   <si>
     <t xml:space="preserve">0.379161238670349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369135349988937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377338349819183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369044184684753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360750049352646</t>
+    <t xml:space="preserve">0.369135320186615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377338320016861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369044214487076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360750019550323</t>
   </si>
   <si>
     <t xml:space="preserve">0.373874843120575</t>
@@ -272,10 +272,10 @@
     <t xml:space="preserve">0.366765558719635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373510271310806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366856724023819</t>
+    <t xml:space="preserve">0.373510241508484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366856694221497</t>
   </si>
   <si>
     <t xml:space="preserve">0.379890352487564</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">0.382715851068497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368588447570801</t>
+    <t xml:space="preserve">0.368588477373123</t>
   </si>
   <si>
     <t xml:space="preserve">0.376609206199646</t>
@@ -293,31 +293,31 @@
     <t xml:space="preserve">0.375150859355927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364669233560562</t>
+    <t xml:space="preserve">0.364669263362885</t>
   </si>
   <si>
     <t xml:space="preserve">0.365489542484283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367312401533127</t>
+    <t xml:space="preserve">0.367312461137772</t>
   </si>
   <si>
     <t xml:space="preserve">0.370958238840103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360020905733109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348172128200531</t>
+    <t xml:space="preserve">0.360020935535431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348172098398209</t>
   </si>
   <si>
     <t xml:space="preserve">0.350906401872635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354552239179611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37004679441452</t>
+    <t xml:space="preserve">0.354552179574966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370046764612198</t>
   </si>
   <si>
     <t xml:space="preserve">0.373327940702438</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">0.352455884218216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339969098567963</t>
+    <t xml:space="preserve">0.33996906876564</t>
   </si>
   <si>
     <t xml:space="preserve">0.352273613214493</t>
@@ -344,19 +344,19 @@
     <t xml:space="preserve">0.344435185194016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337234735488892</t>
+    <t xml:space="preserve">0.337234765291214</t>
   </si>
   <si>
     <t xml:space="preserve">0.333497822284698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346166908740997</t>
+    <t xml:space="preserve">0.346166878938675</t>
   </si>
   <si>
     <t xml:space="preserve">0.34634917974472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341791987419128</t>
+    <t xml:space="preserve">0.341791957616806</t>
   </si>
   <si>
     <t xml:space="preserve">0.330581188201904</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">0.326206266880035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324474543333054</t>
+    <t xml:space="preserve">0.324474513530731</t>
   </si>
   <si>
     <t xml:space="preserve">0.327755749225616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329852044582367</t>
+    <t xml:space="preserve">0.329852074384689</t>
   </si>
   <si>
     <t xml:space="preserve">0.341245085000992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329487472772598</t>
+    <t xml:space="preserve">0.329487442970276</t>
   </si>
   <si>
     <t xml:space="preserve">0.32766455411911</t>
@@ -389,10 +389,10 @@
     <t xml:space="preserve">0.326115131378174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333588987588882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340971678495407</t>
+    <t xml:space="preserve">0.33358895778656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340971708297729</t>
   </si>
   <si>
     <t xml:space="preserve">0.337599337100983</t>
@@ -413,19 +413,19 @@
     <t xml:space="preserve">0.336323291063309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335320770740509</t>
+    <t xml:space="preserve">0.335320740938187</t>
   </si>
   <si>
     <t xml:space="preserve">0.33905765414238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32957860827446</t>
+    <t xml:space="preserve">0.329578667879105</t>
   </si>
   <si>
     <t xml:space="preserve">0.331766068935394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332312971353531</t>
+    <t xml:space="preserve">0.332312941551208</t>
   </si>
   <si>
     <t xml:space="preserve">0.325385928153992</t>
@@ -434,19 +434,19 @@
     <t xml:space="preserve">0.328211456537247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3326775431633</t>
+    <t xml:space="preserve">0.332677513360977</t>
   </si>
   <si>
     <t xml:space="preserve">0.328120321035385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319917291402817</t>
+    <t xml:space="preserve">0.319917321205139</t>
   </si>
   <si>
     <t xml:space="preserve">0.327208876609802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334226965904236</t>
+    <t xml:space="preserve">0.334226995706558</t>
   </si>
   <si>
     <t xml:space="preserve">0.323016226291656</t>
@@ -467,40 +467,40 @@
     <t xml:space="preserve">0.330945789813995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335229575634003</t>
+    <t xml:space="preserve">0.33522954583168</t>
   </si>
   <si>
     <t xml:space="preserve">0.343432575464249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349083513021469</t>
+    <t xml:space="preserve">0.349083542823792</t>
   </si>
   <si>
     <t xml:space="preserve">0.338875353336334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342885732650757</t>
+    <t xml:space="preserve">0.342885702848434</t>
   </si>
   <si>
     <t xml:space="preserve">0.333771288394928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344526290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337690472602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336687922477722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249824047089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351088732481003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349265843629837</t>
+    <t xml:space="preserve">0.344526320695877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337690442800522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336687862873077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249794244766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35108870267868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349265813827515</t>
   </si>
   <si>
     <t xml:space="preserve">0.340151369571686</t>
@@ -515,22 +515,22 @@
     <t xml:space="preserve">0.34972158074379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345437794923782</t>
+    <t xml:space="preserve">0.34543776512146</t>
   </si>
   <si>
     <t xml:space="preserve">0.353549629449844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354916840791702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345073163509369</t>
+    <t xml:space="preserve">0.35491681098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345073193311691</t>
   </si>
   <si>
     <t xml:space="preserve">0.344982028007507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328940600156784</t>
+    <t xml:space="preserve">0.328940629959106</t>
   </si>
   <si>
     <t xml:space="preserve">0.330854654312134</t>
@@ -539,37 +539,37 @@
     <t xml:space="preserve">0.324109941720963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331310331821442</t>
+    <t xml:space="preserve">0.331310361623764</t>
   </si>
   <si>
     <t xml:space="preserve">0.312352269887924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316180348396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317091852426529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312625706195831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332586377859116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33714359998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052464485168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966488838196</t>
+    <t xml:space="preserve">0.316180378198624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317091792821884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312625735998154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332586348056793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337143629789352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052434682846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966518640518</t>
   </si>
   <si>
     <t xml:space="preserve">0.338146209716797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350724160671234</t>
+    <t xml:space="preserve">0.350724130868912</t>
   </si>
   <si>
     <t xml:space="preserve">0.359109431505203</t>
@@ -578,34 +578,34 @@
     <t xml:space="preserve">0.341336250305176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345346599817276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343614816665649</t>
+    <t xml:space="preserve">0.345346629619598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343614846467972</t>
   </si>
   <si>
     <t xml:space="preserve">0.346258074045181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347260653972626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353185057640076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367358446121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362755239009857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381804436445236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380528420209885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389825135469437</t>
+    <t xml:space="preserve">0.347260624170303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353184998035431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367328643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362755209207535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381804466247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380528390407562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389825165271759</t>
   </si>
   <si>
     <t xml:space="preserve">0.380892962217331</t>
@@ -614,34 +614,34 @@
     <t xml:space="preserve">0.369408786296844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362390637397766</t>
+    <t xml:space="preserve">0.362390607595444</t>
   </si>
   <si>
     <t xml:space="preserve">0.36293751001358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361479192972183</t>
+    <t xml:space="preserve">0.361479222774506</t>
   </si>
   <si>
     <t xml:space="preserve">0.361934930086136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367585867643356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368223875761032</t>
+    <t xml:space="preserve">0.367585837841034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368223935365677</t>
   </si>
   <si>
     <t xml:space="preserve">0.370411336421967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36348432302475</t>
+    <t xml:space="preserve">0.363484382629395</t>
   </si>
   <si>
     <t xml:space="preserve">0.358744829893112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357195407152176</t>
+    <t xml:space="preserve">0.357195377349854</t>
   </si>
   <si>
     <t xml:space="preserve">0.35819798707962</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">0.363119781017303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347625225782394</t>
+    <t xml:space="preserve">0.347625195980072</t>
   </si>
   <si>
     <t xml:space="preserve">0.353276193141937</t>
@@ -659,19 +659,19 @@
     <t xml:space="preserve">0.353093892335892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349994957447052</t>
+    <t xml:space="preserve">0.349994987249374</t>
   </si>
   <si>
     <t xml:space="preserve">0.343797147274017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343250304460526</t>
+    <t xml:space="preserve">0.343250274658203</t>
   </si>
   <si>
     <t xml:space="preserve">0.346075773239136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344617486000061</t>
+    <t xml:space="preserve">0.344617456197739</t>
   </si>
   <si>
     <t xml:space="preserve">0.350268423557281</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">0.344890862703323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350359529256821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349356979131699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358380317687988</t>
+    <t xml:space="preserve">0.350359588861465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349356949329376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358380287885666</t>
   </si>
   <si>
     <t xml:space="preserve">0.353458493947983</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">0.359747439622879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359565138816833</t>
+    <t xml:space="preserve">0.359565109014511</t>
   </si>
   <si>
     <t xml:space="preserve">0.362299531698227</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">0.36886191368103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374148279428482</t>
+    <t xml:space="preserve">0.37414824962616</t>
   </si>
   <si>
     <t xml:space="preserve">0.379525810480118</t>
@@ -725,13 +725,13 @@
     <t xml:space="preserve">0.363575547933578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352820515632629</t>
+    <t xml:space="preserve">0.352820485830307</t>
   </si>
   <si>
     <t xml:space="preserve">0.3565573990345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361570358276367</t>
+    <t xml:space="preserve">0.361570328474045</t>
   </si>
   <si>
     <t xml:space="preserve">0.360932320356369</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">0.355919390916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358471423387527</t>
+    <t xml:space="preserve">0.35847145318985</t>
   </si>
   <si>
     <t xml:space="preserve">0.368315041065216</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">0.369864493608475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374604016542435</t>
+    <t xml:space="preserve">0.374604076147079</t>
   </si>
   <si>
     <t xml:space="preserve">0.366674453020096</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">0.369226455688477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372781157493591</t>
+    <t xml:space="preserve">0.372781127691269</t>
   </si>
   <si>
     <t xml:space="preserve">0.370867103338242</t>
@@ -782,64 +782,64 @@
     <t xml:space="preserve">0.386270523071289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384174168109894</t>
+    <t xml:space="preserve">0.384174197912216</t>
   </si>
   <si>
     <t xml:space="preserve">0.380984127521515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382260113954544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541349649429</t>
+    <t xml:space="preserve">0.382260143756866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541379451752</t>
   </si>
   <si>
     <t xml:space="preserve">0.386817365884781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378978967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523230552673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505111455917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869683265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366583317518234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365398436784744</t>
+    <t xml:space="preserve">0.378978997468948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523200750351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371505081653595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869653463364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366583287715912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365398406982422</t>
   </si>
   <si>
     <t xml:space="preserve">0.365762978792191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360294282436371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364304691553116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385477542877</t>
+    <t xml:space="preserve">0.360294312238693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364304661750793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360385447740555</t>
   </si>
   <si>
     <t xml:space="preserve">0.363848954439163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356466263532639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35582822561264</t>
+    <t xml:space="preserve">0.356466293334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355828166007996</t>
   </si>
   <si>
     <t xml:space="preserve">0.357377678155899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357468843460083</t>
+    <t xml:space="preserve">0.357468813657761</t>
   </si>
   <si>
     <t xml:space="preserve">0.36129692196846</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">0.366218745708466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365854144096375</t>
+    <t xml:space="preserve">0.365854173898697</t>
   </si>
   <si>
     <t xml:space="preserve">0.358653753995895</t>
@@ -857,13 +857,13 @@
     <t xml:space="preserve">0.36485156416893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355645895004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362117230892181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366036385297775</t>
+    <t xml:space="preserve">0.355645924806595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362117201089859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366036415100098</t>
   </si>
   <si>
     <t xml:space="preserve">0.363757818937302</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">0.361661463975906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355554789304733</t>
+    <t xml:space="preserve">0.355554819107056</t>
   </si>
   <si>
     <t xml:space="preserve">0.358927130699158</t>
@@ -884,25 +884,25 @@
     <t xml:space="preserve">0.361114621162415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358289122581482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36011204123497</t>
+    <t xml:space="preserve">0.358289152383804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360112071037292</t>
   </si>
   <si>
     <t xml:space="preserve">0.365945279598236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36795049905777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364395797252655</t>
+    <t xml:space="preserve">0.367950469255447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364395827054977</t>
   </si>
   <si>
     <t xml:space="preserve">0.359291702508926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365125000476837</t>
+    <t xml:space="preserve">0.365124970674515</t>
   </si>
   <si>
     <t xml:space="preserve">0.377247184514999</t>
@@ -914,19 +914,19 @@
     <t xml:space="preserve">0.3812575340271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379799246788025</t>
+    <t xml:space="preserve">0.379799216985703</t>
   </si>
   <si>
     <t xml:space="preserve">0.388731420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385723620653152</t>
+    <t xml:space="preserve">0.385723650455475</t>
   </si>
   <si>
     <t xml:space="preserve">0.383627325296402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381075263023376</t>
+    <t xml:space="preserve">0.381075292825699</t>
   </si>
   <si>
     <t xml:space="preserve">0.371413975954056</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">0.377611756324768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381713300943375</t>
+    <t xml:space="preserve">0.381713271141052</t>
   </si>
   <si>
     <t xml:space="preserve">0.381530970335007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382898181676865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372689992189407</t>
+    <t xml:space="preserve">0.382898151874542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372689962387085</t>
   </si>
   <si>
     <t xml:space="preserve">0.373965978622437</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">0.375515431165695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366309851408005</t>
+    <t xml:space="preserve">0.366309821605682</t>
   </si>
   <si>
     <t xml:space="preserve">0.359474003314972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358015716075897</t>
+    <t xml:space="preserve">0.358015686273575</t>
   </si>
   <si>
     <t xml:space="preserve">0.362208336591721</t>
@@ -980,25 +980,25 @@
     <t xml:space="preserve">0.357013136148453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359656304121017</t>
+    <t xml:space="preserve">0.35965633392334</t>
   </si>
   <si>
     <t xml:space="preserve">0.36412239074707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36366668343544</t>
+    <t xml:space="preserve">0.363666653633118</t>
   </si>
   <si>
     <t xml:space="preserve">0.354734510183334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355737149715424</t>
+    <t xml:space="preserve">0.355737090110779</t>
   </si>
   <si>
     <t xml:space="preserve">0.365671843290329</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361843764781952</t>
+    <t xml:space="preserve">0.361843794584274</t>
   </si>
   <si>
     <t xml:space="preserve">0.366401046514511</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">0.351817905902863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353640794754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352729290723801</t>
+    <t xml:space="preserve">0.353640764951706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352729320526123</t>
   </si>
   <si>
     <t xml:space="preserve">0.335411876440048</t>
@@ -1019,40 +1019,40 @@
     <t xml:space="preserve">0.329031735658646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329943209886551</t>
+    <t xml:space="preserve">0.329943180084229</t>
   </si>
   <si>
     <t xml:space="preserve">0.322651624679565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323563098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32174015045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334500432014465</t>
+    <t xml:space="preserve">0.323563069105148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.321740180253983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334500461816788</t>
   </si>
   <si>
     <t xml:space="preserve">0.342703431844711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319005817174911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182958126068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271543502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326297402381897</t>
+    <t xml:space="preserve">0.319005846977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182928323746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271513700485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326297432184219</t>
   </si>
   <si>
     <t xml:space="preserve">0.318094402551651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310802817344666</t>
+    <t xml:space="preserve">0.310802847146988</t>
   </si>
   <si>
     <t xml:space="preserve">0.301688373088837</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">0.302599847316742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309891402721405</t>
+    <t xml:space="preserve">0.309891372919083</t>
   </si>
   <si>
     <t xml:space="preserve">0.308068484067917</t>
@@ -1070,19 +1070,19 @@
     <t xml:space="preserve">0.314448624849319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311714261770248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304422706365585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305334150791168</t>
+    <t xml:space="preserve">0.311714291572571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304422736167908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305334180593491</t>
   </si>
   <si>
     <t xml:space="preserve">0.306245625019073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298954099416733</t>
+    <t xml:space="preserve">0.29895406961441</t>
   </si>
   <si>
     <t xml:space="preserve">0.299865484237671</t>
@@ -1097,19 +1097,19 @@
     <t xml:space="preserve">0.307157069444656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313537150621414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308979958295822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.315360069274902</t>
+    <t xml:space="preserve">0.313537180423737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3089799284935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31536003947258</t>
   </si>
   <si>
     <t xml:space="preserve">0.348250925540924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351975500583649</t>
+    <t xml:space="preserve">0.351975530385971</t>
   </si>
   <si>
     <t xml:space="preserve">0.342664003372192</t>
@@ -1124,22 +1124,22 @@
     <t xml:space="preserve">0.33614593744278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347319781780243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354768991470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349182069301605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346388638019562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341732859611511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352906703948975</t>
+    <t xml:space="preserve">0.347319751977921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354768961668015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349182039499283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346388608217239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341732889413834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352906674146652</t>
   </si>
   <si>
     <t xml:space="preserve">0.345457464456558</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">0.343595147132874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337077111005783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34080171585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339870572090149</t>
+    <t xml:space="preserve">0.337077081203461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340801686048508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339870542287827</t>
   </si>
   <si>
     <t xml:space="preserve">0.338939368724823</t>
@@ -1169,22 +1169,22 @@
     <t xml:space="preserve">0.358493566513062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36314931511879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362218230962753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631249189377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361287087202072</t>
+    <t xml:space="preserve">0.363149344921112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362218171358109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36128705739975</t>
   </si>
   <si>
     <t xml:space="preserve">0.365942806005478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367805123329163</t>
+    <t xml:space="preserve">0.367805153131485</t>
   </si>
   <si>
     <t xml:space="preserve">0.368736267089844</t>
@@ -1193,28 +1193,28 @@
     <t xml:space="preserve">0.366873949766159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37152972817421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385497003793716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378047794103622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379910111427307</t>
+    <t xml:space="preserve">0.371529698371887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385496973991394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3780477643013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379910081624985</t>
   </si>
   <si>
     <t xml:space="preserve">0.38829043507576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415293842554092</t>
+    <t xml:space="preserve">0.415293902158737</t>
   </si>
   <si>
     <t xml:space="preserve">0.404120028018951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399464309215546</t>
+    <t xml:space="preserve">0.399464279413223</t>
   </si>
   <si>
     <t xml:space="preserve">0.407844632863998</t>
@@ -1226,19 +1226,19 @@
     <t xml:space="preserve">0.395739704370499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400395423173904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405051231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405982315540314</t>
+    <t xml:space="preserve">0.400395452976227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405051171779633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405982345342636</t>
   </si>
   <si>
     <t xml:space="preserve">0.409706950187683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391083866357803</t>
+    <t xml:space="preserve">0.391083925962448</t>
   </si>
   <si>
     <t xml:space="preserve">0.40318888425827</t>
@@ -1247,10 +1247,10 @@
     <t xml:space="preserve">0.396670788526535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401326596736908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41343155503273</t>
+    <t xml:space="preserve">0.401326566934586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413431614637375</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">0.422743082046509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424605399370193</t>
+    <t xml:space="preserve">0.424605369567871</t>
   </si>
   <si>
     <t xml:space="preserve">0.444159597158432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474887579679489</t>
+    <t xml:space="preserve">0.474887609481812</t>
   </si>
   <si>
     <t xml:space="preserve">0.458126872777939</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">0.446953028440475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446021854877472</t>
+    <t xml:space="preserve">0.446021914482117</t>
   </si>
   <si>
     <t xml:space="preserve">0.453471094369888</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">0.456264585256577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47116294503212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476749897003174</t>
+    <t xml:space="preserve">0.471162974834442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476749956607819</t>
   </si>
   <si>
     <t xml:space="preserve">0.457195729017258</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">0.45905801653862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460920363664627</t>
+    <t xml:space="preserve">0.460920333862305</t>
   </si>
   <si>
     <t xml:space="preserve">0.445090740919113</t>
@@ -1316,22 +1316,22 @@
     <t xml:space="preserve">0.439503848552704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451608836650848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.447884202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448815375566483</t>
+    <t xml:space="preserve">0.451608806848526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.447884231805801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44881534576416</t>
   </si>
   <si>
     <t xml:space="preserve">0.440434962511063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504684507846832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653668820858002</t>
+    <t xml:space="preserve">0.504684448242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653668880462646</t>
   </si>
   <si>
     <t xml:space="preserve">0.744921743869781</t>
@@ -1340,22 +1340,22 @@
     <t xml:space="preserve">0.672291874885559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657393395900726</t>
+    <t xml:space="preserve">0.657393455505371</t>
   </si>
   <si>
     <t xml:space="preserve">0.687190294265747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666704952716827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638770341873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610835909843445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590350449085236</t>
+    <t xml:space="preserve">0.666705012321472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.638770401477814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6108358502388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59035050868988</t>
   </si>
   <si>
     <t xml:space="preserve">0.568002820014954</t>
@@ -1364,37 +1364,37 @@
     <t xml:space="preserve">0.608973503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.635045766830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63132119178772</t>
+    <t xml:space="preserve">0.635045826435089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631321132183075</t>
   </si>
   <si>
     <t xml:space="preserve">0.629458844661713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633183479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640632629394531</t>
+    <t xml:space="preserve">0.633183419704437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640632688999176</t>
   </si>
   <si>
     <t xml:space="preserve">0.642495036125183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644357323646545</t>
+    <t xml:space="preserve">0.644357264041901</t>
   </si>
   <si>
     <t xml:space="preserve">0.627596616744995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.601524353027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57731431722641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525169789791107</t>
+    <t xml:space="preserve">0.601524293422699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.577314376831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525169849395752</t>
   </si>
   <si>
     <t xml:space="preserve">0.515858352184296</t>
@@ -1403,49 +1403,49 @@
     <t xml:space="preserve">0.527032136917114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50282222032547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493510603904724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499097555875778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486061424016953</t>
+    <t xml:space="preserve">0.502822160720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.493510663509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499097615480423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486061453819275</t>
   </si>
   <si>
     <t xml:space="preserve">0.42833000421524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437641531229019</t>
+    <t xml:space="preserve">0.437641561031342</t>
   </si>
   <si>
     <t xml:space="preserve">0.463713794946671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435779243707657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44229730963707</t>
+    <t xml:space="preserve">0.435779184103012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.442297250032425</t>
   </si>
   <si>
     <t xml:space="preserve">0.491648346185684</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500959873199463</t>
+    <t xml:space="preserve">0.500959813594818</t>
   </si>
   <si>
     <t xml:space="preserve">0.513995945453644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510271370410919</t>
+    <t xml:space="preserve">0.510271310806274</t>
   </si>
   <si>
     <t xml:space="preserve">0.508409142494202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.512133657932281</t>
+    <t xml:space="preserve">0.512133777141571</t>
   </si>
   <si>
     <t xml:space="preserve">0.543792843818665</t>
@@ -1457,49 +1457,49 @@
     <t xml:space="preserve">0.571727454662323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582901298999786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566140532493591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.558691322803497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538205981254578</t>
+    <t xml:space="preserve">0.582901179790497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566140472888947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.558691382408142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538206040859222</t>
   </si>
   <si>
     <t xml:space="preserve">0.530756711959839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.528894424438477</t>
+    <t xml:space="preserve">0.528894484043121</t>
   </si>
   <si>
     <t xml:space="preserve">0.549379765987396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.532619118690491</t>
+    <t xml:space="preserve">0.532619059085846</t>
   </si>
   <si>
     <t xml:space="preserve">0.521445214748383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517720580101013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506546795368195</t>
+    <t xml:space="preserve">0.517720520496368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546854972839</t>
   </si>
   <si>
     <t xml:space="preserve">0.536343574523926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.564278244972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575451970100403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579176604747772</t>
+    <t xml:space="preserve">0.564278185367584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575452029705048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579176545143127</t>
   </si>
   <si>
     <t xml:space="preserve">0.592212736606598</t>
@@ -1508,16 +1508,16 @@
     <t xml:space="preserve">0.551242113113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557269752025604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566747069358826</t>
+    <t xml:space="preserve">0.557269692420959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566747009754181</t>
   </si>
   <si>
     <t xml:space="preserve">0.549687743186951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.562956094741821</t>
+    <t xml:space="preserve">0.562956035137177</t>
   </si>
   <si>
     <t xml:space="preserve">0.551583290100098</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">0.559165120124817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542105972766876</t>
+    <t xml:space="preserve">0.542105913162231</t>
   </si>
   <si>
     <t xml:space="preserve">0.544001400470734</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">0.540210366249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.547792315483093</t>
+    <t xml:space="preserve">0.547792375087738</t>
   </si>
   <si>
     <t xml:space="preserve">0.545896768569946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534523963928223</t>
+    <t xml:space="preserve">0.534524023532867</t>
   </si>
   <si>
     <t xml:space="preserve">0.536419451236725</t>
@@ -1553,49 +1553,49 @@
     <t xml:space="preserve">0.525046646595001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519360184669495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.515569269657135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513673782348633</t>
+    <t xml:space="preserve">0.51936012506485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51556932926178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513673722743988</t>
   </si>
   <si>
     <t xml:space="preserve">0.523151099681854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521255612373352</t>
+    <t xml:space="preserve">0.521255731582642</t>
   </si>
   <si>
     <t xml:space="preserve">0.528837621212006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538314938545227</t>
+    <t xml:space="preserve">0.538314998149872</t>
   </si>
   <si>
     <t xml:space="preserve">0.530733048915863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583806276321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73544442653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73923522233963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693743944168091</t>
+    <t xml:space="preserve">0.583806395530701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735444366931915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.739235281944275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693743884563446</t>
   </si>
   <si>
     <t xml:space="preserve">0.653938949108124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633088648319244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686162054538727</t>
+    <t xml:space="preserve">0.633088707923889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686161994934082</t>
   </si>
   <si>
     <t xml:space="preserve">0.676684558391571</t>
@@ -1604,28 +1604,28 @@
     <t xml:space="preserve">0.682371079921722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659625351428986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669102668762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.663416266441345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.644461572170258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650147914886475</t>
+    <t xml:space="preserve">0.659625291824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669102728366852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66341632604599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.644461512565613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650147974491119</t>
   </si>
   <si>
     <t xml:space="preserve">0.640670597553253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655834436416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.634984135627747</t>
+    <t xml:space="preserve">0.655834376811981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634984195232391</t>
   </si>
   <si>
     <t xml:space="preserve">0.629297733306885</t>
@@ -1646,25 +1646,25 @@
     <t xml:space="preserve">0.602761030197144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593283772468567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587597250938416</t>
+    <t xml:space="preserve">0.593283653259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58759731054306</t>
   </si>
   <si>
     <t xml:space="preserve">0.608447551727295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.597074627876282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.589492738246918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642566084861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652043402194977</t>
+    <t xml:space="preserve">0.597074687480927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.589492678642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642566025257111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.652043461799622</t>
   </si>
   <si>
     <t xml:space="preserve">0.636879622936249</t>
@@ -1673,10 +1673,10 @@
     <t xml:space="preserve">0.617924928665161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598970174789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600865602493286</t>
+    <t xml:space="preserve">0.598970234394073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.600865662097931</t>
   </si>
   <si>
     <t xml:space="preserve">0.610342979431152</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">0.555374264717102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.564851582050323</t>
+    <t xml:space="preserve">0.564851641654968</t>
   </si>
   <si>
     <t xml:space="preserve">0.53262847661972</t>
@@ -1694,16 +1694,16 @@
     <t xml:space="preserve">0.578119933605194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576224446296692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568642556667328</t>
+    <t xml:space="preserve">0.576224386692047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568642616271973</t>
   </si>
   <si>
     <t xml:space="preserve">0.561060667037964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572433412075043</t>
+    <t xml:space="preserve">0.572433471679688</t>
   </si>
   <si>
     <t xml:space="preserve">0.591388285160065</t>
@@ -1712,31 +1712,31 @@
     <t xml:space="preserve">0.614133954048157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674789190292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665311753749847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691848456859589</t>
+    <t xml:space="preserve">0.674789130687714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665311813354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.691848397254944</t>
   </si>
   <si>
     <t xml:space="preserve">0.699430286884308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.678580105304718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672893702983856</t>
+    <t xml:space="preserve">0.678580164909363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672893643379211</t>
   </si>
   <si>
     <t xml:space="preserve">0.66720724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657729923725128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705116808414459</t>
+    <t xml:space="preserve">0.657729864120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705116748809814</t>
   </si>
   <si>
     <t xml:space="preserve">0.69753485918045</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">0.68047559261322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.648252487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799890577793121</t>
+    <t xml:space="preserve">0.648252546787262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799890458583832</t>
   </si>
   <si>
     <t xml:space="preserve">0.758190035820007</t>
@@ -1760,43 +1760,43 @@
     <t xml:space="preserve">0.788517713546753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782831192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775249421596527</t>
+    <t xml:space="preserve">0.782831251621246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.775249361991882</t>
   </si>
   <si>
     <t xml:space="preserve">0.761981070041656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75629460811615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752503633499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.748712718486786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724071562290192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727862417697906</t>
+    <t xml:space="preserve">0.756294548511505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75250369310379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.748712778091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.724071502685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727862477302551</t>
   </si>
   <si>
     <t xml:space="preserve">0.731653451919556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733548820018768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725966930389404</t>
+    <t xml:space="preserve">0.733548879623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725966989994049</t>
   </si>
   <si>
     <t xml:space="preserve">0.750608146190643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743026256561279</t>
+    <t xml:space="preserve">0.743026196956635</t>
   </si>
   <si>
     <t xml:space="preserve">0.741130769252777</t>
@@ -1805,37 +1805,37 @@
     <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737339913845062</t>
+    <t xml:space="preserve">0.737339794635773</t>
   </si>
   <si>
     <t xml:space="preserve">0.729757905006409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722176074981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.777144730091095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769562900066376</t>
+    <t xml:space="preserve">0.722176015377045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77714478969574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769562840461731</t>
   </si>
   <si>
     <t xml:space="preserve">0.76008552312851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754399120807648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813158869743347</t>
+    <t xml:space="preserve">0.754399061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813158810138702</t>
   </si>
   <si>
     <t xml:space="preserve">0.824638724327087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816985428333282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803592205047607</t>
+    <t xml:space="preserve">0.816985487937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.803592264652252</t>
   </si>
   <si>
     <t xml:space="preserve">0.788285732269287</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">0.792112410068512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763412654399872</t>
+    <t xml:space="preserve">0.763412594795227</t>
   </si>
   <si>
     <t xml:space="preserve">0.757672727108002</t>
@@ -1865,13 +1865,13 @@
     <t xml:space="preserve">0.736626207828522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744279563426971</t>
+    <t xml:space="preserve">0.744279503822327</t>
   </si>
   <si>
     <t xml:space="preserve">0.751932799816132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746192753314972</t>
+    <t xml:space="preserve">0.746192812919617</t>
   </si>
   <si>
     <t xml:space="preserve">0.740452826023102</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">0.732799589633942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721319675445557</t>
+    <t xml:space="preserve">0.721319735050201</t>
   </si>
   <si>
     <t xml:space="preserve">0.715579807758331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713666498661041</t>
+    <t xml:space="preserve">0.713666439056396</t>
   </si>
   <si>
     <t xml:space="preserve">0.694533348083496</t>
@@ -1901,37 +1901,37 @@
     <t xml:space="preserve">0.698359966278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.730886340141296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.759586036205292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771065831184387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750019431114197</t>
+    <t xml:space="preserve">0.730886280536652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.759586095809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771065890789032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750019371509552</t>
   </si>
   <si>
     <t xml:space="preserve">0.765325963497162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772979199886322</t>
+    <t xml:space="preserve">0.772979259490967</t>
   </si>
   <si>
     <t xml:space="preserve">0.774892568588257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.784459054470062</t>
+    <t xml:space="preserve">0.784459114074707</t>
   </si>
   <si>
     <t xml:space="preserve">0.778719186782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782545864582062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776805877685547</t>
+    <t xml:space="preserve">0.782545804977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776805818080902</t>
   </si>
   <si>
     <t xml:space="preserve">0.769152641296387</t>
@@ -1946,10 +1946,10 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734712898731232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717493116855621</t>
+    <t xml:space="preserve">0.734712958335876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717493057250977</t>
   </si>
   <si>
     <t xml:space="preserve">0.709839820861816</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">0.727059662342072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719406366348267</t>
+    <t xml:space="preserve">0.719406425952911</t>
   </si>
   <si>
     <t xml:space="preserve">0.723232984542847</t>
@@ -1979,16 +1979,16 @@
     <t xml:space="preserve">0.883951544761658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895431399345398</t>
+    <t xml:space="preserve">0.895431339740753</t>
   </si>
   <si>
     <t xml:space="preserve">0.843771934509277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849511802196503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853338420391083</t>
+    <t xml:space="preserve">0.849511861801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853338479995728</t>
   </si>
   <si>
     <t xml:space="preserve">0.876298248767853</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">0.880124866962433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887778103351593</t>
+    <t xml:space="preserve">0.887778162956238</t>
   </si>
   <si>
     <t xml:space="preserve">0.885864794254303</t>
@@ -2021,34 +2021,34 @@
     <t xml:space="preserve">1.10972261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19582176208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21017169952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885570526123</t>
+    <t xml:space="preserve">1.19582188129425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21017158031464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885582447052</t>
   </si>
   <si>
     <t xml:space="preserve">1.04275667667389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09537279605865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10493922233582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12407255172729</t>
+    <t xml:space="preserve">1.09537267684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1049393415451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12407243251801</t>
   </si>
   <si>
     <t xml:space="preserve">1.14798903465271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11928927898407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18147194385529</t>
+    <t xml:space="preserve">1.11928915977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18147206306458</t>
   </si>
   <si>
     <t xml:space="preserve">1.13842236995697</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.07623958587646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05232310295105</t>
+    <t xml:space="preserve">1.05232322216034</t>
   </si>
   <si>
     <t xml:space="preserve">1.03797340393066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11450588703156</t>
+    <t xml:space="preserve">1.11450600624084</t>
   </si>
   <si>
     <t xml:space="preserve">1.13363909721375</t>
@@ -2081,16 +2081,16 @@
     <t xml:space="preserve">1.03319013118744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0236234664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994923770427704</t>
+    <t xml:space="preserve">1.02362358570099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994923651218414</t>
   </si>
   <si>
     <t xml:space="preserve">0.922217786312103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999706923961639</t>
+    <t xml:space="preserve">0.999707043170929</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">0.945177555084229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966223955154419</t>
+    <t xml:space="preserve">0.966224014759064</t>
   </si>
   <si>
     <t xml:space="preserve">1.04753994941711</t>
@@ -2120,16 +2120,16 @@
     <t xml:space="preserve">0.949004173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947090923786163</t>
+    <t xml:space="preserve">0.947090864181519</t>
   </si>
   <si>
     <t xml:space="preserve">0.910737931728363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941350936889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954744160175323</t>
+    <t xml:space="preserve">0.941350996494293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954744219779968</t>
   </si>
   <si>
     <t xml:space="preserve">0.956657469272614</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">0.942307591438293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871514976024628</t>
+    <t xml:space="preserve">0.871514916419983</t>
   </si>
   <si>
     <t xml:space="preserve">0.899258017539978</t>
@@ -2153,13 +2153,13 @@
     <t xml:space="preserve">0.889691472053528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884908199310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873428285121918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875341534614563</t>
+    <t xml:space="preserve">0.884908139705658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873428225517273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875341594219208</t>
   </si>
   <si>
     <t xml:space="preserve">0.865774989128113</t>
@@ -2177,10 +2177,10 @@
     <t xml:space="preserve">0.904041290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901171267032623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845685243606567</t>
+    <t xml:space="preserve">0.901171326637268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845685184001923</t>
   </si>
   <si>
     <t xml:space="preserve">0.846641838550568</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">0.870558321475983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866731643676758</t>
+    <t xml:space="preserve">0.866731703281403</t>
   </si>
   <si>
     <t xml:space="preserve">0.983443856239319</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">0.939437627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940394222736359</t>
+    <t xml:space="preserve">0.940394282341003</t>
   </si>
   <si>
     <t xml:space="preserve">0.929871022701263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877254843711853</t>
+    <t xml:space="preserve">0.877254903316498</t>
   </si>
   <si>
     <t xml:space="preserve">0.839945316314697</t>
@@ -59059,7 +59059,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6496064815</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>6053</v>
@@ -59080,6 +59080,32 @@
         <v>917</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6495833333</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>101286</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>917</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="920">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">0.421087712049484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413796126842499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.416530460119247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393653213977814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400944769382477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.394108951091766</t>
+    <t xml:space="preserve">0.413796156644821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41653048992157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393653243780136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400944799184799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.394108921289444</t>
   </si>
   <si>
     <t xml:space="preserve">0.391921490430832</t>
@@ -68,61 +68,61 @@
     <t xml:space="preserve">0.396478682756424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400033324956894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405046284198761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.397116720676422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382806986570358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404681712388992</t>
+    <t xml:space="preserve">0.400033354759216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405046314001083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3971166908741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382807016372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404681742191315</t>
   </si>
   <si>
     <t xml:space="preserve">0.409876942634583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405502021312714</t>
+    <t xml:space="preserve">0.405501991510391</t>
   </si>
   <si>
     <t xml:space="preserve">0.408327519893646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406778037548065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402767688035965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403314501047134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389095991849899</t>
+    <t xml:space="preserve">0.406778067350388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402767658233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403314560651779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389095962047577</t>
   </si>
   <si>
     <t xml:space="preserve">0.373601406812668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357286512851715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359929740428925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338237345218658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33240407705307</t>
+    <t xml:space="preserve">0.35728657245636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359929770231247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338237375020981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332404047250748</t>
   </si>
   <si>
     <t xml:space="preserve">0.355463624000549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355372548103333</t>
+    <t xml:space="preserve">0.355372488498688</t>
   </si>
   <si>
     <t xml:space="preserve">0.385450184345245</t>
@@ -131,22 +131,22 @@
     <t xml:space="preserve">0.391010046005249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391465783119202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375424325466156</t>
+    <t xml:space="preserve">0.391465753316879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375424295663834</t>
   </si>
   <si>
     <t xml:space="preserve">0.392832905054092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406504571437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409694671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393835514783859</t>
+    <t xml:space="preserve">0.406504601240158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409694641828537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393835484981537</t>
   </si>
   <si>
     <t xml:space="preserve">0.405593156814575</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.402403116226196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396569818258286</t>
+    <t xml:space="preserve">0.396569848060608</t>
   </si>
   <si>
     <t xml:space="preserve">0.392650604248047</t>
@@ -173,43 +173,43 @@
     <t xml:space="preserve">0.388366788625717</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387728810310364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382168978452682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383718460798264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.390736609697342</t>
+    <t xml:space="preserve">0.387728840112686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382169038057327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383718430995941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39073657989502</t>
   </si>
   <si>
     <t xml:space="preserve">0.389916300773621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389642834663391</t>
+    <t xml:space="preserve">0.389642864465714</t>
   </si>
   <si>
     <t xml:space="preserve">0.354187607765198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356830775737762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346804946660995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368132710456848</t>
+    <t xml:space="preserve">0.356830805540085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346804916858673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368132770061493</t>
   </si>
   <si>
     <t xml:space="preserve">0.359018266201019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355190187692642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3724165558815</t>
+    <t xml:space="preserve">0.355190217494965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372416585683823</t>
   </si>
   <si>
     <t xml:space="preserve">0.372598826885223</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">0.364486932754517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387364268302917</t>
+    <t xml:space="preserve">0.387364208698273</t>
   </si>
   <si>
     <t xml:space="preserve">0.373783737421036</t>
@@ -227,37 +227,37 @@
     <t xml:space="preserve">0.373692542314529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39164799451828</t>
+    <t xml:space="preserve">0.391648024320602</t>
   </si>
   <si>
     <t xml:space="preserve">0.391830295324326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403679072856903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395020425319672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391101181507111</t>
+    <t xml:space="preserve">0.403679102659225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395020365715027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391101151704788</t>
   </si>
   <si>
     <t xml:space="preserve">0.390463173389435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379161238670349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369135320186615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377338320016861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369044214487076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360749989748001</t>
+    <t xml:space="preserve">0.379161208868027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369135349988937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377338349819183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369044184684753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360750019550323</t>
   </si>
   <si>
     <t xml:space="preserve">0.373874843120575</t>
@@ -269,85 +269,85 @@
     <t xml:space="preserve">0.372507691383362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366765588521957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373510301113129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366856724023819</t>
+    <t xml:space="preserve">0.36676561832428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373510241508484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366856664419174</t>
   </si>
   <si>
     <t xml:space="preserve">0.379890412092209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382715910673141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368588507175446</t>
+    <t xml:space="preserve">0.382715851068497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368588417768478</t>
   </si>
   <si>
     <t xml:space="preserve">0.376609206199646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375150889158249</t>
+    <t xml:space="preserve">0.375150859355927</t>
   </si>
   <si>
     <t xml:space="preserve">0.364669233560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365489572286606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367312431335449</t>
+    <t xml:space="preserve">0.365489542484283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367312461137772</t>
   </si>
   <si>
     <t xml:space="preserve">0.370958238840103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360020875930786</t>
+    <t xml:space="preserve">0.360020905733109</t>
   </si>
   <si>
     <t xml:space="preserve">0.348172098398209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350906401872635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354552179574966</t>
+    <t xml:space="preserve">0.350906431674957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354552209377289</t>
   </si>
   <si>
     <t xml:space="preserve">0.370046764612198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373327970504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364578098058701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354461073875427</t>
+    <t xml:space="preserve">0.373328000307083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364578127861023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35446110367775</t>
   </si>
   <si>
     <t xml:space="preserve">0.352455884218216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339969098567963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352273613214493</t>
+    <t xml:space="preserve">0.339969038963318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35227358341217</t>
   </si>
   <si>
     <t xml:space="preserve">0.348354399204254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344435155391693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337234735488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333497852087021</t>
+    <t xml:space="preserve">0.344435185194016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337234795093536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333497822284698</t>
   </si>
   <si>
     <t xml:space="preserve">0.346166908740997</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">0.341245085000992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329487472772598</t>
+    <t xml:space="preserve">0.329487442970276</t>
   </si>
   <si>
     <t xml:space="preserve">0.32766455411911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325294852256775</t>
+    <t xml:space="preserve">0.325294822454453</t>
   </si>
   <si>
     <t xml:space="preserve">0.326115101575851</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">0.33358895778656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340971708297729</t>
+    <t xml:space="preserve">0.340971678495407</t>
   </si>
   <si>
     <t xml:space="preserve">0.337599337100983</t>
@@ -416,40 +416,40 @@
     <t xml:space="preserve">0.335320681333542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33905765414238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329578638076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331766068935394</t>
+    <t xml:space="preserve">0.339057594537735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32957860827446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331766039133072</t>
   </si>
   <si>
     <t xml:space="preserve">0.332312971353531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325385987758636</t>
+    <t xml:space="preserve">0.325385928153992</t>
   </si>
   <si>
     <t xml:space="preserve">0.328211456537247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3326775431633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328120291233063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319917291402817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327208817005157</t>
+    <t xml:space="preserve">0.332677513360977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328120321035385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319917321205139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327208876609802</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226965904236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323016226291656</t>
+    <t xml:space="preserve">0.323016196489334</t>
   </si>
   <si>
     <t xml:space="preserve">0.3208287358284</t>
@@ -461,43 +461,43 @@
     <t xml:space="preserve">0.335867583751678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333680123090744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330945760011673</t>
+    <t xml:space="preserve">0.333680152893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330945730209351</t>
   </si>
   <si>
     <t xml:space="preserve">0.335229575634003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343432575464249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349083542823792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338875323534012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342885702848434</t>
+    <t xml:space="preserve">0.343432545661926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349083513021469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338875383138657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342885732650757</t>
   </si>
   <si>
     <t xml:space="preserve">0.333771258592606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344526290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337690472602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3366878926754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249764442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351088732481003</t>
+    <t xml:space="preserve">0.344526320695877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337690442800522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336687862873077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249794244766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35108870267868</t>
   </si>
   <si>
     <t xml:space="preserve">0.349265784025192</t>
@@ -509,28 +509,28 @@
     <t xml:space="preserve">0.335594147443771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342976838350296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349721550941467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345437735319138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353549599647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35491681098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345073163509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34498205780983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328940600156784</t>
+    <t xml:space="preserve">0.342976868152618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34972158074379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34543776512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353549629449844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354916781187057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345073193311691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344982028007507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328940629959106</t>
   </si>
   <si>
     <t xml:space="preserve">0.330854654312134</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">0.324109941720963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331310331821442</t>
+    <t xml:space="preserve">0.331310361623764</t>
   </si>
   <si>
     <t xml:space="preserve">0.312352299690247</t>
@@ -554,49 +554,49 @@
     <t xml:space="preserve">0.312625735998154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332586407661438</t>
+    <t xml:space="preserve">0.332586377859116</t>
   </si>
   <si>
     <t xml:space="preserve">0.337143629789352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337052464485168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966488838196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146179914474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724160671234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109461307526</t>
+    <t xml:space="preserve">0.337052434682846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966548442841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724101066589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109431505203</t>
   </si>
   <si>
     <t xml:space="preserve">0.341336280107498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345346599817276</t>
+    <t xml:space="preserve">0.345346629619598</t>
   </si>
   <si>
     <t xml:space="preserve">0.343614876270294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346258044242859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347260683774948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353185027837753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367328643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362755239009857</t>
+    <t xml:space="preserve">0.346258103847504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347260653972626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353184998035431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367358446121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362755209207535</t>
   </si>
   <si>
     <t xml:space="preserve">0.381804436445236</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">0.380528390407562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389825195074081</t>
+    <t xml:space="preserve">0.389825135469437</t>
   </si>
   <si>
     <t xml:space="preserve">0.380892932415009</t>
@@ -614,28 +614,28 @@
     <t xml:space="preserve">0.369408756494522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362390637397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36293751001358</t>
+    <t xml:space="preserve">0.362390667200089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362937480211258</t>
   </si>
   <si>
     <t xml:space="preserve">0.361479222774506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361934959888458</t>
+    <t xml:space="preserve">0.361934900283813</t>
   </si>
   <si>
     <t xml:space="preserve">0.367585867643356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368223875761032</t>
+    <t xml:space="preserve">0.368223905563354</t>
   </si>
   <si>
     <t xml:space="preserve">0.370411336421967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363484352827072</t>
+    <t xml:space="preserve">0.363484382629395</t>
   </si>
   <si>
     <t xml:space="preserve">0.358744829893112</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">0.357195407152176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358198046684265</t>
+    <t xml:space="preserve">0.358198016881943</t>
   </si>
   <si>
     <t xml:space="preserve">0.363119810819626</t>
@@ -656,16 +656,16 @@
     <t xml:space="preserve">0.353276193141937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353093862533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34999492764473</t>
+    <t xml:space="preserve">0.353093892335892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349994957447052</t>
   </si>
   <si>
     <t xml:space="preserve">0.34379717707634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343250304460526</t>
+    <t xml:space="preserve">0.343250274658203</t>
   </si>
   <si>
     <t xml:space="preserve">0.346075743436813</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">0.350268423557281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344890892505646</t>
+    <t xml:space="preserve">0.344890862703323</t>
   </si>
   <si>
     <t xml:space="preserve">0.350359588861465</t>
@@ -695,85 +695,85 @@
     <t xml:space="preserve">0.357104241847992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359747409820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359565168619156</t>
+    <t xml:space="preserve">0.359747469425201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359565109014511</t>
   </si>
   <si>
     <t xml:space="preserve">0.362299501895905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356375098228455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356192797422409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374330520629883</t>
+    <t xml:space="preserve">0.356375068426132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356192827224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374330550432205</t>
   </si>
   <si>
     <t xml:space="preserve">0.36886191368103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374148309230804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525780677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575488328934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820456027985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356557369232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361570358276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360932320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362572938203812</t>
+    <t xml:space="preserve">0.374148339033127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525810480118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575518131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820485830307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356557428836823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361570328474045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360932350158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362572968006134</t>
   </si>
   <si>
     <t xml:space="preserve">0.355919361114502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358471423387527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368315070867538</t>
+    <t xml:space="preserve">0.35847145318985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368315011262894</t>
   </si>
   <si>
     <t xml:space="preserve">0.369864493608475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374604016542435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366674423217773</t>
+    <t xml:space="preserve">0.374604046344757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366674453020096</t>
   </si>
   <si>
     <t xml:space="preserve">0.369226485490799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372781127691269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370867073535919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368041604757309</t>
+    <t xml:space="preserve">0.372781097888947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370867103338242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368041634559631</t>
   </si>
   <si>
     <t xml:space="preserve">0.387273073196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382533550262451</t>
+    <t xml:space="preserve">0.382533580064774</t>
   </si>
   <si>
     <t xml:space="preserve">0.378340929746628</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">0.384174168109894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380984157323837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260143756866</t>
+    <t xml:space="preserve">0.380984127521515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260173559189</t>
   </si>
   <si>
     <t xml:space="preserve">0.385541379451752</t>
@@ -797,58 +797,58 @@
     <t xml:space="preserve">0.386817365884781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378978967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523230552673</t>
+    <t xml:space="preserve">0.378978997468948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523260354996</t>
   </si>
   <si>
     <t xml:space="preserve">0.371505051851273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371869683265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366583287715912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365398466587067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365763008594513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360294312238693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364304661750793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385417938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363848954439163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466233730316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35582822561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377707958221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468843460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36129692196846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366218715906143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365854144096375</t>
+    <t xml:space="preserve">0.371869653463364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366583317518234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365398406982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365762978792191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360294282436371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364304691553116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360385447740555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363848984241486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466263532639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355828255414963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377678155899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468813657761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361296892166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366218686103821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365854173898697</t>
   </si>
   <si>
     <t xml:space="preserve">0.358653724193573</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">0.364851534366608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355645954608917</t>
+    <t xml:space="preserve">0.355645924806595</t>
   </si>
   <si>
     <t xml:space="preserve">0.362117230892181</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">0.363757818937302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356921970844269</t>
+    <t xml:space="preserve">0.356922000646591</t>
   </si>
   <si>
     <t xml:space="preserve">0.361661523580551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355554789304733</t>
+    <t xml:space="preserve">0.355554819107056</t>
   </si>
   <si>
     <t xml:space="preserve">0.358927130699158</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">0.358289122581482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360111951828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945249795914</t>
+    <t xml:space="preserve">0.36011204123497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945279598236</t>
   </si>
   <si>
     <t xml:space="preserve">0.367950439453125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364395827054977</t>
+    <t xml:space="preserve">0.364395797252655</t>
   </si>
   <si>
     <t xml:space="preserve">0.359291732311249</t>
@@ -917,22 +917,22 @@
     <t xml:space="preserve">0.379799246788025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388731360435486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723620653152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383627325296402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075292825699</t>
+    <t xml:space="preserve">0.388731420040131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723650455475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383627355098724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075263023376</t>
   </si>
   <si>
     <t xml:space="preserve">0.371413946151733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380801856517792</t>
+    <t xml:space="preserve">0.380801826715469</t>
   </si>
   <si>
     <t xml:space="preserve">0.377611756324768</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">0.381530970335007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382898151874542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372689962387085</t>
+    <t xml:space="preserve">0.382898181676865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372689992189407</t>
   </si>
   <si>
     <t xml:space="preserve">0.373965978622437</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">0.366309851408005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359474062919617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358015686273575</t>
+    <t xml:space="preserve">0.359474033117294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35801574587822</t>
   </si>
   <si>
     <t xml:space="preserve">0.362208336591721</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">0.35701310634613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359656274318695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36412239074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363666653633118</t>
+    <t xml:space="preserve">0.359656304121017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364122420549393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363666623830795</t>
   </si>
   <si>
     <t xml:space="preserve">0.354734510183334</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">0.365671843290329</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361843764781952</t>
+    <t xml:space="preserve">0.361843794584274</t>
   </si>
   <si>
     <t xml:space="preserve">0.366401016712189</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">0.353640794754028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352729320526123</t>
+    <t xml:space="preserve">0.352729350328445</t>
   </si>
   <si>
     <t xml:space="preserve">0.335411876440048</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">0.329031765460968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329943180084229</t>
+    <t xml:space="preserve">0.329943209886551</t>
   </si>
   <si>
     <t xml:space="preserve">0.322651594877243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323563069105148</t>
+    <t xml:space="preserve">0.323563098907471</t>
   </si>
   <si>
     <t xml:space="preserve">0.321740180253983</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">0.342703402042389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319005876779556</t>
+    <t xml:space="preserve">0.319005846977234</t>
   </si>
   <si>
     <t xml:space="preserve">0.317182928323746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316271513700485</t>
+    <t xml:space="preserve">0.31627145409584</t>
   </si>
   <si>
     <t xml:space="preserve">0.326297432184219</t>
@@ -1052,22 +1052,22 @@
     <t xml:space="preserve">0.318094402551651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310802817344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301688402891159</t>
+    <t xml:space="preserve">0.310802847146988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301688373088837</t>
   </si>
   <si>
     <t xml:space="preserve">0.30259981751442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30989134311676</t>
+    <t xml:space="preserve">0.309891372919083</t>
   </si>
   <si>
     <t xml:space="preserve">0.308068513870239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314448654651642</t>
+    <t xml:space="preserve">0.314448624849319</t>
   </si>
   <si>
     <t xml:space="preserve">0.311714291572571</t>
@@ -1082,25 +1082,25 @@
     <t xml:space="preserve">0.306245595216751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29895406961441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865514039993</t>
+    <t xml:space="preserve">0.298954039812088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865484237671</t>
   </si>
   <si>
     <t xml:space="preserve">0.300776928663254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303511261940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307157099246979</t>
+    <t xml:space="preserve">0.303511321544647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.307157069444656</t>
   </si>
   <si>
     <t xml:space="preserve">0.313537210226059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308979958295822</t>
+    <t xml:space="preserve">0.308979898691177</t>
   </si>
   <si>
     <t xml:space="preserve">0.31536003947258</t>
@@ -1112,16 +1112,16 @@
     <t xml:space="preserve">0.351975500583649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342664033174515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335214793682098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338008284568787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33614593744278</t>
+    <t xml:space="preserve">0.342664003372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335214823484421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338008224964142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336145967245102</t>
   </si>
   <si>
     <t xml:space="preserve">0.347319751977921</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">0.354768991470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349182069301605</t>
+    <t xml:space="preserve">0.349182039499283</t>
   </si>
   <si>
     <t xml:space="preserve">0.346388638019562</t>
@@ -1139,10 +1139,10 @@
     <t xml:space="preserve">0.341732859611511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352906674146652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345457434654236</t>
+    <t xml:space="preserve">0.352906703948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345457464456558</t>
   </si>
   <si>
     <t xml:space="preserve">0.343595147132874</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">0.339870542287827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338939398527145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353837847709656</t>
+    <t xml:space="preserve">0.338939368724823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353837817907333</t>
   </si>
   <si>
     <t xml:space="preserve">0.372460842132568</t>
@@ -1169,31 +1169,31 @@
     <t xml:space="preserve">0.358493596315384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36314931511879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362218141555786</t>
+    <t xml:space="preserve">0.363149344921112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362218171358109</t>
   </si>
   <si>
     <t xml:space="preserve">0.356631278991699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361287087202072</t>
+    <t xml:space="preserve">0.36128705739975</t>
   </si>
   <si>
     <t xml:space="preserve">0.3659428358078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36780509352684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368736296892166</t>
+    <t xml:space="preserve">0.367805153131485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368736267089844</t>
   </si>
   <si>
     <t xml:space="preserve">0.366873949766159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37152972817421</t>
+    <t xml:space="preserve">0.371529698371887</t>
   </si>
   <si>
     <t xml:space="preserve">0.385497003793716</t>
@@ -1202,67 +1202,67 @@
     <t xml:space="preserve">0.3780477643013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379910081624985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388290464878082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.415293842554092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404120028018951</t>
+    <t xml:space="preserve">0.379910051822662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38829043507576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.415293902158737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404120057821274</t>
   </si>
   <si>
     <t xml:space="preserve">0.399464249610901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407844662666321</t>
+    <t xml:space="preserve">0.407844632863998</t>
   </si>
   <si>
     <t xml:space="preserve">0.414362728595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395739704370499</t>
+    <t xml:space="preserve">0.395739674568176</t>
   </si>
   <si>
     <t xml:space="preserve">0.400395452976227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405051171779633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405982345342636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409706950187683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391083896160126</t>
+    <t xml:space="preserve">0.405051201581955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405982315540314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409706920385361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391083925962448</t>
   </si>
   <si>
     <t xml:space="preserve">0.40318888425827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39667084813118</t>
+    <t xml:space="preserve">0.396670818328857</t>
   </si>
   <si>
     <t xml:space="preserve">0.401326596736908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41343155503273</t>
+    <t xml:space="preserve">0.413431584835052</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422743052244186</t>
+    <t xml:space="preserve">0.422743082046509</t>
   </si>
   <si>
     <t xml:space="preserve">0.424605399370193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444159597158432</t>
+    <t xml:space="preserve">0.44415956735611</t>
   </si>
   <si>
     <t xml:space="preserve">0.474887609481812</t>
@@ -1271,34 +1271,34 @@
     <t xml:space="preserve">0.458126902580261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45253998041153</t>
+    <t xml:space="preserve">0.452539920806885</t>
   </si>
   <si>
     <t xml:space="preserve">0.455333381891251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454402267932892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.450677633285522</t>
+    <t xml:space="preserve">0.454402297735214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.450677663087845</t>
   </si>
   <si>
     <t xml:space="preserve">0.446953058242798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446021884679794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.453471124172211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456264555454254</t>
+    <t xml:space="preserve">0.446021914482117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.453471094369888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456264585256577</t>
   </si>
   <si>
     <t xml:space="preserve">0.471162974834442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476749926805496</t>
+    <t xml:space="preserve">0.476749956607819</t>
   </si>
   <si>
     <t xml:space="preserve">0.457195729017258</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">0.45905801653862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460920304059982</t>
+    <t xml:space="preserve">0.460920333862305</t>
   </si>
   <si>
     <t xml:space="preserve">0.445090711116791</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">0.447884202003479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448815375566483</t>
+    <t xml:space="preserve">0.44881534576416</t>
   </si>
   <si>
     <t xml:space="preserve">0.44043493270874</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">0.744921684265137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.672291874885559</t>
+    <t xml:space="preserve">0.672291934490204</t>
   </si>
   <si>
     <t xml:space="preserve">0.657393455505371</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">0.687190294265747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666705012321472</t>
+    <t xml:space="preserve">0.666705071926117</t>
   </si>
   <si>
     <t xml:space="preserve">0.638770341873169</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">0.6108358502388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590350449085236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568002760410309</t>
+    <t xml:space="preserve">0.59035050868988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568002820014954</t>
   </si>
   <si>
     <t xml:space="preserve">0.608973443508148</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">0.635045766830444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63132119178772</t>
+    <t xml:space="preserve">0.631321132183075</t>
   </si>
   <si>
     <t xml:space="preserve">0.629458844661713</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">0.642495036125183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644357264041901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.627596616744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601524412631989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57731431722641</t>
+    <t xml:space="preserve">0.644357323646545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62759655714035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601524353027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.577314376831055</t>
   </si>
   <si>
     <t xml:space="preserve">0.525169849395752</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">0.515858352184296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.527032136917114</t>
+    <t xml:space="preserve">0.527032077312469</t>
   </si>
   <si>
     <t xml:space="preserve">0.502822160720825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510544300079</t>
+    <t xml:space="preserve">0.493510663509369</t>
   </si>
   <si>
     <t xml:space="preserve">0.499097585678101</t>
@@ -1418,55 +1418,55 @@
     <t xml:space="preserve">0.42833000421524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437641501426697</t>
+    <t xml:space="preserve">0.437641531229019</t>
   </si>
   <si>
     <t xml:space="preserve">0.463713765144348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435779184103012</t>
+    <t xml:space="preserve">0.435779213905334</t>
   </si>
   <si>
     <t xml:space="preserve">0.442297279834747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491648405790329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500959932804108</t>
+    <t xml:space="preserve">0.491648346185684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500959873199463</t>
   </si>
   <si>
     <t xml:space="preserve">0.513995945453644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510271430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508409082889557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512133657932281</t>
+    <t xml:space="preserve">0.510271370410919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508409142494202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512133717536926</t>
   </si>
   <si>
     <t xml:space="preserve">0.543792843818665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.54006826877594</t>
+    <t xml:space="preserve">0.540068209171295</t>
   </si>
   <si>
     <t xml:space="preserve">0.571727514266968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582901239395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566140532493591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.558691263198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538205921649933</t>
+    <t xml:space="preserve">0.582901179790497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566140472888947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.558691382408142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538205981254578</t>
   </si>
   <si>
     <t xml:space="preserve">0.530756771564484</t>
@@ -1478,25 +1478,25 @@
     <t xml:space="preserve">0.549379765987396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.532618999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521445274353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517720580101013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506546795368195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536343693733215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564278244972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575452029705048</t>
+    <t xml:space="preserve">0.532619059085846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521445214748383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517720520496368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546854972839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536343634128571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564278185367584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575452089309692</t>
   </si>
   <si>
     <t xml:space="preserve">0.579176604747772</t>
@@ -1514,22 +1514,22 @@
     <t xml:space="preserve">0.566747009754181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.549687802791595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.562956094741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551583230495453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5534787774086</t>
+    <t xml:space="preserve">0.549687743186951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.562956035137177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551583290100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.553478717803955</t>
   </si>
   <si>
     <t xml:space="preserve">0.559165120124817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542105853557587</t>
+    <t xml:space="preserve">0.542105913162231</t>
   </si>
   <si>
     <t xml:space="preserve">0.544001400470734</t>
@@ -1538,22 +1538,22 @@
     <t xml:space="preserve">0.540210366249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.547792315483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545896887779236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534523963928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53641951084137</t>
+    <t xml:space="preserve">0.547792375087738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.545896768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534524023532867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536419451236725</t>
   </si>
   <si>
     <t xml:space="preserve">0.525046646595001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519360184669495</t>
+    <t xml:space="preserve">0.51936012506485</t>
   </si>
   <si>
     <t xml:space="preserve">0.51556932926178</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">0.528837621212006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538314938545227</t>
+    <t xml:space="preserve">0.538314998149872</t>
   </si>
   <si>
     <t xml:space="preserve">0.530733048915863</t>
@@ -1580,22 +1580,22 @@
     <t xml:space="preserve">0.583806395530701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73544442653656</t>
+    <t xml:space="preserve">0.735444366931915</t>
   </si>
   <si>
     <t xml:space="preserve">0.739235281944275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.693743944168091</t>
+    <t xml:space="preserve">0.693743884563446</t>
   </si>
   <si>
     <t xml:space="preserve">0.653938949108124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633088648319244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686162054538727</t>
+    <t xml:space="preserve">0.633088707923889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686161994934082</t>
   </si>
   <si>
     <t xml:space="preserve">0.676684558391571</t>
@@ -1607,19 +1607,19 @@
     <t xml:space="preserve">0.659625291824341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669102787971497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.663416266441345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.644461572170258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650147914886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640670657157898</t>
+    <t xml:space="preserve">0.669102728366852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66341632604599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.644461512565613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650147974491119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640670597553253</t>
   </si>
   <si>
     <t xml:space="preserve">0.655834376811981</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">0.634984195232391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62929767370224</t>
+    <t xml:space="preserve">0.629297733306885</t>
   </si>
   <si>
     <t xml:space="preserve">0.625506818294525</t>
@@ -1637,28 +1637,28 @@
     <t xml:space="preserve">0.619820356369019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616029441356659</t>
+    <t xml:space="preserve">0.616029381752014</t>
   </si>
   <si>
     <t xml:space="preserve">0.604656577110291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.602761089801788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.593283712863922</t>
+    <t xml:space="preserve">0.602761030197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.593283653259277</t>
   </si>
   <si>
     <t xml:space="preserve">0.58759731054306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60844749212265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597074627876282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.589492738246918</t>
+    <t xml:space="preserve">0.608447551727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597074687480927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.589492678642273</t>
   </si>
   <si>
     <t xml:space="preserve">0.642566025257111</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">0.652043461799622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.636879563331604</t>
+    <t xml:space="preserve">0.636879622936249</t>
   </si>
   <si>
     <t xml:space="preserve">0.617924928665161</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">0.610342979431152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.555374205112457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564851582050323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532628536224365</t>
+    <t xml:space="preserve">0.555374264717102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564851641654968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53262847661972</t>
   </si>
   <si>
     <t xml:space="preserve">0.578119933605194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576224446296692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568642556667328</t>
+    <t xml:space="preserve">0.576224386692047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568642616271973</t>
   </si>
   <si>
     <t xml:space="preserve">0.561060667037964</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">0.699430286884308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.678580105304718</t>
+    <t xml:space="preserve">0.678580164909363</t>
   </si>
   <si>
     <t xml:space="preserve">0.672893643379211</t>
@@ -1760,31 +1760,31 @@
     <t xml:space="preserve">0.788517713546753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782831192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775249302387238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761980950832367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75629460811615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752503633499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.748712718486786</t>
+    <t xml:space="preserve">0.782831251621246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.775249361991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761981070041656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756294548511505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75250369310379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.748712778091431</t>
   </si>
   <si>
     <t xml:space="preserve">0.724071502685547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727862417697906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.731653392314911</t>
+    <t xml:space="preserve">0.727862477302551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.731653451919556</t>
   </si>
   <si>
     <t xml:space="preserve">0.733548879623413</t>
@@ -1793,10 +1793,13 @@
     <t xml:space="preserve">0.725966989994049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.750608205795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743026256561279</t>
+    <t xml:space="preserve">0.750608146190643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744921743869781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.743026196956635</t>
   </si>
   <si>
     <t xml:space="preserve">0.741130769252777</t>
@@ -1805,13 +1808,13 @@
     <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737339854240417</t>
+    <t xml:space="preserve">0.737339794635773</t>
   </si>
   <si>
     <t xml:space="preserve">0.729757905006409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722176074981689</t>
+    <t xml:space="preserve">0.722176015377045</t>
   </si>
   <si>
     <t xml:space="preserve">0.77714478969574</t>
@@ -1823,7 +1826,7 @@
     <t xml:space="preserve">0.76008552312851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754399120807648</t>
+    <t xml:space="preserve">0.754399061203003</t>
   </si>
   <si>
     <t xml:space="preserve">0.813158810138702</t>
@@ -2766,6 +2769,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25999999046326</t>
   </si>
 </sst>
 </file>
@@ -37263,7 +37269,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1314" t="s">
-        <v>440</v>
+        <v>594</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37315,7 +37321,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1316" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37341,7 +37347,7 @@
         <v>0.782000005245209</v>
       </c>
       <c r="G1317" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37419,7 +37425,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1320" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37445,7 +37451,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1321" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37523,7 +37529,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1324" t="s">
-        <v>440</v>
+        <v>594</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37549,7 +37555,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1325" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37575,7 +37581,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1326" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37731,7 +37737,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1332" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37757,7 +37763,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1333" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37835,7 +37841,7 @@
         <v>0.782000005245209</v>
       </c>
       <c r="G1336" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37861,7 +37867,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1337" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37887,7 +37893,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1338" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37939,7 +37945,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1340" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38069,7 +38075,7 @@
         <v>0.762000024318695</v>
       </c>
       <c r="G1345" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38121,7 +38127,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1347" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38147,7 +38153,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1348" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38173,7 +38179,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1349" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38225,7 +38231,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1351" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38277,7 +38283,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1353" t="s">
-        <v>440</v>
+        <v>594</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38329,7 +38335,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1355" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38355,7 +38361,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1356" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38407,7 +38413,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1358" t="s">
-        <v>440</v>
+        <v>594</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38537,7 +38543,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1363" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38563,7 +38569,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1364" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38589,7 +38595,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1365" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38615,7 +38621,7 @@
         <v>0.796000003814697</v>
       </c>
       <c r="G1366" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38641,7 +38647,7 @@
         <v>0.796000003814697</v>
       </c>
       <c r="G1367" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38693,7 +38699,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1369" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38979,7 +38985,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1380" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39005,7 +39011,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1381" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39057,7 +39063,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1383" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39083,7 +39089,7 @@
         <v>0.861999988555908</v>
       </c>
       <c r="G1384" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39109,7 +39115,7 @@
         <v>0.853999972343445</v>
       </c>
       <c r="G1385" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39135,7 +39141,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G1386" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39161,7 +39167,7 @@
         <v>0.824000000953674</v>
       </c>
       <c r="G1387" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39187,7 +39193,7 @@
         <v>0.828000009059906</v>
       </c>
       <c r="G1388" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39213,7 +39219,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1389" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39239,7 +39245,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1390" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39265,7 +39271,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1391" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39291,7 +39297,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1392" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39317,7 +39323,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1393" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39343,7 +39349,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1394" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39369,7 +39375,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1395" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39395,7 +39401,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1396" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39421,7 +39427,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1397" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39447,7 +39453,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1398" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39473,7 +39479,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1399" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39499,7 +39505,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1400" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39525,7 +39531,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1401" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39551,7 +39557,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1402" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39577,7 +39583,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1403" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39603,7 +39609,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1404" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39629,7 +39635,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1405" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39655,7 +39661,7 @@
         <v>0.754000008106232</v>
       </c>
       <c r="G1406" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39681,7 +39687,7 @@
         <v>0.748000025749207</v>
       </c>
       <c r="G1407" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39707,7 +39713,7 @@
         <v>0.745999991893768</v>
       </c>
       <c r="G1408" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39733,7 +39739,7 @@
         <v>0.726000010967255</v>
       </c>
       <c r="G1409" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39759,7 +39765,7 @@
         <v>0.71399998664856</v>
       </c>
       <c r="G1410" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39785,7 +39791,7 @@
         <v>0.722000002861023</v>
       </c>
       <c r="G1411" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39811,7 +39817,7 @@
         <v>0.730000019073486</v>
       </c>
       <c r="G1412" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39837,7 +39843,7 @@
         <v>0.763999998569489</v>
       </c>
       <c r="G1413" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39863,7 +39869,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1414" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39889,7 +39895,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1415" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39915,7 +39921,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1416" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39941,7 +39947,7 @@
         <v>0.805999994277954</v>
       </c>
       <c r="G1417" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39967,7 +39973,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1418" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39993,7 +39999,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1419" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40019,7 +40025,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1420" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40045,7 +40051,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1421" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40071,7 +40077,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1422" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40097,7 +40103,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1423" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40123,7 +40129,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G1424" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40149,7 +40155,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1425" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40175,7 +40181,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G1426" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40201,7 +40207,7 @@
         <v>0.814000010490417</v>
       </c>
       <c r="G1427" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40227,7 +40233,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G1428" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40253,7 +40259,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1429" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40279,7 +40285,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1430" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40305,7 +40311,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G1431" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40331,7 +40337,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1432" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40357,7 +40363,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1433" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40383,7 +40389,7 @@
         <v>0.814000010490417</v>
       </c>
       <c r="G1434" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40409,7 +40415,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1435" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40435,7 +40441,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1436" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40461,7 +40467,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1437" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40487,7 +40493,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1438" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40513,7 +40519,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1439" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40539,7 +40545,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1440" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40565,7 +40571,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1441" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40591,7 +40597,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G1442" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40617,7 +40623,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1443" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40643,7 +40649,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1444" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40669,7 +40675,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1445" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40695,7 +40701,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1446" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40721,7 +40727,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1447" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40747,7 +40753,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1448" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40773,7 +40779,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1449" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40799,7 +40805,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1450" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40825,7 +40831,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1451" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40851,7 +40857,7 @@
         <v>0.796000003814697</v>
       </c>
       <c r="G1452" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40877,7 +40883,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1453" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40903,7 +40909,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1454" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40929,7 +40935,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1455" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40955,7 +40961,7 @@
         <v>0.805999994277954</v>
       </c>
       <c r="G1456" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40981,7 +40987,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1457" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41007,7 +41013,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1458" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41033,7 +41039,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1459" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41059,7 +41065,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1460" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41085,7 +41091,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1461" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41111,7 +41117,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1462" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41137,7 +41143,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1463" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41163,7 +41169,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1464" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41189,7 +41195,7 @@
         <v>0.782000005245209</v>
       </c>
       <c r="G1465" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41215,7 +41221,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1466" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41241,7 +41247,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1467" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41267,7 +41273,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1468" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41293,7 +41299,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1469" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41319,7 +41325,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1470" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41345,7 +41351,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1471" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41371,7 +41377,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1472" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41397,7 +41403,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1473" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41423,7 +41429,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1474" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41449,7 +41455,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1475" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41475,7 +41481,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1476" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41501,7 +41507,7 @@
         <v>0.763999998569489</v>
       </c>
       <c r="G1477" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41527,7 +41533,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1478" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41553,7 +41559,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1479" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41579,7 +41585,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1480" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41605,7 +41611,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1481" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41631,7 +41637,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1482" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41657,7 +41663,7 @@
         <v>0.75</v>
       </c>
       <c r="G1483" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41683,7 +41689,7 @@
         <v>0.745999991893768</v>
       </c>
       <c r="G1484" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41709,7 +41715,7 @@
         <v>0.741999983787537</v>
       </c>
       <c r="G1485" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41735,7 +41741,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1486" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41761,7 +41767,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1487" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41787,7 +41793,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G1488" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41813,7 +41819,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1489" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41839,7 +41845,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1490" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41865,7 +41871,7 @@
         <v>0.751999974250793</v>
       </c>
       <c r="G1491" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41891,7 +41897,7 @@
         <v>0.755999982357025</v>
       </c>
       <c r="G1492" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41917,7 +41923,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G1493" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41943,7 +41949,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G1494" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41969,7 +41975,7 @@
         <v>0.824000000953674</v>
       </c>
       <c r="G1495" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41995,7 +42001,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1496" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42021,7 +42027,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1497" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42047,7 +42053,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G1498" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42073,7 +42079,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1499" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42099,7 +42105,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G1500" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42125,7 +42131,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1501" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42151,7 +42157,7 @@
         <v>0.935999989509583</v>
       </c>
       <c r="G1502" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42177,7 +42183,7 @@
         <v>0.882000029087067</v>
       </c>
       <c r="G1503" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42203,7 +42209,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1504" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42229,7 +42235,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1505" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42255,7 +42261,7 @@
         <v>0.916000008583069</v>
       </c>
       <c r="G1506" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42281,7 +42287,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1507" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42307,7 +42313,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1508" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42333,7 +42339,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1509" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42359,7 +42365,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1510" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42385,7 +42391,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1511" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42411,7 +42417,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1512" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42437,7 +42443,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G1513" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42463,7 +42469,7 @@
         <v>1.13499999046326</v>
       </c>
       <c r="G1514" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42489,7 +42495,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1515" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42515,7 +42521,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1516" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42541,7 +42547,7 @@
         <v>1.25</v>
       </c>
       <c r="G1517" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42567,7 +42573,7 @@
         <v>1.26499998569489</v>
       </c>
       <c r="G1518" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42593,7 +42599,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1519" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42619,7 +42625,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1520" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42645,7 +42651,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1521" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42671,7 +42677,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1522" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42697,7 +42703,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1523" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42723,7 +42729,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G1524" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42749,7 +42755,7 @@
         <v>1.17499995231628</v>
       </c>
       <c r="G1525" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42775,7 +42781,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42801,7 +42807,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1527" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42827,7 +42833,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1528" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42853,7 +42859,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1529" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42879,7 +42885,7 @@
         <v>1.23500001430511</v>
       </c>
       <c r="G1530" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42905,7 +42911,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1531" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42931,7 +42937,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1532" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42957,7 +42963,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1533" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42983,7 +42989,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1534" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43009,7 +43015,7 @@
         <v>1.125</v>
       </c>
       <c r="G1535" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43035,7 +43041,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1536" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43061,7 +43067,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G1537" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43087,7 +43093,7 @@
         <v>1.16499996185303</v>
       </c>
       <c r="G1538" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43113,7 +43119,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G1539" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43139,7 +43145,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G1540" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43165,7 +43171,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1541" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43191,7 +43197,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1542" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43217,7 +43223,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1543" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43243,7 +43249,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1544" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43269,7 +43275,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1545" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43295,7 +43301,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1546" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43321,7 +43327,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1547" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43347,7 +43353,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1548" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43373,7 +43379,7 @@
         <v>1.18499994277954</v>
       </c>
       <c r="G1549" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43399,7 +43405,7 @@
         <v>1.18499994277954</v>
       </c>
       <c r="G1550" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43425,7 +43431,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1551" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43451,7 +43457,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1552" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43477,7 +43483,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1553" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43503,7 +43509,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1554" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43529,7 +43535,7 @@
         <v>1.16499996185303</v>
       </c>
       <c r="G1555" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43555,7 +43561,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43581,7 +43587,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1557" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43607,7 +43613,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1558" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43633,7 +43639,7 @@
         <v>1.11500000953674</v>
       </c>
       <c r="G1559" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43659,7 +43665,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1560" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43685,7 +43691,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1561" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43711,7 +43717,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1562" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43737,7 +43743,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1563" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43763,7 +43769,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1564" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43789,7 +43795,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1565" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43815,7 +43821,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1566" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43841,7 +43847,7 @@
         <v>1.04499995708466</v>
       </c>
       <c r="G1567" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43867,7 +43873,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1568" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43893,7 +43899,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43919,7 +43925,7 @@
         <v>1.02499997615814</v>
       </c>
       <c r="G1570" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43945,7 +43951,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G1571" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43971,7 +43977,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43997,7 +44003,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G1573" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44023,7 +44029,7 @@
         <v>0.987999975681305</v>
       </c>
       <c r="G1574" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44049,7 +44055,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1575" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44075,7 +44081,7 @@
         <v>1.04499995708466</v>
       </c>
       <c r="G1576" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44101,7 +44107,7 @@
         <v>1.09500002861023</v>
       </c>
       <c r="G1577" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44127,7 +44133,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G1578" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44153,7 +44159,7 @@
         <v>0.991999983787537</v>
       </c>
       <c r="G1579" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44179,7 +44185,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1580" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44205,7 +44211,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1581" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44231,7 +44237,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1582" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44257,7 +44263,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1583" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44283,7 +44289,7 @@
         <v>0.998000025749207</v>
       </c>
       <c r="G1584" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44309,7 +44315,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1585" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44335,7 +44341,7 @@
         <v>1</v>
       </c>
       <c r="G1586" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44361,7 +44367,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1587" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44387,7 +44393,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1588" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44413,7 +44419,7 @@
         <v>1</v>
       </c>
       <c r="G1589" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44439,7 +44445,7 @@
         <v>0.986000001430511</v>
       </c>
       <c r="G1590" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44465,7 +44471,7 @@
         <v>1.00199997425079</v>
       </c>
       <c r="G1591" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44491,7 +44497,7 @@
         <v>0.998000025749207</v>
       </c>
       <c r="G1592" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44517,7 +44523,7 @@
         <v>0.985000014305115</v>
       </c>
       <c r="G1593" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44543,7 +44549,7 @@
         <v>0.91100001335144</v>
       </c>
       <c r="G1594" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44569,7 +44575,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1595" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44595,7 +44601,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G1596" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44621,7 +44627,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1597" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44647,7 +44653,7 @@
         <v>0.925000011920929</v>
       </c>
       <c r="G1598" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44673,7 +44679,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1599" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44699,7 +44705,7 @@
         <v>0.912999987602234</v>
       </c>
       <c r="G1600" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44725,7 +44731,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1601" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44751,7 +44757,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1602" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44777,7 +44783,7 @@
         <v>0.915000021457672</v>
       </c>
       <c r="G1603" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44803,7 +44809,7 @@
         <v>0.904999971389771</v>
       </c>
       <c r="G1604" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44829,7 +44835,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1605" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44855,7 +44861,7 @@
         <v>0.882000029087067</v>
       </c>
       <c r="G1606" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44881,7 +44887,7 @@
         <v>0.856000006198883</v>
       </c>
       <c r="G1607" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44907,7 +44913,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1608" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44933,7 +44939,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1609" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44959,7 +44965,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1610" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44985,7 +44991,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G1611" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45011,7 +45017,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1612" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45037,7 +45043,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1613" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45063,7 +45069,7 @@
         <v>0.925000011920929</v>
       </c>
       <c r="G1614" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45089,7 +45095,7 @@
         <v>0.88400000333786</v>
       </c>
       <c r="G1615" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45115,7 +45121,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1616" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45141,7 +45147,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1617" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45167,7 +45173,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G1618" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45193,7 +45199,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1619" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45219,7 +45225,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1620" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45245,7 +45251,7 @@
         <v>0.875</v>
       </c>
       <c r="G1621" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45271,7 +45277,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1622" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45297,7 +45303,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1623" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45323,7 +45329,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1624" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45349,7 +45355,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1625" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45375,7 +45381,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1626" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45401,7 +45407,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1627" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45427,7 +45433,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1628" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45453,7 +45459,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1629" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45479,7 +45485,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1630" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45505,7 +45511,7 @@
         <v>1.02799999713898</v>
       </c>
       <c r="G1631" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45531,7 +45537,7 @@
         <v>0.98199999332428</v>
       </c>
       <c r="G1632" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45557,7 +45563,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45583,7 +45589,7 @@
         <v>1</v>
       </c>
       <c r="G1634" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45609,7 +45615,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1635" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45635,7 +45641,7 @@
         <v>0.982999980449677</v>
       </c>
       <c r="G1636" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45661,7 +45667,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1637" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45687,7 +45693,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G1638" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45713,7 +45719,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1639" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45739,7 +45745,7 @@
         <v>0.916999995708466</v>
       </c>
       <c r="G1640" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45765,7 +45771,7 @@
         <v>0.878000020980835</v>
       </c>
       <c r="G1641" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45791,7 +45797,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1642" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45817,7 +45823,7 @@
         <v>0.890999972820282</v>
       </c>
       <c r="G1643" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45843,7 +45849,7 @@
         <v>0.901000022888184</v>
       </c>
       <c r="G1644" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45869,7 +45875,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1645" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45895,7 +45901,7 @@
         <v>0.890999972820282</v>
       </c>
       <c r="G1646" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45921,7 +45927,7 @@
         <v>0.916999995708466</v>
       </c>
       <c r="G1647" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45947,7 +45953,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1648" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45973,7 +45979,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1649" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45999,7 +46005,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1650" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46025,7 +46031,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1651" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46051,7 +46057,7 @@
         <v>0.904999971389771</v>
       </c>
       <c r="G1652" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46077,7 +46083,7 @@
         <v>0.898999989032745</v>
       </c>
       <c r="G1653" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46103,7 +46109,7 @@
         <v>0.880999982357025</v>
       </c>
       <c r="G1654" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46129,7 +46135,7 @@
         <v>0.878000020980835</v>
       </c>
       <c r="G1655" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46155,7 +46161,7 @@
         <v>0.875</v>
       </c>
       <c r="G1656" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46181,7 +46187,7 @@
         <v>0.876999974250793</v>
       </c>
       <c r="G1657" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46207,7 +46213,7 @@
         <v>0.888999998569489</v>
       </c>
       <c r="G1658" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46233,7 +46239,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1659" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46259,7 +46265,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1660" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46285,7 +46291,7 @@
         <v>0.875999987125397</v>
       </c>
       <c r="G1661" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46311,7 +46317,7 @@
         <v>0.883000016212463</v>
       </c>
       <c r="G1662" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46337,7 +46343,7 @@
         <v>0.862999975681305</v>
       </c>
       <c r="G1663" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46363,7 +46369,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1664" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46389,7 +46395,7 @@
         <v>0.861000001430511</v>
       </c>
       <c r="G1665" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46415,7 +46421,7 @@
         <v>0.869000017642975</v>
       </c>
       <c r="G1666" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46441,7 +46447,7 @@
         <v>0.871999979019165</v>
       </c>
       <c r="G1667" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46467,7 +46473,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1668" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46493,7 +46499,7 @@
         <v>0.879999995231628</v>
       </c>
       <c r="G1669" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46519,7 +46525,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46545,7 +46551,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1671" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46571,7 +46577,7 @@
         <v>0.862999975681305</v>
       </c>
       <c r="G1672" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46597,7 +46603,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1673" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46623,7 +46629,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1674" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46649,7 +46655,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1675" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46675,7 +46681,7 @@
         <v>0.851999998092651</v>
       </c>
       <c r="G1676" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46701,7 +46707,7 @@
         <v>0.853999972343445</v>
       </c>
       <c r="G1677" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46727,7 +46733,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1678" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46753,7 +46759,7 @@
         <v>0.856000006198883</v>
       </c>
       <c r="G1679" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46779,7 +46785,7 @@
         <v>0.85699999332428</v>
       </c>
       <c r="G1680" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46805,7 +46811,7 @@
         <v>0.864000022411346</v>
       </c>
       <c r="G1681" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46831,7 +46837,7 @@
         <v>0.879999995231628</v>
       </c>
       <c r="G1682" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46857,7 +46863,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1683" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46883,7 +46889,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1684" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46909,7 +46915,7 @@
         <v>0.861999988555908</v>
       </c>
       <c r="G1685" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46935,7 +46941,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G1686" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46961,7 +46967,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1687" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46987,7 +46993,7 @@
         <v>0.874000012874603</v>
       </c>
       <c r="G1688" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47013,7 +47019,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G1689" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47039,7 +47045,7 @@
         <v>0.85699999332428</v>
       </c>
       <c r="G1690" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47065,7 +47071,7 @@
         <v>0.851999998092651</v>
       </c>
       <c r="G1691" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47091,7 +47097,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G1692" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47117,7 +47123,7 @@
         <v>0.864000022411346</v>
       </c>
       <c r="G1693" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47143,7 +47149,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G1694" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47169,7 +47175,7 @@
         <v>0.86599999666214</v>
       </c>
       <c r="G1695" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47195,7 +47201,7 @@
         <v>0.846000015735626</v>
       </c>
       <c r="G1696" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47221,7 +47227,7 @@
         <v>0.84799998998642</v>
       </c>
       <c r="G1697" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47247,7 +47253,7 @@
         <v>0.843999981880188</v>
       </c>
       <c r="G1698" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47273,7 +47279,7 @@
         <v>0.827000021934509</v>
       </c>
       <c r="G1699" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47299,7 +47305,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G1700" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47325,7 +47331,7 @@
         <v>0.828000009059906</v>
       </c>
       <c r="G1701" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47351,7 +47357,7 @@
         <v>0.837000012397766</v>
       </c>
       <c r="G1702" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47377,7 +47383,7 @@
         <v>0.848999977111816</v>
       </c>
       <c r="G1703" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47403,7 +47409,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1704" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47429,7 +47435,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G1705" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47455,7 +47461,7 @@
         <v>0.851000010967255</v>
       </c>
       <c r="G1706" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47481,7 +47487,7 @@
         <v>0.828999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47507,7 +47513,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1708" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47533,7 +47539,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1709" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47559,7 +47565,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1710" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47585,7 +47591,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1711" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47611,7 +47617,7 @@
         <v>0.879999995231628</v>
       </c>
       <c r="G1712" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47637,7 +47643,7 @@
         <v>0.853999972343445</v>
       </c>
       <c r="G1713" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47663,7 +47669,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G1714" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47689,7 +47695,7 @@
         <v>0.870999991893768</v>
       </c>
       <c r="G1715" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47715,7 +47721,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G1716" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47741,7 +47747,7 @@
         <v>0.822000026702881</v>
       </c>
       <c r="G1717" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47767,7 +47773,7 @@
         <v>0.848999977111816</v>
       </c>
       <c r="G1718" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47793,7 +47799,7 @@
         <v>0.875999987125397</v>
       </c>
       <c r="G1719" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47819,7 +47825,7 @@
         <v>0.888999998569489</v>
       </c>
       <c r="G1720" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47845,7 +47851,7 @@
         <v>0.861000001430511</v>
       </c>
       <c r="G1721" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47871,7 +47877,7 @@
         <v>0.870999991893768</v>
       </c>
       <c r="G1722" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47897,7 +47903,7 @@
         <v>0.841000020503998</v>
       </c>
       <c r="G1723" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47923,7 +47929,7 @@
         <v>0.824000000953674</v>
       </c>
       <c r="G1724" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47949,7 +47955,7 @@
         <v>0.813000023365021</v>
       </c>
       <c r="G1725" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47975,7 +47981,7 @@
         <v>0.822000026702881</v>
       </c>
       <c r="G1726" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48001,7 +48007,7 @@
         <v>0.816999971866608</v>
       </c>
       <c r="G1727" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48027,7 +48033,7 @@
         <v>0.800999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48053,7 +48059,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1729" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48079,7 +48085,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G1730" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48105,7 +48111,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G1731" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48131,7 +48137,7 @@
         <v>0.806999981403351</v>
       </c>
       <c r="G1732" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48157,7 +48163,7 @@
         <v>0.810999989509583</v>
       </c>
       <c r="G1733" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48183,7 +48189,7 @@
         <v>0.842999994754791</v>
       </c>
       <c r="G1734" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48209,7 +48215,7 @@
         <v>0.866999983787537</v>
       </c>
       <c r="G1735" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48235,7 +48241,7 @@
         <v>0.861000001430511</v>
       </c>
       <c r="G1736" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48261,7 +48267,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1737" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48287,7 +48293,7 @@
         <v>0.915000021457672</v>
       </c>
       <c r="G1738" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48313,7 +48319,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G1739" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48339,7 +48345,7 @@
         <v>0.947000026702881</v>
       </c>
       <c r="G1740" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48365,7 +48371,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1741" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48391,7 +48397,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1742" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48417,7 +48423,7 @@
         <v>0.967000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48443,7 +48449,7 @@
         <v>0.987999975681305</v>
       </c>
       <c r="G1744" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48469,7 +48475,7 @@
         <v>1</v>
       </c>
       <c r="G1745" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48495,7 +48501,7 @@
         <v>1.01199996471405</v>
       </c>
       <c r="G1746" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48521,7 +48527,7 @@
         <v>1</v>
       </c>
       <c r="G1747" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48547,7 +48553,7 @@
         <v>1.00199997425079</v>
       </c>
       <c r="G1748" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48573,7 +48579,7 @@
         <v>0.992999970912933</v>
       </c>
       <c r="G1749" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48599,7 +48605,7 @@
         <v>1</v>
       </c>
       <c r="G1750" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48625,7 +48631,7 @@
         <v>0.981000006198883</v>
       </c>
       <c r="G1751" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48651,7 +48657,7 @@
         <v>0.968999981880188</v>
       </c>
       <c r="G1752" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48677,7 +48683,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1753" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48703,7 +48709,7 @@
         <v>0.976999998092651</v>
       </c>
       <c r="G1754" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48729,7 +48735,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1755" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48755,7 +48761,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G1756" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48781,7 +48787,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1757" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48807,7 +48813,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1758" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48833,7 +48839,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1759" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48859,7 +48865,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1760" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48885,7 +48891,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G1761" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48911,7 +48917,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1762" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48937,7 +48943,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1763" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48963,7 +48969,7 @@
         <v>0.968999981880188</v>
       </c>
       <c r="G1764" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48989,7 +48995,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1765" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49015,7 +49021,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G1766" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49041,7 +49047,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G1767" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49067,7 +49073,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1768" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49093,7 +49099,7 @@
         <v>0.940999984741211</v>
       </c>
       <c r="G1769" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49119,7 +49125,7 @@
         <v>0.975000023841858</v>
       </c>
       <c r="G1770" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49145,7 +49151,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1771" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49171,7 +49177,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1772" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49197,7 +49203,7 @@
         <v>0.989000022411346</v>
       </c>
       <c r="G1773" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49223,7 +49229,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1774" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49249,7 +49255,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1775" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49275,7 +49281,7 @@
         <v>0.982999980449677</v>
       </c>
       <c r="G1776" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49301,7 +49307,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1777" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49327,7 +49333,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1778" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49353,7 +49359,7 @@
         <v>0.958999991416931</v>
       </c>
       <c r="G1779" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49379,7 +49385,7 @@
         <v>0.940999984741211</v>
       </c>
       <c r="G1780" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49405,7 +49411,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1781" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49431,7 +49437,7 @@
         <v>0.935000002384186</v>
       </c>
       <c r="G1782" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49457,7 +49463,7 @@
         <v>0.935000002384186</v>
       </c>
       <c r="G1783" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49483,7 +49489,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1784" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49509,7 +49515,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1785" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49535,7 +49541,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1786" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49561,7 +49567,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1787" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49587,7 +49593,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G1788" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49613,7 +49619,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1789" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49639,7 +49645,7 @@
         <v>0.929000020027161</v>
       </c>
       <c r="G1790" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49665,7 +49671,7 @@
         <v>0.943000018596649</v>
       </c>
       <c r="G1791" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49691,7 +49697,7 @@
         <v>0.968999981880188</v>
       </c>
       <c r="G1792" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49717,7 +49723,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1793" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49743,7 +49749,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1794" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49769,7 +49775,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1795" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49795,7 +49801,7 @@
         <v>0.958999991416931</v>
       </c>
       <c r="G1796" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49821,7 +49827,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1797" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49847,7 +49853,7 @@
         <v>0.949000000953674</v>
       </c>
       <c r="G1798" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49873,7 +49879,7 @@
         <v>0.949000000953674</v>
       </c>
       <c r="G1799" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49899,7 +49905,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G1800" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49925,7 +49931,7 @@
         <v>0.957000017166138</v>
       </c>
       <c r="G1801" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49951,7 +49957,7 @@
         <v>0.940999984741211</v>
       </c>
       <c r="G1802" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49977,7 +49983,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G1803" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50003,7 +50009,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1804" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50029,7 +50035,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1805" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50055,7 +50061,7 @@
         <v>0.936999976634979</v>
       </c>
       <c r="G1806" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50081,7 +50087,7 @@
         <v>0.947000026702881</v>
       </c>
       <c r="G1807" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50107,7 +50113,7 @@
         <v>0.950999975204468</v>
       </c>
       <c r="G1808" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50133,7 +50139,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50159,7 +50165,7 @@
         <v>0.954999983310699</v>
       </c>
       <c r="G1810" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50185,7 +50191,7 @@
         <v>0.986000001430511</v>
       </c>
       <c r="G1811" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50211,7 +50217,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1812" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50237,7 +50243,7 @@
         <v>0.992999970912933</v>
       </c>
       <c r="G1813" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50263,7 +50269,7 @@
         <v>0.976999998092651</v>
       </c>
       <c r="G1814" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50289,7 +50295,7 @@
         <v>0.982999980449677</v>
       </c>
       <c r="G1815" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50315,7 +50321,7 @@
         <v>0.992999970912933</v>
       </c>
       <c r="G1816" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50341,7 +50347,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G1817" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50367,7 +50373,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1818" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50393,7 +50399,7 @@
         <v>0.933000028133392</v>
       </c>
       <c r="G1819" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50419,7 +50425,7 @@
         <v>0.898999989032745</v>
       </c>
       <c r="G1820" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50445,7 +50451,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1821" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50471,7 +50477,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1822" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50497,7 +50503,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1823" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50523,7 +50529,7 @@
         <v>0.878000020980835</v>
       </c>
       <c r="G1824" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50549,7 +50555,7 @@
         <v>0.885999977588654</v>
       </c>
       <c r="G1825" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50575,7 +50581,7 @@
         <v>0.904999971389771</v>
       </c>
       <c r="G1826" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50601,7 +50607,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1827" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50627,7 +50633,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1828" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50653,7 +50659,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1829" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50679,7 +50685,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1830" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50705,7 +50711,7 @@
         <v>0.935000002384186</v>
       </c>
       <c r="G1831" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50731,7 +50737,7 @@
         <v>0.950999975204468</v>
       </c>
       <c r="G1832" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50757,7 +50763,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G1833" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50783,7 +50789,7 @@
         <v>0.939000010490417</v>
       </c>
       <c r="G1834" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50809,7 +50815,7 @@
         <v>0.933000028133392</v>
       </c>
       <c r="G1835" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50835,7 +50841,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1836" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50861,7 +50867,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1837" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50887,7 +50893,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1838" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50913,7 +50919,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1839" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50939,7 +50945,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1840" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50965,7 +50971,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1841" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50991,7 +50997,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1842" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51017,7 +51023,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1843" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51043,7 +51049,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1844" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51069,7 +51075,7 @@
         <v>0.916999995708466</v>
       </c>
       <c r="G1845" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51095,7 +51101,7 @@
         <v>0.908999979496002</v>
       </c>
       <c r="G1846" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51121,7 +51127,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1847" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51147,7 +51153,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1848" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51173,7 +51179,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1849" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51199,7 +51205,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1850" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51225,7 +51231,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1851" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51251,7 +51257,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G1852" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51277,7 +51283,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1853" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51303,7 +51309,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1854" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51329,7 +51335,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1855" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51355,7 +51361,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1856" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51381,7 +51387,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1857" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51407,7 +51413,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1858" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51433,7 +51439,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G1859" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51459,7 +51465,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1860" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51485,7 +51491,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1861" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51511,7 +51517,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1862" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51537,7 +51543,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1863" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51563,7 +51569,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1864" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51589,7 +51595,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1865" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51615,7 +51621,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1866" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51641,7 +51647,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1867" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51667,7 +51673,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1868" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51693,7 +51699,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1869" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51719,7 +51725,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1870" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51745,7 +51751,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1871" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51771,7 +51777,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1872" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51797,7 +51803,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1873" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51823,7 +51829,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1874" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51849,7 +51855,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1875" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51875,7 +51881,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1876" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51901,7 +51907,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G1877" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51927,7 +51933,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1878" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51953,7 +51959,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1879" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51979,7 +51985,7 @@
         <v>0.934000015258789</v>
       </c>
       <c r="G1880" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52005,7 +52011,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1881" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52031,7 +52037,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1882" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52057,7 +52063,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1883" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52083,7 +52089,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1884" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52109,7 +52115,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1885" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52135,7 +52141,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1886" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52161,7 +52167,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1887" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52187,7 +52193,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1888" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52213,7 +52219,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1889" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52239,7 +52245,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1890" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52265,7 +52271,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1891" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52291,7 +52297,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1892" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52317,7 +52323,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1893" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52343,7 +52349,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52369,7 +52375,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1895" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52395,7 +52401,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1896" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52421,7 +52427,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1897" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52447,7 +52453,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1898" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52473,7 +52479,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1899" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52499,7 +52505,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1900" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52525,7 +52531,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1901" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52551,7 +52557,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1902" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52577,7 +52583,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1903" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52603,7 +52609,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1904" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52629,7 +52635,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1905" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52655,7 +52661,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1906" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52681,7 +52687,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1907" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52707,7 +52713,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1908" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52733,7 +52739,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1909" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52759,7 +52765,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1910" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52785,7 +52791,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1911" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52811,7 +52817,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1912" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52837,7 +52843,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52863,7 +52869,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1914" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52889,7 +52895,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1915" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52915,7 +52921,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1916" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52941,7 +52947,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1917" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52967,7 +52973,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1918" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52993,7 +52999,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1919" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53019,7 +53025,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1920" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53045,7 +53051,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1921" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53071,7 +53077,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1922" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53097,7 +53103,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1923" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53123,7 +53129,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1924" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53149,7 +53155,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1925" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53175,7 +53181,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1926" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53201,7 +53207,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1927" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53227,7 +53233,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1928" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53253,7 +53259,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1929" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53279,7 +53285,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1930" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53305,7 +53311,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53331,7 +53337,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1932" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53357,7 +53363,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1933" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53383,7 +53389,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1934" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53409,7 +53415,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1935" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53435,7 +53441,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1936" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53461,7 +53467,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1937" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53487,7 +53493,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1938" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53513,7 +53519,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1939" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53539,7 +53545,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1940" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53565,7 +53571,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1941" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53591,7 +53597,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1942" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53617,7 +53623,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1943" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53643,7 +53649,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1944" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53669,7 +53675,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1945" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53695,7 +53701,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53721,7 +53727,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1947" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53747,7 +53753,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1948" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53773,7 +53779,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53799,7 +53805,7 @@
         <v>0.916000008583069</v>
       </c>
       <c r="G1950" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53825,7 +53831,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1951" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53851,7 +53857,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1952" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53877,7 +53883,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1953" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53903,7 +53909,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1954" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53929,7 +53935,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1955" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53955,7 +53961,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1956" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53981,7 +53987,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1957" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54007,7 +54013,7 @@
         <v>0.916000008583069</v>
       </c>
       <c r="G1958" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54033,7 +54039,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1959" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54059,7 +54065,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1960" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54085,7 +54091,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1961" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54111,7 +54117,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1962" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54137,7 +54143,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1963" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54163,7 +54169,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1964" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54189,7 +54195,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1965" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54215,7 +54221,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1966" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54241,7 +54247,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54267,7 +54273,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1968" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54293,7 +54299,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1969" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54319,7 +54325,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1970" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54345,7 +54351,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1971" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54371,7 +54377,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1972" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54397,7 +54403,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1973" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54423,7 +54429,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1974" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54449,7 +54455,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54475,7 +54481,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1976" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54501,7 +54507,7 @@
         <v>0.88400000333786</v>
       </c>
       <c r="G1977" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54527,7 +54533,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1978" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54553,7 +54559,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1979" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54579,7 +54585,7 @@
         <v>0.987999975681305</v>
       </c>
       <c r="G1980" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54605,7 +54611,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1981" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54631,7 +54637,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1982" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54657,7 +54663,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1983" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54683,7 +54689,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1984" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54709,7 +54715,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1985" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54735,7 +54741,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1986" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54761,7 +54767,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1987" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54787,7 +54793,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1988" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54813,7 +54819,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G1989" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54839,7 +54845,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1990" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54865,7 +54871,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1991" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54891,7 +54897,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1992" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54917,7 +54923,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1993" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54943,7 +54949,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1994" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54969,7 +54975,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1995" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54995,7 +55001,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1996" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55021,7 +55027,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1997" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55047,7 +55053,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1998" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55073,7 +55079,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G1999" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55099,7 +55105,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G2000" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55125,7 +55131,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2001" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55151,7 +55157,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G2002" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55177,7 +55183,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2003" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55203,7 +55209,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2004" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55229,7 +55235,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2005" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55255,7 +55261,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2006" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55281,7 +55287,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2007" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55307,7 +55313,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2008" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55333,7 +55339,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G2009" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55359,7 +55365,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2010" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55385,7 +55391,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G2011" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55411,7 +55417,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G2012" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55437,7 +55443,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2013" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55463,7 +55469,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2014" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55489,7 +55495,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2015" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55515,7 +55521,7 @@
         <v>0.966000020503998</v>
       </c>
       <c r="G2016" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55541,7 +55547,7 @@
         <v>0.966000020503998</v>
       </c>
       <c r="G2017" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55567,7 +55573,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G2018" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55593,7 +55599,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G2019" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55619,7 +55625,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G2020" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55645,7 +55651,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2021" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55671,7 +55677,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2022" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55697,7 +55703,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2023" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55723,7 +55729,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2024" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55749,7 +55755,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2025" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55775,7 +55781,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2026" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55801,7 +55807,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2027" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55827,7 +55833,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2028" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55853,7 +55859,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G2029" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55879,7 +55885,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G2030" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55905,7 +55911,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G2031" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55931,7 +55937,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G2032" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55957,7 +55963,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2033" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55983,7 +55989,7 @@
         <v>0.935999989509583</v>
       </c>
       <c r="G2034" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56009,7 +56015,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G2035" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56035,7 +56041,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56061,7 +56067,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G2037" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56087,7 +56093,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G2038" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56113,7 +56119,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2039" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56139,7 +56145,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2040" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56165,7 +56171,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56191,7 +56197,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2042" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56217,7 +56223,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G2043" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56243,7 +56249,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G2044" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56269,7 +56275,7 @@
         <v>0.977999985218048</v>
       </c>
       <c r="G2045" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56295,7 +56301,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G2046" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56321,7 +56327,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56347,7 +56353,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2048" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56373,7 +56379,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2049" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56399,7 +56405,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2050" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56425,7 +56431,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G2051" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56451,7 +56457,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G2052" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56477,7 +56483,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2053" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56503,7 +56509,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G2054" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56529,7 +56535,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G2055" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56555,7 +56561,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G2056" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56581,7 +56587,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2057" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56607,7 +56613,7 @@
         <v>0.977999985218048</v>
       </c>
       <c r="G2058" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56633,7 +56639,7 @@
         <v>0.966000020503998</v>
       </c>
       <c r="G2059" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56659,7 +56665,7 @@
         <v>0.991999983787537</v>
       </c>
       <c r="G2060" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56685,7 +56691,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G2061" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56711,7 +56717,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G2062" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56737,7 +56743,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2063" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56763,7 +56769,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G2064" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56789,7 +56795,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2065" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56815,7 +56821,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2066" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56841,7 +56847,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2067" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56867,7 +56873,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56893,7 +56899,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2069" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56919,7 +56925,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G2070" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56945,7 +56951,7 @@
         <v>0.934000015258789</v>
       </c>
       <c r="G2071" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56971,7 +56977,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G2072" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56997,7 +57003,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2073" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57023,7 +57029,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2074" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57049,7 +57055,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2075" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57075,7 +57081,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2076" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57101,7 +57107,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2077" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57127,7 +57133,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2078" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57153,7 +57159,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57179,7 +57185,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G2080" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57205,7 +57211,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G2081" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57231,7 +57237,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G2082" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57257,7 +57263,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2083" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57283,7 +57289,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G2084" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57309,7 +57315,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G2085" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57335,7 +57341,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G2086" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57361,7 +57367,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G2087" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57387,7 +57393,7 @@
         <v>0.934000015258789</v>
       </c>
       <c r="G2088" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57413,7 +57419,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57439,7 +57445,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2090" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57465,7 +57471,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2091" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57491,7 +57497,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2092" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57517,7 +57523,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2093" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57543,7 +57549,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G2094" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57569,7 +57575,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G2095" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57595,7 +57601,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57621,7 +57627,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2097" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57647,7 +57653,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2098" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57673,7 +57679,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G2099" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57699,7 +57705,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G2100" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57725,7 +57731,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2101" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57751,7 +57757,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2102" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57777,7 +57783,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2103" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57803,7 +57809,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2104" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57829,7 +57835,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2105" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57855,7 +57861,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2106" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57881,7 +57887,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2107" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57907,7 +57913,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2108" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57933,7 +57939,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2109" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57959,7 +57965,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2110" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57985,7 +57991,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2111" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58011,7 +58017,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2112" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58037,7 +58043,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58063,7 +58069,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58089,7 +58095,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58115,7 +58121,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2116" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58141,7 +58147,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58167,7 +58173,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2118" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58193,7 +58199,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2119" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58219,7 +58225,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2120" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58245,7 +58251,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2121" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58271,7 +58277,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2122" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58297,7 +58303,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2123" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58323,7 +58329,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2124" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58349,7 +58355,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2125" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58375,7 +58381,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2126" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58401,7 +58407,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2127" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58427,7 +58433,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2128" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58453,7 +58459,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2129" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58479,7 +58485,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2130" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58505,7 +58511,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58531,7 +58537,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2132" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58557,7 +58563,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2133" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58583,7 +58589,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2134" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58609,7 +58615,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2135" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58635,7 +58641,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2136" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58661,7 +58667,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58687,7 +58693,7 @@
         <v>2.25</v>
       </c>
       <c r="G2138" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58713,7 +58719,7 @@
         <v>2.25</v>
       </c>
       <c r="G2139" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58739,7 +58745,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2140" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58765,7 +58771,7 @@
         <v>2.25</v>
       </c>
       <c r="G2141" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58791,7 +58797,7 @@
         <v>2.25</v>
       </c>
       <c r="G2142" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58817,7 +58823,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2143" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58843,7 +58849,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2144" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58869,7 +58875,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2145" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58895,7 +58901,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2146" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58921,7 +58927,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2147" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58947,7 +58953,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2148" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58973,7 +58979,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2149" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58999,7 +59005,7 @@
         <v>2.25</v>
       </c>
       <c r="G2150" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59025,7 +59031,7 @@
         <v>2.25</v>
       </c>
       <c r="G2151" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59051,7 +59057,7 @@
         <v>2.25</v>
       </c>
       <c r="G2152" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59077,7 +59083,7 @@
         <v>2.25</v>
       </c>
       <c r="G2153" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59103,7 +59109,7 @@
         <v>2.25</v>
       </c>
       <c r="G2154" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59129,7 +59135,7 @@
         <v>2.25</v>
       </c>
       <c r="G2155" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59137,7 +59143,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.5653935185</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>102127</v>
@@ -59155,9 +59161,35 @@
         <v>2.25</v>
       </c>
       <c r="G2156" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6455902778</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>514</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>919</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41015037894249</t>
+    <t xml:space="preserve">0.410150349140167</t>
   </si>
   <si>
     <t xml:space="preserve">GTH.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421087741851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413796156644821</t>
+    <t xml:space="preserve">0.421087771654129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413796186447144</t>
   </si>
   <si>
     <t xml:space="preserve">0.416530460119247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393653184175491</t>
+    <t xml:space="preserve">0.393653213977814</t>
   </si>
   <si>
     <t xml:space="preserve">0.400944799184799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394108951091766</t>
+    <t xml:space="preserve">0.394108921289444</t>
   </si>
   <si>
     <t xml:space="preserve">0.391921490430832</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">0.405046314001083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3971166908741</t>
+    <t xml:space="preserve">0.397116661071777</t>
   </si>
   <si>
     <t xml:space="preserve">0.382806986570358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404681742191315</t>
+    <t xml:space="preserve">0.404681712388992</t>
   </si>
   <si>
     <t xml:space="preserve">0.40987691283226</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">0.405502021312714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408327519893646</t>
+    <t xml:space="preserve">0.408327490091324</t>
   </si>
   <si>
     <t xml:space="preserve">0.406778067350388</t>
@@ -98,28 +98,28 @@
     <t xml:space="preserve">0.402767658233643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403314560651779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389096021652222</t>
+    <t xml:space="preserve">0.403314530849457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389095962047577</t>
   </si>
   <si>
     <t xml:space="preserve">0.373601406812668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357286542654037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359929740428925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338237345218658</t>
+    <t xml:space="preserve">0.35728657245636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359929770231247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338237375020981</t>
   </si>
   <si>
     <t xml:space="preserve">0.33240407705307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355463624000549</t>
+    <t xml:space="preserve">0.355463653802872</t>
   </si>
   <si>
     <t xml:space="preserve">0.35537251830101</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">0.392832905054092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406504571437836</t>
+    <t xml:space="preserve">0.406504601240158</t>
   </si>
   <si>
     <t xml:space="preserve">0.409694671630859</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">0.393835484981537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405593127012253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402403086423874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396569818258286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392650574445724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392012625932693</t>
+    <t xml:space="preserve">0.405593156814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402403116226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396569848060608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392650604248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392012566328049</t>
   </si>
   <si>
     <t xml:space="preserve">0.39638751745224</t>
@@ -170,52 +170,52 @@
     <t xml:space="preserve">0.401035904884338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38836681842804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387728810310364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382168978452682</t>
+    <t xml:space="preserve">0.388366788625717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387728840112686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382169008255005</t>
   </si>
   <si>
     <t xml:space="preserve">0.383718460798264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39073657989502</t>
+    <t xml:space="preserve">0.390736609697342</t>
   </si>
   <si>
     <t xml:space="preserve">0.389916300773621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389642894268036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35418763756752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356830805540085</t>
+    <t xml:space="preserve">0.389642864465714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354187607765198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356830775737762</t>
   </si>
   <si>
     <t xml:space="preserve">0.346804916858673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368132770061493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359018325805664</t>
+    <t xml:space="preserve">0.368132740259171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359018296003342</t>
   </si>
   <si>
     <t xml:space="preserve">0.355190247297287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372416585683823</t>
+    <t xml:space="preserve">0.3724165558815</t>
   </si>
   <si>
     <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364486962556839</t>
+    <t xml:space="preserve">0.364486932754517</t>
   </si>
   <si>
     <t xml:space="preserve">0.387364238500595</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">0.373692542314529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39164799451828</t>
+    <t xml:space="preserve">0.391647964715958</t>
   </si>
   <si>
     <t xml:space="preserve">0.391830295324326</t>
@@ -236,25 +236,25 @@
     <t xml:space="preserve">0.403679102659225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395020395517349</t>
+    <t xml:space="preserve">0.395020425319672</t>
   </si>
   <si>
     <t xml:space="preserve">0.391101181507111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390463203191757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379161268472672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369135349988937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377338349819183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369044184684753</t>
+    <t xml:space="preserve">0.390463173389435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379161208868027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369135320186615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377338320016861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369044214487076</t>
   </si>
   <si>
     <t xml:space="preserve">0.360750019550323</t>
@@ -266,16 +266,16 @@
     <t xml:space="preserve">0.372143059968948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372507631778717</t>
+    <t xml:space="preserve">0.372507691383362</t>
   </si>
   <si>
     <t xml:space="preserve">0.366765588521957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373510241508484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366856724023819</t>
+    <t xml:space="preserve">0.373510301113129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366856694221497</t>
   </si>
   <si>
     <t xml:space="preserve">0.379890382289886</t>
@@ -293,13 +293,13 @@
     <t xml:space="preserve">0.375150859355927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36466920375824</t>
+    <t xml:space="preserve">0.364669233560562</t>
   </si>
   <si>
     <t xml:space="preserve">0.365489542484283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367312401533127</t>
+    <t xml:space="preserve">0.367312431335449</t>
   </si>
   <si>
     <t xml:space="preserve">0.370958209037781</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">0.360020905733109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348172098398209</t>
+    <t xml:space="preserve">0.348172128200531</t>
   </si>
   <si>
     <t xml:space="preserve">0.350906401872635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354552209377289</t>
+    <t xml:space="preserve">0.354552179574966</t>
   </si>
   <si>
     <t xml:space="preserve">0.370046764612198</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">0.373327970504761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364578098058701</t>
+    <t xml:space="preserve">0.364578127861023</t>
   </si>
   <si>
     <t xml:space="preserve">0.354461073875427</t>
@@ -338,16 +338,16 @@
     <t xml:space="preserve">0.352273613214493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348354399204254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344435214996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337234765291214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333497852087021</t>
+    <t xml:space="preserve">0.348354369401932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344435185194016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337234735488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333497881889343</t>
   </si>
   <si>
     <t xml:space="preserve">0.346166908740997</t>
@@ -359,22 +359,22 @@
     <t xml:space="preserve">0.341791987419128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330581188201904</t>
+    <t xml:space="preserve">0.330581218004227</t>
   </si>
   <si>
     <t xml:space="preserve">0.326206296682358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324474513530731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327755749225616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329852014780045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245085000992</t>
+    <t xml:space="preserve">0.324474543333054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327755719423294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329852074384689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245114803314</t>
   </si>
   <si>
     <t xml:space="preserve">0.329487472772598</t>
@@ -383,34 +383,34 @@
     <t xml:space="preserve">0.327664583921432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32529479265213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326115101575851</t>
+    <t xml:space="preserve">0.325294822454453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326115071773529</t>
   </si>
   <si>
     <t xml:space="preserve">0.33358895778656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340971708297729</t>
+    <t xml:space="preserve">0.340971678495407</t>
   </si>
   <si>
     <t xml:space="preserve">0.337599366903305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340515941381454</t>
+    <t xml:space="preserve">0.340515971183777</t>
   </si>
   <si>
     <t xml:space="preserve">0.340880542993546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341518580913544</t>
+    <t xml:space="preserve">0.341518551111221</t>
   </si>
   <si>
     <t xml:space="preserve">0.334864944219589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336323320865631</t>
+    <t xml:space="preserve">0.336323291063309</t>
   </si>
   <si>
     <t xml:space="preserve">0.335320740938187</t>
@@ -425,16 +425,16 @@
     <t xml:space="preserve">0.331766068935394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332312941551208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325385957956314</t>
+    <t xml:space="preserve">0.332312971353531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325385987758636</t>
   </si>
   <si>
     <t xml:space="preserve">0.328211456537247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332677572965622</t>
+    <t xml:space="preserve">0.332677513360977</t>
   </si>
   <si>
     <t xml:space="preserve">0.328120291233063</t>
@@ -443,31 +443,31 @@
     <t xml:space="preserve">0.319917321205139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327208876609802</t>
+    <t xml:space="preserve">0.327208817005157</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226965904236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323016196489334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3208287358284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36175262928009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335867553949356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333680152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330945760011673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335229575634003</t>
+    <t xml:space="preserve">0.323016226291656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.320828706026077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361752659082413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335867583751678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333680123090744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330945789813995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33522954583168</t>
   </si>
   <si>
     <t xml:space="preserve">0.343432575464249</t>
@@ -476,709 +476,712 @@
     <t xml:space="preserve">0.349083542823792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338875353336334</t>
+    <t xml:space="preserve">0.338875323534012</t>
   </si>
   <si>
     <t xml:space="preserve">0.342885732650757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333771258592606</t>
+    <t xml:space="preserve">0.333771228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344526320695877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337690472602844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336687862873077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249764442444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351088732481003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349265813827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340151369571686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335594147443771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342976868152618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34972158074379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345437735319138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353549599647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35491681098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345073163509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344982028007507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328940600156784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330854654312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32410991191864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331310361623764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312352269887924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316180348396301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317091822624207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312625765800476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332586348056793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337143629789352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052464485168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966518640518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146179914474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724160671234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109431505203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341336250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345346599817276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343614876270294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346258044242859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347260683774948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353185027837753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367328643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362755239009857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381804436445236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380528390407562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389825135469437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380892932415009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369408786296844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362390637397766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36293751001358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479222774506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361934930086136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367585897445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368223875761032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370411336421967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363484412431717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358744859695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357195407152176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358198046684265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363119840621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347625195980072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353276193141937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349994987249374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343797147274017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343250274658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346075743436813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617515802383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350268393754959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344890892505646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350359588861465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349356979131699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358380287885666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353458493947983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104241847992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359747409820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359565168619156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299501895905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356375128030777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356192827224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374330550432205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368861883878708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374148309230804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525810480118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575518131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820485830307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3565573990345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361570298671722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360932320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362572938203812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355919390916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358471423387527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368315041065216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369864493608475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374604016542435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366674423217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369226455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372781097888947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370867103338242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368041604757309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387273073196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382533609867096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37834095954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386270523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.384174197912216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380984157323837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260143756866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541379451752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386817365884781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378978967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523260354996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371505051851273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869683265686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366583287715912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365398436784744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365763008594513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360294312238693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364304691553116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360385417938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363848954439163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466233730316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355828255414963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377678155899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468783855438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36129692196846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366218686103821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365854144096375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358653694391251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364851534366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355645924806595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362117230892181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36603644490242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363757818937302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356922000646591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361661523580551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554789304733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358927130699158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114650964737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358289122581482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360111981630325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945249795914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367950469255447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364395827054977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359291732311249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365124970674515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377247184514999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378887832164764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381257563829422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379799246788025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388731360435486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723620653152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383627355098724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075263023376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413946151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380801856517792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377611726522446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38171324133873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381531000137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382898151874542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372689962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373965978622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375515460968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366309881210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359474062919617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358015716075897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362208336591721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348810106515884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357924520969391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35774227976799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357013136148453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359656304121017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364122420549393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363666653633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354734510183334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355737060308456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365671843290329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361843764781952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366400986909866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351817905902863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353640794754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352729320526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335411876440048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329031735658646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329943180084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.322651624679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563098907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.321740180253983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334500432014465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342703402042389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319005817174911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182928323746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271543502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326297432184219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318094432353973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310802817344666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301688402891159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30259981751442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.309891372919083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308068513870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314448654651642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311714261770248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304422706365585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305334150791168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306245595216751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298954039812088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865514039993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776928663254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303511291742325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.307157099246979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313537180423737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308979958295822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31536003947258</t>
   </si>
   <si>
     <t xml:space="preserve">0.344526290893555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337690472602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336687862873077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249794244766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35108870267868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349265813827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340151399374008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335594147443771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342976838350296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34972158074379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345437794923782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353549629449844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354916781187057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345073193311691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344982028007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328940629959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330854654312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32410991191864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331310361623764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312352269887924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316180348396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317091822624207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312625735998154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332586407661438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337143629789352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052464485168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966518640518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724160671234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109431505203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341336280107498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345346599817276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343614846467972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346258074045181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347260683774948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353185057640076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367328643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362755239009857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381804436445236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380528420209885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389825105667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380892902612686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369408786296844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362390637397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36293751001358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479222774506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361934930086136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367585867643356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368223875761032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370411336421967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363484382629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358744829893112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357195407152176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358198046684265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363119840621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347625195980072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353276163339615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093862533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349994957447052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343797147274017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343250274658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346075773239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617486000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350268423557281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344890892505646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350359588861465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349356979131699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358380258083344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35345846414566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104241847992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359747439622879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359565138816833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299501895905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356375098228455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356192827224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374330580234528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368861883878708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374148309230804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525810480118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575518131256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820485830307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3565573990345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361570358276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360932320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362572938203812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355919361114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358471423387527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368315041065216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369864523410797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374603986740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366674393415451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369226455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372781127691269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370867073535919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368041634559631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387273073196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382533609867096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37834095954895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386270493268967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.384174197912216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380984127521515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260143756866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541349649429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386817365884781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378978967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523230552673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505051851273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869683265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366583317518234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365398436784744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365762978792191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360294312238693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364304691553116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385447740555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363848954439163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466263532639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355828195810318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377678155899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468813657761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361296892166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366218715906143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365854114294052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358653753995895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364851534366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355645924806595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362117230892181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36603644490242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363757789134979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356921970844269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361661523580551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554819107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358927130699158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114650964737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35828909277916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360112011432648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945249795914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367950469255447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364395827054977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359291732311249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365124970674515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377247184514999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37888777256012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381257563829422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379799246788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388731390237808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723620653152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383627325296402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075233221054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413975954056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380801886320114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377611756324768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381713300943375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381531000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382898151874542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372689962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373965978622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375515460968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366309851408005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359474033117294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35801574587822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362208306789398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348810106515884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357924520969391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357742309570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357013076543808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359656304121017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364122450351715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363666653633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354734510183334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355737090110779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365671843290329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361843764781952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366401016712189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351817905902863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353640794754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352729350328445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335411846637726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329031765460968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329943180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322651624679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563069105148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.321740180253983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334500402212143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342703431844711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319005846977234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182928323746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271543502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326297432184219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318094402551651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310802817344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301688402891159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.302599787712097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.309891402721405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308068484067917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314448624849319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311714261770248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304422676563263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305334150791168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306245625019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298954010009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865514039993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776958465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303511291742325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307157129049301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313537180423737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3089799284935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31536003947258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348250895738602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351975500583649</t>
+    <t xml:space="preserve">0.348250925540924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351975530385971</t>
   </si>
   <si>
     <t xml:space="preserve">0.342664033174515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335214823484421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338008254766464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336145967245102</t>
+    <t xml:space="preserve">0.335214793682098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338008224964142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33614593744278</t>
   </si>
   <si>
     <t xml:space="preserve">0.347319751977921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354768961668015</t>
+    <t xml:space="preserve">0.354768991470337</t>
   </si>
   <si>
     <t xml:space="preserve">0.349182039499283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346388638019562</t>
+    <t xml:space="preserve">0.346388667821884</t>
   </si>
   <si>
     <t xml:space="preserve">0.341732829809189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352906674146652</t>
+    <t xml:space="preserve">0.35290664434433</t>
   </si>
   <si>
     <t xml:space="preserve">0.345457434654236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343595176935196</t>
+    <t xml:space="preserve">0.343595147132874</t>
   </si>
   <si>
     <t xml:space="preserve">0.337077081203461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34080171585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339870572090149</t>
+    <t xml:space="preserve">0.340801686048508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339870542287827</t>
   </si>
   <si>
     <t xml:space="preserve">0.338939398527145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353837817907333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372460842132568</t>
+    <t xml:space="preserve">0.353837847709656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372460871934891</t>
   </si>
   <si>
     <t xml:space="preserve">0.358493596315384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36314931511879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362218201160431</t>
+    <t xml:space="preserve">0.363149344921112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362218171358109</t>
   </si>
   <si>
     <t xml:space="preserve">0.356631249189377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36128705739975</t>
+    <t xml:space="preserve">0.361287087202072</t>
   </si>
   <si>
     <t xml:space="preserve">0.3659428358078</t>
@@ -1190,25 +1193,25 @@
     <t xml:space="preserve">0.368736267089844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366873919963837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37152972817421</t>
+    <t xml:space="preserve">0.366873949766159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371529698371887</t>
   </si>
   <si>
     <t xml:space="preserve">0.385497003793716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378047794103622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379910051822662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38829043507576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.415293842554092</t>
+    <t xml:space="preserve">0.3780477643013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379910081624985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388290464878082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.415293872356415</t>
   </si>
   <si>
     <t xml:space="preserve">0.404120057821274</t>
@@ -1232,7 +1235,7 @@
     <t xml:space="preserve">0.405051201581955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405982315540314</t>
+    <t xml:space="preserve">0.405982345342636</t>
   </si>
   <si>
     <t xml:space="preserve">0.409706950187683</t>
@@ -1241,7 +1244,7 @@
     <t xml:space="preserve">0.391083896160126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40318888425827</t>
+    <t xml:space="preserve">0.403188914060593</t>
   </si>
   <si>
     <t xml:space="preserve">0.39667084813118</t>
@@ -1250,13 +1253,13 @@
     <t xml:space="preserve">0.401326596736908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413431584835052</t>
+    <t xml:space="preserve">0.41343155503273</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422743082046509</t>
+    <t xml:space="preserve">0.422743052244186</t>
   </si>
   <si>
     <t xml:space="preserve">0.424605399370193</t>
@@ -1265,13 +1268,13 @@
     <t xml:space="preserve">0.444159597158432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474887609481812</t>
+    <t xml:space="preserve">0.474887579679489</t>
   </si>
   <si>
     <t xml:space="preserve">0.458126872777939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452539950609207</t>
+    <t xml:space="preserve">0.45253998041153</t>
   </si>
   <si>
     <t xml:space="preserve">0.455333411693573</t>
@@ -1295,7 +1298,7 @@
     <t xml:space="preserve">0.456264585256577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471163004636765</t>
+    <t xml:space="preserve">0.471162974834442</t>
   </si>
   <si>
     <t xml:space="preserve">0.476749926805496</t>
@@ -1304,52 +1307,52 @@
     <t xml:space="preserve">0.457195729017258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459058046340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460920363664627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.445090740919113</t>
+    <t xml:space="preserve">0.45905801653862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460920333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.445090711116791</t>
   </si>
   <si>
     <t xml:space="preserve">0.439503878355026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451608866453171</t>
+    <t xml:space="preserve">0.451608836650848</t>
   </si>
   <si>
     <t xml:space="preserve">0.447884202003479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44881534576416</t>
+    <t xml:space="preserve">0.448815375566483</t>
   </si>
   <si>
     <t xml:space="preserve">0.440434962511063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504684507846832</t>
+    <t xml:space="preserve">0.504684448242188</t>
   </si>
   <si>
     <t xml:space="preserve">0.653668880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744921684265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672291934490204</t>
+    <t xml:space="preserve">0.744921743869781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672291874885559</t>
   </si>
   <si>
     <t xml:space="preserve">0.657393455505371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687190353870392</t>
+    <t xml:space="preserve">0.687190294265747</t>
   </si>
   <si>
     <t xml:space="preserve">0.666705012321472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.638770401477814</t>
+    <t xml:space="preserve">0.638770461082458</t>
   </si>
   <si>
     <t xml:space="preserve">0.6108358502388</t>
@@ -1361,19 +1364,19 @@
     <t xml:space="preserve">0.568002760410309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.608973562717438</t>
+    <t xml:space="preserve">0.608973503112793</t>
   </si>
   <si>
     <t xml:space="preserve">0.635045766830444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63132119178772</t>
+    <t xml:space="preserve">0.631321251392365</t>
   </si>
   <si>
     <t xml:space="preserve">0.629458844661713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633183538913727</t>
+    <t xml:space="preserve">0.633183419704437</t>
   </si>
   <si>
     <t xml:space="preserve">0.640632748603821</t>
@@ -1385,7 +1388,7 @@
     <t xml:space="preserve">0.644357264041901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.627596616744995</t>
+    <t xml:space="preserve">0.62759655714035</t>
   </si>
   <si>
     <t xml:space="preserve">0.601524412631989</t>
@@ -1406,7 +1409,7 @@
     <t xml:space="preserve">0.502822160720825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510603904724</t>
+    <t xml:space="preserve">0.493510663509369</t>
   </si>
   <si>
     <t xml:space="preserve">0.499097645282745</t>
@@ -1415,16 +1418,16 @@
     <t xml:space="preserve">0.486061483621597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42833000421524</t>
+    <t xml:space="preserve">0.428330034017563</t>
   </si>
   <si>
     <t xml:space="preserve">0.437641501426697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463713794946671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435779243707657</t>
+    <t xml:space="preserve">0.463713765144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435779213905334</t>
   </si>
   <si>
     <t xml:space="preserve">0.442297279834747</t>
@@ -1439,13 +1442,13 @@
     <t xml:space="preserve">0.513995945453644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510271370410919</t>
+    <t xml:space="preserve">0.510271430015564</t>
   </si>
   <si>
     <t xml:space="preserve">0.508409082889557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.512133657932281</t>
+    <t xml:space="preserve">0.512133598327637</t>
   </si>
   <si>
     <t xml:space="preserve">0.543792843818665</t>
@@ -1469,13 +1472,13 @@
     <t xml:space="preserve">0.538205981254578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530756771564484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528894424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549379765987396</t>
+    <t xml:space="preserve">0.530756711959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528894484043121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549379706382751</t>
   </si>
   <si>
     <t xml:space="preserve">0.532619059085846</t>
@@ -1794,9 +1797,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.750608205795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744921743869781</t>
   </si>
   <si>
     <t xml:space="preserve">0.743026256561279</t>
@@ -25832,7 +25832,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G874" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25858,7 +25858,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G875" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25884,7 +25884,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G876" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25910,7 +25910,7 @@
         <v>0.368000000715256</v>
       </c>
       <c r="G877" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25936,7 +25936,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G878" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25962,7 +25962,7 @@
         <v>0.363000005483627</v>
       </c>
       <c r="G879" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25988,7 +25988,7 @@
         <v>0.361000001430511</v>
       </c>
       <c r="G880" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26014,7 +26014,7 @@
         <v>0.372999995946884</v>
       </c>
       <c r="G881" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26040,7 +26040,7 @@
         <v>0.381000012159348</v>
       </c>
       <c r="G882" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26066,7 +26066,7 @@
         <v>0.375</v>
       </c>
       <c r="G883" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26092,7 +26092,7 @@
         <v>0.372000008821487</v>
       </c>
       <c r="G884" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26118,7 +26118,7 @@
         <v>0.367000013589859</v>
       </c>
       <c r="G885" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26144,7 +26144,7 @@
         <v>0.379000008106232</v>
       </c>
       <c r="G886" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26170,7 +26170,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G887" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26196,7 +26196,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G888" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26222,7 +26222,7 @@
         <v>0.372000008821487</v>
       </c>
       <c r="G889" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26248,7 +26248,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G890" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26274,7 +26274,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G891" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26300,7 +26300,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G892" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26326,7 +26326,7 @@
         <v>0.379000008106232</v>
       </c>
       <c r="G893" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26352,7 +26352,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G894" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26378,7 +26378,7 @@
         <v>0.372999995946884</v>
       </c>
       <c r="G895" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26404,7 +26404,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G896" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26430,7 +26430,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G897" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26456,7 +26456,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G898" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26482,7 +26482,7 @@
         <v>0.361999988555908</v>
       </c>
       <c r="G899" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26508,7 +26508,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G900" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26534,7 +26534,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G901" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26560,7 +26560,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G902" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26586,7 +26586,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G903" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26612,7 +26612,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G904" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26638,7 +26638,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G905" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26664,7 +26664,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G906" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26690,7 +26690,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G907" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26716,7 +26716,7 @@
         <v>0.36599999666214</v>
       </c>
       <c r="G908" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26742,7 +26742,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G909" t="s">
-        <v>157</v>
+        <v>364</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26768,7 +26768,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G910" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26794,7 +26794,7 @@
         <v>0.365000009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26820,7 +26820,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G912" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26846,7 +26846,7 @@
         <v>0.365000009536743</v>
       </c>
       <c r="G913" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26872,7 +26872,7 @@
         <v>0.361999988555908</v>
       </c>
       <c r="G914" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26898,7 +26898,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G915" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26924,7 +26924,7 @@
         <v>0.367000013589859</v>
       </c>
       <c r="G916" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26950,7 +26950,7 @@
         <v>0.372000008821487</v>
       </c>
       <c r="G917" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26976,7 +26976,7 @@
         <v>0.375</v>
       </c>
       <c r="G918" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27002,7 +27002,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G919" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27028,7 +27028,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G920" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27054,7 +27054,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G921" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27080,7 +27080,7 @@
         <v>0.384999990463257</v>
       </c>
       <c r="G922" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27106,7 +27106,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G923" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27132,7 +27132,7 @@
         <v>0.388999998569489</v>
       </c>
       <c r="G924" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27158,7 +27158,7 @@
         <v>0.382999986410141</v>
       </c>
       <c r="G925" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27184,7 +27184,7 @@
         <v>0.388000011444092</v>
       </c>
       <c r="G926" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27210,7 +27210,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G927" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27236,7 +27236,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G928" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27262,7 +27262,7 @@
         <v>0.39300000667572</v>
       </c>
       <c r="G929" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27288,7 +27288,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G930" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27314,7 +27314,7 @@
         <v>0.395000010728836</v>
       </c>
       <c r="G931" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27340,7 +27340,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G932" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27366,7 +27366,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G933" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27392,7 +27392,7 @@
         <v>0.398999989032745</v>
       </c>
       <c r="G934" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27418,7 +27418,7 @@
         <v>0.398999989032745</v>
       </c>
       <c r="G935" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27444,7 +27444,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G936" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27470,7 +27470,7 @@
         <v>0.414000004529953</v>
       </c>
       <c r="G937" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27496,7 +27496,7 @@
         <v>0.40599998831749</v>
       </c>
       <c r="G938" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27522,7 +27522,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G939" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27548,7 +27548,7 @@
         <v>0.40599998831749</v>
       </c>
       <c r="G940" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27574,7 +27574,7 @@
         <v>0.416999995708466</v>
       </c>
       <c r="G941" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27600,7 +27600,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G942" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27626,7 +27626,7 @@
         <v>0.433999985456467</v>
       </c>
       <c r="G943" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27652,7 +27652,7 @@
         <v>0.428999990224838</v>
       </c>
       <c r="G944" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27678,7 +27678,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G945" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27704,7 +27704,7 @@
         <v>0.444999992847443</v>
       </c>
       <c r="G946" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27730,7 +27730,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G947" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27756,7 +27756,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G948" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27782,7 +27782,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G949" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27808,7 +27808,7 @@
         <v>0.433999985456467</v>
       </c>
       <c r="G950" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27834,7 +27834,7 @@
         <v>0.435000002384186</v>
       </c>
       <c r="G951" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27860,7 +27860,7 @@
         <v>0.435999989509583</v>
       </c>
       <c r="G952" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27886,7 +27886,7 @@
         <v>0.435999989509583</v>
       </c>
       <c r="G953" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27912,7 +27912,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G954" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27938,7 +27938,7 @@
         <v>0.428999990224838</v>
       </c>
       <c r="G955" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27964,7 +27964,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G956" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27990,7 +27990,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G957" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28016,7 +28016,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G958" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28042,7 +28042,7 @@
         <v>0.43299999833107</v>
       </c>
       <c r="G959" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28068,7 +28068,7 @@
         <v>0.43299999833107</v>
       </c>
       <c r="G960" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28094,7 +28094,7 @@
         <v>0.43299999833107</v>
       </c>
       <c r="G961" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28120,7 +28120,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G962" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28146,7 +28146,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G963" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28172,7 +28172,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G964" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28198,7 +28198,7 @@
         <v>0.435000002384186</v>
       </c>
       <c r="G965" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28224,7 +28224,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G966" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28250,7 +28250,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G967" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28276,7 +28276,7 @@
         <v>0.430999994277954</v>
       </c>
       <c r="G968" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28302,7 +28302,7 @@
         <v>0.444000005722046</v>
       </c>
       <c r="G969" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28328,7 +28328,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G970" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28354,7 +28354,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G971" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28380,7 +28380,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G972" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28406,7 +28406,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G973" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28432,7 +28432,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G974" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28458,7 +28458,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G975" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28484,7 +28484,7 @@
         <v>0.456000000238419</v>
       </c>
       <c r="G976" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28510,7 +28510,7 @@
         <v>0.476999998092651</v>
       </c>
       <c r="G977" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28536,7 +28536,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G978" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28562,7 +28562,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G979" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28588,7 +28588,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G980" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28614,7 +28614,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G981" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28640,7 +28640,7 @@
         <v>0.488999992609024</v>
       </c>
       <c r="G982" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28666,7 +28666,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G983" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28692,7 +28692,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G984" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28718,7 +28718,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G985" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28744,7 +28744,7 @@
         <v>0.479000002145767</v>
       </c>
       <c r="G986" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28770,7 +28770,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G987" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28796,7 +28796,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G988" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28822,7 +28822,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G989" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28848,7 +28848,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G990" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28874,7 +28874,7 @@
         <v>0.486999988555908</v>
       </c>
       <c r="G991" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28900,7 +28900,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G992" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28926,7 +28926,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G993" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28952,7 +28952,7 @@
         <v>0.505999982357025</v>
       </c>
       <c r="G994" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28978,7 +28978,7 @@
         <v>0.512000024318695</v>
       </c>
       <c r="G995" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29004,7 +29004,7 @@
         <v>0.49099999666214</v>
       </c>
       <c r="G996" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29030,7 +29030,7 @@
         <v>0.493000000715256</v>
       </c>
       <c r="G997" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29056,7 +29056,7 @@
         <v>0.495000004768372</v>
       </c>
       <c r="G998" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29082,7 +29082,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G999" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29108,7 +29108,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1000" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29134,7 +29134,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1001" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29160,7 +29160,7 @@
         <v>0.472000002861023</v>
       </c>
       <c r="G1002" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29186,7 +29186,7 @@
         <v>0.479000002145767</v>
       </c>
       <c r="G1003" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29212,7 +29212,7 @@
         <v>0.476999998092651</v>
       </c>
       <c r="G1004" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29238,7 +29238,7 @@
         <v>0.472000002861023</v>
       </c>
       <c r="G1005" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29264,7 +29264,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1006" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29290,7 +29290,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1007" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29316,7 +29316,7 @@
         <v>0.49099999666214</v>
       </c>
       <c r="G1008" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29342,7 +29342,7 @@
         <v>0.486999988555908</v>
       </c>
       <c r="G1009" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29368,7 +29368,7 @@
         <v>0.485000014305115</v>
       </c>
       <c r="G1010" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29394,7 +29394,7 @@
         <v>0.481000006198883</v>
       </c>
       <c r="G1011" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29420,7 +29420,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1012" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29446,7 +29446,7 @@
         <v>0.48199999332428</v>
       </c>
       <c r="G1013" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29472,7 +29472,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1014" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29498,7 +29498,7 @@
         <v>0.47299998998642</v>
       </c>
       <c r="G1015" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29524,7 +29524,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1016" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29550,7 +29550,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1017" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29576,7 +29576,7 @@
         <v>0.479000002145767</v>
       </c>
       <c r="G1018" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29602,7 +29602,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1019" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29628,7 +29628,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1020" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29654,7 +29654,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G1021" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29680,7 +29680,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1022" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29706,7 +29706,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G1023" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29732,7 +29732,7 @@
         <v>0.486999988555908</v>
       </c>
       <c r="G1024" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29758,7 +29758,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1025" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29784,7 +29784,7 @@
         <v>0.495000004768372</v>
       </c>
       <c r="G1026" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29810,7 +29810,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1027" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29836,7 +29836,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1028" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29862,7 +29862,7 @@
         <v>0.702000021934509</v>
       </c>
       <c r="G1029" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29888,7 +29888,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1030" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29914,7 +29914,7 @@
         <v>0.722000002861023</v>
       </c>
       <c r="G1031" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29940,7 +29940,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1032" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29966,7 +29966,7 @@
         <v>0.737999975681305</v>
       </c>
       <c r="G1033" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29992,7 +29992,7 @@
         <v>0.716000020503998</v>
       </c>
       <c r="G1034" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30018,7 +30018,7 @@
         <v>0.685999989509583</v>
       </c>
       <c r="G1035" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30044,7 +30044,7 @@
         <v>0.656000018119812</v>
       </c>
       <c r="G1036" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30070,7 +30070,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1037" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30096,7 +30096,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1038" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30122,7 +30122,7 @@
         <v>0.653999984264374</v>
       </c>
       <c r="G1039" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30148,7 +30148,7 @@
         <v>0.681999981403351</v>
       </c>
       <c r="G1040" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30174,7 +30174,7 @@
         <v>0.677999973297119</v>
       </c>
       <c r="G1041" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30200,7 +30200,7 @@
         <v>0.675999999046326</v>
       </c>
       <c r="G1042" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30226,7 +30226,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1043" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30252,7 +30252,7 @@
         <v>0.688000023365021</v>
       </c>
       <c r="G1044" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30278,7 +30278,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1045" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30304,7 +30304,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1046" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30330,7 +30330,7 @@
         <v>0.674000024795532</v>
       </c>
       <c r="G1047" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30356,7 +30356,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1048" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30382,7 +30382,7 @@
         <v>0.646000027656555</v>
       </c>
       <c r="G1049" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30408,7 +30408,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1050" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30434,7 +30434,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1051" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30460,7 +30460,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1052" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30486,7 +30486,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1053" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30512,7 +30512,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1054" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30538,7 +30538,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1055" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30564,7 +30564,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1056" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30590,7 +30590,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1057" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30616,7 +30616,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1058" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30642,7 +30642,7 @@
         <v>0.53600001335144</v>
       </c>
       <c r="G1059" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30668,7 +30668,7 @@
         <v>0.522000014781952</v>
       </c>
       <c r="G1060" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30694,7 +30694,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1061" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30720,7 +30720,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1062" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30746,7 +30746,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1063" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30772,7 +30772,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G1064" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30798,7 +30798,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1065" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30824,7 +30824,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1066" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30850,7 +30850,7 @@
         <v>0.497999995946884</v>
       </c>
       <c r="G1067" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30876,7 +30876,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1068" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30902,7 +30902,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1069" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30928,7 +30928,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1070" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30954,7 +30954,7 @@
         <v>0.472000002861023</v>
       </c>
       <c r="G1071" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30980,7 +30980,7 @@
         <v>0.474999994039536</v>
       </c>
       <c r="G1072" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31006,7 +31006,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1073" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31032,7 +31032,7 @@
         <v>0.527999997138977</v>
       </c>
       <c r="G1074" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31058,7 +31058,7 @@
         <v>0.537999987602234</v>
       </c>
       <c r="G1075" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31084,7 +31084,7 @@
         <v>0.551999986171722</v>
       </c>
       <c r="G1076" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31110,7 +31110,7 @@
         <v>0.547999978065491</v>
       </c>
       <c r="G1077" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31136,7 +31136,7 @@
         <v>0.546000003814697</v>
       </c>
       <c r="G1078" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31162,7 +31162,7 @@
         <v>0.546000003814697</v>
       </c>
       <c r="G1079" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31188,7 +31188,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1080" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31214,7 +31214,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1081" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31240,7 +31240,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1082" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31266,7 +31266,7 @@
         <v>0.614000022411346</v>
       </c>
       <c r="G1083" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31292,7 +31292,7 @@
         <v>0.625999987125397</v>
       </c>
       <c r="G1084" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31318,7 +31318,7 @@
         <v>0.607999980449677</v>
       </c>
       <c r="G1085" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31344,7 +31344,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1086" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31370,7 +31370,7 @@
         <v>0.600000023841858</v>
       </c>
       <c r="G1087" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31396,7 +31396,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1088" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31422,7 +31422,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1089" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31448,7 +31448,7 @@
         <v>0.578000009059906</v>
       </c>
       <c r="G1090" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31474,7 +31474,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1091" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31500,7 +31500,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1092" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31526,7 +31526,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1093" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31552,7 +31552,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1094" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31578,7 +31578,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1095" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31604,7 +31604,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1096" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31630,7 +31630,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1097" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31656,7 +31656,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1098" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31682,7 +31682,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1099" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31708,7 +31708,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1100" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31734,7 +31734,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31760,7 +31760,7 @@
         <v>0.555999994277954</v>
       </c>
       <c r="G1102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31786,7 +31786,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1103" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31812,7 +31812,7 @@
         <v>0.537999987602234</v>
       </c>
       <c r="G1104" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31838,7 +31838,7 @@
         <v>0.544000029563904</v>
       </c>
       <c r="G1105" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31864,7 +31864,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1106" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31890,7 +31890,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1107" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31916,7 +31916,7 @@
         <v>0.547999978065491</v>
       </c>
       <c r="G1108" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31942,7 +31942,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1109" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31968,7 +31968,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1110" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31994,7 +31994,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1111" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32020,7 +32020,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1112" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32046,7 +32046,7 @@
         <v>0.575999975204468</v>
       </c>
       <c r="G1113" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32072,7 +32072,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1114" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32098,7 +32098,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1115" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32124,7 +32124,7 @@
         <v>0.606000006198883</v>
       </c>
       <c r="G1116" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32150,7 +32150,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1117" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32176,7 +32176,7 @@
         <v>0.614000022411346</v>
       </c>
       <c r="G1118" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32202,7 +32202,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32228,7 +32228,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1120" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32254,7 +32254,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1121" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32280,7 +32280,7 @@
         <v>0.617999970912933</v>
       </c>
       <c r="G1122" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32306,7 +32306,7 @@
         <v>0.607999980449677</v>
       </c>
       <c r="G1123" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32332,7 +32332,7 @@
         <v>0.621999979019165</v>
       </c>
       <c r="G1124" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32358,7 +32358,7 @@
         <v>0.635999977588654</v>
       </c>
       <c r="G1125" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32384,7 +32384,7 @@
         <v>0.621999979019165</v>
       </c>
       <c r="G1126" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32410,7 +32410,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1127" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32436,7 +32436,7 @@
         <v>0.592000007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32462,7 +32462,7 @@
         <v>0.600000023841858</v>
       </c>
       <c r="G1129" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32488,7 +32488,7 @@
         <v>0.587999999523163</v>
       </c>
       <c r="G1130" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32514,7 +32514,7 @@
         <v>0.587999999523163</v>
       </c>
       <c r="G1131" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32540,7 +32540,7 @@
         <v>0.59799998998642</v>
       </c>
       <c r="G1132" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32566,7 +32566,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1133" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32592,7 +32592,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1134" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32618,7 +32618,7 @@
         <v>0.593999981880188</v>
       </c>
       <c r="G1135" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32644,7 +32644,7 @@
         <v>0.582000017166138</v>
       </c>
       <c r="G1136" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32670,7 +32670,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1137" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32696,7 +32696,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1138" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32722,7 +32722,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1139" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32748,7 +32748,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1140" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32774,7 +32774,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1141" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32800,7 +32800,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1142" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32826,7 +32826,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1143" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32852,7 +32852,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1144" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32878,7 +32878,7 @@
         <v>0.578000009059906</v>
       </c>
       <c r="G1145" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32904,7 +32904,7 @@
         <v>0.575999975204468</v>
       </c>
       <c r="G1146" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32930,7 +32930,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1147" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32956,7 +32956,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1148" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32982,7 +32982,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1149" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33008,7 +33008,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1150" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33034,7 +33034,7 @@
         <v>0.547999978065491</v>
       </c>
       <c r="G1151" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33060,7 +33060,7 @@
         <v>0.544000029563904</v>
       </c>
       <c r="G1152" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33086,7 +33086,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1153" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33112,7 +33112,7 @@
         <v>0.551999986171722</v>
       </c>
       <c r="G1154" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33138,7 +33138,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1155" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33164,7 +33164,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1156" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33190,7 +33190,7 @@
         <v>0.558000028133392</v>
       </c>
       <c r="G1157" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33216,7 +33216,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1158" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33242,7 +33242,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1159" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33268,7 +33268,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1160" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33294,7 +33294,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1161" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33320,7 +33320,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1162" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33346,7 +33346,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1163" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33372,7 +33372,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1164" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33398,7 +33398,7 @@
         <v>0.578000009059906</v>
       </c>
       <c r="G1165" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33424,7 +33424,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1166" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33450,7 +33450,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1167" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33476,7 +33476,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1168" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33502,7 +33502,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1169" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33528,7 +33528,7 @@
         <v>0.587999999523163</v>
       </c>
       <c r="G1170" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33554,7 +33554,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1171" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33580,7 +33580,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1172" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33606,7 +33606,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1173" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33632,7 +33632,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1174" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33658,7 +33658,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1175" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33684,7 +33684,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1176" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33710,7 +33710,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1177" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33736,7 +33736,7 @@
         <v>0.61599999666214</v>
       </c>
       <c r="G1178" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33762,7 +33762,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1179" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33788,7 +33788,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1180" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33814,7 +33814,7 @@
         <v>0.73199999332428</v>
       </c>
       <c r="G1181" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33840,7 +33840,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33866,7 +33866,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1183" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33892,7 +33892,7 @@
         <v>0.723999977111816</v>
       </c>
       <c r="G1184" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33918,7 +33918,7 @@
         <v>0.71399998664856</v>
       </c>
       <c r="G1185" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33944,7 +33944,7 @@
         <v>0.720000028610229</v>
       </c>
       <c r="G1186" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33970,7 +33970,7 @@
         <v>0.695999979972839</v>
       </c>
       <c r="G1187" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33996,7 +33996,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1188" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34022,7 +34022,7 @@
         <v>0.699999988079071</v>
       </c>
       <c r="G1189" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34048,7 +34048,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1190" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34074,7 +34074,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1191" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34100,7 +34100,7 @@
         <v>0.685999989509583</v>
       </c>
       <c r="G1192" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34126,7 +34126,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1193" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34152,7 +34152,7 @@
         <v>0.675999999046326</v>
       </c>
       <c r="G1194" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34178,7 +34178,7 @@
         <v>0.675999999046326</v>
       </c>
       <c r="G1195" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34204,7 +34204,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1196" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34230,7 +34230,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1197" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34256,7 +34256,7 @@
         <v>0.670000016689301</v>
       </c>
       <c r="G1198" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34282,7 +34282,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1199" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34308,7 +34308,7 @@
         <v>0.663999974727631</v>
       </c>
       <c r="G1200" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34334,7 +34334,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G1201" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34360,7 +34360,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G1202" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34386,7 +34386,7 @@
         <v>0.653999984264374</v>
       </c>
       <c r="G1203" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34412,7 +34412,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G1204" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34438,7 +34438,7 @@
         <v>0.638000011444092</v>
       </c>
       <c r="G1205" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34464,7 +34464,7 @@
         <v>0.635999977588654</v>
       </c>
       <c r="G1206" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34490,7 +34490,7 @@
         <v>0.625999987125397</v>
       </c>
       <c r="G1207" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34516,7 +34516,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1208" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34542,7 +34542,7 @@
         <v>0.642000019550323</v>
       </c>
       <c r="G1209" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34568,7 +34568,7 @@
         <v>0.629999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34594,7 +34594,7 @@
         <v>0.621999979019165</v>
       </c>
       <c r="G1211" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34620,7 +34620,7 @@
         <v>0.677999973297119</v>
       </c>
       <c r="G1212" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34646,7 +34646,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1213" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34672,7 +34672,7 @@
         <v>0.677999973297119</v>
       </c>
       <c r="G1214" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34698,7 +34698,7 @@
         <v>0.688000023365021</v>
       </c>
       <c r="G1215" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34724,7 +34724,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1216" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34750,7 +34750,7 @@
         <v>0.671999990940094</v>
       </c>
       <c r="G1217" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34776,7 +34776,7 @@
         <v>0.65200001001358</v>
       </c>
       <c r="G1218" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -34802,7 +34802,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G1219" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -34828,7 +34828,7 @@
         <v>0.65200001001358</v>
       </c>
       <c r="G1220" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -34854,7 +34854,7 @@
         <v>0.632000029087067</v>
       </c>
       <c r="G1221" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -34880,7 +34880,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1222" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -34906,7 +34906,7 @@
         <v>0.638000011444092</v>
       </c>
       <c r="G1223" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -34932,7 +34932,7 @@
         <v>0.643999993801117</v>
       </c>
       <c r="G1224" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -34958,7 +34958,7 @@
         <v>0.635999977588654</v>
       </c>
       <c r="G1225" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -34984,7 +34984,7 @@
         <v>0.635999977588654</v>
       </c>
       <c r="G1226" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35010,7 +35010,7 @@
         <v>0.586000025272369</v>
       </c>
       <c r="G1227" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35036,7 +35036,7 @@
         <v>0.596000015735626</v>
       </c>
       <c r="G1228" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35062,7 +35062,7 @@
         <v>0.561999976634979</v>
       </c>
       <c r="G1229" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35088,7 +35088,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1230" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35114,7 +35114,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1231" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35140,7 +35140,7 @@
         <v>0.575999975204468</v>
       </c>
       <c r="G1232" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35166,7 +35166,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1233" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35192,7 +35192,7 @@
         <v>0.593999981880188</v>
       </c>
       <c r="G1234" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35218,7 +35218,7 @@
         <v>0.607999980449677</v>
       </c>
       <c r="G1235" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35244,7 +35244,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1236" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35270,7 +35270,7 @@
         <v>0.607999980449677</v>
       </c>
       <c r="G1237" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35296,7 +35296,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1238" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35322,7 +35322,7 @@
         <v>0.600000023841858</v>
       </c>
       <c r="G1239" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35348,7 +35348,7 @@
         <v>0.596000015735626</v>
       </c>
       <c r="G1240" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35374,7 +35374,7 @@
         <v>0.593999981880188</v>
       </c>
       <c r="G1241" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35400,7 +35400,7 @@
         <v>0.592000007629395</v>
       </c>
       <c r="G1242" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35426,7 +35426,7 @@
         <v>0.596000015735626</v>
       </c>
       <c r="G1243" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35452,7 +35452,7 @@
         <v>0.603999972343445</v>
       </c>
       <c r="G1244" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35478,7 +35478,7 @@
         <v>0.596000015735626</v>
       </c>
       <c r="G1245" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35504,7 +35504,7 @@
         <v>0.624000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35530,7 +35530,7 @@
         <v>0.648000001907349</v>
       </c>
       <c r="G1247" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35556,7 +35556,7 @@
         <v>0.65200001001358</v>
       </c>
       <c r="G1248" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35582,7 +35582,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1249" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35608,7 +35608,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G1250" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35634,7 +35634,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G1251" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35660,7 +35660,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1252" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35686,7 +35686,7 @@
         <v>0.712000012397766</v>
       </c>
       <c r="G1253" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35712,7 +35712,7 @@
         <v>0.702000021934509</v>
       </c>
       <c r="G1254" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35738,7 +35738,7 @@
         <v>0.73199999332428</v>
       </c>
       <c r="G1255" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -35764,7 +35764,7 @@
         <v>0.730000019073486</v>
       </c>
       <c r="G1256" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -35790,7 +35790,7 @@
         <v>0.737999975681305</v>
       </c>
       <c r="G1257" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -35816,7 +35816,7 @@
         <v>0.71399998664856</v>
       </c>
       <c r="G1258" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -35842,7 +35842,7 @@
         <v>0.716000020503998</v>
       </c>
       <c r="G1259" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -35868,7 +35868,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1260" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -35894,7 +35894,7 @@
         <v>0.702000021934509</v>
       </c>
       <c r="G1261" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -35920,7 +35920,7 @@
         <v>0.712000012397766</v>
       </c>
       <c r="G1262" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -35946,7 +35946,7 @@
         <v>0.709999978542328</v>
       </c>
       <c r="G1263" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35972,7 +35972,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1264" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -35998,7 +35998,7 @@
         <v>0.703999996185303</v>
       </c>
       <c r="G1265" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36024,7 +36024,7 @@
         <v>0.695999979972839</v>
       </c>
       <c r="G1266" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36050,7 +36050,7 @@
         <v>0.703999996185303</v>
       </c>
       <c r="G1267" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36076,7 +36076,7 @@
         <v>0.702000021934509</v>
       </c>
       <c r="G1268" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36102,7 +36102,7 @@
         <v>0.694000005722046</v>
       </c>
       <c r="G1269" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36128,7 +36128,7 @@
         <v>0.685999989509583</v>
       </c>
       <c r="G1270" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36154,7 +36154,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1271" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36180,7 +36180,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1272" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36206,7 +36206,7 @@
         <v>0.685999989509583</v>
       </c>
       <c r="G1273" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36232,7 +36232,7 @@
         <v>0.744000017642975</v>
       </c>
       <c r="G1274" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36258,7 +36258,7 @@
         <v>0.730000019073486</v>
       </c>
       <c r="G1275" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36284,7 +36284,7 @@
         <v>0.736000001430511</v>
       </c>
       <c r="G1276" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36310,7 +36310,7 @@
         <v>0.726000010967255</v>
       </c>
       <c r="G1277" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36336,7 +36336,7 @@
         <v>0.723999977111816</v>
       </c>
       <c r="G1278" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36362,7 +36362,7 @@
         <v>0.703999996185303</v>
       </c>
       <c r="G1279" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36388,7 +36388,7 @@
         <v>0.717999994754791</v>
       </c>
       <c r="G1280" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36414,7 +36414,7 @@
         <v>0.720000028610229</v>
       </c>
       <c r="G1281" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36440,7 +36440,7 @@
         <v>0.720000028610229</v>
       </c>
       <c r="G1282" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36466,7 +36466,7 @@
         <v>0.709999978542328</v>
       </c>
       <c r="G1283" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36492,7 +36492,7 @@
         <v>0.709999978542328</v>
       </c>
       <c r="G1284" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36518,7 +36518,7 @@
         <v>0.709999978542328</v>
       </c>
       <c r="G1285" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36544,7 +36544,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1286" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36570,7 +36570,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1287" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36596,7 +36596,7 @@
         <v>0.699999988079071</v>
       </c>
       <c r="G1288" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36622,7 +36622,7 @@
         <v>0.688000023365021</v>
       </c>
       <c r="G1289" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36648,7 +36648,7 @@
         <v>0.684000015258789</v>
       </c>
       <c r="G1290" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36674,7 +36674,7 @@
         <v>0.695999979972839</v>
       </c>
       <c r="G1291" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36700,7 +36700,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1292" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36726,7 +36726,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1293" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36752,7 +36752,7 @@
         <v>0.703999996185303</v>
       </c>
       <c r="G1294" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -36778,7 +36778,7 @@
         <v>0.716000020503998</v>
       </c>
       <c r="G1295" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -36804,7 +36804,7 @@
         <v>0.720000028610229</v>
       </c>
       <c r="G1296" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -36830,7 +36830,7 @@
         <v>0.709999978542328</v>
       </c>
       <c r="G1297" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -36856,7 +36856,7 @@
         <v>0.736000001430511</v>
       </c>
       <c r="G1298" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -36882,7 +36882,7 @@
         <v>0.843999981880188</v>
       </c>
       <c r="G1299" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -36908,7 +36908,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1300" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -36934,7 +36934,7 @@
         <v>0.832000017166138</v>
       </c>
       <c r="G1301" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -36960,7 +36960,7 @@
         <v>0.825999975204468</v>
       </c>
       <c r="G1302" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36986,7 +36986,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G1303" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37012,7 +37012,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1304" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37038,7 +37038,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1305" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37064,7 +37064,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1306" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37090,7 +37090,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1307" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37116,7 +37116,7 @@
         <v>0.763999998569489</v>
       </c>
       <c r="G1308" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37142,7 +37142,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1309" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37168,7 +37168,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1310" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37194,7 +37194,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1311" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37220,7 +37220,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1312" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37246,7 +37246,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1313" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37272,7 +37272,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1314" t="s">
-        <v>594</v>
+        <v>441</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37298,7 +37298,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1315" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37376,7 +37376,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1318" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37402,7 +37402,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1319" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37480,7 +37480,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1322" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37506,7 +37506,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1323" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37532,7 +37532,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1324" t="s">
-        <v>594</v>
+        <v>441</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37610,7 +37610,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1327" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37636,7 +37636,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1328" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37662,7 +37662,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1329" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37688,7 +37688,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1330" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37714,7 +37714,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1331" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37792,7 +37792,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1334" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -37818,7 +37818,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1335" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -37922,7 +37922,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1339" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -37974,7 +37974,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1341" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -38000,7 +38000,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1342" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38026,7 +38026,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1343" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38052,7 +38052,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1344" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38104,7 +38104,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1346" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38208,7 +38208,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1350" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38260,7 +38260,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1352" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38286,7 +38286,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1353" t="s">
-        <v>594</v>
+        <v>441</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38312,7 +38312,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1354" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38390,7 +38390,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1357" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38416,7 +38416,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1358" t="s">
-        <v>594</v>
+        <v>441</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38442,7 +38442,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1359" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38468,7 +38468,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1360" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38494,7 +38494,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1361" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38520,7 +38520,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1362" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38676,7 +38676,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1368" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38728,7 +38728,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1370" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38754,7 +38754,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1371" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -38780,7 +38780,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1372" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -38806,7 +38806,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1373" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -38832,7 +38832,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1374" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -38858,7 +38858,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1375" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -38884,7 +38884,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1376" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -38910,7 +38910,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1377" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -38936,7 +38936,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1378" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -38962,7 +38962,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1379" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39040,7 +39040,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G1382" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -59224,7 +59224,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.4405671296</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>2500</v>
@@ -59245,6 +59245,32 @@
         <v>920</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.589375</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>14500</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>919</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410150349140167</t>
+    <t xml:space="preserve">0.41015037894249</t>
   </si>
   <si>
     <t xml:space="preserve">GTH.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421087771654129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413796186447144</t>
+    <t xml:space="preserve">0.421087741851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413796156644821</t>
   </si>
   <si>
     <t xml:space="preserve">0.416530460119247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393653213977814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400944799184799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.394108921289444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391921490430832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396478712558746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400033324956894</t>
+    <t xml:space="preserve">0.393653184175491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400944769382477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.394108951091766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391921430826187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396478682756424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400033295154572</t>
   </si>
   <si>
     <t xml:space="preserve">0.405046314001083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397116661071777</t>
+    <t xml:space="preserve">0.397116720676422</t>
   </si>
   <si>
     <t xml:space="preserve">0.382806986570358</t>
@@ -83,115 +83,115 @@
     <t xml:space="preserve">0.404681712388992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40987691283226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405502021312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408327490091324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.406778067350388</t>
+    <t xml:space="preserve">0.409876972436905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405501991510391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.408327549695969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.406778037548065</t>
   </si>
   <si>
     <t xml:space="preserve">0.402767658233643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403314530849457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389095962047577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373601406812668</t>
+    <t xml:space="preserve">0.403314560651779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389095991849899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37360143661499</t>
   </si>
   <si>
     <t xml:space="preserve">0.35728657245636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359929770231247</t>
+    <t xml:space="preserve">0.359929740428925</t>
   </si>
   <si>
     <t xml:space="preserve">0.338237375020981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33240407705307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355463653802872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35537251830101</t>
+    <t xml:space="preserve">0.332404106855392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355463624000549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355372548103333</t>
   </si>
   <si>
     <t xml:space="preserve">0.385450214147568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391010016202927</t>
+    <t xml:space="preserve">0.391010046005249</t>
   </si>
   <si>
     <t xml:space="preserve">0.391465783119202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375424295663834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392832905054092</t>
+    <t xml:space="preserve">0.375424325466156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39283287525177</t>
   </si>
   <si>
     <t xml:space="preserve">0.406504601240158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409694671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393835484981537</t>
+    <t xml:space="preserve">0.409694641828537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393835514783859</t>
   </si>
   <si>
     <t xml:space="preserve">0.405593156814575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402403116226196</t>
+    <t xml:space="preserve">0.402403086423874</t>
   </si>
   <si>
     <t xml:space="preserve">0.396569848060608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392650604248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392012566328049</t>
+    <t xml:space="preserve">0.392650634050369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392012596130371</t>
   </si>
   <si>
     <t xml:space="preserve">0.39638751745224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401035904884338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388366788625717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387728840112686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382169008255005</t>
+    <t xml:space="preserve">0.401035934686661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38836681842804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387728810310364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38216894865036</t>
   </si>
   <si>
     <t xml:space="preserve">0.383718460798264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390736609697342</t>
+    <t xml:space="preserve">0.39073657989502</t>
   </si>
   <si>
     <t xml:space="preserve">0.389916300773621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389642864465714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354187607765198</t>
+    <t xml:space="preserve">0.389642924070358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35418763756752</t>
   </si>
   <si>
     <t xml:space="preserve">0.356830775737762</t>
@@ -200,82 +200,82 @@
     <t xml:space="preserve">0.346804916858673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368132740259171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359018296003342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355190247297287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3724165558815</t>
+    <t xml:space="preserve">0.368132770061493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359018325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355190217494965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372416526079178</t>
   </si>
   <si>
     <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364486932754517</t>
+    <t xml:space="preserve">0.364486962556839</t>
   </si>
   <si>
     <t xml:space="preserve">0.387364238500595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373783707618713</t>
+    <t xml:space="preserve">0.373783677816391</t>
   </si>
   <si>
     <t xml:space="preserve">0.373692542314529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391647964715958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391830295324326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403679102659225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395020425319672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391101181507111</t>
+    <t xml:space="preserve">0.391648024320602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391830325126648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403679132461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395020395517349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391101151704788</t>
   </si>
   <si>
     <t xml:space="preserve">0.390463173389435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379161208868027</t>
+    <t xml:space="preserve">0.379161268472672</t>
   </si>
   <si>
     <t xml:space="preserve">0.369135320186615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377338320016861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369044214487076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360750019550323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373874843120575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372143059968948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372507691383362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366765588521957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373510301113129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366856694221497</t>
+    <t xml:space="preserve">0.377338379621506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369044184684753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360750049352646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373874872922897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372143119573593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372507661581039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366765558719635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373510241508484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366856724023819</t>
   </si>
   <si>
     <t xml:space="preserve">0.379890382289886</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">0.376609176397324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375150859355927</t>
+    <t xml:space="preserve">0.375150889158249</t>
   </si>
   <si>
     <t xml:space="preserve">0.364669233560562</t>
@@ -302,55 +302,55 @@
     <t xml:space="preserve">0.367312431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370958209037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360020905733109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348172128200531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350906401872635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354552179574966</t>
+    <t xml:space="preserve">0.370958238840103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360020935535431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348172098398209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350906431674957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354552239179611</t>
   </si>
   <si>
     <t xml:space="preserve">0.370046764612198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373327970504761</t>
+    <t xml:space="preserve">0.373327940702438</t>
   </si>
   <si>
     <t xml:space="preserve">0.364578127861023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354461073875427</t>
+    <t xml:space="preserve">0.354461044073105</t>
   </si>
   <si>
     <t xml:space="preserve">0.352455884218216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339969098567963</t>
+    <t xml:space="preserve">0.339969128370285</t>
   </si>
   <si>
     <t xml:space="preserve">0.352273613214493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348354369401932</t>
+    <t xml:space="preserve">0.348354399204254</t>
   </si>
   <si>
     <t xml:space="preserve">0.344435185194016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337234735488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333497881889343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346166908740997</t>
+    <t xml:space="preserve">0.337234765291214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333497822284698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34616693854332</t>
   </si>
   <si>
     <t xml:space="preserve">0.346349209547043</t>
@@ -359,22 +359,22 @@
     <t xml:space="preserve">0.341791987419128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330581218004227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326206296682358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324474543333054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327755719423294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329852074384689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245114803314</t>
+    <t xml:space="preserve">0.330581188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326206237077713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324474483728409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327755749225616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329852014780045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245085000992</t>
   </si>
   <si>
     <t xml:space="preserve">0.329487472772598</t>
@@ -383,19 +383,19 @@
     <t xml:space="preserve">0.327664583921432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325294822454453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326115071773529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33358895778656</t>
+    <t xml:space="preserve">0.32529479265213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326115131378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333588987588882</t>
   </si>
   <si>
     <t xml:space="preserve">0.340971678495407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337599366903305</t>
+    <t xml:space="preserve">0.33759930729866</t>
   </si>
   <si>
     <t xml:space="preserve">0.340515971183777</t>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">0.340880542993546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341518551111221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334864944219589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336323291063309</t>
+    <t xml:space="preserve">0.341518580913544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334864974021912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336323320865631</t>
   </si>
   <si>
     <t xml:space="preserve">0.335320740938187</t>
@@ -422,28 +422,28 @@
     <t xml:space="preserve">0.32957860827446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331766068935394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332312971353531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325385987758636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328211456537247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332677513360977</t>
+    <t xml:space="preserve">0.331766039133072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332312941551208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325385928153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328211486339569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3326775431633</t>
   </si>
   <si>
     <t xml:space="preserve">0.328120291233063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319917321205139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327208817005157</t>
+    <t xml:space="preserve">0.319917291402817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32720884680748</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226965904236</t>
@@ -455,10 +455,10 @@
     <t xml:space="preserve">0.320828706026077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361752659082413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335867583751678</t>
+    <t xml:space="preserve">0.361752688884735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335867553949356</t>
   </si>
   <si>
     <t xml:space="preserve">0.333680123090744</t>
@@ -467,727 +467,727 @@
     <t xml:space="preserve">0.330945789813995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33522954583168</t>
+    <t xml:space="preserve">0.335229575634003</t>
   </si>
   <si>
     <t xml:space="preserve">0.343432575464249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349083542823792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338875323534012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342885732650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333771228790283</t>
+    <t xml:space="preserve">0.349083513021469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338875353336334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342885702848434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333771258592606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344526290893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337690472602844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336687922477722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249794244766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351088732481003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349265813827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340151369571686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335594117641449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342976868152618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34972158074379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34543776512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353549599647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35491681098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345073163509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34498205780983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328940600156784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330854624509811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324109941720963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331310361623764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312352299690247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316180348396301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317091852426529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312625735998154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332586377859116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33714359998703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052494287491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966459035873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146179914474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724130868912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109431505203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341336309909821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345346570014954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343614876270294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346258044242859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347260683774948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353185027837753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367328643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362755209207535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381804436445236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380528390407562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389825135469437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380892962217331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369408786296844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362390637397766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36293751001358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479192972183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361934930086136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367585867643356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368223875761032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370411366224289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363484352827072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358744829893112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357195407152176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358198016881943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363119781017303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347625225782394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35327622294426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093922138214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349994987249374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343797147274017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343250304460526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346075773239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617486000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350268453359604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344890892505646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350359588861465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349357008934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358380287885666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35345846414566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104241847992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359747469425201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359565138816833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299501895905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356375098228455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356192797422409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374330580234528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36886191368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374148279428482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525780677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575518131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820515632629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3565573990345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361570328474045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360932350158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362572938203812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355919390916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358471423387527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368315011262894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369864493608475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374604016542435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366674423217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369226455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372781127691269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370867073535919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368041604757309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387273073196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382533580064774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378340899944305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386270523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.384174168109894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380984157323837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260113954544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541319847107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386817365884781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378978967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523200750351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371505111455917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869653463364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366583287715912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365398466587067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365762978792191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360294312238693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364304661750793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360385477542877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363848984241486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466263532639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35582822561264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377678155899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468843460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361296892166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366218715906143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365854114294052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358653724193573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364851534366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355645924806595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362117230892181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366036415100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363757789134979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356922000646591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361661493778229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554819107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358927130699158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114621162415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358289152383804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360112011432648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945279598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367950439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364395797252655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359291672706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365125000476837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377247184514999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37888777256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381257563829422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379799246788025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388731390237808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723650455475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383627325296402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075263023376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413975954056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380801856517792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37761178612709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381713300943375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381531000137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382898211479187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372689962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373966008424759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375515431165695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366309851408005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359474003314972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358015716075897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362208306789398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348810106515884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357924520969391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357742249965668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35701310634613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359656274318695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364122360944748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36366668343544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354734510183334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355737119913101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365671843290329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361843764781952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366401016712189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35181787610054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353640824556351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352729320526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335411846637726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329031765460968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329943209886551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.322651624679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563069105148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32174015045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334500402212143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342703431844711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319005846977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182928323746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271543502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326297402381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318094372749329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310802817344666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301688373088837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30259981751442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.309891432523727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308068484067917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314448595046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311714291572571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304422706365585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305334180593491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306245625019073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29895406961441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865484237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776928663254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303511291742325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.307157069444656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313537180423737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308979958295822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.315360069274902</t>
   </si>
   <si>
     <t xml:space="preserve">0.344526320695877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337690472602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336687862873077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249764442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351088732481003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349265813827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340151369571686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335594147443771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342976868152618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34972158074379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345437735319138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353549599647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35491681098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345073163509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344982028007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328940600156784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330854654312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32410991191864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331310361623764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312352269887924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316180348396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317091822624207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312625765800476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332586348056793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337143629789352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052464485168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966518640518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146179914474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724160671234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109431505203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341336250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345346599817276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343614876270294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346258044242859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347260683774948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353185027837753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367328643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362755239009857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381804436445236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380528390407562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389825135469437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380892932415009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369408786296844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362390637397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36293751001358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479222774506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361934930086136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367585897445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368223875761032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370411336421967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363484412431717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358744859695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357195407152176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358198046684265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363119840621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347625195980072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353276193141937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093862533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349994987249374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343797147274017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343250274658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346075743436813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617515802383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350268393754959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344890892505646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350359588861465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349356979131699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358380287885666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353458493947983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104241847992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359747409820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359565168619156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299501895905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356375128030777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356192827224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374330550432205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368861883878708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374148309230804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525810480118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575518131256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820485830307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3565573990345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361570298671722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360932320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362572938203812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355919390916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358471423387527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368315041065216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369864493608475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374604016542435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366674423217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369226455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372781097888947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370867103338242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368041604757309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387273073196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382533609867096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37834095954895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386270523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.384174197912216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380984157323837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260143756866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541379451752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386817365884781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378978967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523260354996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505051851273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869683265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366583287715912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365398436784744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365763008594513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360294312238693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364304691553116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385417938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363848954439163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466233730316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355828255414963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377678155899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468783855438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36129692196846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366218686103821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365854144096375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358653694391251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364851534366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355645924806595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362117230892181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36603644490242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363757818937302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356922000646591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361661523580551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554789304733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358927130699158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114650964737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358289122581482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360111981630325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945249795914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367950469255447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364395827054977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359291732311249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365124970674515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377247184514999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378887832164764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381257563829422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379799246788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388731360435486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723620653152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383627355098724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075263023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413946151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380801856517792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377611726522446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38171324133873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381531000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382898151874542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372689962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373965978622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375515460968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366309881210327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359474062919617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358015716075897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362208336591721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348810106515884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357924520969391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35774227976799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357013136148453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359656304121017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364122420549393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363666653633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354734510183334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355737060308456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365671843290329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361843764781952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366400986909866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351817905902863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353640794754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352729320526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335411876440048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329031735658646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329943180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322651624679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.321740180253983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334500432014465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342703402042389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319005817174911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182928323746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271543502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326297432184219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318094432353973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310802817344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301688402891159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30259981751442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.309891372919083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308068513870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314448654651642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311714261770248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304422706365585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305334150791168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306245595216751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298954039812088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865514039993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776928663254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303511291742325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307157099246979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313537180423737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308979958295822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31536003947258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344526290893555</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.348250925540924</t>
   </si>
   <si>
     <t xml:space="preserve">0.351975530385971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342664033174515</t>
+    <t xml:space="preserve">0.342664003372192</t>
   </si>
   <si>
     <t xml:space="preserve">0.335214793682098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338008224964142</t>
+    <t xml:space="preserve">0.338008254766464</t>
   </si>
   <si>
     <t xml:space="preserve">0.33614593744278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347319751977921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354768991470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349182039499283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346388667821884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341732829809189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35290664434433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345457434654236</t>
+    <t xml:space="preserve">0.347319781780243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354768961668015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349182069301605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346388608217239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341732859611511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352906674146652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345457464456558</t>
   </si>
   <si>
     <t xml:space="preserve">0.343595147132874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337077081203461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340801686048508</t>
+    <t xml:space="preserve">0.337077111005783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34080171585083</t>
   </si>
   <si>
     <t xml:space="preserve">0.339870542287827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338939398527145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353837847709656</t>
+    <t xml:space="preserve">0.338939368724823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353837817907333</t>
   </si>
   <si>
     <t xml:space="preserve">0.372460871934891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358493596315384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363149344921112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362218171358109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631249189377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361287087202072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3659428358078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367805123329163</t>
+    <t xml:space="preserve">0.358493566513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36314931511879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362218201160431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36128705739975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365942806005478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367805153131485</t>
   </si>
   <si>
     <t xml:space="preserve">0.368736267089844</t>
@@ -1196,28 +1196,28 @@
     <t xml:space="preserve">0.366873949766159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371529698371887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385497003793716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3780477643013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379910081624985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388290464878082</t>
+    <t xml:space="preserve">0.37152972817421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385496973991394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378047794103622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379910111427307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38829043507576</t>
   </si>
   <si>
     <t xml:space="preserve">0.415293872356415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404120057821274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.399464249610901</t>
+    <t xml:space="preserve">0.404120028018951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399464309215546</t>
   </si>
   <si>
     <t xml:space="preserve">0.407844632863998</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">0.414362728595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395739674568176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400395452976227</t>
+    <t xml:space="preserve">0.395739704370499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400395423173904</t>
   </si>
   <si>
     <t xml:space="preserve">0.405051201581955</t>
@@ -1244,49 +1244,49 @@
     <t xml:space="preserve">0.391083896160126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403188914060593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39667084813118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.401326596736908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41343155503273</t>
+    <t xml:space="preserve">0.40318888425827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396670788526535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.401326566934586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413431584835052</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422743052244186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.424605399370193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444159597158432</t>
+    <t xml:space="preserve">0.422743082046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.424605369567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444159626960754</t>
   </si>
   <si>
     <t xml:space="preserve">0.474887579679489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458126872777939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45253998041153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455333411693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.454402297735214</t>
+    <t xml:space="preserve">0.458126842975616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452539950609207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455333381891251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.454402267932892</t>
   </si>
   <si>
     <t xml:space="preserve">0.450677663087845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446953058242798</t>
+    <t xml:space="preserve">0.446953028440475</t>
   </si>
   <si>
     <t xml:space="preserve">0.446021884679794</t>
@@ -1310,31 +1310,31 @@
     <t xml:space="preserve">0.45905801653862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460920333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.445090711116791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.439503878355026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451608836650848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.447884202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448815375566483</t>
+    <t xml:space="preserve">0.460920363664627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.445090740919113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.439503848552704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451608806848526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.447884231805801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44881534576416</t>
   </si>
   <si>
     <t xml:space="preserve">0.440434962511063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504684448242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653668880462646</t>
+    <t xml:space="preserve">0.504684507846832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653668820858002</t>
   </si>
   <si>
     <t xml:space="preserve">0.744921743869781</t>
@@ -1349,10 +1349,10 @@
     <t xml:space="preserve">0.687190294265747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.666705012321472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638770461082458</t>
+    <t xml:space="preserve">0.666704952716827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.638770401477814</t>
   </si>
   <si>
     <t xml:space="preserve">0.6108358502388</t>
@@ -1361,25 +1361,25 @@
     <t xml:space="preserve">0.59035050868988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568002760410309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608973503112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.635045766830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631321251392365</t>
+    <t xml:space="preserve">0.568002820014954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608973562717438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.635045826435089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631321132183075</t>
   </si>
   <si>
     <t xml:space="preserve">0.629458844661713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633183419704437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640632748603821</t>
+    <t xml:space="preserve">0.633183479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640632629394531</t>
   </si>
   <si>
     <t xml:space="preserve">0.642495036125183</t>
@@ -1388,43 +1388,43 @@
     <t xml:space="preserve">0.644357264041901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62759655714035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601524412631989</t>
+    <t xml:space="preserve">0.627596616744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601524293422699</t>
   </si>
   <si>
     <t xml:space="preserve">0.577314376831055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525169849395752</t>
+    <t xml:space="preserve">0.525169789791107</t>
   </si>
   <si>
     <t xml:space="preserve">0.515858352184296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.527032077312469</t>
+    <t xml:space="preserve">0.527032136917114</t>
   </si>
   <si>
     <t xml:space="preserve">0.502822160720825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510663509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499097645282745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486061483621597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.428330034017563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.437641501426697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.463713765144348</t>
+    <t xml:space="preserve">0.493510603904724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499097615480423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486061453819275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42833000421524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.437641561031342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.463713794946671</t>
   </si>
   <si>
     <t xml:space="preserve">0.435779213905334</t>
@@ -1433,31 +1433,31 @@
     <t xml:space="preserve">0.442297279834747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491648405790329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500959873199463</t>
+    <t xml:space="preserve">0.491648346185684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500959813594818</t>
   </si>
   <si>
     <t xml:space="preserve">0.513995945453644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510271430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508409082889557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512133598327637</t>
+    <t xml:space="preserve">0.510271370410919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508409142494202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512133717536926</t>
   </si>
   <si>
     <t xml:space="preserve">0.543792843818665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.54006826877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.571727514266968</t>
+    <t xml:space="preserve">0.540068209171295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.571727454662323</t>
   </si>
   <si>
     <t xml:space="preserve">0.582901239395142</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">0.566140532493591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.558691322803497</t>
+    <t xml:space="preserve">0.558691382408142</t>
   </si>
   <si>
     <t xml:space="preserve">0.538205981254578</t>
@@ -1484,37 +1484,37 @@
     <t xml:space="preserve">0.532619059085846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521445214748383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517720580101013</t>
+    <t xml:space="preserve">0.521445274353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517720520496368</t>
   </si>
   <si>
     <t xml:space="preserve">0.506546795368195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536343634128571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564278244972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575452029705048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579176604747772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592212796211243</t>
+    <t xml:space="preserve">0.536343574523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564278185367584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575451970100403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579176545143127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592212736606598</t>
   </si>
   <si>
     <t xml:space="preserve">0.551242113113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557269692420959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566747069358826</t>
+    <t xml:space="preserve">0.557269752025604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566747009754181</t>
   </si>
   <si>
     <t xml:space="preserve">0.549687743186951</t>
@@ -1523,28 +1523,28 @@
     <t xml:space="preserve">0.562956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551583230495453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5534787774086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.559165120124817</t>
+    <t xml:space="preserve">0.551583290100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.553478717803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.559165060520172</t>
   </si>
   <si>
     <t xml:space="preserve">0.542105913162231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544001400470734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.540210425853729</t>
+    <t xml:space="preserve">0.544001460075378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.540210366249084</t>
   </si>
   <si>
     <t xml:space="preserve">0.547792315483093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.545896828174591</t>
+    <t xml:space="preserve">0.545896768569946</t>
   </si>
   <si>
     <t xml:space="preserve">0.534523963928223</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">0.525046646595001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51936012506485</t>
+    <t xml:space="preserve">0.519360184669495</t>
   </si>
   <si>
     <t xml:space="preserve">0.515569269657135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513673841953278</t>
+    <t xml:space="preserve">0.513673782348633</t>
   </si>
   <si>
     <t xml:space="preserve">0.523151099681854</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">0.538314998149872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530733048915863</t>
+    <t xml:space="preserve">0.530733108520508</t>
   </si>
   <si>
     <t xml:space="preserve">0.583806335926056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73544442653656</t>
+    <t xml:space="preserve">0.735444366931915</t>
   </si>
   <si>
     <t xml:space="preserve">0.73923522233963</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">0.653938949108124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633088648319244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686161994934082</t>
+    <t xml:space="preserve">0.633088707923889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686162054538727</t>
   </si>
   <si>
     <t xml:space="preserve">0.676684558391571</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">0.682371079921722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659625291824341</t>
+    <t xml:space="preserve">0.659625351428986</t>
   </si>
   <si>
     <t xml:space="preserve">0.669102728366852</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">0.62929767370224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62550687789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619820356369019</t>
+    <t xml:space="preserve">0.625506818294525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619820415973663</t>
   </si>
   <si>
     <t xml:space="preserve">0.616029381752014</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">0.642566025257111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.652043461799622</t>
+    <t xml:space="preserve">0.652043402194977</t>
   </si>
   <si>
     <t xml:space="preserve">0.636879622936249</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">0.617924928665161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598970234394073</t>
+    <t xml:space="preserve">0.598970174789429</t>
   </si>
   <si>
     <t xml:space="preserve">0.600865662097931</t>
@@ -1688,13 +1688,13 @@
     <t xml:space="preserve">0.555374264717102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.564851522445679</t>
+    <t xml:space="preserve">0.564851582050323</t>
   </si>
   <si>
     <t xml:space="preserve">0.53262847661972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578119874000549</t>
+    <t xml:space="preserve">0.578119933605194</t>
   </si>
   <si>
     <t xml:space="preserve">0.576224446296692</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">0.561060667037964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572433471679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59138822555542</t>
+    <t xml:space="preserve">0.572433412075043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.591388285160065</t>
   </si>
   <si>
     <t xml:space="preserve">0.614133954048157</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">0.674789130687714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.665311813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691848456859589</t>
+    <t xml:space="preserve">0.665311753749847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.691848397254944</t>
   </si>
   <si>
     <t xml:space="preserve">0.699430286884308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.678580164909363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672893643379211</t>
+    <t xml:space="preserve">0.678580105304718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672893702983856</t>
   </si>
   <si>
     <t xml:space="preserve">0.66720724105835</t>
@@ -1754,19 +1754,19 @@
     <t xml:space="preserve">0.648252487182617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799890458583832</t>
+    <t xml:space="preserve">0.799890518188477</t>
   </si>
   <si>
     <t xml:space="preserve">0.758190035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788517713546753</t>
+    <t xml:space="preserve">0.788517773151398</t>
   </si>
   <si>
     <t xml:space="preserve">0.782831192016602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775249361991882</t>
+    <t xml:space="preserve">0.775249421596527</t>
   </si>
   <si>
     <t xml:space="preserve">0.761981070041656</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">0.725966989994049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.750608205795288</t>
+    <t xml:space="preserve">0.750608146190643</t>
   </si>
   <si>
     <t xml:space="preserve">0.743026256561279</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">0.741130769252777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746817111968994</t>
+    <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
     <t xml:space="preserve">0.737339854240417</t>
@@ -1817,19 +1817,19 @@
     <t xml:space="preserve">0.722176015377045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77714478969574</t>
+    <t xml:space="preserve">0.777144730091095</t>
   </si>
   <si>
     <t xml:space="preserve">0.769562900066376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.760085463523865</t>
+    <t xml:space="preserve">0.76008552312851</t>
   </si>
   <si>
     <t xml:space="preserve">0.754399061203003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813158810138702</t>
+    <t xml:space="preserve">0.813158869743347</t>
   </si>
   <si>
     <t xml:space="preserve">0.824638724327087</t>
@@ -59250,10 +59250,10 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.589375</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="C2160" t="n">
         <v>2.26999998092651</v>
@@ -59271,6 +59271,32 @@
         <v>919</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.3503125</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>50500</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>919</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -56,25 +56,25 @@
     <t xml:space="preserve">0.393653184175491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400944769382477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.394108951091766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391921430826187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396478682756424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400033295154572</t>
+    <t xml:space="preserve">0.400944799184799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.394108921289444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39192146062851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396478712558746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400033324956894</t>
   </si>
   <si>
     <t xml:space="preserve">0.405046314001083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397116720676422</t>
+    <t xml:space="preserve">0.3971166908741</t>
   </si>
   <si>
     <t xml:space="preserve">0.382806986570358</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">0.406778037548065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402767658233643</t>
+    <t xml:space="preserve">0.402767688035965</t>
   </si>
   <si>
     <t xml:space="preserve">0.403314560651779</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">0.35728657245636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359929740428925</t>
+    <t xml:space="preserve">0.359929710626602</t>
   </si>
   <si>
     <t xml:space="preserve">0.338237375020981</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">0.375424325466156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39283287525177</t>
+    <t xml:space="preserve">0.392832905054092</t>
   </si>
   <si>
     <t xml:space="preserve">0.406504601240158</t>
@@ -164,10 +164,10 @@
     <t xml:space="preserve">0.392012596130371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39638751745224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.401035934686661</t>
+    <t xml:space="preserve">0.396387547254562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.401035904884338</t>
   </si>
   <si>
     <t xml:space="preserve">0.38836681842804</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">0.389916300773621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389642924070358</t>
+    <t xml:space="preserve">0.389642894268036</t>
   </si>
   <si>
     <t xml:space="preserve">0.35418763756752</t>
@@ -200,34 +200,34 @@
     <t xml:space="preserve">0.346804916858673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368132770061493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359018325805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355190217494965</t>
+    <t xml:space="preserve">0.368132740259171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359018296003342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355190247297287</t>
   </si>
   <si>
     <t xml:space="preserve">0.372416526079178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372598826885223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364486962556839</t>
+    <t xml:space="preserve">0.372598856687546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364486932754517</t>
   </si>
   <si>
     <t xml:space="preserve">0.387364238500595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373783677816391</t>
+    <t xml:space="preserve">0.373783707618713</t>
   </si>
   <si>
     <t xml:space="preserve">0.373692542314529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391648024320602</t>
+    <t xml:space="preserve">0.39164799451828</t>
   </si>
   <si>
     <t xml:space="preserve">0.391830325126648</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">0.403679132461548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395020395517349</t>
+    <t xml:space="preserve">0.395020365715027</t>
   </si>
   <si>
     <t xml:space="preserve">0.391101151704788</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">0.373874872922897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372143119573593</t>
+    <t xml:space="preserve">0.372143089771271</t>
   </si>
   <si>
     <t xml:space="preserve">0.372507661581039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366765558719635</t>
+    <t xml:space="preserve">0.366765588521957</t>
   </si>
   <si>
     <t xml:space="preserve">0.373510241508484</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">0.375150889158249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364669233560562</t>
+    <t xml:space="preserve">0.364669263362885</t>
   </si>
   <si>
     <t xml:space="preserve">0.365489542484283</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">0.348172098398209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350906431674957</t>
+    <t xml:space="preserve">0.35090646147728</t>
   </si>
   <si>
     <t xml:space="preserve">0.354552239179611</t>
@@ -326,13 +326,13 @@
     <t xml:space="preserve">0.364578127861023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354461044073105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352455884218216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339969128370285</t>
+    <t xml:space="preserve">0.354461073875427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352455914020538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339969098567963</t>
   </si>
   <si>
     <t xml:space="preserve">0.352273613214493</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">0.346349209547043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341791987419128</t>
+    <t xml:space="preserve">0.341791957616806</t>
   </si>
   <si>
     <t xml:space="preserve">0.330581188201904</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">0.326206237077713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324474483728409</t>
+    <t xml:space="preserve">0.324474513530731</t>
   </si>
   <si>
     <t xml:space="preserve">0.327755749225616</t>
@@ -401,22 +401,22 @@
     <t xml:space="preserve">0.340515971183777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340880542993546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341518580913544</t>
+    <t xml:space="preserve">0.340880513191223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341518551111221</t>
   </si>
   <si>
     <t xml:space="preserve">0.334864974021912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336323320865631</t>
+    <t xml:space="preserve">0.336323291063309</t>
   </si>
   <si>
     <t xml:space="preserve">0.335320740938187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33905765414238</t>
+    <t xml:space="preserve">0.339057624340057</t>
   </si>
   <si>
     <t xml:space="preserve">0.32957860827446</t>
@@ -431,19 +431,19 @@
     <t xml:space="preserve">0.325385928153992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328211486339569</t>
+    <t xml:space="preserve">0.328211456537247</t>
   </si>
   <si>
     <t xml:space="preserve">0.3326775431633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328120291233063</t>
+    <t xml:space="preserve">0.328120321035385</t>
   </si>
   <si>
     <t xml:space="preserve">0.319917291402817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32720884680748</t>
+    <t xml:space="preserve">0.327208876609802</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226965904236</t>
@@ -455,10 +455,10 @@
     <t xml:space="preserve">0.320828706026077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361752688884735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335867553949356</t>
+    <t xml:space="preserve">0.361752659082413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335867583751678</t>
   </si>
   <si>
     <t xml:space="preserve">0.333680123090744</t>
@@ -473,646 +473,646 @@
     <t xml:space="preserve">0.343432575464249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349083513021469</t>
+    <t xml:space="preserve">0.349083542823792</t>
   </si>
   <si>
     <t xml:space="preserve">0.338875353336334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342885702848434</t>
+    <t xml:space="preserve">0.342885732650757</t>
   </si>
   <si>
     <t xml:space="preserve">0.333771258592606</t>
   </si>
   <si>
+    <t xml:space="preserve">0.344526261091232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337690502405167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336687922477722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249794244766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351088732481003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349265813827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340151399374008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335594117641449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342976868152618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349721550941467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345437735319138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353549629449844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35491681098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345073193311691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34498205780983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328940600156784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330854624509811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324109941720963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331310361623764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312352299690247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316180348396301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317091852426529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312625735998154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332586377859116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33714359998703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052494287491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966459035873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146150112152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724130868912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109431505203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341336309909821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345346599817276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343614846467972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346258074045181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347260653972626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353185027837753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367358446121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362755209207535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381804436445236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380528390407562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389825135469437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380892962217331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369408756494522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362390607595444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362937480211258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479192972183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361934959888458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367585867643356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368223875761032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370411366224289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363484352827072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358744829893112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357195377349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358198016881943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363119810819626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347625195980072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35327622294426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093892335892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349995017051697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34379717707634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343250304460526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346075743436813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617486000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350268453359604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344890862703323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350359559059143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349357008934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358380287885666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35345846414566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104241847992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359747469425201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359565138816833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299501895905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356375098228455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356192797422409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374330580234528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36886191368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374148279428482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525780677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575488328934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820485830307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3565573990345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361570328474045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360932350158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362572938203812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355919390916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358471423387527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368315041065216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369864523410797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374604016542435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366674423217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369226485490799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372781127691269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370867073535919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368041634559631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387273073196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382533609867096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378340899944305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386270493268967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.384174168109894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380984157323837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260143756866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541319847107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386817365884781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378978967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523200750351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371505111455917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869653463364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366583287715912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365398436784744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365762978792191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360294312238693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364304661750793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3603855073452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363848954439163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466233730316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355828255414963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377678155899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468843460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36129692196846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366218745708466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365854144096375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358653724193573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364851534366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355645924806595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362117230892181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366036385297775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363757818937302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356922000646591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361661493778229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554789304733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358927100896835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114621162415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358289152383804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36011204123497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945279598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367950439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364395827054977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359291672706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365124970674515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377247184514999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37888777256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381257563829422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379799276590347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388731390237808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723650455475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383627325296402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075233221054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413975954056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380801856517792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37761178612709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381713300943375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381531000137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382898181676865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372689962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373965978622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375515431165695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366309821605682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359474033117294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358015686273575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362208336591721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348810076713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357924550771713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357742249965668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357013136148453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359656274318695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36412239074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36366668343544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354734510183334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355737119913101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365671843290329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361843764781952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366401016712189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351817905902863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353640824556351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352729320526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335411846637726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329031765460968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329943209886551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.322651654481888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563098907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.321740180253983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334500402212143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342703402042389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319005846977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182928323746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271543502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326297432184219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318094372749329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310802817344666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301688402891159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302599847316742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.309891432523727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308068484067917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314448595046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311714291572571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304422706365585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305334180593491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306245625019073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29895406961441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865484237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776958465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303511321544647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.307157069444656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313537180423737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308979958295822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.315360069274902</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.344526290893555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337690472602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336687922477722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249794244766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351088732481003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349265813827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340151369571686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335594117641449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342976868152618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34972158074379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34543776512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353549599647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35491681098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345073163509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34498205780983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328940600156784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330854624509811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324109941720963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331310361623764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312352299690247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316180348396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317091852426529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312625735998154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332586377859116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33714359998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052494287491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966459035873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146179914474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724130868912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109431505203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341336309909821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345346570014954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343614876270294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346258044242859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347260683774948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353185027837753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367328643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362755209207535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381804436445236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380528390407562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389825135469437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380892962217331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369408786296844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362390637397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36293751001358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479192972183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361934930086136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367585867643356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368223875761032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370411366224289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363484352827072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358744829893112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357195407152176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358198016881943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363119781017303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347625225782394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35327622294426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093922138214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349994987249374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343797147274017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343250304460526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346075773239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617486000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350268453359604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344890892505646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350359588861465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349357008934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358380287885666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35345846414566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104241847992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359747469425201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359565138816833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299501895905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356375098228455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356192797422409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374330580234528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36886191368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374148279428482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525780677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575518131256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820515632629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3565573990345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361570328474045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360932350158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362572938203812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355919390916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358471423387527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368315011262894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369864493608475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374604016542435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366674423217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369226455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372781127691269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370867073535919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368041604757309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387273073196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382533580064774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378340899944305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386270523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.384174168109894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380984157323837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260113954544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541319847107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386817365884781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378978967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523200750351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505111455917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869653463364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366583287715912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365398466587067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365762978792191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360294312238693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364304661750793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385477542877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363848984241486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466263532639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35582822561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377678155899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468843460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361296892166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366218715906143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365854114294052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358653724193573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364851534366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355645924806595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362117230892181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366036415100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363757789134979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356922000646591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361661493778229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554819107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358927130699158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114621162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358289152383804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360112011432648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945279598236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367950439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364395797252655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359291672706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365125000476837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377247184514999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37888777256012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381257563829422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379799246788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388731390237808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723650455475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383627325296402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075263023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413975954056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380801856517792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37761178612709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381713300943375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381531000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382898211479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372689962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373966008424759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375515431165695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366309851408005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359474003314972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358015716075897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362208306789398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348810106515884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357924520969391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357742249965668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35701310634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359656274318695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364122360944748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36366668343544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354734510183334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355737119913101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365671843290329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361843764781952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366401016712189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35181787610054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353640824556351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352729320526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335411846637726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329031765460968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329943209886551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322651624679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563069105148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32174015045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334500402212143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342703431844711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319005846977234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182928323746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271543502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326297402381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318094372749329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310802817344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301688373088837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30259981751442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.309891432523727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308068484067917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314448595046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311714291572571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304422706365585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305334180593491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306245625019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29895406961441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865484237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776928663254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303511291742325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307157069444656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313537180423737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308979958295822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.315360069274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344526320695877</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.348250925540924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351975530385971</t>
+    <t xml:space="preserve">0.351975500583649</t>
   </si>
   <si>
     <t xml:space="preserve">0.342664003372192</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">0.347319781780243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354768961668015</t>
+    <t xml:space="preserve">0.354768991470337</t>
   </si>
   <si>
     <t xml:space="preserve">0.349182069301605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346388608217239</t>
+    <t xml:space="preserve">0.346388638019562</t>
   </si>
   <si>
     <t xml:space="preserve">0.341732859611511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352906674146652</t>
+    <t xml:space="preserve">0.352906703948975</t>
   </si>
   <si>
     <t xml:space="preserve">0.345457464456558</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">0.34080171585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339870542287827</t>
+    <t xml:space="preserve">0.339870572090149</t>
   </si>
   <si>
     <t xml:space="preserve">0.338939368724823</t>
@@ -1175,19 +1175,19 @@
     <t xml:space="preserve">0.36314931511879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362218201160431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631278991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36128705739975</t>
+    <t xml:space="preserve">0.362218230962753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631249189377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361287087202072</t>
   </si>
   <si>
     <t xml:space="preserve">0.365942806005478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367805153131485</t>
+    <t xml:space="preserve">0.367805123329163</t>
   </si>
   <si>
     <t xml:space="preserve">0.368736267089844</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">0.37152972817421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385496973991394</t>
+    <t xml:space="preserve">0.385497003793716</t>
   </si>
   <si>
     <t xml:space="preserve">0.378047794103622</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">0.38829043507576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415293872356415</t>
+    <t xml:space="preserve">0.415293842554092</t>
   </si>
   <si>
     <t xml:space="preserve">0.404120028018951</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">0.400395423173904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405051201581955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405982345342636</t>
+    <t xml:space="preserve">0.405051231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405982315540314</t>
   </si>
   <si>
     <t xml:space="preserve">0.409706950187683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391083896160126</t>
+    <t xml:space="preserve">0.391083866357803</t>
   </si>
   <si>
     <t xml:space="preserve">0.40318888425827</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">0.396670788526535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401326566934586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413431584835052</t>
+    <t xml:space="preserve">0.401326596736908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41343155503273</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
@@ -1262,16 +1262,16 @@
     <t xml:space="preserve">0.422743082046509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424605369567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444159626960754</t>
+    <t xml:space="preserve">0.424605399370193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444159597158432</t>
   </si>
   <si>
     <t xml:space="preserve">0.474887579679489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458126842975616</t>
+    <t xml:space="preserve">0.458126872777939</t>
   </si>
   <si>
     <t xml:space="preserve">0.452539950609207</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">0.446953028440475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446021884679794</t>
+    <t xml:space="preserve">0.446021854877472</t>
   </si>
   <si>
     <t xml:space="preserve">0.453471094369888</t>
@@ -1298,10 +1298,10 @@
     <t xml:space="preserve">0.456264585256577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471162974834442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476749926805496</t>
+    <t xml:space="preserve">0.47116294503212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476749897003174</t>
   </si>
   <si>
     <t xml:space="preserve">0.457195729017258</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">0.439503848552704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451608806848526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.447884231805801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44881534576416</t>
+    <t xml:space="preserve">0.451608836650848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.447884202003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448815375566483</t>
   </si>
   <si>
     <t xml:space="preserve">0.440434962511063</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">0.672291874885559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657393455505371</t>
+    <t xml:space="preserve">0.657393395900726</t>
   </si>
   <si>
     <t xml:space="preserve">0.687190294265747</t>
@@ -1352,25 +1352,25 @@
     <t xml:space="preserve">0.666704952716827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.638770401477814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6108358502388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59035050868988</t>
+    <t xml:space="preserve">0.638770341873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610835909843445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590350449085236</t>
   </si>
   <si>
     <t xml:space="preserve">0.568002820014954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.608973562717438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.635045826435089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631321132183075</t>
+    <t xml:space="preserve">0.608973503112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.635045766830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63132119178772</t>
   </si>
   <si>
     <t xml:space="preserve">0.629458844661713</t>
@@ -1385,16 +1385,16 @@
     <t xml:space="preserve">0.642495036125183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644357264041901</t>
+    <t xml:space="preserve">0.644357323646545</t>
   </si>
   <si>
     <t xml:space="preserve">0.627596616744995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.601524293422699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577314376831055</t>
+    <t xml:space="preserve">0.601524353027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57731431722641</t>
   </si>
   <si>
     <t xml:space="preserve">0.525169789791107</t>
@@ -1406,37 +1406,37 @@
     <t xml:space="preserve">0.527032136917114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.502822160720825</t>
+    <t xml:space="preserve">0.50282222032547</t>
   </si>
   <si>
     <t xml:space="preserve">0.493510603904724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499097615480423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486061453819275</t>
+    <t xml:space="preserve">0.499097555875778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486061424016953</t>
   </si>
   <si>
     <t xml:space="preserve">0.42833000421524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437641561031342</t>
+    <t xml:space="preserve">0.437641531229019</t>
   </si>
   <si>
     <t xml:space="preserve">0.463713794946671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435779213905334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.442297279834747</t>
+    <t xml:space="preserve">0.435779243707657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44229730963707</t>
   </si>
   <si>
     <t xml:space="preserve">0.491648346185684</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500959813594818</t>
+    <t xml:space="preserve">0.500959873199463</t>
   </si>
   <si>
     <t xml:space="preserve">0.513995945453644</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">0.508409142494202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.512133717536926</t>
+    <t xml:space="preserve">0.512133657932281</t>
   </si>
   <si>
     <t xml:space="preserve">0.543792843818665</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">0.571727454662323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582901239395142</t>
+    <t xml:space="preserve">0.582901298999786</t>
   </si>
   <si>
     <t xml:space="preserve">0.566140532493591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.558691382408142</t>
+    <t xml:space="preserve">0.558691322803497</t>
   </si>
   <si>
     <t xml:space="preserve">0.538205981254578</t>
@@ -1475,19 +1475,19 @@
     <t xml:space="preserve">0.530756711959839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.528894484043121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549379706382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532619059085846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521445274353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517720520496368</t>
+    <t xml:space="preserve">0.528894424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549379765987396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532619118690491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521445214748383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517720580101013</t>
   </si>
   <si>
     <t xml:space="preserve">0.506546795368195</t>
@@ -1496,13 +1496,13 @@
     <t xml:space="preserve">0.536343574523926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.564278185367584</t>
+    <t xml:space="preserve">0.564278244972229</t>
   </si>
   <si>
     <t xml:space="preserve">0.575451970100403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579176545143127</t>
+    <t xml:space="preserve">0.579176604747772</t>
   </si>
   <si>
     <t xml:space="preserve">0.592212736606598</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">0.557269752025604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566747009754181</t>
+    <t xml:space="preserve">0.566747069358826</t>
   </si>
   <si>
     <t xml:space="preserve">0.549687743186951</t>
@@ -1529,13 +1529,13 @@
     <t xml:space="preserve">0.553478717803955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559165060520172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.542105913162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.544001460075378</t>
+    <t xml:space="preserve">0.559165120124817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.542105972766876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.544001400470734</t>
   </si>
   <si>
     <t xml:space="preserve">0.540210366249084</t>
@@ -1568,22 +1568,22 @@
     <t xml:space="preserve">0.523151099681854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521255671977997</t>
+    <t xml:space="preserve">0.521255612373352</t>
   </si>
   <si>
     <t xml:space="preserve">0.528837621212006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538314998149872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530733108520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583806335926056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735444366931915</t>
+    <t xml:space="preserve">0.538314938545227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530733048915863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583806276321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73544442653656</t>
   </si>
   <si>
     <t xml:space="preserve">0.73923522233963</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">0.653938949108124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633088707923889</t>
+    <t xml:space="preserve">0.633088648319244</t>
   </si>
   <si>
     <t xml:space="preserve">0.686162054538727</t>
@@ -1610,34 +1610,34 @@
     <t xml:space="preserve">0.659625351428986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669102728366852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66341632604599</t>
+    <t xml:space="preserve">0.669102668762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.663416266441345</t>
   </si>
   <si>
     <t xml:space="preserve">0.644461572170258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.650147974491119</t>
+    <t xml:space="preserve">0.650147914886475</t>
   </si>
   <si>
     <t xml:space="preserve">0.640670597553253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655834376811981</t>
+    <t xml:space="preserve">0.655834436416626</t>
   </si>
   <si>
     <t xml:space="preserve">0.634984135627747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62929767370224</t>
+    <t xml:space="preserve">0.629297733306885</t>
   </si>
   <si>
     <t xml:space="preserve">0.625506818294525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.619820415973663</t>
+    <t xml:space="preserve">0.619820356369019</t>
   </si>
   <si>
     <t xml:space="preserve">0.616029381752014</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">0.602761030197144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593283712863922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58759731054306</t>
+    <t xml:space="preserve">0.593283772468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.587597250938416</t>
   </si>
   <si>
     <t xml:space="preserve">0.608447551727295</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">0.597074627876282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.589492678642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642566025257111</t>
+    <t xml:space="preserve">0.589492738246918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642566084861755</t>
   </si>
   <si>
     <t xml:space="preserve">0.652043402194977</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">0.598970174789429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.600865662097931</t>
+    <t xml:space="preserve">0.600865602493286</t>
   </si>
   <si>
     <t xml:space="preserve">0.610342979431152</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">0.576224446296692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568642616271973</t>
+    <t xml:space="preserve">0.568642556667328</t>
   </si>
   <si>
     <t xml:space="preserve">0.561060667037964</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">0.614133954048157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674789130687714</t>
+    <t xml:space="preserve">0.674789190292358</t>
   </si>
   <si>
     <t xml:space="preserve">0.665311753749847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691848397254944</t>
+    <t xml:space="preserve">0.691848456859589</t>
   </si>
   <si>
     <t xml:space="preserve">0.699430286884308</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">0.657729923725128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705116748809814</t>
+    <t xml:space="preserve">0.705116808414459</t>
   </si>
   <si>
     <t xml:space="preserve">0.69753485918045</t>
@@ -1754,13 +1754,13 @@
     <t xml:space="preserve">0.648252487182617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799890518188477</t>
+    <t xml:space="preserve">0.799890577793121</t>
   </si>
   <si>
     <t xml:space="preserve">0.758190035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788517773151398</t>
+    <t xml:space="preserve">0.788517713546753</t>
   </si>
   <si>
     <t xml:space="preserve">0.782831192016602</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">0.752503633499146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748712778091431</t>
+    <t xml:space="preserve">0.748712718486786</t>
   </si>
   <si>
     <t xml:space="preserve">0.724071562290192</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">0.731653451919556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733548879623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725966989994049</t>
+    <t xml:space="preserve">0.733548820018768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725966930389404</t>
   </si>
   <si>
     <t xml:space="preserve">0.750608146190643</t>
@@ -1808,13 +1808,13 @@
     <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737339854240417</t>
+    <t xml:space="preserve">0.737339913845062</t>
   </si>
   <si>
     <t xml:space="preserve">0.729757905006409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722176015377045</t>
+    <t xml:space="preserve">0.722176074981689</t>
   </si>
   <si>
     <t xml:space="preserve">0.777144730091095</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">0.76008552312851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754399061203003</t>
+    <t xml:space="preserve">0.754399120807648</t>
   </si>
   <si>
     <t xml:space="preserve">0.813158869743347</t>
@@ -59276,7 +59276,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.3503125</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>50500</v>
@@ -59297,6 +59297,32 @@
         <v>919</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6508564815</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>24560</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>919</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="920">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">0.421087741851807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413796186447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.416530519723892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393653213977814</t>
+    <t xml:space="preserve">0.413796156644821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.416530460119247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393653243780136</t>
   </si>
   <si>
     <t xml:space="preserve">0.400944799184799</t>
@@ -62,91 +62,91 @@
     <t xml:space="preserve">0.394108891487122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39192146062851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396478682756424</t>
+    <t xml:space="preserve">0.391921430826187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396478712558746</t>
   </si>
   <si>
     <t xml:space="preserve">0.400033324956894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405046254396439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.397116720676422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382806986570358</t>
+    <t xml:space="preserve">0.405046314001083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3971166908741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382807016372681</t>
   </si>
   <si>
     <t xml:space="preserve">0.404681712388992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40987691283226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405502021312714</t>
+    <t xml:space="preserve">0.409876972436905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405501991510391</t>
   </si>
   <si>
     <t xml:space="preserve">0.408327490091324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406778007745743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402767688035965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403314501047134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389095991849899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37360143661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357286512851715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359929710626602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338237315416336</t>
+    <t xml:space="preserve">0.406778067350388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402767658233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403314530849457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389095962047577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373601406812668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357286542654037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359929740428925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338237345218658</t>
   </si>
   <si>
     <t xml:space="preserve">0.33240407705307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355463653802872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355372488498688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385450214147568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391010016202927</t>
+    <t xml:space="preserve">0.355463624000549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35537251830101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385450184345245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391010046005249</t>
   </si>
   <si>
     <t xml:space="preserve">0.391465753316879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375424295663834</t>
+    <t xml:space="preserve">0.375424325466156</t>
   </si>
   <si>
     <t xml:space="preserve">0.39283287525177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406504571437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409694671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393835514783859</t>
+    <t xml:space="preserve">0.406504601240158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409694641828537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393835484981537</t>
   </si>
   <si>
     <t xml:space="preserve">0.405593127012253</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.402403086423874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39656987786293</t>
+    <t xml:space="preserve">0.396569848060608</t>
   </si>
   <si>
     <t xml:space="preserve">0.392650604248047</t>
@@ -167,46 +167,46 @@
     <t xml:space="preserve">0.396387547254562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401035875082016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388366848230362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387728780508041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382169038057327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383718430995941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.390736609697342</t>
+    <t xml:space="preserve">0.401035904884338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38836681842804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387728840112686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382168978452682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383718460798264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39073657989502</t>
   </si>
   <si>
     <t xml:space="preserve">0.389916300773621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389642834663391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354187667369843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356830835342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346804887056351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368132740259171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359018296003342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355190217494965</t>
+    <t xml:space="preserve">0.389642864465714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35418763756752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356830805540085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346804946660995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368132710456848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359018325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355190247297287</t>
   </si>
   <si>
     <t xml:space="preserve">0.3724165558815</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364486962556839</t>
+    <t xml:space="preserve">0.364486932754517</t>
   </si>
   <si>
     <t xml:space="preserve">0.387364238500595</t>
@@ -224,40 +224,40 @@
     <t xml:space="preserve">0.373783707618713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373692542314529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391648024320602</t>
+    <t xml:space="preserve">0.373692572116852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39164799451828</t>
   </si>
   <si>
     <t xml:space="preserve">0.391830325126648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403679072856903</t>
+    <t xml:space="preserve">0.403679102659225</t>
   </si>
   <si>
     <t xml:space="preserve">0.395020395517349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391101181507111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.390463203191757</t>
+    <t xml:space="preserve">0.391101211309433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390463143587112</t>
   </si>
   <si>
     <t xml:space="preserve">0.379161208868027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369135320186615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377338349819183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369044184684753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360750019550323</t>
+    <t xml:space="preserve">0.36913537979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377338379621506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369044214487076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360750049352646</t>
   </si>
   <si>
     <t xml:space="preserve">0.373874872922897</t>
@@ -266,22 +266,22 @@
     <t xml:space="preserve">0.372143119573593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372507661581039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366765588521957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373510241508484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366856694221497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379890382289886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382715880870819</t>
+    <t xml:space="preserve">0.372507691383362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366765558719635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373510271310806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366856724023819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379890352487564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382715910673141</t>
   </si>
   <si>
     <t xml:space="preserve">0.368588477373123</t>
@@ -293,52 +293,52 @@
     <t xml:space="preserve">0.375150859355927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364669233560562</t>
+    <t xml:space="preserve">0.364669263362885</t>
   </si>
   <si>
     <t xml:space="preserve">0.365489542484283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367312431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370958209037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360020875930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348172068595886</t>
+    <t xml:space="preserve">0.367312490940094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370958238840103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360020935535431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348172128200531</t>
   </si>
   <si>
     <t xml:space="preserve">0.350906431674957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354552209377289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370046734809875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373328030109406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364578068256378</t>
+    <t xml:space="preserve">0.354552239179611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370046764612198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373327970504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364578098058701</t>
   </si>
   <si>
     <t xml:space="preserve">0.354461073875427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352455914020538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339969098567963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35227358341217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348354399204254</t>
+    <t xml:space="preserve">0.352455884218216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33996906876564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352273643016815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348354369401932</t>
   </si>
   <si>
     <t xml:space="preserve">0.344435155391693</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">0.337234735488892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333497792482376</t>
+    <t xml:space="preserve">0.333497822284698</t>
   </si>
   <si>
     <t xml:space="preserve">0.346166908740997</t>
@@ -359,31 +359,31 @@
     <t xml:space="preserve">0.341791957616806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330581218004227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326206237077713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324474543333054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327755749225616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329852044582367</t>
+    <t xml:space="preserve">0.330581188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326206266880035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324474513530731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327755719423294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329852014780045</t>
   </si>
   <si>
     <t xml:space="preserve">0.341245055198669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329487472772598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327664583921432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325294822454453</t>
+    <t xml:space="preserve">0.329487442970276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32766455411911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325294852256775</t>
   </si>
   <si>
     <t xml:space="preserve">0.326115131378174</t>
@@ -392,70 +392,70 @@
     <t xml:space="preserve">0.333588987588882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340971648693085</t>
+    <t xml:space="preserve">0.340971678495407</t>
   </si>
   <si>
     <t xml:space="preserve">0.337599337100983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340515941381454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340880542993546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341518551111221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334865003824234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336323320865631</t>
+    <t xml:space="preserve">0.340515971183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340880572795868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341518580913544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334864974021912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336323291063309</t>
   </si>
   <si>
     <t xml:space="preserve">0.335320740938187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33905765414238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32957860827446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331766068935394</t>
+    <t xml:space="preserve">0.339057624340057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329578638076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331766039133072</t>
   </si>
   <si>
     <t xml:space="preserve">0.332312941551208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325385957956314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328211426734924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332677513360977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328120291233063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319917321205139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32720884680748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334226995706558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323016196489334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.320828706026077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36175262928009</t>
+    <t xml:space="preserve">0.325385928153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328211456537247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3326775431633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328120321035385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319917291402817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327208876609802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334227025508881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323016226291656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3208287358284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361752659082413</t>
   </si>
   <si>
     <t xml:space="preserve">0.335867553949356</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">0.333680123090744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330945730209351</t>
+    <t xml:space="preserve">0.330945789813995</t>
   </si>
   <si>
     <t xml:space="preserve">0.335229575634003</t>
@@ -476,37 +476,37 @@
     <t xml:space="preserve">0.349083513021469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338875383138657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342885732650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333771288394928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344526320695877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337690472602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336687862873077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249734640121</t>
+    <t xml:space="preserve">0.338875353336334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342885702848434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333771228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344526290893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337690502405167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3366878926754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249764442444</t>
   </si>
   <si>
     <t xml:space="preserve">0.351088732481003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349265843629837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340151369571686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335594177246094</t>
+    <t xml:space="preserve">0.349265784025192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340151399374008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335594117641449</t>
   </si>
   <si>
     <t xml:space="preserve">0.342976868152618</t>
@@ -515,37 +515,37 @@
     <t xml:space="preserve">0.34972158074379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34543776512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3535495698452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354916781187057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345073193311691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344982028007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328940600156784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330854684114456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324109882116318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331310331821442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312352329492569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316180348396301</t>
+    <t xml:space="preserve">0.345437735319138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353549629449844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354916840791702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345073163509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344982087612152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328940629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330854624509811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324109941720963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331310391426086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312352299690247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316180288791656</t>
   </si>
   <si>
     <t xml:space="preserve">0.317091822624207</t>
@@ -554,34 +554,34 @@
     <t xml:space="preserve">0.312625706195831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332586377859116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33714359998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052494287491</t>
+    <t xml:space="preserve">0.332586407661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337143540382385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052464485168</t>
   </si>
   <si>
     <t xml:space="preserve">0.338966488838196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338146179914474</t>
+    <t xml:space="preserve">0.338146150112152</t>
   </si>
   <si>
     <t xml:space="preserve">0.350724130868912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359109431505203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341336250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345346599817276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343614846467972</t>
+    <t xml:space="preserve">0.359109401702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341336280107498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345346629619598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343614876270294</t>
   </si>
   <si>
     <t xml:space="preserve">0.346258074045181</t>
@@ -590,19 +590,19 @@
     <t xml:space="preserve">0.347260653972626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353184998035431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367358446121</t>
+    <t xml:space="preserve">0.353185027837753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367328643799</t>
   </si>
   <si>
     <t xml:space="preserve">0.362755209207535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381804406642914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38052836060524</t>
+    <t xml:space="preserve">0.381804436445236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380528390407562</t>
   </si>
   <si>
     <t xml:space="preserve">0.389825165271759</t>
@@ -611,19 +611,19 @@
     <t xml:space="preserve">0.380892992019653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3694087266922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362390667200089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362937539815903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479192972183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361934959888458</t>
+    <t xml:space="preserve">0.369408756494522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362390637397766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36293751001358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479222774506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361934900283813</t>
   </si>
   <si>
     <t xml:space="preserve">0.367585867643356</t>
@@ -635,16 +635,16 @@
     <t xml:space="preserve">0.370411366224289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363484382629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358744889497757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357195407152176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358198016881943</t>
+    <t xml:space="preserve">0.363484352827072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358744859695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357195377349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35819798707962</t>
   </si>
   <si>
     <t xml:space="preserve">0.363119810819626</t>
@@ -653,13 +653,13 @@
     <t xml:space="preserve">0.347625195980072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353276193141937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093922138214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349994987249374</t>
+    <t xml:space="preserve">0.35327622294426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093951940536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349995017051697</t>
   </si>
   <si>
     <t xml:space="preserve">0.34379717707634</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">0.343250274658203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346075743436813</t>
+    <t xml:space="preserve">0.346075803041458</t>
   </si>
   <si>
     <t xml:space="preserve">0.344617456197739</t>
@@ -677,19 +677,19 @@
     <t xml:space="preserve">0.350268423557281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344890862703323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350359559059143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349357008934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358380287885666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35345846414566</t>
+    <t xml:space="preserve">0.344890892505646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350359588861465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349356979131699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358380317687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353458493947983</t>
   </si>
   <si>
     <t xml:space="preserve">0.357104271650314</t>
@@ -698,37 +698,37 @@
     <t xml:space="preserve">0.359747439622879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359565138816833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299501895905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356375068426132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356192827224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374330580234528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36886191368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37414824962616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525810480118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575547933578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820485830307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356557428836823</t>
+    <t xml:space="preserve">0.359565168619156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299472093582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356375128030777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356192797422409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374330550432205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368861943483353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374148279428482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525780677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575518131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820456027985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3565573990345</t>
   </si>
   <si>
     <t xml:space="preserve">0.361570328474045</t>
@@ -737,43 +737,43 @@
     <t xml:space="preserve">0.360932320356369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362572908401489</t>
+    <t xml:space="preserve">0.362572938203812</t>
   </si>
   <si>
     <t xml:space="preserve">0.355919390916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358471423387527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368315070867538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36986455321312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374604016542435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366674453020096</t>
+    <t xml:space="preserve">0.35847145318985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368315011262894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369864523410797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374604046344757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366674423217773</t>
   </si>
   <si>
     <t xml:space="preserve">0.369226485490799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372781127691269</t>
+    <t xml:space="preserve">0.372781097888947</t>
   </si>
   <si>
     <t xml:space="preserve">0.370867043733597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368041604757309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387273102998734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382533580064774</t>
+    <t xml:space="preserve">0.368041634559631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387273073196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382533609867096</t>
   </si>
   <si>
     <t xml:space="preserve">0.378340929746628</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">0.384174197912216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380984127521515</t>
+    <t xml:space="preserve">0.380984157323837</t>
   </si>
   <si>
     <t xml:space="preserve">0.382260173559189</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">0.386817365884781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378978967666626</t>
+    <t xml:space="preserve">0.378978937864304</t>
   </si>
   <si>
     <t xml:space="preserve">0.378523200750351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371505111455917</t>
+    <t xml:space="preserve">0.371505051851273</t>
   </si>
   <si>
     <t xml:space="preserve">0.371869653463364</t>
@@ -815,34 +815,34 @@
     <t xml:space="preserve">0.365398436784744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365763008594513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360294342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364304661750793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385477542877</t>
+    <t xml:space="preserve">0.365763038396835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360294312238693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364304631948471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360385447740555</t>
   </si>
   <si>
     <t xml:space="preserve">0.363848954439163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356466233730316</t>
+    <t xml:space="preserve">0.356466263532639</t>
   </si>
   <si>
     <t xml:space="preserve">0.35582822561264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357377737760544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468843460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361296892166138</t>
+    <t xml:space="preserve">0.357377707958221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468873262405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36129692196846</t>
   </si>
   <si>
     <t xml:space="preserve">0.366218715906143</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">0.358653724193573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364851534366608</t>
+    <t xml:space="preserve">0.364851504564285</t>
   </si>
   <si>
     <t xml:space="preserve">0.355645954608917</t>
@@ -863,49 +863,49 @@
     <t xml:space="preserve">0.362117230892181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366036415100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363757848739624</t>
+    <t xml:space="preserve">0.36603644490242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363757818937302</t>
   </si>
   <si>
     <t xml:space="preserve">0.356922000646591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361661523580551</t>
+    <t xml:space="preserve">0.361661493778229</t>
   </si>
   <si>
     <t xml:space="preserve">0.355554819107056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35892716050148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114621162415</t>
+    <t xml:space="preserve">0.358927130699158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114650964737</t>
   </si>
   <si>
     <t xml:space="preserve">0.358289122581482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360112011432648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945249795914</t>
+    <t xml:space="preserve">0.360111981630325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945279598236</t>
   </si>
   <si>
     <t xml:space="preserve">0.367950469255447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364395827054977</t>
+    <t xml:space="preserve">0.3643958568573</t>
   </si>
   <si>
     <t xml:space="preserve">0.359291732311249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365125000476837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377247154712677</t>
+    <t xml:space="preserve">0.365124970674515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377247184514999</t>
   </si>
   <si>
     <t xml:space="preserve">0.378887802362442</t>
@@ -917,31 +917,31 @@
     <t xml:space="preserve">0.379799246788025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388731390237808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723680257797</t>
+    <t xml:space="preserve">0.388731360435486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723650455475</t>
   </si>
   <si>
     <t xml:space="preserve">0.383627325296402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381075263023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413916349411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380801826715469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37761178612709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38171324133873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381531000137329</t>
+    <t xml:space="preserve">0.381075233221054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413946151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380801856517792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377611756324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381713271141052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381531029939651</t>
   </si>
   <si>
     <t xml:space="preserve">0.382898181676865</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">0.373965978622437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375515431165695</t>
+    <t xml:space="preserve">0.375515460968018</t>
   </si>
   <si>
     <t xml:space="preserve">0.366309821605682</t>
@@ -962,19 +962,19 @@
     <t xml:space="preserve">0.359474003314972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358015686273575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362208366394043</t>
+    <t xml:space="preserve">0.358015716075897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362208336591721</t>
   </si>
   <si>
     <t xml:space="preserve">0.348810106515884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357924550771713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357742249965668</t>
+    <t xml:space="preserve">0.357924520969391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357742309570312</t>
   </si>
   <si>
     <t xml:space="preserve">0.35701310634613</t>
@@ -986,40 +986,40 @@
     <t xml:space="preserve">0.36412239074707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363666653633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354734510183334</t>
+    <t xml:space="preserve">0.36366668343544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354734480381012</t>
   </si>
   <si>
     <t xml:space="preserve">0.355737090110779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365671873092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361843794584274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366401016712189</t>
+    <t xml:space="preserve">0.365671813488007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361843824386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366400986909866</t>
   </si>
   <si>
     <t xml:space="preserve">0.35181787610054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353640764951706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352729320526123</t>
+    <t xml:space="preserve">0.353640794754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352729290723801</t>
   </si>
   <si>
     <t xml:space="preserve">0.335411876440048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329031735658646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329943180084229</t>
+    <t xml:space="preserve">0.329031765460968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329943209886551</t>
   </si>
   <si>
     <t xml:space="preserve">0.322651654481888</t>
@@ -1028,67 +1028,67 @@
     <t xml:space="preserve">0.323563039302826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32174015045166</t>
+    <t xml:space="preserve">0.321740180253983</t>
   </si>
   <si>
     <t xml:space="preserve">0.334500402212143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342703372240067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319005817174911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182958126068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271513700485</t>
+    <t xml:space="preserve">0.342703431844711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319005846977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182928323746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271543502808</t>
   </si>
   <si>
     <t xml:space="preserve">0.326297402381897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318094432353973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310802817344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301688373088837</t>
+    <t xml:space="preserve">0.318094372749329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310802787542343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301688402891159</t>
   </si>
   <si>
     <t xml:space="preserve">0.302599847316742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309891372919083</t>
+    <t xml:space="preserve">0.309891402721405</t>
   </si>
   <si>
     <t xml:space="preserve">0.308068513870239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314448595046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311714261770248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304422736167908</t>
+    <t xml:space="preserve">0.314448624849319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311714291572571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304422706365585</t>
   </si>
   <si>
     <t xml:space="preserve">0.305334150791168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306245565414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298954039812088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865514039993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776928663254</t>
+    <t xml:space="preserve">0.306245625019073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29895406961441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865454435349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776988267899</t>
   </si>
   <si>
     <t xml:space="preserve">0.303511261940002</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">0.315360069274902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348250925540924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351975560188293</t>
+    <t xml:space="preserve">0.348250955343246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351975530385971</t>
   </si>
   <si>
     <t xml:space="preserve">0.342664003372192</t>
@@ -1118,16 +1118,16 @@
     <t xml:space="preserve">0.335214793682098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338008284568787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33614593744278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347319781780243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354768991470337</t>
+    <t xml:space="preserve">0.338008254766464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336145967245102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347319751977921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354768961668015</t>
   </si>
   <si>
     <t xml:space="preserve">0.349182069301605</t>
@@ -1136,52 +1136,52 @@
     <t xml:space="preserve">0.346388608217239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341732829809189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352906703948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345457434654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343595147132874</t>
+    <t xml:space="preserve">0.341732889413834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352906674146652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345457464456558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343595176935196</t>
   </si>
   <si>
     <t xml:space="preserve">0.337077081203461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34080171585083</t>
+    <t xml:space="preserve">0.340801686048508</t>
   </si>
   <si>
     <t xml:space="preserve">0.339870572090149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338939398527145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353837847709656</t>
+    <t xml:space="preserve">0.338939368724823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353837817907333</t>
   </si>
   <si>
     <t xml:space="preserve">0.372460871934891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358493596315384</t>
+    <t xml:space="preserve">0.358493566513062</t>
   </si>
   <si>
     <t xml:space="preserve">0.363149344921112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362218171358109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631278991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361287087202072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3659428358078</t>
+    <t xml:space="preserve">0.362218230962753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631249189377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36128705739975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365942806005478</t>
   </si>
   <si>
     <t xml:space="preserve">0.367805153131485</t>
@@ -1193,25 +1193,25 @@
     <t xml:space="preserve">0.366873949766159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371529698371887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385497033596039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3780477643013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379910051822662</t>
+    <t xml:space="preserve">0.37152972817421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385497003793716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378047794103622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379910081624985</t>
   </si>
   <si>
     <t xml:space="preserve">0.388290464878082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415293902158737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404120028018951</t>
+    <t xml:space="preserve">0.415293872356415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404120057821274</t>
   </si>
   <si>
     <t xml:space="preserve">0.399464279413223</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">0.407844632863998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414362728595734</t>
+    <t xml:space="preserve">0.414362698793411</t>
   </si>
   <si>
     <t xml:space="preserve">0.395739704370499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400395452976227</t>
+    <t xml:space="preserve">0.400395423173904</t>
   </si>
   <si>
     <t xml:space="preserve">0.405051201581955</t>
@@ -1235,19 +1235,19 @@
     <t xml:space="preserve">0.405982345342636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409706950187683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391083925962448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40318888425827</t>
+    <t xml:space="preserve">0.409706979990005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391083896160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403188914060593</t>
   </si>
   <si>
     <t xml:space="preserve">0.396670818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401326596736908</t>
+    <t xml:space="preserve">0.401326566934586</t>
   </si>
   <si>
     <t xml:space="preserve">0.413431584835052</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422743082046509</t>
+    <t xml:space="preserve">0.422743111848831</t>
   </si>
   <si>
     <t xml:space="preserve">0.424605369567871</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">0.474887579679489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458126902580261</t>
+    <t xml:space="preserve">0.458126872777939</t>
   </si>
   <si>
     <t xml:space="preserve">0.452539950609207</t>
@@ -1280,19 +1280,19 @@
     <t xml:space="preserve">0.454402238130569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450677633285522</t>
+    <t xml:space="preserve">0.450677692890167</t>
   </si>
   <si>
     <t xml:space="preserve">0.446953028440475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446021884679794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.453471124172211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456264585256577</t>
+    <t xml:space="preserve">0.446021914482117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.453471094369888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456264555454254</t>
   </si>
   <si>
     <t xml:space="preserve">0.471162974834442</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">0.445090740919113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439503818750381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451608806848526</t>
+    <t xml:space="preserve">0.439503848552704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451608836650848</t>
   </si>
   <si>
     <t xml:space="preserve">0.447884202003479</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">0.448815375566483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440434992313385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.504684507846832</t>
+    <t xml:space="preserve">0.44043493270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.504684448242188</t>
   </si>
   <si>
     <t xml:space="preserve">0.653668820858002</t>
@@ -1337,19 +1337,19 @@
     <t xml:space="preserve">0.744921743869781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.672291874885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657393336296082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.687190294265747</t>
+    <t xml:space="preserve">0.672291934490204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657393395900726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.687190353870392</t>
   </si>
   <si>
     <t xml:space="preserve">0.666704952716827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.638770401477814</t>
+    <t xml:space="preserve">0.638770341873169</t>
   </si>
   <si>
     <t xml:space="preserve">0.6108358502388</t>
@@ -1364,52 +1364,52 @@
     <t xml:space="preserve">0.608973503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6350457072258</t>
+    <t xml:space="preserve">0.635045766830444</t>
   </si>
   <si>
     <t xml:space="preserve">0.63132119178772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.629458904266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633183479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640632688999176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642494976520538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.644357323646545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62759655714035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601524353027344</t>
+    <t xml:space="preserve">0.629458844661713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633183419704437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640632748603821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642495036125183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.644357264041901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62759667634964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601524293422699</t>
   </si>
   <si>
     <t xml:space="preserve">0.577314376831055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525169849395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.515858292579651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.527032196521759</t>
+    <t xml:space="preserve">0.525169789791107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.515858352184296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.527032136917114</t>
   </si>
   <si>
     <t xml:space="preserve">0.502822160720825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510603904724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499097615480423</t>
+    <t xml:space="preserve">0.493510663509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499097555875778</t>
   </si>
   <si>
     <t xml:space="preserve">0.486061424016953</t>
@@ -1418,13 +1418,13 @@
     <t xml:space="preserve">0.42833000421524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437641501426697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.463713765144348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435779213905334</t>
+    <t xml:space="preserve">0.437641531229019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.463713794946671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435779243707657</t>
   </si>
   <si>
     <t xml:space="preserve">0.442297279834747</t>
@@ -1433,16 +1433,16 @@
     <t xml:space="preserve">0.491648346185684</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500959873199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513996064662933</t>
+    <t xml:space="preserve">0.500959932804108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513995945453644</t>
   </si>
   <si>
     <t xml:space="preserve">0.510271370410919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508409023284912</t>
+    <t xml:space="preserve">0.508409142494202</t>
   </si>
   <si>
     <t xml:space="preserve">0.512133717536926</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">0.543792843818665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540068209171295</t>
+    <t xml:space="preserve">0.54006826877594</t>
   </si>
   <si>
     <t xml:space="preserve">0.571727454662323</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">0.582901239395142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566140413284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.558691382408142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538205921649933</t>
+    <t xml:space="preserve">0.566140532493591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.558691322803497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538206040859222</t>
   </si>
   <si>
     <t xml:space="preserve">0.530756711959839</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">0.521445214748383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517720639705658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50654673576355</t>
+    <t xml:space="preserve">0.517720520496368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546854972839</t>
   </si>
   <si>
     <t xml:space="preserve">0.536343634128571</t>
@@ -1496,19 +1496,19 @@
     <t xml:space="preserve">0.564278244972229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.575451970100403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579176664352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592212736606598</t>
+    <t xml:space="preserve">0.575452029705048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579176604747772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592212796211243</t>
   </si>
   <si>
     <t xml:space="preserve">0.551242113113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557269692420959</t>
+    <t xml:space="preserve">0.557269752025604</t>
   </si>
   <si>
     <t xml:space="preserve">0.566747069358826</t>
@@ -1517,10 +1517,10 @@
     <t xml:space="preserve">0.549687802791595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.562956035137177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551583290100098</t>
+    <t xml:space="preserve">0.562956094741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551583230495453</t>
   </si>
   <si>
     <t xml:space="preserve">0.553478717803955</t>
@@ -1529,16 +1529,16 @@
     <t xml:space="preserve">0.559165120124817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542105972766876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.544001340866089</t>
+    <t xml:space="preserve">0.542105913162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.544001400470734</t>
   </si>
   <si>
     <t xml:space="preserve">0.540210366249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.547792315483093</t>
+    <t xml:space="preserve">0.547792375087738</t>
   </si>
   <si>
     <t xml:space="preserve">0.545896828174591</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">0.534523963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53641951084137</t>
+    <t xml:space="preserve">0.536419451236725</t>
   </si>
   <si>
     <t xml:space="preserve">0.525046646595001</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">0.519360184669495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515569269657135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513673782348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.523151159286499</t>
+    <t xml:space="preserve">0.51556932926178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513673722743988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.523151099681854</t>
   </si>
   <si>
     <t xml:space="preserve">0.521255671977997</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">0.538314998149872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530732989311218</t>
+    <t xml:space="preserve">0.530733048915863</t>
   </si>
   <si>
     <t xml:space="preserve">0.583806335926056</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">0.693743884563446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653938889503479</t>
+    <t xml:space="preserve">0.653938949108124</t>
   </si>
   <si>
     <t xml:space="preserve">0.633088707923889</t>
@@ -1601,13 +1601,13 @@
     <t xml:space="preserve">0.676684558391571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.682371020317078</t>
+    <t xml:space="preserve">0.682371079921722</t>
   </si>
   <si>
     <t xml:space="preserve">0.659625351428986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669102609157562</t>
+    <t xml:space="preserve">0.669102668762207</t>
   </si>
   <si>
     <t xml:space="preserve">0.663416266441345</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">0.640670597553253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.655834436416626</t>
+    <t xml:space="preserve">0.655834376811981</t>
   </si>
   <si>
     <t xml:space="preserve">0.634984195232391</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">0.616029381752014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.604656517505646</t>
+    <t xml:space="preserve">0.604656577110291</t>
   </si>
   <si>
     <t xml:space="preserve">0.602761089801788</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">0.60844749212265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.597074687480927</t>
+    <t xml:space="preserve">0.597074627876282</t>
   </si>
   <si>
     <t xml:space="preserve">0.589492738246918</t>
@@ -1679,13 +1679,13 @@
     <t xml:space="preserve">0.600865662097931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610343039035797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555374264717102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564851641654968</t>
+    <t xml:space="preserve">0.610342979431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555374205112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564851582050323</t>
   </si>
   <si>
     <t xml:space="preserve">0.53262847661972</t>
@@ -1694,28 +1694,28 @@
     <t xml:space="preserve">0.578119933605194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576224386692047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568642616271973</t>
+    <t xml:space="preserve">0.576224446296692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568642556667328</t>
   </si>
   <si>
     <t xml:space="preserve">0.561060667037964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572433412075043</t>
+    <t xml:space="preserve">0.572433471679688</t>
   </si>
   <si>
     <t xml:space="preserve">0.59138822555542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614133954048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.674789190292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665311813354492</t>
+    <t xml:space="preserve">0.614134013652802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.674789130687714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665311753749847</t>
   </si>
   <si>
     <t xml:space="preserve">0.691848456859589</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">0.672893643379211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.66720724105835</t>
+    <t xml:space="preserve">0.667207300662994</t>
   </si>
   <si>
     <t xml:space="preserve">0.657729923725128</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">0.69753485918045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.688057541847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68047559261322</t>
+    <t xml:space="preserve">0.688057482242584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680475652217865</t>
   </si>
   <si>
     <t xml:space="preserve">0.648252487182617</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">0.775249361991882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761981070041656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756294548511505</t>
+    <t xml:space="preserve">0.761981010437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75629460811615</t>
   </si>
   <si>
     <t xml:space="preserve">0.75250369310379</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">0.748712778091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724071502685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727862417697906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.731653451919556</t>
+    <t xml:space="preserve">0.724071562290192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727862477302551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.731653392314911</t>
   </si>
   <si>
     <t xml:space="preserve">0.733548820018768</t>
@@ -1796,10 +1796,7 @@
     <t xml:space="preserve">0.750608146190643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744921803474426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743026196956635</t>
+    <t xml:space="preserve">0.743026256561279</t>
   </si>
   <si>
     <t xml:space="preserve">0.741130769252777</t>
@@ -1808,10 +1805,10 @@
     <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737339854240417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.729757964611053</t>
+    <t xml:space="preserve">0.737339913845062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.729757905006409</t>
   </si>
   <si>
     <t xml:space="preserve">0.722176015377045</t>
@@ -1823,7 +1820,7 @@
     <t xml:space="preserve">0.769562900066376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76008552312851</t>
+    <t xml:space="preserve">0.760085463523865</t>
   </si>
   <si>
     <t xml:space="preserve">0.754399061203003</t>
@@ -37272,7 +37269,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1314" t="s">
-        <v>594</v>
+        <v>440</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37324,7 +37321,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1316" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37350,7 +37347,7 @@
         <v>0.782000005245209</v>
       </c>
       <c r="G1317" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37428,7 +37425,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1320" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37454,7 +37451,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1321" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37532,7 +37529,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1324" t="s">
-        <v>594</v>
+        <v>440</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37558,7 +37555,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1325" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37584,7 +37581,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1326" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37740,7 +37737,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1332" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -37766,7 +37763,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1333" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -37844,7 +37841,7 @@
         <v>0.782000005245209</v>
       </c>
       <c r="G1336" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -37870,7 +37867,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1337" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -37896,7 +37893,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1338" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -37948,7 +37945,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1340" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38078,7 +38075,7 @@
         <v>0.762000024318695</v>
       </c>
       <c r="G1345" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38130,7 +38127,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1347" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38156,7 +38153,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1348" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38182,7 +38179,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1349" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38234,7 +38231,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1351" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38286,7 +38283,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1353" t="s">
-        <v>594</v>
+        <v>440</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38338,7 +38335,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1355" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38364,7 +38361,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1356" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38416,7 +38413,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1358" t="s">
-        <v>594</v>
+        <v>440</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38546,7 +38543,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1363" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38572,7 +38569,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1364" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38598,7 +38595,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1365" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38624,7 +38621,7 @@
         <v>0.796000003814697</v>
       </c>
       <c r="G1366" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38650,7 +38647,7 @@
         <v>0.796000003814697</v>
       </c>
       <c r="G1367" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38702,7 +38699,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1369" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38988,7 +38985,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1380" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39014,7 +39011,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1381" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39066,7 +39063,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1383" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39092,7 +39089,7 @@
         <v>0.861999988555908</v>
       </c>
       <c r="G1384" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39118,7 +39115,7 @@
         <v>0.853999972343445</v>
       </c>
       <c r="G1385" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39144,7 +39141,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G1386" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39170,7 +39167,7 @@
         <v>0.824000000953674</v>
       </c>
       <c r="G1387" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39196,7 +39193,7 @@
         <v>0.828000009059906</v>
       </c>
       <c r="G1388" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39222,7 +39219,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1389" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39248,7 +39245,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1390" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39274,7 +39271,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1391" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39300,7 +39297,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1392" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39326,7 +39323,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1393" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39352,7 +39349,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1394" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39378,7 +39375,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1395" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39404,7 +39401,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1396" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39430,7 +39427,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1397" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39456,7 +39453,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1398" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39482,7 +39479,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1399" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39508,7 +39505,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1400" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39534,7 +39531,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1401" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39560,7 +39557,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1402" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39586,7 +39583,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1403" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39612,7 +39609,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1404" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39638,7 +39635,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1405" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39664,7 +39661,7 @@
         <v>0.754000008106232</v>
       </c>
       <c r="G1406" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39690,7 +39687,7 @@
         <v>0.748000025749207</v>
       </c>
       <c r="G1407" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39716,7 +39713,7 @@
         <v>0.745999991893768</v>
       </c>
       <c r="G1408" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39742,7 +39739,7 @@
         <v>0.726000010967255</v>
       </c>
       <c r="G1409" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39768,7 +39765,7 @@
         <v>0.71399998664856</v>
       </c>
       <c r="G1410" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39794,7 +39791,7 @@
         <v>0.722000002861023</v>
       </c>
       <c r="G1411" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39820,7 +39817,7 @@
         <v>0.730000019073486</v>
       </c>
       <c r="G1412" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39846,7 +39843,7 @@
         <v>0.763999998569489</v>
       </c>
       <c r="G1413" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39872,7 +39869,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1414" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39898,7 +39895,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1415" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39924,7 +39921,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1416" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39950,7 +39947,7 @@
         <v>0.805999994277954</v>
       </c>
       <c r="G1417" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39976,7 +39973,7 @@
         <v>0.794000029563904</v>
       </c>
       <c r="G1418" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40002,7 +39999,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1419" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40028,7 +40025,7 @@
         <v>0.783999979496002</v>
       </c>
       <c r="G1420" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40054,7 +40051,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1421" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40080,7 +40077,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1422" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40106,7 +40103,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1423" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40132,7 +40129,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G1424" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40158,7 +40155,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1425" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40184,7 +40181,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G1426" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40210,7 +40207,7 @@
         <v>0.814000010490417</v>
       </c>
       <c r="G1427" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40236,7 +40233,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G1428" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40262,7 +40259,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1429" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40288,7 +40285,7 @@
         <v>0.811999976634979</v>
       </c>
       <c r="G1430" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40314,7 +40311,7 @@
         <v>0.818000018596649</v>
       </c>
       <c r="G1431" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40340,7 +40337,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1432" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40366,7 +40363,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1433" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40392,7 +40389,7 @@
         <v>0.814000010490417</v>
       </c>
       <c r="G1434" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40418,7 +40415,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1435" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40444,7 +40441,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1436" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40470,7 +40467,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1437" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40496,7 +40493,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1438" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40522,7 +40519,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1439" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40548,7 +40545,7 @@
         <v>0.804000020027161</v>
       </c>
       <c r="G1440" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40574,7 +40571,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1441" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40600,7 +40597,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G1442" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40626,7 +40623,7 @@
         <v>0.801999986171722</v>
       </c>
       <c r="G1443" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40652,7 +40649,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1444" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40678,7 +40675,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1445" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40704,7 +40701,7 @@
         <v>0.808000028133392</v>
       </c>
       <c r="G1446" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40730,7 +40727,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1447" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40756,7 +40753,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1448" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40782,7 +40779,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1449" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40808,7 +40805,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1450" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40834,7 +40831,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1451" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40860,7 +40857,7 @@
         <v>0.796000003814697</v>
       </c>
       <c r="G1452" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40886,7 +40883,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1453" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40912,7 +40909,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1454" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -40938,7 +40935,7 @@
         <v>0.791999995708466</v>
       </c>
       <c r="G1455" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40964,7 +40961,7 @@
         <v>0.805999994277954</v>
       </c>
       <c r="G1456" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40990,7 +40987,7 @@
         <v>0.797999978065491</v>
       </c>
       <c r="G1457" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41016,7 +41013,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1458" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41042,7 +41039,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1459" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41068,7 +41065,7 @@
         <v>0.78600001335144</v>
       </c>
       <c r="G1460" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41094,7 +41091,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G1461" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41120,7 +41117,7 @@
         <v>0.787999987602234</v>
       </c>
       <c r="G1462" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41146,7 +41143,7 @@
         <v>0.773999989032745</v>
       </c>
       <c r="G1463" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41172,7 +41169,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1464" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41198,7 +41195,7 @@
         <v>0.782000005245209</v>
       </c>
       <c r="G1465" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41224,7 +41221,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1466" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41250,7 +41247,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1467" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41276,7 +41273,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1468" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41302,7 +41299,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1469" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41328,7 +41325,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1470" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41354,7 +41351,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1471" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41380,7 +41377,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1472" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41406,7 +41403,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1473" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41432,7 +41429,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1474" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41458,7 +41455,7 @@
         <v>0.769999980926514</v>
       </c>
       <c r="G1475" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41484,7 +41481,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1476" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41510,7 +41507,7 @@
         <v>0.763999998569489</v>
       </c>
       <c r="G1477" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41536,7 +41533,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1478" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41562,7 +41559,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1479" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41588,7 +41585,7 @@
         <v>0.76800000667572</v>
       </c>
       <c r="G1480" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41614,7 +41611,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1481" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41640,7 +41637,7 @@
         <v>0.765999972820282</v>
       </c>
       <c r="G1482" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41666,7 +41663,7 @@
         <v>0.75</v>
       </c>
       <c r="G1483" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41692,7 +41689,7 @@
         <v>0.745999991893768</v>
       </c>
       <c r="G1484" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41718,7 +41715,7 @@
         <v>0.741999983787537</v>
       </c>
       <c r="G1485" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41744,7 +41741,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1486" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41770,7 +41767,7 @@
         <v>0.777999997138977</v>
       </c>
       <c r="G1487" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41796,7 +41793,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G1488" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41822,7 +41819,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1489" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -41848,7 +41845,7 @@
         <v>0.772000014781952</v>
       </c>
       <c r="G1490" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -41874,7 +41871,7 @@
         <v>0.751999974250793</v>
       </c>
       <c r="G1491" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41900,7 +41897,7 @@
         <v>0.755999982357025</v>
       </c>
       <c r="G1492" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41926,7 +41923,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G1493" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41952,7 +41949,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G1494" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41978,7 +41975,7 @@
         <v>0.824000000953674</v>
       </c>
       <c r="G1495" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42004,7 +42001,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G1496" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42030,7 +42027,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1497" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42056,7 +42053,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G1498" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42082,7 +42079,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1499" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42108,7 +42105,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G1500" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42134,7 +42131,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1501" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42160,7 +42157,7 @@
         <v>0.935999989509583</v>
       </c>
       <c r="G1502" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42186,7 +42183,7 @@
         <v>0.882000029087067</v>
       </c>
       <c r="G1503" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42212,7 +42209,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1504" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42238,7 +42235,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1505" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42264,7 +42261,7 @@
         <v>0.916000008583069</v>
       </c>
       <c r="G1506" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42290,7 +42287,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1507" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42316,7 +42313,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1508" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42342,7 +42339,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1509" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42368,7 +42365,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1510" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42394,7 +42391,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1511" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42420,7 +42417,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1512" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42446,7 +42443,7 @@
         <v>1.06500005722046</v>
       </c>
       <c r="G1513" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42472,7 +42469,7 @@
         <v>1.13499999046326</v>
       </c>
       <c r="G1514" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42498,7 +42495,7 @@
         <v>1.11000001430511</v>
       </c>
       <c r="G1515" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42524,7 +42521,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1516" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42550,7 +42547,7 @@
         <v>1.25</v>
       </c>
       <c r="G1517" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42576,7 +42573,7 @@
         <v>1.26499998569489</v>
       </c>
       <c r="G1518" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42602,7 +42599,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1519" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42628,7 +42625,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1520" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42654,7 +42651,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1521" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42680,7 +42677,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1522" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42706,7 +42703,7 @@
         <v>1.17999994754791</v>
       </c>
       <c r="G1523" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42732,7 +42729,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G1524" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42758,7 +42755,7 @@
         <v>1.17499995231628</v>
       </c>
       <c r="G1525" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42784,7 +42781,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1526" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42810,7 +42807,7 @@
         <v>1.20000004768372</v>
       </c>
       <c r="G1527" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42836,7 +42833,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1528" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42862,7 +42859,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1529" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42888,7 +42885,7 @@
         <v>1.23500001430511</v>
       </c>
       <c r="G1530" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42914,7 +42911,7 @@
         <v>1.19000005722046</v>
       </c>
       <c r="G1531" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42940,7 +42937,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1532" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42966,7 +42963,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1533" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42992,7 +42989,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1534" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43018,7 +43015,7 @@
         <v>1.125</v>
       </c>
       <c r="G1535" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43044,7 +43041,7 @@
         <v>1.10000002384186</v>
       </c>
       <c r="G1536" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43070,7 +43067,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G1537" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43096,7 +43093,7 @@
         <v>1.16499996185303</v>
       </c>
       <c r="G1538" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43122,7 +43119,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G1539" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43148,7 +43145,7 @@
         <v>1.15499997138977</v>
       </c>
       <c r="G1540" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43174,7 +43171,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1541" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43200,7 +43197,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1542" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43226,7 +43223,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1543" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43252,7 +43249,7 @@
         <v>1.1599999666214</v>
       </c>
       <c r="G1544" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43278,7 +43275,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1545" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43304,7 +43301,7 @@
         <v>1.13999998569489</v>
       </c>
       <c r="G1546" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43330,7 +43327,7 @@
         <v>1.16999995708466</v>
       </c>
       <c r="G1547" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43356,7 +43353,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1548" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43382,7 +43379,7 @@
         <v>1.18499994277954</v>
       </c>
       <c r="G1549" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43408,7 +43405,7 @@
         <v>1.18499994277954</v>
       </c>
       <c r="G1550" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43434,7 +43431,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1551" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43460,7 +43457,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1552" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43486,7 +43483,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1553" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43512,7 +43509,7 @@
         <v>1.12999999523163</v>
       </c>
       <c r="G1554" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43538,7 +43535,7 @@
         <v>1.16499996185303</v>
       </c>
       <c r="G1555" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43564,7 +43561,7 @@
         <v>1.14499998092651</v>
       </c>
       <c r="G1556" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43590,7 +43587,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1557" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43616,7 +43613,7 @@
         <v>1.14999997615814</v>
       </c>
       <c r="G1558" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43642,7 +43639,7 @@
         <v>1.11500000953674</v>
       </c>
       <c r="G1559" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43668,7 +43665,7 @@
         <v>1.0900000333786</v>
       </c>
       <c r="G1560" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43694,7 +43691,7 @@
         <v>1.08000004291534</v>
       </c>
       <c r="G1561" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43720,7 +43717,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1562" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43746,7 +43743,7 @@
         <v>1.07000005245209</v>
       </c>
       <c r="G1563" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43772,7 +43769,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1564" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43798,7 +43795,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1565" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43824,7 +43821,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1566" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43850,7 +43847,7 @@
         <v>1.04499995708466</v>
       </c>
       <c r="G1567" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43876,7 +43873,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1568" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -43902,7 +43899,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1569" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43928,7 +43925,7 @@
         <v>1.02499997615814</v>
       </c>
       <c r="G1570" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43954,7 +43951,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G1571" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43980,7 +43977,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1572" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44006,7 +44003,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G1573" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44032,7 +44029,7 @@
         <v>0.987999975681305</v>
       </c>
       <c r="G1574" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44058,7 +44055,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1575" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44084,7 +44081,7 @@
         <v>1.04499995708466</v>
       </c>
       <c r="G1576" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44110,7 +44107,7 @@
         <v>1.09500002861023</v>
       </c>
       <c r="G1577" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44136,7 +44133,7 @@
         <v>1.08500003814697</v>
       </c>
       <c r="G1578" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44162,7 +44159,7 @@
         <v>0.991999983787537</v>
       </c>
       <c r="G1579" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44188,7 +44185,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1580" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44214,7 +44211,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1581" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44240,7 +44237,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1582" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44266,7 +44263,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1583" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44292,7 +44289,7 @@
         <v>0.998000025749207</v>
       </c>
       <c r="G1584" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44318,7 +44315,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="G1585" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44344,7 +44341,7 @@
         <v>1</v>
       </c>
       <c r="G1586" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44370,7 +44367,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1587" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44396,7 +44393,7 @@
         <v>1.02999997138977</v>
       </c>
       <c r="G1588" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44422,7 +44419,7 @@
         <v>1</v>
       </c>
       <c r="G1589" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44448,7 +44445,7 @@
         <v>0.986000001430511</v>
       </c>
       <c r="G1590" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44474,7 +44471,7 @@
         <v>1.00199997425079</v>
       </c>
       <c r="G1591" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44500,7 +44497,7 @@
         <v>0.998000025749207</v>
       </c>
       <c r="G1592" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44526,7 +44523,7 @@
         <v>0.985000014305115</v>
       </c>
       <c r="G1593" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44552,7 +44549,7 @@
         <v>0.91100001335144</v>
       </c>
       <c r="G1594" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44578,7 +44575,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1595" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44604,7 +44601,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G1596" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44630,7 +44627,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1597" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44656,7 +44653,7 @@
         <v>0.925000011920929</v>
       </c>
       <c r="G1598" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44682,7 +44679,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1599" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44708,7 +44705,7 @@
         <v>0.912999987602234</v>
       </c>
       <c r="G1600" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44734,7 +44731,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1601" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44760,7 +44757,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1602" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44786,7 +44783,7 @@
         <v>0.915000021457672</v>
       </c>
       <c r="G1603" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44812,7 +44809,7 @@
         <v>0.904999971389771</v>
       </c>
       <c r="G1604" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44838,7 +44835,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1605" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44864,7 +44861,7 @@
         <v>0.882000029087067</v>
       </c>
       <c r="G1606" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44890,7 +44887,7 @@
         <v>0.856000006198883</v>
       </c>
       <c r="G1607" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44916,7 +44913,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1608" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44942,7 +44939,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1609" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44968,7 +44965,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1610" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44994,7 +44991,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G1611" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45020,7 +45017,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1612" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45046,7 +45043,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1613" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45072,7 +45069,7 @@
         <v>0.925000011920929</v>
       </c>
       <c r="G1614" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45098,7 +45095,7 @@
         <v>0.88400000333786</v>
       </c>
       <c r="G1615" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45124,7 +45121,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1616" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45150,7 +45147,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1617" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45176,7 +45173,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G1618" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45202,7 +45199,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1619" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45228,7 +45225,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1620" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45254,7 +45251,7 @@
         <v>0.875</v>
       </c>
       <c r="G1621" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45280,7 +45277,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1622" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45306,7 +45303,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1623" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45332,7 +45329,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1624" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45358,7 +45355,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1625" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45384,7 +45381,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1626" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45410,7 +45407,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1627" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45436,7 +45433,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1628" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45462,7 +45459,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1629" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45488,7 +45485,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1630" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45514,7 +45511,7 @@
         <v>1.02799999713898</v>
       </c>
       <c r="G1631" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45540,7 +45537,7 @@
         <v>0.98199999332428</v>
       </c>
       <c r="G1632" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45566,7 +45563,7 @@
         <v>1.03999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45592,7 +45589,7 @@
         <v>1</v>
       </c>
       <c r="G1634" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45618,7 +45615,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1635" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45644,7 +45641,7 @@
         <v>0.982999980449677</v>
       </c>
       <c r="G1636" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45670,7 +45667,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1637" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45696,7 +45693,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G1638" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45722,7 +45719,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1639" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45748,7 +45745,7 @@
         <v>0.916999995708466</v>
       </c>
       <c r="G1640" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45774,7 +45771,7 @@
         <v>0.878000020980835</v>
       </c>
       <c r="G1641" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45800,7 +45797,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1642" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45826,7 +45823,7 @@
         <v>0.890999972820282</v>
       </c>
       <c r="G1643" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45852,7 +45849,7 @@
         <v>0.901000022888184</v>
       </c>
       <c r="G1644" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45878,7 +45875,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1645" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45904,7 +45901,7 @@
         <v>0.890999972820282</v>
       </c>
       <c r="G1646" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45930,7 +45927,7 @@
         <v>0.916999995708466</v>
       </c>
       <c r="G1647" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45956,7 +45953,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1648" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45982,7 +45979,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1649" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46008,7 +46005,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1650" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46034,7 +46031,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1651" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46060,7 +46057,7 @@
         <v>0.904999971389771</v>
       </c>
       <c r="G1652" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46086,7 +46083,7 @@
         <v>0.898999989032745</v>
       </c>
       <c r="G1653" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46112,7 +46109,7 @@
         <v>0.880999982357025</v>
       </c>
       <c r="G1654" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46138,7 +46135,7 @@
         <v>0.878000020980835</v>
       </c>
       <c r="G1655" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46164,7 +46161,7 @@
         <v>0.875</v>
       </c>
       <c r="G1656" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46190,7 +46187,7 @@
         <v>0.876999974250793</v>
       </c>
       <c r="G1657" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46216,7 +46213,7 @@
         <v>0.888999998569489</v>
       </c>
       <c r="G1658" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46242,7 +46239,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1659" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46268,7 +46265,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1660" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46294,7 +46291,7 @@
         <v>0.875999987125397</v>
       </c>
       <c r="G1661" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46320,7 +46317,7 @@
         <v>0.883000016212463</v>
       </c>
       <c r="G1662" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46346,7 +46343,7 @@
         <v>0.862999975681305</v>
       </c>
       <c r="G1663" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46372,7 +46369,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1664" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46398,7 +46395,7 @@
         <v>0.861000001430511</v>
       </c>
       <c r="G1665" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46424,7 +46421,7 @@
         <v>0.869000017642975</v>
       </c>
       <c r="G1666" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46450,7 +46447,7 @@
         <v>0.871999979019165</v>
       </c>
       <c r="G1667" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46476,7 +46473,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1668" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46502,7 +46499,7 @@
         <v>0.879999995231628</v>
       </c>
       <c r="G1669" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46528,7 +46525,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46554,7 +46551,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1671" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46580,7 +46577,7 @@
         <v>0.862999975681305</v>
       </c>
       <c r="G1672" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46606,7 +46603,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1673" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46632,7 +46629,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1674" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46658,7 +46655,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1675" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46684,7 +46681,7 @@
         <v>0.851999998092651</v>
       </c>
       <c r="G1676" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46710,7 +46707,7 @@
         <v>0.853999972343445</v>
       </c>
       <c r="G1677" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46736,7 +46733,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1678" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46762,7 +46759,7 @@
         <v>0.856000006198883</v>
       </c>
       <c r="G1679" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46788,7 +46785,7 @@
         <v>0.85699999332428</v>
       </c>
       <c r="G1680" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46814,7 +46811,7 @@
         <v>0.864000022411346</v>
       </c>
       <c r="G1681" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46840,7 +46837,7 @@
         <v>0.879999995231628</v>
       </c>
       <c r="G1682" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46866,7 +46863,7 @@
         <v>0.857999980449677</v>
       </c>
       <c r="G1683" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46892,7 +46889,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1684" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46918,7 +46915,7 @@
         <v>0.861999988555908</v>
       </c>
       <c r="G1685" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46944,7 +46941,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G1686" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46970,7 +46967,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1687" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46996,7 +46993,7 @@
         <v>0.874000012874603</v>
       </c>
       <c r="G1688" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47022,7 +47019,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G1689" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47048,7 +47045,7 @@
         <v>0.85699999332428</v>
       </c>
       <c r="G1690" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47074,7 +47071,7 @@
         <v>0.851999998092651</v>
       </c>
       <c r="G1691" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47100,7 +47097,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G1692" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47126,7 +47123,7 @@
         <v>0.864000022411346</v>
       </c>
       <c r="G1693" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47152,7 +47149,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G1694" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47178,7 +47175,7 @@
         <v>0.86599999666214</v>
       </c>
       <c r="G1695" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47204,7 +47201,7 @@
         <v>0.846000015735626</v>
       </c>
       <c r="G1696" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47230,7 +47227,7 @@
         <v>0.84799998998642</v>
       </c>
       <c r="G1697" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47256,7 +47253,7 @@
         <v>0.843999981880188</v>
       </c>
       <c r="G1698" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47282,7 +47279,7 @@
         <v>0.827000021934509</v>
       </c>
       <c r="G1699" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47308,7 +47305,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G1700" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47334,7 +47331,7 @@
         <v>0.828000009059906</v>
       </c>
       <c r="G1701" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47360,7 +47357,7 @@
         <v>0.837000012397766</v>
       </c>
       <c r="G1702" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47386,7 +47383,7 @@
         <v>0.848999977111816</v>
       </c>
       <c r="G1703" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47412,7 +47409,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G1704" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47438,7 +47435,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G1705" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47464,7 +47461,7 @@
         <v>0.851000010967255</v>
       </c>
       <c r="G1706" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47490,7 +47487,7 @@
         <v>0.828999996185303</v>
       </c>
       <c r="G1707" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47516,7 +47513,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1708" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47542,7 +47539,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1709" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47568,7 +47565,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1710" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47594,7 +47591,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1711" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47620,7 +47617,7 @@
         <v>0.879999995231628</v>
       </c>
       <c r="G1712" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47646,7 +47643,7 @@
         <v>0.853999972343445</v>
       </c>
       <c r="G1713" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47672,7 +47669,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G1714" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47698,7 +47695,7 @@
         <v>0.870999991893768</v>
       </c>
       <c r="G1715" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47724,7 +47721,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G1716" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47750,7 +47747,7 @@
         <v>0.822000026702881</v>
       </c>
       <c r="G1717" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47776,7 +47773,7 @@
         <v>0.848999977111816</v>
       </c>
       <c r="G1718" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47802,7 +47799,7 @@
         <v>0.875999987125397</v>
       </c>
       <c r="G1719" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47828,7 +47825,7 @@
         <v>0.888999998569489</v>
       </c>
       <c r="G1720" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47854,7 +47851,7 @@
         <v>0.861000001430511</v>
       </c>
       <c r="G1721" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47880,7 +47877,7 @@
         <v>0.870999991893768</v>
       </c>
       <c r="G1722" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47906,7 +47903,7 @@
         <v>0.841000020503998</v>
       </c>
       <c r="G1723" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47932,7 +47929,7 @@
         <v>0.824000000953674</v>
       </c>
       <c r="G1724" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47958,7 +47955,7 @@
         <v>0.813000023365021</v>
       </c>
       <c r="G1725" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47984,7 +47981,7 @@
         <v>0.822000026702881</v>
       </c>
       <c r="G1726" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48010,7 +48007,7 @@
         <v>0.816999971866608</v>
       </c>
       <c r="G1727" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48036,7 +48033,7 @@
         <v>0.800999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48062,7 +48059,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1729" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48088,7 +48085,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G1730" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48114,7 +48111,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G1731" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48140,7 +48137,7 @@
         <v>0.806999981403351</v>
       </c>
       <c r="G1732" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48166,7 +48163,7 @@
         <v>0.810999989509583</v>
       </c>
       <c r="G1733" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48192,7 +48189,7 @@
         <v>0.842999994754791</v>
       </c>
       <c r="G1734" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48218,7 +48215,7 @@
         <v>0.866999983787537</v>
       </c>
       <c r="G1735" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48244,7 +48241,7 @@
         <v>0.861000001430511</v>
       </c>
       <c r="G1736" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48270,7 +48267,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1737" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48296,7 +48293,7 @@
         <v>0.915000021457672</v>
       </c>
       <c r="G1738" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48322,7 +48319,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G1739" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48348,7 +48345,7 @@
         <v>0.947000026702881</v>
       </c>
       <c r="G1740" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48374,7 +48371,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1741" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48400,7 +48397,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1742" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48426,7 +48423,7 @@
         <v>0.967000007629395</v>
       </c>
       <c r="G1743" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48452,7 +48449,7 @@
         <v>0.987999975681305</v>
       </c>
       <c r="G1744" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48478,7 +48475,7 @@
         <v>1</v>
       </c>
       <c r="G1745" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48504,7 +48501,7 @@
         <v>1.01199996471405</v>
       </c>
       <c r="G1746" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48530,7 +48527,7 @@
         <v>1</v>
       </c>
       <c r="G1747" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48556,7 +48553,7 @@
         <v>1.00199997425079</v>
       </c>
       <c r="G1748" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48582,7 +48579,7 @@
         <v>0.992999970912933</v>
       </c>
       <c r="G1749" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48608,7 +48605,7 @@
         <v>1</v>
       </c>
       <c r="G1750" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48634,7 +48631,7 @@
         <v>0.981000006198883</v>
       </c>
       <c r="G1751" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48660,7 +48657,7 @@
         <v>0.968999981880188</v>
       </c>
       <c r="G1752" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48686,7 +48683,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1753" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48712,7 +48709,7 @@
         <v>0.976999998092651</v>
       </c>
       <c r="G1754" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48738,7 +48735,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1755" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48764,7 +48761,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G1756" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48790,7 +48787,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1757" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48816,7 +48813,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1758" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48842,7 +48839,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1759" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48868,7 +48865,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1760" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48894,7 +48891,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G1761" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48920,7 +48917,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1762" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48946,7 +48943,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1763" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48972,7 +48969,7 @@
         <v>0.968999981880188</v>
       </c>
       <c r="G1764" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48998,7 +48995,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1765" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49024,7 +49021,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G1766" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49050,7 +49047,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G1767" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49076,7 +49073,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1768" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49102,7 +49099,7 @@
         <v>0.940999984741211</v>
       </c>
       <c r="G1769" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49128,7 +49125,7 @@
         <v>0.975000023841858</v>
       </c>
       <c r="G1770" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49154,7 +49151,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1771" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49180,7 +49177,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1772" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49206,7 +49203,7 @@
         <v>0.989000022411346</v>
       </c>
       <c r="G1773" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49232,7 +49229,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1774" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49258,7 +49255,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1775" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49284,7 +49281,7 @@
         <v>0.982999980449677</v>
       </c>
       <c r="G1776" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49310,7 +49307,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1777" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49336,7 +49333,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1778" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49362,7 +49359,7 @@
         <v>0.958999991416931</v>
       </c>
       <c r="G1779" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49388,7 +49385,7 @@
         <v>0.940999984741211</v>
       </c>
       <c r="G1780" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49414,7 +49411,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1781" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49440,7 +49437,7 @@
         <v>0.935000002384186</v>
       </c>
       <c r="G1782" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49466,7 +49463,7 @@
         <v>0.935000002384186</v>
       </c>
       <c r="G1783" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49492,7 +49489,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1784" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49518,7 +49515,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1785" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49544,7 +49541,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1786" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49570,7 +49567,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1787" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49596,7 +49593,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G1788" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49622,7 +49619,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1789" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49648,7 +49645,7 @@
         <v>0.929000020027161</v>
       </c>
       <c r="G1790" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49674,7 +49671,7 @@
         <v>0.943000018596649</v>
       </c>
       <c r="G1791" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49700,7 +49697,7 @@
         <v>0.968999981880188</v>
       </c>
       <c r="G1792" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49726,7 +49723,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1793" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49752,7 +49749,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1794" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49778,7 +49775,7 @@
         <v>0.961000025272369</v>
       </c>
       <c r="G1795" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49804,7 +49801,7 @@
         <v>0.958999991416931</v>
       </c>
       <c r="G1796" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49830,7 +49827,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1797" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49856,7 +49853,7 @@
         <v>0.949000000953674</v>
       </c>
       <c r="G1798" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49882,7 +49879,7 @@
         <v>0.949000000953674</v>
       </c>
       <c r="G1799" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49908,7 +49905,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G1800" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49934,7 +49931,7 @@
         <v>0.957000017166138</v>
       </c>
       <c r="G1801" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49960,7 +49957,7 @@
         <v>0.940999984741211</v>
       </c>
       <c r="G1802" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49986,7 +49983,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G1803" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50012,7 +50009,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1804" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50038,7 +50035,7 @@
         <v>0.944999992847443</v>
       </c>
       <c r="G1805" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50064,7 +50061,7 @@
         <v>0.936999976634979</v>
       </c>
       <c r="G1806" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50090,7 +50087,7 @@
         <v>0.947000026702881</v>
       </c>
       <c r="G1807" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50116,7 +50113,7 @@
         <v>0.950999975204468</v>
       </c>
       <c r="G1808" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50142,7 +50139,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50168,7 +50165,7 @@
         <v>0.954999983310699</v>
       </c>
       <c r="G1810" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50194,7 +50191,7 @@
         <v>0.986000001430511</v>
       </c>
       <c r="G1811" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50220,7 +50217,7 @@
         <v>0.990000009536743</v>
       </c>
       <c r="G1812" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50246,7 +50243,7 @@
         <v>0.992999970912933</v>
       </c>
       <c r="G1813" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50272,7 +50269,7 @@
         <v>0.976999998092651</v>
       </c>
       <c r="G1814" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50298,7 +50295,7 @@
         <v>0.982999980449677</v>
       </c>
       <c r="G1815" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50324,7 +50321,7 @@
         <v>0.992999970912933</v>
       </c>
       <c r="G1816" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50350,7 +50347,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G1817" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50376,7 +50373,7 @@
         <v>0.978999972343445</v>
       </c>
       <c r="G1818" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50402,7 +50399,7 @@
         <v>0.933000028133392</v>
       </c>
       <c r="G1819" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50428,7 +50425,7 @@
         <v>0.898999989032745</v>
       </c>
       <c r="G1820" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50454,7 +50451,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1821" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50480,7 +50477,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1822" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50506,7 +50503,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1823" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50532,7 +50529,7 @@
         <v>0.878000020980835</v>
       </c>
       <c r="G1824" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50558,7 +50555,7 @@
         <v>0.885999977588654</v>
       </c>
       <c r="G1825" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50584,7 +50581,7 @@
         <v>0.904999971389771</v>
       </c>
       <c r="G1826" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50610,7 +50607,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1827" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50636,7 +50633,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1828" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50662,7 +50659,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1829" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50688,7 +50685,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1830" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50714,7 +50711,7 @@
         <v>0.935000002384186</v>
       </c>
       <c r="G1831" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50740,7 +50737,7 @@
         <v>0.950999975204468</v>
       </c>
       <c r="G1832" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50766,7 +50763,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G1833" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50792,7 +50789,7 @@
         <v>0.939000010490417</v>
       </c>
       <c r="G1834" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50818,7 +50815,7 @@
         <v>0.933000028133392</v>
       </c>
       <c r="G1835" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50844,7 +50841,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1836" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50870,7 +50867,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1837" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50896,7 +50893,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1838" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50922,7 +50919,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1839" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50948,7 +50945,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1840" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50974,7 +50971,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1841" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51000,7 +50997,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1842" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51026,7 +51023,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1843" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51052,7 +51049,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1844" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51078,7 +51075,7 @@
         <v>0.916999995708466</v>
       </c>
       <c r="G1845" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51104,7 +51101,7 @@
         <v>0.908999979496002</v>
       </c>
       <c r="G1846" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51130,7 +51127,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1847" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51156,7 +51153,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1848" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51182,7 +51179,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1849" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51208,7 +51205,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1850" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51234,7 +51231,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1851" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51260,7 +51257,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G1852" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51286,7 +51283,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1853" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51312,7 +51309,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1854" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51338,7 +51335,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1855" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51364,7 +51361,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1856" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51390,7 +51387,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1857" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51416,7 +51413,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1858" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51442,7 +51439,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G1859" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51468,7 +51465,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1860" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51494,7 +51491,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1861" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51520,7 +51517,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1862" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51546,7 +51543,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1863" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51572,7 +51569,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1864" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51598,7 +51595,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1865" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51624,7 +51621,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1866" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51650,7 +51647,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1867" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51676,7 +51673,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1868" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51702,7 +51699,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1869" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51728,7 +51725,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1870" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51754,7 +51751,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1871" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51780,7 +51777,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1872" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51806,7 +51803,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1873" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51832,7 +51829,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1874" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51858,7 +51855,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1875" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51884,7 +51881,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1876" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51910,7 +51907,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G1877" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51936,7 +51933,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1878" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51962,7 +51959,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1879" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51988,7 +51985,7 @@
         <v>0.934000015258789</v>
       </c>
       <c r="G1880" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52014,7 +52011,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1881" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52040,7 +52037,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1882" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52066,7 +52063,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1883" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52092,7 +52089,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1884" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52118,7 +52115,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1885" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52144,7 +52141,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1886" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52170,7 +52167,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1887" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52196,7 +52193,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1888" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52222,7 +52219,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1889" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52248,7 +52245,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1890" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52274,7 +52271,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1891" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52300,7 +52297,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1892" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52326,7 +52323,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1893" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52352,7 +52349,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52378,7 +52375,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G1895" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52404,7 +52401,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1896" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52430,7 +52427,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G1897" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52456,7 +52453,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1898" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52482,7 +52479,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1899" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52508,7 +52505,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1900" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52534,7 +52531,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1901" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52560,7 +52557,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1902" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52586,7 +52583,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1903" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52612,7 +52609,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G1904" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52638,7 +52635,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1905" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52664,7 +52661,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1906" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52690,7 +52687,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1907" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52716,7 +52713,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1908" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52742,7 +52739,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1909" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52768,7 +52765,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1910" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52794,7 +52791,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1911" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52820,7 +52817,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1912" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52846,7 +52843,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52872,7 +52869,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1914" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52898,7 +52895,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1915" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52924,7 +52921,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1916" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52950,7 +52947,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1917" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52976,7 +52973,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1918" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53002,7 +52999,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1919" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53028,7 +53025,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1920" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53054,7 +53051,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1921" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53080,7 +53077,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1922" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53106,7 +53103,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1923" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53132,7 +53129,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1924" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53158,7 +53155,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1925" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53184,7 +53181,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1926" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53210,7 +53207,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1927" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53236,7 +53233,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1928" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53262,7 +53259,7 @@
         <v>0.896000027656555</v>
       </c>
       <c r="G1929" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53288,7 +53285,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1930" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53314,7 +53311,7 @@
         <v>0.888000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53340,7 +53337,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1932" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53366,7 +53363,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1933" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53392,7 +53389,7 @@
         <v>0.903999984264374</v>
       </c>
       <c r="G1934" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53418,7 +53415,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1935" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53444,7 +53441,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1936" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53470,7 +53467,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1937" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53496,7 +53493,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1938" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53522,7 +53519,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1939" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53548,7 +53545,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1940" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53574,7 +53571,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1941" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53600,7 +53597,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1942" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53626,7 +53623,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1943" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53652,7 +53649,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1944" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53678,7 +53675,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G1945" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53704,7 +53701,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1946" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53730,7 +53727,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1947" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53756,7 +53753,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1948" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53782,7 +53779,7 @@
         <v>0.907999992370605</v>
       </c>
       <c r="G1949" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53808,7 +53805,7 @@
         <v>0.916000008583069</v>
       </c>
       <c r="G1950" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53834,7 +53831,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1951" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53860,7 +53857,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1952" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53886,7 +53883,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1953" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53912,7 +53909,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1954" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53938,7 +53935,7 @@
         <v>0.906000018119812</v>
       </c>
       <c r="G1955" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53964,7 +53961,7 @@
         <v>0.90200001001358</v>
       </c>
       <c r="G1956" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53990,7 +53987,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1957" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54016,7 +54013,7 @@
         <v>0.916000008583069</v>
       </c>
       <c r="G1958" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54042,7 +54039,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1959" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54068,7 +54065,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1960" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54094,7 +54091,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G1961" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54120,7 +54117,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1962" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54146,7 +54143,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1963" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54172,7 +54169,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1964" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54198,7 +54195,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1965" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54224,7 +54221,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1966" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54250,7 +54247,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1967" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54276,7 +54273,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1968" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54302,7 +54299,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1969" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54328,7 +54325,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G1970" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54354,7 +54351,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1971" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54380,7 +54377,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1972" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54406,7 +54403,7 @@
         <v>0.893999993801117</v>
       </c>
       <c r="G1973" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54432,7 +54429,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1974" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54458,7 +54455,7 @@
         <v>0.898000001907349</v>
       </c>
       <c r="G1975" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54484,7 +54481,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1976" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54510,7 +54507,7 @@
         <v>0.88400000333786</v>
       </c>
       <c r="G1977" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54536,7 +54533,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1978" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54562,7 +54559,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G1979" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54588,7 +54585,7 @@
         <v>0.987999975681305</v>
       </c>
       <c r="G1980" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54614,7 +54611,7 @@
         <v>0.984000027179718</v>
       </c>
       <c r="G1981" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54640,7 +54637,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1982" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54666,7 +54663,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G1983" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54692,7 +54689,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G1984" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54718,7 +54715,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G1985" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54744,7 +54741,7 @@
         <v>0.958000004291534</v>
       </c>
       <c r="G1986" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54770,7 +54767,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G1987" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54796,7 +54793,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G1988" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54822,7 +54819,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G1989" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54848,7 +54845,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G1990" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54874,7 +54871,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G1991" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54900,7 +54897,7 @@
         <v>0.892000019550323</v>
       </c>
       <c r="G1992" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54926,7 +54923,7 @@
         <v>0.913999974727631</v>
       </c>
       <c r="G1993" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54952,7 +54949,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G1994" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54978,7 +54975,7 @@
         <v>0.917999982833862</v>
       </c>
       <c r="G1995" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55004,7 +55001,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1996" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55030,7 +55027,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G1997" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55056,7 +55053,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G1998" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55082,7 +55079,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G1999" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55108,7 +55105,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G2000" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55134,7 +55131,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2001" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55160,7 +55157,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G2002" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55186,7 +55183,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2003" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55212,7 +55209,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2004" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55238,7 +55235,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2005" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55264,7 +55261,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2006" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55290,7 +55287,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2007" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55316,7 +55313,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2008" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55342,7 +55339,7 @@
         <v>0.955999970436096</v>
       </c>
       <c r="G2009" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55368,7 +55365,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2010" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55394,7 +55391,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G2011" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55420,7 +55417,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G2012" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55446,7 +55443,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2013" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55472,7 +55469,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2014" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55498,7 +55495,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2015" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55524,7 +55521,7 @@
         <v>0.966000020503998</v>
       </c>
       <c r="G2016" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55550,7 +55547,7 @@
         <v>0.966000020503998</v>
       </c>
       <c r="G2017" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55576,7 +55573,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G2018" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55602,7 +55599,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G2019" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55628,7 +55625,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G2020" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55654,7 +55651,7 @@
         <v>0.980000019073486</v>
       </c>
       <c r="G2021" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55680,7 +55677,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2022" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55706,7 +55703,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2023" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55732,7 +55729,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2024" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55758,7 +55755,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2025" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55784,7 +55781,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2026" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55810,7 +55807,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2027" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55836,7 +55833,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2028" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55862,7 +55859,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G2029" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55888,7 +55885,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G2030" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55914,7 +55911,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G2031" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55940,7 +55937,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G2032" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55966,7 +55963,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2033" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55992,7 +55989,7 @@
         <v>0.935999989509583</v>
       </c>
       <c r="G2034" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56018,7 +56015,7 @@
         <v>0.938000023365021</v>
       </c>
       <c r="G2035" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56044,7 +56041,7 @@
         <v>0.972000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56070,7 +56067,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G2037" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56096,7 +56093,7 @@
         <v>0.944000005722046</v>
       </c>
       <c r="G2038" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56122,7 +56119,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2039" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56148,7 +56145,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2040" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56174,7 +56171,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56200,7 +56197,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2042" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56226,7 +56223,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G2043" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56252,7 +56249,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G2044" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56278,7 +56275,7 @@
         <v>0.977999985218048</v>
       </c>
       <c r="G2045" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56304,7 +56301,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G2046" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56330,7 +56327,7 @@
         <v>0.953999996185303</v>
       </c>
       <c r="G2047" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56356,7 +56353,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2048" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56382,7 +56379,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2049" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56408,7 +56405,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2050" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56434,7 +56431,7 @@
         <v>0.970000028610229</v>
       </c>
       <c r="G2051" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56460,7 +56457,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G2052" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56486,7 +56483,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2053" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56512,7 +56509,7 @@
         <v>0.967999994754791</v>
       </c>
       <c r="G2054" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56538,7 +56535,7 @@
         <v>0.952000021934509</v>
       </c>
       <c r="G2055" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56564,7 +56561,7 @@
         <v>0.962000012397766</v>
       </c>
       <c r="G2056" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56590,7 +56587,7 @@
         <v>0.959999978542328</v>
       </c>
       <c r="G2057" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56616,7 +56613,7 @@
         <v>0.977999985218048</v>
       </c>
       <c r="G2058" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56642,7 +56639,7 @@
         <v>0.966000020503998</v>
       </c>
       <c r="G2059" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56668,7 +56665,7 @@
         <v>0.991999983787537</v>
       </c>
       <c r="G2060" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56694,7 +56691,7 @@
         <v>0.973999977111816</v>
       </c>
       <c r="G2061" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56720,7 +56717,7 @@
         <v>0.96399998664856</v>
       </c>
       <c r="G2062" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56746,7 +56743,7 @@
         <v>0.949999988079071</v>
       </c>
       <c r="G2063" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56772,7 +56769,7 @@
         <v>0.931999981403351</v>
       </c>
       <c r="G2064" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56798,7 +56795,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2065" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56824,7 +56821,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2066" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56850,7 +56847,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2067" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56876,7 +56873,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G2068" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56902,7 +56899,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2069" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56928,7 +56925,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G2070" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56954,7 +56951,7 @@
         <v>0.934000015258789</v>
       </c>
       <c r="G2071" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56980,7 +56977,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G2072" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57006,7 +57003,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2073" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57032,7 +57029,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2074" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57058,7 +57055,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2075" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57084,7 +57081,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2076" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57110,7 +57107,7 @@
         <v>0.941999971866608</v>
       </c>
       <c r="G2077" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57136,7 +57133,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2078" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57162,7 +57159,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57188,7 +57185,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G2080" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57214,7 +57211,7 @@
         <v>0.924000024795532</v>
       </c>
       <c r="G2081" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57240,7 +57237,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G2082" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57266,7 +57263,7 @@
         <v>0.939999997615814</v>
       </c>
       <c r="G2083" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57292,7 +57289,7 @@
         <v>0.920000016689301</v>
       </c>
       <c r="G2084" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57318,7 +57315,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G2085" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57344,7 +57341,7 @@
         <v>0.899999976158142</v>
       </c>
       <c r="G2086" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57370,7 +57367,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G2087" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57396,7 +57393,7 @@
         <v>0.934000015258789</v>
       </c>
       <c r="G2088" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57422,7 +57419,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57448,7 +57445,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2090" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57474,7 +57471,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2091" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57500,7 +57497,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2092" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57526,7 +57523,7 @@
         <v>0.921999990940094</v>
       </c>
       <c r="G2093" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57552,7 +57549,7 @@
         <v>0.910000026226044</v>
       </c>
       <c r="G2094" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57578,7 +57575,7 @@
         <v>0.927999973297119</v>
       </c>
       <c r="G2095" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57604,7 +57601,7 @@
         <v>0.925999999046326</v>
       </c>
       <c r="G2096" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57630,7 +57627,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2097" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57656,7 +57653,7 @@
         <v>0.930000007152557</v>
       </c>
       <c r="G2098" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57682,7 +57679,7 @@
         <v>0.912000000476837</v>
       </c>
       <c r="G2099" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57708,7 +57705,7 @@
         <v>0.889999985694885</v>
       </c>
       <c r="G2100" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57734,7 +57731,7 @@
         <v>0.945999979972839</v>
       </c>
       <c r="G2101" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57760,7 +57757,7 @@
         <v>0.948000013828278</v>
       </c>
       <c r="G2102" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57786,7 +57783,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2103" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57812,7 +57809,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2104" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57838,7 +57835,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2105" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57864,7 +57861,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2106" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57890,7 +57887,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2107" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57916,7 +57913,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2108" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57942,7 +57939,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2109" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57968,7 +57965,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2110" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57994,7 +57991,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2111" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58020,7 +58017,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2112" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58046,7 +58043,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2113" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58072,7 +58069,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2114" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58098,7 +58095,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2115" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58124,7 +58121,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2116" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58150,7 +58147,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2117" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58176,7 +58173,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2118" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58202,7 +58199,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2119" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58228,7 +58225,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2120" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58254,7 +58251,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2121" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58280,7 +58277,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2122" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58306,7 +58303,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2123" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58332,7 +58329,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2124" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58358,7 +58355,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2125" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58384,7 +58381,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2126" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58410,7 +58407,7 @@
         <v>2.21000003814697</v>
       </c>
       <c r="G2127" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58436,7 +58433,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2128" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58462,7 +58459,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2129" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58488,7 +58485,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2130" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58514,7 +58511,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2131" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58540,7 +58537,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G2132" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58566,7 +58563,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2133" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58592,7 +58589,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2134" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58618,7 +58615,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2135" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58644,7 +58641,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2136" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58670,7 +58667,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58696,7 +58693,7 @@
         <v>2.25</v>
       </c>
       <c r="G2138" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58722,7 +58719,7 @@
         <v>2.25</v>
       </c>
       <c r="G2139" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58748,7 +58745,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2140" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58774,7 +58771,7 @@
         <v>2.25</v>
       </c>
       <c r="G2141" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58800,7 +58797,7 @@
         <v>2.25</v>
       </c>
       <c r="G2142" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58826,7 +58823,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2143" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58852,7 +58849,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2144" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58878,7 +58875,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2145" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58904,7 +58901,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2146" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58930,7 +58927,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2147" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58956,7 +58953,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2148" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58982,7 +58979,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2149" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59008,7 +59005,7 @@
         <v>2.25</v>
       </c>
       <c r="G2150" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59034,7 +59031,7 @@
         <v>2.25</v>
       </c>
       <c r="G2151" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59060,7 +59057,7 @@
         <v>2.25</v>
       </c>
       <c r="G2152" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59086,7 +59083,7 @@
         <v>2.25</v>
       </c>
       <c r="G2153" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59112,7 +59109,7 @@
         <v>2.25</v>
       </c>
       <c r="G2154" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59138,7 +59135,7 @@
         <v>2.25</v>
       </c>
       <c r="G2155" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59164,7 +59161,7 @@
         <v>2.25</v>
       </c>
       <c r="G2156" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59190,7 +59187,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2157" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59216,7 +59213,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2158" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59242,7 +59239,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G2159" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59268,7 +59265,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2160" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59294,7 +59291,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2161" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59320,7 +59317,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2162" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59346,7 +59343,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2163" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59354,7 +59351,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.649537037</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>2255</v>
@@ -59372,9 +59369,35 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G2164" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6454282407</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>20273</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>918</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41015037894249</t>
+    <t xml:space="preserve">0.410150349140167</t>
   </si>
   <si>
     <t xml:space="preserve">GTH.MI</t>
@@ -47,34 +47,34 @@
     <t xml:space="preserve">0.421087741851807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413796156644821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.416530460119247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393653243780136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400944799184799</t>
+    <t xml:space="preserve">0.413796186447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41653048992157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393653213977814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400944769382477</t>
   </si>
   <si>
     <t xml:space="preserve">0.394108891487122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391921430826187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396478712558746</t>
+    <t xml:space="preserve">0.391921490430832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396478682756424</t>
   </si>
   <si>
     <t xml:space="preserve">0.400033324956894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405046314001083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3971166908741</t>
+    <t xml:space="preserve">0.405046254396439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.397116720676422</t>
   </si>
   <si>
     <t xml:space="preserve">0.382807016372681</t>
@@ -83,43 +83,43 @@
     <t xml:space="preserve">0.404681712388992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409876972436905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405501991510391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408327490091324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.406778067350388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402767658233643</t>
+    <t xml:space="preserve">0.409876942634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405502051115036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.408327519893646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.406778037548065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402767717838287</t>
   </si>
   <si>
     <t xml:space="preserve">0.403314530849457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389095962047577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373601406812668</t>
+    <t xml:space="preserve">0.389096021652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37360143661499</t>
   </si>
   <si>
     <t xml:space="preserve">0.357286542654037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359929740428925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338237345218658</t>
+    <t xml:space="preserve">0.359929710626602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338237375020981</t>
   </si>
   <si>
     <t xml:space="preserve">0.33240407705307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355463624000549</t>
+    <t xml:space="preserve">0.355463653802872</t>
   </si>
   <si>
     <t xml:space="preserve">0.35537251830101</t>
@@ -128,34 +128,34 @@
     <t xml:space="preserve">0.385450184345245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391010046005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391465753316879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375424325466156</t>
+    <t xml:space="preserve">0.391010016202927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391465723514557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375424355268478</t>
   </si>
   <si>
     <t xml:space="preserve">0.39283287525177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406504601240158</t>
+    <t xml:space="preserve">0.406504571437836</t>
   </si>
   <si>
     <t xml:space="preserve">0.409694641828537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393835484981537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405593127012253</t>
+    <t xml:space="preserve">0.393835514783859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405593156814575</t>
   </si>
   <si>
     <t xml:space="preserve">0.402403086423874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396569848060608</t>
+    <t xml:space="preserve">0.396569818258286</t>
   </si>
   <si>
     <t xml:space="preserve">0.392650604248047</t>
@@ -167,43 +167,43 @@
     <t xml:space="preserve">0.396387547254562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401035904884338</t>
+    <t xml:space="preserve">0.401035934686661</t>
   </si>
   <si>
     <t xml:space="preserve">0.38836681842804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387728840112686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382168978452682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383718460798264</t>
+    <t xml:space="preserve">0.387728810310364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382169008255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383718490600586</t>
   </si>
   <si>
     <t xml:space="preserve">0.39073657989502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389916300773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389642864465714</t>
+    <t xml:space="preserve">0.389916270971298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389642894268036</t>
   </si>
   <si>
     <t xml:space="preserve">0.35418763756752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356830805540085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346804946660995</t>
+    <t xml:space="preserve">0.35683086514473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346804916858673</t>
   </si>
   <si>
     <t xml:space="preserve">0.368132710456848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359018325805664</t>
+    <t xml:space="preserve">0.359018296003342</t>
   </si>
   <si>
     <t xml:space="preserve">0.355190247297287</t>
@@ -215,19 +215,19 @@
     <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364486932754517</t>
+    <t xml:space="preserve">0.364486992359161</t>
   </si>
   <si>
     <t xml:space="preserve">0.387364238500595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373783707618713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373692572116852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39164799451828</t>
+    <t xml:space="preserve">0.373783677816391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373692542314529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391648024320602</t>
   </si>
   <si>
     <t xml:space="preserve">0.391830325126648</t>
@@ -236,22 +236,22 @@
     <t xml:space="preserve">0.403679102659225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395020395517349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391101211309433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.390463143587112</t>
+    <t xml:space="preserve">0.395020365715027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391101151704788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390463203191757</t>
   </si>
   <si>
     <t xml:space="preserve">0.379161208868027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36913537979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377338379621506</t>
+    <t xml:space="preserve">0.369135349988937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377338349819183</t>
   </si>
   <si>
     <t xml:space="preserve">0.369044214487076</t>
@@ -260,31 +260,31 @@
     <t xml:space="preserve">0.360750049352646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373874872922897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372143119573593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372507691383362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366765558719635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373510271310806</t>
+    <t xml:space="preserve">0.373874813318253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372143089771271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372507661581039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366765528917313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373510241508484</t>
   </si>
   <si>
     <t xml:space="preserve">0.366856724023819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379890352487564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382715910673141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368588477373123</t>
+    <t xml:space="preserve">0.379890382289886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382715851068497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368588507175446</t>
   </si>
   <si>
     <t xml:space="preserve">0.376609176397324</t>
@@ -296,25 +296,25 @@
     <t xml:space="preserve">0.364669263362885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365489542484283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367312490940094</t>
+    <t xml:space="preserve">0.365489512681961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367312431335449</t>
   </si>
   <si>
     <t xml:space="preserve">0.370958238840103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360020935535431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348172128200531</t>
+    <t xml:space="preserve">0.360020875930786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348172068595886</t>
   </si>
   <si>
     <t xml:space="preserve">0.350906431674957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354552239179611</t>
+    <t xml:space="preserve">0.354552209377289</t>
   </si>
   <si>
     <t xml:space="preserve">0.370046764612198</t>
@@ -323,31 +323,31 @@
     <t xml:space="preserve">0.373327970504761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364578098058701</t>
+    <t xml:space="preserve">0.364578127861023</t>
   </si>
   <si>
     <t xml:space="preserve">0.354461073875427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352455884218216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33996906876564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352273643016815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348354369401932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344435155391693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337234735488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333497822284698</t>
+    <t xml:space="preserve">0.352455914020538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339969098567963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352273613214493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348354399204254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344435214996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337234765291214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333497852087021</t>
   </si>
   <si>
     <t xml:space="preserve">0.346166908740997</t>
@@ -356,37 +356,37 @@
     <t xml:space="preserve">0.346349209547043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341791957616806</t>
+    <t xml:space="preserve">0.341791987419128</t>
   </si>
   <si>
     <t xml:space="preserve">0.330581188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326206266880035</t>
+    <t xml:space="preserve">0.326206237077713</t>
   </si>
   <si>
     <t xml:space="preserve">0.324474513530731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327755719423294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329852014780045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245055198669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329487442970276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32766455411911</t>
+    <t xml:space="preserve">0.327755749225616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329852044582367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245085000992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329487472772598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327664613723755</t>
   </si>
   <si>
     <t xml:space="preserve">0.325294852256775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326115131378174</t>
+    <t xml:space="preserve">0.326115071773529</t>
   </si>
   <si>
     <t xml:space="preserve">0.333588987588882</t>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">0.337599337100983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340515971183777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340880572795868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341518580913544</t>
+    <t xml:space="preserve">0.340515941381454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340880542993546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341518551111221</t>
   </si>
   <si>
     <t xml:space="preserve">0.334864974021912</t>
@@ -413,22 +413,22 @@
     <t xml:space="preserve">0.336323291063309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335320740938187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339057624340057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329578638076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331766039133072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332312941551208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325385928153992</t>
+    <t xml:space="preserve">0.335320711135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33905765414238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329578578472137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331766068935394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332312911748886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325385987758636</t>
   </si>
   <si>
     <t xml:space="preserve">0.328211456537247</t>
@@ -440,73 +440,73 @@
     <t xml:space="preserve">0.328120321035385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319917291402817</t>
+    <t xml:space="preserve">0.319917321205139</t>
   </si>
   <si>
     <t xml:space="preserve">0.327208876609802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334227025508881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323016226291656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3208287358284</t>
+    <t xml:space="preserve">0.334226965904236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323016196489334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.320828765630722</t>
   </si>
   <si>
     <t xml:space="preserve">0.361752659082413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335867553949356</t>
+    <t xml:space="preserve">0.335867583751678</t>
   </si>
   <si>
     <t xml:space="preserve">0.333680123090744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330945789813995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335229575634003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343432605266571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349083513021469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338875353336334</t>
+    <t xml:space="preserve">0.330945760011673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33522954583168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343432575464249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349083483219147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338875383138657</t>
   </si>
   <si>
     <t xml:space="preserve">0.342885702848434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333771228790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344526290893555</t>
+    <t xml:space="preserve">0.333771258592606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344526350498199</t>
   </si>
   <si>
     <t xml:space="preserve">0.337690502405167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3366878926754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249764442444</t>
+    <t xml:space="preserve">0.336687862873077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249734640121</t>
   </si>
   <si>
     <t xml:space="preserve">0.351088732481003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349265784025192</t>
+    <t xml:space="preserve">0.349265813827515</t>
   </si>
   <si>
     <t xml:space="preserve">0.340151399374008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335594117641449</t>
+    <t xml:space="preserve">0.335594177246094</t>
   </si>
   <si>
     <t xml:space="preserve">0.342976868152618</t>
@@ -515,67 +515,67 @@
     <t xml:space="preserve">0.34972158074379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345437735319138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353549629449844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354916840791702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345073163509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344982087612152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328940629959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330854624509811</t>
+    <t xml:space="preserve">0.345437794923782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353549599647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354916781187057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345073193311691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34498205780983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328940570354462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330854684114456</t>
   </si>
   <si>
     <t xml:space="preserve">0.324109941720963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331310391426086</t>
+    <t xml:space="preserve">0.331310361623764</t>
   </si>
   <si>
     <t xml:space="preserve">0.312352299690247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316180288791656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317091822624207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312625706195831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332586407661438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337143540382385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052464485168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966488838196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146150112152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724130868912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109401702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341336280107498</t>
+    <t xml:space="preserve">0.316180348396301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317091852426529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312625735998154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332586377859116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33714359998703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052494287491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966518640518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146179914474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724160671234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109431505203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341336250305176</t>
   </si>
   <si>
     <t xml:space="preserve">0.345346629619598</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">0.347260653972626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353185027837753</t>
+    <t xml:space="preserve">0.353184998035431</t>
   </si>
   <si>
     <t xml:space="preserve">0.353367328643799</t>
@@ -599,112 +599,112 @@
     <t xml:space="preserve">0.362755209207535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381804436445236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380528390407562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389825165271759</t>
+    <t xml:space="preserve">0.381804406642914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38052836060524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389825195074081</t>
   </si>
   <si>
     <t xml:space="preserve">0.380892992019653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369408756494522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362390637397766</t>
+    <t xml:space="preserve">0.3694087266922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362390667200089</t>
   </si>
   <si>
     <t xml:space="preserve">0.36293751001358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361479222774506</t>
+    <t xml:space="preserve">0.361479163169861</t>
   </si>
   <si>
     <t xml:space="preserve">0.361934900283813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367585867643356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368223905563354</t>
+    <t xml:space="preserve">0.367585837841034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368223875761032</t>
   </si>
   <si>
     <t xml:space="preserve">0.370411366224289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363484352827072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358744859695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357195377349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35819798707962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363119810819626</t>
+    <t xml:space="preserve">0.363484382629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358744829893112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357195407152176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358198016881943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363119840621948</t>
   </si>
   <si>
     <t xml:space="preserve">0.347625195980072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35327622294426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093951940536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349995017051697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34379717707634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343250274658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346075803041458</t>
+    <t xml:space="preserve">0.353276193141937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093862533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349994987249374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343797147274017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343250304460526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346075773239136</t>
   </si>
   <si>
     <t xml:space="preserve">0.344617456197739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350268423557281</t>
+    <t xml:space="preserve">0.350268393754959</t>
   </si>
   <si>
     <t xml:space="preserve">0.344890892505646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350359588861465</t>
+    <t xml:space="preserve">0.350359559059143</t>
   </si>
   <si>
     <t xml:space="preserve">0.349356979131699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358380317687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353458493947983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104271650314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359747439622879</t>
+    <t xml:space="preserve">0.358380287885666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35345846414566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104241847992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359747409820557</t>
   </si>
   <si>
     <t xml:space="preserve">0.359565168619156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362299472093582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356375128030777</t>
+    <t xml:space="preserve">0.362299501895905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356375098228455</t>
   </si>
   <si>
     <t xml:space="preserve">0.356192797422409</t>
@@ -713,19 +713,19 @@
     <t xml:space="preserve">0.374330550432205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368861943483353</t>
+    <t xml:space="preserve">0.36886191368103</t>
   </si>
   <si>
     <t xml:space="preserve">0.374148279428482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379525780677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575518131256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820456027985</t>
+    <t xml:space="preserve">0.379525810480118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575577735901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820485830307</t>
   </si>
   <si>
     <t xml:space="preserve">0.3565573990345</t>
@@ -734,19 +734,19 @@
     <t xml:space="preserve">0.361570328474045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360932320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362572938203812</t>
+    <t xml:space="preserve">0.360932350158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362572908401489</t>
   </si>
   <si>
     <t xml:space="preserve">0.355919390916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35847145318985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368315011262894</t>
+    <t xml:space="preserve">0.358471423387527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368315041065216</t>
   </si>
   <si>
     <t xml:space="preserve">0.369864523410797</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">0.369226485490799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372781097888947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370867043733597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368041634559631</t>
+    <t xml:space="preserve">0.372781127691269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370867073535919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368041604757309</t>
   </si>
   <si>
     <t xml:space="preserve">0.387273073196411</t>
@@ -779,13 +779,13 @@
     <t xml:space="preserve">0.378340929746628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386270493268967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.384174197912216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380984157323837</t>
+    <t xml:space="preserve">0.386270523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.384174168109894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380984127521515</t>
   </si>
   <si>
     <t xml:space="preserve">0.382260173559189</t>
@@ -800,70 +800,70 @@
     <t xml:space="preserve">0.378978937864304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378523200750351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505051851273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869653463364</t>
+    <t xml:space="preserve">0.378523230552673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371505081653595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869683265686</t>
   </si>
   <si>
     <t xml:space="preserve">0.366583287715912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365398436784744</t>
+    <t xml:space="preserve">0.365398377180099</t>
   </si>
   <si>
     <t xml:space="preserve">0.365763038396835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360294312238693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364304631948471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385447740555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363848954439163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466263532639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35582822561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377707958221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468873262405</t>
+    <t xml:space="preserve">0.360294282436371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364304661750793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360385477542877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363848924636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466233730316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355828195810318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377737760544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468813657761</t>
   </si>
   <si>
     <t xml:space="preserve">0.36129692196846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366218715906143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365854144096375</t>
+    <t xml:space="preserve">0.366218745708466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365854114294052</t>
   </si>
   <si>
     <t xml:space="preserve">0.358653724193573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364851504564285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355645954608917</t>
+    <t xml:space="preserve">0.36485156416893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355645924806595</t>
   </si>
   <si>
     <t xml:space="preserve">0.362117230892181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36603644490242</t>
+    <t xml:space="preserve">0.366036415100098</t>
   </si>
   <si>
     <t xml:space="preserve">0.363757818937302</t>
@@ -878,61 +878,61 @@
     <t xml:space="preserve">0.355554819107056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358927130699158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114650964737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358289122581482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360111981630325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945279598236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367950469255447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3643958568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359291732311249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365124970674515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377247184514999</t>
+    <t xml:space="preserve">0.35892716050148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114591360092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358289152383804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360112011432648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945249795914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367950439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364395827054977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359291702508926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365125000476837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377247214317322</t>
   </si>
   <si>
     <t xml:space="preserve">0.378887802362442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381257563829422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379799246788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388731360435486</t>
+    <t xml:space="preserve">0.381257593631744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379799276590347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388731420040131</t>
   </si>
   <si>
     <t xml:space="preserve">0.385723650455475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383627325296402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075233221054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413946151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380801856517792</t>
+    <t xml:space="preserve">0.383627355098724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075263023376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413975954056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380801886320114</t>
   </si>
   <si>
     <t xml:space="preserve">0.377611756324768</t>
@@ -941,94 +941,94 @@
     <t xml:space="preserve">0.381713271141052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381531029939651</t>
+    <t xml:space="preserve">0.381530970335007</t>
   </si>
   <si>
     <t xml:space="preserve">0.382898181676865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372689992189407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373965978622437</t>
+    <t xml:space="preserve">0.372689962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373966008424759</t>
   </si>
   <si>
     <t xml:space="preserve">0.375515460968018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366309821605682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359474003314972</t>
+    <t xml:space="preserve">0.366309851408005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359474033117294</t>
   </si>
   <si>
     <t xml:space="preserve">0.358015716075897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362208336591721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348810106515884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357924520969391</t>
+    <t xml:space="preserve">0.362208366394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348810076713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357924550771713</t>
   </si>
   <si>
     <t xml:space="preserve">0.357742309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35701310634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35965633392334</t>
+    <t xml:space="preserve">0.357013076543808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359656304121017</t>
   </si>
   <si>
     <t xml:space="preserve">0.36412239074707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36366668343544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354734480381012</t>
+    <t xml:space="preserve">0.363666653633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354734510183334</t>
   </si>
   <si>
     <t xml:space="preserve">0.355737090110779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365671813488007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361843824386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366400986909866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35181787610054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353640794754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352729290723801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335411876440048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329031765460968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329943209886551</t>
+    <t xml:space="preserve">0.365671843290329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361843794584274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366401016712189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351817905902863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353640764951706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352729350328445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335411846637726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329031735658646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329943180084229</t>
   </si>
   <si>
     <t xml:space="preserve">0.322651654481888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323563039302826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.321740180253983</t>
+    <t xml:space="preserve">0.323563069105148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32174015045166</t>
   </si>
   <si>
     <t xml:space="preserve">0.334500402212143</t>
@@ -1037,31 +1037,31 @@
     <t xml:space="preserve">0.342703431844711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319005846977234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182928323746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271543502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326297402381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318094372749329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310802787542343</t>
+    <t xml:space="preserve">0.319005817174911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182958126068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271513700485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326297432184219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318094402551651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310802847146988</t>
   </si>
   <si>
     <t xml:space="preserve">0.301688402891159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.302599847316742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.309891402721405</t>
+    <t xml:space="preserve">0.30259981751442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30989134311676</t>
   </si>
   <si>
     <t xml:space="preserve">0.308068513870239</t>
@@ -1073,34 +1073,34 @@
     <t xml:space="preserve">0.311714291572571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304422706365585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305334150791168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306245625019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29895406961441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865454435349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776988267899</t>
+    <t xml:space="preserve">0.304422676563263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305334180593491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306245595216751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298954039812088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865484237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776958465576</t>
   </si>
   <si>
     <t xml:space="preserve">0.303511261940002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307157069444656</t>
+    <t xml:space="preserve">0.307157039642334</t>
   </si>
   <si>
     <t xml:space="preserve">0.313537210226059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308979958295822</t>
+    <t xml:space="preserve">0.3089799284935</t>
   </si>
   <si>
     <t xml:space="preserve">0.315360069274902</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">0.351975530385971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342664003372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335214793682098</t>
+    <t xml:space="preserve">0.342664033174515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335214823484421</t>
   </si>
   <si>
     <t xml:space="preserve">0.338008254766464</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">0.347319751977921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354768961668015</t>
+    <t xml:space="preserve">0.354768991470337</t>
   </si>
   <si>
     <t xml:space="preserve">0.349182069301605</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">0.341732889413834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352906674146652</t>
+    <t xml:space="preserve">0.352906703948975</t>
   </si>
   <si>
     <t xml:space="preserve">0.345457464456558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343595176935196</t>
+    <t xml:space="preserve">0.343595147132874</t>
   </si>
   <si>
     <t xml:space="preserve">0.337077081203461</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">0.339870572090149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338939368724823</t>
+    <t xml:space="preserve">0.338939398527145</t>
   </si>
   <si>
     <t xml:space="preserve">0.353837817907333</t>
@@ -1166,22 +1166,22 @@
     <t xml:space="preserve">0.372460871934891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358493566513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363149344921112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362218230962753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631249189377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36128705739975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365942806005478</t>
+    <t xml:space="preserve">0.358493596315384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36314931511879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362218201160431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361287087202072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3659428358078</t>
   </si>
   <si>
     <t xml:space="preserve">0.367805153131485</t>
@@ -1193,40 +1193,40 @@
     <t xml:space="preserve">0.366873949766159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37152972817421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385497003793716</t>
+    <t xml:space="preserve">0.371529698371887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385497033596039</t>
   </si>
   <si>
     <t xml:space="preserve">0.378047794103622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379910081624985</t>
+    <t xml:space="preserve">0.379910051822662</t>
   </si>
   <si>
     <t xml:space="preserve">0.388290464878082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415293872356415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404120057821274</t>
+    <t xml:space="preserve">0.415293902158737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404120028018951</t>
   </si>
   <si>
     <t xml:space="preserve">0.399464279413223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407844632863998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414362698793411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395739704370499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400395423173904</t>
+    <t xml:space="preserve">0.407844662666321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414362728595734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395739674568176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400395452976227</t>
   </si>
   <si>
     <t xml:space="preserve">0.405051201581955</t>
@@ -1235,19 +1235,19 @@
     <t xml:space="preserve">0.405982345342636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409706979990005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391083896160126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403188914060593</t>
+    <t xml:space="preserve">0.409706950187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391083925962448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40318888425827</t>
   </si>
   <si>
     <t xml:space="preserve">0.396670818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401326566934586</t>
+    <t xml:space="preserve">0.401326596736908</t>
   </si>
   <si>
     <t xml:space="preserve">0.413431584835052</t>
@@ -1256,16 +1256,16 @@
     <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422743111848831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.424605369567871</t>
+    <t xml:space="preserve">0.422743082046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.424605399370193</t>
   </si>
   <si>
     <t xml:space="preserve">0.444159597158432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474887579679489</t>
+    <t xml:space="preserve">0.474887609481812</t>
   </si>
   <si>
     <t xml:space="preserve">0.458126872777939</t>
@@ -1277,28 +1277,28 @@
     <t xml:space="preserve">0.455333411693573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454402238130569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.450677692890167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446953028440475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446021914482117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.453471094369888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456264555454254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.471162974834442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476749926805496</t>
+    <t xml:space="preserve">0.454402267932892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.450677663087845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446953058242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446021884679794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.453471124172211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456264585256577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47116294503212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476749956607819</t>
   </si>
   <si>
     <t xml:space="preserve">0.457195729017258</t>
@@ -1316,22 +1316,22 @@
     <t xml:space="preserve">0.439503848552704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451608836650848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.447884202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448815375566483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44043493270874</t>
+    <t xml:space="preserve">0.451608806848526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.447884231805801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44881534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.440434992313385</t>
   </si>
   <si>
     <t xml:space="preserve">0.504684448242188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653668820858002</t>
+    <t xml:space="preserve">0.653668880462646</t>
   </si>
   <si>
     <t xml:space="preserve">0.744921743869781</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">0.657393395900726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687190353870392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.666704952716827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638770341873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6108358502388</t>
+    <t xml:space="preserve">0.687190294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.666705012321472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.638770461082458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610835909843445</t>
   </si>
   <si>
     <t xml:space="preserve">0.59035050868988</t>
@@ -1370,49 +1370,49 @@
     <t xml:space="preserve">0.63132119178772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.629458844661713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633183419704437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640632748603821</t>
+    <t xml:space="preserve">0.629458904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633183479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640632688999176</t>
   </si>
   <si>
     <t xml:space="preserve">0.642495036125183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644357264041901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62759667634964</t>
+    <t xml:space="preserve">0.644357323646545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627596616744995</t>
   </si>
   <si>
     <t xml:space="preserve">0.601524293422699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.577314376831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525169789791107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.515858352184296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.527032136917114</t>
+    <t xml:space="preserve">0.577314436435699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525169849395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.515858232975006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.527032077312469</t>
   </si>
   <si>
     <t xml:space="preserve">0.502822160720825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510663509369</t>
+    <t xml:space="preserve">0.493510603904724</t>
   </si>
   <si>
     <t xml:space="preserve">0.499097555875778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486061424016953</t>
+    <t xml:space="preserve">0.486061483621597</t>
   </si>
   <si>
     <t xml:space="preserve">0.42833000421524</t>
@@ -1424,37 +1424,37 @@
     <t xml:space="preserve">0.463713794946671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435779243707657</t>
+    <t xml:space="preserve">0.435779213905334</t>
   </si>
   <si>
     <t xml:space="preserve">0.442297279834747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491648346185684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500959932804108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513995945453644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.510271370410919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508409142494202</t>
+    <t xml:space="preserve">0.491648405790329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500959813594818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513996005058289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.510271310806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508409082889557</t>
   </si>
   <si>
     <t xml:space="preserve">0.512133717536926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.543792843818665</t>
+    <t xml:space="preserve">0.543792903423309</t>
   </si>
   <si>
     <t xml:space="preserve">0.54006826877594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.571727454662323</t>
+    <t xml:space="preserve">0.571727573871613</t>
   </si>
   <si>
     <t xml:space="preserve">0.582901239395142</t>
@@ -1463,43 +1463,43 @@
     <t xml:space="preserve">0.566140532493591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.558691322803497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538206040859222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530756711959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528894484043121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549379765987396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532619059085846</t>
+    <t xml:space="preserve">0.558691382408142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538205981254578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530756771564484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528894424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549379706382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532618999481201</t>
   </si>
   <si>
     <t xml:space="preserve">0.521445214748383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517720520496368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506546854972839</t>
+    <t xml:space="preserve">0.517720580101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546795368195</t>
   </si>
   <si>
     <t xml:space="preserve">0.536343634128571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.564278244972229</t>
+    <t xml:space="preserve">0.564278304576874</t>
   </si>
   <si>
     <t xml:space="preserve">0.575452029705048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579176604747772</t>
+    <t xml:space="preserve">0.579176664352417</t>
   </si>
   <si>
     <t xml:space="preserve">0.592212796211243</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">0.551242113113403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557269752025604</t>
+    <t xml:space="preserve">0.557269692420959</t>
   </si>
   <si>
     <t xml:space="preserve">0.566747069358826</t>
@@ -1520,40 +1520,40 @@
     <t xml:space="preserve">0.562956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551583230495453</t>
+    <t xml:space="preserve">0.551583290100098</t>
   </si>
   <si>
     <t xml:space="preserve">0.553478717803955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559165120124817</t>
+    <t xml:space="preserve">0.559165060520172</t>
   </si>
   <si>
     <t xml:space="preserve">0.542105913162231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544001400470734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.540210366249084</t>
+    <t xml:space="preserve">0.544001340866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.540210425853729</t>
   </si>
   <si>
     <t xml:space="preserve">0.547792375087738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.545896828174591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534523963928223</t>
+    <t xml:space="preserve">0.545896768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534524023532867</t>
   </si>
   <si>
     <t xml:space="preserve">0.536419451236725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525046646595001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.519360184669495</t>
+    <t xml:space="preserve">0.525046586990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51936012506485</t>
   </si>
   <si>
     <t xml:space="preserve">0.51556932926178</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">0.513673722743988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523151099681854</t>
+    <t xml:space="preserve">0.523151159286499</t>
   </si>
   <si>
     <t xml:space="preserve">0.521255671977997</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">0.528837621212006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538314998149872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530733048915863</t>
+    <t xml:space="preserve">0.538314938545227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530732989311218</t>
   </si>
   <si>
     <t xml:space="preserve">0.583806335926056</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">0.735444366931915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.739235281944275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693743884563446</t>
+    <t xml:space="preserve">0.73923522233963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693743824958801</t>
   </si>
   <si>
     <t xml:space="preserve">0.653938949108124</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">0.682371079921722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659625351428986</t>
+    <t xml:space="preserve">0.659625291824341</t>
   </si>
   <si>
     <t xml:space="preserve">0.669102668762207</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">0.644461512565613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.650147914886475</t>
+    <t xml:space="preserve">0.650147974491119</t>
   </si>
   <si>
     <t xml:space="preserve">0.640670597553253</t>
@@ -1631,13 +1631,13 @@
     <t xml:space="preserve">0.629297733306885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62550687789917</t>
+    <t xml:space="preserve">0.625506818294525</t>
   </si>
   <si>
     <t xml:space="preserve">0.619820356369019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616029381752014</t>
+    <t xml:space="preserve">0.616029441356659</t>
   </si>
   <si>
     <t xml:space="preserve">0.604656577110291</t>
@@ -1649,25 +1649,25 @@
     <t xml:space="preserve">0.593283712863922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58759731054306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60844749212265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597074627876282</t>
+    <t xml:space="preserve">0.587597370147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608447551727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597074687480927</t>
   </si>
   <si>
     <t xml:space="preserve">0.589492738246918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642566084861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652043521404266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636879563331604</t>
+    <t xml:space="preserve">0.642566025257111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.652043461799622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636879622936249</t>
   </si>
   <si>
     <t xml:space="preserve">0.617924869060516</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">0.610342979431152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.555374205112457</t>
+    <t xml:space="preserve">0.555374264717102</t>
   </si>
   <si>
     <t xml:space="preserve">0.564851582050323</t>
@@ -1691,19 +1691,19 @@
     <t xml:space="preserve">0.53262847661972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578119933605194</t>
+    <t xml:space="preserve">0.578119874000549</t>
   </si>
   <si>
     <t xml:space="preserve">0.576224446296692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568642556667328</t>
+    <t xml:space="preserve">0.568642616271973</t>
   </si>
   <si>
     <t xml:space="preserve">0.561060667037964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572433471679688</t>
+    <t xml:space="preserve">0.572433412075043</t>
   </si>
   <si>
     <t xml:space="preserve">0.59138822555542</t>
@@ -1715,40 +1715,40 @@
     <t xml:space="preserve">0.674789130687714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.665311753749847</t>
+    <t xml:space="preserve">0.665311813354492</t>
   </si>
   <si>
     <t xml:space="preserve">0.691848456859589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699430346488953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678580105304718</t>
+    <t xml:space="preserve">0.699430286884308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678580164909363</t>
   </si>
   <si>
     <t xml:space="preserve">0.672893643379211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.667207300662994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657729923725128</t>
+    <t xml:space="preserve">0.66720724105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657729864120483</t>
   </si>
   <si>
     <t xml:space="preserve">0.705116748809814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.69753485918045</t>
+    <t xml:space="preserve">0.697534918785095</t>
   </si>
   <si>
     <t xml:space="preserve">0.688057482242584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.680475652217865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648252487182617</t>
+    <t xml:space="preserve">0.68047559261322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648252546787262</t>
   </si>
   <si>
     <t xml:space="preserve">0.799890458583832</t>
@@ -1757,34 +1757,34 @@
     <t xml:space="preserve">0.758190035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788517653942108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782831192016602</t>
+    <t xml:space="preserve">0.788517713546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782831251621246</t>
   </si>
   <si>
     <t xml:space="preserve">0.775249361991882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761981010437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75629460811615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75250369310379</t>
+    <t xml:space="preserve">0.761981070041656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756294548511505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.752503633499146</t>
   </si>
   <si>
     <t xml:space="preserve">0.748712778091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724071562290192</t>
+    <t xml:space="preserve">0.724071502685547</t>
   </si>
   <si>
     <t xml:space="preserve">0.727862477302551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731653392314911</t>
+    <t xml:space="preserve">0.731653451919556</t>
   </si>
   <si>
     <t xml:space="preserve">0.733548820018768</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737339913845062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.729757905006409</t>
+    <t xml:space="preserve">0.737339854240417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.729757964611053</t>
   </si>
   <si>
     <t xml:space="preserve">0.722176015377045</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">0.769562900066376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.760085463523865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.754399061203003</t>
+    <t xml:space="preserve">0.76008552312851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.754399120807648</t>
   </si>
   <si>
     <t xml:space="preserve">0.813158810138702</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">0.824638724327087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816985428333282</t>
+    <t xml:space="preserve">0.816985487937927</t>
   </si>
   <si>
     <t xml:space="preserve">0.803592264652252</t>
@@ -1874,19 +1874,19 @@
     <t xml:space="preserve">0.746192753314972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.740452885627747</t>
+    <t xml:space="preserve">0.740452826023102</t>
   </si>
   <si>
     <t xml:space="preserve">0.732799530029297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721319735050201</t>
+    <t xml:space="preserve">0.721319794654846</t>
   </si>
   <si>
     <t xml:space="preserve">0.715579807758331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713666498661041</t>
+    <t xml:space="preserve">0.713666439056396</t>
   </si>
   <si>
     <t xml:space="preserve">0.694533348083496</t>
@@ -1895,10 +1895,10 @@
     <t xml:space="preserve">0.683053374290466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.690706610679626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698359966278076</t>
+    <t xml:space="preserve">0.690706670284271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698359906673431</t>
   </si>
   <si>
     <t xml:space="preserve">0.730886280536652</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">0.778719186782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782545864582062</t>
+    <t xml:space="preserve">0.782545804977417</t>
   </si>
   <si>
     <t xml:space="preserve">0.776805818080902</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734712958335876</t>
+    <t xml:space="preserve">0.734713017940521</t>
   </si>
   <si>
     <t xml:space="preserve">0.717493057250977</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">0.709839820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727059662342072</t>
+    <t xml:space="preserve">0.727059602737427</t>
   </si>
   <si>
     <t xml:space="preserve">0.719406366348267</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">0.723233044147491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851425111293793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937524378299713</t>
+    <t xml:space="preserve">0.851425170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937524318695068</t>
   </si>
   <si>
     <t xml:space="preserve">0.903084635734558</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">0.904997944831848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883951485157013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895431399345398</t>
+    <t xml:space="preserve">0.883951544761658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895431339740753</t>
   </si>
   <si>
     <t xml:space="preserve">0.843771934509277</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">0.853338479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876298248767853</t>
+    <t xml:space="preserve">0.876298189163208</t>
   </si>
   <si>
     <t xml:space="preserve">0.880124866962433</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">0.887778103351593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885864794254303</t>
+    <t xml:space="preserve">0.885864853858948</t>
   </si>
   <si>
     <t xml:space="preserve">0.878211557865143</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">1.10015606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01884019374847</t>
+    <t xml:space="preserve">1.01884031295776</t>
   </si>
   <si>
     <t xml:space="preserve">1.0858062505722</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">1.19582176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21017169952393</t>
+    <t xml:space="preserve">1.21017158031464</t>
   </si>
   <si>
     <t xml:space="preserve">1.12885570526123</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">1.04275667667389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09537279605865</t>
+    <t xml:space="preserve">1.09537267684937</t>
   </si>
   <si>
     <t xml:space="preserve">1.1049393415451</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">1.03797328472137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11450588703156</t>
+    <t xml:space="preserve">1.11450600624084</t>
   </si>
   <si>
     <t xml:space="preserve">1.13363897800446</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">1.06667304039001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03319013118744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0236234664917</t>
+    <t xml:space="preserve">1.03319001197815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02362358570099</t>
   </si>
   <si>
     <t xml:space="preserve">0.994923770427704</t>
@@ -2090,19 +2090,19 @@
     <t xml:space="preserve">0.922217786312103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999707102775574</t>
+    <t xml:space="preserve">0.999706983566284</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980573892593384</t>
+    <t xml:space="preserve">0.980573832988739</t>
   </si>
   <si>
     <t xml:space="preserve">0.914564490318298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872471570968628</t>
+    <t xml:space="preserve">0.872471630573273</t>
   </si>
   <si>
     <t xml:space="preserve">0.891604721546173</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">0.899258017539978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889691472053528</t>
+    <t xml:space="preserve">0.889691412448883</t>
   </si>
   <si>
     <t xml:space="preserve">0.884908199310303</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">0.865774989128113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860991716384888</t>
+    <t xml:space="preserve">0.860991656780243</t>
   </si>
   <si>
     <t xml:space="preserve">0.818898797035217</t>
@@ -2177,10 +2177,10 @@
     <t xml:space="preserve">0.904041290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901171267032623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845685243606567</t>
+    <t xml:space="preserve">0.901171326637268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845685184001923</t>
   </si>
   <si>
     <t xml:space="preserve">0.846641838550568</t>
@@ -2195,19 +2195,19 @@
     <t xml:space="preserve">0.866731703281403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.983443796634674</t>
+    <t xml:space="preserve">0.983443856239319</t>
   </si>
   <si>
     <t xml:space="preserve">0.939437627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940394222736359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929871082305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877254843711853</t>
+    <t xml:space="preserve">0.940394282341003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929871022701263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877254903316498</t>
   </si>
   <si>
     <t xml:space="preserve">0.839945256710052</t>
@@ -59377,7 +59377,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6454282407</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>20273</v>
@@ -59398,6 +59398,32 @@
         <v>918</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6425347222</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>6022</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>918</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="921">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410150349140167</t>
+    <t xml:space="preserve">0.41015037894249</t>
   </si>
   <si>
     <t xml:space="preserve">GTH.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421087712049484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413796126842499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.416530460119247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393653213977814</t>
+    <t xml:space="preserve">0.421087741851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413796186447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41653048992157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393653184175491</t>
   </si>
   <si>
     <t xml:space="preserve">0.400944769382477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394108951091766</t>
+    <t xml:space="preserve">0.394108921289444</t>
   </si>
   <si>
     <t xml:space="preserve">0.391921490430832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396478682756424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400033354759216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405046284198761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3971166908741</t>
+    <t xml:space="preserve">0.396478712558746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400033324956894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405046314001083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.397116661071777</t>
   </si>
   <si>
     <t xml:space="preserve">0.382806986570358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40468168258667</t>
+    <t xml:space="preserve">0.404681712388992</t>
   </si>
   <si>
     <t xml:space="preserve">0.409876942634583</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">0.408327519893646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406778037548065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402767688035965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403314501047134</t>
+    <t xml:space="preserve">0.406778067350388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402767658233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403314560651779</t>
   </si>
   <si>
     <t xml:space="preserve">0.389095991849899</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">0.373601406812668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357286542654037</t>
+    <t xml:space="preserve">0.357286512851715</t>
   </si>
   <si>
     <t xml:space="preserve">0.359929740428925</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">0.33240407705307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355463624000549</t>
+    <t xml:space="preserve">0.355463653802872</t>
   </si>
   <si>
     <t xml:space="preserve">0.35537251830101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385450184345245</t>
+    <t xml:space="preserve">0.385450214147568</t>
   </si>
   <si>
     <t xml:space="preserve">0.391010016202927</t>
@@ -134,25 +134,25 @@
     <t xml:space="preserve">0.391465783119202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375424295663834</t>
+    <t xml:space="preserve">0.375424265861511</t>
   </si>
   <si>
     <t xml:space="preserve">0.392832905054092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406504571437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409694701433182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393835484981537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405593127012253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402403116226196</t>
+    <t xml:space="preserve">0.406504601240158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409694641828537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393835455179214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40559309720993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402403086423874</t>
   </si>
   <si>
     <t xml:space="preserve">0.396569848060608</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.392012625932693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39638751745224</t>
+    <t xml:space="preserve">0.396387547254562</t>
   </si>
   <si>
     <t xml:space="preserve">0.401035904884338</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">0.387728810310364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382168978452682</t>
+    <t xml:space="preserve">0.382169008255005</t>
   </si>
   <si>
     <t xml:space="preserve">0.383718460798264</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">0.389642864465714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354187577962875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356830775737762</t>
+    <t xml:space="preserve">0.35418763756752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356830805540085</t>
   </si>
   <si>
     <t xml:space="preserve">0.346804916858673</t>
@@ -203,13 +203,13 @@
     <t xml:space="preserve">0.368132740259171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359018266201019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355190187692642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3724165558815</t>
+    <t xml:space="preserve">0.359018296003342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355190247297287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372416585683823</t>
   </si>
   <si>
     <t xml:space="preserve">0.372598826885223</t>
@@ -218,34 +218,34 @@
     <t xml:space="preserve">0.364486932754517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387364268302917</t>
+    <t xml:space="preserve">0.387364238500595</t>
   </si>
   <si>
     <t xml:space="preserve">0.373783707618713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373692542314529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39164799451828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391830295324326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403679072856903</t>
+    <t xml:space="preserve">0.373692572116852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391647964715958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391830325126648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403679102659225</t>
   </si>
   <si>
     <t xml:space="preserve">0.395020425319672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391101181507111</t>
+    <t xml:space="preserve">0.391101211309433</t>
   </si>
   <si>
     <t xml:space="preserve">0.390463173389435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379161208868027</t>
+    <t xml:space="preserve">0.379161238670349</t>
   </si>
   <si>
     <t xml:space="preserve">0.369135320186615</t>
@@ -266,31 +266,31 @@
     <t xml:space="preserve">0.372143089771271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372507691383362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366765588521957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373510301113129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366856724023819</t>
+    <t xml:space="preserve">0.372507631778717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366765558719635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373510271310806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366856694221497</t>
   </si>
   <si>
     <t xml:space="preserve">0.379890382289886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382715910673141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368588477373123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.376609206199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375150889158249</t>
+    <t xml:space="preserve">0.382715851068497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368588447570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.376609176397324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375150859355927</t>
   </si>
   <si>
     <t xml:space="preserve">0.36466920375824</t>
@@ -302,19 +302,19 @@
     <t xml:space="preserve">0.367312431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370958238840103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360020875930786</t>
+    <t xml:space="preserve">0.370958209037781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360020905733109</t>
   </si>
   <si>
     <t xml:space="preserve">0.348172098398209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350906431674957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354552149772644</t>
+    <t xml:space="preserve">0.350906401872635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354552239179611</t>
   </si>
   <si>
     <t xml:space="preserve">0.370046764612198</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">0.373328000307083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364578098058701</t>
+    <t xml:space="preserve">0.364578127861023</t>
   </si>
   <si>
     <t xml:space="preserve">0.354461073875427</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">0.33996906876564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35227358341217</t>
+    <t xml:space="preserve">0.352273613214493</t>
   </si>
   <si>
     <t xml:space="preserve">0.348354399204254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344435155391693</t>
+    <t xml:space="preserve">0.344435185194016</t>
   </si>
   <si>
     <t xml:space="preserve">0.337234735488892</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">0.330581188201904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326206266880035</t>
+    <t xml:space="preserve">0.326206296682358</t>
   </si>
   <si>
     <t xml:space="preserve">0.324474513530731</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">0.327755749225616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329852044582367</t>
+    <t xml:space="preserve">0.329852014780045</t>
   </si>
   <si>
     <t xml:space="preserve">0.341245085000992</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">0.329487472772598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327664583921432</t>
+    <t xml:space="preserve">0.32766455411911</t>
   </si>
   <si>
     <t xml:space="preserve">0.325294822454453</t>
@@ -389,40 +389,40 @@
     <t xml:space="preserve">0.326115131378174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333588927984238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340971708297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33759930729866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340515941381454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340880542993546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341518551111221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334865003824234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336323291063309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335320681333542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33905765414238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329578638076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331766068935394</t>
+    <t xml:space="preserve">0.33358895778656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340971678495407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337599366903305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340515971183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340880572795868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341518580913544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334864974021912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336323320865631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335320711135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339057624340057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32957860827446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331766098737717</t>
   </si>
   <si>
     <t xml:space="preserve">0.332312971353531</t>
@@ -434,16 +434,16 @@
     <t xml:space="preserve">0.328211456537247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332677513360977</t>
+    <t xml:space="preserve">0.3326775431633</t>
   </si>
   <si>
     <t xml:space="preserve">0.328120291233063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319917291402817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327208817005157</t>
+    <t xml:space="preserve">0.319917321205139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32720884680748</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226965904236</t>
@@ -455,22 +455,22 @@
     <t xml:space="preserve">0.3208287358284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361752659082413</t>
+    <t xml:space="preserve">0.36175262928009</t>
   </si>
   <si>
     <t xml:space="preserve">0.335867583751678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333680123090744</t>
+    <t xml:space="preserve">0.333680152893066</t>
   </si>
   <si>
     <t xml:space="preserve">0.330945760011673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335229575634003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343432575464249</t>
+    <t xml:space="preserve">0.33522954583168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343432605266571</t>
   </si>
   <si>
     <t xml:space="preserve">0.349083542823792</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">0.338875353336334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342885732650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333771258592606</t>
+    <t xml:space="preserve">0.342885702848434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333771228790283</t>
   </si>
   <si>
     <t xml:space="preserve">0.344526290893555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337690472602844</t>
+    <t xml:space="preserve">0.337690442800522</t>
   </si>
   <si>
     <t xml:space="preserve">0.336687862873077</t>
@@ -497,10 +497,10 @@
     <t xml:space="preserve">0.378249764442444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351088732481003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349265784025192</t>
+    <t xml:space="preserve">0.35108870267868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349265813827515</t>
   </si>
   <si>
     <t xml:space="preserve">0.340151369571686</t>
@@ -509,19 +509,19 @@
     <t xml:space="preserve">0.335594147443771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342976838350296</t>
+    <t xml:space="preserve">0.342976868152618</t>
   </si>
   <si>
     <t xml:space="preserve">0.34972158074379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345437735319138</t>
+    <t xml:space="preserve">0.34543776512146</t>
   </si>
   <si>
     <t xml:space="preserve">0.353549599647522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35491681098938</t>
+    <t xml:space="preserve">0.354916781187057</t>
   </si>
   <si>
     <t xml:space="preserve">0.345073163509369</t>
@@ -533,25 +533,25 @@
     <t xml:space="preserve">0.328940600156784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854684114456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324109941720963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331310331821442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312352299690247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316180378198624</t>
+    <t xml:space="preserve">0.330854654312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32410991191864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331310361623764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312352269887924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316180318593979</t>
   </si>
   <si>
     <t xml:space="preserve">0.317091792821884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312625735998154</t>
+    <t xml:space="preserve">0.312625765800476</t>
   </si>
   <si>
     <t xml:space="preserve">0.332586407661438</t>
@@ -563,10 +563,10 @@
     <t xml:space="preserve">0.337052464485168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338966488838196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146179914474</t>
+    <t xml:space="preserve">0.338966518640518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146209716797</t>
   </si>
   <si>
     <t xml:space="preserve">0.350724160671234</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">0.341336280107498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345346599817276</t>
+    <t xml:space="preserve">0.345346629619598</t>
   </si>
   <si>
     <t xml:space="preserve">0.343614876270294</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">0.353185057640076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353367358446121</t>
+    <t xml:space="preserve">0.353367298841476</t>
   </si>
   <si>
     <t xml:space="preserve">0.362755239009857</t>
@@ -602,28 +602,28 @@
     <t xml:space="preserve">0.381804436445236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380528390407562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389825165271759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380892932415009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369408756494522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362390607595444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36293751001358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479192972183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361934959888458</t>
+    <t xml:space="preserve">0.380528420209885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389825135469437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380892962217331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369408786296844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362390637397766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362937480211258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479222774506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361934930086136</t>
   </si>
   <si>
     <t xml:space="preserve">0.367585867643356</t>
@@ -632,13 +632,13 @@
     <t xml:space="preserve">0.368223905563354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370411336421967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363484382629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358744829893112</t>
+    <t xml:space="preserve">0.370411366224289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363484412431717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358744859695435</t>
   </si>
   <si>
     <t xml:space="preserve">0.357195436954498</t>
@@ -647,28 +647,28 @@
     <t xml:space="preserve">0.358198016881943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363119781017303</t>
+    <t xml:space="preserve">0.363119810819626</t>
   </si>
   <si>
     <t xml:space="preserve">0.347625195980072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35327622294426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093862533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34999492764473</t>
+    <t xml:space="preserve">0.353276193141937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093892335892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349994987249374</t>
   </si>
   <si>
     <t xml:space="preserve">0.343797147274017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343250304460526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346075743436813</t>
+    <t xml:space="preserve">0.343250274658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346075773239136</t>
   </si>
   <si>
     <t xml:space="preserve">0.344617486000061</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">0.344890892505646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350359559059143</t>
+    <t xml:space="preserve">0.350359588861465</t>
   </si>
   <si>
     <t xml:space="preserve">0.349356979131699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358380258083344</t>
+    <t xml:space="preserve">0.358380287885666</t>
   </si>
   <si>
     <t xml:space="preserve">0.35345846414566</t>
@@ -701,22 +701,22 @@
     <t xml:space="preserve">0.359565168619156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362299501895905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356375128030777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356192797422409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374330550432205</t>
+    <t xml:space="preserve">0.362299472093582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356375098228455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356192857027054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374330580234528</t>
   </si>
   <si>
     <t xml:space="preserve">0.36886191368103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374148309230804</t>
+    <t xml:space="preserve">0.374148279428482</t>
   </si>
   <si>
     <t xml:space="preserve">0.379525780677795</t>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">0.363575488328934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352820456027985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3565573990345</t>
+    <t xml:space="preserve">0.352820485830307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356557369232178</t>
   </si>
   <si>
     <t xml:space="preserve">0.361570358276367</t>
@@ -746,13 +746,13 @@
     <t xml:space="preserve">0.358471423387527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368315041065216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369864493608475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374604016542435</t>
+    <t xml:space="preserve">0.368315011262894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369864523410797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374604046344757</t>
   </si>
   <si>
     <t xml:space="preserve">0.366674423217773</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">0.369226455688477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372781127691269</t>
+    <t xml:space="preserve">0.372781097888947</t>
   </si>
   <si>
     <t xml:space="preserve">0.370867073535919</t>
@@ -770,28 +770,28 @@
     <t xml:space="preserve">0.368041634559631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387273102998734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382533550262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378340929746628</t>
+    <t xml:space="preserve">0.387273073196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382533609867096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378340989351273</t>
   </si>
   <si>
     <t xml:space="preserve">0.386270493268967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384174168109894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380984157323837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260143756866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541379451752</t>
+    <t xml:space="preserve">0.384174197912216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380984127521515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260203361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541349649429</t>
   </si>
   <si>
     <t xml:space="preserve">0.386817365884781</t>
@@ -809,25 +809,25 @@
     <t xml:space="preserve">0.371869653463364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366583287715912</t>
+    <t xml:space="preserve">0.366583317518234</t>
   </si>
   <si>
     <t xml:space="preserve">0.365398436784744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365763038396835</t>
+    <t xml:space="preserve">0.365762978792191</t>
   </si>
   <si>
     <t xml:space="preserve">0.360294312238693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364304661750793</t>
+    <t xml:space="preserve">0.364304691553116</t>
   </si>
   <si>
     <t xml:space="preserve">0.360385447740555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363848954439163</t>
+    <t xml:space="preserve">0.363848924636841</t>
   </si>
   <si>
     <t xml:space="preserve">0.356466233730316</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">0.35582822561264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357377737760544</t>
+    <t xml:space="preserve">0.357377678155899</t>
   </si>
   <si>
     <t xml:space="preserve">0.357468813657761</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">0.365854144096375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358653724193573</t>
+    <t xml:space="preserve">0.358653753995895</t>
   </si>
   <si>
     <t xml:space="preserve">0.364851534366608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35564598441124</t>
+    <t xml:space="preserve">0.355645954608917</t>
   </si>
   <si>
     <t xml:space="preserve">0.362117230892181</t>
@@ -872,31 +872,31 @@
     <t xml:space="preserve">0.356921970844269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361661493778229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554789304733</t>
+    <t xml:space="preserve">0.361661523580551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554819107056</t>
   </si>
   <si>
     <t xml:space="preserve">0.358927130699158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361114621162415</t>
+    <t xml:space="preserve">0.361114650964737</t>
   </si>
   <si>
     <t xml:space="preserve">0.358289122581482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360111981630325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945249795914</t>
+    <t xml:space="preserve">0.360112011432648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945279598236</t>
   </si>
   <si>
     <t xml:space="preserve">0.367950469255447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3643958568573</t>
+    <t xml:space="preserve">0.364395827054977</t>
   </si>
   <si>
     <t xml:space="preserve">0.359291732311249</t>
@@ -905,31 +905,31 @@
     <t xml:space="preserve">0.365124970674515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377247214317322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378887802362442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3812575340271</t>
+    <t xml:space="preserve">0.377247184514999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37888777256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381257563829422</t>
   </si>
   <si>
     <t xml:space="preserve">0.379799246788025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388731360435486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723650455475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383627325296402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075292825699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413946151733</t>
+    <t xml:space="preserve">0.388731390237808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723620653152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38362729549408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075233221054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413975954056</t>
   </si>
   <si>
     <t xml:space="preserve">0.380801856517792</t>
@@ -941,58 +941,58 @@
     <t xml:space="preserve">0.381713271141052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381530970335007</t>
+    <t xml:space="preserve">0.381531000137329</t>
   </si>
   <si>
     <t xml:space="preserve">0.382898151874542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372689962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373965948820114</t>
+    <t xml:space="preserve">0.372689992189407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373965978622437</t>
   </si>
   <si>
     <t xml:space="preserve">0.375515460968018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366309851408005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359474062919617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358015686273575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362208306789398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348810136318207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357924550771713</t>
+    <t xml:space="preserve">0.366309881210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359474033117294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358015716075897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362208336591721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348810106515884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357924520969391</t>
   </si>
   <si>
     <t xml:space="preserve">0.357742309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357013076543808</t>
+    <t xml:space="preserve">0.357013136148453</t>
   </si>
   <si>
     <t xml:space="preserve">0.359656304121017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364122420549393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36366668343544</t>
+    <t xml:space="preserve">0.364122450351715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363666623830795</t>
   </si>
   <si>
     <t xml:space="preserve">0.354734510183334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355737090110779</t>
+    <t xml:space="preserve">0.355737060308456</t>
   </si>
   <si>
     <t xml:space="preserve">0.365671843290329</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">0.361843764781952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366401016712189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351817905902863</t>
+    <t xml:space="preserve">0.366400986909866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35181787610054</t>
   </si>
   <si>
     <t xml:space="preserve">0.353640794754028</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">0.352729320526123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335411906242371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329031735658646</t>
+    <t xml:space="preserve">0.335411876440048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329031765460968</t>
   </si>
   <si>
     <t xml:space="preserve">0.329943180084229</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">0.334500432014465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342703431844711</t>
+    <t xml:space="preserve">0.342703402042389</t>
   </si>
   <si>
     <t xml:space="preserve">0.319005846977234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317182958126068</t>
+    <t xml:space="preserve">0.317182928323746</t>
   </si>
   <si>
     <t xml:space="preserve">0.316271513700485</t>
@@ -1055,25 +1055,25 @@
     <t xml:space="preserve">0.310802817344666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301688402891159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30259981751442</t>
+    <t xml:space="preserve">0.301688432693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302599847316742</t>
   </si>
   <si>
     <t xml:space="preserve">0.309891372919083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308068484067917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314448624849319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311714291572571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304422736167908</t>
+    <t xml:space="preserve">0.308068513870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314448654651642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311714261770248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304422676563263</t>
   </si>
   <si>
     <t xml:space="preserve">0.305334150791168</t>
@@ -1082,25 +1082,25 @@
     <t xml:space="preserve">0.306245595216751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298954039812088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865543842316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776928663254</t>
+    <t xml:space="preserve">0.298954010009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865484237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776958465576</t>
   </si>
   <si>
     <t xml:space="preserve">0.303511261940002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307157099246979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313537210226059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308979958295822</t>
+    <t xml:space="preserve">0.307157129049301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313537180423737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3089799284935</t>
   </si>
   <si>
     <t xml:space="preserve">0.31536003947258</t>
@@ -1115,85 +1115,85 @@
     <t xml:space="preserve">0.342664033174515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335214793682098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338008284568787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33614593744278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347319751977921</t>
+    <t xml:space="preserve">0.335214823484421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338008254766464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336145967245102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347319722175598</t>
   </si>
   <si>
     <t xml:space="preserve">0.354768991470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349182069301605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346388638019562</t>
+    <t xml:space="preserve">0.349182039499283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346388608217239</t>
   </si>
   <si>
     <t xml:space="preserve">0.341732859611511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352906674146652</t>
+    <t xml:space="preserve">0.35290664434433</t>
   </si>
   <si>
     <t xml:space="preserve">0.345457434654236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343595147132874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337077051401138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340801686048508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339870542287827</t>
+    <t xml:space="preserve">0.343595176935196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337077081203461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34080171585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339870572090149</t>
   </si>
   <si>
     <t xml:space="preserve">0.338939398527145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353837847709656</t>
+    <t xml:space="preserve">0.353837817907333</t>
   </si>
   <si>
     <t xml:space="preserve">0.372460842132568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358493596315384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36314931511879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362218141555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631278991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361287087202072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3659428358078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36780509352684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368736296892166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366873949766159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37152972817421</t>
+    <t xml:space="preserve">0.358493566513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363149344921112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362218201160431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631249189377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36128705739975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365942806005478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367805123329163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368736267089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366873919963837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371529698371887</t>
   </si>
   <si>
     <t xml:space="preserve">0.385497003793716</t>
@@ -1202,34 +1202,34 @@
     <t xml:space="preserve">0.3780477643013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379910081624985</t>
+    <t xml:space="preserve">0.379910051822662</t>
   </si>
   <si>
     <t xml:space="preserve">0.388290464878082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415293842554092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404120028018951</t>
+    <t xml:space="preserve">0.415293872356415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404120057821274</t>
   </si>
   <si>
     <t xml:space="preserve">0.399464249610901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407844662666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414362728595734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395739704370499</t>
+    <t xml:space="preserve">0.407844603061676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414362698793411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395739674568176</t>
   </si>
   <si>
     <t xml:space="preserve">0.400395452976227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405051171779633</t>
+    <t xml:space="preserve">0.405051201581955</t>
   </si>
   <si>
     <t xml:space="preserve">0.405982345342636</t>
@@ -1250,37 +1250,37 @@
     <t xml:space="preserve">0.401326596736908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41343155503273</t>
+    <t xml:space="preserve">0.413431584835052</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422743052244186</t>
+    <t xml:space="preserve">0.422743082046509</t>
   </si>
   <si>
     <t xml:space="preserve">0.424605399370193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444159597158432</t>
+    <t xml:space="preserve">0.444159626960754</t>
   </si>
   <si>
     <t xml:space="preserve">0.474887609481812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458126902580261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45253998041153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455333381891251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.454402267932892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.450677633285522</t>
+    <t xml:space="preserve">0.458126872777939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452539950609207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455333411693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.454402297735214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.450677663087845</t>
   </si>
   <si>
     <t xml:space="preserve">0.446953058242798</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">0.446021884679794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453471124172211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456264555454254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.471162974834442</t>
+    <t xml:space="preserve">0.453471094369888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456264615058899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.471163004636765</t>
   </si>
   <si>
     <t xml:space="preserve">0.476749926805496</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">0.457195729017258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45905801653862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460920304059982</t>
+    <t xml:space="preserve">0.459058046340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460920333862305</t>
   </si>
   <si>
     <t xml:space="preserve">0.445090711116791</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">0.439503848552704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451608806848526</t>
+    <t xml:space="preserve">0.451608836650848</t>
   </si>
   <si>
     <t xml:space="preserve">0.447884202003479</t>
@@ -1325,43 +1325,43 @@
     <t xml:space="preserve">0.448815375566483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44043493270874</t>
+    <t xml:space="preserve">0.440434962511063</t>
   </si>
   <si>
     <t xml:space="preserve">0.504684448242188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653668820858002</t>
+    <t xml:space="preserve">0.653668880462646</t>
   </si>
   <si>
     <t xml:space="preserve">0.744921684265137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.672291874885559</t>
+    <t xml:space="preserve">0.672291934490204</t>
   </si>
   <si>
     <t xml:space="preserve">0.657393455505371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687190294265747</t>
+    <t xml:space="preserve">0.687190353870392</t>
   </si>
   <si>
     <t xml:space="preserve">0.666705012321472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.638770341873169</t>
+    <t xml:space="preserve">0.638770401477814</t>
   </si>
   <si>
     <t xml:space="preserve">0.6108358502388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590350449085236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568002760410309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608973443508148</t>
+    <t xml:space="preserve">0.59035050868988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568002820014954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608973503112793</t>
   </si>
   <si>
     <t xml:space="preserve">0.635045766830444</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">0.63132119178772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.629458844661713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633183419704437</t>
+    <t xml:space="preserve">0.629458904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633183479309082</t>
   </si>
   <si>
     <t xml:space="preserve">0.640632748603821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.642495036125183</t>
+    <t xml:space="preserve">0.642495095729828</t>
   </si>
   <si>
     <t xml:space="preserve">0.644357264041901</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">0.601524412631989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57731431722641</t>
+    <t xml:space="preserve">0.577314376831055</t>
   </si>
   <si>
     <t xml:space="preserve">0.525169849395752</t>
@@ -1400,49 +1400,49 @@
     <t xml:space="preserve">0.515858352184296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.527032136917114</t>
+    <t xml:space="preserve">0.527032077312469</t>
   </si>
   <si>
     <t xml:space="preserve">0.502822160720825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510544300079</t>
+    <t xml:space="preserve">0.493510663509369</t>
   </si>
   <si>
     <t xml:space="preserve">0.499097585678101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486061453819275</t>
+    <t xml:space="preserve">0.486061424016953</t>
   </si>
   <si>
     <t xml:space="preserve">0.42833000421524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437641501426697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.463713765144348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435779184103012</t>
+    <t xml:space="preserve">0.437641531229019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.463713794946671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435779243707657</t>
   </si>
   <si>
     <t xml:space="preserve">0.442297279834747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491648405790329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500959932804108</t>
+    <t xml:space="preserve">0.491648346185684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500959873199463</t>
   </si>
   <si>
     <t xml:space="preserve">0.513995945453644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510271430015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508409082889557</t>
+    <t xml:space="preserve">0.510271370410919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508409142494202</t>
   </si>
   <si>
     <t xml:space="preserve">0.512133657932281</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">0.54006826877594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.571727514266968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.582901239395142</t>
+    <t xml:space="preserve">0.571727454662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.582901179790497</t>
   </si>
   <si>
     <t xml:space="preserve">0.566140532493591</t>
@@ -1466,22 +1466,22 @@
     <t xml:space="preserve">0.558691263198853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538205921649933</t>
+    <t xml:space="preserve">0.538205981254578</t>
   </si>
   <si>
     <t xml:space="preserve">0.530756771564484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.528894484043121</t>
+    <t xml:space="preserve">0.528894424438477</t>
   </si>
   <si>
     <t xml:space="preserve">0.549379765987396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.532618999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521445274353027</t>
+    <t xml:space="preserve">0.532619059085846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521445214748383</t>
   </si>
   <si>
     <t xml:space="preserve">0.517720580101013</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">0.506546795368195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.536343693733215</t>
+    <t xml:space="preserve">0.536343634128571</t>
   </si>
   <si>
     <t xml:space="preserve">0.564278244972229</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">0.575452029705048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.579176604747772</t>
+    <t xml:space="preserve">0.579176664352417</t>
   </si>
   <si>
     <t xml:space="preserve">0.592212796211243</t>
@@ -1511,10 +1511,10 @@
     <t xml:space="preserve">0.557269692420959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566747009754181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549687802791595</t>
+    <t xml:space="preserve">0.566747069358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549687743186951</t>
   </si>
   <si>
     <t xml:space="preserve">0.562956094741821</t>
@@ -1529,49 +1529,49 @@
     <t xml:space="preserve">0.559165120124817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542105853557587</t>
+    <t xml:space="preserve">0.542105913162231</t>
   </si>
   <si>
     <t xml:space="preserve">0.544001400470734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540210366249084</t>
+    <t xml:space="preserve">0.540210425853729</t>
   </si>
   <si>
     <t xml:space="preserve">0.547792315483093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.545896887779236</t>
+    <t xml:space="preserve">0.545896828174591</t>
   </si>
   <si>
     <t xml:space="preserve">0.534523963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53641951084137</t>
+    <t xml:space="preserve">0.536419451236725</t>
   </si>
   <si>
     <t xml:space="preserve">0.525046646595001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519360184669495</t>
+    <t xml:space="preserve">0.51936012506485</t>
   </si>
   <si>
     <t xml:space="preserve">0.51556932926178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513673722743988</t>
+    <t xml:space="preserve">0.513673782348633</t>
   </si>
   <si>
     <t xml:space="preserve">0.523151099681854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521255731582642</t>
+    <t xml:space="preserve">0.521255671977997</t>
   </si>
   <si>
     <t xml:space="preserve">0.528837621212006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538314938545227</t>
+    <t xml:space="preserve">0.538314998149872</t>
   </si>
   <si>
     <t xml:space="preserve">0.530733048915863</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">0.693743944168091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653938949108124</t>
+    <t xml:space="preserve">0.653939008712769</t>
   </si>
   <si>
     <t xml:space="preserve">0.633088648319244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686162054538727</t>
+    <t xml:space="preserve">0.686161994934082</t>
   </si>
   <si>
     <t xml:space="preserve">0.676684558391571</t>
@@ -1607,16 +1607,16 @@
     <t xml:space="preserve">0.659625291824341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669102787971497</t>
+    <t xml:space="preserve">0.669102728366852</t>
   </si>
   <si>
     <t xml:space="preserve">0.663416266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644461572170258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650147914886475</t>
+    <t xml:space="preserve">0.644461512565613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650147974491119</t>
   </si>
   <si>
     <t xml:space="preserve">0.640670657157898</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">0.655834376811981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634984195232391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62929767370224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625506818294525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619820356369019</t>
+    <t xml:space="preserve">0.634984135627747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629297733306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62550687789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619820296764374</t>
   </si>
   <si>
     <t xml:space="preserve">0.616029441356659</t>
@@ -1646,13 +1646,13 @@
     <t xml:space="preserve">0.602761089801788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593283712863922</t>
+    <t xml:space="preserve">0.593283653259277</t>
   </si>
   <si>
     <t xml:space="preserve">0.58759731054306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60844749212265</t>
+    <t xml:space="preserve">0.608447551727295</t>
   </si>
   <si>
     <t xml:space="preserve">0.597074627876282</t>
@@ -1667,10 +1667,10 @@
     <t xml:space="preserve">0.652043461799622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.636879563331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.617924928665161</t>
+    <t xml:space="preserve">0.636879622936249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.617924869060516</t>
   </si>
   <si>
     <t xml:space="preserve">0.598970234394073</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">0.564851582050323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.532628536224365</t>
+    <t xml:space="preserve">0.53262847661972</t>
   </si>
   <si>
     <t xml:space="preserve">0.578119933605194</t>
@@ -1718,13 +1718,13 @@
     <t xml:space="preserve">0.665311813354492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691848397254944</t>
+    <t xml:space="preserve">0.691848456859589</t>
   </si>
   <si>
     <t xml:space="preserve">0.699430286884308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.678580105304718</t>
+    <t xml:space="preserve">0.678580164909363</t>
   </si>
   <si>
     <t xml:space="preserve">0.672893643379211</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">0.657729864120483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705116748809814</t>
+    <t xml:space="preserve">0.70511668920517</t>
   </si>
   <si>
     <t xml:space="preserve">0.69753485918045</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">0.68047559261322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.648252546787262</t>
+    <t xml:space="preserve">0.648252487182617</t>
   </si>
   <si>
     <t xml:space="preserve">0.799890458583832</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">0.758190035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788517713546753</t>
+    <t xml:space="preserve">0.788517653942108</t>
   </si>
   <si>
     <t xml:space="preserve">0.782831192016602</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">0.775249302387238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761980950832367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75629460811615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752503633499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.748712718486786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724071502685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727862417697906</t>
+    <t xml:space="preserve">0.761981010437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756294548511505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75250369310379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.748712778091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.724071562290192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727862477302551</t>
   </si>
   <si>
     <t xml:space="preserve">0.731653392314911</t>
@@ -1796,31 +1796,31 @@
     <t xml:space="preserve">0.750608205795288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743026256561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.741130769252777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746817171573639</t>
+    <t xml:space="preserve">0.743026196956635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.741130828857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.746817111968994</t>
   </si>
   <si>
     <t xml:space="preserve">0.737339854240417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729757905006409</t>
+    <t xml:space="preserve">0.729757845401764</t>
   </si>
   <si>
     <t xml:space="preserve">0.722176074981689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77714478969574</t>
+    <t xml:space="preserve">0.777144849300385</t>
   </si>
   <si>
     <t xml:space="preserve">0.769562840461731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76008552312851</t>
+    <t xml:space="preserve">0.760085463523865</t>
   </si>
   <si>
     <t xml:space="preserve">0.754399120807648</t>
@@ -1832,10 +1832,10 @@
     <t xml:space="preserve">0.824638724327087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816985487937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803592264652252</t>
+    <t xml:space="preserve">0.816985428333282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.803592205047607</t>
   </si>
   <si>
     <t xml:space="preserve">0.788285732269287</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">0.792112410068512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763412594795227</t>
+    <t xml:space="preserve">0.763412654399872</t>
   </si>
   <si>
     <t xml:space="preserve">0.757672727108002</t>
@@ -1865,13 +1865,13 @@
     <t xml:space="preserve">0.736626207828522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744279503822327</t>
+    <t xml:space="preserve">0.744279563426971</t>
   </si>
   <si>
     <t xml:space="preserve">0.751932799816132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746192812919617</t>
+    <t xml:space="preserve">0.746192753314972</t>
   </si>
   <si>
     <t xml:space="preserve">0.740452826023102</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">0.732799589633942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721319735050201</t>
+    <t xml:space="preserve">0.721319675445557</t>
   </si>
   <si>
     <t xml:space="preserve">0.715579807758331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713666439056396</t>
+    <t xml:space="preserve">0.713666498661041</t>
   </si>
   <si>
     <t xml:space="preserve">0.694533348083496</t>
@@ -1901,37 +1901,37 @@
     <t xml:space="preserve">0.698359966278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.730886280536652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.759586095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771065890789032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750019371509552</t>
+    <t xml:space="preserve">0.730886340141296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.759586036205292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771065831184387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750019431114197</t>
   </si>
   <si>
     <t xml:space="preserve">0.765325963497162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772979259490967</t>
+    <t xml:space="preserve">0.772979199886322</t>
   </si>
   <si>
     <t xml:space="preserve">0.774892568588257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.784459114074707</t>
+    <t xml:space="preserve">0.784459054470062</t>
   </si>
   <si>
     <t xml:space="preserve">0.778719186782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782545804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776805818080902</t>
+    <t xml:space="preserve">0.782545864582062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776805877685547</t>
   </si>
   <si>
     <t xml:space="preserve">0.769152641296387</t>
@@ -1946,10 +1946,10 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734712958335876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717493057250977</t>
+    <t xml:space="preserve">0.734712898731232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717493116855621</t>
   </si>
   <si>
     <t xml:space="preserve">0.709839820861816</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">0.727059662342072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719406425952911</t>
+    <t xml:space="preserve">0.719406366348267</t>
   </si>
   <si>
     <t xml:space="preserve">0.723232984542847</t>
@@ -1979,16 +1979,16 @@
     <t xml:space="preserve">0.883951544761658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895431339740753</t>
+    <t xml:space="preserve">0.895431399345398</t>
   </si>
   <si>
     <t xml:space="preserve">0.843771934509277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849511861801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853338479995728</t>
+    <t xml:space="preserve">0.849511802196503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853338420391083</t>
   </si>
   <si>
     <t xml:space="preserve">0.876298248767853</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">0.880124866962433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887778162956238</t>
+    <t xml:space="preserve">0.887778103351593</t>
   </si>
   <si>
     <t xml:space="preserve">0.885864794254303</t>
@@ -2021,34 +2021,34 @@
     <t xml:space="preserve">1.10972261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19582188129425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21017158031464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885582447052</t>
+    <t xml:space="preserve">1.19582176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21017169952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885570526123</t>
   </si>
   <si>
     <t xml:space="preserve">1.04275667667389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09537267684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1049393415451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12407243251801</t>
+    <t xml:space="preserve">1.09537279605865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10493922233582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12407255172729</t>
   </si>
   <si>
     <t xml:space="preserve">1.14798903465271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11928915977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18147206306458</t>
+    <t xml:space="preserve">1.11928927898407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18147194385529</t>
   </si>
   <si>
     <t xml:space="preserve">1.13842236995697</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.07623958587646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05232322216034</t>
+    <t xml:space="preserve">1.05232310295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.03797340393066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11450600624084</t>
+    <t xml:space="preserve">1.11450588703156</t>
   </si>
   <si>
     <t xml:space="preserve">1.13363909721375</t>
@@ -2081,16 +2081,16 @@
     <t xml:space="preserve">1.03319013118744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02362358570099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994923651218414</t>
+    <t xml:space="preserve">1.0236234664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994923770427704</t>
   </si>
   <si>
     <t xml:space="preserve">0.922217786312103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999707043170929</t>
+    <t xml:space="preserve">0.999706923961639</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">0.945177555084229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966224014759064</t>
+    <t xml:space="preserve">0.966223955154419</t>
   </si>
   <si>
     <t xml:space="preserve">1.04753994941711</t>
@@ -2120,16 +2120,16 @@
     <t xml:space="preserve">0.949004173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947090864181519</t>
+    <t xml:space="preserve">0.947090923786163</t>
   </si>
   <si>
     <t xml:space="preserve">0.910737931728363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941350996494293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954744219779968</t>
+    <t xml:space="preserve">0.941350936889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954744160175323</t>
   </si>
   <si>
     <t xml:space="preserve">0.956657469272614</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">0.942307591438293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871514916419983</t>
+    <t xml:space="preserve">0.871514976024628</t>
   </si>
   <si>
     <t xml:space="preserve">0.899258017539978</t>
@@ -2153,13 +2153,13 @@
     <t xml:space="preserve">0.889691472053528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884908139705658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873428225517273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875341594219208</t>
+    <t xml:space="preserve">0.884908199310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873428285121918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875341534614563</t>
   </si>
   <si>
     <t xml:space="preserve">0.865774989128113</t>
@@ -2177,10 +2177,10 @@
     <t xml:space="preserve">0.904041290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901171326637268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845685184001923</t>
+    <t xml:space="preserve">0.901171267032623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845685243606567</t>
   </si>
   <si>
     <t xml:space="preserve">0.846641838550568</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">0.870558321475983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866731703281403</t>
+    <t xml:space="preserve">0.866731643676758</t>
   </si>
   <si>
     <t xml:space="preserve">0.983443856239319</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">0.939437627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940394282341003</t>
+    <t xml:space="preserve">0.940394222736359</t>
   </si>
   <si>
     <t xml:space="preserve">0.929871022701263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877254903316498</t>
+    <t xml:space="preserve">0.877254843711853</t>
   </si>
   <si>
     <t xml:space="preserve">0.839945316314697</t>
@@ -2772,6 +2772,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.26999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27999997138977</t>
   </si>
 </sst>
 </file>
@@ -59455,7 +59458,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6493171296</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>19708</v>
@@ -59476,6 +59479,32 @@
         <v>918</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6495717593</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>62223</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>920</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -44,13 +44,13 @@
     <t xml:space="preserve">GTH.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421087712049484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413796126842499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.416530460119247</t>
+    <t xml:space="preserve">0.421087771654129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413796216249466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41653048992157</t>
   </si>
   <si>
     <t xml:space="preserve">0.393653213977814</t>
@@ -59,25 +59,25 @@
     <t xml:space="preserve">0.400944799184799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394108951091766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391921490430832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396478652954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400033354759216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405046314001083</t>
+    <t xml:space="preserve">0.394108891487122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391921430826187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396478682756424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400033324956894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405046254396439</t>
   </si>
   <si>
     <t xml:space="preserve">0.3971166908741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382807016372681</t>
+    <t xml:space="preserve">0.382806986570358</t>
   </si>
   <si>
     <t xml:space="preserve">0.40468168258667</t>
@@ -98,52 +98,52 @@
     <t xml:space="preserve">0.402767658233643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403314530849457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389096021652222</t>
+    <t xml:space="preserve">0.403314501047134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389095962047577</t>
   </si>
   <si>
     <t xml:space="preserve">0.373601406812668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357286542654037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359929710626602</t>
+    <t xml:space="preserve">0.357286512851715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359929740428925</t>
   </si>
   <si>
     <t xml:space="preserve">0.338237345218658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332404106855392</t>
+    <t xml:space="preserve">0.33240407705307</t>
   </si>
   <si>
     <t xml:space="preserve">0.355463624000549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355372488498688</t>
+    <t xml:space="preserve">0.35537251830101</t>
   </si>
   <si>
     <t xml:space="preserve">0.385450184345245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391009986400604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391465723514557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375424355268478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392832934856415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40650463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409694612026215</t>
+    <t xml:space="preserve">0.391010016202927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391465753316879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375424295663834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39283287525177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.406504571437836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409694671630859</t>
   </si>
   <si>
     <t xml:space="preserve">0.393835514783859</t>
@@ -164,10 +164,10 @@
     <t xml:space="preserve">0.392012596130371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396387547254562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.401035934686661</t>
+    <t xml:space="preserve">0.39638751745224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.401035875082016</t>
   </si>
   <si>
     <t xml:space="preserve">0.388366848230362</t>
@@ -179,19 +179,19 @@
     <t xml:space="preserve">0.382169008255005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383718490600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39073657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389916300773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389642894268036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354187607765198</t>
+    <t xml:space="preserve">0.383718430995941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390736609697342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389916270971298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389642834663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354187667369843</t>
   </si>
   <si>
     <t xml:space="preserve">0.356830835342407</t>
@@ -200,28 +200,28 @@
     <t xml:space="preserve">0.346804916858673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368132740259171</t>
+    <t xml:space="preserve">0.368132710456848</t>
   </si>
   <si>
     <t xml:space="preserve">0.359018296003342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355190187692642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372416526079178</t>
+    <t xml:space="preserve">0.355190217494965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372416585683823</t>
   </si>
   <si>
     <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364486992359161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387364268302917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373783707618713</t>
+    <t xml:space="preserve">0.364486962556839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387364238500595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373783737421036</t>
   </si>
   <si>
     <t xml:space="preserve">0.373692542314529</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">0.39164799451828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391830295324326</t>
+    <t xml:space="preserve">0.39183035492897</t>
   </si>
   <si>
     <t xml:space="preserve">0.403679072856903</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">0.395020395517349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391101181507111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.390463143587112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379161238670349</t>
+    <t xml:space="preserve">0.391101211309433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390463173389435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379161208868027</t>
   </si>
   <si>
     <t xml:space="preserve">0.369135349988937</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">0.377338349819183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369044184684753</t>
+    <t xml:space="preserve">0.369044214487076</t>
   </si>
   <si>
     <t xml:space="preserve">0.360750049352646</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">0.373874872922897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372143119573593</t>
+    <t xml:space="preserve">0.372143089771271</t>
   </si>
   <si>
     <t xml:space="preserve">0.372507691383362</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">0.366765558719635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373510241508484</t>
+    <t xml:space="preserve">0.373510271310806</t>
   </si>
   <si>
     <t xml:space="preserve">0.366856694221497</t>
@@ -284,64 +284,64 @@
     <t xml:space="preserve">0.382715880870819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368588447570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.376609146595001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375150918960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364669233560562</t>
+    <t xml:space="preserve">0.368588477373123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.376609176397324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375150859355927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364669263362885</t>
   </si>
   <si>
     <t xml:space="preserve">0.365489542484283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367312431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370958238840103</t>
+    <t xml:space="preserve">0.367312461137772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370958209037781</t>
   </si>
   <si>
     <t xml:space="preserve">0.360020905733109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348172068595886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350906431674957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354552209377289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37004679441452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373327970504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364578127861023</t>
+    <t xml:space="preserve">0.348172098398209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350906401872635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354552239179611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370046734809875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373328000307083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364578068256378</t>
   </si>
   <si>
     <t xml:space="preserve">0.354461073875427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352455914020538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339969098567963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352273643016815</t>
+    <t xml:space="preserve">0.352455884218216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339969038963318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352273613214493</t>
   </si>
   <si>
     <t xml:space="preserve">0.348354369401932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344435185194016</t>
+    <t xml:space="preserve">0.344435155391693</t>
   </si>
   <si>
     <t xml:space="preserve">0.337234735488892</t>
@@ -350,76 +350,76 @@
     <t xml:space="preserve">0.333497822284698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34616693854332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346349239349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341791987419128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330581158399582</t>
+    <t xml:space="preserve">0.346166878938675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34634917974472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341791957616806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330581218004227</t>
   </si>
   <si>
     <t xml:space="preserve">0.326206266880035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324474543333054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327755719423294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329852044582367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245085000992</t>
+    <t xml:space="preserve">0.324474513530731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327755749225616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329852014780045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245055198669</t>
   </si>
   <si>
     <t xml:space="preserve">0.329487472772598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327664583921432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325294822454453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326115131378174</t>
+    <t xml:space="preserve">0.32766455411911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325294852256775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326115101575851</t>
   </si>
   <si>
     <t xml:space="preserve">0.333588987588882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340971678495407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337599366903305</t>
+    <t xml:space="preserve">0.340971648693085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337599337100983</t>
   </si>
   <si>
     <t xml:space="preserve">0.340515941381454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340880542993546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341518521308899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334864974021912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336323261260986</t>
+    <t xml:space="preserve">0.340880572795868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341518551111221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334865003824234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336323291063309</t>
   </si>
   <si>
     <t xml:space="preserve">0.335320711135864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339057624340057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329578638076782</t>
+    <t xml:space="preserve">0.33905765414238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32957860827446</t>
   </si>
   <si>
     <t xml:space="preserve">0.331766068935394</t>
@@ -431,40 +431,40 @@
     <t xml:space="preserve">0.325385957956314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328211456537247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3326775431633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32812026143074</t>
+    <t xml:space="preserve">0.328211426734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332677513360977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328120321035385</t>
   </si>
   <si>
     <t xml:space="preserve">0.319917291402817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32720884680748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334226965904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323016196489334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.320828706026077</t>
+    <t xml:space="preserve">0.327208876609802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334227025508881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323016226291656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3208287358284</t>
   </si>
   <si>
     <t xml:space="preserve">0.36175262928009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335867613554001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333680152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330945760011673</t>
+    <t xml:space="preserve">0.335867553949356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333680123090744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330945730209351</t>
   </si>
   <si>
     <t xml:space="preserve">0.33522954583168</t>
@@ -482,19 +482,19 @@
     <t xml:space="preserve">0.342885702848434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333771288394928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344526261091232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337690472602844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3366878926754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249794244766</t>
+    <t xml:space="preserve">0.333771258592606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344526320695877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337690502405167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336687862873077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249734640121</t>
   </si>
   <si>
     <t xml:space="preserve">0.351088732481003</t>
@@ -506,25 +506,25 @@
     <t xml:space="preserve">0.340151399374008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335594117641449</t>
+    <t xml:space="preserve">0.335594147443771</t>
   </si>
   <si>
     <t xml:space="preserve">0.342976868152618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34972158074379</t>
+    <t xml:space="preserve">0.349721610546112</t>
   </si>
   <si>
     <t xml:space="preserve">0.345437735319138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353549629449844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354916781187057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345073193311691</t>
+    <t xml:space="preserve">0.353549599647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35491681098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345073163509369</t>
   </si>
   <si>
     <t xml:space="preserve">0.34498205780983</t>
@@ -533,46 +533,46 @@
     <t xml:space="preserve">0.328940600156784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854624509811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324109941720963</t>
+    <t xml:space="preserve">0.330854654312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32410991191864</t>
   </si>
   <si>
     <t xml:space="preserve">0.331310361623764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312352299690247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316180348396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317091792821884</t>
+    <t xml:space="preserve">0.312352329492569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316180318593979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317091822624207</t>
   </si>
   <si>
     <t xml:space="preserve">0.312625706195831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332586377859116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33714359998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052464485168</t>
+    <t xml:space="preserve">0.332586407661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337143570184708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052494287491</t>
   </si>
   <si>
     <t xml:space="preserve">0.338966488838196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338146209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724130868912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109431505203</t>
+    <t xml:space="preserve">0.338146150112152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724160671234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109401702881</t>
   </si>
   <si>
     <t xml:space="preserve">0.341336250305176</t>
@@ -581,28 +581,28 @@
     <t xml:space="preserve">0.345346629619598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343614876270294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346258044242859</t>
+    <t xml:space="preserve">0.343614846467972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346258074045181</t>
   </si>
   <si>
     <t xml:space="preserve">0.347260653972626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353185027837753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367328643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362755239009857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381804466247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380528420209885</t>
+    <t xml:space="preserve">0.353184998035431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367358446121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362755209207535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381804436445236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38052836060524</t>
   </si>
   <si>
     <t xml:space="preserve">0.389825195074081</t>
@@ -614,55 +614,55 @@
     <t xml:space="preserve">0.3694087266922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362390637397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36293751001358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479192972183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361934930086136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367585867643356</t>
+    <t xml:space="preserve">0.362390667200089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362937539815903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479222774506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361934900283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367585897445679</t>
   </si>
   <si>
     <t xml:space="preserve">0.368223905563354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370411396026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363484382629395</t>
+    <t xml:space="preserve">0.370411366224289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363484352827072</t>
   </si>
   <si>
     <t xml:space="preserve">0.358744889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357195407152176</t>
+    <t xml:space="preserve">0.357195377349854</t>
   </si>
   <si>
     <t xml:space="preserve">0.358198016881943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363119781017303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347625225782394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353276163339615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093892335892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349994987249374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343797147274017</t>
+    <t xml:space="preserve">0.363119840621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347625195980072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353276193141937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093922138214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349995017051697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34379717707634</t>
   </si>
   <si>
     <t xml:space="preserve">0.343250274658203</t>
@@ -671,16 +671,16 @@
     <t xml:space="preserve">0.346075773239136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344617515802383</t>
+    <t xml:space="preserve">0.344617456197739</t>
   </si>
   <si>
     <t xml:space="preserve">0.350268423557281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344890892505646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350359588861465</t>
+    <t xml:space="preserve">0.344890862703323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350359559059143</t>
   </si>
   <si>
     <t xml:space="preserve">0.349357008934021</t>
@@ -689,25 +689,25 @@
     <t xml:space="preserve">0.358380287885666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353458434343338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104241847992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359747439622879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359565109014511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299501895905</t>
+    <t xml:space="preserve">0.353458493947983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104271650314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359747409820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359565168619156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299472093582</t>
   </si>
   <si>
     <t xml:space="preserve">0.356375098228455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356192797422409</t>
+    <t xml:space="preserve">0.356192857027054</t>
   </si>
   <si>
     <t xml:space="preserve">0.374330550432205</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">0.37414824962616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379525810480118</t>
+    <t xml:space="preserve">0.379525780677795</t>
   </si>
   <si>
     <t xml:space="preserve">0.363575518131256</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">0.352820485830307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356557428836823</t>
+    <t xml:space="preserve">0.3565573990345</t>
   </si>
   <si>
     <t xml:space="preserve">0.361570358276367</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">0.360932320356369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362572938203812</t>
+    <t xml:space="preserve">0.362572908401489</t>
   </si>
   <si>
     <t xml:space="preserve">0.355919390916824</t>
@@ -746,13 +746,13 @@
     <t xml:space="preserve">0.358471423387527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368315070867538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369864523410797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374604046344757</t>
+    <t xml:space="preserve">0.368315041065216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36986455321312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374604016542435</t>
   </si>
   <si>
     <t xml:space="preserve">0.366674423217773</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">0.372781097888947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370867073535919</t>
+    <t xml:space="preserve">0.370867043733597</t>
   </si>
   <si>
     <t xml:space="preserve">0.368041604757309</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">0.387273073196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382533550262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378340899944305</t>
+    <t xml:space="preserve">0.382533580064774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378340929746628</t>
   </si>
   <si>
     <t xml:space="preserve">0.386270493268967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384174168109894</t>
+    <t xml:space="preserve">0.384174197912216</t>
   </si>
   <si>
     <t xml:space="preserve">0.380984127521515</t>
@@ -794,25 +794,25 @@
     <t xml:space="preserve">0.385541349649429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386817395687103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378978967666626</t>
+    <t xml:space="preserve">0.386817336082458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378978937864304</t>
   </si>
   <si>
     <t xml:space="preserve">0.378523200750351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371505081653595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869623661041</t>
+    <t xml:space="preserve">0.371505051851273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869653463364</t>
   </si>
   <si>
     <t xml:space="preserve">0.366583287715912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365398406982422</t>
+    <t xml:space="preserve">0.365398436784744</t>
   </si>
   <si>
     <t xml:space="preserve">0.365763008594513</t>
@@ -827,46 +827,46 @@
     <t xml:space="preserve">0.360385447740555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363848954439163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466233730316</t>
+    <t xml:space="preserve">0.363848924636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466263532639</t>
   </si>
   <si>
     <t xml:space="preserve">0.35582822561264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357377707958221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468813657761</t>
+    <t xml:space="preserve">0.357377737760544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468873262405</t>
   </si>
   <si>
     <t xml:space="preserve">0.36129692196846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366218715906143</t>
+    <t xml:space="preserve">0.366218745708466</t>
   </si>
   <si>
     <t xml:space="preserve">0.365854144096375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358653724193573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364851534366608</t>
+    <t xml:space="preserve">0.358653694391251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364851504564285</t>
   </si>
   <si>
     <t xml:space="preserve">0.355645954608917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362117201089859</t>
+    <t xml:space="preserve">0.362117230892181</t>
   </si>
   <si>
     <t xml:space="preserve">0.36603644490242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363757848739624</t>
+    <t xml:space="preserve">0.363757818937302</t>
   </si>
   <si>
     <t xml:space="preserve">0.356922000646591</t>
@@ -875,16 +875,16 @@
     <t xml:space="preserve">0.361661493778229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355554759502411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358927130699158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114621162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358289152383804</t>
+    <t xml:space="preserve">0.355554819107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35892716050148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114650964737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358289122581482</t>
   </si>
   <si>
     <t xml:space="preserve">0.360112011432648</t>
@@ -893,58 +893,58 @@
     <t xml:space="preserve">0.365945249795914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36795049905777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364395827054977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359291702508926</t>
+    <t xml:space="preserve">0.367950469255447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3643958568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359291762113571</t>
   </si>
   <si>
     <t xml:space="preserve">0.365124970674515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377247214317322</t>
+    <t xml:space="preserve">0.377247184514999</t>
   </si>
   <si>
     <t xml:space="preserve">0.378887802362442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381257563829422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379799216985703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388731420040131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723620653152</t>
+    <t xml:space="preserve">0.381257593631744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379799246788025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388731390237808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723650455475</t>
   </si>
   <si>
     <t xml:space="preserve">0.383627325296402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381075263023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413946151733</t>
+    <t xml:space="preserve">0.381075233221054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413916349411</t>
   </si>
   <si>
     <t xml:space="preserve">0.380801826715469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37761178612709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381713271141052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381530970335007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382898151874542</t>
+    <t xml:space="preserve">0.377611756324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38171324133873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381531029939651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382898181676865</t>
   </si>
   <si>
     <t xml:space="preserve">0.372689992189407</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">0.373965978622437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375515460968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366309851408005</t>
+    <t xml:space="preserve">0.375515431165695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366309821605682</t>
   </si>
   <si>
     <t xml:space="preserve">0.359474003314972</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">0.358015716075897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362208336591721</t>
+    <t xml:space="preserve">0.362208366394043</t>
   </si>
   <si>
     <t xml:space="preserve">0.348810106515884</t>
@@ -974,37 +974,37 @@
     <t xml:space="preserve">0.357924550771713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357742309570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357013136148453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359656274318695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364122420549393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363666653633118</t>
+    <t xml:space="preserve">0.35774227976799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35701310634613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359656363725662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36412239074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36366668343544</t>
   </si>
   <si>
     <t xml:space="preserve">0.354734510183334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355737090110779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365671813488007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361843764781952</t>
+    <t xml:space="preserve">0.355737060308456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365671873092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361843794584274</t>
   </si>
   <si>
     <t xml:space="preserve">0.366400986909866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351817935705185</t>
+    <t xml:space="preserve">0.35181787610054</t>
   </si>
   <si>
     <t xml:space="preserve">0.353640764951706</t>
@@ -1022,76 +1022,76 @@
     <t xml:space="preserve">0.329943180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.322651594877243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563069105148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32174015045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334500432014465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342703431844711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319005846977234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182928323746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271483898163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326297432184219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318094432353973</t>
+    <t xml:space="preserve">0.322651654481888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563039302826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.321740180253983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334500402212143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342703402042389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319005817174911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182958126068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271513700485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326297402381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318094402551651</t>
   </si>
   <si>
     <t xml:space="preserve">0.310802817344666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301688402891159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30259981751442</t>
+    <t xml:space="preserve">0.301688373088837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302599847316742</t>
   </si>
   <si>
     <t xml:space="preserve">0.309891402721405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308068513870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314448624849319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311714261770248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304422676563263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305334180593491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306245625019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298954039812088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865514039993</t>
+    <t xml:space="preserve">0.308068543672562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314448595046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311714291572571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304422736167908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305334150791168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306245595216751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29895406961441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865484237671</t>
   </si>
   <si>
     <t xml:space="preserve">0.300776958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30351123213768</t>
+    <t xml:space="preserve">0.303511261940002</t>
   </si>
   <si>
     <t xml:space="preserve">0.307157069444656</t>
@@ -1106,46 +1106,46 @@
     <t xml:space="preserve">0.31536003947258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348250925540924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351975560188293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342664033174515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335214763879776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338008284568787</t>
+    <t xml:space="preserve">0.348250955343246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351975530385971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342664003372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335214823484421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338008254766464</t>
   </si>
   <si>
     <t xml:space="preserve">0.33614593744278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347319781780243</t>
+    <t xml:space="preserve">0.347319751977921</t>
   </si>
   <si>
     <t xml:space="preserve">0.354768991470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349182039499283</t>
+    <t xml:space="preserve">0.349182099103928</t>
   </si>
   <si>
     <t xml:space="preserve">0.346388608217239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341732889413834</t>
+    <t xml:space="preserve">0.341732859611511</t>
   </si>
   <si>
     <t xml:space="preserve">0.352906703948975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345457434654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343595117330551</t>
+    <t xml:space="preserve">0.345457404851913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343595147132874</t>
   </si>
   <si>
     <t xml:space="preserve">0.337077081203461</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">0.34080171585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339870542287827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338939368724823</t>
+    <t xml:space="preserve">0.339870572090149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338939398527145</t>
   </si>
   <si>
     <t xml:space="preserve">0.353837817907333</t>
@@ -1175,19 +1175,19 @@
     <t xml:space="preserve">0.362218201160431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356631249189377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36128705739975</t>
+    <t xml:space="preserve">0.356631278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361287087202072</t>
   </si>
   <si>
     <t xml:space="preserve">0.365942806005478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367805123329163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368736296892166</t>
+    <t xml:space="preserve">0.367805153131485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368736267089844</t>
   </si>
   <si>
     <t xml:space="preserve">0.366873949766159</t>
@@ -1196,34 +1196,34 @@
     <t xml:space="preserve">0.371529698371887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385497003793716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378047794103622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379910111427307</t>
+    <t xml:space="preserve">0.385497033596039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3780477643013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379910051822662</t>
   </si>
   <si>
     <t xml:space="preserve">0.388290464878082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415293872356415</t>
+    <t xml:space="preserve">0.415293902158737</t>
   </si>
   <si>
     <t xml:space="preserve">0.404120028018951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399464309215546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.407844662666321</t>
+    <t xml:space="preserve">0.399464279413223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.407844632863998</t>
   </si>
   <si>
     <t xml:space="preserve">0.414362728595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395739674568176</t>
+    <t xml:space="preserve">0.395739704370499</t>
   </si>
   <si>
     <t xml:space="preserve">0.400395452976227</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">0.405051201581955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405982345342636</t>
+    <t xml:space="preserve">0.405982315540314</t>
   </si>
   <si>
     <t xml:space="preserve">0.409706979990005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391083896160126</t>
+    <t xml:space="preserve">0.391083925962448</t>
   </si>
   <si>
     <t xml:space="preserve">0.40318888425827</t>
@@ -1247,82 +1247,82 @@
     <t xml:space="preserve">0.396670818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401326537132263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41343155503273</t>
+    <t xml:space="preserve">0.401326566934586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413431584835052</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422743052244186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.424605399370193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44415956735611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474887549877167</t>
+    <t xml:space="preserve">0.422743111848831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.424605369567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444159626960754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474887579679489</t>
   </si>
   <si>
     <t xml:space="preserve">0.458126902580261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45253998041153</t>
+    <t xml:space="preserve">0.452539950609207</t>
   </si>
   <si>
     <t xml:space="preserve">0.455333411693573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454402267932892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.450677633285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446953058242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446021884679794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.453471094369888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456264615058899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.471163004636765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476749897003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45719575881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459057986736298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460920304059982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.445090711116791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.439503818750381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451608836650848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.447884231805801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448815315961838</t>
+    <t xml:space="preserve">0.454402238130569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.450677663087845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446953028440475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446021914482117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.453471124172211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456264585256577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.471162974834442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476749926805496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.457195729017258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45905801653862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460920333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.445090740919113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.439503848552704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451608806848526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.447884172201157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448815375566483</t>
   </si>
   <si>
     <t xml:space="preserve">0.440434962511063</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">0.504684448242188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653668880462646</t>
+    <t xml:space="preserve">0.653668761253357</t>
   </si>
   <si>
     <t xml:space="preserve">0.744921743869781</t>
@@ -1343,19 +1343,19 @@
     <t xml:space="preserve">0.657393395900726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687190234661102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.666705012321472</t>
+    <t xml:space="preserve">0.687190294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.666704952716827</t>
   </si>
   <si>
     <t xml:space="preserve">0.638770401477814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610835909843445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590350568294525</t>
+    <t xml:space="preserve">0.6108358502388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59035050868988</t>
   </si>
   <si>
     <t xml:space="preserve">0.568002820014954</t>
@@ -1376,28 +1376,28 @@
     <t xml:space="preserve">0.633183479309082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640632748603821</t>
+    <t xml:space="preserve">0.640632688999176</t>
   </si>
   <si>
     <t xml:space="preserve">0.642495036125183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644357323646545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62759655714035</t>
+    <t xml:space="preserve">0.644357264041901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627596616744995</t>
   </si>
   <si>
     <t xml:space="preserve">0.601524353027344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57731431722641</t>
+    <t xml:space="preserve">0.577314376831055</t>
   </si>
   <si>
     <t xml:space="preserve">0.525169849395752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515858352184296</t>
+    <t xml:space="preserve">0.515858292579651</t>
   </si>
   <si>
     <t xml:space="preserve">0.527032136917114</t>
@@ -1406,52 +1406,52 @@
     <t xml:space="preserve">0.502822160720825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510603904724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499097585678101</t>
+    <t xml:space="preserve">0.493510663509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499097615480423</t>
   </si>
   <si>
     <t xml:space="preserve">0.486061424016953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428330034017563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.437641531229019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.463713794946671</t>
+    <t xml:space="preserve">0.42833000421524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.437641501426697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.463713765144348</t>
   </si>
   <si>
     <t xml:space="preserve">0.435779213905334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44229730963707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491648375988007</t>
+    <t xml:space="preserve">0.442297279834747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491648346185684</t>
   </si>
   <si>
     <t xml:space="preserve">0.500959873199463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513995945453644</t>
+    <t xml:space="preserve">0.513996005058289</t>
   </si>
   <si>
     <t xml:space="preserve">0.510271370410919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508409142494202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512133657932281</t>
+    <t xml:space="preserve">0.508409082889557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512133717536926</t>
   </si>
   <si>
     <t xml:space="preserve">0.543792843818665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.54006814956665</t>
+    <t xml:space="preserve">0.540068209171295</t>
   </si>
   <si>
     <t xml:space="preserve">0.571727454662323</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">0.582901239395142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566140532493591</t>
+    <t xml:space="preserve">0.566140472888947</t>
   </si>
   <si>
     <t xml:space="preserve">0.558691322803497</t>
@@ -1472,58 +1472,58 @@
     <t xml:space="preserve">0.530756711959839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.528894543647766</t>
+    <t xml:space="preserve">0.528894484043121</t>
   </si>
   <si>
     <t xml:space="preserve">0.549379765987396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.532619059085846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521445155143738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517720639705658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506546854972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536343693733215</t>
+    <t xml:space="preserve">0.532618999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521445274353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517720580101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546795368195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536343634128571</t>
   </si>
   <si>
     <t xml:space="preserve">0.564278244972229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.575451970100403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579176604747772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592212855815887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551242053508759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.557269692420959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56674712896347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549687743186951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.562956035137177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551583290100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5534787774086</t>
+    <t xml:space="preserve">0.575452029705048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579176664352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592212736606598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551242113113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.557269752025604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566747069358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549687802791595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.562956094741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551583230495453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.553478717803955</t>
   </si>
   <si>
     <t xml:space="preserve">0.559165120124817</t>
@@ -1532,22 +1532,22 @@
     <t xml:space="preserve">0.542105913162231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544001340866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.540210425853729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547792315483093</t>
+    <t xml:space="preserve">0.544001400470734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.540210366249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547792375087738</t>
   </si>
   <si>
     <t xml:space="preserve">0.545896828174591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534524023532867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53641951084137</t>
+    <t xml:space="preserve">0.534523963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536419451236725</t>
   </si>
   <si>
     <t xml:space="preserve">0.525046646595001</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">0.519360184669495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515569269657135</t>
+    <t xml:space="preserve">0.51556932926178</t>
   </si>
   <si>
     <t xml:space="preserve">0.513673722743988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523151159286499</t>
+    <t xml:space="preserve">0.523151099681854</t>
   </si>
   <si>
     <t xml:space="preserve">0.521255671977997</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">0.528837621212006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538314938545227</t>
+    <t xml:space="preserve">0.538314998149872</t>
   </si>
   <si>
     <t xml:space="preserve">0.530733048915863</t>
@@ -1580,43 +1580,43 @@
     <t xml:space="preserve">0.583806335926056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73544442653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73923522233963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693743944168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653938889503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633088648319244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686162054538727</t>
+    <t xml:space="preserve">0.735444366931915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.739235281944275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693743884563446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653938949108124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633088707923889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686161994934082</t>
   </si>
   <si>
     <t xml:space="preserve">0.676684558391571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.682371020317078</t>
+    <t xml:space="preserve">0.682371079921722</t>
   </si>
   <si>
     <t xml:space="preserve">0.659625351428986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669102609157562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6634162068367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.644461572170258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650147974491119</t>
+    <t xml:space="preserve">0.669102668762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.663416266441345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.644461512565613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650147914886475</t>
   </si>
   <si>
     <t xml:space="preserve">0.640670597553253</t>
@@ -1625,19 +1625,19 @@
     <t xml:space="preserve">0.655834376811981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634984135627747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62929779291153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625506818294525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619820296764374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616029441356659</t>
+    <t xml:space="preserve">0.634984195232391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629297733306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62550687789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619820356369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616029381752014</t>
   </si>
   <si>
     <t xml:space="preserve">0.604656577110291</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">0.58759731054306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.608447551727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597074687480927</t>
+    <t xml:space="preserve">0.60844749212265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597074627876282</t>
   </si>
   <si>
     <t xml:space="preserve">0.589492738246918</t>
@@ -1664,37 +1664,37 @@
     <t xml:space="preserve">0.642566084861755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.652043461799622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636879682540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.617924928665161</t>
+    <t xml:space="preserve">0.652043521404266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636879563331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.617924869060516</t>
   </si>
   <si>
     <t xml:space="preserve">0.598970174789429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.600865602493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610343039035797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555374264717102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564851641654968</t>
+    <t xml:space="preserve">0.600865662097931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610342979431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555374205112457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564851582050323</t>
   </si>
   <si>
     <t xml:space="preserve">0.53262847661972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.578119874000549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.576224386692047</t>
+    <t xml:space="preserve">0.578119933605194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.576224446296692</t>
   </si>
   <si>
     <t xml:space="preserve">0.568642556667328</t>
@@ -1709,28 +1709,28 @@
     <t xml:space="preserve">0.59138822555542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614133954048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.674789190292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665311813354492</t>
+    <t xml:space="preserve">0.614134013652802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.674789130687714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665311753749847</t>
   </si>
   <si>
     <t xml:space="preserve">0.691848456859589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.699430406093597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678580164909363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672893702983856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66720724105835</t>
+    <t xml:space="preserve">0.699430346488953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678580105304718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672893643379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667207300662994</t>
   </si>
   <si>
     <t xml:space="preserve">0.657729923725128</t>
@@ -1739,58 +1739,58 @@
     <t xml:space="preserve">0.705116748809814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.697534799575806</t>
+    <t xml:space="preserve">0.69753485918045</t>
   </si>
   <si>
     <t xml:space="preserve">0.688057482242584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.68047559261322</t>
+    <t xml:space="preserve">0.680475652217865</t>
   </si>
   <si>
     <t xml:space="preserve">0.648252487182617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799890518188477</t>
+    <t xml:space="preserve">0.799890458583832</t>
   </si>
   <si>
     <t xml:space="preserve">0.758190035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788517594337463</t>
+    <t xml:space="preserve">0.788517653942108</t>
   </si>
   <si>
     <t xml:space="preserve">0.782831192016602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775249421596527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761981070041656</t>
+    <t xml:space="preserve">0.775249361991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761981010437012</t>
   </si>
   <si>
     <t xml:space="preserve">0.75629460811615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.752503633499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.748712718486786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724071502685547</t>
+    <t xml:space="preserve">0.75250369310379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.748712778091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.724071562290192</t>
   </si>
   <si>
     <t xml:space="preserve">0.727862477302551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.731653451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733548879623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72596687078476</t>
+    <t xml:space="preserve">0.731653392314911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733548820018768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725966930389404</t>
   </si>
   <si>
     <t xml:space="preserve">0.750608146190643</t>
@@ -1805,28 +1805,28 @@
     <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737339854240417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.729757964611053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722176074981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77714478969574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769562840461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76008552312851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.754399120807648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813158869743347</t>
+    <t xml:space="preserve">0.737339913845062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.729757905006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.722176015377045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.777144849300385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769562900066376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760085463523865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.754399061203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813158810138702</t>
   </si>
   <si>
     <t xml:space="preserve">0.824638724327087</t>
@@ -59614,7 +59614,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6496064815</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>263292</v>
@@ -59635,6 +59635,32 @@
         <v>919</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.5328587963</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>230032</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>919</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410150349140167</t>
+    <t xml:space="preserve">0.41015037894249</t>
   </si>
   <si>
     <t xml:space="preserve">GTH.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">0.421087741851807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413796156644821</t>
+    <t xml:space="preserve">0.413796097040176</t>
   </si>
   <si>
     <t xml:space="preserve">0.41653048992157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393653243780136</t>
+    <t xml:space="preserve">0.393653213977814</t>
   </si>
   <si>
     <t xml:space="preserve">0.400944799184799</t>
@@ -62,40 +62,40 @@
     <t xml:space="preserve">0.394108951091766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391921490430832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396478682756424</t>
+    <t xml:space="preserve">0.39192146062851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396478712558746</t>
   </si>
   <si>
     <t xml:space="preserve">0.400033324956894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405046314001083</t>
+    <t xml:space="preserve">0.405046284198761</t>
   </si>
   <si>
     <t xml:space="preserve">0.397116720676422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382807016372681</t>
+    <t xml:space="preserve">0.382806986570358</t>
   </si>
   <si>
     <t xml:space="preserve">0.404681712388992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40987691283226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405501991510391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408327490091324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.406778007745743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402767688035965</t>
+    <t xml:space="preserve">0.409876883029938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405502021312714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.408327460289001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.406778037548065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402767658233643</t>
   </si>
   <si>
     <t xml:space="preserve">0.403314530849457</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">0.389095962047577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373601406812668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357286542654037</t>
+    <t xml:space="preserve">0.37360143661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35728657245636</t>
   </si>
   <si>
     <t xml:space="preserve">0.359929740428925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338237345218658</t>
+    <t xml:space="preserve">0.338237315416336</t>
   </si>
   <si>
     <t xml:space="preserve">0.33240407705307</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.355372488498688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385450184345245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391010046005249</t>
+    <t xml:space="preserve">0.385450214147568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391009986400604</t>
   </si>
   <si>
     <t xml:space="preserve">0.391465753316879</t>
@@ -143,34 +143,34 @@
     <t xml:space="preserve">0.406504601240158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409694641828537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393835484981537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405593186616898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402403116226196</t>
+    <t xml:space="preserve">0.409694671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393835455179214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405593127012253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402403086423874</t>
   </si>
   <si>
     <t xml:space="preserve">0.396569818258286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392650604248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392012625932693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396387547254562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.401035904884338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388366848230362</t>
+    <t xml:space="preserve">0.392650574445724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392012596130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39638751745224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.401035934686661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388366788625717</t>
   </si>
   <si>
     <t xml:space="preserve">0.387728840112686</t>
@@ -182,58 +182,58 @@
     <t xml:space="preserve">0.383718460798264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39073657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389916300773621</t>
+    <t xml:space="preserve">0.390736609697342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389916270971298</t>
   </si>
   <si>
     <t xml:space="preserve">0.389642864465714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35418763756752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356830835342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346804976463318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368132770061493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359018266201019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355190217494965</t>
+    <t xml:space="preserve">0.354187607765198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356830775737762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346804916858673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368132740259171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359018296003342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355190247297287</t>
   </si>
   <si>
     <t xml:space="preserve">0.372416526079178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372598856687546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364486992359161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387364238500595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373783707618713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373692572116852</t>
+    <t xml:space="preserve">0.372598826885223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364486962556839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387364268302917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373783737421036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373692542314529</t>
   </si>
   <si>
     <t xml:space="preserve">0.391648024320602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391830325126648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403679102659225</t>
+    <t xml:space="preserve">0.391830295324326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403679072856903</t>
   </si>
   <si>
     <t xml:space="preserve">0.395020395517349</t>
@@ -242,52 +242,52 @@
     <t xml:space="preserve">0.391101181507111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390463203191757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379161238670349</t>
+    <t xml:space="preserve">0.390463173389435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379161208868027</t>
   </si>
   <si>
     <t xml:space="preserve">0.369135320186615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377338379621506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369044184684753</t>
+    <t xml:space="preserve">0.377338320016861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369044214487076</t>
   </si>
   <si>
     <t xml:space="preserve">0.360750019550323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373874872922897</t>
+    <t xml:space="preserve">0.373874843120575</t>
   </si>
   <si>
     <t xml:space="preserve">0.372143119573593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372507661581039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366765558719635</t>
+    <t xml:space="preserve">0.372507691383362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366765588521957</t>
   </si>
   <si>
     <t xml:space="preserve">0.373510271310806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366856694221497</t>
+    <t xml:space="preserve">0.366856724023819</t>
   </si>
   <si>
     <t xml:space="preserve">0.379890382289886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382715851068497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368588477373123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.376609206199646</t>
+    <t xml:space="preserve">0.382715880870819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368588447570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.376609146595001</t>
   </si>
   <si>
     <t xml:space="preserve">0.375150889158249</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">0.364669233560562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365489542484283</t>
+    <t xml:space="preserve">0.365489572286606</t>
   </si>
   <si>
     <t xml:space="preserve">0.367312461137772</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">0.348172098398209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350906431674957</t>
+    <t xml:space="preserve">0.350906401872635</t>
   </si>
   <si>
     <t xml:space="preserve">0.354552209377289</t>
@@ -320,28 +320,28 @@
     <t xml:space="preserve">0.370046764612198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373327940702438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364578098058701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35446110367775</t>
+    <t xml:space="preserve">0.373327970504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364578127861023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354461073875427</t>
   </si>
   <si>
     <t xml:space="preserve">0.352455884218216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33996906876564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352273553609848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348354429006577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344435155391693</t>
+    <t xml:space="preserve">0.339969098567963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352273613214493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348354369401932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344435185194016</t>
   </si>
   <si>
     <t xml:space="preserve">0.337234765291214</t>
@@ -353,31 +353,31 @@
     <t xml:space="preserve">0.346166908740997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34634917974472</t>
+    <t xml:space="preserve">0.346349209547043</t>
   </si>
   <si>
     <t xml:space="preserve">0.341791957616806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330581158399582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326206237077713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324474543333054</t>
+    <t xml:space="preserve">0.330581188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326206266880035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324474513530731</t>
   </si>
   <si>
     <t xml:space="preserve">0.327755749225616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329852044582367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245085000992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329487472772598</t>
+    <t xml:space="preserve">0.329852074384689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245114803314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329487442970276</t>
   </si>
   <si>
     <t xml:space="preserve">0.32766455411911</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">0.33358895778656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340971708297729</t>
+    <t xml:space="preserve">0.340971678495407</t>
   </si>
   <si>
     <t xml:space="preserve">0.337599337100983</t>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">0.340880542993546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341518580913544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334864974021912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336323291063309</t>
+    <t xml:space="preserve">0.341518551111221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334864944219589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336323261260986</t>
   </si>
   <si>
     <t xml:space="preserve">0.335320740938187</t>
@@ -419,31 +419,31 @@
     <t xml:space="preserve">0.33905765414238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329578638076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331766098737717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332312941551208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325385928153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328211426734924</t>
+    <t xml:space="preserve">0.32957860827446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331766068935394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332312911748886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325385987758636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328211456537247</t>
   </si>
   <si>
     <t xml:space="preserve">0.332677513360977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328120350837708</t>
+    <t xml:space="preserve">0.328120291233063</t>
   </si>
   <si>
     <t xml:space="preserve">0.319917321205139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32720884680748</t>
+    <t xml:space="preserve">0.327208817005157</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226995706558</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">0.335867553949356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333680152893066</t>
+    <t xml:space="preserve">0.333680123090744</t>
   </si>
   <si>
     <t xml:space="preserve">0.330945760011673</t>
@@ -470,25 +470,25 @@
     <t xml:space="preserve">0.335229575634003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343432575464249</t>
+    <t xml:space="preserve">0.343432605266571</t>
   </si>
   <si>
     <t xml:space="preserve">0.349083513021469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338875383138657</t>
+    <t xml:space="preserve">0.338875323534012</t>
   </si>
   <si>
     <t xml:space="preserve">0.342885673046112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333771258592606</t>
+    <t xml:space="preserve">0.333771288394928</t>
   </si>
   <si>
     <t xml:space="preserve">0.344526320695877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337690442800522</t>
+    <t xml:space="preserve">0.337690502405167</t>
   </si>
   <si>
     <t xml:space="preserve">0.3366878926754</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">0.378249764442444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35108870267868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349265813827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340151339769363</t>
+    <t xml:space="preserve">0.351088732481003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349265843629837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340151369571686</t>
   </si>
   <si>
     <t xml:space="preserve">0.335594147443771</t>
@@ -512,22 +512,22 @@
     <t xml:space="preserve">0.342976897954941</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34972158074379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34543776512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353549659252167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354916781187057</t>
+    <t xml:space="preserve">0.349721610546112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345437735319138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353549599647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35491681098938</t>
   </si>
   <si>
     <t xml:space="preserve">0.345073163509369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344982028007507</t>
+    <t xml:space="preserve">0.34498205780983</t>
   </si>
   <si>
     <t xml:space="preserve">0.328940629959106</t>
@@ -539,16 +539,16 @@
     <t xml:space="preserve">0.324109941720963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331310361623764</t>
+    <t xml:space="preserve">0.331310391426086</t>
   </si>
   <si>
     <t xml:space="preserve">0.312352299690247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316180378198624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317091822624207</t>
+    <t xml:space="preserve">0.316180348396301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317091792821884</t>
   </si>
   <si>
     <t xml:space="preserve">0.312625735998154</t>
@@ -557,22 +557,22 @@
     <t xml:space="preserve">0.332586377859116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33714359998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052434682846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966548442841</t>
+    <t xml:space="preserve">0.337143629789352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052464485168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966488838196</t>
   </si>
   <si>
     <t xml:space="preserve">0.338146179914474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350724101066589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109431505203</t>
+    <t xml:space="preserve">0.350724130868912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109461307526</t>
   </si>
   <si>
     <t xml:space="preserve">0.341336250305176</t>
@@ -581,64 +581,64 @@
     <t xml:space="preserve">0.345346599817276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343614906072617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346258103847504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347260683774948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353184998035431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367298841476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362755239009857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381804436445236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38052836060524</t>
+    <t xml:space="preserve">0.343614846467972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346258044242859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347260653972626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353185027837753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367328643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36275526881218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381804466247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380528390407562</t>
   </si>
   <si>
     <t xml:space="preserve">0.389825195074081</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380892992019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369408786296844</t>
+    <t xml:space="preserve">0.380892932415009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369408756494522</t>
   </si>
   <si>
     <t xml:space="preserve">0.362390637397766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362937539815903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479192972183</t>
+    <t xml:space="preserve">0.36293751001358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479222774506</t>
   </si>
   <si>
     <t xml:space="preserve">0.361934930086136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367585867643356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368223905563354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370411306619644</t>
+    <t xml:space="preserve">0.367585837841034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368223875761032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370411336421967</t>
   </si>
   <si>
     <t xml:space="preserve">0.363484382629395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358744829893112</t>
+    <t xml:space="preserve">0.358744859695435</t>
   </si>
   <si>
     <t xml:space="preserve">0.357195407152176</t>
@@ -647,37 +647,37 @@
     <t xml:space="preserve">0.358198016881943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363119781017303</t>
+    <t xml:space="preserve">0.363119810819626</t>
   </si>
   <si>
     <t xml:space="preserve">0.347625195980072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353276193141937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093922138214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349995017051697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343797117471695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343250304460526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346075773239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617456197739</t>
+    <t xml:space="preserve">0.35327622294426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093892335892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349994957447052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34379717707634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343250274658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346075743436813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617486000061</t>
   </si>
   <si>
     <t xml:space="preserve">0.350268393754959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344890862703323</t>
+    <t xml:space="preserve">0.344890892505646</t>
   </si>
   <si>
     <t xml:space="preserve">0.350359588861465</t>
@@ -689,64 +689,64 @@
     <t xml:space="preserve">0.358380287885666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353458493947983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104271650314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359747439622879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359565138816833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299531698227</t>
+    <t xml:space="preserve">0.35345846414566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104241847992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359747380018234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359565168619156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299472093582</t>
   </si>
   <si>
     <t xml:space="preserve">0.356375098228455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356192857027054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374330580234528</t>
+    <t xml:space="preserve">0.356192827224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374330550432205</t>
   </si>
   <si>
     <t xml:space="preserve">0.36886191368103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374148279428482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525810480118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575518131256</t>
+    <t xml:space="preserve">0.374148309230804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525780677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575488328934</t>
   </si>
   <si>
     <t xml:space="preserve">0.352820485830307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356557369232178</t>
+    <t xml:space="preserve">0.356557428836823</t>
   </si>
   <si>
     <t xml:space="preserve">0.361570358276367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360932350158691</t>
+    <t xml:space="preserve">0.360932320356369</t>
   </si>
   <si>
     <t xml:space="preserve">0.362572938203812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355919361114502</t>
+    <t xml:space="preserve">0.355919390916824</t>
   </si>
   <si>
     <t xml:space="preserve">0.358471423387527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368315041065216</t>
+    <t xml:space="preserve">0.368315070867538</t>
   </si>
   <si>
     <t xml:space="preserve">0.369864493608475</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">0.366674453020096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369226485490799</t>
+    <t xml:space="preserve">0.369226455688477</t>
   </si>
   <si>
     <t xml:space="preserve">0.372781127691269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370867073535919</t>
+    <t xml:space="preserve">0.370867103338242</t>
   </si>
   <si>
     <t xml:space="preserve">0.368041604757309</t>
@@ -776,34 +776,34 @@
     <t xml:space="preserve">0.382533580064774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378340929746628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386270552873611</t>
+    <t xml:space="preserve">0.378340899944305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386270523071289</t>
   </si>
   <si>
     <t xml:space="preserve">0.384174168109894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380984127521515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260173559189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541379451752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386817395687103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378978967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523230552673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505111455917</t>
+    <t xml:space="preserve">0.380984157323837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260143756866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541349649429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386817365884781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378978937864304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523260354996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37150502204895</t>
   </si>
   <si>
     <t xml:space="preserve">0.371869653463364</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">0.366583287715912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365398406982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365763008594513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360294312238693</t>
+    <t xml:space="preserve">0.365398466587067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365763038396835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360294342041016</t>
   </si>
   <si>
     <t xml:space="preserve">0.364304661750793</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">0.363848954439163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356466263532639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355828166007996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377707958221</t>
+    <t xml:space="preserve">0.356466233730316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355828195810318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377678155899</t>
   </si>
   <si>
     <t xml:space="preserve">0.357468813657761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36129692196846</t>
+    <t xml:space="preserve">0.361296892166138</t>
   </si>
   <si>
     <t xml:space="preserve">0.366218715906143</t>
@@ -869,76 +869,76 @@
     <t xml:space="preserve">0.363757818937302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356921970844269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361661434173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554848909378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35892716050148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114621162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358289152383804</t>
+    <t xml:space="preserve">0.356922000646591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361661493778229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554789304733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358927130699158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114650964737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358289122581482</t>
   </si>
   <si>
     <t xml:space="preserve">0.360112011432648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365945279598236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367950439453125</t>
+    <t xml:space="preserve">0.365945249795914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367950469255447</t>
   </si>
   <si>
     <t xml:space="preserve">0.364395827054977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359291732311249</t>
+    <t xml:space="preserve">0.359291702508926</t>
   </si>
   <si>
     <t xml:space="preserve">0.365124970674515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377247214317322</t>
+    <t xml:space="preserve">0.377247184514999</t>
   </si>
   <si>
     <t xml:space="preserve">0.378887802362442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381257504224777</t>
+    <t xml:space="preserve">0.3812575340271</t>
   </si>
   <si>
     <t xml:space="preserve">0.379799246788025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388731420040131</t>
+    <t xml:space="preserve">0.388731360435486</t>
   </si>
   <si>
     <t xml:space="preserve">0.385723650455475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383627325296402</t>
+    <t xml:space="preserve">0.38362729549408</t>
   </si>
   <si>
     <t xml:space="preserve">0.381075292825699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371413946151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380801826715469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377611726522446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381713300943375</t>
+    <t xml:space="preserve">0.371413916349411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380801856517792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37761178612709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38171324133873</t>
   </si>
   <si>
     <t xml:space="preserve">0.381531000137329</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">0.382898151874542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372689932584763</t>
+    <t xml:space="preserve">0.372689962387085</t>
   </si>
   <si>
     <t xml:space="preserve">0.373965978622437</t>
@@ -959,25 +959,25 @@
     <t xml:space="preserve">0.366309851408005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359474003314972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358015686273575</t>
+    <t xml:space="preserve">0.359474062919617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358015716075897</t>
   </si>
   <si>
     <t xml:space="preserve">0.362208336591721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348810106515884</t>
+    <t xml:space="preserve">0.348810076713562</t>
   </si>
   <si>
     <t xml:space="preserve">0.357924550771713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357742309570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357013136148453</t>
+    <t xml:space="preserve">0.35774227976799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35701310634613</t>
   </si>
   <si>
     <t xml:space="preserve">0.359656304121017</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">0.36412239074707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363666653633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354734510183334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355737149715424</t>
+    <t xml:space="preserve">0.363666623830795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354734539985657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355737090110779</t>
   </si>
   <si>
     <t xml:space="preserve">0.365671843290329</t>
@@ -1001,16 +1001,16 @@
     <t xml:space="preserve">0.361843794584274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366401016712189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35181787610054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353640794754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352729290723801</t>
+    <t xml:space="preserve">0.366400986909866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351817905902863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353640824556351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352729320526123</t>
   </si>
   <si>
     <t xml:space="preserve">0.335411876440048</t>
@@ -1019,28 +1019,28 @@
     <t xml:space="preserve">0.329031735658646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329943180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322651624679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563039302826</t>
+    <t xml:space="preserve">0.329943209886551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.322651594877243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563098907471</t>
   </si>
   <si>
     <t xml:space="preserve">0.32174015045166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334500461816788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342703431844711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319005846977234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182958126068</t>
+    <t xml:space="preserve">0.334500432014465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342703402042389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319005817174911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182987928391</t>
   </si>
   <si>
     <t xml:space="preserve">0.316271513700485</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">0.310802817344666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301688373088837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.302599877119064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.309891402721405</t>
+    <t xml:space="preserve">0.301688402891159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30259981751442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.309891372919083</t>
   </si>
   <si>
     <t xml:space="preserve">0.308068484067917</t>
@@ -1070,22 +1070,22 @@
     <t xml:space="preserve">0.314448624849319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311714291572571</t>
+    <t xml:space="preserve">0.311714321374893</t>
   </si>
   <si>
     <t xml:space="preserve">0.304422706365585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305334180593491</t>
+    <t xml:space="preserve">0.305334150791168</t>
   </si>
   <si>
     <t xml:space="preserve">0.306245625019073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298954099416733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865484237671</t>
+    <t xml:space="preserve">0.298954039812088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865514039993</t>
   </si>
   <si>
     <t xml:space="preserve">0.300776928663254</t>
@@ -1094,19 +1094,19 @@
     <t xml:space="preserve">0.303511291742325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307157039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313537210226059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3089799284935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31536003947258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348250925540924</t>
+    <t xml:space="preserve">0.307157069444656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313537180423737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308979988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.315360009670258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348250895738602</t>
   </si>
   <si>
     <t xml:space="preserve">0.351975530385971</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">0.342664003372192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335214823484421</t>
+    <t xml:space="preserve">0.335214793682098</t>
   </si>
   <si>
     <t xml:space="preserve">0.338008254766464</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">0.347319751977921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354769021272659</t>
+    <t xml:space="preserve">0.354768991470337</t>
   </si>
   <si>
     <t xml:space="preserve">0.349182039499283</t>
@@ -1145,13 +1145,13 @@
     <t xml:space="preserve">0.345457434654236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343595147132874</t>
+    <t xml:space="preserve">0.343595117330551</t>
   </si>
   <si>
     <t xml:space="preserve">0.337077081203461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340801686048508</t>
+    <t xml:space="preserve">0.34080171585083</t>
   </si>
   <si>
     <t xml:space="preserve">0.339870542287827</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">0.372460871934891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358493596315384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36314931511879</t>
+    <t xml:space="preserve">0.358493566513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363149344921112</t>
   </si>
   <si>
     <t xml:space="preserve">0.362218201160431</t>
@@ -1181,22 +1181,22 @@
     <t xml:space="preserve">0.361287087202072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3659428358078</t>
+    <t xml:space="preserve">0.365942806005478</t>
   </si>
   <si>
     <t xml:space="preserve">0.367805123329163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368736296892166</t>
+    <t xml:space="preserve">0.368736267089844</t>
   </si>
   <si>
     <t xml:space="preserve">0.366873949766159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371529698371887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385497033596039</t>
+    <t xml:space="preserve">0.371529668569565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385497003793716</t>
   </si>
   <si>
     <t xml:space="preserve">0.3780477643013</t>
@@ -1214,22 +1214,22 @@
     <t xml:space="preserve">0.404120028018951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399464309215546</t>
+    <t xml:space="preserve">0.399464279413223</t>
   </si>
   <si>
     <t xml:space="preserve">0.407844662666321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414362758398056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395739674568176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400395452976227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405051171779633</t>
+    <t xml:space="preserve">0.414362728595734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395739704370499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400395423173904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405051231384277</t>
   </si>
   <si>
     <t xml:space="preserve">0.405982315540314</t>
@@ -1238,67 +1238,67 @@
     <t xml:space="preserve">0.409706950187683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391083925962448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40318888425827</t>
+    <t xml:space="preserve">0.391083866357803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403188914060593</t>
   </si>
   <si>
     <t xml:space="preserve">0.396670818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401326566934586</t>
+    <t xml:space="preserve">0.401326596736908</t>
   </si>
   <si>
     <t xml:space="preserve">0.413431584835052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419018447399139</t>
+    <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
     <t xml:space="preserve">0.422743082046509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424605399370193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44415956735611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474887609481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.458126872777939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452539950609207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455333441495895</t>
+    <t xml:space="preserve">0.424605429172516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444159597158432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474887549877167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.458126902580261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45253998041153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455333411693573</t>
   </si>
   <si>
     <t xml:space="preserve">0.454402267932892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450677633285522</t>
+    <t xml:space="preserve">0.450677663087845</t>
   </si>
   <si>
     <t xml:space="preserve">0.446953028440475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446021884679794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.453471094369888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456264585256577</t>
+    <t xml:space="preserve">0.446021854877472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.453471124172211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456264615058899</t>
   </si>
   <si>
     <t xml:space="preserve">0.471162974834442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476749956607819</t>
+    <t xml:space="preserve">0.476749897003174</t>
   </si>
   <si>
     <t xml:space="preserve">0.457195729017258</t>
@@ -1307,16 +1307,16 @@
     <t xml:space="preserve">0.45905801653862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460920304059982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.445090711116791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.439503818750381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451608836650848</t>
+    <t xml:space="preserve">0.460920333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.445090740919113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.439503848552704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451608806848526</t>
   </si>
   <si>
     <t xml:space="preserve">0.447884202003479</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">0.44881534576416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440434992313385</t>
+    <t xml:space="preserve">0.440434962511063</t>
   </si>
   <si>
     <t xml:space="preserve">0.504684448242188</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">0.657393395900726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687190294265747</t>
+    <t xml:space="preserve">0.687190234661102</t>
   </si>
   <si>
     <t xml:space="preserve">0.666705012321472</t>
@@ -1352,28 +1352,28 @@
     <t xml:space="preserve">0.638770401477814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610835909843445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590350568294525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568002760410309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608973443508148</t>
+    <t xml:space="preserve">0.6108358502388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59035050868988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568002820014954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608973562717438</t>
   </si>
   <si>
     <t xml:space="preserve">0.635045766830444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631321132183075</t>
+    <t xml:space="preserve">0.63132119178772</t>
   </si>
   <si>
     <t xml:space="preserve">0.629458844661713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633183479309082</t>
+    <t xml:space="preserve">0.633183419704437</t>
   </si>
   <si>
     <t xml:space="preserve">0.640632748603821</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">0.62759655714035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.601524233818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577314376831055</t>
+    <t xml:space="preserve">0.601524353027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57731431722641</t>
   </si>
   <si>
     <t xml:space="preserve">0.525169849395752</t>
@@ -1406,10 +1406,10 @@
     <t xml:space="preserve">0.502822160720825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510663509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499097645282745</t>
+    <t xml:space="preserve">0.493510633707047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499097585678101</t>
   </si>
   <si>
     <t xml:space="preserve">0.486061453819275</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">0.437641531229019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463713794946671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435779184103012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.442297279834747</t>
+    <t xml:space="preserve">0.463713765144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435779213905334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44229730963707</t>
   </si>
   <si>
     <t xml:space="preserve">0.491648346185684</t>
@@ -1436,19 +1436,19 @@
     <t xml:space="preserve">0.500959873199463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513996005058289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.510271310806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508409142494202</t>
+    <t xml:space="preserve">0.513995945453644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.510271370410919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508409082889557</t>
   </si>
   <si>
     <t xml:space="preserve">0.512133657932281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.543792903423309</t>
+    <t xml:space="preserve">0.543792843818665</t>
   </si>
   <si>
     <t xml:space="preserve">0.540068209171295</t>
@@ -1460,34 +1460,34 @@
     <t xml:space="preserve">0.582901239395142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566140532493591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.558691382408142</t>
+    <t xml:space="preserve">0.566140592098236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.558691322803497</t>
   </si>
   <si>
     <t xml:space="preserve">0.538205981254578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530756771564484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528894484043121</t>
+    <t xml:space="preserve">0.530756711959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528894543647766</t>
   </si>
   <si>
     <t xml:space="preserve">0.549379706382751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.532619059085846</t>
+    <t xml:space="preserve">0.532619118690491</t>
   </si>
   <si>
     <t xml:space="preserve">0.521445214748383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517720580101013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506546914577484</t>
+    <t xml:space="preserve">0.517720639705658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546854972839</t>
   </si>
   <si>
     <t xml:space="preserve">0.536343634128571</t>
@@ -1511,19 +1511,19 @@
     <t xml:space="preserve">0.557269692420959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.56674712896347</t>
+    <t xml:space="preserve">0.566747069358826</t>
   </si>
   <si>
     <t xml:space="preserve">0.549687743186951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.562956035137177</t>
+    <t xml:space="preserve">0.562956094741821</t>
   </si>
   <si>
     <t xml:space="preserve">0.551583290100098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5534787774086</t>
+    <t xml:space="preserve">0.553478717803955</t>
   </si>
   <si>
     <t xml:space="preserve">0.559165120124817</t>
@@ -1535,10 +1535,10 @@
     <t xml:space="preserve">0.544001340866089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540210425853729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547792375087738</t>
+    <t xml:space="preserve">0.540210366249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547792315483093</t>
   </si>
   <si>
     <t xml:space="preserve">0.545896768569946</t>
@@ -1556,28 +1556,28 @@
     <t xml:space="preserve">0.51936012506485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51556932926178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513673722743988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.523151159286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521255671977997</t>
+    <t xml:space="preserve">0.515569269657135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513673782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.523151099681854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521255612373352</t>
   </si>
   <si>
     <t xml:space="preserve">0.528837621212006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538314938545227</t>
+    <t xml:space="preserve">0.538314998149872</t>
   </si>
   <si>
     <t xml:space="preserve">0.530733048915863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583806335926056</t>
+    <t xml:space="preserve">0.583806276321411</t>
   </si>
   <si>
     <t xml:space="preserve">0.73544442653656</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">0.73923522233963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.693743884563446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653938949108124</t>
+    <t xml:space="preserve">0.693743944168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653938889503479</t>
   </si>
   <si>
     <t xml:space="preserve">0.633088648319244</t>
@@ -1607,16 +1607,16 @@
     <t xml:space="preserve">0.659625291824341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669102668762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.663416266441345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.644461512565613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650147974491119</t>
+    <t xml:space="preserve">0.669102728366852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66341632604599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.644461572170258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650147914886475</t>
   </si>
   <si>
     <t xml:space="preserve">0.640670597553253</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">0.634984195232391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62929779291153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62550675868988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619820296764374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616029441356659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.604656577110291</t>
+    <t xml:space="preserve">0.629297733306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.625506818294525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619820356369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616029381752014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.604656636714935</t>
   </si>
   <si>
     <t xml:space="preserve">0.602761089801788</t>
@@ -1649,22 +1649,22 @@
     <t xml:space="preserve">0.593283712863922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58759731054306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608447551727295</t>
+    <t xml:space="preserve">0.587597250938416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60844749212265</t>
   </si>
   <si>
     <t xml:space="preserve">0.597074687480927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.589492738246918</t>
+    <t xml:space="preserve">0.589492678642273</t>
   </si>
   <si>
     <t xml:space="preserve">0.642566084861755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.652043461799622</t>
+    <t xml:space="preserve">0.652043402194977</t>
   </si>
   <si>
     <t xml:space="preserve">0.636879682540894</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">0.617924928665161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598970174789429</t>
+    <t xml:space="preserve">0.598970234394073</t>
   </si>
   <si>
     <t xml:space="preserve">0.600865662097931</t>
@@ -1685,22 +1685,22 @@
     <t xml:space="preserve">0.555374264717102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.564851641654968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53262847661972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.578119874000549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.576224386692047</t>
+    <t xml:space="preserve">0.564851582050323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532628536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.578119933605194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.576224446296692</t>
   </si>
   <si>
     <t xml:space="preserve">0.568642556667328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.561060667037964</t>
+    <t xml:space="preserve">0.561060726642609</t>
   </si>
   <si>
     <t xml:space="preserve">0.572433471679688</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">0.59138822555542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614134013652802</t>
+    <t xml:space="preserve">0.614133954048157</t>
   </si>
   <si>
     <t xml:space="preserve">0.674789190292358</t>
@@ -1718,25 +1718,25 @@
     <t xml:space="preserve">0.665311813354492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691848397254944</t>
+    <t xml:space="preserve">0.691848456859589</t>
   </si>
   <si>
     <t xml:space="preserve">0.699430346488953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.678580164909363</t>
+    <t xml:space="preserve">0.678580105304718</t>
   </si>
   <si>
     <t xml:space="preserve">0.672893643379211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.66720724105835</t>
+    <t xml:space="preserve">0.667207300662994</t>
   </si>
   <si>
     <t xml:space="preserve">0.657729864120483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705116748809814</t>
+    <t xml:space="preserve">0.705116808414459</t>
   </si>
   <si>
     <t xml:space="preserve">0.69753485918045</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">0.648252546787262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799890518188477</t>
+    <t xml:space="preserve">0.799890577793121</t>
   </si>
   <si>
     <t xml:space="preserve">0.758190035820007</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">0.788517653942108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782831192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775249361991882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761981070041656</t>
+    <t xml:space="preserve">0.782831132411957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.775249421596527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761981010437012</t>
   </si>
   <si>
     <t xml:space="preserve">0.75629460811615</t>
@@ -1781,16 +1781,16 @@
     <t xml:space="preserve">0.724071502685547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727862536907196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.731653451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733548820018768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72596687078476</t>
+    <t xml:space="preserve">0.727862417697906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7316535115242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733548879623413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725966930389404</t>
   </si>
   <si>
     <t xml:space="preserve">0.750608146190643</t>
@@ -1805,22 +1805,22 @@
     <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737339854240417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.729757964611053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722176074981689</t>
+    <t xml:space="preserve">0.737339913845062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.729757905006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.722176015377045</t>
   </si>
   <si>
     <t xml:space="preserve">0.77714478969574</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769562840461731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76008552312851</t>
+    <t xml:space="preserve">0.769562900066376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760085463523865</t>
   </si>
   <si>
     <t xml:space="preserve">0.754399120807648</t>
@@ -1832,16 +1832,16 @@
     <t xml:space="preserve">0.824638724327087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816985487937927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803592264652252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788285732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792112410068512</t>
+    <t xml:space="preserve">0.816985428333282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.803592205047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788285791873932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792112350463867</t>
   </si>
   <si>
     <t xml:space="preserve">0.763412654399872</t>
@@ -1859,13 +1859,13 @@
     <t xml:space="preserve">0.742366254329681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.738539576530457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.736626267433167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744279503822327</t>
+    <t xml:space="preserve">0.738539636135101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.736626207828522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744279563426971</t>
   </si>
   <si>
     <t xml:space="preserve">0.751932799816132</t>
@@ -1874,19 +1874,19 @@
     <t xml:space="preserve">0.746192753314972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.740452826023102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.732799530029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.721319794654846</t>
+    <t xml:space="preserve">0.740452885627747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.732799589633942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.721319735050201</t>
   </si>
   <si>
     <t xml:space="preserve">0.715579807758331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713666439056396</t>
+    <t xml:space="preserve">0.713666498661041</t>
   </si>
   <si>
     <t xml:space="preserve">0.694533348083496</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">0.690706670284271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.698359906673431</t>
+    <t xml:space="preserve">0.698359966278076</t>
   </si>
   <si>
     <t xml:space="preserve">0.730886280536652</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">0.759586036205292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771065950393677</t>
+    <t xml:space="preserve">0.771065831184387</t>
   </si>
   <si>
     <t xml:space="preserve">0.750019431114197</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">0.772979259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774892508983612</t>
+    <t xml:space="preserve">0.774892568588257</t>
   </si>
   <si>
     <t xml:space="preserve">0.784459114074707</t>
@@ -1928,16 +1928,16 @@
     <t xml:space="preserve">0.778719186782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782545804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776805818080902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769152641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.767239272594452</t>
+    <t xml:space="preserve">0.782545864582062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776805877685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769152581691742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.767239212989807</t>
   </si>
   <si>
     <t xml:space="preserve">0.761499345302582</t>
@@ -1946,10 +1946,10 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734713017940521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717493057250977</t>
+    <t xml:space="preserve">0.734712898731232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717493116855621</t>
   </si>
   <si>
     <t xml:space="preserve">0.709839820861816</t>
@@ -1958,10 +1958,10 @@
     <t xml:space="preserve">0.727059602737427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.719406366348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.723233044147491</t>
+    <t xml:space="preserve">0.719406425952911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.723232984542847</t>
   </si>
   <si>
     <t xml:space="preserve">0.851425170898438</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">0.903084635734558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904997944831848</t>
+    <t xml:space="preserve">0.904997885227203</t>
   </si>
   <si>
     <t xml:space="preserve">0.883951544761658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895431339740753</t>
+    <t xml:space="preserve">0.895431399345398</t>
   </si>
   <si>
     <t xml:space="preserve">0.843771934509277</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">0.853338479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876298189163208</t>
+    <t xml:space="preserve">0.876298308372498</t>
   </si>
   <si>
     <t xml:space="preserve">0.880124866962433</t>
@@ -2000,10 +2000,10 @@
     <t xml:space="preserve">0.887778103351593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885864853858948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878211557865143</t>
+    <t xml:space="preserve">0.885864794254303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878211498260498</t>
   </si>
   <si>
     <t xml:space="preserve">1.10015606880188</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">1.19582176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21017158031464</t>
+    <t xml:space="preserve">1.21017181873322</t>
   </si>
   <si>
     <t xml:space="preserve">1.12885570526123</t>
@@ -2033,10 +2033,10 @@
     <t xml:space="preserve">1.04275667667389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09537267684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1049393415451</t>
+    <t xml:space="preserve">1.09537279605865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10493922233582</t>
   </si>
   <si>
     <t xml:space="preserve">1.12407243251801</t>
@@ -2051,37 +2051,37 @@
     <t xml:space="preserve">1.18147194385529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13842236995697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08102285861969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09058952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07623958587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05232322216034</t>
+    <t xml:space="preserve">1.13842248916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08102297782898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09058940410614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07623970508575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05232310295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.03797328472137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11450600624084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13363897800446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06667304039001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03319001197815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02362358570099</t>
+    <t xml:space="preserve">1.11450588703156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13363909721375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0666731595993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03319013118744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0236234664917</t>
   </si>
   <si>
     <t xml:space="preserve">0.994923770427704</t>
@@ -2090,19 +2090,19 @@
     <t xml:space="preserve">0.922217786312103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999706983566284</t>
+    <t xml:space="preserve">0.999707043170929</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980573832988739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914564490318298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872471630573273</t>
+    <t xml:space="preserve">0.980573892593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914564549922943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872471570968628</t>
   </si>
   <si>
     <t xml:space="preserve">0.891604721546173</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">0.945177555084229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966224074363708</t>
+    <t xml:space="preserve">0.966224014759064</t>
   </si>
   <si>
     <t xml:space="preserve">1.04753994941711</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">0.949004173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947090864181519</t>
+    <t xml:space="preserve">0.947090923786163</t>
   </si>
   <si>
     <t xml:space="preserve">0.910737931728363</t>
@@ -2141,16 +2141,16 @@
     <t xml:space="preserve">0.958570778369904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942307651042938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871514976024628</t>
+    <t xml:space="preserve">0.942307591438293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871514916419983</t>
   </si>
   <si>
     <t xml:space="preserve">0.899258017539978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889691412448883</t>
+    <t xml:space="preserve">0.889691472053528</t>
   </si>
   <si>
     <t xml:space="preserve">0.884908199310303</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">0.818898797035217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920304477214813</t>
+    <t xml:space="preserve">0.920304536819458</t>
   </si>
   <si>
     <t xml:space="preserve">0.904041290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901171326637268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845685184001923</t>
+    <t xml:space="preserve">0.901171267032623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845685243606567</t>
   </si>
   <si>
     <t xml:space="preserve">0.846641838550568</t>
@@ -2192,16 +2192,16 @@
     <t xml:space="preserve">0.870558321475983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866731703281403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983443856239319</t>
+    <t xml:space="preserve">0.866731643676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983443915843964</t>
   </si>
   <si>
     <t xml:space="preserve">0.939437627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940394282341003</t>
+    <t xml:space="preserve">0.940394222736359</t>
   </si>
   <si>
     <t xml:space="preserve">0.929871022701263</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">0.852381765842438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861948370933533</t>
+    <t xml:space="preserve">0.861948430538177</t>
   </si>
   <si>
     <t xml:space="preserve">0.877983152866364</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">0.864445984363556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87508237361908</t>
+    <t xml:space="preserve">0.875082314014435</t>
   </si>
   <si>
     <t xml:space="preserve">0.869280695915222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851875722408295</t>
+    <t xml:space="preserve">0.851875782012939</t>
   </si>
   <si>
     <t xml:space="preserve">0.848974943161011</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">0.846074104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84800797700882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859611332416534</t>
+    <t xml:space="preserve">0.848007917404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85961127281189</t>
   </si>
   <si>
     <t xml:space="preserve">0.874115407466888</t>
@@ -2258,10 +2258,10 @@
     <t xml:space="preserve">0.853809654712677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834470808506012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829636037349701</t>
+    <t xml:space="preserve">0.834470748901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829636096954346</t>
   </si>
   <si>
     <t xml:space="preserve">0.832536935806274</t>
@@ -2270,16 +2270,16 @@
     <t xml:space="preserve">0.840272426605225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843173265457153</t>
+    <t xml:space="preserve">0.843173205852509</t>
   </si>
   <si>
     <t xml:space="preserve">0.831569969654083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850908756256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823834478855133</t>
+    <t xml:space="preserve">0.850908815860748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823834419250488</t>
   </si>
   <si>
     <t xml:space="preserve">0.825768291950226</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">0.828669130802155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835437715053558</t>
+    <t xml:space="preserve">0.835437774658203</t>
   </si>
   <si>
     <t xml:space="preserve">0.833503842353821</t>
@@ -2306,22 +2306,22 @@
     <t xml:space="preserve">0.817065894603729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826735258102417</t>
+    <t xml:space="preserve">0.826735317707062</t>
   </si>
   <si>
     <t xml:space="preserve">0.83640468120575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837371647357941</t>
+    <t xml:space="preserve">0.837371587753296</t>
   </si>
   <si>
     <t xml:space="preserve">0.818032801151276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819966614246368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816098868846893</t>
+    <t xml:space="preserve">0.819966673851013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816098928451538</t>
   </si>
   <si>
     <t xml:space="preserve">0.799660921096802</t>
@@ -2342,13 +2342,13 @@
     <t xml:space="preserve">0.822867512702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801594793796539</t>
+    <t xml:space="preserve">0.801594734191895</t>
   </si>
   <si>
     <t xml:space="preserve">0.889586508274078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870247662067413</t>
+    <t xml:space="preserve">0.870247602462769</t>
   </si>
   <si>
     <t xml:space="preserve">0.868313789367676</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">0.778388142585754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780322015285492</t>
+    <t xml:space="preserve">0.780322074890137</t>
   </si>
   <si>
     <t xml:space="preserve">0.784189820289612</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">0.884751796722412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901189804077148</t>
+    <t xml:space="preserve">0.901189744472504</t>
   </si>
   <si>
     <t xml:space="preserve">0.915693938732147</t>
@@ -2405,31 +2405,31 @@
     <t xml:space="preserve">0.920528650283813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916660904884338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935032725334167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955338478088379</t>
+    <t xml:space="preserve">0.916660845279694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935032784938812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955338537693024</t>
   </si>
   <si>
     <t xml:space="preserve">0.966941833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978545129299164</t>
+    <t xml:space="preserve">0.978545069694519</t>
   </si>
   <si>
     <t xml:space="preserve">0.968875706195831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960173189640045</t>
+    <t xml:space="preserve">0.96017324924469</t>
   </si>
   <si>
     <t xml:space="preserve">0.948569893836975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93696665763855</t>
+    <t xml:space="preserve">0.936966598033905</t>
   </si>
   <si>
     <t xml:space="preserve">0.929231107234955</t>
@@ -2438,10 +2438,10 @@
     <t xml:space="preserve">0.9447021484375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928264081478119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947603046894073</t>
+    <t xml:space="preserve">0.928264141082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947602987289429</t>
   </si>
   <si>
     <t xml:space="preserve">0.946636021137238</t>
@@ -2453,28 +2453,28 @@
     <t xml:space="preserve">0.913760006427765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937933564186096</t>
+    <t xml:space="preserve">0.937933623790741</t>
   </si>
   <si>
     <t xml:space="preserve">0.930198073387146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932131946086884</t>
+    <t xml:space="preserve">0.932131886482239</t>
   </si>
   <si>
     <t xml:space="preserve">0.941801309585571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90989226102829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942768335342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957272410392761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951470792293549</t>
+    <t xml:space="preserve">0.909892201423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942768275737762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957272469997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951470732688904</t>
   </si>
   <si>
     <t xml:space="preserve">0.956305503845215</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">0.918594717979431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912793040275574</t>
+    <t xml:space="preserve">0.912793099880219</t>
   </si>
   <si>
     <t xml:space="preserve">0.910859167575836</t>
@@ -2504,43 +2504,43 @@
     <t xml:space="preserve">0.89828896522522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911826193332672</t>
+    <t xml:space="preserve">0.911826133728027</t>
   </si>
   <si>
     <t xml:space="preserve">0.91762775182724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924396336078644</t>
+    <t xml:space="preserve">0.924396395683289</t>
   </si>
   <si>
     <t xml:space="preserve">0.92536336183548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906024515628815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919561624526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922462463378906</t>
+    <t xml:space="preserve">0.90602445602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919561684131622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922462522983551</t>
   </si>
   <si>
     <t xml:space="preserve">0.923429429531097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953404664993286</t>
+    <t xml:space="preserve">0.953404605388641</t>
   </si>
   <si>
     <t xml:space="preserve">0.935999691486359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902156710624695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866379857063293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860578179359436</t>
+    <t xml:space="preserve">0.90215677022934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866379916667938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860578238964081</t>
   </si>
   <si>
     <t xml:space="preserve">0.862512111663818</t>
@@ -2561,22 +2561,22 @@
     <t xml:space="preserve">0.876049280166626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883784830570221</t>
+    <t xml:space="preserve">0.883784770965576</t>
   </si>
   <si>
     <t xml:space="preserve">0.879917085170746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886685609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878950119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893454253673553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891520321369171</t>
+    <t xml:space="preserve">0.88668566942215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87895005941391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893454313278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891520380973816</t>
   </si>
   <si>
     <t xml:space="preserve">0.887652575969696</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">0.872181534767151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897321939468384</t>
+    <t xml:space="preserve">0.897321999073029</t>
   </si>
   <si>
     <t xml:space="preserve">0.903123676776886</t>
@@ -59692,7 +59692,7 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.5139236111</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>2334</v>
@@ -59713,6 +59713,32 @@
         <v>919</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.6495486111</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>5868</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>919</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41015037894249</t>
+    <t xml:space="preserve">0.410150349140167</t>
   </si>
   <si>
     <t xml:space="preserve">GTH.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.421087741851807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413796097040176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41653048992157</t>
+    <t xml:space="preserve">0.413796156644821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.416530460119247</t>
   </si>
   <si>
     <t xml:space="preserve">0.393653213977814</t>
@@ -59,22 +59,22 @@
     <t xml:space="preserve">0.400944799184799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394108951091766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39192146062851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396478712558746</t>
+    <t xml:space="preserve">0.394108921289444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391921490430832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396478682756424</t>
   </si>
   <si>
     <t xml:space="preserve">0.400033324956894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405046284198761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.397116720676422</t>
+    <t xml:space="preserve">0.405046314001083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3971166908741</t>
   </si>
   <si>
     <t xml:space="preserve">0.382806986570358</t>
@@ -83,16 +83,16 @@
     <t xml:space="preserve">0.404681712388992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409876883029938</t>
+    <t xml:space="preserve">0.409876972436905</t>
   </si>
   <si>
     <t xml:space="preserve">0.405502021312714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408327460289001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.406778037548065</t>
+    <t xml:space="preserve">0.408327519893646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.406778067350388</t>
   </si>
   <si>
     <t xml:space="preserve">0.402767658233643</t>
@@ -101,52 +101,52 @@
     <t xml:space="preserve">0.403314530849457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389095962047577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37360143661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35728657245636</t>
+    <t xml:space="preserve">0.389095991849899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373601406812668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357286512851715</t>
   </si>
   <si>
     <t xml:space="preserve">0.359929740428925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338237315416336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33240407705307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355463624000549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355372488498688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385450214147568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391009986400604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391465753316879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375424295663834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392832905054092</t>
+    <t xml:space="preserve">0.338237345218658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332404106855392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355463653802872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35537251830101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385450184345245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391010016202927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391465812921524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375424325466156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39283287525177</t>
   </si>
   <si>
     <t xml:space="preserve">0.406504601240158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409694671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393835455179214</t>
+    <t xml:space="preserve">0.409694641828537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393835484981537</t>
   </si>
   <si>
     <t xml:space="preserve">0.405593127012253</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">0.402403086423874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396569818258286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392650574445724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.392012596130371</t>
+    <t xml:space="preserve">0.396569848060608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392650634050369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.392012566328049</t>
   </si>
   <si>
     <t xml:space="preserve">0.39638751745224</t>
@@ -170,34 +170,34 @@
     <t xml:space="preserve">0.401035934686661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388366788625717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387728840112686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382169008255005</t>
+    <t xml:space="preserve">0.388366848230362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387728810310364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382168978452682</t>
   </si>
   <si>
     <t xml:space="preserve">0.383718460798264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390736609697342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389916270971298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389642864465714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354187607765198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356830775737762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346804916858673</t>
+    <t xml:space="preserve">0.39073657989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389916330575943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389642834663391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35418763756752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356830805540085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346804946660995</t>
   </si>
   <si>
     <t xml:space="preserve">0.368132740259171</t>
@@ -206,25 +206,25 @@
     <t xml:space="preserve">0.359018296003342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355190247297287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372416526079178</t>
+    <t xml:space="preserve">0.355190217494965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3724165558815</t>
   </si>
   <si>
     <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364486962556839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387364268302917</t>
+    <t xml:space="preserve">0.364486932754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38736429810524</t>
   </si>
   <si>
     <t xml:space="preserve">0.373783737421036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373692542314529</t>
+    <t xml:space="preserve">0.373692572116852</t>
   </si>
   <si>
     <t xml:space="preserve">0.391648024320602</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">0.403679072856903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395020395517349</t>
+    <t xml:space="preserve">0.395020425319672</t>
   </si>
   <si>
     <t xml:space="preserve">0.391101181507111</t>
@@ -245,64 +245,64 @@
     <t xml:space="preserve">0.390463173389435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379161208868027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369135320186615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377338320016861</t>
+    <t xml:space="preserve">0.379161238670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369135349988937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377338349819183</t>
   </si>
   <si>
     <t xml:space="preserve">0.369044214487076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360750019550323</t>
+    <t xml:space="preserve">0.360749989748001</t>
   </si>
   <si>
     <t xml:space="preserve">0.373874843120575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372143119573593</t>
+    <t xml:space="preserve">0.372143089771271</t>
   </si>
   <si>
     <t xml:space="preserve">0.372507691383362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366765588521957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373510271310806</t>
+    <t xml:space="preserve">0.366765558719635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373510301113129</t>
   </si>
   <si>
     <t xml:space="preserve">0.366856724023819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379890382289886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382715880870819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368588447570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.376609146595001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375150889158249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364669233560562</t>
+    <t xml:space="preserve">0.379890412092209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382715910673141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368588507175446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.376609176397324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375150859355927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364669263362885</t>
   </si>
   <si>
     <t xml:space="preserve">0.365489572286606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367312461137772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370958238840103</t>
+    <t xml:space="preserve">0.367312431335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370958209037781</t>
   </si>
   <si>
     <t xml:space="preserve">0.360020905733109</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">0.350906401872635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354552209377289</t>
+    <t xml:space="preserve">0.354552239179611</t>
   </si>
   <si>
     <t xml:space="preserve">0.370046764612198</t>
@@ -323,31 +323,31 @@
     <t xml:space="preserve">0.373327970504761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364578127861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354461073875427</t>
+    <t xml:space="preserve">0.364578098058701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35446110367775</t>
   </si>
   <si>
     <t xml:space="preserve">0.352455884218216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339969098567963</t>
+    <t xml:space="preserve">0.33996906876564</t>
   </si>
   <si>
     <t xml:space="preserve">0.352273613214493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348354369401932</t>
+    <t xml:space="preserve">0.348354399204254</t>
   </si>
   <si>
     <t xml:space="preserve">0.344435185194016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337234765291214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.333497822284698</t>
+    <t xml:space="preserve">0.337234735488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.333497852087021</t>
   </si>
   <si>
     <t xml:space="preserve">0.346166908740997</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">0.346349209547043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341791957616806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330581188201904</t>
+    <t xml:space="preserve">0.341791987419128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330581218004227</t>
   </si>
   <si>
     <t xml:space="preserve">0.326206266880035</t>
@@ -371,85 +371,85 @@
     <t xml:space="preserve">0.327755749225616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329852074384689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245114803314</t>
+    <t xml:space="preserve">0.329852044582367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245055198669</t>
   </si>
   <si>
     <t xml:space="preserve">0.329487442970276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32766455411911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325294822454453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326115101575851</t>
+    <t xml:space="preserve">0.327664524316788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325294852256775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326115131378174</t>
   </si>
   <si>
     <t xml:space="preserve">0.33358895778656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340971678495407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337599337100983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340515971183777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340880542993546</t>
+    <t xml:space="preserve">0.340971708297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337599366903305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340515941381454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340880572795868</t>
   </si>
   <si>
     <t xml:space="preserve">0.341518551111221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334864944219589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336323261260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335320740938187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33905765414238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32957860827446</t>
+    <t xml:space="preserve">0.334864974021912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336323320865631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335320711135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339057624340057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329578638076782</t>
   </si>
   <si>
     <t xml:space="preserve">0.331766068935394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332312911748886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325385987758636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328211456537247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332677513360977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328120291233063</t>
+    <t xml:space="preserve">0.332312971353531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325385957956314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328211426734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3326775431633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328120321035385</t>
   </si>
   <si>
     <t xml:space="preserve">0.319917321205139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327208817005157</t>
+    <t xml:space="preserve">0.32720884680748</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226995706558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323016226291656</t>
+    <t xml:space="preserve">0.323016256093979</t>
   </si>
   <si>
     <t xml:space="preserve">0.3208287358284</t>
@@ -458,13 +458,13 @@
     <t xml:space="preserve">0.36175262928009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335867553949356</t>
+    <t xml:space="preserve">0.335867583751678</t>
   </si>
   <si>
     <t xml:space="preserve">0.333680123090744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330945760011673</t>
+    <t xml:space="preserve">0.330945789813995</t>
   </si>
   <si>
     <t xml:space="preserve">0.335229575634003</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">0.342885673046112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333771288394928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344526320695877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337690502405167</t>
+    <t xml:space="preserve">0.333771258592606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344526290893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337690472602844</t>
   </si>
   <si>
     <t xml:space="preserve">0.3366878926754</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">0.351088732481003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349265843629837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340151369571686</t>
+    <t xml:space="preserve">0.349265784025192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340151399374008</t>
   </si>
   <si>
     <t xml:space="preserve">0.335594147443771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342976897954941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349721610546112</t>
+    <t xml:space="preserve">0.342976838350296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349721521139145</t>
   </si>
   <si>
     <t xml:space="preserve">0.345437735319138</t>
@@ -524,22 +524,22 @@
     <t xml:space="preserve">0.35491681098938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345073163509369</t>
+    <t xml:space="preserve">0.345073193311691</t>
   </si>
   <si>
     <t xml:space="preserve">0.34498205780983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328940629959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330854654312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324109941720963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331310391426086</t>
+    <t xml:space="preserve">0.328940600156784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330854624509811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32410991191864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331310331821442</t>
   </si>
   <si>
     <t xml:space="preserve">0.312352299690247</t>
@@ -548,16 +548,16 @@
     <t xml:space="preserve">0.316180348396301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317091792821884</t>
+    <t xml:space="preserve">0.317091822624207</t>
   </si>
   <si>
     <t xml:space="preserve">0.312625735998154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332586377859116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337143629789352</t>
+    <t xml:space="preserve">0.332586407661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33714359998703</t>
   </si>
   <si>
     <t xml:space="preserve">0.337052464485168</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">0.350724130868912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359109461307526</t>
+    <t xml:space="preserve">0.359109431505203</t>
   </si>
   <si>
     <t xml:space="preserve">0.341336250305176</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">0.345346599817276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343614846467972</t>
+    <t xml:space="preserve">0.343614876270294</t>
   </si>
   <si>
     <t xml:space="preserve">0.346258044242859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347260653972626</t>
+    <t xml:space="preserve">0.347260683774948</t>
   </si>
   <si>
     <t xml:space="preserve">0.353185027837753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353367328643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36275526881218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381804466247559</t>
+    <t xml:space="preserve">0.353367298841476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362755239009857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381804436445236</t>
   </si>
   <si>
     <t xml:space="preserve">0.380528390407562</t>
@@ -608,31 +608,31 @@
     <t xml:space="preserve">0.389825195074081</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380892932415009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369408756494522</t>
+    <t xml:space="preserve">0.380892962217331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369408786296844</t>
   </si>
   <si>
     <t xml:space="preserve">0.362390637397766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36293751001358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479222774506</t>
+    <t xml:space="preserve">0.362937480211258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479252576828</t>
   </si>
   <si>
     <t xml:space="preserve">0.361934930086136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367585837841034</t>
+    <t xml:space="preserve">0.367585897445679</t>
   </si>
   <si>
     <t xml:space="preserve">0.368223875761032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370411336421967</t>
+    <t xml:space="preserve">0.370411366224289</t>
   </si>
   <si>
     <t xml:space="preserve">0.363484382629395</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">0.358744859695435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357195407152176</t>
+    <t xml:space="preserve">0.357195377349854</t>
   </si>
   <si>
     <t xml:space="preserve">0.358198016881943</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">0.347625195980072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35327622294426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093892335892</t>
+    <t xml:space="preserve">0.353276193141937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093862533569</t>
   </si>
   <si>
     <t xml:space="preserve">0.349994957447052</t>
@@ -665,37 +665,37 @@
     <t xml:space="preserve">0.34379717707634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343250274658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346075743436813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617486000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350268393754959</t>
+    <t xml:space="preserve">0.343250304460526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346075773239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617456197739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350268423557281</t>
   </si>
   <si>
     <t xml:space="preserve">0.344890892505646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350359588861465</t>
+    <t xml:space="preserve">0.350359618663788</t>
   </si>
   <si>
     <t xml:space="preserve">0.349356979131699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358380287885666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35345846414566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104241847992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359747380018234</t>
+    <t xml:space="preserve">0.358380347490311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353458493947983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104271650314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359747439622879</t>
   </si>
   <si>
     <t xml:space="preserve">0.359565168619156</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">0.362299472093582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356375098228455</t>
+    <t xml:space="preserve">0.356375068426132</t>
   </si>
   <si>
     <t xml:space="preserve">0.356192827224731</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">0.36886191368103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374148309230804</t>
+    <t xml:space="preserve">0.374148279428482</t>
   </si>
   <si>
     <t xml:space="preserve">0.379525780677795</t>
@@ -725,58 +725,58 @@
     <t xml:space="preserve">0.363575488328934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352820485830307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356557428836823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361570358276367</t>
+    <t xml:space="preserve">0.352820456027985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356557369232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361570328474045</t>
   </si>
   <si>
     <t xml:space="preserve">0.360932320356369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362572938203812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355919390916824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358471423387527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368315070867538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369864493608475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374604046344757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366674453020096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369226455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372781127691269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370867103338242</t>
+    <t xml:space="preserve">0.362572908401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355919361114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358471393585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368315041065216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369864523410797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374604016542435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366674423217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369226485490799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372781097888947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370867073535919</t>
   </si>
   <si>
     <t xml:space="preserve">0.368041604757309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387273102998734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382533580064774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378340899944305</t>
+    <t xml:space="preserve">0.387273073196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382533550262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378340929746628</t>
   </si>
   <si>
     <t xml:space="preserve">0.386270523071289</t>
@@ -785,43 +785,43 @@
     <t xml:space="preserve">0.384174168109894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380984157323837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260143756866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541349649429</t>
+    <t xml:space="preserve">0.380984127521515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260173559189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541379451752</t>
   </si>
   <si>
     <t xml:space="preserve">0.386817365884781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378978937864304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523260354996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37150502204895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869653463364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366583287715912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365398466587067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365763038396835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360294342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364304661750793</t>
+    <t xml:space="preserve">0.378978967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523200750351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371505051851273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869683265686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366583317518234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365398436784744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365762978792191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360294312238693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364304691553116</t>
   </si>
   <si>
     <t xml:space="preserve">0.360385447740555</t>
@@ -833,85 +833,85 @@
     <t xml:space="preserve">0.356466233730316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355828195810318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377678155899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468813657761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361296892166138</t>
+    <t xml:space="preserve">0.355828255414963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377707958221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468843460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36129692196846</t>
   </si>
   <si>
     <t xml:space="preserve">0.366218715906143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365854144096375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358653724193573</t>
+    <t xml:space="preserve">0.365854114294052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358653753995895</t>
   </si>
   <si>
     <t xml:space="preserve">0.364851504564285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355645954608917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362117201089859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366036415100098</t>
+    <t xml:space="preserve">0.355645895004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362117230892181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36603644490242</t>
   </si>
   <si>
     <t xml:space="preserve">0.363757818937302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356922000646591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361661493778229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554789304733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358927130699158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114650964737</t>
+    <t xml:space="preserve">0.356921970844269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361661523580551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554848909378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358927100896835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114621162415</t>
   </si>
   <si>
     <t xml:space="preserve">0.358289122581482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360112011432648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945249795914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367950469255447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364395827054977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359291702508926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365124970674515</t>
+    <t xml:space="preserve">0.360111981630325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945279598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367950439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364395797252655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359291732311249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365124940872192</t>
   </si>
   <si>
     <t xml:space="preserve">0.377247184514999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378887802362442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3812575340271</t>
+    <t xml:space="preserve">0.37888777256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381257563829422</t>
   </si>
   <si>
     <t xml:space="preserve">0.379799246788025</t>
@@ -926,55 +926,55 @@
     <t xml:space="preserve">0.38362729549408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381075292825699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413916349411</t>
+    <t xml:space="preserve">0.381075263023376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413975954056</t>
   </si>
   <si>
     <t xml:space="preserve">0.380801856517792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37761178612709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38171324133873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381531000137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382898151874542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372689962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373965978622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375515460968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366309851408005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359474062919617</t>
+    <t xml:space="preserve">0.377611756324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381713271141052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381530970335007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382898181676865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372689992189407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373966008424759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37551549077034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366309881210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359474003314972</t>
   </si>
   <si>
     <t xml:space="preserve">0.358015716075897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362208336591721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348810076713562</t>
+    <t xml:space="preserve">0.362208396196365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348810106515884</t>
   </si>
   <si>
     <t xml:space="preserve">0.357924550771713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35774227976799</t>
+    <t xml:space="preserve">0.357742309570312</t>
   </si>
   <si>
     <t xml:space="preserve">0.35701310634613</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">0.36412239074707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363666623830795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354734539985657</t>
+    <t xml:space="preserve">0.363666653633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354734510183334</t>
   </si>
   <si>
     <t xml:space="preserve">0.355737090110779</t>
@@ -1007,28 +1007,28 @@
     <t xml:space="preserve">0.351817905902863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353640824556351</t>
+    <t xml:space="preserve">0.353640794754028</t>
   </si>
   <si>
     <t xml:space="preserve">0.352729320526123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335411876440048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329031735658646</t>
+    <t xml:space="preserve">0.335411846637726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329031765460968</t>
   </si>
   <si>
     <t xml:space="preserve">0.329943209886551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.322651594877243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32174015045166</t>
+    <t xml:space="preserve">0.322651624679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563039302826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.321740180253983</t>
   </si>
   <si>
     <t xml:space="preserve">0.334500432014465</t>
@@ -1037,10 +1037,10 @@
     <t xml:space="preserve">0.342703402042389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319005817174911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182987928391</t>
+    <t xml:space="preserve">0.319005846977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182898521423</t>
   </si>
   <si>
     <t xml:space="preserve">0.316271513700485</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">0.326297432184219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318094402551651</t>
+    <t xml:space="preserve">0.318094432353973</t>
   </si>
   <si>
     <t xml:space="preserve">0.310802817344666</t>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">0.309891372919083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308068484067917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314448624849319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311714321374893</t>
+    <t xml:space="preserve">0.308068543672562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314448654651642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311714261770248</t>
   </si>
   <si>
     <t xml:space="preserve">0.304422706365585</t>
@@ -1079,19 +1079,19 @@
     <t xml:space="preserve">0.305334150791168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306245625019073</t>
+    <t xml:space="preserve">0.306245595216751</t>
   </si>
   <si>
     <t xml:space="preserve">0.298954039812088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299865514039993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776928663254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303511291742325</t>
+    <t xml:space="preserve">0.299865454435349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776958465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303511261940002</t>
   </si>
   <si>
     <t xml:space="preserve">0.307157069444656</t>
@@ -1100,22 +1100,22 @@
     <t xml:space="preserve">0.313537180423737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308979988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.315360009670258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348250895738602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351975530385971</t>
+    <t xml:space="preserve">0.3089799284935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31536003947258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348250955343246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351975500583649</t>
   </si>
   <si>
     <t xml:space="preserve">0.342664003372192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335214793682098</t>
+    <t xml:space="preserve">0.335214823484421</t>
   </si>
   <si>
     <t xml:space="preserve">0.338008254766464</t>
@@ -1124,34 +1124,34 @@
     <t xml:space="preserve">0.33614593744278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347319751977921</t>
+    <t xml:space="preserve">0.347319722175598</t>
   </si>
   <si>
     <t xml:space="preserve">0.354768991470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349182039499283</t>
+    <t xml:space="preserve">0.349182069301605</t>
   </si>
   <si>
     <t xml:space="preserve">0.346388608217239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341732889413834</t>
+    <t xml:space="preserve">0.341732859611511</t>
   </si>
   <si>
     <t xml:space="preserve">0.352906674146652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345457434654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343595117330551</t>
+    <t xml:space="preserve">0.345457464456558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343595176935196</t>
   </si>
   <si>
     <t xml:space="preserve">0.337077081203461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34080171585083</t>
+    <t xml:space="preserve">0.340801686048508</t>
   </si>
   <si>
     <t xml:space="preserve">0.339870542287827</t>
@@ -1160,13 +1160,13 @@
     <t xml:space="preserve">0.338939398527145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353837817907333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372460871934891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358493566513062</t>
+    <t xml:space="preserve">0.353837847709656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372460842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358493596315384</t>
   </si>
   <si>
     <t xml:space="preserve">0.363149344921112</t>
@@ -1187,16 +1187,16 @@
     <t xml:space="preserve">0.367805123329163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368736267089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366873949766159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371529668569565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385497003793716</t>
+    <t xml:space="preserve">0.368736296892166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366873919963837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37152972817421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385497033596039</t>
   </si>
   <si>
     <t xml:space="preserve">0.3780477643013</t>
@@ -1205,52 +1205,52 @@
     <t xml:space="preserve">0.379910081624985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38829043507576</t>
+    <t xml:space="preserve">0.388290464878082</t>
   </si>
   <si>
     <t xml:space="preserve">0.415293872356415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404120028018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.399464279413223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.407844662666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414362728595734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395739704370499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400395423173904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405051231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405982315540314</t>
+    <t xml:space="preserve">0.404120057821274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399464249610901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.407844632863998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414362698793411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395739734172821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400395452976227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405051171779633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405982345342636</t>
   </si>
   <si>
     <t xml:space="preserve">0.409706950187683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391083866357803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403188914060593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396670818328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.401326596736908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413431584835052</t>
+    <t xml:space="preserve">0.391083896160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40318888425827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39667084813118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.401326566934586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41343155503273</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
@@ -1259,22 +1259,22 @@
     <t xml:space="preserve">0.422743082046509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424605429172516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444159597158432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474887549877167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.458126902580261</t>
+    <t xml:space="preserve">0.424605399370193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444159626960754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474887609481812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.458126872777939</t>
   </si>
   <si>
     <t xml:space="preserve">0.45253998041153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455333411693573</t>
+    <t xml:space="preserve">0.455333381891251</t>
   </si>
   <si>
     <t xml:space="preserve">0.454402267932892</t>
@@ -1283,46 +1283,46 @@
     <t xml:space="preserve">0.450677663087845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446953028440475</t>
+    <t xml:space="preserve">0.446953058242798</t>
   </si>
   <si>
     <t xml:space="preserve">0.446021854877472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453471124172211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456264615058899</t>
+    <t xml:space="preserve">0.453471094369888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456264585256577</t>
   </si>
   <si>
     <t xml:space="preserve">0.471162974834442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476749897003174</t>
+    <t xml:space="preserve">0.476749956607819</t>
   </si>
   <si>
     <t xml:space="preserve">0.457195729017258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45905801653862</t>
+    <t xml:space="preserve">0.459058046340942</t>
   </si>
   <si>
     <t xml:space="preserve">0.460920333862305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445090740919113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.439503848552704</t>
+    <t xml:space="preserve">0.445090711116791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.439503818750381</t>
   </si>
   <si>
     <t xml:space="preserve">0.451608806848526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447884202003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44881534576416</t>
+    <t xml:space="preserve">0.447884172201157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448815375566483</t>
   </si>
   <si>
     <t xml:space="preserve">0.440434962511063</t>
@@ -1334,49 +1334,49 @@
     <t xml:space="preserve">0.653668880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744921743869781</t>
+    <t xml:space="preserve">0.744921684265137</t>
   </si>
   <si>
     <t xml:space="preserve">0.672291874885559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657393395900726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.687190234661102</t>
+    <t xml:space="preserve">0.657393455505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.687190353870392</t>
   </si>
   <si>
     <t xml:space="preserve">0.666705012321472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.638770401477814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6108358502388</t>
+    <t xml:space="preserve">0.638770341873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610835790634155</t>
   </si>
   <si>
     <t xml:space="preserve">0.59035050868988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568002820014954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608973562717438</t>
+    <t xml:space="preserve">0.568002760410309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608973503112793</t>
   </si>
   <si>
     <t xml:space="preserve">0.635045766830444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63132119178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629458844661713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633183419704437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640632748603821</t>
+    <t xml:space="preserve">0.631321132183075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629458904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633183479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640632688999176</t>
   </si>
   <si>
     <t xml:space="preserve">0.642495036125183</t>
@@ -1388,25 +1388,25 @@
     <t xml:space="preserve">0.62759655714035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.601524353027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57731431722641</t>
+    <t xml:space="preserve">0.601524412631989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.577314376831055</t>
   </si>
   <si>
     <t xml:space="preserve">0.525169849395752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515858292579651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.527032136917114</t>
+    <t xml:space="preserve">0.515858352184296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.527032077312469</t>
   </si>
   <si>
     <t xml:space="preserve">0.502822160720825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510633707047</t>
+    <t xml:space="preserve">0.493510663509369</t>
   </si>
   <si>
     <t xml:space="preserve">0.499097585678101</t>
@@ -1418,10 +1418,10 @@
     <t xml:space="preserve">0.42833000421524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437641531229019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.463713765144348</t>
+    <t xml:space="preserve">0.437641501426697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.463713794946671</t>
   </si>
   <si>
     <t xml:space="preserve">0.435779213905334</t>
@@ -1439,19 +1439,19 @@
     <t xml:space="preserve">0.513995945453644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510271370410919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508409082889557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512133657932281</t>
+    <t xml:space="preserve">0.510271430015564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508409142494202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512133717536926</t>
   </si>
   <si>
     <t xml:space="preserve">0.543792843818665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540068209171295</t>
+    <t xml:space="preserve">0.54006826877594</t>
   </si>
   <si>
     <t xml:space="preserve">0.571727454662323</t>
@@ -1460,40 +1460,40 @@
     <t xml:space="preserve">0.582901239395142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566140592098236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.558691322803497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538205981254578</t>
+    <t xml:space="preserve">0.566140532493591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.558691263198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538205921649933</t>
   </si>
   <si>
     <t xml:space="preserve">0.530756711959839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.528894543647766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549379706382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532619118690491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521445214748383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517720639705658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506546854972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536343634128571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564278244972229</t>
+    <t xml:space="preserve">0.528894484043121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549379825592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532619059085846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521445274353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517720580101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546795368195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536343693733215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564278185367584</t>
   </si>
   <si>
     <t xml:space="preserve">0.575452029705048</t>
@@ -1511,28 +1511,28 @@
     <t xml:space="preserve">0.557269692420959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566747069358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549687743186951</t>
+    <t xml:space="preserve">0.566747009754181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549687802791595</t>
   </si>
   <si>
     <t xml:space="preserve">0.562956094741821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551583290100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.553478717803955</t>
+    <t xml:space="preserve">0.551583230495453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5534787774086</t>
   </si>
   <si>
     <t xml:space="preserve">0.559165120124817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542105913162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.544001340866089</t>
+    <t xml:space="preserve">0.542105853557587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.544001400470734</t>
   </si>
   <si>
     <t xml:space="preserve">0.540210366249084</t>
@@ -1541,61 +1541,61 @@
     <t xml:space="preserve">0.547792315483093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.545896768569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534524023532867</t>
+    <t xml:space="preserve">0.545896887779236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534523963928223</t>
   </si>
   <si>
     <t xml:space="preserve">0.53641951084137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525046586990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51936012506485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.515569269657135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513673782348633</t>
+    <t xml:space="preserve">0.525046646595001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.519360184669495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51556932926178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513673722743988</t>
   </si>
   <si>
     <t xml:space="preserve">0.523151099681854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521255612373352</t>
+    <t xml:space="preserve">0.521255731582642</t>
   </si>
   <si>
     <t xml:space="preserve">0.528837621212006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.538314998149872</t>
+    <t xml:space="preserve">0.538314938545227</t>
   </si>
   <si>
     <t xml:space="preserve">0.530733048915863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583806276321411</t>
+    <t xml:space="preserve">0.583806395530701</t>
   </si>
   <si>
     <t xml:space="preserve">0.73544442653656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73923522233963</t>
+    <t xml:space="preserve">0.739235281944275</t>
   </si>
   <si>
     <t xml:space="preserve">0.693743944168091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653938889503479</t>
+    <t xml:space="preserve">0.653938949108124</t>
   </si>
   <si>
     <t xml:space="preserve">0.633088648319244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686161994934082</t>
+    <t xml:space="preserve">0.686162054538727</t>
   </si>
   <si>
     <t xml:space="preserve">0.676684558391571</t>
@@ -1607,10 +1607,10 @@
     <t xml:space="preserve">0.659625291824341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.669102728366852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66341632604599</t>
+    <t xml:space="preserve">0.669102787971497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.663416266441345</t>
   </si>
   <si>
     <t xml:space="preserve">0.644461572170258</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">0.650147914886475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640670597553253</t>
+    <t xml:space="preserve">0.640670657157898</t>
   </si>
   <si>
     <t xml:space="preserve">0.655834376811981</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">0.634984195232391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.629297733306885</t>
+    <t xml:space="preserve">0.62929767370224</t>
   </si>
   <si>
     <t xml:space="preserve">0.625506818294525</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">0.619820356369019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616029381752014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.604656636714935</t>
+    <t xml:space="preserve">0.616029441356659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.604656577110291</t>
   </si>
   <si>
     <t xml:space="preserve">0.602761089801788</t>
@@ -1649,25 +1649,25 @@
     <t xml:space="preserve">0.593283712863922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587597250938416</t>
+    <t xml:space="preserve">0.58759731054306</t>
   </si>
   <si>
     <t xml:space="preserve">0.60844749212265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.597074687480927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.589492678642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642566084861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652043402194977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636879682540894</t>
+    <t xml:space="preserve">0.597074627876282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.589492738246918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642566025257111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.652043461799622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636879563331604</t>
   </si>
   <si>
     <t xml:space="preserve">0.617924928665161</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">0.610342979431152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.555374264717102</t>
+    <t xml:space="preserve">0.555374205112457</t>
   </si>
   <si>
     <t xml:space="preserve">0.564851582050323</t>
@@ -1700,28 +1700,28 @@
     <t xml:space="preserve">0.568642556667328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.561060726642609</t>
+    <t xml:space="preserve">0.561060667037964</t>
   </si>
   <si>
     <t xml:space="preserve">0.572433471679688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59138822555542</t>
+    <t xml:space="preserve">0.591388285160065</t>
   </si>
   <si>
     <t xml:space="preserve">0.614133954048157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674789190292358</t>
+    <t xml:space="preserve">0.674789130687714</t>
   </si>
   <si>
     <t xml:space="preserve">0.665311813354492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691848456859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699430346488953</t>
+    <t xml:space="preserve">0.691848397254944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699430286884308</t>
   </si>
   <si>
     <t xml:space="preserve">0.678580105304718</t>
@@ -1730,13 +1730,13 @@
     <t xml:space="preserve">0.672893643379211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.667207300662994</t>
+    <t xml:space="preserve">0.66720724105835</t>
   </si>
   <si>
     <t xml:space="preserve">0.657729864120483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705116808414459</t>
+    <t xml:space="preserve">0.705116748809814</t>
   </si>
   <si>
     <t xml:space="preserve">0.69753485918045</t>
@@ -1751,22 +1751,22 @@
     <t xml:space="preserve">0.648252546787262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799890577793121</t>
+    <t xml:space="preserve">0.799890458583832</t>
   </si>
   <si>
     <t xml:space="preserve">0.758190035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788517653942108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782831132411957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775249421596527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761981010437012</t>
+    <t xml:space="preserve">0.788517713546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782831192016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.775249302387238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761980950832367</t>
   </si>
   <si>
     <t xml:space="preserve">0.75629460811615</t>
@@ -1784,16 +1784,16 @@
     <t xml:space="preserve">0.727862417697906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7316535115242</t>
+    <t xml:space="preserve">0.731653392314911</t>
   </si>
   <si>
     <t xml:space="preserve">0.733548879623413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.725966930389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750608146190643</t>
+    <t xml:space="preserve">0.725966989994049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750608205795288</t>
   </si>
   <si>
     <t xml:space="preserve">0.743026256561279</t>
@@ -1805,46 +1805,46 @@
     <t xml:space="preserve">0.746817171573639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737339913845062</t>
+    <t xml:space="preserve">0.737339854240417</t>
   </si>
   <si>
     <t xml:space="preserve">0.729757905006409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.722176015377045</t>
+    <t xml:space="preserve">0.722176074981689</t>
   </si>
   <si>
     <t xml:space="preserve">0.77714478969574</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769562900066376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760085463523865</t>
+    <t xml:space="preserve">0.769562840461731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76008552312851</t>
   </si>
   <si>
     <t xml:space="preserve">0.754399120807648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813158869743347</t>
+    <t xml:space="preserve">0.813158810138702</t>
   </si>
   <si>
     <t xml:space="preserve">0.824638724327087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816985428333282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803592205047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788285791873932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792112350463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.763412654399872</t>
+    <t xml:space="preserve">0.816985487937927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.803592264652252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788285732269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792112410068512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.763412594795227</t>
   </si>
   <si>
     <t xml:space="preserve">0.757672727108002</t>
@@ -1859,22 +1859,22 @@
     <t xml:space="preserve">0.742366254329681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.738539636135101</t>
+    <t xml:space="preserve">0.738539576530457</t>
   </si>
   <si>
     <t xml:space="preserve">0.736626207828522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744279563426971</t>
+    <t xml:space="preserve">0.744279503822327</t>
   </si>
   <si>
     <t xml:space="preserve">0.751932799816132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746192753314972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.740452885627747</t>
+    <t xml:space="preserve">0.746192812919617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.740452826023102</t>
   </si>
   <si>
     <t xml:space="preserve">0.732799589633942</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">0.715579807758331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.713666498661041</t>
+    <t xml:space="preserve">0.713666439056396</t>
   </si>
   <si>
     <t xml:space="preserve">0.694533348083496</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">0.730886280536652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759586036205292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771065831184387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750019431114197</t>
+    <t xml:space="preserve">0.759586095809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771065890789032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750019371509552</t>
   </si>
   <si>
     <t xml:space="preserve">0.765325963497162</t>
@@ -1928,16 +1928,16 @@
     <t xml:space="preserve">0.778719186782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782545864582062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776805877685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769152581691742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.767239212989807</t>
+    <t xml:space="preserve">0.782545804977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776805818080902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769152641296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.767239272594452</t>
   </si>
   <si>
     <t xml:space="preserve">0.761499345302582</t>
@@ -1946,16 +1946,16 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734712898731232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717493116855621</t>
+    <t xml:space="preserve">0.734712958335876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717493057250977</t>
   </si>
   <si>
     <t xml:space="preserve">0.709839820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727059602737427</t>
+    <t xml:space="preserve">0.727059662342072</t>
   </si>
   <si>
     <t xml:space="preserve">0.719406425952911</t>
@@ -1964,22 +1964,22 @@
     <t xml:space="preserve">0.723232984542847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851425170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937524318695068</t>
+    <t xml:space="preserve">0.851425111293793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937524378299713</t>
   </si>
   <si>
     <t xml:space="preserve">0.903084635734558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904997885227203</t>
+    <t xml:space="preserve">0.904997944831848</t>
   </si>
   <si>
     <t xml:space="preserve">0.883951544761658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895431399345398</t>
+    <t xml:space="preserve">0.895431339740753</t>
   </si>
   <si>
     <t xml:space="preserve">0.843771934509277</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">0.853338479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876298308372498</t>
+    <t xml:space="preserve">0.876298248767853</t>
   </si>
   <si>
     <t xml:space="preserve">0.880124866962433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887778103351593</t>
+    <t xml:space="preserve">0.887778162956238</t>
   </si>
   <si>
     <t xml:space="preserve">0.885864794254303</t>
@@ -2021,22 +2021,22 @@
     <t xml:space="preserve">1.10972261428833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19582176208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21017181873322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12885570526123</t>
+    <t xml:space="preserve">1.19582188129425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21017158031464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12885582447052</t>
   </si>
   <si>
     <t xml:space="preserve">1.04275667667389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09537279605865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10493922233582</t>
+    <t xml:space="preserve">1.09537267684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1049393415451</t>
   </si>
   <si>
     <t xml:space="preserve">1.12407243251801</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">1.11928915977478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18147194385529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13842248916626</t>
+    <t xml:space="preserve">1.18147206306458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13842236995697</t>
   </si>
   <si>
     <t xml:space="preserve">1.08102297782898</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">1.09058940410614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07623970508575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05232310295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03797328472137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11450588703156</t>
+    <t xml:space="preserve">1.07623958587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05232322216034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03797340393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11450600624084</t>
   </si>
   <si>
     <t xml:space="preserve">1.13363909721375</t>
@@ -2081,10 +2081,10 @@
     <t xml:space="preserve">1.03319013118744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0236234664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994923770427704</t>
+    <t xml:space="preserve">1.02362358570099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994923651218414</t>
   </si>
   <si>
     <t xml:space="preserve">0.922217786312103</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">0.980573892593384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914564549922943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872471570968628</t>
+    <t xml:space="preserve">0.914564490318298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872471630573273</t>
   </si>
   <si>
     <t xml:space="preserve">0.891604721546173</t>
@@ -2120,16 +2120,16 @@
     <t xml:space="preserve">0.949004173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947090923786163</t>
+    <t xml:space="preserve">0.947090864181519</t>
   </si>
   <si>
     <t xml:space="preserve">0.910737931728363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941350936889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954744160175323</t>
+    <t xml:space="preserve">0.941350996494293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954744219779968</t>
   </si>
   <si>
     <t xml:space="preserve">0.956657469272614</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">0.889691472053528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884908199310303</t>
+    <t xml:space="preserve">0.884908139705658</t>
   </si>
   <si>
     <t xml:space="preserve">0.873428225517273</t>
@@ -2165,22 +2165,22 @@
     <t xml:space="preserve">0.865774989128113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860991656780243</t>
+    <t xml:space="preserve">0.860991716384888</t>
   </si>
   <si>
     <t xml:space="preserve">0.818898797035217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920304536819458</t>
+    <t xml:space="preserve">0.920304477214813</t>
   </si>
   <si>
     <t xml:space="preserve">0.904041290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901171267032623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845685243606567</t>
+    <t xml:space="preserve">0.901171326637268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845685184001923</t>
   </si>
   <si>
     <t xml:space="preserve">0.846641838550568</t>
@@ -2192,16 +2192,16 @@
     <t xml:space="preserve">0.870558321475983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866731643676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983443915843964</t>
+    <t xml:space="preserve">0.866731703281403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983443856239319</t>
   </si>
   <si>
     <t xml:space="preserve">0.939437627792358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940394222736359</t>
+    <t xml:space="preserve">0.940394282341003</t>
   </si>
   <si>
     <t xml:space="preserve">0.929871022701263</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">0.877254903316498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839945256710052</t>
+    <t xml:space="preserve">0.839945316314697</t>
   </si>
   <si>
     <t xml:space="preserve">0.852381765842438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861948430538177</t>
+    <t xml:space="preserve">0.861948370933533</t>
   </si>
   <si>
     <t xml:space="preserve">0.877983152866364</t>
@@ -59718,7 +59718,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6495486111</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>5868</v>
@@ -59739,6 +59739,32 @@
         <v>919</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6383449074</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>8919</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>919</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41015037894249</t>
+    <t xml:space="preserve">0.410150319337845</t>
   </si>
   <si>
     <t xml:space="preserve">GTH.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421087712049484</t>
+    <t xml:space="preserve">0.421087741851807</t>
   </si>
   <si>
     <t xml:space="preserve">0.413796156644821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416530519723892</t>
+    <t xml:space="preserve">0.41653048992157</t>
   </si>
   <si>
     <t xml:space="preserve">0.393653184175491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400944769382477</t>
+    <t xml:space="preserve">0.400944799184799</t>
   </si>
   <si>
     <t xml:space="preserve">0.394108921289444</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">0.396478682756424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400033354759216</t>
+    <t xml:space="preserve">0.400033324956894</t>
   </si>
   <si>
     <t xml:space="preserve">0.405046284198761</t>
@@ -77,40 +77,40 @@
     <t xml:space="preserve">0.3971166908741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382807016372681</t>
+    <t xml:space="preserve">0.382806986570358</t>
   </si>
   <si>
     <t xml:space="preserve">0.40468168258667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40987691283226</t>
+    <t xml:space="preserve">0.409876942634583</t>
   </si>
   <si>
     <t xml:space="preserve">0.405502021312714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408327490091324</t>
+    <t xml:space="preserve">0.408327460289001</t>
   </si>
   <si>
     <t xml:space="preserve">0.406778067350388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402767688035965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403314560651779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389095991849899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373601406812668</t>
+    <t xml:space="preserve">0.402767658233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403314501047134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389095962047577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37360143661499</t>
   </si>
   <si>
     <t xml:space="preserve">0.357286542654037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359929710626602</t>
+    <t xml:space="preserve">0.359929770231247</t>
   </si>
   <si>
     <t xml:space="preserve">0.338237345218658</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">0.355463624000549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355372548103333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385450184345245</t>
+    <t xml:space="preserve">0.35537251830101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385450214147568</t>
   </si>
   <si>
     <t xml:space="preserve">0.391010016202927</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">0.392832905054092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40650463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409694671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393835514783859</t>
+    <t xml:space="preserve">0.406504571437836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409694701433182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393835484981537</t>
   </si>
   <si>
     <t xml:space="preserve">0.405593156814575</t>
@@ -161,52 +161,52 @@
     <t xml:space="preserve">0.392650604248047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392012566328049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396387547254562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.401035934686661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388366848230362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387728840112686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382168978452682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383718430995941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39073657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389916300773621</t>
+    <t xml:space="preserve">0.392012596130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39638751745224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.401035904884338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38836681842804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387728810310364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382169008255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383718460798264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.390736609697342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389916270971298</t>
   </si>
   <si>
     <t xml:space="preserve">0.389642864465714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35418763756752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356830835342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346804946660995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368132740259171</t>
+    <t xml:space="preserve">0.354187607765198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356830805540085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346804887056351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368132710456848</t>
   </si>
   <si>
     <t xml:space="preserve">0.359018296003342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355190217494965</t>
+    <t xml:space="preserve">0.355190247297287</t>
   </si>
   <si>
     <t xml:space="preserve">0.3724165558815</t>
@@ -215,61 +215,61 @@
     <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364486992359161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387364238500595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373783707618713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373692572116852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391648024320602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39183035492897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403679072856903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395020395517349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391101211309433</t>
+    <t xml:space="preserve">0.364486932754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387364268302917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373783737421036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373692542314529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39164799451828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391830325126648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403679132461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395020425319672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391101181507111</t>
   </si>
   <si>
     <t xml:space="preserve">0.390463173389435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379161268472672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369135349988937</t>
+    <t xml:space="preserve">0.379161238670349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369135320186615</t>
   </si>
   <si>
     <t xml:space="preserve">0.377338320016861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369044214487076</t>
+    <t xml:space="preserve">0.369044184684753</t>
   </si>
   <si>
     <t xml:space="preserve">0.360750019550323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373874843120575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372143059968948</t>
+    <t xml:space="preserve">0.373874872922897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372143089771271</t>
   </si>
   <si>
     <t xml:space="preserve">0.372507691383362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366765558719635</t>
+    <t xml:space="preserve">0.366765588521957</t>
   </si>
   <si>
     <t xml:space="preserve">0.373510301113129</t>
@@ -278,49 +278,49 @@
     <t xml:space="preserve">0.366856724023819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379890412092209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382715880870819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368588507175446</t>
+    <t xml:space="preserve">0.379890352487564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382715851068497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368588477373123</t>
   </si>
   <si>
     <t xml:space="preserve">0.376609176397324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375150889158249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36466920375824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365489572286606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367312431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370958238840103</t>
+    <t xml:space="preserve">0.375150829553604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364669233560562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365489542484283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367312461137772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370958268642426</t>
   </si>
   <si>
     <t xml:space="preserve">0.360020905733109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348172068595886</t>
+    <t xml:space="preserve">0.348172128200531</t>
   </si>
   <si>
     <t xml:space="preserve">0.350906401872635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354552209377289</t>
+    <t xml:space="preserve">0.354552179574966</t>
   </si>
   <si>
     <t xml:space="preserve">0.370046764612198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373327970504761</t>
+    <t xml:space="preserve">0.373327940702438</t>
   </si>
   <si>
     <t xml:space="preserve">0.364578098058701</t>
@@ -329,16 +329,16 @@
     <t xml:space="preserve">0.354461073875427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352455884218216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339969098567963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35227358341217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348354399204254</t>
+    <t xml:space="preserve">0.352455914020538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33996906876564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352273613214493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348354369401932</t>
   </si>
   <si>
     <t xml:space="preserve">0.344435185194016</t>
@@ -350,70 +350,70 @@
     <t xml:space="preserve">0.333497852087021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346166908740997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346349209547043</t>
+    <t xml:space="preserve">0.346166878938675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346349239349365</t>
   </si>
   <si>
     <t xml:space="preserve">0.341791957616806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330581188201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326206237077713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324474543333054</t>
+    <t xml:space="preserve">0.330581218004227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326206266880035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324474513530731</t>
   </si>
   <si>
     <t xml:space="preserve">0.327755719423294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329852044582367</t>
+    <t xml:space="preserve">0.329852104187012</t>
   </si>
   <si>
     <t xml:space="preserve">0.341245114803314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329487472772598</t>
+    <t xml:space="preserve">0.329487442970276</t>
   </si>
   <si>
     <t xml:space="preserve">0.327664583921432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325294852256775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326115101575851</t>
+    <t xml:space="preserve">0.32529479265213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326115131378174</t>
   </si>
   <si>
     <t xml:space="preserve">0.333588987588882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340971708297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337599366903305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340515941381454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340880542993546</t>
+    <t xml:space="preserve">0.340971648693085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337599337100983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340515971183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340880513191223</t>
   </si>
   <si>
     <t xml:space="preserve">0.341518551111221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334865003824234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336323291063309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335320711135864</t>
+    <t xml:space="preserve">0.334864974021912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336323261260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335320740938187</t>
   </si>
   <si>
     <t xml:space="preserve">0.33905765414238</t>
@@ -422,28 +422,28 @@
     <t xml:space="preserve">0.32957860827446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331766039133072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332312911748886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325385957956314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328211456537247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3326775431633</t>
+    <t xml:space="preserve">0.331766068935394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332312941551208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325385987758636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328211426734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332677483558655</t>
   </si>
   <si>
     <t xml:space="preserve">0.328120291233063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319917291402817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32720884680748</t>
+    <t xml:space="preserve">0.319917321205139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327208817005157</t>
   </si>
   <si>
     <t xml:space="preserve">0.334226965904236</t>
@@ -458,670 +458,670 @@
     <t xml:space="preserve">0.361752659082413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335867583751678</t>
+    <t xml:space="preserve">0.335867613554001</t>
   </si>
   <si>
     <t xml:space="preserve">0.333680123090744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330945760011673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33522954583168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343432575464249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349083542823792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338875353336334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342885732650757</t>
+    <t xml:space="preserve">0.330945819616318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335229575634003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343432605266571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349083513021469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338875323534012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342885702848434</t>
   </si>
   <si>
     <t xml:space="preserve">0.333771258592606</t>
   </si>
   <si>
+    <t xml:space="preserve">0.344526350498199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337690502405167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3366878926754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378249794244766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351088732481003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349265843629837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340151369571686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335594117641449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342976868152618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349721550941467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345437735319138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3535495698452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35491681098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345073163509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344982028007507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328940600156784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330854624509811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324109971523285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331310361623764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312352299690247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316180378198624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317091792821884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.312625735998154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.332586348056793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33714359998703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052464485168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966518640518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338146179914474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350724160671234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109431505203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341336250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345346599817276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343614876270294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346258044242859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347260653972626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353185027837753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353367328643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362755239009857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381804436445236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380528390407562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389825135469437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380892962217331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369408786296844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362390637397766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362937539815903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479192972183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361934930086136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367585867643356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368223875761032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370411336421967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363484382629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358744859695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357195407152176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358198046684265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363119840621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347625195980072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35327622294426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093922138214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349995017051697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343797117471695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343250304460526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346075743436813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617486000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350268393754959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344890892505646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350359588861465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349357008934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358380287885666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35345846414566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357104241847992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359747409820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359565138816833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362299501895905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356375098228455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356192827224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374330550432205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36886191368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374148309230804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379525810480118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363575547933578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820456027985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3565573990345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361570298671722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360932320356369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362572908401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355919420719147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358471393585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368315041065216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369864493608475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374604046344757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366674453020096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369226425886154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372781127691269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370867103338242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368041634559631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387273102998734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382533580064774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37834095954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386270493268967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.384174168109894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380984127521515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382260143756866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385541379451752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386817336082458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378978937864304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378523260354996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371505051851273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869683265686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366583287715912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365398436784744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365763008594513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360294282436371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364304661750793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360385417938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363848954439163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466203927994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35582822561264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357377678155899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468813657761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36129692196846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366218686103821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365854144096375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358653694391251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36485156416893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355645924806595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362117230892181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366036474704742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363757818937302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356922000646591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361661463975906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554789304733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35892716050148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114650964737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358289152383804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360112011432648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365945249795914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36795049905777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364395827054977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359291732311249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365124970674515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377247184514999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37888777256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381257563829422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379799246788025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388731390237808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385723650455475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383627355098724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075263023376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413916349411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.380801856517792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377611756324768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381713271141052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381531000137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382898151874542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372689962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373965978622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375515460968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366309821605682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359474033117294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358015716075897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362208336591721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.348810106515884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357924520969391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35774227976799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357013136148453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359656304121017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364122420549393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363666653633118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354734510183334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355737060308456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365671873092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361843794584274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366400986909866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35181787610054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353640764951706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352729290723801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335411876440048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329031735658646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329943209886551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.322651624679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563069105148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.321740210056305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334500432014465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342703431844711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319005817174911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182958126068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271543502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326297432184219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318094432353973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310802817344666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301688402891159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302599847316742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.309891372919083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308068484067917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314448624849319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311714261770248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304422736167908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305334180593491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306245595216751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298954039812088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299865484237671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.300776988267899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303511291742325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.307157069444656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313537180423737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308979958295822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31536003947258</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.344526320695877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337690502405167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3366878926754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378249764442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351088732481003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349265813827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340151369571686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335594147443771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342976897954941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349721550941467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345437735319138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353549599647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354916781187057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345073193311691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344982028007507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328940600156784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330854654312134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32410991191864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331310361623764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312352299690247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316180348396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317091792821884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.312625735998154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.332586348056793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33714359998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052494287491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966488838196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338146179914474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350724130868912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109431505203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341336280107498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345346599817276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343614906072617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346258074045181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347260653972626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353185027837753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353367328643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36275526881218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381804436445236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38052836060524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389825195074081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380893021821976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3694087266922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362390607595444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362937480211258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479222774506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361934900283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367585867643356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368223875761032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370411306619644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363484382629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358744859695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357195377349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35819798707962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363119810819626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347625225782394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35327622294426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093892335892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349994987249374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343797147274017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343250274658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346075773239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617486000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350268393754959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344890892505646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350359588861465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349356979131699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358380287885666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353458493947983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357104241847992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359747409820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359565198421478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362299531698227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356375098228455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356192827224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374330550432205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368861883878708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37414824962616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379525810480118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363575518131256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820485830307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3565573990345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361570358276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360932320356369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362572908401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355919420719147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358471393585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368315041065216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369864493608475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374603986740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366674423217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369226485490799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372781127691269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370867043733597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368041604757309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387273073196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382533580064774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378340899944305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386270523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.384174168109894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380984127521515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382260143756866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385541349649429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386817365884781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378978908061981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378523230552673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505051851273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869683265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366583287715912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365398436784744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365763008594513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360294342041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364304661750793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385447740555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363848924636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466203927994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35582822561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357377707958221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468813657761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361296892166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366218715906143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365854144096375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358653694391251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364851534366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355645924806595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362117201089859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36603644490242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363757848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356922030448914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361661493778229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554789304733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358927130699158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114621162415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358289152383804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360112011432648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365945249795914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367950439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3643958568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359291732311249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365124970674515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377247184514999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378887802362442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3812575340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379799246788025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388731360435486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385723680257797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383627355098724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075263023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413886547089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.380801856517792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377611756324768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381713271141052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381530970335007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382898151874542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372689992189407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373966008424759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375515431165695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366309851408005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359474033117294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358015716075897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362208336591721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.348810136318207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357924550771713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35774227976799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35701310634613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359656304121017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36412239074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363666653633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354734480381012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355737060308456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365671843290329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361843764781952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366401016712189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35181787610054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353640794754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352729350328445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335411876440048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329031735658646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329943180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.322651624679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563039302826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.321740180253983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334500432014465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342703402042389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319005846977234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182958126068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271543502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326297432184219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318094402551651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310802817344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301688343286514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.302599847316742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.309891372919083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308068513870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314448595046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311714261770248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304422706365585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.305334180593491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.306245595216751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298954099416733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299865543842316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.300776898860931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303511261940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307157069444656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313537210226059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308979958295822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31536003947258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344526290893555</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.348250925540924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351975560188293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342664033174515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.335214763879776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338008254766464</t>
+    <t xml:space="preserve">0.351975530385971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342664003372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.335214793682098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338008224964142</t>
   </si>
   <si>
     <t xml:space="preserve">0.33614593744278</t>
@@ -1142,13 +1142,13 @@
     <t xml:space="preserve">0.341732859611511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352906703948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345457434654236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343595147132874</t>
+    <t xml:space="preserve">0.352906674146652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345457404851913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343595117330551</t>
   </si>
   <si>
     <t xml:space="preserve">0.337077051401138</t>
@@ -1160,13 +1160,13 @@
     <t xml:space="preserve">0.339870542287827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338939368724823</t>
+    <t xml:space="preserve">0.338939398527145</t>
   </si>
   <si>
     <t xml:space="preserve">0.353837788105011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372460871934891</t>
+    <t xml:space="preserve">0.372460901737213</t>
   </si>
   <si>
     <t xml:space="preserve">0.358493566513062</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">0.363149344921112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362218201160431</t>
+    <t xml:space="preserve">0.362218171358109</t>
   </si>
   <si>
     <t xml:space="preserve">0.356631278991699</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">0.361287087202072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3659428358078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36780509352684</t>
+    <t xml:space="preserve">0.365942806005478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367805123329163</t>
   </si>
   <si>
     <t xml:space="preserve">0.368736267089844</t>
@@ -1199,10 +1199,10 @@
     <t xml:space="preserve">0.371529698371887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385497003793716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378047794103622</t>
+    <t xml:space="preserve">0.385496973991394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3780477643013</t>
   </si>
   <si>
     <t xml:space="preserve">0.379910081624985</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">0.404120028018951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399464279413223</t>
+    <t xml:space="preserve">0.399464249610901</t>
   </si>
   <si>
     <t xml:space="preserve">0.407844662666321</t>
@@ -1226,43 +1226,43 @@
     <t xml:space="preserve">0.414362728595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395739674568176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400395452976227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405051201581955</t>
+    <t xml:space="preserve">0.395739704370499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400395423173904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405051231384277</t>
   </si>
   <si>
     <t xml:space="preserve">0.405982345342636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409706979990005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391083925962448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403188914060593</t>
+    <t xml:space="preserve">0.409706950187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391083866357803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40318888425827</t>
   </si>
   <si>
     <t xml:space="preserve">0.396670818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401326566934586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41343155503273</t>
+    <t xml:space="preserve">0.401326596736908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413431584835052</t>
   </si>
   <si>
     <t xml:space="preserve">0.419018477201462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422743052244186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.424605369567871</t>
+    <t xml:space="preserve">0.422743082046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.424605399370193</t>
   </si>
   <si>
     <t xml:space="preserve">0.444159597158432</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">0.454402267932892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450677633285522</t>
+    <t xml:space="preserve">0.450677663087845</t>
   </si>
   <si>
     <t xml:space="preserve">0.446953058242798</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">0.476749897003174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45719575881958</t>
+    <t xml:space="preserve">0.457195699214935</t>
   </si>
   <si>
     <t xml:space="preserve">0.45905801653862</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">0.445090740919113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439503818750381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451608836650848</t>
+    <t xml:space="preserve">0.439503848552704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451608806848526</t>
   </si>
   <si>
     <t xml:space="preserve">0.447884231805801</t>
@@ -1328,16 +1328,16 @@
     <t xml:space="preserve">0.44881534576416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440434962511063</t>
+    <t xml:space="preserve">0.44043493270874</t>
   </si>
   <si>
     <t xml:space="preserve">0.504684448242188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.653668820858002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744921743869781</t>
+    <t xml:space="preserve">0.653668880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744921803474426</t>
   </si>
   <si>
     <t xml:space="preserve">0.672291874885559</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">0.657393395900726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.687190294265747</t>
+    <t xml:space="preserve">0.687190234661102</t>
   </si>
   <si>
     <t xml:space="preserve">0.666705012321472</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">0.638770401477814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610835909843445</t>
+    <t xml:space="preserve">0.610835790634155</t>
   </si>
   <si>
     <t xml:space="preserve">0.59035050868988</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">0.631321251392365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.629458963871002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633183479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640632688999176</t>
+    <t xml:space="preserve">0.629458904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633183419704437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640632748603821</t>
   </si>
   <si>
     <t xml:space="preserve">0.642494976520538</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">0.644357264041901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.627596616744995</t>
+    <t xml:space="preserve">0.62759655714035</t>
   </si>
   <si>
     <t xml:space="preserve">0.601524353027344</t>
@@ -1397,34 +1397,34 @@
     <t xml:space="preserve">0.57731431722641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525169849395752</t>
+    <t xml:space="preserve">0.525169789791107</t>
   </si>
   <si>
     <t xml:space="preserve">0.515858352184296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.527032136917114</t>
+    <t xml:space="preserve">0.527032077312469</t>
   </si>
   <si>
     <t xml:space="preserve">0.502822160720825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493510603904724</t>
+    <t xml:space="preserve">0.493510663509369</t>
   </si>
   <si>
     <t xml:space="preserve">0.499097615480423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486061424016953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.428330034017563</t>
+    <t xml:space="preserve">0.486061453819275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42833000421524</t>
   </si>
   <si>
     <t xml:space="preserve">0.437641531229019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463713794946671</t>
+    <t xml:space="preserve">0.463713765144348</t>
   </si>
   <si>
     <t xml:space="preserve">0.435779213905334</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">0.442297279834747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491648375988007</t>
+    <t xml:space="preserve">0.491648346185684</t>
   </si>
   <si>
     <t xml:space="preserve">0.500959873199463</t>
@@ -1442,28 +1442,28 @@
     <t xml:space="preserve">0.513996005058289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510271430015564</t>
+    <t xml:space="preserve">0.510271370410919</t>
   </si>
   <si>
     <t xml:space="preserve">0.508409082889557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.512133717536926</t>
+    <t xml:space="preserve">0.512133657932281</t>
   </si>
   <si>
     <t xml:space="preserve">0.543792843818665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.54006814956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.571727514266968</t>
+    <t xml:space="preserve">0.54006826877594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.571727454662323</t>
   </si>
   <si>
     <t xml:space="preserve">0.582901239395142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.566140472888947</t>
+    <t xml:space="preserve">0.566140592098236</t>
   </si>
   <si>
     <t xml:space="preserve">0.558691263198853</t>
@@ -1472,16 +1472,16 @@
     <t xml:space="preserve">0.538205981254578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530756771564484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528894543647766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549379706382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532619059085846</t>
+    <t xml:space="preserve">0.530756711959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528894484043121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549379765987396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532619118690491</t>
   </si>
   <si>
     <t xml:space="preserve">0.521445214748383</t>
@@ -1490,25 +1490,25 @@
     <t xml:space="preserve">0.517720639705658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.506546795368195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536343693733215</t>
+    <t xml:space="preserve">0.506546854972839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536343634128571</t>
   </si>
   <si>
     <t xml:space="preserve">0.564278244972229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.575451970100403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579176604747772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592212796211243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551242053508759</t>
+    <t xml:space="preserve">0.575452029705048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579176664352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592212736606598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551242113113403</t>
   </si>
   <si>
     <t xml:space="preserve">0.557269692420959</t>
@@ -1517,34 +1517,34 @@
     <t xml:space="preserve">0.566747069358826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.549687802791595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.562956094741821</t>
+    <t xml:space="preserve">0.549687743186951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.562956154346466</t>
   </si>
   <si>
     <t xml:space="preserve">0.551583290100098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553478717803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.559165060520172</t>
+    <t xml:space="preserve">0.55347865819931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.559165120124817</t>
   </si>
   <si>
     <t xml:space="preserve">0.542105913162231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544001340866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.540210425853729</t>
+    <t xml:space="preserve">0.544001400470734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.540210366249084</t>
   </si>
   <si>
     <t xml:space="preserve">0.547792315483093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.545896828174591</t>
+    <t xml:space="preserve">0.545896768569946</t>
   </si>
   <si>
     <t xml:space="preserve">0.534524023532867</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">0.536419451236725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.525046646595001</t>
+    <t xml:space="preserve">0.525046586990356</t>
   </si>
   <si>
     <t xml:space="preserve">0.519360184669495</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">0.515569269657135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513673722743988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.523151159286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521255671977997</t>
+    <t xml:space="preserve">0.513673782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.523151099681854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521255612373352</t>
   </si>
   <si>
     <t xml:space="preserve">0.528837621212006</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">0.538314938545227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530732989311218</t>
+    <t xml:space="preserve">0.530733108520508</t>
   </si>
   <si>
     <t xml:space="preserve">0.583806335926056</t>
@@ -1598,22 +1598,22 @@
     <t xml:space="preserve">0.633088707923889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.686162054538727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.676684558391571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682371020317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.659625351428986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669102609157562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6634162068367</t>
+    <t xml:space="preserve">0.686161994934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.676684617996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682371079921722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.659625291824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669102728366852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66341632604599</t>
   </si>
   <si>
     <t xml:space="preserve">0.644461572170258</t>
@@ -1622,25 +1622,25 @@
     <t xml:space="preserve">0.650147974491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640670597553253</t>
+    <t xml:space="preserve">0.640670537948608</t>
   </si>
   <si>
     <t xml:space="preserve">0.655834376811981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634984135627747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629297733306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62550687789917</t>
+    <t xml:space="preserve">0.634984195232391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62929779291153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.625506818294525</t>
   </si>
   <si>
     <t xml:space="preserve">0.619820356369019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.616029441356659</t>
+    <t xml:space="preserve">0.616029381752014</t>
   </si>
   <si>
     <t xml:space="preserve">0.604656577110291</t>
@@ -1649,40 +1649,40 @@
     <t xml:space="preserve">0.602761089801788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593283712863922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587597370147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608447551727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597074687480927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.589492738246918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642566025257111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652043461799622</t>
+    <t xml:space="preserve">0.593283653259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58759731054306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60844749212265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597074627876282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.589492678642273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642566084861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.652043402194977</t>
   </si>
   <si>
     <t xml:space="preserve">0.636879622936249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.617924869060516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598970174789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600865602493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610343039035797</t>
+    <t xml:space="preserve">0.617924928665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598970234394073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.600865662097931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610342979431152</t>
   </si>
   <si>
     <t xml:space="preserve">0.555374264717102</t>
@@ -1691,43 +1691,43 @@
     <t xml:space="preserve">0.564851582050323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53262847661972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.578119874000549</t>
+    <t xml:space="preserve">0.532628536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.578119933605194</t>
   </si>
   <si>
     <t xml:space="preserve">0.576224446296692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.568642616271973</t>
+    <t xml:space="preserve">0.568642556667328</t>
   </si>
   <si>
     <t xml:space="preserve">0.561060667037964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572433412075043</t>
+    <t xml:space="preserve">0.572433471679688</t>
   </si>
   <si>
     <t xml:space="preserve">0.59138822555542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614133954048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.674789130687714</t>
+    <t xml:space="preserve">0.614134013652802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.674789190292358</t>
   </si>
   <si>
     <t xml:space="preserve">0.665311813354492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691848516464233</t>
+    <t xml:space="preserve">0.691848397254944</t>
   </si>
   <si>
     <t xml:space="preserve">0.699430346488953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.678580164909363</t>
+    <t xml:space="preserve">0.678580105304718</t>
   </si>
   <si>
     <t xml:space="preserve">0.672893702983856</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">0.657729923725128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705116748809814</t>
+    <t xml:space="preserve">0.705116808414459</t>
   </si>
   <si>
     <t xml:space="preserve">0.69753485918045</t>
@@ -1754,22 +1754,22 @@
     <t xml:space="preserve">0.648252487182617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799890458583832</t>
+    <t xml:space="preserve">0.799890518188477</t>
   </si>
   <si>
     <t xml:space="preserve">0.758190035820007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788517653942108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782831251621246</t>
+    <t xml:space="preserve">0.788517713546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782831192016602</t>
   </si>
   <si>
     <t xml:space="preserve">0.775249421596527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761981070041656</t>
+    <t xml:space="preserve">0.761981010437012</t>
   </si>
   <si>
     <t xml:space="preserve">0.756294548511505</t>
@@ -1778,16 +1778,16 @@
     <t xml:space="preserve">0.752503633499146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748712778091431</t>
+    <t xml:space="preserve">0.748712718486786</t>
   </si>
   <si>
     <t xml:space="preserve">0.724071502685547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727862417697906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.731653451919556</t>
+    <t xml:space="preserve">0.727862477302551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7316535115242</t>
   </si>
   <si>
     <t xml:space="preserve">0.733548879623413</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">0.737339854240417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729757964611053</t>
+    <t xml:space="preserve">0.729757905006409</t>
   </si>
   <si>
     <t xml:space="preserve">0.722176015377045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777144849300385</t>
+    <t xml:space="preserve">0.77714478969574</t>
   </si>
   <si>
     <t xml:space="preserve">0.769562900066376</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">0.76008552312851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754399120807648</t>
+    <t xml:space="preserve">0.754399061203003</t>
   </si>
   <si>
     <t xml:space="preserve">0.813158810138702</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">0.816985428333282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803592264652252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788285732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792112410068512</t>
+    <t xml:space="preserve">0.803592205047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788285791873932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792112350463867</t>
   </si>
   <si>
     <t xml:space="preserve">0.763412654399872</t>
@@ -1862,13 +1862,13 @@
     <t xml:space="preserve">0.742366254329681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.738539576530457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.736626267433167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744279503822327</t>
+    <t xml:space="preserve">0.738539636135101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.736626207828522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744279563426971</t>
   </si>
   <si>
     <t xml:space="preserve">0.751932799816132</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">0.740452885627747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732799530029297</t>
+    <t xml:space="preserve">0.732799589633942</t>
   </si>
   <si>
     <t xml:space="preserve">0.721319735050201</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">0.683053374290466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.690706610679626</t>
+    <t xml:space="preserve">0.690706670284271</t>
   </si>
   <si>
     <t xml:space="preserve">0.698359966278076</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">0.759586036205292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771065950393677</t>
+    <t xml:space="preserve">0.771065831184387</t>
   </si>
   <si>
     <t xml:space="preserve">0.750019431114197</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">0.772979259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774892508983612</t>
+    <t xml:space="preserve">0.774892568588257</t>
   </si>
   <si>
     <t xml:space="preserve">0.784459114074707</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">0.782545864582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776805818080902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769152641296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.767239272594452</t>
+    <t xml:space="preserve">0.776805877685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769152581691742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.767239212989807</t>
   </si>
   <si>
     <t xml:space="preserve">0.761499345302582</t>
@@ -1949,37 +1949,37 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734712958335876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717493057250977</t>
+    <t xml:space="preserve">0.734712898731232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717493116855621</t>
   </si>
   <si>
     <t xml:space="preserve">0.709839820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727059662342072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719406366348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.723233044147491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851425111293793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937524378299713</t>
+    <t xml:space="preserve">0.727059602737427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.719406425952911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.723232984542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851425170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937524318695068</t>
   </si>
   <si>
     <t xml:space="preserve">0.903084635734558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904997944831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883951485157013</t>
+    <t xml:space="preserve">0.904997885227203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883951544761658</t>
   </si>
   <si>
     <t xml:space="preserve">0.895431399345398</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">0.853338479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876298248767853</t>
+    <t xml:space="preserve">0.876298308372498</t>
   </si>
   <si>
     <t xml:space="preserve">0.880124866962433</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">0.885864794254303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878211557865143</t>
+    <t xml:space="preserve">0.878211498260498</t>
   </si>
   <si>
     <t xml:space="preserve">1.10015606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01884019374847</t>
+    <t xml:space="preserve">1.01884031295776</t>
   </si>
   <si>
     <t xml:space="preserve">1.0858062505722</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">1.19582176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21017169952393</t>
+    <t xml:space="preserve">1.21017181873322</t>
   </si>
   <si>
     <t xml:space="preserve">1.12885570526123</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">1.09537279605865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1049393415451</t>
+    <t xml:space="preserve">1.10493922233582</t>
   </si>
   <si>
     <t xml:space="preserve">1.12407243251801</t>
@@ -2054,19 +2054,19 @@
     <t xml:space="preserve">1.18147194385529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13842236995697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08102285861969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09058952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07623958587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05232322216034</t>
+    <t xml:space="preserve">1.13842248916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08102297782898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09058940410614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07623970508575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05232310295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.03797328472137</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">1.11450588703156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13363897800446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06667304039001</t>
+    <t xml:space="preserve">1.13363909721375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0666731595993</t>
   </si>
   <si>
     <t xml:space="preserve">1.03319013118744</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">0.922217786312103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999707102775574</t>
+    <t xml:space="preserve">0.999707043170929</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">0.980573892593384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914564490318298</t>
+    <t xml:space="preserve">0.914564549922943</t>
   </si>
   <si>
     <t xml:space="preserve">0.872471570968628</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">0.945177555084229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966224074363708</t>
+    <t xml:space="preserve">0.966224014759064</t>
   </si>
   <si>
     <t xml:space="preserve">1.04753994941711</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">0.949004173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947090864181519</t>
+    <t xml:space="preserve">0.947090923786163</t>
   </si>
   <si>
     <t xml:space="preserve">0.910737931728363</t>
@@ -2144,10 +2144,10 @@
     <t xml:space="preserve">0.958570778369904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942307651042938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871514976024628</t>
+    <t xml:space="preserve">0.942307591438293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871514916419983</t>
   </si>
   <si>
     <t xml:space="preserve">0.899258017539978</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">0.865774989128113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860991716384888</t>
+    <t xml:space="preserve">0.860991656780243</t>
   </si>
   <si>
     <t xml:space="preserve">0.818898797035217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920304477214813</t>
+    <t xml:space="preserve">0.920304536819458</t>
   </si>
   <si>
     <t xml:space="preserve">0.904041290283203</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">0.870558321475983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866731703281403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983443796634674</t>
+    <t xml:space="preserve">0.866731643676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983443915843964</t>
   </si>
   <si>
     <t xml:space="preserve">0.939437627792358</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">0.940394222736359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.929871082305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877254843711853</t>
+    <t xml:space="preserve">0.929871022701263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877254903316498</t>
   </si>
   <si>
     <t xml:space="preserve">0.839945256710052</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">0.852381765842438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861948370933533</t>
+    <t xml:space="preserve">0.861948430538177</t>
   </si>
   <si>
     <t xml:space="preserve">0.877983152866364</t>
@@ -2228,13 +2228,13 @@
     <t xml:space="preserve">0.864445984363556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87508237361908</t>
+    <t xml:space="preserve">0.875082314014435</t>
   </si>
   <si>
     <t xml:space="preserve">0.869280695915222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851875722408295</t>
+    <t xml:space="preserve">0.851875782012939</t>
   </si>
   <si>
     <t xml:space="preserve">0.848974943161011</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">0.846074104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84800797700882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859611332416534</t>
+    <t xml:space="preserve">0.848007917404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85961127281189</t>
   </si>
   <si>
     <t xml:space="preserve">0.874115407466888</t>
@@ -2261,10 +2261,10 @@
     <t xml:space="preserve">0.853809654712677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834470808506012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829636037349701</t>
+    <t xml:space="preserve">0.834470748901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829636096954346</t>
   </si>
   <si>
     <t xml:space="preserve">0.832536935806274</t>
@@ -2273,16 +2273,16 @@
     <t xml:space="preserve">0.840272426605225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843173265457153</t>
+    <t xml:space="preserve">0.843173205852509</t>
   </si>
   <si>
     <t xml:space="preserve">0.831569969654083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850908756256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823834478855133</t>
+    <t xml:space="preserve">0.850908815860748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823834419250488</t>
   </si>
   <si>
     <t xml:space="preserve">0.825768291950226</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">0.828669130802155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835437715053558</t>
+    <t xml:space="preserve">0.835437774658203</t>
   </si>
   <si>
     <t xml:space="preserve">0.833503842353821</t>
@@ -2309,22 +2309,22 @@
     <t xml:space="preserve">0.817065894603729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826735258102417</t>
+    <t xml:space="preserve">0.826735317707062</t>
   </si>
   <si>
     <t xml:space="preserve">0.83640468120575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837371647357941</t>
+    <t xml:space="preserve">0.837371587753296</t>
   </si>
   <si>
     <t xml:space="preserve">0.818032801151276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819966614246368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816098868846893</t>
+    <t xml:space="preserve">0.819966673851013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816098928451538</t>
   </si>
   <si>
     <t xml:space="preserve">0.799660921096802</t>
@@ -2345,13 +2345,13 @@
     <t xml:space="preserve">0.822867512702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801594793796539</t>
+    <t xml:space="preserve">0.801594734191895</t>
   </si>
   <si>
     <t xml:space="preserve">0.889586508274078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870247662067413</t>
+    <t xml:space="preserve">0.870247602462769</t>
   </si>
   <si>
     <t xml:space="preserve">0.868313789367676</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">0.778388142585754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780322015285492</t>
+    <t xml:space="preserve">0.780322074890137</t>
   </si>
   <si>
     <t xml:space="preserve">0.784189820289612</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">0.884751796722412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901189804077148</t>
+    <t xml:space="preserve">0.901189744472504</t>
   </si>
   <si>
     <t xml:space="preserve">0.915693938732147</t>
@@ -2408,31 +2408,31 @@
     <t xml:space="preserve">0.920528650283813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916660904884338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935032725334167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955338478088379</t>
+    <t xml:space="preserve">0.916660845279694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935032784938812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955338537693024</t>
   </si>
   <si>
     <t xml:space="preserve">0.966941833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978545129299164</t>
+    <t xml:space="preserve">0.978545069694519</t>
   </si>
   <si>
     <t xml:space="preserve">0.968875706195831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960173189640045</t>
+    <t xml:space="preserve">0.96017324924469</t>
   </si>
   <si>
     <t xml:space="preserve">0.948569893836975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93696665763855</t>
+    <t xml:space="preserve">0.936966598033905</t>
   </si>
   <si>
     <t xml:space="preserve">0.929231107234955</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">0.9447021484375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928264081478119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947603046894073</t>
+    <t xml:space="preserve">0.928264141082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947602987289429</t>
   </si>
   <si>
     <t xml:space="preserve">0.946636021137238</t>
@@ -2456,28 +2456,28 @@
     <t xml:space="preserve">0.913760006427765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937933564186096</t>
+    <t xml:space="preserve">0.937933623790741</t>
   </si>
   <si>
     <t xml:space="preserve">0.930198073387146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932131946086884</t>
+    <t xml:space="preserve">0.932131886482239</t>
   </si>
   <si>
     <t xml:space="preserve">0.941801309585571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90989226102829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942768335342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957272410392761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951470792293549</t>
+    <t xml:space="preserve">0.909892201423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942768275737762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957272469997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951470732688904</t>
   </si>
   <si>
     <t xml:space="preserve">0.956305503845215</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">0.918594717979431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912793040275574</t>
+    <t xml:space="preserve">0.912793099880219</t>
   </si>
   <si>
     <t xml:space="preserve">0.910859167575836</t>
@@ -2507,43 +2507,43 @@
     <t xml:space="preserve">0.89828896522522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911826193332672</t>
+    <t xml:space="preserve">0.911826133728027</t>
   </si>
   <si>
     <t xml:space="preserve">0.91762775182724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924396336078644</t>
+    <t xml:space="preserve">0.924396395683289</t>
   </si>
   <si>
     <t xml:space="preserve">0.92536336183548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906024515628815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919561624526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922462463378906</t>
+    <t xml:space="preserve">0.90602445602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919561684131622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922462522983551</t>
   </si>
   <si>
     <t xml:space="preserve">0.923429429531097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953404664993286</t>
+    <t xml:space="preserve">0.953404605388641</t>
   </si>
   <si>
     <t xml:space="preserve">0.935999691486359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902156710624695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866379857063293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860578179359436</t>
+    <t xml:space="preserve">0.90215677022934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866379916667938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860578238964081</t>
   </si>
   <si>
     <t xml:space="preserve">0.862512111663818</t>
@@ -2564,22 +2564,22 @@
     <t xml:space="preserve">0.876049280166626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883784830570221</t>
+    <t xml:space="preserve">0.883784770965576</t>
   </si>
   <si>
     <t xml:space="preserve">0.879917085170746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886685609817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878950119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893454253673553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891520321369171</t>
+    <t xml:space="preserve">0.88668566942215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87895005941391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893454313278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891520380973816</t>
   </si>
   <si>
     <t xml:space="preserve">0.887652575969696</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">0.872181534767151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897321939468384</t>
+    <t xml:space="preserve">0.897321999073029</t>
   </si>
   <si>
     <t xml:space="preserve">0.903123676776886</t>
@@ -59773,7 +59773,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.5709953704</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>49176</v>
@@ -59794,6 +59794,32 @@
         <v>920</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.5631944444</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>3954</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>920</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GTH.MI.xlsx
+++ b/data/GTH.MI.xlsx
@@ -38,58 +38,58 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410150319337845</t>
+    <t xml:space="preserve">0.410150349140167</t>
   </si>
   <si>
     <t xml:space="preserve">GTH.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421087741851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413796156644821</t>
+    <t xml:space="preserve">0.421087712049484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413796126842499</t>
   </si>
   <si>
     <t xml:space="preserve">0.41653048992157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393653184175491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400944799184799</t>
+    <t xml:space="preserve">0.393653213977814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.400944769382477</t>
   </si>
   <si>
     <t xml:space="preserve">0.394108921289444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391921490430832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396478682756424</t>
+    <t xml:space="preserve">0.39192146062851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396478712558746</t>
   </si>
   <si>
     <t xml:space="preserve">0.400033324956894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405046284198761</t>
+    <t xml:space="preserve">0.405046314001083</t>
   </si>
   <si>
     <t xml:space="preserve">0.3971166908741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382806986570358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40468168258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409876942634583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405502021312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408327460289001</t>
+    <t xml:space="preserve">0.382807016372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404681712388992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409876972436905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405501991510391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.408327490091324</t>
   </si>
   <si>
     <t xml:space="preserve">0.406778067350388</t>
@@ -98,19 +98,19 @@
     <t xml:space="preserve">0.402767658233643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403314501047134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389095962047577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37360143661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357286542654037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359929770231247</t>
+    <t xml:space="preserve">0.403314530849457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389095991849899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373601406812668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35728657245636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359929740428925</t>
   </si>
   <si>
     <t xml:space="preserve">0.338237345218658</t>
@@ -125,37 +125,37 @@
     <t xml:space="preserve">0.35537251830101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385450214147568</t>
+    <t xml:space="preserve">0.385450184345245</t>
   </si>
   <si>
     <t xml:space="preserve">0.391010016202927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391465753316879</t>
+    <t xml:space="preserve">0.391465723514557</t>
   </si>
   <si>
     <t xml:space="preserve">0.375424325466156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392832905054092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.406504571437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409694701433182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393835484981537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405593156814575</t>
+    <t xml:space="preserve">0.39283287525177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40650463104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.409694582223892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393835514783859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405593127012253</t>
   </si>
   <si>
     <t xml:space="preserve">0.402403086423874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396569818258286</t>
+    <t xml:space="preserve">0.396569848060608</t>
   </si>
   <si>
     <t xml:space="preserve">0.392650604248047</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.392012596130371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39638751745224</t>
+    <t xml:space="preserve">0.396387577056885</t>
   </si>
   <si>
     <t xml:space="preserve">0.401035904884338</t>
@@ -176,16 +176,16 @@
     <t xml:space="preserve">0.387728810310364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382169008255005</t>
+    <t xml:space="preserve">0.382168978452682</t>
   </si>
   <si>
     <t xml:space="preserve">0.383718460798264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390736609697342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389916270971298</t>
+    <t xml:space="preserve">0.390736550092697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389916300773621</t>
   </si>
   <si>
     <t xml:space="preserve">0.389642864465714</t>
@@ -197,10 +197,10 @@
     <t xml:space="preserve">0.356830805540085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346804887056351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368132710456848</t>
+    <t xml:space="preserve">0.346804916858673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368132740259171</t>
   </si>
   <si>
     <t xml:space="preserve">0.359018296003342</t>
@@ -209,19 +209,19 @@
     <t xml:space="preserve">0.355190247297287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3724165558815</t>
+    <t xml:space="preserve">0.372416496276855</t>
   </si>
   <si>
     <t xml:space="preserve">0.372598826885223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364486932754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387364268302917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373783737421036</t>
+    <t xml:space="preserve">0.364486962556839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387364238500595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373783677816391</t>
   </si>
   <si>
     <t xml:space="preserve">0.373692542314529</t>
@@ -230,73 +230,73 @@
     <t xml:space="preserve">0.39164799451828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391830325126648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.403679132461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.395020425319672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391101181507111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.390463173389435</t>
+    <t xml:space="preserve">0.391830295324326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403679102659225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.395020395517349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.391101151704788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39046311378479</t>
   </si>
   <si>
     <t xml:space="preserve">0.379161238670349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369135320186615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377338320016861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369044184684753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360750019550323</t>
+    <t xml:space="preserve">0.36913537979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377338409423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369044214487076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360750049352646</t>
   </si>
   <si>
     <t xml:space="preserve">0.373874872922897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372143089771271</t>
+    <t xml:space="preserve">0.372143119573593</t>
   </si>
   <si>
     <t xml:space="preserve">0.372507691383362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366765588521957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373510301113129</t>
+    <t xml:space="preserve">0.366765558719635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373510241508484</t>
   </si>
   <si>
     <t xml:space="preserve">0.366856724023819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379890352487564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.382715851068497</t>
+    <t xml:space="preserve">0.379890382289886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.382715910673141</t>
   </si>
   <si>
     <t xml:space="preserve">0.368588477373123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376609176397324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.375150829553604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364669233560562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365489542484283</t>
+    <t xml:space="preserve">0.376609206199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.375150889158249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364669263362885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365489512681961</t>
   </si>
   <si>
     <t xml:space="preserve">0.367312461137772</t>
@@ -308,22 +308,22 @@
     <t xml:space="preserve">0.360020905733109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348172128200531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350906401872635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354552179574966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370046764612198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373327940702438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364578098058701</t>
+    <t xml:space="preserve">0.348172098398209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350906431674957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354552209377289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37004679441452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373327970504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364578127861023</t>
   </si>
   <si>
     <t xml:space="preserve">0.354461073875427</t>
@@ -332,16 +332,16 @@
     <t xml:space="preserve">0.352455914020538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33996906876564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352273613214493</t>
+    <t xml:space="preserve">0.339969098567963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352273643016815</t>
   </si>
   <si>
     <t xml:space="preserve">0.348354369401932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344435185194016</t>
+    <t xml:space="preserve">0.344435155391693</t>
   </si>
   <si>
     <t xml:space="preserve">0.337234735488892</t>
@@ -350,40 +350,40 @@
     <t xml:space="preserve">0.333497852087021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346166878938675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346349239349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341791957616806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330581218004227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326206266880035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324474513530731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327755719423294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.329852104187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341245114803314</t>
+    <t xml:space="preserve">0.34616693854332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346349209547043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341791987419128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330581188201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326206237077713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324474543333054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327755689620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329852044582367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341245085000992</t>
   </si>
   <si>
     <t xml:space="preserve">0.329487442970276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327664583921432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32529479265213</t>
+    <t xml:space="preserve">0.32766455411911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325294822454453</t>
   </si>
   <si>
     <t xml:space="preserve">0.326115131378174</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">0.333588987588882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340971648693085</t>
+    <t xml:space="preserve">0.340971678495407</t>
   </si>
   <si>
     <t xml:space="preserve">0.337599337100983</t>
@@ -401,40 +401,40 @@
     <t xml:space="preserve">0.340515971183777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340880513191223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341518551111221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334864974021912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.336323261260986</t>
+    <t xml:space="preserve">0.340880542993546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341518580913544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334864944219589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336323291063309</t>
   </si>
   <si>
     <t xml:space="preserve">0.335320740938187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33905765414238</t>
+    <t xml:space="preserve">0.339057624340057</t>
   </si>
   <si>
     <t xml:space="preserve">0.32957860827446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331766068935394</t>
+    <t xml:space="preserve">0.331766039133072</t>
   </si>
   <si>
     <t xml:space="preserve">0.332312941551208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325385987758636</t>
+    <t xml:space="preserve">0.325385928153992</t>
   </si>
   <si>
     <t xml:space="preserve">0.328211426734924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332677483558655</t>
+    <t xml:space="preserve">0.332677572965622</t>
   </si>
   <si>
     <t xml:space="preserve">0.328120291233063</t>
@@ -443,28 +443,28 @@
     <t xml:space="preserve">0.319917321205139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327208817005157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334226965904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323016226291656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.320828706026077</t>
+    <t xml:space="preserve">0.327208876609802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334226995706558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323016196489334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3208287358284</t>
   </si>
   <si>
     <t xml:space="preserve">0.361752659082413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335867613554001</t>
+    <t xml:space="preserve">0.335867553949356</t>
   </si>
   <si>
     <t xml:space="preserve">0.333680123090744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330945819616318</t>
+    <t xml:space="preserve">0.330945789813995</t>
   </si>
   <si>
     <t xml:space="preserve">0.335229575634003</t>
@@ -476,34 +476,34 @@
     <t xml:space="preserve">0.349083513021469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338875323534012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342885702848434</t>
+    <t xml:space="preserve">0.338875353336334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342885732650757</t>
   </si>
   <si>
     <t xml:space="preserve">0.333771258592606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344526350498199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337690502405167</t>
+    <t xml:space="preserve">0.344526290893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337690472602844</t>
   </si>
   <si>
     <t xml:space="preserve">0.3366878926754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378249794244766</t>
+    <t xml:space="preserve">0.378249764442444</t>
   </si>
   <si>
     <t xml:space="preserve">0.351088732481003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349265843629837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.340151369571686</t>
+    <t xml:space="preserve">0.349265813827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340151399374008</t>
   </si>
   <si>
     <t xml:space="preserve">0.335594117641449</t>
@@ -515,19 +515,19 @@
     <t xml:space="preserve">0.349721550941467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345437735319138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3535495698452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35491681098938</t>
+    <t xml:space="preserve">0.34543776512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353549599647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354916781187057</t>
   </si>
   <si>
     <t xml:space="preserve">0.345073163509369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344982028007507</t>
+    <t xml:space="preserve">0.34498205780983</t>
   </si>
   <si>
     <t xml:space="preserve">0.328940600156784</t>
@@ -536,16 +536,16 @@
     <t xml:space="preserve">0.330854624509811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324109971523285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331310361623764</t>
+    <t xml:space="preserve">0.324109941720963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331310391426086</t>
   </si>
   <si>
     <t xml:space="preserve">0.312352299690247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316180378198624</t>
+    <t xml:space="preserve">0.316180288791656</t>
   </si>
   <si>
     <t xml:space="preserve">0.317091792821884</t>
@@ -554,28 +554,28 @@
     <t xml:space="preserve">0.312625735998154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332586348056793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33714359998703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337052464485168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338966518640518</t>
+    <t xml:space="preserve">0.332586407661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337143570184708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337052434682846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338966488838196</t>
   </si>
   <si>
     <t xml:space="preserve">0.338146179914474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350724160671234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.359109431505203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341336250305176</t>
+    <t xml:space="preserve">0.350724130868912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359109401702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341336280107498</t>
   </si>
   <si>
     <t xml:space="preserve">0.345346599817276</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">0.343614876270294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346258044242859</t>
+    <t xml:space="preserve">0.346258074045181</t>
   </si>
   <si>
     <t xml:space="preserve">0.347260653972626</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">0.353185027837753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353367328643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362755239009857</t>
+    <t xml:space="preserve">0.353367298841476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362755209207535</t>
   </si>
   <si>
     <t xml:space="preserve">0.381804436445236</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">0.380528390407562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389825135469437</t>
+    <t xml:space="preserve">0.389825165271759</t>
   </si>
   <si>
     <t xml:space="preserve">0.380892962217331</t>
@@ -614,28 +614,28 @@
     <t xml:space="preserve">0.369408786296844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362390637397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.362937539815903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361479192972183</t>
+    <t xml:space="preserve">0.362390607595444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.362937480211258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361479222774506</t>
   </si>
   <si>
     <t xml:space="preserve">0.361934930086136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367585867643356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368223875761032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370411336421967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363484382629395</t>
+    <t xml:space="preserve">0.367585837841034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368223905563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370411366224289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363484352827072</t>
   </si>
   <si>
     <t xml:space="preserve">0.358744859695435</t>
@@ -644,37 +644,37 @@
     <t xml:space="preserve">0.357195407152176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358198046684265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363119840621948</t>
+    <t xml:space="preserve">0.35819798707962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363119781017303</t>
   </si>
   <si>
     <t xml:space="preserve">0.347625195980072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35327622294426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353093922138214</t>
+    <t xml:space="preserve">0.353276193141937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353093892335892</t>
   </si>
   <si>
     <t xml:space="preserve">0.349995017051697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343797117471695</t>
+    <t xml:space="preserve">0.34379717707634</t>
   </si>
   <si>
     <t xml:space="preserve">0.343250304460526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346075743436813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344617486000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350268393754959</t>
+    <t xml:space="preserve">0.346075803041458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.344617456197739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350268423557281</t>
   </si>
   <si>
     <t xml:space="preserve">0.344890892505646</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">0.350359588861465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349357008934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358380287885666</t>
+    <t xml:space="preserve">0.349356979131699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358380317687988</t>
   </si>
   <si>
     <t xml:space="preserve">0.35345846414566</t>
@@ -695,76 +695,76 @@
     <t xml:space="preserve">0.357104241847992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359747409820557</t>
+    <t xml:space="preserve">0.359747439622879</t>
   </si>
   <si>
     <t xml:space="preserve">0.359565138816833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362299501895905</t>
+    <t xml:space="preserve">0.362299472093582</t>
   </si>
   <si>
     <t xml:space="preserve">0.356375098228455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356192827224731</t>
+    <t xml:space="preserve">0.356192767620087</t>
   </si>
   <si>
     <t xml:space="preserve">0.374330550432205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36886191368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.374148309230804</t>
+    <t xml:space="preserve">0.368861943483353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374148279428482</t>
   </si>
   <si>
     <t xml:space="preserve">0.379525810480118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363575547933578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.352820456027985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3565573990345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361570298671722</t>
+    <t xml:space="preserve">0.363575518131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.352820426225662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356557428836823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361570328474045</t>
   </si>
   <si>
     <t xml:space="preserve">0.360932320356369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362572908401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355919420719147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358471393585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.368315041065216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369864493608475</t>
+    <t xml:space="preserve">0.362572938203812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355919390916824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358471482992172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.368315011262894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369864523410797</t>
   </si>
   <si>
     <t xml:space="preserve">0.374604046344757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366674453020096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369226425886154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372781127691269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.370867103338242</t>
+    <t xml:space="preserve">0.366674423217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.369226515293121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372781097888947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.370867073535919</t>
   </si>
   <si>
     <t xml:space="preserve">0.368041634559631</t>
@@ -773,10 +773,10 @@
     <t xml:space="preserve">0.387273102998734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382533580064774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37834095954895</t>
+    <t xml:space="preserve">0.382533609867096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378340929746628</t>
   </si>
   <si>
     <t xml:space="preserve">0.386270493268967</t>
@@ -791,28 +791,28 @@
     <t xml:space="preserve">0.382260143756866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385541379451752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.386817336082458</t>
+    <t xml:space="preserve">0.385541349649429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.386817395687103</t>
   </si>
   <si>
     <t xml:space="preserve">0.378978937864304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378523260354996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371505051851273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371869683265686</t>
+    <t xml:space="preserve">0.378523230552673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371505081653595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371869653463364</t>
   </si>
   <si>
     <t xml:space="preserve">0.366583287715912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365398436784744</t>
+    <t xml:space="preserve">0.365398406982422</t>
   </si>
   <si>
     <t xml:space="preserve">0.365763008594513</t>
@@ -821,25 +821,25 @@
     <t xml:space="preserve">0.360294282436371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364304661750793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.360385417938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.363848954439163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356466203927994</t>
+    <t xml:space="preserve">0.364304631948471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.360385447740555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363848984241486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356466263532639</t>
   </si>
   <si>
     <t xml:space="preserve">0.35582822561264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357377678155899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.357468813657761</t>
+    <t xml:space="preserve">0.357377707958221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357468843460083</t>
   </si>
   <si>
     <t xml:space="preserve">0.36129692196846</t>
@@ -851,19 +851,19 @@
     <t xml:space="preserve">0.365854144096375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358653694391251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36485156416893</t>
+    <t xml:space="preserve">0.358653753995895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364851534366608</t>
   </si>
   <si>
     <t xml:space="preserve">0.355645924806595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362117230892181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.366036474704742</t>
+    <t xml:space="preserve">0.362117201089859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.366036415100098</t>
   </si>
   <si>
     <t xml:space="preserve">0.363757818937302</t>
@@ -872,16 +872,16 @@
     <t xml:space="preserve">0.356922000646591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361661463975906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355554789304733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35892716050148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361114650964737</t>
+    <t xml:space="preserve">0.361661493778229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355554819107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358927130699158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.361114621162415</t>
   </si>
   <si>
     <t xml:space="preserve">0.358289152383804</t>
@@ -890,31 +890,31 @@
     <t xml:space="preserve">0.360112011432648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365945249795914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36795049905777</t>
+    <t xml:space="preserve">0.365945279598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367950469255447</t>
   </si>
   <si>
     <t xml:space="preserve">0.364395827054977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359291732311249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365124970674515</t>
+    <t xml:space="preserve">0.359291702508926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365125000476837</t>
   </si>
   <si>
     <t xml:space="preserve">0.377247184514999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37888777256012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381257563829422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.379799246788025</t>
+    <t xml:space="preserve">0.378887802362442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3812575340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379799276590347</t>
   </si>
   <si>
     <t xml:space="preserve">0.388731390237808</t>
@@ -923,19 +923,19 @@
     <t xml:space="preserve">0.385723650455475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383627355098724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.381075263023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.371413916349411</t>
+    <t xml:space="preserve">0.383627325296402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381075233221054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.371413946151733</t>
   </si>
   <si>
     <t xml:space="preserve">0.380801856517792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377611756324768</t>
+    <t xml:space="preserve">0.37761178612709</t>
   </si>
   <si>
     <t xml:space="preserve">0.381713271141052</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">0.381531000137329</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382898151874542</t>
+    <t xml:space="preserve">0.382898181676865</t>
   </si>
   <si>
     <t xml:space="preserve">0.372689962387085</t>
@@ -959,43 +959,43 @@
     <t xml:space="preserve">0.366309821605682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359474033117294</t>
+    <t xml:space="preserve">0.359474003314972</t>
   </si>
   <si>
     <t xml:space="preserve">0.358015716075897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362208336591721</t>
+    <t xml:space="preserve">0.362208306789398</t>
   </si>
   <si>
     <t xml:space="preserve">0.348810106515884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357924520969391</t>
+    <t xml:space="preserve">0.357924550771713</t>
   </si>
   <si>
     <t xml:space="preserve">0.35774227976799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357013136148453</t>
+    <t xml:space="preserve">0.35701310634613</t>
   </si>
   <si>
     <t xml:space="preserve">0.359656304121017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364122420549393</t>
+    <t xml:space="preserve">0.36412239074707</t>
   </si>
   <si>
     <t xml:space="preserve">0.363666653633118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354734510183334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.355737060308456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365671873092651</t>
+    <t xml:space="preserve">0.354734480381012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355737090110779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.365671813488007</t>
   </si>
   <si>
     <t xml:space="preserve">0.361843794584274</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">0.366400986909866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35181787610054</t>
+    <t xml:space="preserve">0.351817905902863</t>
   </si>
   <si>
     <t xml:space="preserve">0.353640764951706</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">0.352729290723801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335411876440048</t>
+    <t xml:space="preserve">0.335411846637726</t>
   </si>
   <si>
     <t xml:space="preserve">0.329031735658646</t>
@@ -1022,37 +1022,37 @@
     <t xml:space="preserve">0.329943209886551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.322651624679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323563069105148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.321740210056305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.334500432014465</t>
+    <t xml:space="preserve">0.322651654481888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323563039302826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32174015045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.334500402212143</t>
   </si>
   <si>
     <t xml:space="preserve">0.342703431844711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319005817174911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317182958126068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.316271543502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326297432184219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.318094432353973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310802817344666</t>
+    <t xml:space="preserve">0.319005846977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317182928323746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316271513700485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326297402381897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.318094372749329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310802787542343</t>
   </si>
   <si>
     <t xml:space="preserve">0.301688402891159</t>
@@ -1067,19 +1067,19 @@
     <t xml:space="preserve">0.308068484067917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314448624849319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311714261770248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.304422736167908</t>
+    <t xml:space="preserve">0.314448654651642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311714291572571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304422676563263</t>
   </si>
   <si>
     <t xml:space="preserve">0.305334180593491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306245595216751</t>
+    <t xml:space="preserve">0.306245625019073</t>
   </si>
   <si>
     <t xml:space="preserve">0.298954039812088</t>
@@ -1088,52 +1088,49 @@
     <t xml:space="preserve">0.299865484237671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300776988267899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303511291742325</t>
+    <t xml:space="preserve">0.300776958465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303511261940002</t>
   </si>
   <si>
     <t xml:space="preserve">0.307157069444656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313537180423737</t>
+    <t xml:space="preserve">0.313537210226059</t>
   </si>
   <si>
     <t xml:space="preserve">0.308979958295822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31536003947258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.344526320695877</t>
+    <t xml:space="preserve">0.315360069274902</t>
   </si>
   <si>
     <t xml:space="preserve">0.348250925540924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351975530385971</t>
+    <t xml:space="preserve">0.351975560188293</t>
   </si>
   <si>
     <t xml:space="preserve">0.342664003372192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335214793682098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338008224964142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33614593744278</t>
+    <t xml:space="preserve">0.335214763879776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338008284568787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336145967245102</t>
   </si>
   <si>
     <t xml:space="preserve">0.347319781780243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354768991470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.349182069301605</t>
+    <t xml:space="preserve">0.354768961668015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.349182039499283</t>
   </si>
   <si>
     <t xml:space="preserve">0.346388608217239</t>
@@ -1145,49 +1142,49 @@
     <t xml:space="preserve">0.352906674146652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345457404851913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.343595117330551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.337077051401138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34080171585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.339870542287827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.338939398527145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.353837788105011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.372460901737213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358493566513062</t>
+    <t xml:space="preserve">0.345457494258881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.343595176935196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337077081203461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340801686048508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.339870572090149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.338939368724823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.353837847709656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.372460871934891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358493596315384</t>
   </si>
   <si>
     <t xml:space="preserve">0.363149344921112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362218171358109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356631278991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.361287087202072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.365942806005478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367805123329163</t>
+    <t xml:space="preserve">0.362218201160431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.356631249189377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36128705739975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3659428358078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367805153131485</t>
   </si>
   <si>
     <t xml:space="preserve">0.368736267089844</t>
@@ -1199,10 +1196,10 @@
     <t xml:space="preserve">0.371529698371887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385496973991394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3780477643013</t>
+    <t xml:space="preserve">0.385497003793716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.378047794103622</t>
   </si>
   <si>
     <t xml:space="preserve">0.379910081624985</t>
@@ -1211,19 +1208,19 @@
     <t xml:space="preserve">0.388290464878082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415293902158737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.404120028018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.399464249610901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.407844662666321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414362728595734</t>
+    <t xml:space="preserve">0.415293872356415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.404120057821274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399464279413223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.407844632863998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414362698793411</t>
   </si>
   <si>
     <t xml:space="preserve">0.395739704370499</t>
@@ -1232,19 +1229,19 @@
     <t xml:space="preserve">0.400395423173904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405051231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405982345342636</t>
+    <t xml:space="preserve">0.405051201581955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405982375144958</t>
   </si>
   <si>
     <t xml:space="preserve">0.409706950187683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391083866357803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40318888425827</t>
+    <t xml:space="preserve">0.391083896160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.403188914060593</t>
   </si>
   <si>
     <t xml:space="preserve">0.396670818328857</t>
@@ -1262,49 +1259,49 @@
     <t xml:space="preserve">0.422743082046509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424605399370193</t>
+    <t xml:space="preserve">0.424605369567871</t>
   </si>
   <si>
     <t xml:space="preserve">0.444159597158432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474887549877167</t>
+    <t xml:space="preserve">0.474887579679489</t>
   </si>
   <si>
     <t xml:space="preserve">0.458126872777939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45253998041153</t>
+    <t xml:space="preserve">0.452539950609207</t>
   </si>
   <si>
     <t xml:space="preserve">0.455333411693573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454402267932892</t>
+    <t xml:space="preserve">0.454402238130569</t>
   </si>
   <si>
     <t xml:space="preserve">0.450677663087845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446953058242798</t>
+    <t xml:space="preserve">0.446953028440475</t>
   </si>
   <si>
     <t xml:space="preserve">0.446021884679794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453471124172211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456264615058899</t>
+    <t xml:space="preserve">0.453471094369888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456264555454254</t>
   </si>
   <si>
     <t xml:space="preserve">0.471162974834442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476749897003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.457195699214935</t>
+    <t xml:space="preserve">0.476749926805496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.457195729017258</t>
   </si>
   <si>
     <t xml:space="preserve">0.45905801653862</t>
@@ -1316,490 +1313,493 @@
     <t xml:space="preserve">0.445090740919113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439503848552704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451608806848526</t>
+    <t xml:space="preserve">0.439503818750381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451608836650848</t>
   </si>
   <si>
     <t xml:space="preserve">0.447884231805801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44881534576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44043493270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.504684448242188</t>
+    <t xml:space="preserve">0.448815375566483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.440434962511063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.504684507846832</t>
   </si>
   <si>
     <t xml:space="preserve">0.653668880462646</t>
   </si>
   <si>
+    <t xml:space="preserve">0.744921743869781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672291934490204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657393336296082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.687190353870392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.666704952716827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.638770341873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6108358502388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59035050868988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568002820014954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608973503112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.635045766830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63132119178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629458844661713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633183419704437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640632748603821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642494976520538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.644357323646545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627596616744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601524293422699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.577314376831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525169789791107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.515858352184296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.527032196521759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502822160720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.493510603904724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499097555875778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486061424016953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42833000421524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.437641531229019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.463713794946671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435779243707657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.442297279834747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491648346185684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500959932804108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513996005058289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.510271370410919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508409082889557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.512133717536926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.543792843818665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54006826877594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.571727454662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.582901239395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566140472888947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.558691382408142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538205981254578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530756711959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528894484043121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549379765987396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532619118690491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521445155143738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517720580101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506546795368195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536343634128571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564278244972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575451970100403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579176604747772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592212796211243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551242113113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.557269692420959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566747069358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549687802791595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.562956035137177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551583290100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.553478717803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.559165120124817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.542105972766876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.544001340866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.540210366249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547792315483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.545896828174591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534523963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53641951084137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525046646595001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.519360184669495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.515569269657135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513673782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.523151159286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521255671977997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.528837621212006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538314998149872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530732989311218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583806335926056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735444366931915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.739235281944275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693743884563446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653938889503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633088707923889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686161994934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.676684558391571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682371020317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.659625351428986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669102609157562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.663416266441345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.644461512565613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650147914886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640670597553253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655834436416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634984195232391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629297733306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62550687789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619820356369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616029381752014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.604656517505646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.602761089801788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.593283712863922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58759731054306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60844749212265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597074687480927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.589492738246918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642566084861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.652043521404266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636879563331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.617924869060516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598970174789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.600865662097931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610343039035797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555374264717102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564851641654968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53262847661972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.578119933605194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.576224386692047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568642616271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.561060667037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.572433412075043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59138822555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.614133954048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.674789190292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665311813354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.691848456859589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699430346488953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678580105304718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672893643379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66720724105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657729923725128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705116748809814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69753485918045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.688057541847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68047559261322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648252487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799890458583832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.758190035820007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788517653942108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782831192016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.775249361991882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761981070041656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756294548511505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75250369310379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.748712778091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.724071502685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727862417697906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.731653451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733548820018768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725966930389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750608146190643</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.744921803474426</t>
   </si>
   <si>
-    <t xml:space="preserve">0.672291874885559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657393395900726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.687190234661102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.666705012321472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638770401477814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610835790634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59035050868988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568002820014954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608973503112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.635045766830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631321251392365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629458904266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633183419704437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640632748603821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642494976520538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.644357264041901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62759655714035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601524353027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57731431722641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525169789791107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.515858352184296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.527032077312469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502822160720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493510663509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499097615480423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486061453819275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42833000421524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.437641531229019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.463713765144348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435779213905334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.442297279834747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491648346185684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500959873199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513996005058289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.510271370410919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508409082889557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.512133657932281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.543792843818665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54006826877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.571727454662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.582901239395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566140592098236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.558691263198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538205981254578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530756711959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528894484043121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549379765987396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532619118690491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521445214748383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517720639705658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506546854972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536343634128571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564278244972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575452029705048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579176664352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592212736606598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551242113113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.557269692420959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566747069358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549687743186951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.562956154346466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551583290100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55347865819931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.559165120124817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.542105913162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.544001400470734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.540210366249084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547792315483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545896768569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534524023532867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536419451236725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525046586990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.519360184669495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.515569269657135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513673782348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.523151099681854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521255612373352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.528837621212006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538314938545227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530733108520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583806335926056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735444366931915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73923522233963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693743884563446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653938889503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633088707923889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686161994934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.676684617996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682371079921722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.659625291824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669102728366852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66341632604599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.644461572170258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650147974491119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640670537948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.655834376811981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.634984195232391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62929779291153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625506818294525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619820356369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616029381752014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.604656577110291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602761089801788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.593283653259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58759731054306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60844749212265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597074627876282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.589492678642273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642566084861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652043402194977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636879622936249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.617924928665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598970234394073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600865662097931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610342979431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555374264717102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564851582050323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532628536224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.578119933605194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.576224446296692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.568642556667328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.561060667037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.572433471679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59138822555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.614134013652802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.674789190292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665311813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691848397254944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699430346488953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678580105304718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.672893702983856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66720724105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657729923725128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705116808414459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69753485918045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.688057482242584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68047559261322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648252487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799890518188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.758190035820007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788517713546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782831192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775249421596527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761981010437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756294548511505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752503633499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.748712718486786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724071502685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727862477302551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7316535115242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733548879623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725966930389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750608146190643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743026256561279</t>
+    <t xml:space="preserve">0.743026196956635</t>
   </si>
   <si>
     <t xml:space="preserve">0.741130769252777</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">0.737339854240417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729757905006409</t>
+    <t xml:space="preserve">0.729757964611053</t>
   </si>
   <si>
     <t xml:space="preserve">0.722176015377045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77714478969574</t>
+    <t xml:space="preserve">0.777144849300385</t>
   </si>
   <si>
     <t xml:space="preserve">0.769562900066376</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">0.816985428333282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803592205047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788285791873932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.792112350463867</t>
+    <t xml:space="preserve">0.803592264652252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788285732269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.792112410068512</t>
   </si>
   <si>
     <t xml:space="preserve">0.763412654399872</t>
@@ -1862,13 +1862,13 @@
     <t xml:space="preserve">0.742366254329681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.738539636135101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.736626207828522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744279563426971</t>
+    <t xml:space="preserve">0.738539576530457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.736626267433167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744279503822327</t>
   </si>
   <si>
     <t xml:space="preserve">0.751932799816132</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">0.740452885627747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732799589633942</t>
+    <t xml:space="preserve">0.732799530029297</t>
   </si>
   <si>
     <t xml:space="preserve">0.721319735050201</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">0.683053374290466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.690706670284271</t>
+    <t xml:space="preserve">0.690706610679626</t>
   </si>
   <si>
     <t xml:space="preserve">0.698359966278076</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">0.759586036205292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771065831184387</t>
+    <t xml:space="preserve">0.771065950393677</t>
   </si>
   <si>
     <t xml:space="preserve">0.750019431114197</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">0.772979259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774892568588257</t>
+    <t xml:space="preserve">0.774892508983612</t>
   </si>
   <si>
     <t xml:space="preserve">0.784459114074707</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">0.782545864582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776805877685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769152581691742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.767239212989807</t>
+    <t xml:space="preserve">0.776805818080902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769152641296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.767239272594452</t>
   </si>
   <si>
     <t xml:space="preserve">0.761499345302582</t>
@@ -1949,37 +1949,37 @@
     <t xml:space="preserve">0.748106122016907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.734712898731232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717493116855621</t>
+    <t xml:space="preserve">0.734712958335876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717493057250977</t>
   </si>
   <si>
     <t xml:space="preserve">0.709839820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.727059602737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719406425952911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.723232984542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851425170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937524318695068</t>
+    <t xml:space="preserve">0.727059662342072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.719406366348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.723233044147491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851425111293793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937524378299713</t>
   </si>
   <si>
     <t xml:space="preserve">0.903084635734558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904997885227203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883951544761658</t>
+    <t xml:space="preserve">0.904997944831848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883951485157013</t>
   </si>
   <si>
     <t xml:space="preserve">0.895431399345398</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">0.853338479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876298308372498</t>
+    <t xml:space="preserve">0.876298248767853</t>
   </si>
   <si>
     <t xml:space="preserve">0.880124866962433</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">0.885864794254303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878211498260498</t>
+    <t xml:space="preserve">0.878211557865143</t>
   </si>
   <si>
     <t xml:space="preserve">1.10015606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01884031295776</t>
+    <t xml:space="preserve">1.01884019374847</t>
   </si>
   <si>
     <t xml:space="preserve">1.0858062505722</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">1.19582176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21017181873322</t>
+    <t xml:space="preserve">1.21017169952393</t>
   </si>
   <si>
     <t xml:space="preserve">1.12885570526123</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">1.09537279605865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10493922233582</t>
+    <t xml:space="preserve">1.1049393415451</t>
   </si>
   <si>
     <t xml:space="preserve">1.12407243251801</t>
@@ -2054,19 +2054,19 @@
     <t xml:space="preserve">1.18147194385529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13842248916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08102297782898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09058940410614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07623970508575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05232310295105</t>
+    <t xml:space="preserve">1.13842236995697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08102285861969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09058952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07623958587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05232322216034</t>
   </si>
   <si>
     <t xml:space="preserve">1.03797328472137</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">1.11450588703156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13363909721375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0666731595993</t>
+    <t xml:space="preserve">1.13363897800446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06667304039001</t>
   </si>
   <si>
     <t xml:space="preserve">1.03319013118744</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">0.922217786312103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999707043170929</t>
+    <t xml:space="preserve">0.999707102775574</t>
   </si>
   <si>
     <t xml:space="preserve">0.985357165336609</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">0.980573892593384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914564549922943</t>
+    <t xml:space="preserve">0.914564490318298</t>
   </si>
   <si>
     <t xml:space="preserve">0.872471570968628</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">0.945177555084229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966224014759064</t>
+    <t xml:space="preserve">0.966224074363708</t>
   </si>
   <si>
     <t xml:space="preserve">1.04753994941711</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">0.949004173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947090923786163</t>
+    <t xml:space="preserve">0.947090864181519</t>
   </si>
   <si>
     <t xml:space="preserve">0.910737931728363</t>
@@ -2144,10 +2144,10 @@
     <t xml:space="preserve">0.958570778369904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942307591438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871514916419983</t>
+    <t xml:space="preserve">0.942307651042938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871514976024628</t>
   </si>
   <si>
     <t xml:space="preserve">0.899258017539978</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">0.865774989128113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860991656780243</t>
+    <t xml:space="preserve">0.860991716384888</t>
   </si>
   <si>
     <t xml:space="preserve">0.818898797035217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920304536819458</t>
+    <t xml:space="preserve">0.920304477214813</t>
   </si>
   <si>
     <t xml:space="preserve">0.904041290283203</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">0.870558321475983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866731643676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983443915843964</t>
+    <t xml:space="preserve">0.866731703281403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983443796634674</t>
   </si>
   <si>
     <t xml:space="preserve">0.939437627792358</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">0.940394222736359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.929871022701263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877254903316498</t>
+    <t xml:space="preserve">0.929871082305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877254843711853</t>
   </si>
   <si>
     <t xml:space="preserve">0.839945256710052</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">0.852381765842438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861948430538177</t>
+    <t xml:space="preserve">0.861948370933533</t>
   </si>
   <si>
     <t xml:space="preserve">0.877983152866364</t>
@@ -2228,13 +2228,13 @@
     <t xml:space="preserve">0.864445984363556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875082314014435</t>
+    <t xml:space="preserve">0.87508237361908</t>
   </si>
   <si>
     <t xml:space="preserve">0.869280695915222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851875782012939</t>
+    <t xml:space="preserve">0.851875722408295</t>
   </si>
   <si>
     <t xml:space="preserve">0.848974943161011</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">0.846074104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848007917404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85961127281189</t>
+    <t xml:space="preserve">0.84800797700882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859611332416534</t>
   </si>
   <si>
     <t xml:space="preserve">0.874115407466888</t>
@@ -2261,10 +2261,10 @@
     <t xml:space="preserve">0.853809654712677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834470748901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829636096954346</t>
+    <t xml:space="preserve">0.834470808506012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829636037349701</t>
   </si>
   <si>
     <t xml:space="preserve">0.832536935806274</t>
@@ -2273,16 +2273,16 @@
     <t xml:space="preserve">0.840272426605225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843173205852509</t>
+    <t xml:space="preserve">0.843173265457153</t>
   </si>
   <si>
     <t xml:space="preserve">0.831569969654083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850908815860748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823834419250488</t>
+    <t xml:space="preserve">0.850908756256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823834478855133</t>
   </si>
   <si>
     <t xml:space="preserve">0.825768291950226</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">0.828669130802155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835437774658203</t>
+    <t xml:space="preserve">0.835437715053558</t>
   </si>
   <si>
     <t xml:space="preserve">0.833503842353821</t>
@@ -2309,22 +2309,22 @@
     <t xml:space="preserve">0.817065894603729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826735317707062</t>
+    <t xml:space="preserve">0.826735258102417</t>
   </si>
   <si>
     <t xml:space="preserve">0.83640468120575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837371587753296</t>
+    <t xml:space="preserve">0.837371647357941</t>
   </si>
   <si>
     <t xml:space="preserve">0.818032801151276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819966673851013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816098928451538</t>
+    <t xml:space="preserve">0.819966614246368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816098868846893</t>
   </si>
   <si>
     <t xml:space="preserve">0.799660921096802</t>
@@ -2345,13 +2345,13 @@
     <t xml:space="preserve">0.822867512702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801594734191895</t>
+    <t xml:space="preserve">0.801594793796539</t>
   </si>
   <si>
     <t xml:space="preserve">0.889586508274078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870247602462769</t>
+    <t xml:space="preserve">0.870247662067413</t>
   </si>
   <si>
     <t xml:space="preserve">0.868313789367676</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">0.778388142585754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780322074890137</t>
+    <t xml:space="preserve">0.780322015285492</t>
   </si>
   <si>
     <t xml:space="preserve">0.784189820289612</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">0.884751796722412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.901189744472504</t>
+    <t xml:space="preserve">0.901189804077148</t>
   </si>
   <si>
     <t xml:space="preserve">0.915693938732147</t>
@@ -2408,31 +2408,31 @@
     <t xml:space="preserve">0.920528650283813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916660845279694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935032784938812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955338537693024</t>
+    <t xml:space="preserve">0.916660904884338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935032725334167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955338478088379</t>
   </si>
   <si>
     <t xml:space="preserve">0.966941833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978545069694519</t>
+    <t xml:space="preserve">0.978545129299164</t>
   </si>
   <si>
     <t xml:space="preserve">0.968875706195831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96017324924469</t>
+    <t xml:space="preserve">0.960173189640045</t>
   </si>
   <si>
     <t xml:space="preserve">0.948569893836975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936966598033905</t>
+    <t xml:space="preserve">0.93696665763855</t>
   </si>
   <si>
     <t xml:space="preserve">0.929231107234955</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">0.9447021484375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928264141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947602987289429</t>
+    <t xml:space="preserve">0.928264081478119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947603046894073</t>
   </si>
   <si>
     <t xml:space="preserve">0.946636021137238</t>
@@ -2456,28 +2456,28 @@
     <t xml:space="preserve">0.913760006427765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937933623790741</t>
+    <t xml:space="preserve">0.937933564186096</t>
   </si>
   <si>
     <t xml:space="preserve">0.930198073387146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932131886482239</t>
+    <t xml:space="preserve">0.932131946086884</t>
   </si>
   <si>
     <t xml:space="preserve">0.941801309585571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909892201423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.942768275737762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957272469997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951470732688904</t>
+    <t xml:space="preserve">0.90989226102829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.942768335342407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957272410392761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951470792293549</t>
   </si>
   <si>
     <t xml:space="preserve">0.956305503845215</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">0.918594717979431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912793099880219</t>
+    <t xml:space="preserve">0.912793040275574</t>
   </si>
   <si>
     <t xml:space="preserve">0.910859167575836</t>
@@ -2507,43 +2507,43 @@
     <t xml:space="preserve">0.89828896522522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911826133728027</t>
+    <t xml:space="preserve">0.911826193332672</t>
   </si>
   <si>
     <t xml:space="preserve">0.91762775182724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924396395683289</t>
+    <t xml:space="preserve">0.924396336078644</t>
   </si>
   <si>
     <t xml:space="preserve">0.92536336183548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90602445602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919561684131622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922462522983551</t>
+    <t xml:space="preserve">0.906024515628815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919561624526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922462463378906</t>
   </si>
   <si>
     <t xml:space="preserve">0.923429429531097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953404605388641</t>
+    <t xml:space="preserve">0.953404664993286</t>
   </si>
   <si>
     <t xml:space="preserve">0.935999691486359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90215677022934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866379916667938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860578238964081</t>
+    <t xml:space="preserve">0.902156710624695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866379857063293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860578179359436</t>
   </si>
   <si>
     <t xml:space="preserve">0.862512111663818</t>
@@ -2564,22 +2564,22 @@
     <t xml:space="preserve">0.876049280166626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883784770965576</t>
+    <t xml:space="preserve">0.883784830570221</t>
   </si>
   <si>
     <t xml:space="preserve">0.879917085170746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88668566942215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87895005941391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893454313278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891520380973816</t>
+    <t xml:space="preserve">0.886685609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878950119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893454253673553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891520321369171</t>
   </si>
   <si>
     <t xml:space="preserve">0.887652575969696</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">0.872181534767151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897321999073029</t>
+    <t xml:space="preserve">0.897321939468384</t>
   </si>
   <si>
     <t xml:space="preserve">0.903123676776886</t>
@@ -25835,7 +25835,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G874" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -25861,7 +25861,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G875" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -25887,7 +25887,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G876" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -25913,7 +25913,7 @@
         <v>0.368000000715256</v>
       </c>
       <c r="G877" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -25939,7 +25939,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G878" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -25965,7 +25965,7 @@
         <v>0.363000005483627</v>
       </c>
       <c r="G879" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -25991,7 +25991,7 @@
         <v>0.361000001430511</v>
       </c>
       <c r="G880" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26017,7 +26017,7 @@
         <v>0.372999995946884</v>
       </c>
       <c r="G881" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26043,7 +26043,7 @@
         <v>0.381000012159348</v>
       </c>
       <c r="G882" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26069,7 +26069,7 @@
         <v>0.375</v>
       </c>
       <c r="G883" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26095,7 +26095,7 @@
         <v>0.372000008821487</v>
       </c>
       <c r="G884" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26121,7 +26121,7 @@
         <v>0.367000013589859</v>
       </c>
       <c r="G885" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26147,7 +26147,7 @@
         <v>0.379000008106232</v>
       </c>
       <c r="G886" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26173,7 +26173,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G887" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26199,7 +26199,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G888" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26225,7 +26225,7 @@
         <v>0.372000008821487</v>
       </c>
       <c r="G889" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26251,7 +26251,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G890" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26277,7 +26277,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G891" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26303,7 +26303,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G892" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26329,7 +26329,7 @@
         <v>0.379000008106232</v>
       </c>
       <c r="G893" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26355,7 +26355,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G894" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26381,7 +26381,7 @@
         <v>0.372999995946884</v>
       </c>
       <c r="G895" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26407,7 +26407,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G896" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26433,7 +26433,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G897" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26459,7 +26459,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G898" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26485,7 +26485,7 @@
         <v>0.361999988555908</v>
       </c>
       <c r="G899" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26511,7 +26511,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G900" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26537,7 +26537,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G901" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26563,7 +26563,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G902" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26589,7 +26589,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G903" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26615,7 +26615,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G904" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26641,7 +26641,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G905" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26667,7 +26667,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G906" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26693,7 +26693,7 @@
         <v>0.370999991893768</v>
       </c>
       <c r="G907" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26719,7 +26719,7 @@
         <v>0.36599999666214</v>
       </c>
       <c r="G908" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26745,7 +26745,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G909" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -26771,7 +26771,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G910" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -26797,7 +26797,7 @@
         <v>0.365000009536743</v>
       </c>
       <c r="G911" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -26823,7 +26823,7 @@
         <v>0.368999987840652</v>
       </c>
       <c r="G912" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -26849,7 +26849,7 @@
         <v>0.365000009536743</v>
       </c>
       <c r="G913" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -26875,7 +26875,7 @@
         <v>0.361999988555908</v>
       </c>
       <c r="G914" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -26901,7 +26901,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G915" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -26927,7 +26927,7 @@
         <v>0.367000013589859</v>
       </c>
       <c r="G916" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -26953,7 +26953,7 @@
         <v>0.372000008821487</v>
       </c>
       <c r="G917" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -26979,7 +26979,7 @@
         <v>0.375</v>
       </c>
       <c r="G918" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27005,7 +27005,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G919" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27031,7 +27031,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G920" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27057,7 +27057,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G921" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27083,7 +27083,7 @@
         <v>0.384999990463257</v>
       </c>
       <c r="G922" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27109,7 +27109,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G923" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27135,7 +27135,7 @@
         <v>0.388999998569489</v>
       </c>
       <c r="G924" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27161,7 +27161,7 @@
         <v>0.382999986410141</v>
       </c>
       <c r="G925" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27187,7 +27187,7 @@
         <v>0.388000011444092</v>
       </c>
       <c r="G926" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27213,7 +27213,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G927" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27239,7 +27239,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G928" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27265,7 +27265,7 @@
         <v>0.39300000667572</v>
       </c>
       <c r="G929" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27291,7 +27291,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G930" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27317,7 +27317,7 @@
         <v>0.395000010728836</v>
       </c>
       <c r="G931" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27343,7 +27343,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G932" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27369,7 +27369,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G933" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27395,7 +27395,7 @@
         <v>0.398999989032745</v>
       </c>
       <c r="G934" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27421,7 +27421,7 @@
         <v>0.398999989032745</v>
       </c>
       <c r="G935" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27447,7 +27447,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G936" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27473,7 +27473,7 @@
         <v>0.414000004529953</v>
       </c>
       <c r="G937" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27499,7 +27499,7 @@
         <v>0.40599998831749</v>
       </c>
       <c r="G938" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27525,7 +27525,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G939" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27551,7 +27551,7 @@
         <v>0.40599998831749</v>
       </c>
       <c r="G940" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27577,7 +27577,7 @@
         <v>0.416999995708466</v>
       </c>
       <c r="G941" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27603,7 +27603,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G942" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27629,7 +27629,7 @@
         <v>0.433999985456467</v>
       </c>
       <c r="G943" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27655,7 +27655,7 @@
         <v>0.428999990224838</v>
       </c>
       <c r="G944" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27681,7 +27681,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G945" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27707,7 +27707,7 @@
         <v>0.444999992847443</v>
       </c>
       <c r="G946" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -27733,7 +27733,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G947" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -27759,7 +27759,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G948" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -27785,7 +27785,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G949" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -27811,7 +27811,7 @@
         <v>0.433999985456467</v>
       </c>
       <c r="G950" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -27837,7 +27837,7 @@
         <v>0.435000002384186</v>
       </c>
       <c r="G951" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -27863,7 +27863,7 @@
         <v>0.435999989509583</v>
       </c>
       <c r="G952" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -27889,7 +27889,7 @@
         <v>0.435999989509583</v>
       </c>
       <c r="G953" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -27915,7 +27915,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G954" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -27941,7 +27941,7 @@
         <v>0.428999990224838</v>
       </c>
       <c r="G955" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -27967,7 +27967,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G956" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -27993,7 +27993,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G957" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28019,7 +28019,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G958" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28045,7 +28045,7 @@
         <v>0.43299999833107</v>
       </c>
       <c r="G959" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28071,7 +28071,7 @@
         <v>0.43299999833107</v>
       </c>
       <c r="G960" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28097,7 +28097,7 @@
         <v>0.43299999833107</v>
       </c>
       <c r="G961" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28123,7 +28123,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G962" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28149,7 +28149,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G963" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28175,7 +28175,7 @@
         <v>0.425000011920929</v>
       </c>
       <c r="G964" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28201,7 +28201,7 @@
         <v>0.435000002384186</v>
       </c>
       <c r="G965" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28227,7 +28227,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G966" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28253,7 +28253,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G967" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28279,7 +28279,7 @@
         <v>0.430999994277954</v>
       </c>
       <c r="G968" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28305,7 +28305,7 @@
         <v>0.444000005722046</v>
       </c>
       <c r="G969" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28331,7 +28331,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G970" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28357,7 +28357,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G971" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28383,7 +28383,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G972" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28409,7 +28409,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G973" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28435,7 +28435,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G974" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28461,7 +28461,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G975" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28487,7 +28487,7 @@
         <v>0.456000000238419</v>
       </c>
       <c r="G976" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28513,7 +28513,7 @@
         <v>0.476999998092651</v>
       </c>
       <c r="G977" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28539,7 +28539,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G978" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28565,7 +28565,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G979" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28591,7 +28591,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G980" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28617,7 +28617,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G981" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28643,7 +28643,7 @@
         <v>0.488999992609024</v>
       </c>
       <c r="G982" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28669,7 +28669,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G983" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28695,7 +28695,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G984" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28721,7 +28721,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G985" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28747,7 +28747,7 @@
         <v>0.479000002145767</v>
       </c>
       <c r="G986" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -28773,7 +28773,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G987" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -28799,7 +28799,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G988" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28825,7 +28825,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G989" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -28851,7 +28851,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G990" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -28877,7 +28877,7 @@
         <v>0.486999988555908</v>
       </c>
       <c r="G991" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -28903,7 +28903,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G992" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -28929,7 +28929,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G993" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -28955,7 +28955,7 @@
         <v>0.505999982357025</v>
       </c>
       <c r="G994" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -28981,7 +28981,7 @@
         <v>0.512000024318695</v>
       </c>
       <c r="G995" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29007,7 +29007,7 @@
         <v>0.49099999666214</v>
       </c>
       <c r="G996" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29033,7 +29033,7 @@
         <v>0.493000000715256</v>
       </c>
       <c r="G997" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29059,7 +29059,7 @@
         <v>0.495000004768372</v>
       </c>
       <c r="G998" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29085,7 +29085,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G999" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29111,7 +29111,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1000" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29137,7 +29137,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1001" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29163,7 +29163,7 @@
         <v>0.472000002861023</v>
       </c>
       <c r="G1002" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29189,7 +29189,7 @@
         <v>0.479000002145767</v>
       </c>
       <c r="G1003" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29215,7 +29215,7 @@
         <v>0.476999998092651</v>
       </c>
       <c r="G1004" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29241,7 +29241,7 @@
         <v>0.472000002861023</v>
       </c>
       <c r="G1005" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29267,7 +29267,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1006" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29293,7 +29293,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1007" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29319,7 +29319,7 @@
         <v>0.49099999666214</v>
       </c>
       <c r="G1008" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29345,7 +29345,7 @@
         <v>0.486999988555908</v>
       </c>
       <c r="G1009" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29371,7 +29371,7 @@
         <v>0.485000014305115</v>
       </c>
       <c r="G1010" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29397,7 +29397,7 @@
         <v>0.481000006198883</v>
       </c>
       <c r="G1011" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29423,7 +29423,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1012" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29449,7 +29449,7 @@
         <v>0.48199999332428</v>
       </c>
       <c r="G1013" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29475,7 +29475,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1014" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29501,7 +29501,7 @@
         <v>0.47299998998642</v>
       </c>
       <c r="G1015" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29527,7 +29527,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1016" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29553,7 +29553,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1017" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29579,7 +29579,7 @@
         <v>0.479000002145767</v>
       </c>
       <c r="G1018" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29605,7 +29605,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1019" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29631,7 +29631,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1020" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29657,7 +29657,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G1021" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29683,7 +29683,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1022" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29709,7 +29709,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G1023" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29735,7 +29735,7 @@
         <v>0.486999988555908</v>
       </c>
       <c r="G1024" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29761,7 +29761,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1025" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -29787,7 +29787,7 @@
         <v>0.495000004768372</v>
       </c>
       <c r="G1026" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -29813,7 +29813,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1027" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -29839,7 +29839,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1028" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -29865,7 +29865,7 @@
         <v>0.702000021934509</v>
       </c>
       <c r="G1029" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -29891,7 +29891,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G1030" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -29917,7 +29917,7 @@
         <v>0.722000002861023</v>
       </c>
       <c r="G1031" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29943,7 +29943,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1032" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -29969,7 +29969,7 @@
         <v>0.737999975681305</v>
       </c>
       <c r="G1033" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -29995,7 +29995,7 @@
         <v>0.716000020503998</v>
       </c>
       <c r="G1034" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30021,7 +30021,7 @@
         <v>0.685999989509583</v>
       </c>
       <c r="G1035" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30047,7 +30047,7 @@
         <v>0.656000018119812</v>
       </c>
       <c r="G1036" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30073,7 +30073,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1037" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30099,7 +30099,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1038" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30125,7 +30125,7 @@
         <v>0.653999984264374</v>
       </c>
       <c r="G1039" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30151,7 +30151,7 @@
         <v>0.681999981403351</v>
       </c>
       <c r="G1040" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30177,7 +30177,7 @@
         <v>0.677999973297119</v>
       </c>
       <c r="G1041" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30203,7 +30203,7 @@
         <v>0.675999999046326</v>
       </c>
       <c r="G1042" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30229,7 +30229,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1043" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30255,7 +30255,7 @@
         <v>0.688000023365021</v>
       </c>
       <c r="G1044" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30281,7 +30281,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1045" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30307,7 +30307,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1046" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30333,7 +30333,7 @@
         <v>0.674000024795532</v>
       </c>
       <c r="G1047" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30359,7 +30359,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1048" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30385,7 +30385,7 @@
         <v>0.646000027656555</v>
       </c>
       <c r="G1049" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30411,7 +30411,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1050" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30437,7 +30437,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1051" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30463,7 +30463,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1052" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30489,7 +30489,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1053" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30515,7 +30515,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1054" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30541,7 +30541,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1055" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30567,7 +30567,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1056" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30593,7 +30593,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1057" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30619,7 +30619,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1058" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30645,7 +30645,7 @@
         <v>0.53600001335144</v>
       </c>
       <c r="G1059" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30671,7 +30671,7 @@
         <v>0.522000014781952</v>
       </c>
       <c r="G1060" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30697,7 +30697,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1061" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -30723,7 +30723,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1062" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -30749,7 +30749,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1063" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -30775,7 +30775,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G1064" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -30801,7 +30801,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1065" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -30827,7 +30827,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1066" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -30853,7 +30853,7 @@
         <v>0.497999995946884</v>
       </c>
       <c r="G1067" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -30879,7 +30879,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1068" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -30905,7 +30905,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1069" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -30931,7 +30931,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1070" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -30957,7 +30957,7 @@
         <v>0.472000002861023</v>
       </c>
       <c r="G1071" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -30983,7 +30983,7 @@
         <v>0.474999994039536</v>
       </c>
       <c r="G1072" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31009,7 +31009,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1073" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31035,7 +31035,7 @@
         <v>0.527999997138977</v>
       </c>
       <c r="G1074" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31061,7 +31061,7 @@
         <v>0.537999987602234</v>
       </c>
       <c r="G1075" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31087,7 +31087,7 @@
         <v>0.551999986171722</v>
       </c>
       <c r="G1076" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31113,7 +31113,7 @@
         <v>0.547999978065491</v>
       </c>
       <c r="G1077" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31139,7 +31139,7 @@
         <v>0.546000003814697</v>
       </c>
       <c r="G1078" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31165,7 +31165,7 @@
         <v>0.546000003814697</v>
       </c>
       <c r="G1079" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31191,7 +31191,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1080" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31217,7 +31217,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1081" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31243,7 +31243,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1082" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31269,7 +31269,7 @@
         <v>0.614000022411346</v>
       </c>
       <c r="G1083" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31295,7 +31295,7 @@
         <v>0.625999987125397</v>
       </c>
       <c r="G1084" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31321,7 +31321,7 @@
         <v>0.607999980449677</v>
       </c>
       <c r="G1085" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31347,7 +31347,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1086" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31373,7 +31373,7 @@
         <v>0.600000023841858</v>
       </c>
       <c r="G1087" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31399,7 +31399,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1088" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31425,7 +31425,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1089" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31451,7 +31451,7 @@
         <v>0.578000009059906</v>
       </c>
       <c r="G1090" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31477,7 +31477,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1091" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31503,7 +31503,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1092" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31529,7 +31529,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1093" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31555,7 +31555,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1094" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31581,7 +31581,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1095" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31607,7 +31607,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1096" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31633,7 +31633,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1097" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31659,7 +31659,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1098" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31685,7 +31685,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1099" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31711,7 +31711,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1100" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31737,7 +31737,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1101" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31763,7 +31763,7 @@
         <v>0.555999994277954</v>
       </c>
       <c r="G1102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -31789,7 +31789,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1103" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -31815,7 +31815,7 @@
         <v>0.537999987602234</v>
       </c>
       <c r="G1104" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -31841,7 +31841,7 @@
         <v>0.544000029563904</v>
       </c>
       <c r="G1105" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -31867,7 +31867,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1106" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -31893,7 +31893,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1107" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -31919,7 +31919,7 @@
         <v>0.547999978065491</v>
       </c>
       <c r="G1108" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -31945,7 +31945,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -31971,7 +31971,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -31997,7 +31997,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32023,7 +32023,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1112" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32049,7 +32049,7 @@
         <v>0.575999975204468</v>
       </c>
       <c r="G1113" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32075,7 +32075,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32101,7 +32101,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1115" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32127,7 +32127,7 @@
         <v>0.606000006198883</v>
       </c>
       <c r="G1116" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32153,7 +32153,7 @@
         <v>0.63400000333786</v>
       </c>
       <c r="G1117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32179,7 +32179,7 @@
         <v>0.614000022411346</v>
       </c>
       <c r="G1118" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32205,7 +32205,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1119" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32231,7 +32231,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1120" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32257,7 +32257,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1121" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32283,7 +32283,7 @@
         <v>0.617999970912933</v>
       </c>
       <c r="G1122" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32309,7 +32309,7 @@
         <v>0.607999980449677</v>
       </c>
       <c r="G1123" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32335,7 +32335,7 @@
         <v>0.621999979019165</v>
       </c>
       <c r="G1124" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32361,7 +32361,7 @@
         <v>0.635999977588654</v>
       </c>
       <c r="G1125" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32387,7 +32387,7 @@
         <v>0.621999979019165</v>
       </c>
       <c r="G1126" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32413,7 +32413,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1127" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32439,7 +32439,7 @@
         <v>0.592000007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32465,7 +32465,7 @@
         <v>0.600000023841858</v>
       </c>
       <c r="G1129" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32491,7 +32491,7 @@
         <v>0.587999999523163</v>
       </c>
       <c r="G1130" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32517,7 +32517,7 @@
         <v>0.587999999523163</v>
       </c>
       <c r="G1131" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32543,7 +32543,7 @@
         <v>0.59799998998642</v>
       </c>
       <c r="G1132" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32569,7 +32569,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1133" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32595,7 +32595,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1134" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32621,7 +32621,7 @@
         <v>0.593999981880188</v>
       </c>
       <c r="G1135" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32647,7 +32647,7 @@
         <v>0.582000017166138</v>
       </c>
       <c r="G1136" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32673,7 +32673,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1137" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32699,7 +32699,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1138" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32725,7 +32725,7 @@
         <v>0.583999991416931</v>
       </c>
       <c r="G1139" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32751,7 +32751,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1140" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -32777,7 +32777,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1141" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -32803,7 +32803,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1142" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -32829,7 +32829,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1143" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -32855,7 +32855,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1144" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -32881,7 +32881,7 @@
         <v>0.578000009059906</v>
       </c>
       <c r="G1145" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -32907,7 +32907,7 @@
         <v>0.575999975204468</v>
       </c>
       <c r="G1146" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -32933,7 +32933,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1147" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -32959,7 +32959,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1148" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -32985,7 +32985,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1149" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33011,7 +33011,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1150" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33037,7 +33037,7 @@
         <v>0.547999978065491</v>
       </c>
       <c r="G1151" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33063,7 +33063,7 @@
         <v>0.544000029563904</v>
       </c>
       <c r="G1152" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33089,7 +33089,7 @@
         <v>0.541999995708466</v>
       </c>
       <c r="G1153" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33115,7 +33115,7 @@
         <v>0.551999986171722</v>
       </c>
       <c r="G1154" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33141,7 +33141,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1155" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33167,7 +33167,7 @@
         <v>0.554000020027161</v>
       </c>
       <c r="G1156" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33193,7 +33193,7 @@
         <v>0.558000028133392</v>
       </c>
       <c r="G1157" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33219,7 +33219,7 @@
         <v>0.564000010490417</v>
       </c>
       <c r="G1158" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33245,7 +33245,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1159" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33271,7 +33271,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1160" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33297,7 +33297,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1161" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33323,7 +33323,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1162" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33349,7 +33349,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1163" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33375,7 +33375,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1164" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33401,7 +33401,7 @@
         <v>0.578000009059906</v>
       </c>
       <c r="G1165" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33427,7 +33427,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1166" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33453,7 +33453,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1167" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33479,7 +33479,7 @@
         <v>0.574000000953674</v>
       </c>
       <c r="G1168" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33505,7 +33505,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1169" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33531,7 +33531,7 @@
         <v>0.587999999523163</v>
       </c>
       <c r="G1170" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33557,7 +33557,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1171" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33583,7 +33583,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1172" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33609,7 +33609,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1173" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33635,7 +33635,7 @@
         <v>0.565999984741211</v>
       </c>
       <c r="G1174" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33661,7 +33661,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1175" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33687,7 +33687,7 @@
         <v>0.568000018596649</v>
       </c>
       <c r="G1176" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33713,7 +33713,7 @@
         <v>0.572000026702881</v>
       </c>
       <c r="G1177" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33739,7 +33739,7 @@
         <v>0.61599999666214</v>
       </c>
       <c r="G1178" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33765,7 +33765,7 @@
         <v>0.776000022888184</v>
       </c>
       <c r="G1179" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -33791,7 +33791,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G1180" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -33817,7 +33817,7 @@
         <v>0.73199999332428</v>
       </c>
       <c r="G1181" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -33843,7 +33843,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1182" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -33869,7 +33869,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1183" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -33895,7 +33895,7 @@
         <v>0.723999977111816</v>
       </c>
       <c r="G1184" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -33921,7 +33921,7 @@
         <v>0.71399998664856</v>
       </c>
       <c r="G1185" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -33947,7 +33947,7 @@
         <v>0.720000028610229</v>
       </c>
       <c r="G1186" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -33973,7 +33973,7 @@
         <v>0.695999979972839</v>
       </c>
       <c r="G1187" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -33999,7 +33999,7 @@
         <v>0.705999970436096</v>
       </c>
       <c r="G1188" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34025,7 +34025,7 @@
         <v>0.699999988079071</v>
       </c>
       <c r="G1189" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34051,7 +34051,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1190" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34077,7 +34077,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1191" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34103,7 +34103,7 @@
         <v>0.685999989509583</v>
       </c>
       <c r="G1192" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34129,7 +34129,7 @@
         <v>0.680000007152557</v>
       </c>
       <c r="G1193" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34155,7 +34155,7 @@
         <v>0.675999999046326</v>
       </c>
       <c r="G1194" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34181,7 +34181,7 @@
         <v>0.675999999046326</v>
       </c>
       <c r="G1195" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34207,7 +34207,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1196" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34233,7 +34233,7 @@
         <v>0.691999971866608</v>
       </c>
       <c r="G1197" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34259,7 +34259,7 @@
         <v>0.670000016689301</v>
       </c>
       <c r="G1198" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34285,7 +34285,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1199" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34311,7 +34311,7 @@
         <v>0.663999974727631</v>
       </c>
       <c r="G1200" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34337,7 +34337,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G1201" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34363,7 +34363,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G1202" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34389,7 +34389,7 @@
         <v>0.653999984264374</v>
       </c>
       <c r="G1203" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34415,7 +34415,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G1204" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34441,7 +34441,7 @@
         <v>0.638000011444092</v>
       </c>
       <c r="G1205" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34467,7 +34467,7 @@
         <v>0.635999977588654</v>
       </c>
       <c r="G1206" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34493,7 +34493,7 @@
         <v>0.625999987125397</v>
       </c>
       <c r="G1207" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34519,7 +34519,7 @@
         <v>0.620000004768372</v>
       </c>
       <c r="G1208" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34545,7 +34545,7 @@
         <v>0.642000019550323</v>
       </c>
       <c r="G1209" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34571,7 +34571,7 @@
         <v>0.629999995231628</v>
       </c>
       <c r="G1210" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34597,7 +34597,7 @@
         <v>0.621999979019165</v>
       </c>
       <c r="G1211" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34623,7 +34623,7 @@
         <v>0.677999973297119</v>
       </c>
       <c r="G1212" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34649,7 +34649,7 @@
         <v>0.689999997615814</v>
       </c>
       <c r="G1213" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34675,7 +34675,7 @@
         <v>0.677999973297119</v>
       </c>
       <c r="G1214" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34701,7 +34701,7 @@
         <v>0.688000023365021</v>
       </c>
       <c r="G1215" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34727,7 +34727,7 @@
         <v>0.667999982833862</v>
       </c>
       <c r="G1216" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34753,7 +34753,7 @@
         <v>0.671999990940094</v>
       </c>
       <c r="G1217" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -34779,7 +34